--- a/Business - Technology Services/PLTR.xlsx
+++ b/Business - Technology Services/PLTR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222CD1D8-0667-4143-B4AC-53FC6A6B5BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D0567D-3C65-4672-A970-AB9AEAF25DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="DoR" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DoR!$A$1:$C$1</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$A$3</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$A$4</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
@@ -65,7 +66,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -74,7 +75,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 =Total Debt / Shareholders Equity
@@ -91,7 +92,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -100,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 EBIT (before Interest &amp; D&amp;A) / Interest Expense
@@ -117,7 +118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -126,7 +127,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Current Assets / Current Liabilities
@@ -143,7 +144,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -152,7 +153,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Cash + Marketable Securities + AR / Current Liabilities or
@@ -168,7 +169,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -177,7 +178,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Working Capital = Current Assets - Current Liabilities
@@ -196,7 +197,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -205,7 +206,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 BVPS = Stockholders Equity $ - Preffered Stock $ / Average Shares Outstanding
@@ -221,7 +222,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -230,7 +231,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Net Sales / Average Total Assets
@@ -246,7 +247,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -255,7 +256,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Net Income / Total Assets</t>
@@ -270,7 +271,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -279,7 +280,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Net Income / Shareholders Equity $</t>
@@ -294,7 +295,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -303,7 +304,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Last Annual Free Cash Flow per Share / Current Market Stock Price
@@ -984,14 +985,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1640,7 +1641,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1791,6 +1792,9 @@
     <xf numFmtId="167" fontId="11" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1848,14 +1852,6 @@
     <xf numFmtId="167" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -8176,13 +8172,13 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21</c:v>
@@ -14878,7 +14874,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14949,7 +14945,7 @@
         <v>592</v>
       </c>
       <c r="J3" s="39">
-        <f>I3/($C$7*100000)</f>
+        <f t="shared" ref="J3:J10" si="0">I3/($C$7*100000)</f>
         <v>2.7567631502724634E-6</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -14978,7 +14974,7 @@
         <v>4344</v>
       </c>
       <c r="J4" s="39">
-        <f>I4/($C$7*100000)</f>
+        <f t="shared" si="0"/>
         <v>2.0228680954026317E-5</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -15005,7 +15001,7 @@
         <v>6432260</v>
       </c>
       <c r="J5" s="39">
-        <f>I5/($C$7*100000)</f>
+        <f t="shared" si="0"/>
         <v>2.995306983272222E-2</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -15036,7 +15032,7 @@
         <v>1635520</v>
       </c>
       <c r="J6" s="39">
-        <f>I6/($C$7*100000)</f>
+        <f t="shared" si="0"/>
         <v>7.6161170059689514E-3</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -15067,7 +15063,7 @@
         <v>670136</v>
       </c>
       <c r="J7" s="39">
-        <f>I7/($C$7*100000)</f>
+        <f t="shared" si="0"/>
         <v>3.1206186325523438E-3</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -15099,7 +15095,7 @@
         <v>1502680</v>
       </c>
       <c r="J8" s="39">
-        <f>I8/($C$7*100000)</f>
+        <f t="shared" si="0"/>
         <v>6.9975217071814614E-3</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -15131,7 +15127,7 @@
         <v>191783</v>
       </c>
       <c r="J9" s="39">
-        <f>I9/($C$7*100000)</f>
+        <f t="shared" si="0"/>
         <v>8.9307484332551315E-4</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -15163,7 +15159,7 @@
         <v>18146</v>
       </c>
       <c r="J10" s="39">
-        <f>I10/($C$7*100000)</f>
+        <f t="shared" si="0"/>
         <v>8.4500378589263706E-5</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -15286,9 +15282,9 @@
       <c r="E17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="124"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="126"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="129"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -15298,9 +15294,9 @@
         <f>C14/C16</f>
         <v>32.222994648554305</v>
       </c>
-      <c r="L18" s="127"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="129"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="132"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -15310,9 +15306,9 @@
         <f>C15/C17</f>
         <v>297.94285714285712</v>
       </c>
-      <c r="L19" s="127"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="132"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -15322,9 +15318,9 @@
         <f>Model!G4/Model!F3-1</f>
         <v>0.21797095925774768</v>
       </c>
-      <c r="L20" s="127"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="129"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="132"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -15334,9 +15330,9 @@
         <f>Model!H4/Model!G4-1</f>
         <v>0.19188191881918826</v>
       </c>
-      <c r="L21" s="127"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="129"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="132"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -15346,9 +15342,9 @@
         <f>Model!F12</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="L22" s="127"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="129"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="132"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -15358,9 +15354,9 @@
         <f>Model!F12</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="L23" s="127"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="129"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="132"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -15370,9 +15366,9 @@
         <f>Model!F19</f>
         <v>0.80624598878567844</v>
       </c>
-      <c r="L24" s="127"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="129"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="132"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -15382,9 +15378,9 @@
         <f>Model!F20</f>
         <v>9.4302862186810721E-2</v>
       </c>
-      <c r="L25" s="127"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="129"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="132"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -15394,9 +15390,9 @@
         <f>Main!C12/Model!F12</f>
         <v>213.47607408125981</v>
       </c>
-      <c r="L26" s="127"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="129"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="132"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -15408,9 +15404,9 @@
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="129"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="132"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -15422,9 +15418,9 @@
       <c r="E28" t="s">
         <v>184</v>
       </c>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="132"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="135"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -15466,7 +15462,7 @@
       <c r="B34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="150">
+      <c r="C34" s="125">
         <f>Model!F15/Model!F38</f>
         <v>4.6396568212850424E-2</v>
       </c>
@@ -15475,7 +15471,7 @@
       <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="150">
+      <c r="C35" s="125">
         <f>Model!F15/Model!F51</f>
         <v>5.8923634464253395E-2</v>
       </c>
@@ -15587,19 +15583,19 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="143">
+      <c r="B3" s="10">
         <v>742.55499999999995</v>
       </c>
-      <c r="C3" s="143">
+      <c r="C3" s="10">
         <v>1092.673</v>
       </c>
-      <c r="D3" s="143">
+      <c r="D3" s="10">
         <v>1541.8889999999999</v>
       </c>
-      <c r="E3" s="143">
+      <c r="E3" s="10">
         <v>1905.8710000000001</v>
       </c>
-      <c r="F3" s="144">
+      <c r="F3" s="15">
         <v>2225.0120000000002</v>
       </c>
       <c r="G3" s="41"/>
@@ -15683,19 +15679,19 @@
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="143">
+      <c r="B5" s="10">
         <v>242.37299999999999</v>
       </c>
-      <c r="C5" s="143">
+      <c r="C5" s="10">
         <v>352.54700000000003</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="10">
         <v>339.404</v>
       </c>
-      <c r="E5" s="143">
+      <c r="E5" s="10">
         <v>408.54899999999998</v>
       </c>
-      <c r="F5" s="144">
+      <c r="F5" s="15">
         <v>431.10500000000002</v>
       </c>
       <c r="G5" s="41"/>
@@ -15770,7 +15766,7 @@
       <c r="M6" s="10">
         <v>153.44300000000001</v>
       </c>
-      <c r="N6" s="143">
+      <c r="N6" s="10">
         <f>D6-M6-L6-K6</f>
         <v>162.59299999999993</v>
       </c>
@@ -15783,7 +15779,7 @@
       <c r="Q6" s="10">
         <v>182.91800000000001</v>
       </c>
-      <c r="R6" s="143">
+      <c r="R6" s="10">
         <f>E6-Q6-P6-O6</f>
         <v>190.23299999999995</v>
       </c>
@@ -15796,7 +15792,7 @@
       <c r="U6" s="10">
         <v>176.37299999999999</v>
       </c>
-      <c r="V6" s="144">
+      <c r="V6" s="15">
         <f>F6-U6-T6-S6</f>
         <v>197.36299999999991</v>
       </c>
@@ -15831,7 +15827,7 @@
       <c r="M7" s="10">
         <v>94.316000000000003</v>
       </c>
-      <c r="N7" s="143">
+      <c r="N7" s="10">
         <f>D7-M7-L7-K7</f>
         <v>84.176000000000045</v>
       </c>
@@ -15844,7 +15840,7 @@
       <c r="Q7" s="10">
         <v>100.863</v>
       </c>
-      <c r="R7" s="143">
+      <c r="R7" s="10">
         <f>E7-Q7-P7-O7</f>
         <v>82.043999999999983</v>
       </c>
@@ -15857,7 +15853,7 @@
       <c r="U7" s="10">
         <v>105.708</v>
       </c>
-      <c r="V7" s="144">
+      <c r="V7" s="15">
         <f>F7-U7-T7-S7</f>
         <v>109.28300000000004</v>
       </c>
@@ -15892,7 +15888,7 @@
       <c r="M8" s="10">
         <v>149.524</v>
       </c>
-      <c r="N8" s="143">
+      <c r="N8" s="10">
         <f>D8-M8-L8-K8</f>
         <v>157.47800000000004</v>
       </c>
@@ -15905,7 +15901,7 @@
       <c r="Q8" s="10">
         <v>148.679</v>
       </c>
-      <c r="R8" s="143">
+      <c r="R8" s="10">
         <f>E8-Q8-P8-O8</f>
         <v>149.86199999999999</v>
       </c>
@@ -15918,7 +15914,7 @@
       <c r="U8" s="10">
         <v>128.173</v>
       </c>
-      <c r="V8" s="144">
+      <c r="V8" s="15">
         <f>F8-U8-T8-S8</f>
         <v>127.27100000000002</v>
       </c>
@@ -16050,7 +16046,7 @@
         <f>0.379-0.609</f>
         <v>-0.22999999999999998</v>
       </c>
-      <c r="N10" s="143">
+      <c r="N10" s="10">
         <f>D10-M10-L10-K10</f>
         <v>-0.12100000000000044</v>
       </c>
@@ -16066,7 +16062,7 @@
         <f>5.54-1.082</f>
         <v>4.4580000000000002</v>
       </c>
-      <c r="R10" s="143">
+      <c r="R10" s="10">
         <f>E10-Q10-P10-O10</f>
         <v>11.038000000000002</v>
       </c>
@@ -16082,7 +16078,7 @@
         <f>36.864-0.742</f>
         <v>36.122</v>
       </c>
-      <c r="V10" s="144">
+      <c r="V10" s="15">
         <f t="shared" ref="V10:V11" si="15">F10-U10-T10-S10</f>
         <v>44.409000000000006</v>
       </c>
@@ -16119,7 +16115,7 @@
       <c r="M11" s="10">
         <v>-8.5280000000000005</v>
       </c>
-      <c r="N11" s="143">
+      <c r="N11" s="10">
         <f>D11-M11-L11-K11</f>
         <v>-64.117999999999995</v>
       </c>
@@ -16132,7 +16128,7 @@
       <c r="Q11" s="10">
         <v>-65.046000000000006</v>
       </c>
-      <c r="R11" s="143">
+      <c r="R11" s="10">
         <f>E11-Q11-P11-O11</f>
         <v>44.636999999999993</v>
       </c>
@@ -16145,7 +16141,7 @@
       <c r="U11" s="10">
         <v>3.8639999999999999</v>
       </c>
-      <c r="V11" s="144">
+      <c r="V11" s="15">
         <f t="shared" si="15"/>
         <v>-3.9560000000000017</v>
       </c>
@@ -16183,51 +16179,51 @@
         <v>0</v>
       </c>
       <c r="K12" s="11">
-        <f>K9+K10+K11</f>
+        <f t="shared" ref="K12:V12" si="17">K9+K10+K11</f>
         <v>-120.37200000000001</v>
       </c>
       <c r="L12" s="11">
-        <f>L9+L10+L11</f>
+        <f t="shared" si="17"/>
         <v>-144.24099999999999</v>
       </c>
       <c r="M12" s="11">
-        <f>M9+M10+M11</f>
+        <f t="shared" si="17"/>
         <v>-100.69900000000004</v>
       </c>
       <c r="N12" s="11">
-        <f>N9+N10+N11</f>
+        <f t="shared" si="17"/>
         <v>-123.1820000000001</v>
       </c>
       <c r="O12" s="11">
-        <f>O9+O10+O11</f>
+        <f t="shared" si="17"/>
         <v>-99.355999999999995</v>
       </c>
       <c r="P12" s="11">
-        <f>P9+P10+P11</f>
+        <f t="shared" si="17"/>
         <v>-176.74100000000001</v>
       </c>
       <c r="Q12" s="11">
-        <f>Q9+Q10+Q11</f>
+        <f t="shared" si="17"/>
         <v>-122.77900000000001</v>
       </c>
       <c r="R12" s="11">
-        <f>R9+R10+R11</f>
+        <f t="shared" si="17"/>
         <v>37.849000000000061</v>
       </c>
       <c r="S12" s="11">
-        <f>S9+S10+S11</f>
+        <f t="shared" si="17"/>
         <v>20.832000000000068</v>
       </c>
       <c r="T12" s="11">
-        <f>T9+T10+T11</f>
+        <f t="shared" si="17"/>
         <v>30.042999999999978</v>
       </c>
       <c r="U12" s="11">
-        <f>U9+U10+U11</f>
+        <f t="shared" si="17"/>
         <v>79.96899999999998</v>
       </c>
       <c r="V12" s="14">
-        <f>V9+V10+V11</f>
+        <f t="shared" si="17"/>
         <v>106.24700000000001</v>
       </c>
     </row>
@@ -16261,7 +16257,7 @@
       <c r="M13" s="10">
         <v>1.4379999999999999</v>
       </c>
-      <c r="N13" s="143">
+      <c r="N13" s="10">
         <f>D13-M13-L13-K13</f>
         <v>33.006000000000007</v>
       </c>
@@ -16274,7 +16270,7 @@
       <c r="Q13" s="10">
         <v>1.0960000000000001</v>
       </c>
-      <c r="R13" s="143">
+      <c r="R13" s="10">
         <f>E13-Q13-P13-O13</f>
         <v>4.3599999999999994</v>
       </c>
@@ -16287,8 +16283,8 @@
       <c r="U13" s="10">
         <v>6.53</v>
       </c>
-      <c r="V13" s="144">
-        <f t="shared" ref="V13:V14" si="17">F13-U13-T13-S13</f>
+      <c r="V13" s="15">
+        <f t="shared" ref="V13:V14" si="18">F13-U13-T13-S13</f>
         <v>9.3339999999999996</v>
       </c>
     </row>
@@ -16322,7 +16318,7 @@
       <c r="M14" s="10">
         <v>0</v>
       </c>
-      <c r="N14" s="143">
+      <c r="N14" s="10">
         <f>D14-M14-L14-K14</f>
         <v>0</v>
       </c>
@@ -16335,7 +16331,7 @@
       <c r="Q14" s="10">
         <v>0</v>
       </c>
-      <c r="R14" s="143">
+      <c r="R14" s="10">
         <f>E14-Q14-P14-O14</f>
         <v>2.6110000000000002</v>
       </c>
@@ -16348,8 +16344,8 @@
       <c r="U14" s="10">
         <v>1.9339999999999999</v>
       </c>
-      <c r="V14" s="144">
-        <f t="shared" si="17"/>
+      <c r="V14" s="15">
+        <f t="shared" si="18"/>
         <v>-11.577999999999999</v>
       </c>
     </row>
@@ -16357,19 +16353,19 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="145">
+      <c r="B15" s="11">
         <f>B12-B13+B14</f>
         <v>-579.64599999999996</v>
       </c>
-      <c r="C15" s="145">
+      <c r="C15" s="11">
         <f>C12-C13+C14</f>
         <v>-1166.3910000000001</v>
       </c>
-      <c r="D15" s="145">
+      <c r="D15" s="11">
         <f>D12-D13+D14</f>
         <v>-520.37900000000013</v>
       </c>
-      <c r="E15" s="145">
+      <c r="E15" s="11">
         <f>E12-E13+E14</f>
         <v>-368.48299999999983</v>
       </c>
@@ -16392,11 +16388,11 @@
         <v>-102.13700000000004</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" ref="N15:R15" si="18">N12+N13+N14</f>
+        <f t="shared" ref="N15:R15" si="19">N12+N13+N14</f>
         <v>-90.176000000000101</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-97.332999999999998</v>
       </c>
       <c r="P15" s="11">
@@ -16408,7 +16404,7 @@
         <v>-123.87500000000001</v>
       </c>
       <c r="R15" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>44.820000000000057</v>
       </c>
       <c r="S15" s="11">
@@ -16523,43 +16519,43 @@
       <c r="G17" s="58"/>
       <c r="H17" s="59"/>
       <c r="K17" s="2">
-        <f t="shared" ref="K17" si="19">K15/K16</f>
+        <f t="shared" ref="K17" si="20">K15/K16</f>
         <v>-6.7799718640557283E-2</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ref="L17" si="20">L15/L16</f>
+        <f t="shared" ref="L17" si="21">L15/L16</f>
         <v>-7.3144495478215513E-2</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" ref="M17" si="21">M15/M16</f>
+        <f t="shared" ref="M17" si="22">M15/M16</f>
         <v>-5.1994125417749511E-2</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17:T17" si="22">N15/N16</f>
+        <f t="shared" ref="N17:T17" si="23">N15/N16</f>
         <v>-4.6878354682870917E-2</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-4.7798784760844017E-2</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-8.7273256410967698E-2</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-5.9748753777254728E-2</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.1717294321668915E-2</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.9714201671901557E-3</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3197580357578544E-2</v>
       </c>
       <c r="U17" s="2">
@@ -16634,51 +16630,51 @@
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="K19" s="3">
-        <f>1-K5/K3</f>
+        <f t="shared" ref="K19:V19" si="24">1-K5/K3</f>
         <v>0.78281472537906538</v>
       </c>
       <c r="L19" s="3">
-        <f>1-L5/L3</f>
+        <f t="shared" si="24"/>
         <v>0.75794506471587308</v>
       </c>
       <c r="M19" s="3">
-        <f>1-M5/M3</f>
+        <f t="shared" si="24"/>
         <v>0.77864366842961552</v>
       </c>
       <c r="N19" s="3">
-        <f>1-N5/N3</f>
+        <f t="shared" si="24"/>
         <v>0.79771384744043783</v>
       </c>
       <c r="O19" s="3">
-        <f>1-O5/O3</f>
+        <f t="shared" si="24"/>
         <v>0.78850337286073702</v>
       </c>
       <c r="P19" s="3">
-        <f>1-P5/P3</f>
+        <f t="shared" si="24"/>
         <v>0.78388617576795416</v>
       </c>
       <c r="Q19" s="3">
-        <f>1-Q5/Q3</f>
+        <f t="shared" si="24"/>
         <v>0.77481585335230596</v>
       </c>
       <c r="R19" s="3">
-        <f>1-R5/R3</f>
+        <f t="shared" si="24"/>
         <v>0.79491530089024509</v>
       </c>
       <c r="S19" s="3">
-        <f>1-S5/S3</f>
+        <f t="shared" si="24"/>
         <v>0.79503452110299966</v>
       </c>
       <c r="T19" s="3">
-        <f>1-T5/T3</f>
+        <f t="shared" si="24"/>
         <v>0.79955823647099189</v>
       </c>
       <c r="U19" s="3">
-        <f>1-U5/U3</f>
+        <f t="shared" si="24"/>
         <v>0.80664649320354953</v>
       </c>
       <c r="V19" s="6">
-        <f>1-V5/V3</f>
+        <f t="shared" si="24"/>
         <v>0.82142023506205308</v>
       </c>
     </row>
@@ -16715,51 +16711,51 @@
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <f>K15/K3</f>
+        <f t="shared" ref="K20:V20" si="25">K15/K3</f>
         <v>-0.3618455370801269</v>
       </c>
       <c r="L20" s="4">
-        <f>L15/L3</f>
+        <f t="shared" si="25"/>
         <v>-0.36891508404278539</v>
       </c>
       <c r="M20" s="4">
-        <f>M15/M3</f>
+        <f t="shared" si="25"/>
         <v>-0.2604565646468408</v>
       </c>
       <c r="N20" s="4">
-        <f>N15/N3</f>
+        <f t="shared" si="25"/>
         <v>-0.20832264875816386</v>
       </c>
       <c r="O20" s="4">
-        <f>O15/O3</f>
+        <f t="shared" si="25"/>
         <v>-0.21806087952020467</v>
       </c>
       <c r="P20" s="4">
-        <f>P15/P3</f>
+        <f t="shared" si="25"/>
         <v>-0.37912306293735865</v>
       </c>
       <c r="Q20" s="4">
-        <f>Q15/Q3</f>
+        <f t="shared" si="25"/>
         <v>-0.25921779526240901</v>
       </c>
       <c r="R20" s="4">
-        <f>R15/R3</f>
+        <f t="shared" si="25"/>
         <v>8.8120104438642419E-2</v>
       </c>
       <c r="S20" s="4">
-        <f>S15/S3</f>
+        <f t="shared" si="25"/>
         <v>3.1992475046935878E-2</v>
       </c>
       <c r="T20" s="4">
-        <f>T15/T3</f>
+        <f t="shared" si="25"/>
         <v>5.2739740154542192E-2</v>
       </c>
       <c r="U20" s="4">
-        <f>U15/U3</f>
+        <f t="shared" si="25"/>
         <v>0.12810865721057976</v>
       </c>
       <c r="V20" s="7">
-        <f>V15/V3</f>
+        <f t="shared" si="25"/>
         <v>0.17833648393194709</v>
       </c>
     </row>
@@ -16797,35 +16793,35 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4">
-        <f>O3/K3-1</f>
+        <f t="shared" ref="O21:V21" si="26">O3/K3-1</f>
         <v>0.30806719142875583</v>
       </c>
       <c r="P21" s="4">
-        <f>P3/L3-1</f>
+        <f t="shared" si="26"/>
         <v>0.25920424233711881</v>
       </c>
       <c r="Q21" s="4">
-        <f>Q3/M3-1</f>
+        <f t="shared" si="26"/>
         <v>0.21862775598884077</v>
       </c>
       <c r="R21" s="4">
-        <f>R3/N3-1</f>
+        <f t="shared" si="26"/>
         <v>0.17501218619113978</v>
       </c>
       <c r="S21" s="4">
-        <f>S3/O3-1</f>
+        <f t="shared" si="26"/>
         <v>0.1766052733574246</v>
       </c>
       <c r="T21" s="4">
-        <f>T3/P3-1</f>
+        <f t="shared" si="26"/>
         <v>0.12749624743662924</v>
       </c>
       <c r="U21" s="4">
-        <f>U3/Q3-1</f>
+        <f t="shared" si="26"/>
         <v>0.16798987193437687</v>
       </c>
       <c r="V21" s="7">
-        <f>V3/R3-1</f>
+        <f t="shared" si="26"/>
         <v>0.19607018150932731</v>
       </c>
       <c r="W21" s="37">
@@ -16841,69 +16837,69 @@
       <c r="A22" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="149">
-        <f t="shared" ref="B22:E22" si="23">B7/B3</f>
+      <c r="B22" s="4">
+        <f t="shared" ref="B22:E22" si="27">B7/B3</f>
         <v>0.41150217828982366</v>
       </c>
-      <c r="C22" s="149">
-        <f t="shared" si="23"/>
+      <c r="C22" s="4">
+        <f t="shared" si="27"/>
         <v>0.51310867935786819</v>
       </c>
-      <c r="D22" s="149">
-        <f t="shared" si="23"/>
+      <c r="D22" s="4">
+        <f t="shared" si="27"/>
         <v>0.25130667642093563</v>
       </c>
-      <c r="E22" s="149">
-        <f t="shared" si="23"/>
+      <c r="E22" s="4">
+        <f t="shared" si="27"/>
         <v>0.18872158713784928</v>
       </c>
-      <c r="F22" s="149">
-        <f t="shared" ref="F22" si="24">F7/F3</f>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22" si="28">F7/F3</f>
         <v>0.18185250236852654</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
-      <c r="K22" s="149">
-        <f t="shared" ref="K22:T22" si="25">K7/K3</f>
+      <c r="K22" s="4">
+        <f t="shared" ref="K22:T22" si="29">K7/K3</f>
         <v>0.28857323713346267</v>
       </c>
-      <c r="L22" s="149">
-        <f t="shared" si="25"/>
+      <c r="L22" s="4">
+        <f t="shared" si="29"/>
         <v>0.29422695012804745</v>
       </c>
-      <c r="M22" s="149">
-        <f t="shared" si="25"/>
+      <c r="M22" s="4">
+        <f t="shared" si="29"/>
         <v>0.24051246219520281</v>
       </c>
-      <c r="N22" s="149">
-        <f t="shared" si="25"/>
+      <c r="N22" s="4">
+        <f t="shared" si="29"/>
         <v>0.19446157826768976</v>
       </c>
-      <c r="O22" s="149">
-        <f t="shared" si="25"/>
+      <c r="O22" s="4">
+        <f t="shared" si="29"/>
         <v>0.19849806320949373</v>
       </c>
-      <c r="P22" s="149">
-        <f t="shared" si="25"/>
+      <c r="P22" s="4">
+        <f t="shared" si="29"/>
         <v>0.18640409293672439</v>
       </c>
-      <c r="Q22" s="149">
-        <f t="shared" si="25"/>
+      <c r="Q22" s="4">
+        <f t="shared" si="29"/>
         <v>0.21106344689043274</v>
       </c>
-      <c r="R22" s="149">
-        <f t="shared" si="25"/>
+      <c r="R22" s="4">
+        <f t="shared" si="29"/>
         <v>0.16130579760294439</v>
       </c>
-      <c r="S22" s="149">
-        <f t="shared" si="25"/>
+      <c r="S22" s="4">
+        <f t="shared" si="29"/>
         <v>0.17155826697589041</v>
       </c>
-      <c r="T22" s="149">
-        <f t="shared" si="25"/>
+      <c r="T22" s="4">
+        <f t="shared" si="29"/>
         <v>0.18663009054652299</v>
       </c>
-      <c r="U22" s="149">
+      <c r="U22" s="4">
         <f>U7/U3</f>
         <v>0.18938689513203227</v>
       </c>
@@ -16911,8 +16907,8 @@
         <f>V7/V3</f>
         <v>0.17963836607216246</v>
       </c>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -16941,51 +16937,51 @@
       <c r="G23" s="49"/>
       <c r="H23" s="48"/>
       <c r="K23" s="4">
-        <f>K6/K3</f>
+        <f t="shared" ref="K23:V23" si="30">K6/K3</f>
         <v>0.39883774770392172</v>
       </c>
       <c r="L23" s="4">
-        <f>L6/L3</f>
+        <f t="shared" si="30"/>
         <v>0.4322706193663115</v>
       </c>
       <c r="M23" s="4">
-        <f>M6/M3</f>
+        <f t="shared" si="30"/>
         <v>0.39129048874653827</v>
       </c>
       <c r="N23" s="4">
-        <f>N6/N3</f>
+        <f t="shared" si="30"/>
         <v>0.37561883904293919</v>
       </c>
       <c r="O23" s="4">
-        <f>O6/O3</f>
+        <f t="shared" si="30"/>
         <v>0.35954404210082963</v>
       </c>
       <c r="P23" s="4">
-        <f>P6/P3</f>
+        <f t="shared" si="30"/>
         <v>0.35702205027377859</v>
       </c>
       <c r="Q23" s="4">
-        <f>Q6/Q3</f>
+        <f t="shared" si="30"/>
         <v>0.38276973298736083</v>
       </c>
       <c r="R23" s="4">
-        <f>R6/R3</f>
+        <f t="shared" si="30"/>
         <v>0.37401498946176343</v>
       </c>
       <c r="S23" s="4">
-        <f>S6/S3</f>
+        <f t="shared" si="30"/>
         <v>0.35624140780599628</v>
       </c>
       <c r="T23" s="4">
-        <f>T6/T3</f>
+        <f t="shared" si="30"/>
         <v>0.34531620030863447</v>
       </c>
       <c r="U23" s="4">
-        <f>U6/U3</f>
+        <f t="shared" si="30"/>
         <v>0.31599060482765662</v>
       </c>
       <c r="V23" s="7">
-        <f>V6/V3</f>
+        <f t="shared" si="30"/>
         <v>0.32442344045368604</v>
       </c>
       <c r="W23" s="4"/>
@@ -17006,47 +17002,47 @@
         <v>0.42952636607137623</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" ref="L24:V24" si="26">L8/L3</f>
+        <f t="shared" ref="L24:V24" si="31">L8/L3</f>
         <v>0.42050942120423174</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.3812967619203052</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.36380227644981039</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.31881879302889837</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.32871398067694135</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.31112203900560809</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.29464201453332917</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.25939952702471125</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.24872261713014959</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.2296352831361673</v>
       </c>
       <c r="V24" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.20920687104462893</v>
       </c>
       <c r="W24" s="4"/>
@@ -17085,35 +17081,35 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4">
-        <f>O15/K15-1</f>
+        <f t="shared" ref="O25:V25" si="32">O15/K15-1</f>
         <v>-0.21171258726533537</v>
       </c>
       <c r="P25" s="4">
-        <f>P15/L15-1</f>
+        <f t="shared" si="32"/>
         <v>0.29404675999422736</v>
       </c>
       <c r="Q25" s="4">
-        <f>Q15/M15-1</f>
+        <f t="shared" si="32"/>
         <v>0.21283178475968523</v>
       </c>
       <c r="R25" s="4">
-        <f>R15/N15-1</f>
+        <f t="shared" si="32"/>
         <v>-1.4970280340667141</v>
       </c>
       <c r="S25" s="4">
-        <f>S15/O15-1</f>
+        <f t="shared" si="32"/>
         <v>-1.172623878848901</v>
       </c>
       <c r="T25" s="4">
-        <f>T15/P15-1</f>
+        <f t="shared" si="32"/>
         <v>-1.1568457973891562</v>
       </c>
       <c r="U25" s="4">
-        <f>U15/Q15-1</f>
+        <f t="shared" si="32"/>
         <v>-1.5772351160443994</v>
       </c>
       <c r="V25" s="7">
-        <f>V15/R15-1</f>
+        <f t="shared" si="32"/>
         <v>1.4205934850513136</v>
       </c>
       <c r="W25" s="4">
@@ -17149,51 +17145,51 @@
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
       <c r="K26" s="40">
-        <f t="shared" ref="K26:V26" si="27">(K15+K7)/K3</f>
+        <f t="shared" ref="K26:V26" si="33">(K15+K7)/K3</f>
         <v>-7.3272299946664218E-2</v>
       </c>
       <c r="L26" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-7.4688133914737928E-2</v>
       </c>
       <c r="M26" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.9944102451638013E-2</v>
       </c>
       <c r="N26" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.3861070490474114E-2</v>
       </c>
       <c r="O26" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.9562816310710929E-2</v>
       </c>
       <c r="P26" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.19271897000063423</v>
       </c>
       <c r="Q26" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-4.8154348371976262E-2</v>
       </c>
       <c r="R26" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.24942590204158679</v>
       </c>
       <c r="S26" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.2035507420228263</v>
       </c>
       <c r="T26" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.23936983070106518</v>
       </c>
       <c r="U26" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.31749555234261201</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.35797485000410956</v>
       </c>
       <c r="W26" s="4"/>
@@ -17208,67 +17204,67 @@
         <v>1003.2130000000001</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" ref="C29:F29" si="28">C30+C32-C39-C40-C48</f>
+        <f t="shared" ref="C29:F29" si="34">C30+C32-C39-C40-C48</f>
         <v>1800.8359999999998</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>2067.366</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>2435.078</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>785.50200000000007</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" ref="K29" si="29">K30+K32-K39-K40-K48</f>
+        <f t="shared" ref="K29" si="35">K30+K32-K39-K40-K48</f>
         <v>0</v>
       </c>
       <c r="L29" s="11">
-        <f t="shared" ref="L29" si="30">L30+L32-L39-L40-L48</f>
+        <f t="shared" ref="L29" si="36">L30+L32-L39-L40-L48</f>
         <v>0</v>
       </c>
       <c r="M29" s="11">
-        <f t="shared" ref="M29" si="31">M30+M32-M39-M40-M48</f>
+        <f t="shared" ref="M29" si="37">M30+M32-M39-M40-M48</f>
         <v>0</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" ref="N29" si="32">N30+N32-N39-N40-N48</f>
+        <f t="shared" ref="N29" si="38">N30+N32-N39-N40-N48</f>
         <v>2067.366</v>
       </c>
       <c r="O29" s="11">
-        <f t="shared" ref="O29" si="33">O30+O32-O39-O40-O48</f>
+        <f t="shared" ref="O29" si="39">O30+O32-O39-O40-O48</f>
         <v>2150.5309999999999</v>
       </c>
       <c r="P29" s="11">
-        <f t="shared" ref="P29" si="34">P30+P32-P39-P40-P48</f>
+        <f t="shared" ref="P29" si="40">P30+P32-P39-P40-P48</f>
         <v>2025.3030000000001</v>
       </c>
       <c r="Q29" s="11">
-        <f t="shared" ref="Q29" si="35">Q30+Q32-Q39-Q40-Q48</f>
+        <f t="shared" ref="Q29" si="41">Q30+Q32-Q39-Q40-Q48</f>
         <v>2060.0819999999999</v>
       </c>
       <c r="R29" s="11">
-        <f t="shared" ref="R29" si="36">R30+R32-R39-R40-R48</f>
+        <f t="shared" ref="R29" si="42">R30+R32-R39-R40-R48</f>
         <v>2435.078</v>
       </c>
       <c r="S29" s="11">
-        <f t="shared" ref="S29" si="37">S30+S32-S39-S40-S48</f>
+        <f t="shared" ref="S29" si="43">S30+S32-S39-S40-S48</f>
         <v>1145.2479999999998</v>
       </c>
       <c r="T29" s="11">
-        <f t="shared" ref="T29" si="38">T30+T32-T39-T40-T48</f>
+        <f t="shared" ref="T29" si="44">T30+T32-T39-T40-T48</f>
         <v>1048.3150000000001</v>
       </c>
       <c r="U29" s="11">
-        <f t="shared" ref="U29" si="39">U30+U32-U39-U40-U48</f>
+        <f t="shared" ref="U29" si="45">U30+U32-U39-U40-U48</f>
         <v>1102.2840000000001</v>
       </c>
       <c r="V29" s="14">
-        <f t="shared" ref="V29" si="40">V30+V32-V39-V40-V48</f>
+        <f t="shared" ref="V29" si="46">V30+V32-V39-V40-V48</f>
         <v>785.50200000000007</v>
       </c>
     </row>
@@ -17297,7 +17293,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="146">
+      <c r="N30" s="10">
         <f>D30</f>
         <v>2327.3020000000001</v>
       </c>
@@ -17313,7 +17309,7 @@
         <f>2411.29+20.557</f>
         <v>2431.8469999999998</v>
       </c>
-      <c r="R30" s="146">
+      <c r="R30" s="10">
         <f>E30</f>
         <v>2598.54</v>
       </c>
@@ -17355,8 +17351,8 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="146">
-        <f t="shared" ref="N31:N33" si="41">D31</f>
+      <c r="N31" s="10">
+        <f t="shared" ref="N31:N33" si="47">D31</f>
         <v>234.15299999999999</v>
       </c>
       <c r="O31" s="10">
@@ -17368,8 +17364,8 @@
       <c r="Q31" s="10">
         <v>343.26400000000001</v>
       </c>
-      <c r="R31" s="146">
-        <f t="shared" ref="R31:R33" si="42">E31</f>
+      <c r="R31" s="10">
+        <f t="shared" ref="R31:R33" si="48">E31</f>
         <v>35.134999999999998</v>
       </c>
       <c r="S31" s="10">
@@ -17382,7 +17378,7 @@
         <v>2243.2640000000001</v>
       </c>
       <c r="V31" s="15">
-        <f t="shared" ref="V31:V33" si="43">F31</f>
+        <f t="shared" ref="V31:V33" si="49">F31</f>
         <v>2843.1320000000001</v>
       </c>
     </row>
@@ -17408,8 +17404,8 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="146">
-        <f t="shared" si="41"/>
+      <c r="N32" s="10">
+        <f t="shared" si="47"/>
         <v>190.923</v>
       </c>
       <c r="O32" s="10">
@@ -17421,8 +17417,8 @@
       <c r="Q32" s="10">
         <v>57.341999999999999</v>
       </c>
-      <c r="R32" s="146">
-        <f t="shared" si="42"/>
+      <c r="R32" s="10">
+        <f t="shared" si="48"/>
         <v>258.346</v>
       </c>
       <c r="S32" s="10">
@@ -17435,7 +17431,7 @@
         <v>430.26900000000001</v>
       </c>
       <c r="V32" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>364.78399999999999</v>
       </c>
     </row>
@@ -17461,8 +17457,8 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="146">
-        <f t="shared" si="41"/>
+      <c r="N33" s="10">
+        <f t="shared" si="47"/>
         <v>110.872</v>
       </c>
       <c r="O33" s="10">
@@ -17474,8 +17470,8 @@
       <c r="Q33" s="10">
         <v>114.157</v>
       </c>
-      <c r="R33" s="146">
-        <f t="shared" si="42"/>
+      <c r="R33" s="10">
+        <f t="shared" si="48"/>
         <v>149.55600000000001</v>
       </c>
       <c r="S33" s="10">
@@ -17488,7 +17484,7 @@
         <v>95.554000000000002</v>
       </c>
       <c r="V33" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>99.655000000000001</v>
       </c>
     </row>
@@ -17517,51 +17513,51 @@
         <v>4138.6180000000004</v>
       </c>
       <c r="K34" s="11">
-        <f>SUM(K30:K33)</f>
+        <f t="shared" ref="K34:V34" si="50">SUM(K30:K33)</f>
         <v>0</v>
       </c>
       <c r="L34" s="11">
-        <f>SUM(L30:L33)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M34" s="11">
-        <f>SUM(M30:M33)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="N34" s="145">
-        <f>SUM(N30:N33)</f>
+      <c r="N34" s="11">
+        <f t="shared" si="50"/>
         <v>2863.2499999999995</v>
       </c>
       <c r="O34" s="11">
-        <f>SUM(O30:O33)</f>
+        <f t="shared" si="50"/>
         <v>2927.3740000000003</v>
       </c>
       <c r="P34" s="11">
-        <f>SUM(P30:P33)</f>
+        <f t="shared" si="50"/>
         <v>2902.4390000000003</v>
       </c>
       <c r="Q34" s="11">
-        <f>SUM(Q30:Q33)</f>
+        <f t="shared" si="50"/>
         <v>2946.61</v>
       </c>
-      <c r="R34" s="145">
-        <f>SUM(R30:R33)</f>
+      <c r="R34" s="11">
+        <f t="shared" si="50"/>
         <v>3041.5770000000002</v>
       </c>
       <c r="S34" s="11">
-        <f>SUM(S30:S33)</f>
+        <f t="shared" si="50"/>
         <v>3256.1469999999999</v>
       </c>
       <c r="T34" s="11">
-        <f>SUM(T30:T33)</f>
+        <f t="shared" si="50"/>
         <v>3576.9139999999998</v>
       </c>
       <c r="U34" s="11">
-        <f>SUM(U30:U33)</f>
+        <f t="shared" si="50"/>
         <v>3809.3969999999999</v>
       </c>
       <c r="V34" s="14">
-        <f>SUM(V30:V33)</f>
+        <f t="shared" si="50"/>
         <v>4138.6180000000004</v>
       </c>
     </row>
@@ -17588,8 +17584,8 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="146">
-        <f t="shared" ref="N35:N37" si="44">D35</f>
+      <c r="N35" s="10">
+        <f t="shared" ref="N35:N37" si="51">D35</f>
         <v>31.303999999999998</v>
       </c>
       <c r="O35" s="10">
@@ -17601,8 +17597,8 @@
       <c r="Q35" s="10">
         <v>57.822000000000003</v>
       </c>
-      <c r="R35" s="146">
-        <f t="shared" ref="R35:R37" si="45">E35</f>
+      <c r="R35" s="10">
+        <f t="shared" ref="R35:R37" si="52">E35</f>
         <v>69.17</v>
       </c>
       <c r="S35" s="10">
@@ -17615,7 +17611,7 @@
         <v>50.133000000000003</v>
       </c>
       <c r="V35" s="15">
-        <f t="shared" ref="V35:V37" si="46">F35</f>
+        <f t="shared" ref="V35:V37" si="53">F35</f>
         <v>47.758000000000003</v>
       </c>
     </row>
@@ -17639,8 +17635,8 @@
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="146">
-        <f t="shared" si="44"/>
+      <c r="N36" s="10">
+        <f t="shared" si="51"/>
         <v>216.898</v>
       </c>
       <c r="O36" s="10">
@@ -17652,8 +17648,8 @@
       <c r="Q36" s="10">
         <v>199.35900000000001</v>
       </c>
-      <c r="R36" s="146">
-        <f t="shared" si="45"/>
+      <c r="R36" s="10">
+        <f t="shared" si="52"/>
         <v>200.24</v>
       </c>
       <c r="S36" s="10">
@@ -17666,7 +17662,7 @@
         <v>190.191</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>182.863</v>
       </c>
     </row>
@@ -17694,8 +17690,8 @@
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="146">
-        <f t="shared" si="44"/>
+      <c r="N37" s="10">
+        <f t="shared" si="51"/>
         <v>135.99799999999999</v>
       </c>
       <c r="O37" s="10">
@@ -17710,8 +17706,8 @@
         <f>20.902+94.142</f>
         <v>115.044</v>
       </c>
-      <c r="R37" s="146">
-        <f t="shared" si="45"/>
+      <c r="R37" s="10">
+        <f t="shared" si="52"/>
         <v>150.25200000000001</v>
       </c>
       <c r="S37" s="10">
@@ -17725,7 +17721,7 @@
         <v>143.696</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>153.18600000000001</v>
       </c>
     </row>
@@ -17754,51 +17750,51 @@
         <v>4522.4250000000002</v>
       </c>
       <c r="K38" s="11">
-        <f>SUM(K34:K37)</f>
+        <f t="shared" ref="K38:V38" si="54">SUM(K34:K37)</f>
         <v>0</v>
       </c>
       <c r="L38" s="11">
-        <f>SUM(L34:L37)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M38" s="11">
-        <f>SUM(M34:M37)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="N38" s="145">
-        <f>SUM(N34:N37)</f>
+      <c r="N38" s="11">
+        <f t="shared" si="54"/>
         <v>3247.45</v>
       </c>
       <c r="O38" s="11">
-        <f>SUM(O34:O37)</f>
+        <f t="shared" si="54"/>
         <v>3319.1790000000001</v>
       </c>
       <c r="P38" s="11">
-        <f>SUM(P34:P37)</f>
+        <f t="shared" si="54"/>
         <v>3282.3379999999997</v>
       </c>
       <c r="Q38" s="11">
-        <f>SUM(Q34:Q37)</f>
+        <f t="shared" si="54"/>
         <v>3318.835</v>
       </c>
-      <c r="R38" s="145">
-        <f>SUM(R34:R37)</f>
+      <c r="R38" s="11">
+        <f t="shared" si="54"/>
         <v>3461.239</v>
       </c>
       <c r="S38" s="11">
-        <f>SUM(S34:S37)</f>
+        <f t="shared" si="54"/>
         <v>3683.1379999999999</v>
       </c>
       <c r="T38" s="11">
-        <f>SUM(T34:T37)</f>
+        <f t="shared" si="54"/>
         <v>3980.2640000000001</v>
       </c>
       <c r="U38" s="11">
-        <f>SUM(U34:U37)</f>
+        <f t="shared" si="54"/>
         <v>4193.4169999999995</v>
       </c>
       <c r="V38" s="14">
-        <f>SUM(V34:V37)</f>
+        <f t="shared" si="54"/>
         <v>4522.4250000000002</v>
       </c>
     </row>
@@ -17824,8 +17820,8 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="146">
-        <f t="shared" ref="N39:N43" si="47">D39</f>
+      <c r="N39" s="10">
+        <f t="shared" ref="N39:N43" si="55">D39</f>
         <v>74.906999999999996</v>
       </c>
       <c r="O39" s="10">
@@ -17837,8 +17833,8 @@
       <c r="Q39" s="10">
         <v>59.506999999999998</v>
       </c>
-      <c r="R39" s="146">
-        <f t="shared" ref="R39:R43" si="48">E39</f>
+      <c r="R39" s="10">
+        <f t="shared" ref="R39:R43" si="56">E39</f>
         <v>44.787999999999997</v>
       </c>
       <c r="S39" s="10">
@@ -17851,7 +17847,7 @@
         <v>9.4749999999999996</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" ref="V39:V43" si="49">F39</f>
+        <f t="shared" ref="V39:V43" si="57">F39</f>
         <v>12.122</v>
       </c>
     </row>
@@ -17877,8 +17873,8 @@
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="146">
-        <f t="shared" si="47"/>
+      <c r="N40" s="10">
+        <f t="shared" si="55"/>
         <v>155.80600000000001</v>
       </c>
       <c r="O40" s="10">
@@ -17890,8 +17886,8 @@
       <c r="Q40" s="10">
         <v>164.697</v>
       </c>
-      <c r="R40" s="146">
-        <f t="shared" si="48"/>
+      <c r="R40" s="10">
+        <f t="shared" si="56"/>
         <v>172.715</v>
       </c>
       <c r="S40" s="10">
@@ -17904,7 +17900,7 @@
         <v>174.75299999999999</v>
       </c>
       <c r="V40" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>222.99100000000001</v>
       </c>
     </row>
@@ -17930,8 +17926,8 @@
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="146">
-        <f t="shared" si="47"/>
+      <c r="N41" s="10">
+        <f t="shared" si="55"/>
         <v>227.816</v>
       </c>
       <c r="O41" s="10">
@@ -17943,8 +17939,8 @@
       <c r="Q41" s="10">
         <v>189.77099999999999</v>
       </c>
-      <c r="R41" s="146">
-        <f t="shared" si="48"/>
+      <c r="R41" s="10">
+        <f t="shared" si="56"/>
         <v>183.35</v>
       </c>
       <c r="S41" s="10">
@@ -17957,7 +17953,7 @@
         <v>223.50700000000001</v>
       </c>
       <c r="V41" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>246.90100000000001</v>
       </c>
     </row>
@@ -17983,8 +17979,8 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="146">
-        <f t="shared" si="47"/>
+      <c r="N42" s="10">
+        <f t="shared" si="55"/>
         <v>161.60499999999999</v>
       </c>
       <c r="O42" s="10">
@@ -17996,8 +17992,8 @@
       <c r="Q42" s="10">
         <v>234.142</v>
       </c>
-      <c r="R42" s="146">
-        <f t="shared" si="48"/>
+      <c r="R42" s="10">
+        <f t="shared" si="56"/>
         <v>141.989</v>
       </c>
       <c r="S42" s="10">
@@ -18010,7 +18006,7 @@
         <v>228.98599999999999</v>
       </c>
       <c r="V42" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>209.828</v>
       </c>
     </row>
@@ -18036,8 +18032,8 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="146">
-        <f t="shared" si="47"/>
+      <c r="N43" s="10">
+        <f t="shared" si="55"/>
         <v>39.927</v>
       </c>
       <c r="O43" s="10">
@@ -18049,8 +18045,8 @@
       <c r="Q43" s="10">
         <v>40.232999999999997</v>
       </c>
-      <c r="R43" s="146">
-        <f t="shared" si="48"/>
+      <c r="R43" s="10">
+        <f t="shared" si="56"/>
         <v>45.098999999999997</v>
       </c>
       <c r="S43" s="10">
@@ -18063,7 +18059,7 @@
         <v>52.204000000000001</v>
       </c>
       <c r="V43" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>54.176000000000002</v>
       </c>
     </row>
@@ -18092,51 +18088,51 @@
         <v>746.01800000000003</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" ref="K44:V44" si="50">SUM(K39:K43)</f>
+        <f t="shared" ref="K44:V44" si="58">SUM(K39:K43)</f>
         <v>0</v>
       </c>
       <c r="L44" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M44" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="N44" s="145">
-        <f t="shared" si="50"/>
+      <c r="N44" s="11">
+        <f t="shared" si="58"/>
         <v>660.06100000000004</v>
       </c>
       <c r="O44" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>669.10399999999993</v>
       </c>
       <c r="P44" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>665.74200000000008</v>
       </c>
       <c r="Q44" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>688.34999999999991</v>
       </c>
-      <c r="R44" s="145">
-        <f t="shared" si="50"/>
+      <c r="R44" s="11">
+        <f t="shared" si="58"/>
         <v>587.94100000000003</v>
       </c>
       <c r="S44" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>601.41300000000001</v>
       </c>
       <c r="T44" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>685.38400000000001</v>
       </c>
       <c r="U44" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>688.92499999999995</v>
       </c>
       <c r="V44" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>746.01800000000003</v>
       </c>
       <c r="W44" s="11"/>
@@ -18164,8 +18160,8 @@
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="146">
-        <f t="shared" ref="N45:N49" si="51">D45</f>
+      <c r="N45" s="10">
+        <f t="shared" ref="N45:N49" si="59">D45</f>
         <v>40.216999999999999</v>
       </c>
       <c r="O45" s="10">
@@ -18177,8 +18173,8 @@
       <c r="Q45" s="10">
         <v>31.382999999999999</v>
       </c>
-      <c r="R45" s="146">
-        <f t="shared" ref="R45:R49" si="52">E45</f>
+      <c r="R45" s="10">
+        <f t="shared" ref="R45:R49" si="60">E45</f>
         <v>9.9649999999999999</v>
       </c>
       <c r="S45" s="10">
@@ -18191,7 +18187,7 @@
         <v>34.880000000000003</v>
       </c>
       <c r="V45" s="15">
-        <f t="shared" ref="V45:V49" si="53">F45</f>
+        <f t="shared" ref="V45:V49" si="61">F45</f>
         <v>28.047000000000001</v>
       </c>
     </row>
@@ -18217,8 +18213,8 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="146">
-        <f t="shared" si="51"/>
+      <c r="N46" s="10">
+        <f t="shared" si="59"/>
         <v>33.698999999999998</v>
       </c>
       <c r="O46" s="10">
@@ -18230,8 +18226,8 @@
       <c r="Q46" s="10">
         <v>5.5330000000000004</v>
       </c>
-      <c r="R46" s="146">
-        <f t="shared" si="52"/>
+      <c r="R46" s="10">
+        <f t="shared" si="60"/>
         <v>3.9359999999999999</v>
       </c>
       <c r="S46" s="10">
@@ -18244,7 +18240,7 @@
         <v>2.234</v>
       </c>
       <c r="V46" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>1.4770000000000001</v>
       </c>
     </row>
@@ -18270,8 +18266,8 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="146">
-        <f t="shared" si="51"/>
+      <c r="N47" s="10">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O47" s="10">
@@ -18283,8 +18279,8 @@
       <c r="Q47" s="10">
         <v>0</v>
       </c>
-      <c r="R47" s="146">
-        <f t="shared" si="52"/>
+      <c r="R47" s="10">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S47" s="10">
@@ -18297,7 +18293,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -18323,8 +18319,8 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="146">
-        <f t="shared" si="51"/>
+      <c r="N48" s="10">
+        <f t="shared" si="59"/>
         <v>220.14599999999999</v>
       </c>
       <c r="O48" s="10">
@@ -18336,8 +18332,8 @@
       <c r="Q48" s="10">
         <v>204.90299999999999</v>
       </c>
-      <c r="R48" s="146">
-        <f t="shared" si="52"/>
+      <c r="R48" s="10">
+        <f t="shared" si="60"/>
         <v>204.30500000000001</v>
       </c>
       <c r="S48" s="10">
@@ -18350,7 +18346,7 @@
         <v>184.06700000000001</v>
       </c>
       <c r="V48" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>175.21600000000001</v>
       </c>
     </row>
@@ -18376,8 +18372,8 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="146">
-        <f t="shared" si="51"/>
+      <c r="N49" s="10">
+        <f t="shared" si="59"/>
         <v>2.2970000000000002</v>
       </c>
       <c r="O49" s="10">
@@ -18389,8 +18385,8 @@
       <c r="Q49" s="10">
         <v>2.0510000000000002</v>
       </c>
-      <c r="R49" s="146">
-        <f t="shared" si="52"/>
+      <c r="R49" s="10">
+        <f t="shared" si="60"/>
         <v>12.654999999999999</v>
       </c>
       <c r="S49" s="10">
@@ -18403,7 +18399,7 @@
         <v>11.414</v>
       </c>
       <c r="V49" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>10.702</v>
       </c>
     </row>
@@ -18432,51 +18428,51 @@
         <v>961.46</v>
       </c>
       <c r="K50" s="11">
-        <f>SUM(K44:K49)</f>
+        <f t="shared" ref="K50:V50" si="62">SUM(K44:K49)</f>
         <v>0</v>
       </c>
       <c r="L50" s="11">
-        <f>SUM(L44:L49)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <f>SUM(M44:M49)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="N50" s="145">
-        <f>SUM(N44:N49)</f>
+      <c r="N50" s="11">
+        <f t="shared" si="62"/>
         <v>956.42</v>
       </c>
       <c r="O50" s="11">
-        <f>SUM(O44:O49)</f>
+        <f t="shared" si="62"/>
         <v>954.43299999999988</v>
       </c>
       <c r="P50" s="11">
-        <f>SUM(P44:P49)</f>
+        <f t="shared" si="62"/>
         <v>933.51400000000012</v>
       </c>
       <c r="Q50" s="11">
-        <f>SUM(Q44:Q49)</f>
+        <f t="shared" si="62"/>
         <v>932.22</v>
       </c>
       <c r="R50" s="11">
-        <f>SUM(R44:R49)</f>
+        <f t="shared" si="62"/>
         <v>818.80200000000013</v>
       </c>
       <c r="S50" s="11">
-        <f>SUM(S44:S49)</f>
+        <f t="shared" si="62"/>
         <v>879.94500000000005</v>
       </c>
       <c r="T50" s="11">
-        <f>SUM(T44:T49)</f>
+        <f t="shared" si="62"/>
         <v>945.12600000000009</v>
       </c>
       <c r="U50" s="11">
-        <f>SUM(U44:U49)</f>
+        <f t="shared" si="62"/>
         <v>921.52</v>
       </c>
       <c r="V50" s="14">
-        <f>SUM(V44:V49)</f>
+        <f t="shared" si="62"/>
         <v>961.46</v>
       </c>
     </row>
@@ -18484,68 +18480,68 @@
       <c r="A51" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="146">
-        <f t="shared" ref="B51:E51" si="54">B38-B50</f>
+      <c r="B51" s="10">
+        <f t="shared" ref="B51:E51" si="63">B38-B50</f>
         <v>146.58900000000017</v>
       </c>
-      <c r="C51" s="146">
-        <f t="shared" si="54"/>
+      <c r="C51" s="10">
+        <f t="shared" si="63"/>
         <v>1522.53</v>
       </c>
-      <c r="D51" s="146">
-        <f t="shared" si="54"/>
+      <c r="D51" s="10">
+        <f t="shared" si="63"/>
         <v>2291.0299999999997</v>
       </c>
-      <c r="E51" s="146">
-        <f t="shared" si="54"/>
+      <c r="E51" s="10">
+        <f t="shared" si="63"/>
         <v>2642.4369999999999</v>
       </c>
       <c r="F51" s="15">
         <f>F38-F50</f>
         <v>3560.9650000000001</v>
       </c>
-      <c r="N51" s="146">
-        <f>N38-N50</f>
+      <c r="N51" s="10">
+        <f t="shared" ref="N51:V51" si="64">N38-N50</f>
         <v>2291.0299999999997</v>
       </c>
-      <c r="O51" s="146">
-        <f>O38-O50</f>
+      <c r="O51" s="10">
+        <f t="shared" si="64"/>
         <v>2364.7460000000001</v>
       </c>
-      <c r="P51" s="146">
-        <f>P38-P50</f>
+      <c r="P51" s="10">
+        <f t="shared" si="64"/>
         <v>2348.8239999999996</v>
       </c>
-      <c r="Q51" s="146">
-        <f>Q38-Q50</f>
+      <c r="Q51" s="10">
+        <f t="shared" si="64"/>
         <v>2386.6149999999998</v>
       </c>
-      <c r="R51" s="146">
-        <f>R38-R50</f>
+      <c r="R51" s="10">
+        <f t="shared" si="64"/>
         <v>2642.4369999999999</v>
       </c>
-      <c r="S51" s="146">
-        <f>S38-S50</f>
+      <c r="S51" s="10">
+        <f t="shared" si="64"/>
         <v>2803.1929999999998</v>
       </c>
-      <c r="T51" s="146">
-        <f>T38-T50</f>
+      <c r="T51" s="10">
+        <f t="shared" si="64"/>
         <v>3035.1379999999999</v>
       </c>
-      <c r="U51" s="146">
-        <f>U38-U50</f>
+      <c r="U51" s="10">
+        <f t="shared" si="64"/>
         <v>3271.8969999999995</v>
       </c>
       <c r="V51" s="15">
-        <f>V38-V50</f>
+        <f t="shared" si="64"/>
         <v>3560.9650000000001</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R52" s="147"/>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
-      <c r="U52" s="147"/>
+      <c r="R52" s="124"/>
+      <c r="S52" s="124"/>
+      <c r="T52" s="124"/>
+      <c r="U52" s="124"/>
       <c r="V52" s="56"/>
     </row>
     <row r="53" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18555,26 +18551,26 @@
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
-      <c r="E53" s="147"/>
+      <c r="E53" s="124"/>
       <c r="F53" s="56">
         <f>F10/F31</f>
         <v>4.5408373582373242E-2</v>
       </c>
-      <c r="R53" s="147"/>
-      <c r="S53" s="147">
-        <f t="shared" ref="R53:V53" si="55">S10/S31</f>
+      <c r="R53" s="124"/>
+      <c r="S53" s="124">
+        <f t="shared" ref="S53:V53" si="65">S10/S31</f>
         <v>1.193928272828893E-2</v>
       </c>
-      <c r="T53" s="147">
-        <f t="shared" si="55"/>
+      <c r="T53" s="124">
+        <f t="shared" si="65"/>
         <v>1.4161378068693404E-2</v>
       </c>
-      <c r="U53" s="147">
-        <f t="shared" si="55"/>
+      <c r="U53" s="124">
+        <f t="shared" si="65"/>
         <v>1.6102429317280533E-2</v>
       </c>
       <c r="V53" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>1.5619746110979021E-2</v>
       </c>
     </row>
@@ -27676,10 +27672,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
-  <dimension ref="A1:P184"/>
+  <dimension ref="A1:P188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27703,25 +27699,25 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="135"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
-        <v>44102</v>
+        <v>45404</v>
       </c>
       <c r="B2" s="18">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C2" s="3">
-        <f>B3/B2-1</f>
-        <v>8.1521739130434812E-2</v>
+        <v>21.59</v>
+      </c>
+      <c r="C2" s="126">
+        <f>B2/B3-1</f>
+        <v>5.4714215925744991E-2</v>
       </c>
       <c r="G2" s="63"/>
       <c r="H2" s="64"/>
@@ -27732,14 +27728,14 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
-        <v>44109</v>
+        <v>45397</v>
       </c>
       <c r="B3" s="18">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="C3" s="3">
-        <f>B4/B3-1</f>
-        <v>-2.4120603015075237E-2</v>
+        <v>20.47</v>
+      </c>
+      <c r="C3" s="126">
+        <f>B3/B4-1</f>
+        <v>-9.7044552271724815E-2</v>
       </c>
       <c r="G3" s="66" t="s">
         <v>109</v>
@@ -27765,14 +27761,14 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44116</v>
+        <v>45390</v>
       </c>
       <c r="B4" s="18">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="C4" s="3">
-        <f>B5/B4-1</f>
-        <v>-2.2657054582904235E-2</v>
+        <v>22.67</v>
+      </c>
+      <c r="C4" s="126">
+        <f t="shared" ref="C4:C67" si="0">B4/B5-1</f>
+        <v>-1.2630662020905903E-2</v>
       </c>
       <c r="G4" s="70">
         <f>$H$19-3*$H$23</f>
@@ -27801,14 +27797,14 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>44123</v>
+        <v>45383</v>
       </c>
       <c r="B5" s="18">
-        <v>9.49</v>
-      </c>
-      <c r="C5" s="3">
-        <f>B6/B5-1</f>
-        <v>6.7439409905163394E-2</v>
+        <v>22.96</v>
+      </c>
+      <c r="C5" s="126">
+        <f t="shared" si="0"/>
+        <v>-2.1729682746631784E-3</v>
       </c>
       <c r="G5" s="75">
         <f>$H$19-2.4*$H$23</f>
@@ -27823,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="78" t="str">
-        <f t="shared" ref="J5:J14" si="0">TEXT(G4,"0,00%")&amp;" to "&amp;TEXT(G5,"0,00%")</f>
+        <f t="shared" ref="J5:J14" si="1">TEXT(G4,"0,00%")&amp;" to "&amp;TEXT(G5,"0,00%")</f>
         <v>-30,20% to -23,95%</v>
       </c>
       <c r="K5" s="79">
@@ -27837,14 +27833,14 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44130</v>
+        <v>45376</v>
       </c>
       <c r="B6" s="18">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" ref="C6:C67" si="1">B7/B6-1</f>
-        <v>0.36525172754195445</v>
+        <v>23.01</v>
+      </c>
+      <c r="C6" s="126">
+        <f t="shared" si="0"/>
+        <v>-4.8387096774193505E-2</v>
       </c>
       <c r="G6" s="75">
         <f>$H$19-1.8*$H$23</f>
@@ -27859,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-23,95% to -17,70%</v>
       </c>
       <c r="K6" s="79">
@@ -27873,14 +27869,14 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>44137</v>
+        <v>45369</v>
       </c>
       <c r="B7" s="18">
-        <v>13.83</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.14244396240057844</v>
+        <v>24.18</v>
+      </c>
+      <c r="C7" s="126">
+        <f t="shared" si="0"/>
+        <v>2.9374201787994991E-2</v>
       </c>
       <c r="G7" s="75">
         <f>$H$19-1.2*$H$23</f>
@@ -27895,7 +27891,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-17,70% to -11,46%</v>
       </c>
       <c r="K7" s="79">
@@ -27909,14 +27905,14 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44144</v>
+        <v>45362</v>
       </c>
       <c r="B8" s="18">
-        <v>15.8</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.14873417721518978</v>
+        <v>23.49</v>
+      </c>
+      <c r="C8" s="126">
+        <f t="shared" si="0"/>
+        <v>-9.7926301922953152E-2</v>
       </c>
       <c r="G8" s="75">
         <f>$H$19-0.6*$H$23</f>
@@ -27928,31 +27924,31 @@
       </c>
       <c r="I8" s="77">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11,46% to -5,21%</v>
       </c>
       <c r="K8" s="79">
         <f t="shared" si="4"/>
-        <v>0.18232044198895028</v>
+        <v>0.18784530386740331</v>
       </c>
       <c r="L8" s="80">
         <f t="shared" si="5"/>
-        <v>0.28176795580110497</v>
+        <v>0.287292817679558</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>44151</v>
+        <v>45355</v>
       </c>
       <c r="B9" s="18">
-        <v>18.149999999999999</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.5239669421487605</v>
+        <v>26.040001</v>
+      </c>
+      <c r="C9" s="126">
+        <f t="shared" si="0"/>
+        <v>4.4524709185719935E-2</v>
       </c>
       <c r="G9" s="75">
         <f>$H$19</f>
@@ -27964,31 +27960,31 @@
       </c>
       <c r="I9" s="77">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" s="78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5,21% to 1,03%</v>
       </c>
       <c r="K9" s="79">
         <f t="shared" si="4"/>
-        <v>0.24309392265193369</v>
+        <v>0.25966850828729282</v>
       </c>
       <c r="L9" s="80">
         <f t="shared" si="5"/>
-        <v>0.52486187845303867</v>
+        <v>0.54696132596685088</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44158</v>
+        <v>45348</v>
       </c>
       <c r="B10" s="18">
-        <v>27.66</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.13774403470715835</v>
+        <v>24.93</v>
+      </c>
+      <c r="C10" s="126">
+        <f t="shared" si="0"/>
+        <v>8.5328736844960229E-2</v>
       </c>
       <c r="G10" s="75">
         <f>$H$19+0.6*$H$23</f>
@@ -28000,31 +27996,31 @@
       </c>
       <c r="I10" s="77">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1,03% to 7,28%</v>
       </c>
       <c r="K10" s="79">
         <f t="shared" si="4"/>
-        <v>0.28176795580110497</v>
+        <v>0.287292817679558</v>
       </c>
       <c r="L10" s="80">
         <f t="shared" si="5"/>
-        <v>0.80662983425414359</v>
+        <v>0.83425414364640882</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>44165</v>
+        <v>45341</v>
       </c>
       <c r="B11" s="18">
-        <v>23.85</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.1404612578616351</v>
+        <v>22.969999000000001</v>
+      </c>
+      <c r="C11" s="126">
+        <f t="shared" si="0"/>
+        <v>-6.0147378881040048E-2</v>
       </c>
       <c r="G11" s="75">
         <f>$H$19+1.2*$H$23</f>
@@ -28039,7 +28035,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7,28% to 13,52%</v>
       </c>
       <c r="K11" s="79">
@@ -28048,19 +28044,19 @@
       </c>
       <c r="L11" s="80">
         <f t="shared" si="5"/>
-        <v>0.92265193370165743</v>
+        <v>0.95027624309392267</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44172</v>
+        <v>45334</v>
       </c>
       <c r="B12" s="18">
-        <v>27.200001</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="1"/>
-        <v>-4.522066010218162E-2</v>
+        <v>24.440000999999999</v>
+      </c>
+      <c r="C12" s="126">
+        <f t="shared" si="0"/>
+        <v>2.4611157695288988E-3</v>
       </c>
       <c r="G12" s="75">
         <f>$H$19+1.8*$H$23</f>
@@ -28075,7 +28071,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13,52% to 19,77%</v>
       </c>
       <c r="K12" s="79">
@@ -28084,19 +28080,19 @@
       </c>
       <c r="L12" s="80">
         <f t="shared" si="5"/>
-        <v>0.95027624309392267</v>
+        <v>0.9779005524861879</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>44179</v>
+        <v>45327</v>
       </c>
       <c r="B13" s="18">
-        <v>25.969999000000001</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="1"/>
-        <v>6.8540664941881602E-2</v>
+        <v>24.379999000000002</v>
+      </c>
+      <c r="C13" s="126">
+        <f t="shared" si="0"/>
+        <v>0.43243237367802601</v>
       </c>
       <c r="G13" s="75">
         <f>$H$19+2.4*$H$23</f>
@@ -28111,7 +28107,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19,77% to 26,02%</v>
       </c>
       <c r="K13" s="79">
@@ -28120,19 +28116,19 @@
       </c>
       <c r="L13" s="80">
         <f t="shared" si="5"/>
-        <v>0.97237569060773477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44186</v>
+        <v>45320</v>
       </c>
       <c r="B14" s="18">
-        <v>27.75</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.1513513873873874</v>
+        <v>17.02</v>
+      </c>
+      <c r="C14" s="126">
+        <f t="shared" si="0"/>
+        <v>4.0978593272171127E-2</v>
       </c>
       <c r="G14" s="75">
         <f>$H$19+3*$H$23</f>
@@ -28147,7 +28143,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26,02% to 32,26%</v>
       </c>
       <c r="K14" s="79">
@@ -28156,19 +28152,19 @@
       </c>
       <c r="L14" s="80">
         <f t="shared" si="5"/>
-        <v>0.98342541436464082</v>
+        <v>1.011049723756906</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
-        <v>44193</v>
+        <v>45313</v>
       </c>
       <c r="B15" s="18">
-        <v>23.549999</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0063782168313438E-2</v>
+        <v>16.350000000000001</v>
+      </c>
+      <c r="C15" s="126">
+        <f t="shared" si="0"/>
+        <v>-2.5625803002037761E-2</v>
       </c>
       <c r="G15" s="81"/>
       <c r="H15" s="82" t="s">
@@ -28188,65 +28184,65 @@
       </c>
       <c r="L15" s="84">
         <f t="shared" si="5"/>
-        <v>0.99999999999999989</v>
+        <v>1.0276243093922652</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
-        <v>44200</v>
+        <v>45306</v>
       </c>
       <c r="B16" s="18">
-        <v>25.200001</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="1"/>
-        <v>1.746023740237157E-2</v>
+        <v>16.780000999999999</v>
+      </c>
+      <c r="C16" s="126">
+        <f t="shared" si="0"/>
+        <v>1.1933770883052475E-3</v>
       </c>
       <c r="G16" s="116"/>
       <c r="L16" s="88"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>44207</v>
+        <v>45299</v>
       </c>
       <c r="B17" s="18">
-        <v>25.639999</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.27067095439434308</v>
-      </c>
-      <c r="G17" s="139" t="s">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="C17" s="126">
+        <f t="shared" si="0"/>
+        <v>4.8811013767209088E-2</v>
+      </c>
+      <c r="G17" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="140"/>
+      <c r="H17" s="143"/>
       <c r="L17" s="88"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>44214</v>
+        <v>45292</v>
       </c>
       <c r="B18" s="18">
-        <v>32.580002</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="1"/>
-        <v>7.9803494180264334E-2</v>
-      </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="142"/>
+        <v>15.98</v>
+      </c>
+      <c r="C18" s="126">
+        <f t="shared" si="0"/>
+        <v>-6.9306930693069368E-2</v>
+      </c>
+      <c r="G18" s="144"/>
+      <c r="H18" s="145"/>
       <c r="L18" s="88"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>44221</v>
+        <v>45285</v>
       </c>
       <c r="B19" s="18">
-        <v>35.18</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.2120551449687285E-2</v>
+        <v>17.170000000000002</v>
+      </c>
+      <c r="C19" s="126">
+        <f t="shared" si="0"/>
+        <v>-1.378518093049963E-2</v>
       </c>
       <c r="G19" s="121" t="s">
         <v>96</v>
@@ -28258,14 +28254,14 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>44228</v>
+        <v>45278</v>
       </c>
       <c r="B20" s="18">
-        <v>34.049999</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="1"/>
-        <v>-6.2848724312737803E-2</v>
+        <v>17.41</v>
+      </c>
+      <c r="C20" s="126">
+        <f t="shared" si="0"/>
+        <v>-4.3406645966667767E-2</v>
       </c>
       <c r="G20" s="121" t="s">
         <v>97</v>
@@ -28277,14 +28273,14 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>44235</v>
+        <v>45271</v>
       </c>
       <c r="B21" s="18">
-        <v>31.91</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="1"/>
-        <v>-9.1193983077405227E-2</v>
+        <v>18.200001</v>
+      </c>
+      <c r="C21" s="126">
+        <f t="shared" si="0"/>
+        <v>2.4198142937535305E-2</v>
       </c>
       <c r="G21" s="121" t="s">
         <v>98</v>
@@ -28296,14 +28292,14 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>44242</v>
+        <v>45264</v>
       </c>
       <c r="B22" s="18">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.17586206896551726</v>
+        <v>17.77</v>
+      </c>
+      <c r="C22" s="126">
+        <f t="shared" si="0"/>
+        <v>-0.12333497779970404</v>
       </c>
       <c r="G22" s="121" t="s">
         <v>99</v>
@@ -28313,14 +28309,14 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>44249</v>
+        <v>45257</v>
       </c>
       <c r="B23" s="18">
-        <v>23.9</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0920920502092155E-3</v>
+        <v>20.27</v>
+      </c>
+      <c r="C23" s="126">
+        <f t="shared" si="0"/>
+        <v>5.5729111680775434E-2</v>
       </c>
       <c r="G23" s="121" t="s">
         <v>100</v>
@@ -28332,14 +28328,14 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>44256</v>
+        <v>45250</v>
       </c>
       <c r="B24" s="18">
-        <v>23.950001</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="1"/>
-        <v>0.12400830379923589</v>
+        <v>19.200001</v>
+      </c>
+      <c r="C24" s="126">
+        <f t="shared" si="0"/>
+        <v>-6.2957491459248338E-2</v>
       </c>
       <c r="G24" s="121" t="s">
         <v>101</v>
@@ -28351,14 +28347,14 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>44263</v>
+        <v>45243</v>
       </c>
       <c r="B25" s="18">
-        <v>26.92</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="1"/>
-        <v>-9.6582466567607828E-2</v>
+        <v>20.49</v>
+      </c>
+      <c r="C25" s="126">
+        <f t="shared" si="0"/>
+        <v>4.1687849517030751E-2</v>
       </c>
       <c r="G25" s="121" t="s">
         <v>102</v>
@@ -28370,14 +28366,14 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>44270</v>
+        <v>45236</v>
       </c>
       <c r="B26" s="18">
-        <v>24.32</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="1"/>
-        <v>-7.1546052631578982E-2</v>
+        <v>19.670000000000002</v>
+      </c>
+      <c r="C26" s="126">
+        <f t="shared" si="0"/>
+        <v>4.1291743848160145E-2</v>
       </c>
       <c r="G26" s="121" t="s">
         <v>103</v>
@@ -28389,14 +28385,14 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>44277</v>
+        <v>45229</v>
       </c>
       <c r="B27" s="18">
-        <v>22.58</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1700620017714778E-2</v>
+        <v>18.889999</v>
+      </c>
+      <c r="C27" s="126">
+        <f t="shared" si="0"/>
+        <v>0.25348367617783674</v>
       </c>
       <c r="G27" s="121" t="s">
         <v>104</v>
@@ -28408,14 +28404,14 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>44284</v>
+        <v>45222</v>
       </c>
       <c r="B28" s="18">
-        <v>23.07</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="1"/>
-        <v>4.2045990463805749E-2</v>
+        <v>15.07</v>
+      </c>
+      <c r="C28" s="126">
+        <f t="shared" si="0"/>
+        <v>-6.4556234354051223E-2</v>
       </c>
       <c r="G28" s="121" t="s">
         <v>105</v>
@@ -28427,14 +28423,14 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>44291</v>
+        <v>45215</v>
       </c>
       <c r="B29" s="18">
-        <v>24.040001</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="1"/>
-        <v>-6.5307900777541561E-2</v>
+        <v>16.110001</v>
+      </c>
+      <c r="C29" s="126">
+        <f t="shared" si="0"/>
+        <v>-7.2004604147200224E-2</v>
       </c>
       <c r="G29" s="121" t="s">
         <v>106</v>
@@ -28446,14 +28442,14 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>44298</v>
+        <v>45208</v>
       </c>
       <c r="B30" s="18">
-        <v>22.469999000000001</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="1"/>
-        <v>4.183360221778365E-2</v>
+        <v>17.360001</v>
+      </c>
+      <c r="C30" s="126">
+        <f t="shared" si="0"/>
+        <v>4.5153519256260211E-2</v>
       </c>
       <c r="G30" s="121" t="s">
         <v>107</v>
@@ -28465,14 +28461,14 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <v>44305</v>
+        <v>45201</v>
       </c>
       <c r="B31" s="18">
-        <v>23.41</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="1"/>
-        <v>-1.5805168731311436E-2</v>
+        <v>16.610001</v>
+      </c>
+      <c r="C31" s="126">
+        <f t="shared" si="0"/>
+        <v>3.8125062500000029E-2</v>
       </c>
       <c r="G31" s="120" t="s">
         <v>108</v>
@@ -28484,28 +28480,28 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
-        <v>44312</v>
+        <v>45194</v>
       </c>
       <c r="B32" s="18">
-        <v>23.040001</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.14279517609395942</v>
+        <v>16</v>
+      </c>
+      <c r="C32" s="126">
+        <f t="shared" si="0"/>
+        <v>0.13234253361641901</v>
       </c>
       <c r="G32" s="119"/>
       <c r="L32" s="88"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>44319</v>
+        <v>45187</v>
       </c>
       <c r="B33" s="18">
-        <v>19.75</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6708860759493627E-2</v>
+        <v>14.13</v>
+      </c>
+      <c r="C33" s="126">
+        <f t="shared" si="0"/>
+        <v>-7.8277886497064575E-2</v>
       </c>
       <c r="G33" s="117"/>
       <c r="H33" s="86" t="s">
@@ -28524,78 +28520,78 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>44326</v>
+        <v>45180</v>
       </c>
       <c r="B34" s="18">
-        <v>20.079999999999998</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3366533864541914E-2</v>
+        <v>15.33</v>
+      </c>
+      <c r="C34" s="126">
+        <f t="shared" si="0"/>
+        <v>1.3218770654329193E-2</v>
       </c>
       <c r="G34" s="114" t="s">
         <v>118</v>
       </c>
       <c r="H34" s="79">
         <f>AVERAGEIF(C:C,"&gt;0")</f>
-        <v>7.8780891150942514E-2</v>
+        <v>7.8537793421395052E-2</v>
       </c>
       <c r="I34" s="77">
         <f>COUNTIF(C:C,"&gt;0")</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J34" s="79">
         <f>I34/$H$31</f>
-        <v>0.54143646408839774</v>
+        <v>0.54696132596685088</v>
       </c>
       <c r="K34" s="80">
         <f>J34*H34</f>
-        <v>4.2654847142499258E-2</v>
+        <v>4.2957135628276855E-2</v>
       </c>
       <c r="L34" s="88"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>44333</v>
+        <v>45173</v>
       </c>
       <c r="B35" s="18">
-        <v>20.75</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="1"/>
-        <v>0.10602414457831322</v>
+        <v>15.13</v>
+      </c>
+      <c r="C35" s="126">
+        <f t="shared" si="0"/>
+        <v>-3.2938076416336726E-3</v>
       </c>
       <c r="G35" s="114" t="s">
         <v>119</v>
       </c>
       <c r="H35" s="79">
         <f>AVERAGEIF(C:C,"&lt;0")</f>
-        <v>-7.050453082773725E-2</v>
+        <v>-6.9104728023490519E-2</v>
       </c>
       <c r="I35" s="77">
         <f>COUNTIF(C:C,"&lt;0")</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J35" s="79">
         <f>I35/$H$31</f>
-        <v>0.4585635359116022</v>
+        <v>0.48066298342541436</v>
       </c>
       <c r="K35" s="80">
         <f t="shared" ref="K35:K36" si="6">J35*H35</f>
-        <v>-3.2330806954155758E-2</v>
+        <v>-3.321608474057279E-2</v>
       </c>
       <c r="L35" s="88"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
-        <v>44340</v>
+        <v>45166</v>
       </c>
       <c r="B36" s="18">
-        <v>22.950001</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="1"/>
-        <v>4.7058821478918489E-2</v>
+        <v>15.18</v>
+      </c>
+      <c r="C36" s="126">
+        <f t="shared" si="0"/>
+        <v>4.4735030970405987E-2</v>
       </c>
       <c r="G36" s="118" t="s">
         <v>120</v>
@@ -28619,14 +28615,14 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
-        <v>44347</v>
+        <v>45159</v>
       </c>
       <c r="B37" s="18">
-        <v>24.030000999999999</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6633332224996753E-2</v>
+        <v>14.53</v>
+      </c>
+      <c r="C37" s="126">
+        <f t="shared" si="0"/>
+        <v>9.0277777777776347E-3</v>
       </c>
       <c r="G37" s="119"/>
       <c r="H37" s="89"/>
@@ -28637,14 +28633,14 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>44354</v>
+        <v>45152</v>
       </c>
       <c r="B38" s="18">
-        <v>24.67</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" si="1"/>
-        <v>2.8374584515605816E-2</v>
+        <v>14.4</v>
+      </c>
+      <c r="C38" s="126">
+        <f t="shared" si="0"/>
+        <v>-6.5541855937702787E-2</v>
       </c>
       <c r="G38" s="70" t="s">
         <v>121</v>
@@ -28667,14 +28663,14 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>44361</v>
+        <v>45145</v>
       </c>
       <c r="B39" s="18">
-        <v>25.370000999999998</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" si="1"/>
-        <v>5.5577451494779107E-2</v>
+        <v>15.41</v>
+      </c>
+      <c r="C39" s="126">
+        <f t="shared" si="0"/>
+        <v>-0.15329674981885988</v>
       </c>
       <c r="G39" s="115">
         <v>1</v>
@@ -28689,11 +28685,11 @@
       </c>
       <c r="J39" s="77">
         <f>COUNTIFS(C:C,"&lt;"&amp;H39,C:C,"&gt;"&amp;I39)</f>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K39" s="79">
         <f>J39/$H$31</f>
-        <v>0.77900552486187846</v>
+        <v>0.80110497237569056</v>
       </c>
       <c r="L39" s="80">
         <v>0.68269999999999997</v>
@@ -28701,14 +28697,14 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>44368</v>
+        <v>45138</v>
       </c>
       <c r="B40" s="18">
-        <v>26.780000999999999</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="1"/>
-        <v>-8.7378637513867208E-2</v>
+        <v>18.200001</v>
+      </c>
+      <c r="C40" s="126">
+        <f t="shared" si="0"/>
+        <v>2.1897923744970349E-2</v>
       </c>
       <c r="G40" s="115">
         <v>2</v>
@@ -28723,11 +28719,11 @@
       </c>
       <c r="J40" s="77">
         <f>COUNTIFS(C:C,"&lt;"&amp;H40,C:C,"&gt;"&amp;I40)</f>
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K40" s="79">
         <f>J40/$H$31</f>
-        <v>0.95027624309392267</v>
+        <v>0.97790055248618779</v>
       </c>
       <c r="L40" s="80">
         <v>0.95450000000000002</v>
@@ -28735,14 +28731,14 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>44375</v>
+        <v>45131</v>
       </c>
       <c r="B41" s="18">
-        <v>24.440000999999999</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="1"/>
-        <v>-4.7054007894680505E-2</v>
+        <v>17.809999000000001</v>
+      </c>
+      <c r="C41" s="126">
+        <f t="shared" si="0"/>
+        <v>8.3992635423006723E-2</v>
       </c>
       <c r="G41" s="115">
         <v>3</v>
@@ -28757,11 +28753,11 @@
       </c>
       <c r="J41" s="77">
         <f>COUNTIFS(C:C,"&lt;"&amp;H41,C:C,"&gt;"&amp;I41)</f>
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K41" s="79">
         <f>J41/$H$31</f>
-        <v>0.98342541436464093</v>
+        <v>1.011049723756906</v>
       </c>
       <c r="L41" s="90">
         <v>0.99729999999999996</v>
@@ -28769,55 +28765,55 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <v>44382</v>
+        <v>45124</v>
       </c>
       <c r="B42" s="18">
-        <v>23.290001</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="1"/>
-        <v>-8.2438811402369749E-2</v>
+        <v>16.43</v>
+      </c>
+      <c r="C42" s="126">
+        <f t="shared" si="0"/>
+        <v>1.8292682926830395E-3</v>
       </c>
       <c r="G42" s="75"/>
       <c r="L42" s="90"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <v>44389</v>
+        <v>45117</v>
       </c>
       <c r="B43" s="18">
-        <v>21.370000999999998</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0589517052432615E-2</v>
-      </c>
-      <c r="G43" s="136" t="s">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C43" s="126">
+        <f t="shared" si="0"/>
+        <v>6.9100391134289341E-2</v>
+      </c>
+      <c r="G43" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="138"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="141"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
-        <v>44396</v>
+        <v>45110</v>
       </c>
       <c r="B44" s="18">
-        <v>21.809999000000001</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="1"/>
-        <v>-4.5850529383335559E-3</v>
+        <v>15.34</v>
+      </c>
+      <c r="C44" s="126">
+        <f t="shared" si="0"/>
+        <v>6.5231572080892697E-4</v>
       </c>
       <c r="G44" s="91">
         <v>0.01</v>
       </c>
       <c r="H44" s="92">
         <f t="shared" ref="H44:H58" si="7">_xlfn.PERCENTILE.INC(C:C,G44)</f>
-        <v>-0.15606268549787766</v>
+        <v>-0.15577281050067249</v>
       </c>
       <c r="I44" s="93">
         <v>0.2</v>
@@ -28831,125 +28827,125 @@
       </c>
       <c r="L44" s="94">
         <f t="shared" ref="L44:L58" si="9">_xlfn.PERCENTILE.INC(C:C,K44)</f>
-        <v>8.8495575221239076E-2</v>
+        <v>8.7748893805309702E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
-        <v>44403</v>
+        <v>45103</v>
       </c>
       <c r="B45" s="18">
-        <v>21.709999</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="1"/>
-        <v>5.0668357930372387E-3</v>
+        <v>15.33</v>
+      </c>
+      <c r="C45" s="126">
+        <f t="shared" si="0"/>
+        <v>9.2658588738417702E-2</v>
       </c>
       <c r="G45" s="95">
         <v>0.02</v>
       </c>
       <c r="H45" s="96">
         <f t="shared" si="7"/>
-        <v>-0.15212953235997639</v>
+        <v>-0.15193499611682915</v>
       </c>
       <c r="I45" s="97">
         <v>0.25</v>
       </c>
       <c r="J45" s="96">
         <f t="shared" si="8"/>
-        <v>-6.2957491459248338E-2</v>
+        <v>-6.2930299672620704E-2</v>
       </c>
       <c r="K45" s="97">
         <v>0.86</v>
       </c>
       <c r="L45" s="98">
         <f t="shared" si="9"/>
-        <v>9.1772291823352337E-2</v>
+        <v>8.9345454895718879E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
-        <v>44410</v>
+        <v>45096</v>
       </c>
       <c r="B46" s="18">
-        <v>21.82</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="1"/>
-        <v>0.14115490375801998</v>
+        <v>14.03</v>
+      </c>
+      <c r="C46" s="126">
+        <f t="shared" si="0"/>
+        <v>-0.13926375087507681</v>
       </c>
       <c r="G46" s="95">
         <v>0.03</v>
       </c>
       <c r="H46" s="96">
         <f t="shared" si="7"/>
-        <v>-0.145983598759206</v>
+        <v>-0.14518649309289436</v>
       </c>
       <c r="I46" s="97">
         <v>0.3</v>
       </c>
       <c r="J46" s="96">
         <f t="shared" si="8"/>
-        <v>-4.4463818657367038E-2</v>
+        <v>-4.4842239379774329E-2</v>
       </c>
       <c r="K46" s="97">
         <v>0.87</v>
       </c>
       <c r="L46" s="98">
         <f t="shared" si="9"/>
-        <v>9.4241653317149232E-2</v>
+        <v>9.2648942991630623E-2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
-        <v>44417</v>
+        <v>45089</v>
       </c>
       <c r="B47" s="18">
-        <v>24.9</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.5742971887550046E-2</v>
+        <v>16.299999</v>
+      </c>
+      <c r="C47" s="126">
+        <f t="shared" si="0"/>
+        <v>8.5219640479360814E-2</v>
       </c>
       <c r="G47" s="95">
         <v>0.04</v>
       </c>
       <c r="H47" s="96">
         <f t="shared" si="7"/>
-        <v>-0.14086990456452095</v>
+        <v>-0.14046836614215991</v>
       </c>
       <c r="I47" s="97">
         <v>0.35</v>
       </c>
       <c r="J47" s="96">
         <f t="shared" si="8"/>
-        <v>-3.2120551449687292E-2</v>
+        <v>-3.2393539088661938E-2</v>
       </c>
       <c r="K47" s="97">
         <v>0.88</v>
       </c>
       <c r="L47" s="98">
         <f t="shared" si="9"/>
-        <v>9.7711886643925452E-2</v>
+        <v>9.6729308853215401E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
-        <v>44424</v>
+        <v>45082</v>
       </c>
       <c r="B48" s="18">
-        <v>24.01</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0803790087463403E-2</v>
+        <v>15.02</v>
+      </c>
+      <c r="C48" s="126">
+        <f t="shared" si="0"/>
+        <v>3.4435261707989051E-2</v>
       </c>
       <c r="G48" s="95">
         <v>0.05</v>
       </c>
       <c r="H48" s="96">
         <f t="shared" si="7"/>
-        <v>-0.13774403470715835</v>
+        <v>-0.13693248017884035</v>
       </c>
       <c r="I48" s="97">
         <v>0.4</v>
@@ -28963,290 +28959,290 @@
       </c>
       <c r="L48" s="98">
         <f t="shared" si="9"/>
-        <v>0.10194852081473289</v>
+        <v>0.10013127669502167</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
-        <v>44431</v>
+        <v>45075</v>
       </c>
       <c r="B49" s="18">
-        <v>25.709999</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6172696856191955E-2</v>
+        <v>14.52</v>
+      </c>
+      <c r="C49" s="126">
+        <f t="shared" si="0"/>
+        <v>6.3736263736263732E-2</v>
       </c>
       <c r="G49" s="95">
         <v>0.06</v>
       </c>
       <c r="H49" s="96">
         <f t="shared" si="7"/>
-        <v>-0.13124738940573383</v>
+        <v>-0.12972480212779652</v>
       </c>
       <c r="I49" s="97">
         <v>0.45</v>
       </c>
       <c r="J49" s="96">
         <f t="shared" si="8"/>
-        <v>-2.1074288724974855E-3</v>
+        <v>-2.3592226982056819E-3</v>
       </c>
       <c r="K49" s="97">
         <v>0.9</v>
       </c>
       <c r="L49" s="98">
         <f t="shared" si="9"/>
-        <v>0.106280193236715</v>
+        <v>0.10615216890751411</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
-        <v>44438</v>
+        <v>45068</v>
       </c>
       <c r="B50" s="18">
-        <v>26.639999</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" si="1"/>
-        <v>-1.3513438945699674E-2</v>
+        <v>13.65</v>
+      </c>
+      <c r="C50" s="126">
+        <f t="shared" si="0"/>
+        <v>0.16567036720751482</v>
       </c>
       <c r="G50" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H50" s="96">
         <f t="shared" si="7"/>
-        <v>-0.12248783727372782</v>
+        <v>-0.12199367196690837</v>
       </c>
       <c r="I50" s="97">
         <v>0.5</v>
       </c>
       <c r="J50" s="96">
         <f t="shared" si="8"/>
-        <v>5.0668357930372387E-3</v>
+        <v>3.5489698754295196E-3</v>
       </c>
       <c r="K50" s="97">
         <v>0.91</v>
       </c>
       <c r="L50" s="98">
         <f t="shared" si="9"/>
-        <v>0.1219880999930312</v>
+        <v>0.11744264142907022</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
-        <v>44445</v>
+        <v>45061</v>
       </c>
       <c r="B51" s="18">
-        <v>26.280000999999999</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="1"/>
-        <v>9.2465673802676118E-2</v>
+        <v>11.71</v>
+      </c>
+      <c r="C51" s="126">
+        <f t="shared" si="0"/>
+        <v>0.23263157894736852</v>
       </c>
       <c r="G51" s="95">
         <v>0.08</v>
       </c>
       <c r="H51" s="96">
         <f t="shared" si="7"/>
-        <v>-0.12103138086129347</v>
+        <v>-0.12077857622912676</v>
       </c>
       <c r="I51" s="97">
         <v>0.55000000000000004</v>
       </c>
       <c r="J51" s="96">
         <f t="shared" si="8"/>
-        <v>1.7460237402371577E-2</v>
+        <v>1.6202433823097856E-2</v>
       </c>
       <c r="K51" s="97">
         <v>0.92</v>
       </c>
       <c r="L51" s="98">
         <f t="shared" si="9"/>
-        <v>0.12962501095123852</v>
+        <v>0.12690748828605822</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
-        <v>44452</v>
+        <v>45054</v>
       </c>
       <c r="B52" s="18">
-        <v>28.709999</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" si="1"/>
-        <v>-5.2246605790546852E-3</v>
+        <v>9.5</v>
+      </c>
+      <c r="C52" s="126">
+        <f t="shared" si="0"/>
+        <v>0.28205128205128194</v>
       </c>
       <c r="G52" s="95">
         <v>0.09</v>
       </c>
       <c r="H52" s="96">
         <f t="shared" si="7"/>
-        <v>-0.11973194341027558</v>
+        <v>-0.11855919583023088</v>
       </c>
       <c r="I52" s="97">
         <v>0.6</v>
       </c>
       <c r="J52" s="96">
         <f t="shared" si="8"/>
-        <v>2.6633332224996753E-2</v>
+        <v>2.4198142937535305E-2</v>
       </c>
       <c r="K52" s="97">
         <v>0.93</v>
       </c>
       <c r="L52" s="98">
         <f t="shared" si="9"/>
-        <v>0.14073871622018905</v>
+        <v>0.14049594015645436</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
-        <v>44459</v>
+        <v>45047</v>
       </c>
       <c r="B53" s="18">
-        <v>28.559999000000001</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.14810921386937037</v>
+        <v>7.41</v>
+      </c>
+      <c r="C53" s="126">
+        <f t="shared" si="0"/>
+        <v>-4.387096774193544E-2</v>
       </c>
       <c r="G53" s="95">
         <v>0.1</v>
       </c>
       <c r="H53" s="96">
         <f t="shared" si="7"/>
-        <v>-0.11111111111111116</v>
+        <v>-0.10906328444972918</v>
       </c>
       <c r="I53" s="97">
         <v>0.65</v>
       </c>
       <c r="J53" s="96">
         <f t="shared" si="8"/>
-        <v>3.9233576642335732E-2</v>
+        <v>3.8402191035583955E-2</v>
       </c>
       <c r="K53" s="97">
         <v>0.94</v>
       </c>
       <c r="L53" s="98">
         <f t="shared" si="9"/>
-        <v>0.14370200536350064</v>
+        <v>0.14231505653632257</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
-        <v>44466</v>
+        <v>45040</v>
       </c>
       <c r="B54" s="18">
-        <v>24.33</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.4114262227702308E-2</v>
+        <v>7.75</v>
+      </c>
+      <c r="C54" s="126">
+        <f t="shared" si="0"/>
+        <v>-5.2567237163814173E-2</v>
       </c>
       <c r="G54" s="95">
         <v>0.11</v>
       </c>
       <c r="H54" s="96">
         <f t="shared" si="7"/>
-        <v>-9.9744133096031959E-2</v>
+        <v>-9.7770038041743515E-2</v>
       </c>
       <c r="I54" s="97">
         <v>0.7</v>
       </c>
       <c r="J54" s="96">
         <f t="shared" si="8"/>
-        <v>4.45247091857199E-2</v>
+        <v>4.3372125401062722E-2</v>
       </c>
       <c r="K54" s="97">
         <v>0.95</v>
       </c>
       <c r="L54" s="98">
         <f t="shared" si="9"/>
-        <v>0.16567036720751482</v>
+        <v>0.16143631970943356</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
-        <v>44473</v>
+        <v>45033</v>
       </c>
       <c r="B55" s="18">
-        <v>23.5</v>
-      </c>
-      <c r="C55" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1276595744680771E-2</v>
+        <v>8.18</v>
+      </c>
+      <c r="C55" s="126">
+        <f t="shared" si="0"/>
+        <v>-7.1509648127128345E-2</v>
       </c>
       <c r="G55" s="95">
         <v>0.12</v>
       </c>
       <c r="H55" s="96">
         <f t="shared" si="7"/>
-        <v>-9.6941413416934949E-2</v>
+        <v>-9.6952135130901423E-2</v>
       </c>
       <c r="I55" s="97">
         <v>0.75</v>
       </c>
       <c r="J55" s="96">
         <f t="shared" si="8"/>
-        <v>5.5729111680775434E-2</v>
+        <v>5.5361642602520578E-2</v>
       </c>
       <c r="K55" s="97">
         <v>0.96</v>
       </c>
       <c r="L55" s="98">
         <f t="shared" si="9"/>
-        <v>0.23111192094750854</v>
+        <v>0.22959226294764878</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
-        <v>44480</v>
+        <v>45026</v>
       </c>
       <c r="B56" s="18">
-        <v>24</v>
-      </c>
-      <c r="C56" s="3">
-        <f t="shared" si="1"/>
-        <v>1.7916666666666581E-2</v>
+        <v>8.81</v>
+      </c>
+      <c r="C56" s="126">
+        <f t="shared" si="0"/>
+        <v>8.8998763906056988E-2</v>
       </c>
       <c r="G56" s="95">
         <v>0.13</v>
       </c>
       <c r="H56" s="96">
         <f t="shared" si="7"/>
-        <v>-9.0960213912550963E-2</v>
+        <v>-9.1164761931798441E-2</v>
       </c>
       <c r="I56" s="97">
         <v>0.8</v>
       </c>
       <c r="J56" s="96">
         <f t="shared" si="8"/>
-        <v>7.0803790087463403E-2</v>
+        <v>7.0063782168313438E-2</v>
       </c>
       <c r="K56" s="97">
         <v>0.97</v>
       </c>
       <c r="L56" s="98">
         <f t="shared" si="9"/>
-        <v>0.24675039988145922</v>
+        <v>0.24422542127031757</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
-        <v>44487</v>
+        <v>45019</v>
       </c>
       <c r="B57" s="18">
-        <v>24.43</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" si="1"/>
-        <v>5.9353213262382409E-2</v>
+        <v>8.09</v>
+      </c>
+      <c r="C57" s="126">
+        <f t="shared" si="0"/>
+        <v>-4.2603550295857939E-2</v>
       </c>
       <c r="G57" s="95">
         <v>0.14000000000000001</v>
       </c>
       <c r="H57" s="96">
         <f t="shared" si="7"/>
-        <v>-8.9919981882690403E-2</v>
+        <v>-9.0317089480707519E-2</v>
       </c>
       <c r="I57" s="97"/>
       <c r="J57" s="96"/>
@@ -29255,26 +29251,26 @@
       </c>
       <c r="L57" s="98">
         <f t="shared" si="9"/>
-        <v>0.27522308545711871</v>
+        <v>0.27408505269142452</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
-        <v>44494</v>
+        <v>45012</v>
       </c>
       <c r="B58" s="18">
-        <v>25.879999000000002</v>
-      </c>
-      <c r="C58" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6368239813301404E-3</v>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C58" s="126">
+        <f t="shared" si="0"/>
+        <v>3.0487804878048808E-2</v>
       </c>
       <c r="G58" s="99">
         <v>0.15</v>
       </c>
       <c r="H58" s="100">
         <f t="shared" si="7"/>
-        <v>-8.8405797101449357E-2</v>
+        <v>-8.8419732441471638E-2</v>
       </c>
       <c r="I58" s="101"/>
       <c r="J58" s="102"/>
@@ -29283,31 +29279,31 @@
       </c>
       <c r="L58" s="104">
         <f t="shared" si="9"/>
-        <v>0.378687856769168</v>
+        <v>0.37532882446236554</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
-        <v>44501</v>
+        <v>45005</v>
       </c>
       <c r="B59" s="18">
-        <v>26</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.12192307692307702</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C59" s="126">
+        <f t="shared" si="0"/>
+        <v>4.0609137055837463E-2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
-        <v>44508</v>
+        <v>44998</v>
       </c>
       <c r="B60" s="18">
-        <v>22.83</v>
-      </c>
-      <c r="C60" s="3">
-        <f t="shared" si="1"/>
-        <v>-6.219886114761275E-2</v>
+        <v>7.88</v>
+      </c>
+      <c r="C60" s="126">
+        <f t="shared" si="0"/>
+        <v>7.210884353741509E-2</v>
       </c>
       <c r="G60" s="105" t="s">
         <v>128</v>
@@ -29316,14 +29312,14 @@
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
-        <v>44515</v>
+        <v>44991</v>
       </c>
       <c r="B61" s="18">
-        <v>21.41</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" si="1"/>
-        <v>-1.7748668846333526E-2</v>
+        <v>7.35</v>
+      </c>
+      <c r="C61" s="126">
+        <f t="shared" si="0"/>
+        <v>-0.11764705882352944</v>
       </c>
       <c r="G61" s="107" t="s">
         <v>129</v>
@@ -29332,27 +29328,27 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
-        <v>44522</v>
+        <v>44984</v>
       </c>
       <c r="B62" s="18">
-        <v>21.030000999999999</v>
-      </c>
-      <c r="C62" s="3">
-        <f t="shared" si="1"/>
-        <v>-9.747983369092561E-2</v>
+        <v>8.33</v>
+      </c>
+      <c r="C62" s="126">
+        <f t="shared" si="0"/>
+        <v>2.9666254635352329E-2</v>
       </c>
       <c r="G62" s="109"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
-        <v>44529</v>
+        <v>44977</v>
       </c>
       <c r="B63" s="18">
-        <v>18.98</v>
-      </c>
-      <c r="C63" s="3">
-        <f t="shared" si="1"/>
-        <v>-2.1074288724974855E-3</v>
+        <v>8.09</v>
+      </c>
+      <c r="C63" s="126">
+        <f t="shared" si="0"/>
+        <v>-0.12065217391304339</v>
       </c>
       <c r="G63" s="105" t="s">
         <v>130</v>
@@ -29361,14 +29357,14 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
-        <v>44536</v>
+        <v>44970</v>
       </c>
       <c r="B64" s="18">
-        <v>18.940000999999999</v>
-      </c>
-      <c r="C64" s="3">
-        <f t="shared" si="1"/>
-        <v>6.3356913233532097E-3</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C64" s="126">
+        <f t="shared" si="0"/>
+        <v>0.22503328894806929</v>
       </c>
       <c r="G64" s="111" t="s">
         <v>131</v>
@@ -29380,14 +29376,14 @@
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
-        <v>44543</v>
+        <v>44963</v>
       </c>
       <c r="B65" s="18">
-        <v>19.059999000000001</v>
-      </c>
-      <c r="C65" s="3">
-        <f t="shared" si="1"/>
-        <v>-6.8205145236367448E-3</v>
+        <v>7.51</v>
+      </c>
+      <c r="C65" s="126">
+        <f t="shared" si="0"/>
+        <v>-0.1070154577883472</v>
       </c>
       <c r="G65" s="107" t="s">
         <v>132</v>
@@ -29399,350 +29395,350 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
-        <v>44550</v>
+        <v>44956</v>
       </c>
       <c r="B66" s="18">
-        <v>18.93</v>
-      </c>
-      <c r="C66" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.8034918119387195E-2</v>
+        <v>8.41</v>
+      </c>
+      <c r="C66" s="126">
+        <f t="shared" si="0"/>
+        <v>0.11390728476821188</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
-        <v>44557</v>
+        <v>44949</v>
       </c>
       <c r="B67" s="18">
-        <v>18.209999</v>
-      </c>
-      <c r="C67" s="3">
-        <f t="shared" si="1"/>
-        <v>-9.0609560165269554E-2</v>
+        <v>7.55</v>
+      </c>
+      <c r="C67" s="126">
+        <f t="shared" si="0"/>
+        <v>7.5498575498575526E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
-        <v>44564</v>
+        <v>44942</v>
       </c>
       <c r="B68" s="18">
-        <v>16.559999000000001</v>
-      </c>
-      <c r="C68" s="3">
-        <f t="shared" ref="C68:C131" si="10">B69/B68-1</f>
-        <v>-3.3212502005585898E-2</v>
+        <v>7.02</v>
+      </c>
+      <c r="C68" s="126">
+        <f t="shared" ref="C68:C131" si="10">B68/B69-1</f>
+        <v>8.6206896551723755E-3</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
-        <v>44571</v>
+        <v>44935</v>
       </c>
       <c r="B69" s="18">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="C69" s="3">
+        <v>6.96</v>
+      </c>
+      <c r="C69" s="126">
         <f t="shared" si="10"/>
-        <v>-0.15490318550905691</v>
+        <v>8.7499999999999911E-2</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
-        <v>44578</v>
+        <v>44928</v>
       </c>
       <c r="B70" s="18">
-        <v>13.53</v>
-      </c>
-      <c r="C70" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="C70" s="126">
         <f t="shared" si="10"/>
-        <v>-6.0606060606060552E-2</v>
+        <v>-3.1152647975076775E-3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
-        <v>44585</v>
+        <v>44921</v>
       </c>
       <c r="B71" s="18">
-        <v>12.71</v>
-      </c>
-      <c r="C71" s="3">
+        <v>6.42</v>
+      </c>
+      <c r="C71" s="126">
         <f t="shared" si="10"/>
-        <v>1.8095987411486991E-2</v>
+        <v>2.0667726550079424E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
-        <v>44592</v>
+        <v>44914</v>
       </c>
       <c r="B72" s="18">
-        <v>12.94</v>
-      </c>
-      <c r="C72" s="3">
+        <v>6.29</v>
+      </c>
+      <c r="C72" s="126">
         <f t="shared" si="10"/>
-        <v>1.4683153013910433E-2</v>
+        <v>-8.8405797101449357E-2</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
-        <v>44599</v>
+        <v>44907</v>
       </c>
       <c r="B73" s="18">
-        <v>13.13</v>
-      </c>
-      <c r="C73" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="C73" s="126">
         <f t="shared" si="10"/>
-        <v>-0.16070068545316074</v>
+        <v>-2.9535864978902926E-2</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
-        <v>44606</v>
+        <v>44900</v>
       </c>
       <c r="B74" s="18">
-        <v>11.02</v>
-      </c>
-      <c r="C74" s="3">
+        <v>7.11</v>
+      </c>
+      <c r="C74" s="126">
         <f t="shared" si="10"/>
-        <v>4.0834845735027381E-2</v>
+        <v>-7.1801566579634435E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
-        <v>44613</v>
+        <v>44893</v>
       </c>
       <c r="B75" s="18">
-        <v>11.47</v>
-      </c>
-      <c r="C75" s="3">
+        <v>7.66</v>
+      </c>
+      <c r="C75" s="126">
         <f t="shared" si="10"/>
-        <v>-4.4463818657367038E-2</v>
+        <v>5.2197802197802234E-2</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
-        <v>44620</v>
+        <v>44886</v>
       </c>
       <c r="B76" s="18">
-        <v>10.96</v>
-      </c>
-      <c r="C76" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="C76" s="126">
         <f t="shared" si="10"/>
-        <v>3.9233576642335732E-2</v>
+        <v>-1.4884979702300294E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
-        <v>44627</v>
+        <v>44879</v>
       </c>
       <c r="B77" s="18">
-        <v>11.39</v>
-      </c>
-      <c r="C77" s="3">
+        <v>7.39</v>
+      </c>
+      <c r="C77" s="126">
         <f t="shared" si="10"/>
-        <v>0.12554872695346786</v>
+        <v>-0.12128418549346021</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
-        <v>44634</v>
+        <v>44872</v>
       </c>
       <c r="B78" s="18">
-        <v>12.82</v>
-      </c>
-      <c r="C78" s="3">
+        <v>8.41</v>
+      </c>
+      <c r="C78" s="126">
         <f t="shared" si="10"/>
-        <v>1.1700468018720711E-2</v>
+        <v>6.0529634300126256E-2</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
-        <v>44641</v>
+        <v>44865</v>
       </c>
       <c r="B79" s="18">
-        <v>12.97</v>
-      </c>
-      <c r="C79" s="3">
+        <v>7.93</v>
+      </c>
+      <c r="C79" s="126">
         <f t="shared" si="10"/>
-        <v>6.6306861989205768E-2</v>
+        <v>-8.2175925925926041E-2</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
-        <v>44648</v>
+        <v>44858</v>
       </c>
       <c r="B80" s="18">
-        <v>13.83</v>
-      </c>
-      <c r="C80" s="3">
+        <v>8.64</v>
+      </c>
+      <c r="C80" s="126">
         <f t="shared" si="10"/>
-        <v>-8.1706435285611057E-2</v>
+        <v>4.2219541616405509E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
-        <v>44655</v>
+        <v>44851</v>
       </c>
       <c r="B81" s="18">
-        <v>12.7</v>
-      </c>
-      <c r="C81" s="3">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="C81" s="126">
         <f t="shared" si="10"/>
-        <v>-2.2047244094488105E-2</v>
+        <v>0.10092961487383789</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
-        <v>44662</v>
+        <v>44844</v>
       </c>
       <c r="B82" s="18">
-        <v>12.42</v>
-      </c>
-      <c r="C82" s="3">
+        <v>7.53</v>
+      </c>
+      <c r="C82" s="126">
         <f t="shared" si="10"/>
-        <v>-3.7037037037036979E-2</v>
+        <v>-7.6073619631901845E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
-        <v>44669</v>
+        <v>44837</v>
       </c>
       <c r="B83" s="18">
-        <v>11.96</v>
-      </c>
-      <c r="C83" s="3">
+        <v>8.15</v>
+      </c>
+      <c r="C83" s="126">
         <f t="shared" si="10"/>
-        <v>-0.13043478260869568</v>
+        <v>2.4600246002459691E-3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
-        <v>44676</v>
+        <v>44830</v>
       </c>
       <c r="B84" s="18">
-        <v>10.4</v>
-      </c>
-      <c r="C84" s="3">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="C84" s="126">
         <f t="shared" si="10"/>
-        <v>-8.846153846153848E-2</v>
+        <v>9.864864864864864E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
-        <v>44683</v>
+        <v>44823</v>
       </c>
       <c r="B85" s="18">
-        <v>9.48</v>
-      </c>
-      <c r="C85" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="C85" s="126">
         <f t="shared" si="10"/>
-        <v>-0.12025316455696211</v>
+        <v>-4.8843187660668419E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
-        <v>44690</v>
+        <v>44816</v>
       </c>
       <c r="B86" s="18">
-        <v>8.34</v>
-      </c>
-      <c r="C86" s="3">
+        <v>7.78</v>
+      </c>
+      <c r="C86" s="126">
         <f t="shared" si="10"/>
-        <v>-3.1175059952038398E-2</v>
+        <v>-1.2836970474967568E-3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
-        <v>44697</v>
+        <v>44809</v>
       </c>
       <c r="B87" s="18">
-        <v>8.08</v>
-      </c>
-      <c r="C87" s="3">
+        <v>7.79</v>
+      </c>
+      <c r="C87" s="126">
         <f t="shared" si="10"/>
-        <v>9.5297029702970271E-2</v>
+        <v>5.270270270270272E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
-        <v>44704</v>
+        <v>44802</v>
       </c>
       <c r="B88" s="18">
-        <v>8.85</v>
-      </c>
-      <c r="C88" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="C88" s="126">
         <f t="shared" si="10"/>
-        <v>1.0169491525423791E-2</v>
+        <v>-6.801007556675065E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
-        <v>44711</v>
+        <v>44795</v>
       </c>
       <c r="B89" s="18">
-        <v>8.94</v>
-      </c>
-      <c r="C89" s="3">
+        <v>7.94</v>
+      </c>
+      <c r="C89" s="126">
         <f t="shared" si="10"/>
-        <v>-7.606263982102901E-2</v>
+        <v>-6.6980023501762576E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
-        <v>44718</v>
+        <v>44788</v>
       </c>
       <c r="B90" s="18">
-        <v>8.26</v>
-      </c>
-      <c r="C90" s="3">
+        <v>8.51</v>
+      </c>
+      <c r="C90" s="126">
         <f t="shared" si="10"/>
-        <v>-2.421307506053183E-3</v>
+        <v>-0.14127144298688199</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
-        <v>44725</v>
+        <v>44781</v>
       </c>
       <c r="B91" s="18">
-        <v>8.24</v>
-      </c>
-      <c r="C91" s="3">
+        <v>9.91</v>
+      </c>
+      <c r="C91" s="126">
         <f t="shared" si="10"/>
-        <v>0.23665048543689315</v>
+        <v>-0.13449781659388638</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
-        <v>44732</v>
+        <v>44774</v>
       </c>
       <c r="B92" s="18">
-        <v>10.19</v>
-      </c>
-      <c r="C92" s="3">
+        <v>11.45</v>
+      </c>
+      <c r="C92" s="126">
         <f t="shared" si="10"/>
-        <v>-9.0284592737978397E-2</v>
+        <v>0.106280193236715</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
-        <v>44739</v>
+        <v>44767</v>
       </c>
       <c r="B93" s="18">
-        <v>9.27</v>
-      </c>
-      <c r="C93" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="C93" s="126">
         <f t="shared" si="10"/>
-        <v>9.7087378640776656E-2</v>
+        <v>5.1829268292682862E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
-        <v>44746</v>
+        <v>44760</v>
       </c>
       <c r="B94" s="18">
-        <v>10.17</v>
-      </c>
-      <c r="C94" s="3">
+        <v>9.84</v>
+      </c>
+      <c r="C94" s="126">
         <f t="shared" si="10"/>
-        <v>-0.11111111111111116</v>
+        <v>8.8495575221239076E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -29752,1069 +29748,1129 @@
       <c r="B95" s="18">
         <v>9.0399999999999991</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="126">
         <f t="shared" si="10"/>
-        <v>8.8495575221239076E-2</v>
+        <v>-0.11111111111111116</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
-        <v>44760</v>
+        <v>44746</v>
       </c>
       <c r="B96" s="18">
-        <v>9.84</v>
-      </c>
-      <c r="C96" s="3">
+        <v>10.17</v>
+      </c>
+      <c r="C96" s="126">
         <f t="shared" si="10"/>
-        <v>5.1829268292682862E-2</v>
+        <v>9.7087378640776656E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
-        <v>44767</v>
+        <v>44739</v>
       </c>
       <c r="B97" s="18">
-        <v>10.35</v>
-      </c>
-      <c r="C97" s="3">
+        <v>9.27</v>
+      </c>
+      <c r="C97" s="126">
         <f t="shared" si="10"/>
-        <v>0.106280193236715</v>
+        <v>-9.0284592737978397E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
-        <v>44774</v>
+        <v>44732</v>
       </c>
       <c r="B98" s="18">
-        <v>11.45</v>
-      </c>
-      <c r="C98" s="3">
+        <v>10.19</v>
+      </c>
+      <c r="C98" s="126">
         <f t="shared" si="10"/>
-        <v>-0.13449781659388638</v>
+        <v>0.23665048543689315</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
-        <v>44781</v>
+        <v>44725</v>
       </c>
       <c r="B99" s="18">
-        <v>9.91</v>
-      </c>
-      <c r="C99" s="3">
+        <v>8.24</v>
+      </c>
+      <c r="C99" s="126">
         <f t="shared" si="10"/>
-        <v>-0.14127144298688199</v>
+        <v>-2.421307506053183E-3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
-        <v>44788</v>
+        <v>44718</v>
       </c>
       <c r="B100" s="18">
-        <v>8.51</v>
-      </c>
-      <c r="C100" s="3">
+        <v>8.26</v>
+      </c>
+      <c r="C100" s="126">
         <f t="shared" si="10"/>
-        <v>-6.6980023501762576E-2</v>
+        <v>-7.606263982102901E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
-        <v>44795</v>
+        <v>44711</v>
       </c>
       <c r="B101" s="18">
-        <v>7.94</v>
-      </c>
-      <c r="C101" s="3">
+        <v>8.94</v>
+      </c>
+      <c r="C101" s="126">
         <f t="shared" si="10"/>
-        <v>-6.801007556675065E-2</v>
+        <v>1.0169491525423791E-2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
-        <v>44802</v>
+        <v>44704</v>
       </c>
       <c r="B102" s="18">
-        <v>7.4</v>
-      </c>
-      <c r="C102" s="3">
+        <v>8.85</v>
+      </c>
+      <c r="C102" s="126">
         <f t="shared" si="10"/>
-        <v>5.270270270270272E-2</v>
+        <v>9.5297029702970271E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
-        <v>44809</v>
+        <v>44697</v>
       </c>
       <c r="B103" s="18">
-        <v>7.79</v>
-      </c>
-      <c r="C103" s="3">
+        <v>8.08</v>
+      </c>
+      <c r="C103" s="126">
         <f t="shared" si="10"/>
-        <v>-1.2836970474967568E-3</v>
+        <v>-3.1175059952038398E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
-        <v>44816</v>
+        <v>44690</v>
       </c>
       <c r="B104" s="18">
-        <v>7.78</v>
-      </c>
-      <c r="C104" s="3">
+        <v>8.34</v>
+      </c>
+      <c r="C104" s="126">
         <f t="shared" si="10"/>
-        <v>-4.8843187660668419E-2</v>
+        <v>-0.12025316455696211</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
-        <v>44823</v>
+        <v>44683</v>
       </c>
       <c r="B105" s="18">
-        <v>7.4</v>
-      </c>
-      <c r="C105" s="3">
+        <v>9.48</v>
+      </c>
+      <c r="C105" s="126">
         <f t="shared" si="10"/>
-        <v>9.864864864864864E-2</v>
+        <v>-8.846153846153848E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
-        <v>44830</v>
+        <v>44676</v>
       </c>
       <c r="B106" s="18">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="C106" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="C106" s="126">
         <f t="shared" si="10"/>
-        <v>2.4600246002459691E-3</v>
+        <v>-0.13043478260869568</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
-        <v>44837</v>
+        <v>44669</v>
       </c>
       <c r="B107" s="18">
-        <v>8.15</v>
-      </c>
-      <c r="C107" s="3">
+        <v>11.96</v>
+      </c>
+      <c r="C107" s="126">
         <f t="shared" si="10"/>
-        <v>-7.6073619631901845E-2</v>
+        <v>-3.7037037037036979E-2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
-        <v>44844</v>
+        <v>44662</v>
       </c>
       <c r="B108" s="18">
-        <v>7.53</v>
-      </c>
-      <c r="C108" s="3">
+        <v>12.42</v>
+      </c>
+      <c r="C108" s="126">
         <f t="shared" si="10"/>
-        <v>0.10092961487383789</v>
+        <v>-2.2047244094488105E-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
-        <v>44851</v>
+        <v>44655</v>
       </c>
       <c r="B109" s="18">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="C109" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="C109" s="126">
         <f t="shared" si="10"/>
-        <v>4.2219541616405509E-2</v>
+        <v>-8.1706435285611057E-2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
-        <v>44858</v>
+        <v>44648</v>
       </c>
       <c r="B110" s="18">
-        <v>8.64</v>
-      </c>
-      <c r="C110" s="3">
+        <v>13.83</v>
+      </c>
+      <c r="C110" s="126">
         <f t="shared" si="10"/>
-        <v>-8.2175925925926041E-2</v>
+        <v>6.6306861989205768E-2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
-        <v>44865</v>
+        <v>44641</v>
       </c>
       <c r="B111" s="18">
-        <v>7.93</v>
-      </c>
-      <c r="C111" s="3">
+        <v>12.97</v>
+      </c>
+      <c r="C111" s="126">
         <f t="shared" si="10"/>
-        <v>6.0529634300126256E-2</v>
+        <v>1.1700468018720711E-2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
-        <v>44872</v>
+        <v>44634</v>
       </c>
       <c r="B112" s="18">
-        <v>8.41</v>
-      </c>
-      <c r="C112" s="3">
+        <v>12.82</v>
+      </c>
+      <c r="C112" s="126">
         <f t="shared" si="10"/>
-        <v>-0.12128418549346021</v>
+        <v>0.12554872695346786</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
-        <v>44879</v>
+        <v>44627</v>
       </c>
       <c r="B113" s="18">
-        <v>7.39</v>
-      </c>
-      <c r="C113" s="3">
+        <v>11.39</v>
+      </c>
+      <c r="C113" s="126">
         <f t="shared" si="10"/>
-        <v>-1.4884979702300294E-2</v>
+        <v>3.9233576642335732E-2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
-        <v>44886</v>
+        <v>44620</v>
       </c>
       <c r="B114" s="18">
-        <v>7.28</v>
-      </c>
-      <c r="C114" s="3">
+        <v>10.96</v>
+      </c>
+      <c r="C114" s="126">
         <f t="shared" si="10"/>
-        <v>5.2197802197802234E-2</v>
+        <v>-4.4463818657367038E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
-        <v>44893</v>
+        <v>44613</v>
       </c>
       <c r="B115" s="18">
-        <v>7.66</v>
-      </c>
-      <c r="C115" s="3">
+        <v>11.47</v>
+      </c>
+      <c r="C115" s="126">
         <f t="shared" si="10"/>
-        <v>-7.1801566579634435E-2</v>
+        <v>4.0834845735027381E-2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
-        <v>44900</v>
+        <v>44606</v>
       </c>
       <c r="B116" s="18">
-        <v>7.11</v>
-      </c>
-      <c r="C116" s="3">
+        <v>11.02</v>
+      </c>
+      <c r="C116" s="126">
         <f t="shared" si="10"/>
-        <v>-2.9535864978902926E-2</v>
+        <v>-0.16070068545316074</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
-        <v>44907</v>
+        <v>44599</v>
       </c>
       <c r="B117" s="18">
-        <v>6.9</v>
-      </c>
-      <c r="C117" s="3">
+        <v>13.13</v>
+      </c>
+      <c r="C117" s="126">
         <f t="shared" si="10"/>
-        <v>-8.8405797101449357E-2</v>
+        <v>1.4683153013910433E-2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
-        <v>44914</v>
+        <v>44592</v>
       </c>
       <c r="B118" s="18">
-        <v>6.29</v>
-      </c>
-      <c r="C118" s="3">
+        <v>12.94</v>
+      </c>
+      <c r="C118" s="126">
         <f t="shared" si="10"/>
-        <v>2.0667726550079424E-2</v>
+        <v>1.8095987411486991E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
-        <v>44921</v>
+        <v>44585</v>
       </c>
       <c r="B119" s="18">
-        <v>6.42</v>
-      </c>
-      <c r="C119" s="3">
+        <v>12.71</v>
+      </c>
+      <c r="C119" s="126">
         <f t="shared" si="10"/>
-        <v>-3.1152647975076775E-3</v>
+        <v>-6.0606060606060552E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
-        <v>44928</v>
+        <v>44578</v>
       </c>
       <c r="B120" s="18">
-        <v>6.4</v>
-      </c>
-      <c r="C120" s="3">
+        <v>13.53</v>
+      </c>
+      <c r="C120" s="126">
         <f t="shared" si="10"/>
-        <v>8.7499999999999911E-2</v>
+        <v>-0.15490318550905691</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
-        <v>44935</v>
+        <v>44571</v>
       </c>
       <c r="B121" s="18">
-        <v>6.96</v>
-      </c>
-      <c r="C121" s="3">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="C121" s="126">
         <f t="shared" si="10"/>
-        <v>8.6206896551723755E-3</v>
+        <v>-3.3212502005585898E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
-        <v>44942</v>
+        <v>44564</v>
       </c>
       <c r="B122" s="18">
-        <v>7.02</v>
-      </c>
-      <c r="C122" s="3">
+        <v>16.559999000000001</v>
+      </c>
+      <c r="C122" s="126">
         <f t="shared" si="10"/>
-        <v>7.5498575498575526E-2</v>
+        <v>-9.0609560165269554E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
-        <v>44949</v>
+        <v>44557</v>
       </c>
       <c r="B123" s="18">
-        <v>7.55</v>
-      </c>
-      <c r="C123" s="3">
+        <v>18.209999</v>
+      </c>
+      <c r="C123" s="126">
         <f t="shared" si="10"/>
-        <v>0.11390728476821188</v>
+        <v>-3.8034918119387195E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
-        <v>44956</v>
+        <v>44550</v>
       </c>
       <c r="B124" s="18">
-        <v>8.41</v>
-      </c>
-      <c r="C124" s="3">
+        <v>18.93</v>
+      </c>
+      <c r="C124" s="126">
         <f t="shared" si="10"/>
-        <v>-0.1070154577883472</v>
+        <v>-6.8205145236367448E-3</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
-        <v>44963</v>
+        <v>44543</v>
       </c>
       <c r="B125" s="18">
-        <v>7.51</v>
-      </c>
-      <c r="C125" s="3">
+        <v>19.059999000000001</v>
+      </c>
+      <c r="C125" s="126">
         <f t="shared" si="10"/>
-        <v>0.22503328894806929</v>
+        <v>6.3356913233532097E-3</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
-        <v>44970</v>
+        <v>44536</v>
       </c>
       <c r="B126" s="18">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C126" s="3">
+        <v>18.940000999999999</v>
+      </c>
+      <c r="C126" s="126">
         <f t="shared" si="10"/>
-        <v>-0.12065217391304339</v>
+        <v>-2.1074288724974855E-3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
-        <v>44977</v>
+        <v>44529</v>
       </c>
       <c r="B127" s="18">
-        <v>8.09</v>
-      </c>
-      <c r="C127" s="3">
+        <v>18.98</v>
+      </c>
+      <c r="C127" s="126">
         <f t="shared" si="10"/>
-        <v>2.9666254635352329E-2</v>
+        <v>-9.747983369092561E-2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
-        <v>44984</v>
+        <v>44522</v>
       </c>
       <c r="B128" s="18">
-        <v>8.33</v>
-      </c>
-      <c r="C128" s="3">
+        <v>21.030000999999999</v>
+      </c>
+      <c r="C128" s="126">
         <f t="shared" si="10"/>
-        <v>-0.11764705882352944</v>
+        <v>-1.7748668846333526E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
-        <v>44991</v>
+        <v>44515</v>
       </c>
       <c r="B129" s="18">
-        <v>7.35</v>
-      </c>
-      <c r="C129" s="3">
+        <v>21.41</v>
+      </c>
+      <c r="C129" s="126">
         <f t="shared" si="10"/>
-        <v>7.210884353741509E-2</v>
+        <v>-6.219886114761275E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
-        <v>44998</v>
+        <v>44508</v>
       </c>
       <c r="B130" s="18">
-        <v>7.88</v>
-      </c>
-      <c r="C130" s="3">
+        <v>22.83</v>
+      </c>
+      <c r="C130" s="126">
         <f t="shared" si="10"/>
-        <v>4.0609137055837463E-2</v>
+        <v>-0.12192307692307702</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
-        <v>45005</v>
+        <v>44501</v>
       </c>
       <c r="B131" s="18">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C131" s="3">
+        <v>26</v>
+      </c>
+      <c r="C131" s="126">
         <f t="shared" si="10"/>
-        <v>3.0487804878048808E-2</v>
+        <v>4.6368239813301404E-3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
-        <v>45012</v>
+        <v>44494</v>
       </c>
       <c r="B132" s="18">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="C132" s="3">
-        <f t="shared" ref="C132:C182" si="11">B133/B132-1</f>
-        <v>-4.2603550295857939E-2</v>
+        <v>25.879999000000002</v>
+      </c>
+      <c r="C132" s="126">
+        <f t="shared" ref="C132:C187" si="11">B132/B133-1</f>
+        <v>5.9353213262382409E-2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
-        <v>45019</v>
+        <v>44487</v>
       </c>
       <c r="B133" s="18">
-        <v>8.09</v>
-      </c>
-      <c r="C133" s="3">
+        <v>24.43</v>
+      </c>
+      <c r="C133" s="126">
         <f t="shared" si="11"/>
-        <v>8.8998763906056988E-2</v>
+        <v>1.7916666666666581E-2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
-        <v>45026</v>
+        <v>44480</v>
       </c>
       <c r="B134" s="18">
-        <v>8.81</v>
-      </c>
-      <c r="C134" s="3">
+        <v>24</v>
+      </c>
+      <c r="C134" s="126">
         <f t="shared" si="11"/>
-        <v>-7.1509648127128345E-2</v>
+        <v>2.1276595744680771E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
-        <v>45033</v>
+        <v>44473</v>
       </c>
       <c r="B135" s="18">
-        <v>8.18</v>
-      </c>
-      <c r="C135" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="C135" s="126">
         <f t="shared" si="11"/>
-        <v>-5.2567237163814173E-2</v>
+        <v>-3.4114262227702308E-2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
-        <v>45040</v>
+        <v>44466</v>
       </c>
       <c r="B136" s="18">
-        <v>7.75</v>
-      </c>
-      <c r="C136" s="3">
+        <v>24.33</v>
+      </c>
+      <c r="C136" s="126">
         <f t="shared" si="11"/>
-        <v>-4.387096774193544E-2</v>
+        <v>-0.14810921386937037</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
-        <v>45047</v>
+        <v>44459</v>
       </c>
       <c r="B137" s="18">
-        <v>7.41</v>
-      </c>
-      <c r="C137" s="3">
+        <v>28.559999000000001</v>
+      </c>
+      <c r="C137" s="126">
         <f t="shared" si="11"/>
-        <v>0.28205128205128194</v>
+        <v>-5.2246605790546852E-3</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
-        <v>45054</v>
+        <v>44452</v>
       </c>
       <c r="B138" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="C138" s="3">
+        <v>28.709999</v>
+      </c>
+      <c r="C138" s="126">
         <f t="shared" si="11"/>
-        <v>0.23263157894736852</v>
+        <v>9.2465673802676118E-2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
-        <v>45061</v>
+        <v>44445</v>
       </c>
       <c r="B139" s="18">
-        <v>11.71</v>
-      </c>
-      <c r="C139" s="3">
+        <v>26.280000999999999</v>
+      </c>
+      <c r="C139" s="126">
         <f t="shared" si="11"/>
-        <v>0.16567036720751482</v>
+        <v>-1.3513438945699674E-2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
-        <v>45068</v>
+        <v>44438</v>
       </c>
       <c r="B140" s="18">
-        <v>13.65</v>
-      </c>
-      <c r="C140" s="3">
+        <v>26.639999</v>
+      </c>
+      <c r="C140" s="126">
         <f t="shared" si="11"/>
-        <v>6.3736263736263732E-2</v>
+        <v>3.6172696856191955E-2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
-        <v>45075</v>
+        <v>44431</v>
       </c>
       <c r="B141" s="18">
-        <v>14.52</v>
-      </c>
-      <c r="C141" s="3">
+        <v>25.709999</v>
+      </c>
+      <c r="C141" s="126">
         <f t="shared" si="11"/>
-        <v>3.4435261707989051E-2</v>
+        <v>7.0803790087463403E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
-        <v>45082</v>
+        <v>44424</v>
       </c>
       <c r="B142" s="18">
-        <v>15.02</v>
-      </c>
-      <c r="C142" s="3">
+        <v>24.01</v>
+      </c>
+      <c r="C142" s="126">
         <f t="shared" si="11"/>
-        <v>8.5219640479360814E-2</v>
+        <v>-3.5742971887550046E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
-        <v>45089</v>
+        <v>44417</v>
       </c>
       <c r="B143" s="18">
-        <v>16.299999</v>
-      </c>
-      <c r="C143" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="C143" s="126">
         <f t="shared" si="11"/>
-        <v>-0.13926375087507681</v>
+        <v>0.14115490375801998</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
-        <v>45096</v>
+        <v>44410</v>
       </c>
       <c r="B144" s="18">
-        <v>14.03</v>
-      </c>
-      <c r="C144" s="3">
+        <v>21.82</v>
+      </c>
+      <c r="C144" s="126">
         <f t="shared" si="11"/>
-        <v>9.2658588738417702E-2</v>
+        <v>5.0668357930372387E-3</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
-        <v>45103</v>
+        <v>44403</v>
       </c>
       <c r="B145" s="18">
-        <v>15.33</v>
-      </c>
-      <c r="C145" s="3">
+        <v>21.709999</v>
+      </c>
+      <c r="C145" s="126">
         <f t="shared" si="11"/>
-        <v>6.5231572080892697E-4</v>
+        <v>-4.5850529383335559E-3</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
-        <v>45110</v>
+        <v>44396</v>
       </c>
       <c r="B146" s="18">
-        <v>15.34</v>
-      </c>
-      <c r="C146" s="3">
+        <v>21.809999000000001</v>
+      </c>
+      <c r="C146" s="126">
         <f t="shared" si="11"/>
-        <v>6.9100391134289341E-2</v>
+        <v>2.0589517052432615E-2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
-        <v>45117</v>
+        <v>44389</v>
       </c>
       <c r="B147" s="18">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C147" s="3">
+        <v>21.370000999999998</v>
+      </c>
+      <c r="C147" s="126">
         <f t="shared" si="11"/>
-        <v>1.8292682926830395E-3</v>
+        <v>-8.2438811402369749E-2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
-        <v>45124</v>
+        <v>44382</v>
       </c>
       <c r="B148" s="18">
-        <v>16.43</v>
-      </c>
-      <c r="C148" s="3">
+        <v>23.290001</v>
+      </c>
+      <c r="C148" s="126">
         <f t="shared" si="11"/>
-        <v>8.3992635423006723E-2</v>
+        <v>-4.7054007894680505E-2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
-        <v>45131</v>
+        <v>44375</v>
       </c>
       <c r="B149" s="18">
-        <v>17.809999000000001</v>
-      </c>
-      <c r="C149" s="3">
+        <v>24.440000999999999</v>
+      </c>
+      <c r="C149" s="126">
         <f t="shared" si="11"/>
-        <v>2.1897923744970349E-2</v>
+        <v>-8.7378637513867208E-2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
-        <v>45138</v>
+        <v>44368</v>
       </c>
       <c r="B150" s="18">
-        <v>18.200001</v>
-      </c>
-      <c r="C150" s="3">
+        <v>26.780000999999999</v>
+      </c>
+      <c r="C150" s="126">
         <f t="shared" si="11"/>
-        <v>-0.15329674981885988</v>
+        <v>5.5577451494779107E-2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
-        <v>45145</v>
+        <v>44361</v>
       </c>
       <c r="B151" s="18">
-        <v>15.41</v>
-      </c>
-      <c r="C151" s="3">
+        <v>25.370000999999998</v>
+      </c>
+      <c r="C151" s="126">
         <f t="shared" si="11"/>
-        <v>-6.5541855937702787E-2</v>
+        <v>2.8374584515605816E-2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
-        <v>45152</v>
+        <v>44354</v>
       </c>
       <c r="B152" s="18">
-        <v>14.4</v>
-      </c>
-      <c r="C152" s="3">
+        <v>24.67</v>
+      </c>
+      <c r="C152" s="126">
         <f t="shared" si="11"/>
-        <v>9.0277777777776347E-3</v>
+        <v>2.6633332224996753E-2</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
-        <v>45159</v>
+        <v>44347</v>
       </c>
       <c r="B153" s="18">
-        <v>14.53</v>
-      </c>
-      <c r="C153" s="3">
+        <v>24.030000999999999</v>
+      </c>
+      <c r="C153" s="126">
         <f t="shared" si="11"/>
-        <v>4.4735030970405987E-2</v>
+        <v>4.7058821478918489E-2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
-        <v>45166</v>
+        <v>44340</v>
       </c>
       <c r="B154" s="18">
-        <v>15.18</v>
-      </c>
-      <c r="C154" s="3">
+        <v>22.950001</v>
+      </c>
+      <c r="C154" s="126">
         <f t="shared" si="11"/>
-        <v>-3.2938076416336726E-3</v>
+        <v>0.10602414457831322</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
-        <v>45173</v>
+        <v>44333</v>
       </c>
       <c r="B155" s="18">
-        <v>15.13</v>
-      </c>
-      <c r="C155" s="3">
+        <v>20.75</v>
+      </c>
+      <c r="C155" s="126">
         <f t="shared" si="11"/>
-        <v>1.3218770654329193E-2</v>
+        <v>3.3366533864541914E-2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
-        <v>45180</v>
+        <v>44326</v>
       </c>
       <c r="B156" s="18">
-        <v>15.33</v>
-      </c>
-      <c r="C156" s="3">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="C156" s="126">
         <f t="shared" si="11"/>
-        <v>-7.8277886497064575E-2</v>
+        <v>1.6708860759493627E-2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
-        <v>45187</v>
+        <v>44319</v>
       </c>
       <c r="B157" s="18">
-        <v>14.13</v>
-      </c>
-      <c r="C157" s="3">
+        <v>19.75</v>
+      </c>
+      <c r="C157" s="126">
         <f t="shared" si="11"/>
-        <v>0.13234253361641901</v>
+        <v>-0.14279517609395942</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
-        <v>45194</v>
+        <v>44312</v>
       </c>
       <c r="B158" s="18">
-        <v>16</v>
-      </c>
-      <c r="C158" s="3">
+        <v>23.040001</v>
+      </c>
+      <c r="C158" s="126">
         <f t="shared" si="11"/>
-        <v>3.8125062500000029E-2</v>
+        <v>-1.5805168731311436E-2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
-        <v>45201</v>
+        <v>44305</v>
       </c>
       <c r="B159" s="18">
-        <v>16.610001</v>
-      </c>
-      <c r="C159" s="3">
+        <v>23.41</v>
+      </c>
+      <c r="C159" s="126">
         <f t="shared" si="11"/>
-        <v>4.5153519256260211E-2</v>
+        <v>4.183360221778365E-2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
-        <v>45208</v>
+        <v>44298</v>
       </c>
       <c r="B160" s="18">
-        <v>17.360001</v>
-      </c>
-      <c r="C160" s="3">
+        <v>22.469999000000001</v>
+      </c>
+      <c r="C160" s="126">
         <f t="shared" si="11"/>
-        <v>-7.2004604147200224E-2</v>
+        <v>-6.5307900777541561E-2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
-        <v>45215</v>
+        <v>44291</v>
       </c>
       <c r="B161" s="18">
-        <v>16.110001</v>
-      </c>
-      <c r="C161" s="3">
+        <v>24.040001</v>
+      </c>
+      <c r="C161" s="126">
         <f t="shared" si="11"/>
-        <v>-6.4556234354051223E-2</v>
+        <v>4.2045990463805749E-2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
-        <v>45222</v>
+        <v>44284</v>
       </c>
       <c r="B162" s="18">
-        <v>15.07</v>
-      </c>
-      <c r="C162" s="3">
+        <v>23.07</v>
+      </c>
+      <c r="C162" s="126">
         <f t="shared" si="11"/>
-        <v>0.25348367617783674</v>
+        <v>2.1700620017714778E-2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
-        <v>45229</v>
+        <v>44277</v>
       </c>
       <c r="B163" s="18">
-        <v>18.889999</v>
-      </c>
-      <c r="C163" s="3">
+        <v>22.58</v>
+      </c>
+      <c r="C163" s="126">
         <f t="shared" si="11"/>
-        <v>4.1291743848160145E-2</v>
+        <v>-7.1546052631578982E-2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
-        <v>45236</v>
+        <v>44270</v>
       </c>
       <c r="B164" s="18">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="C164" s="3">
+        <v>24.32</v>
+      </c>
+      <c r="C164" s="126">
         <f t="shared" si="11"/>
-        <v>4.1687849517030751E-2</v>
+        <v>-9.6582466567607828E-2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
-        <v>45243</v>
+        <v>44263</v>
       </c>
       <c r="B165" s="18">
-        <v>20.49</v>
-      </c>
-      <c r="C165" s="3">
+        <v>26.92</v>
+      </c>
+      <c r="C165" s="126">
         <f t="shared" si="11"/>
-        <v>-6.2957491459248338E-2</v>
+        <v>0.12400830379923589</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
-        <v>45250</v>
+        <v>44256</v>
       </c>
       <c r="B166" s="18">
-        <v>19.200001</v>
-      </c>
-      <c r="C166" s="3">
+        <v>23.950001</v>
+      </c>
+      <c r="C166" s="126">
         <f t="shared" si="11"/>
-        <v>5.5729111680775434E-2</v>
+        <v>2.0920920502092155E-3</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
-        <v>45257</v>
+        <v>44249</v>
       </c>
       <c r="B167" s="18">
-        <v>20.27</v>
-      </c>
-      <c r="C167" s="3">
+        <v>23.9</v>
+      </c>
+      <c r="C167" s="126">
         <f t="shared" si="11"/>
-        <v>-0.12333497779970404</v>
+        <v>-0.17586206896551726</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
-        <v>45264</v>
+        <v>44242</v>
       </c>
       <c r="B168" s="18">
-        <v>17.77</v>
-      </c>
-      <c r="C168" s="3">
+        <v>29</v>
+      </c>
+      <c r="C168" s="126">
         <f t="shared" si="11"/>
-        <v>2.4198142937535305E-2</v>
+        <v>-9.1193983077405227E-2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
-        <v>45271</v>
+        <v>44235</v>
       </c>
       <c r="B169" s="18">
-        <v>18.200001</v>
-      </c>
-      <c r="C169" s="3">
+        <v>31.91</v>
+      </c>
+      <c r="C169" s="126">
         <f t="shared" si="11"/>
-        <v>-4.3406645966667767E-2</v>
+        <v>-6.2848724312737803E-2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
-        <v>45278</v>
+        <v>44228</v>
       </c>
       <c r="B170" s="18">
-        <v>17.41</v>
-      </c>
-      <c r="C170" s="3">
+        <v>34.049999</v>
+      </c>
+      <c r="C170" s="126">
         <f t="shared" si="11"/>
-        <v>-1.378518093049963E-2</v>
+        <v>-3.2120551449687285E-2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
-        <v>45285</v>
+        <v>44221</v>
       </c>
       <c r="B171" s="18">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="C171" s="3">
+        <v>35.18</v>
+      </c>
+      <c r="C171" s="126">
         <f t="shared" si="11"/>
-        <v>-6.9306930693069368E-2</v>
+        <v>7.9803494180264334E-2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
-        <v>45292</v>
+        <v>44214</v>
       </c>
       <c r="B172" s="18">
-        <v>15.98</v>
-      </c>
-      <c r="C172" s="3">
+        <v>32.580002</v>
+      </c>
+      <c r="C172" s="126">
         <f t="shared" si="11"/>
-        <v>4.8811013767209088E-2</v>
+        <v>0.27067095439434308</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
-        <v>45299</v>
+        <v>44207</v>
       </c>
       <c r="B173" s="18">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="C173" s="3">
+        <v>25.639999</v>
+      </c>
+      <c r="C173" s="126">
         <f t="shared" si="11"/>
-        <v>1.1933770883052475E-3</v>
+        <v>1.746023740237157E-2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
-        <v>45306</v>
+        <v>44200</v>
       </c>
       <c r="B174" s="18">
-        <v>16.780000999999999</v>
-      </c>
-      <c r="C174" s="3">
+        <v>25.200001</v>
+      </c>
+      <c r="C174" s="126">
         <f t="shared" si="11"/>
-        <v>-2.5625803002037761E-2</v>
+        <v>7.0063782168313438E-2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
-        <v>45313</v>
+        <v>44193</v>
       </c>
       <c r="B175" s="18">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="C175" s="3">
+        <v>23.549999</v>
+      </c>
+      <c r="C175" s="126">
         <f t="shared" si="11"/>
-        <v>4.0978593272171127E-2</v>
+        <v>-0.1513513873873874</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
-        <v>45320</v>
+        <v>44186</v>
       </c>
       <c r="B176" s="18">
-        <v>17.02</v>
-      </c>
-      <c r="C176" s="3">
-        <f>B177/B176-1</f>
-        <v>0.43243237367802601</v>
+        <v>27.75</v>
+      </c>
+      <c r="C176" s="126">
+        <f t="shared" si="11"/>
+        <v>6.8540664941881602E-2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
-        <v>45327</v>
+        <v>44179</v>
       </c>
       <c r="B177" s="18">
-        <v>24.379999000000002</v>
-      </c>
-      <c r="C177" s="3">
+        <v>25.969999000000001</v>
+      </c>
+      <c r="C177" s="126">
         <f t="shared" si="11"/>
-        <v>2.4611157695288988E-3</v>
+        <v>-4.522066010218162E-2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
-        <v>45334</v>
+        <v>44172</v>
       </c>
       <c r="B178" s="18">
-        <v>24.440000999999999</v>
-      </c>
-      <c r="C178" s="3">
+        <v>27.200001</v>
+      </c>
+      <c r="C178" s="126">
         <f t="shared" si="11"/>
-        <v>-6.0147378881040048E-2</v>
+        <v>0.1404612578616351</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
-        <v>45341</v>
+        <v>44165</v>
       </c>
       <c r="B179" s="18">
-        <v>22.969999000000001</v>
-      </c>
-      <c r="C179" s="3">
+        <v>23.85</v>
+      </c>
+      <c r="C179" s="126">
         <f t="shared" si="11"/>
-        <v>8.5328736844960229E-2</v>
+        <v>-0.13774403470715835</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
-        <v>45348</v>
+        <v>44158</v>
       </c>
       <c r="B180" s="18">
-        <v>24.93</v>
-      </c>
-      <c r="C180" s="3">
+        <v>27.66</v>
+      </c>
+      <c r="C180" s="126">
         <f t="shared" si="11"/>
-        <v>4.4524709185719935E-2</v>
+        <v>0.5239669421487605</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
-        <v>45355</v>
+        <v>44151</v>
       </c>
       <c r="B181" s="18">
-        <v>26.040001</v>
-      </c>
-      <c r="C181" s="3">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="C181" s="126">
         <f t="shared" si="11"/>
-        <v>-9.7926301922953152E-2</v>
+        <v>0.14873417721518978</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
-        <v>45362</v>
+        <v>44144</v>
       </c>
       <c r="B182" s="18">
-        <v>23.49</v>
-      </c>
-      <c r="C182" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="C182" s="126">
         <f t="shared" si="11"/>
-        <v>2.9374201787994991E-2</v>
+        <v>0.14244396240057844</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
-        <v>45369</v>
+        <v>44137</v>
       </c>
       <c r="B183" s="18">
-        <v>24.18</v>
-      </c>
-      <c r="C183" s="3"/>
+        <v>13.83</v>
+      </c>
+      <c r="C183" s="126">
+        <f t="shared" si="11"/>
+        <v>0.36525172754195445</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="12"/>
-      <c r="B184" s="18"/>
+      <c r="A184" s="12">
+        <v>44130</v>
+      </c>
+      <c r="B184" s="18">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="C184" s="126">
+        <f t="shared" si="11"/>
+        <v>6.7439409905163394E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
+        <v>44123</v>
+      </c>
+      <c r="B185" s="18">
+        <v>9.49</v>
+      </c>
+      <c r="C185" s="126">
+        <f t="shared" si="11"/>
+        <v>-2.2657054582904235E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
+        <v>44116</v>
+      </c>
+      <c r="B186" s="18">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="C186" s="126">
+        <f t="shared" si="11"/>
+        <v>-2.4120603015075237E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
+        <v>44109</v>
+      </c>
+      <c r="B187" s="18">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="C187" s="126">
+        <f t="shared" si="11"/>
+        <v>8.1521739130434812E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="12">
+        <v>44102</v>
+      </c>
+      <c r="B188" s="18">
+        <v>9.1999999999999993</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C183">
+      <sortCondition descending="1" ref="A1"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="G43:L43"/>

--- a/Business - Technology Services/PLTR.xlsx
+++ b/Business - Technology Services/PLTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D0567D-3C65-4672-A970-AB9AEAF25DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3AE2F8-3929-46EE-BB45-175F622F08C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14873,7 +14873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -27674,8 +27674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:P188"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B188"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29308,7 +29308,9 @@
       <c r="G60" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="H60" s="106"/>
+      <c r="H60" s="106">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
@@ -29324,7 +29326,9 @@
       <c r="G61" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="108"/>
+      <c r="H61" s="108">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
@@ -29353,7 +29357,9 @@
       <c r="G63" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="110"/>
+      <c r="H63" s="110">
+        <v>22.66</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
@@ -29371,7 +29377,7 @@
       </c>
       <c r="H64" s="112">
         <f>H63*(1-H60)</f>
-        <v>0</v>
+        <v>20.167400000000001</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29390,7 +29396,7 @@
       </c>
       <c r="H65" s="113">
         <f>H63*(1+H61)</f>
-        <v>0</v>
+        <v>30.591000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">

--- a/Business - Technology Services/PLTR.xlsx
+++ b/Business - Technology Services/PLTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3AE2F8-3929-46EE-BB45-175F622F08C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C66EB2-1105-40ED-8FD8-782400FCE4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="90" windowWidth="14520" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DoR!$A$1:$C$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$4:$W$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$18</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$17:$W$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$18:$W$18</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$17:$W$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$18:$W$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$3:$W$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$4:$W$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="200">
   <si>
     <t>Price</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>G&amp;A / REV</t>
+  </si>
+  <si>
+    <t>Q324</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1644,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1692,14 +1695,7 @@
     <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1852,6 +1848,30 @@
     <xf numFmtId="167" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2156,6 +2176,9 @@
                 <c:pt idx="11">
                   <c:v>608.35</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>634.33799999999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2186,7 +2209,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$21</c:f>
+              <c:f>Model!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2263,7 +2286,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$21:$W$21</c:f>
+              <c:f>Model!$K$22:$W$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2292,7 +2315,7 @@
                   <c:v>0.19607018150932731</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19068291995597741</c:v>
+                  <c:v>0.20783493847893864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,7 +2846,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$21</c:f>
+              <c:f>Model!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2910,7 +2933,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$21:$G$21</c:f>
+              <c:f>Model!$B$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3475,7 +3498,7 @@
                   <c:v>108.49100000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>105.52999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3507,7 +3530,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$19</c:f>
+              <c:f>Model!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3584,7 +3607,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$19:$W$19</c:f>
+              <c:f>Model!$K$20:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3623,6 +3646,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.82142023506205308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81672862101907817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4115,7 +4141,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$25</c:f>
+              <c:f>Model!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4190,7 +4216,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$25:$G$25</c:f>
+              <c:f>Model!$B$26:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4690,7 +4716,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$23:$U$23</c:f>
+              <c:f>Model!$K$24:$U$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4835,7 +4861,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$22:$V$22</c:f>
+              <c:f>Model!$K$23:$V$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4983,7 +5009,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$24:$V$24</c:f>
+              <c:f>Model!$K$25:$V$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8380,18 +8406,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8435,7 +8461,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8455,7 +8481,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8486,18 +8512,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8541,7 +8567,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8561,7 +8587,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -14873,8 +14899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14902,7 +14928,7 @@
       <c r="E2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="57" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="25"/>
@@ -14930,7 +14956,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="20">
-        <v>45377</v>
+        <v>45419</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>135</v>
@@ -14946,7 +14972,7 @@
       </c>
       <c r="J3" s="39">
         <f t="shared" ref="J3:J10" si="0">I3/($C$7*100000)</f>
-        <v>2.7567631502724634E-6</v>
+        <v>2.6744430314269644E-6</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>163</v>
@@ -14959,7 +14985,7 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.70486111111111116</v>
+        <v>0.78263888888888888</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>137</v>
@@ -14975,7 +15001,7 @@
       </c>
       <c r="J4" s="39">
         <f t="shared" si="0"/>
-        <v>2.0228680954026317E-5</v>
+        <v>1.962462927114651E-5</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>165</v>
@@ -15002,7 +15028,7 @@
       </c>
       <c r="J5" s="39">
         <f t="shared" si="0"/>
-        <v>2.995306983272222E-2</v>
+        <v>2.905863671170001E-2</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>167</v>
@@ -15017,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>25.28</v>
+        <v>21.76</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>141</v>
@@ -15033,7 +15059,7 @@
       </c>
       <c r="J6" s="39">
         <f t="shared" si="0"/>
-        <v>7.6161170059689514E-3</v>
+        <v>7.3886909911476837E-3</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>169</v>
@@ -15048,7 +15074,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <v>2147.4459999999999</v>
+        <f>Model!W16</f>
+        <v>2213.5450000000001</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>143</v>
@@ -15064,7 +15091,7 @@
       </c>
       <c r="J7" s="39">
         <f t="shared" si="0"/>
-        <v>3.1206186325523438E-3</v>
+        <v>3.0274333704532774E-3</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>171</v>
@@ -15080,7 +15107,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>54287.434880000001</v>
+        <v>48166.739200000004</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>145</v>
@@ -15096,7 +15123,7 @@
       </c>
       <c r="J8" s="39">
         <f t="shared" si="0"/>
-        <v>6.9975217071814614E-3</v>
+        <v>6.7885676595687006E-3</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>173</v>
@@ -15111,8 +15138,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!V30+Model!V31</f>
-        <v>3674.1790000000001</v>
+        <f>Model!W32+Model!W33</f>
+        <v>3867.9</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>147</v>
@@ -15128,7 +15155,7 @@
       </c>
       <c r="J9" s="39">
         <f t="shared" si="0"/>
-        <v>8.9307484332551315E-4</v>
+        <v>8.6640660117594172E-4</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>175</v>
@@ -15160,7 +15187,7 @@
       </c>
       <c r="J10" s="39">
         <f t="shared" si="0"/>
-        <v>8.4500378589263706E-5</v>
+        <v>8.1977100081543413E-5</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>177</v>
@@ -15176,7 +15203,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>3674.1790000000001</v>
+        <v>3867.9</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>151</v>
@@ -15205,7 +15232,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>50613.255879999997</v>
+        <v>44298.839200000002</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>153</v>
@@ -15226,9 +15253,9 @@
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="49">
         <f>C6/Model!F17</f>
-        <v>258.72720066722258</v>
+        <v>222.70189424520424</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -15239,9 +15266,9 @@
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="49">
         <f>C6/Model!G18</f>
-        <v>76.606060606060609</v>
+        <v>65.939393939393938</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -15257,9 +15284,9 @@
       <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="49">
         <f>C6/Model!H18</f>
-        <v>63.2</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -15282,33 +15309,33 @@
       <c r="E17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="127"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="129"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="124"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="49">
         <f>C14/C16</f>
-        <v>32.222994648554305</v>
-      </c>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="132"/>
+        <v>27.736248558249272</v>
+      </c>
+      <c r="L18" s="125"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="127"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="49">
         <f>C15/C17</f>
-        <v>297.94285714285712</v>
-      </c>
-      <c r="L19" s="130"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="132"/>
+        <v>256.4571428571428</v>
+      </c>
+      <c r="L19" s="125"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="127"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -15318,9 +15345,9 @@
         <f>Model!G4/Model!F3-1</f>
         <v>0.21797095925774768</v>
       </c>
-      <c r="L20" s="130"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="132"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="127"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -15330,21 +15357,21 @@
         <f>Model!H4/Model!G4-1</f>
         <v>0.19188191881918826</v>
       </c>
-      <c r="L21" s="130"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="132"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="127"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="46">
         <f>Model!F12</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="L22" s="130"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="132"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="127"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -15354,33 +15381,33 @@
         <f>Model!F12</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="L23" s="130"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="132"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="127"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!F19</f>
-        <v>0.80624598878567844</v>
-      </c>
-      <c r="L24" s="130"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="132"/>
+        <f>Model!W20</f>
+        <v>0.81672862101907817</v>
+      </c>
+      <c r="L24" s="125"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="127"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!F20</f>
-        <v>9.4302862186810721E-2</v>
-      </c>
-      <c r="L25" s="130"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="132"/>
+        <f>Model!W21</f>
+        <v>0.16636241246780101</v>
+      </c>
+      <c r="L25" s="125"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="127"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -15388,11 +15415,11 @@
       </c>
       <c r="C26" s="36">
         <f>Main!C12/Model!F12</f>
-        <v>213.47607408125981</v>
-      </c>
-      <c r="L26" s="130"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="132"/>
+        <v>186.84319185460427</v>
+      </c>
+      <c r="L26" s="125"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="127"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -15404,9 +15431,9 @@
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="130"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="132"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="127"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -15418,17 +15445,17 @@
       <c r="E28" t="s">
         <v>184</v>
       </c>
-      <c r="L28" s="133"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="135"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="130"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="15">
-        <f>Model!V34-Model!V44</f>
-        <v>3392.6000000000004</v>
+        <f>Model!W36-Model!W46</f>
+        <v>3685.5110000000004</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -15436,8 +15463,8 @@
         <v>86</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!V30+Model!V31+Model!V32)/Model!V39</f>
-        <v>333.19278996865205</v>
+        <f>(Model!W32+Model!W33+Model!W34)/Model!W41</f>
+        <v>122.21153954088793</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -15462,8 +15489,8 @@
       <c r="B34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="125">
-        <f>Model!F15/Model!F38</f>
+      <c r="C34" s="120">
+        <f>Model!F15/Model!F40</f>
         <v>4.6396568212850424E-2</v>
       </c>
     </row>
@@ -15471,8 +15498,8 @@
       <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="125">
-        <f>Model!F15/Model!F51</f>
+      <c r="C35" s="120">
+        <f>Model!F15/Model!F53</f>
         <v>5.8923634464253395E-2</v>
       </c>
     </row>
@@ -15493,28 +15520,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="22" max="22" width="11.42578125" style="13"/>
+    <col min="22" max="22" width="11.42578125" style="145"/>
+    <col min="23" max="23" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -15569,79 +15597,84 @@
       <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="13" t="s">
         <v>65</v>
       </c>
       <c r="X2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="Y2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="154">
         <v>742.55499999999995</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="154">
         <v>1092.673</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="154">
         <v>1541.8889999999999</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="154">
         <v>1905.8710000000001</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="155">
         <v>2225.0120000000002</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
-      <c r="K3" s="11">
+      <c r="K3" s="154">
         <v>341.23399999999998</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="154">
         <v>375.642</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="154">
         <v>392.14600000000002</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="154">
         <f>D3-M3-L3-K3</f>
         <v>432.8669999999999</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="154">
         <v>446.35700000000003</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="154">
         <v>473.01</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="154">
         <v>477.88</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="154">
         <f>E3-Q3-P3-O3</f>
         <v>508.62399999999997</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="154">
         <v>525.18600000000004</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="154">
         <v>533.31700000000001</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="154">
         <v>558.15899999999999</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="156">
         <f>F3-U3-T3-S3</f>
         <v>608.35</v>
       </c>
-      <c r="W3" s="11"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W3" s="155">
+        <v>634.33799999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -15664,79 +15697,93 @@
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="10">
-        <v>625.33000000000004</v>
+      <c r="S4" s="157">
+        <v>505.82</v>
+      </c>
+      <c r="T4" s="41">
+        <v>533.38</v>
+      </c>
+      <c r="U4" s="157">
+        <v>555.51</v>
+      </c>
+      <c r="V4" s="158">
+        <v>602.88</v>
+      </c>
+      <c r="W4" s="159">
+        <v>615.4</v>
       </c>
       <c r="X4" s="41">
-        <v>653.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+        <v>651.39</v>
+      </c>
+      <c r="Y4">
+        <v>678.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="154">
         <v>242.37299999999999</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="154">
         <v>352.54700000000003</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="154">
         <v>339.404</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="154">
         <v>408.54899999999998</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="155">
         <v>431.10500000000002</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
-      <c r="K5" s="11">
+      <c r="K5" s="154">
         <v>74.111000000000004</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="154">
         <v>90.926000000000002</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="154">
         <v>86.804000000000002</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="154">
         <f>D5-M5-L5-K5</f>
         <v>87.562999999999974</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="154">
         <v>94.403000000000006</v>
       </c>
       <c r="P5" s="41">
         <v>102.224</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="154">
         <v>107.611</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="154">
         <f>E5-Q5-P5-O5</f>
         <v>104.31099999999999</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="154">
         <v>107.645</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="154">
         <v>106.899</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="154">
         <v>107.922</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="156">
         <f>F5-U5-T5-S5</f>
         <v>108.639</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W5" s="155">
+        <v>116.256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -15792,12 +15839,15 @@
       <c r="U6" s="10">
         <v>176.37299999999999</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="147">
         <f>F6-U6-T6-S6</f>
         <v>197.36299999999991</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W6" s="15">
+        <v>193.17699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -15853,12 +15903,15 @@
       <c r="U7" s="10">
         <v>105.708</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="147">
         <f>F7-U7-T7-S7</f>
         <v>109.28300000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W7" s="15">
+        <v>110.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -15914,12 +15967,15 @@
       <c r="U8" s="10">
         <v>128.173</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="147">
         <f>F8-U8-T8-S8</f>
         <v>127.27100000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="15">
+        <v>133.98400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -15992,23 +16048,23 @@
         <v>10.073999999999984</v>
       </c>
       <c r="U9" s="11">
-        <f t="shared" ref="U9" si="11">U3-U5-U6-U7-U8</f>
+        <f t="shared" ref="U9:W9" si="11">U3-U5-U6-U7-U8</f>
         <v>39.982999999999976</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="146">
         <f t="shared" ref="V9" si="12">V3-V5-V6-V7-V8</f>
         <v>65.794000000000011</v>
       </c>
-      <c r="W9" s="11">
-        <f t="shared" ref="W9" si="13">W3-W5-W6-W7-W8</f>
+      <c r="W9" s="14">
+        <f t="shared" si="11"/>
+        <v>80.880999999999943</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" ref="X9" si="13">X3-X5-X6-X7-X8</f>
         <v>0</v>
       </c>
-      <c r="X9" s="11">
-        <f t="shared" ref="X9" si="14">X3-X5-X6-X7-X8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -16078,12 +16134,15 @@
         <f>36.864-0.742</f>
         <v>36.122</v>
       </c>
-      <c r="V10" s="15">
-        <f t="shared" ref="V10:V11" si="15">F10-U10-T10-S10</f>
+      <c r="V10" s="147">
+        <f t="shared" ref="V10:V11" si="14">F10-U10-T10-S10</f>
         <v>44.409000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W10" s="15">
+        <v>43.351999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -16141,12 +16200,15 @@
       <c r="U11" s="10">
         <v>3.8639999999999999</v>
       </c>
-      <c r="V11" s="15">
-        <f t="shared" si="15"/>
+      <c r="V11" s="147">
+        <f t="shared" si="14"/>
         <v>-3.9560000000000017</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="15">
+        <v>-13.507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -16155,15 +16217,15 @@
         <v>-567.27099999999996</v>
       </c>
       <c r="C12" s="11">
-        <f t="shared" ref="C12:H12" si="16">C9+C10+C11</f>
+        <f t="shared" ref="C12:H12" si="15">C9+C10+C11</f>
         <v>-1179.027</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-488.49400000000014</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-361.02699999999982</v>
       </c>
       <c r="F12" s="11">
@@ -16171,63 +16233,67 @@
         <v>237.09100000000012</v>
       </c>
       <c r="G12" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" ref="K12:V12" si="16">K9+K10+K11</f>
+        <v>-120.37200000000001</v>
+      </c>
+      <c r="L12" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
+        <v>-144.24099999999999</v>
+      </c>
+      <c r="M12" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <f t="shared" ref="K12:V12" si="17">K9+K10+K11</f>
-        <v>-120.37200000000001</v>
-      </c>
-      <c r="L12" s="11">
-        <f t="shared" si="17"/>
-        <v>-144.24099999999999</v>
-      </c>
-      <c r="M12" s="11">
-        <f t="shared" si="17"/>
         <v>-100.69900000000004</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-123.1820000000001</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-99.355999999999995</v>
       </c>
       <c r="P12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-176.74100000000001</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-122.77900000000001</v>
       </c>
       <c r="R12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>37.849000000000061</v>
       </c>
       <c r="S12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20.832000000000068</v>
       </c>
       <c r="T12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30.042999999999978</v>
       </c>
       <c r="U12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>79.96899999999998</v>
       </c>
-      <c r="V12" s="14">
-        <f t="shared" si="17"/>
+      <c r="V12" s="146">
+        <f t="shared" si="16"/>
         <v>106.24700000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W12" s="14">
+        <f t="shared" ref="W12" si="17">W9+W10+W11</f>
+        <v>110.72599999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -16283,12 +16349,15 @@
       <c r="U13" s="10">
         <v>6.53</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="147">
         <f t="shared" ref="V13:V14" si="18">F13-U13-T13-S13</f>
         <v>9.3339999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W13" s="15">
+        <v>4.6550000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -16344,12 +16413,15 @@
       <c r="U14" s="10">
         <v>1.9339999999999999</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="147">
         <f t="shared" si="18"/>
         <v>-11.577999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="15">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -16373,8 +16445,8 @@
         <f>F12-F13+F14</f>
         <v>209.8250000000001</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
       <c r="K15" s="11">
         <f>K12-K13-K14</f>
         <v>-123.47400000000002</v>
@@ -16419,17 +16491,17 @@
         <f>U12-U13-U14</f>
         <v>71.504999999999981</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="146">
         <f>V12-V13-V14</f>
         <v>108.49100000000001</v>
       </c>
-      <c r="W15" s="11">
-        <f>W16*W18</f>
-        <v>0</v>
+      <c r="W15" s="14">
+        <f>W12-W13-W14</f>
+        <v>105.52999999999994</v>
       </c>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -16485,14 +16557,16 @@
       <c r="U16" s="10">
         <v>2162.5300000000002</v>
       </c>
-      <c r="V16" s="15">
+      <c r="V16" s="147">
         <f>F16</f>
         <v>2147.4459999999999</v>
       </c>
-      <c r="W16" s="10"/>
+      <c r="W16" s="15">
+        <v>2213.5450000000001</v>
+      </c>
       <c r="X16" s="10"/>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -16512,12 +16586,12 @@
         <f>E15/E16</f>
         <v>-0.17854649182355004</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="52">
         <f>F15/F16</f>
         <v>9.7709092568567552E-2</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
       <c r="K17" s="2">
         <f t="shared" ref="K17" si="20">K15/K16</f>
         <v>-6.7799718640557283E-2</v>
@@ -16562,14 +16636,17 @@
         <f>U15/U16</f>
         <v>3.3065437242489108E-2</v>
       </c>
-      <c r="V17" s="35">
+      <c r="V17" s="148">
         <f>V15/V16</f>
         <v>5.0520944414900314E-2</v>
       </c>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-    </row>
-    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="35">
+        <f>W15/W16</f>
+        <v>4.7674657619339089E-2</v>
+      </c>
+      <c r="X17" s="47"/>
+    </row>
+    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
@@ -16584,2003 +16661,2179 @@
       <c r="H18" s="45">
         <v>0.4</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="52">
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48">
+        <v>0.04</v>
+      </c>
+      <c r="T18" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="U18" s="48">
+        <v>0.06</v>
+      </c>
+      <c r="V18" s="160">
         <v>0.08</v>
       </c>
-      <c r="X18" s="52">
+      <c r="W18" s="152">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="X18" s="47">
+        <v>0.08</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="47"/>
+    </row>
+    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <f>1-B5/B3</f>
         <v>0.67359589525355024</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <f>1-C5/C3</f>
         <v>0.67735360899372454</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <f>1-D5/D3</f>
         <v>0.77987779924495215</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <f>1-E5/E3</f>
         <v>0.78563659345254744</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f>1-F5/F3</f>
         <v>0.80624598878567844</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="K19" s="3">
-        <f t="shared" ref="K19:V19" si="24">1-K5/K3</f>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="K20" s="3">
+        <f t="shared" ref="K20:V20" si="24">1-K5/K3</f>
         <v>0.78281472537906538</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L20" s="3">
         <f t="shared" si="24"/>
         <v>0.75794506471587308</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="24"/>
         <v>0.77864366842961552</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N20" s="3">
         <f t="shared" si="24"/>
         <v>0.79771384744043783</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O20" s="3">
         <f t="shared" si="24"/>
         <v>0.78850337286073702</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P20" s="3">
         <f t="shared" si="24"/>
         <v>0.78388617576795416</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q20" s="3">
         <f t="shared" si="24"/>
         <v>0.77481585335230596</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R20" s="3">
         <f t="shared" si="24"/>
         <v>0.79491530089024509</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S20" s="3">
         <f t="shared" si="24"/>
         <v>0.79503452110299966</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T20" s="3">
         <f t="shared" si="24"/>
         <v>0.79955823647099189</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U20" s="3">
         <f t="shared" si="24"/>
         <v>0.80664649320354953</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V20" s="40">
         <f t="shared" si="24"/>
         <v>0.82142023506205308</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="W20" s="6">
+        <f t="shared" ref="W20" si="25">1-W5/W3</f>
+        <v>0.81672862101907817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4">
         <f>B15/B3</f>
         <v>-0.78061019049094005</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <f>C15/C3</f>
         <v>-1.0674657468428341</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <f>D15/D3</f>
         <v>-0.33749446296069313</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <f>E15/E3</f>
         <v>-0.19334099737075586</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <f>F15/F3</f>
         <v>9.4302862186810721E-2</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G21" s="142">
         <f>G15/G4</f>
         <v>0</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H21" s="142">
         <f>H15/H4</f>
         <v>0</v>
       </c>
-      <c r="K20" s="4">
-        <f t="shared" ref="K20:V20" si="25">K15/K3</f>
+      <c r="K21" s="4">
+        <f t="shared" ref="K21:V21" si="26">K15/K3</f>
         <v>-0.3618455370801269</v>
       </c>
-      <c r="L20" s="4">
-        <f t="shared" si="25"/>
+      <c r="L21" s="4">
+        <f t="shared" si="26"/>
         <v>-0.36891508404278539</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" si="25"/>
+      <c r="M21" s="4">
+        <f t="shared" si="26"/>
         <v>-0.2604565646468408</v>
       </c>
-      <c r="N20" s="4">
-        <f t="shared" si="25"/>
+      <c r="N21" s="4">
+        <f t="shared" si="26"/>
         <v>-0.20832264875816386</v>
       </c>
-      <c r="O20" s="4">
-        <f t="shared" si="25"/>
+      <c r="O21" s="4">
+        <f t="shared" si="26"/>
         <v>-0.21806087952020467</v>
       </c>
-      <c r="P20" s="4">
-        <f t="shared" si="25"/>
+      <c r="P21" s="4">
+        <f t="shared" si="26"/>
         <v>-0.37912306293735865</v>
       </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="25"/>
+      <c r="Q21" s="4">
+        <f t="shared" si="26"/>
         <v>-0.25921779526240901</v>
       </c>
-      <c r="R20" s="4">
-        <f t="shared" si="25"/>
+      <c r="R21" s="4">
+        <f t="shared" si="26"/>
         <v>8.8120104438642419E-2</v>
       </c>
-      <c r="S20" s="4">
-        <f t="shared" si="25"/>
+      <c r="S21" s="4">
+        <f t="shared" si="26"/>
         <v>3.1992475046935878E-2</v>
       </c>
-      <c r="T20" s="4">
-        <f t="shared" si="25"/>
+      <c r="T21" s="4">
+        <f t="shared" si="26"/>
         <v>5.2739740154542192E-2</v>
       </c>
-      <c r="U20" s="4">
-        <f t="shared" si="25"/>
+      <c r="U21" s="4">
+        <f t="shared" si="26"/>
         <v>0.12810865721057976</v>
       </c>
-      <c r="V20" s="7">
-        <f t="shared" si="25"/>
+      <c r="V21" s="149">
+        <f t="shared" si="26"/>
         <v>0.17833648393194709</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="W21" s="7">
+        <f t="shared" ref="W21" si="27">W15/W3</f>
+        <v>0.16636241246780101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
         <f>C3/B3-1</f>
         <v>0.47150446768252863</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <f>D3/C3-1</f>
         <v>0.41111659206368234</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E22" s="40">
         <f>E3/D3-1</f>
         <v>0.23606238840798532</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <f>F3/E3-1</f>
         <v>0.16745152216493153</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G22" s="143">
         <f>G4/F3-1</f>
         <v>0.21797095925774768</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H22" s="143">
         <f>H4/G4-1</f>
         <v>0.19188191881918826</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4">
-        <f t="shared" ref="O21:V21" si="26">O3/K3-1</f>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4">
+        <f t="shared" ref="O22:W22" si="28">O3/K3-1</f>
         <v>0.30806719142875583</v>
       </c>
-      <c r="P21" s="4">
-        <f t="shared" si="26"/>
+      <c r="P22" s="4">
+        <f t="shared" si="28"/>
         <v>0.25920424233711881</v>
       </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="26"/>
+      <c r="Q22" s="4">
+        <f t="shared" si="28"/>
         <v>0.21862775598884077</v>
       </c>
-      <c r="R21" s="4">
-        <f t="shared" si="26"/>
+      <c r="R22" s="4">
+        <f t="shared" si="28"/>
         <v>0.17501218619113978</v>
       </c>
-      <c r="S21" s="4">
-        <f t="shared" si="26"/>
+      <c r="S22" s="4">
+        <f t="shared" si="28"/>
         <v>0.1766052733574246</v>
       </c>
-      <c r="T21" s="4">
-        <f t="shared" si="26"/>
+      <c r="T22" s="4">
+        <f t="shared" si="28"/>
         <v>0.12749624743662924</v>
       </c>
-      <c r="U21" s="4">
-        <f t="shared" si="26"/>
+      <c r="U22" s="4">
+        <f t="shared" si="28"/>
         <v>0.16798987193437687</v>
       </c>
-      <c r="V21" s="7">
-        <f t="shared" si="26"/>
+      <c r="V22" s="149">
+        <f t="shared" si="28"/>
         <v>0.19607018150932731</v>
       </c>
-      <c r="W21" s="37">
-        <f>W4/S3-1</f>
-        <v>0.19068291995597741</v>
-      </c>
-      <c r="X21" s="37">
+      <c r="W22" s="7">
+        <f t="shared" si="28"/>
+        <v>0.20783493847893864</v>
+      </c>
+      <c r="X22" s="37">
         <f>X4/T3-1</f>
-        <v>0.22510626887948448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>0.22139365518068987</v>
+      </c>
+      <c r="Y22" s="37">
+        <f>Y4/U3-1</f>
+        <v>0.21624841666980199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="4">
-        <f t="shared" ref="B22:E22" si="27">B7/B3</f>
+      <c r="B23" s="4">
+        <f t="shared" ref="B23:E23" si="29">B7/B3</f>
         <v>0.41150217828982366</v>
       </c>
-      <c r="C22" s="4">
-        <f t="shared" si="27"/>
+      <c r="C23" s="4">
+        <f t="shared" si="29"/>
         <v>0.51310867935786819</v>
       </c>
-      <c r="D22" s="4">
-        <f t="shared" si="27"/>
+      <c r="D23" s="4">
+        <f t="shared" si="29"/>
         <v>0.25130667642093563</v>
       </c>
-      <c r="E22" s="4">
-        <f t="shared" si="27"/>
+      <c r="E23" s="4">
+        <f t="shared" si="29"/>
         <v>0.18872158713784928</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" ref="F22" si="28">F7/F3</f>
+      <c r="F23" s="4">
+        <f t="shared" ref="F23" si="30">F7/F3</f>
         <v>0.18185250236852654</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="K22" s="4">
-        <f t="shared" ref="K22:T22" si="29">K7/K3</f>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="K23" s="4">
+        <f t="shared" ref="K23:T23" si="31">K7/K3</f>
         <v>0.28857323713346267</v>
       </c>
-      <c r="L22" s="4">
-        <f t="shared" si="29"/>
+      <c r="L23" s="4">
+        <f t="shared" si="31"/>
         <v>0.29422695012804745</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="29"/>
+      <c r="M23" s="4">
+        <f t="shared" si="31"/>
         <v>0.24051246219520281</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="29"/>
+      <c r="N23" s="4">
+        <f t="shared" si="31"/>
         <v>0.19446157826768976</v>
       </c>
-      <c r="O22" s="4">
-        <f t="shared" si="29"/>
+      <c r="O23" s="4">
+        <f t="shared" si="31"/>
         <v>0.19849806320949373</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="29"/>
+      <c r="P23" s="4">
+        <f t="shared" si="31"/>
         <v>0.18640409293672439</v>
       </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="29"/>
+      <c r="Q23" s="4">
+        <f t="shared" si="31"/>
         <v>0.21106344689043274</v>
       </c>
-      <c r="R22" s="4">
-        <f t="shared" si="29"/>
+      <c r="R23" s="4">
+        <f t="shared" si="31"/>
         <v>0.16130579760294439</v>
       </c>
-      <c r="S22" s="4">
-        <f t="shared" si="29"/>
+      <c r="S23" s="4">
+        <f t="shared" si="31"/>
         <v>0.17155826697589041</v>
       </c>
-      <c r="T22" s="4">
-        <f t="shared" si="29"/>
+      <c r="T23" s="4">
+        <f t="shared" si="31"/>
         <v>0.18663009054652299</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U23" s="4">
         <f>U7/U3</f>
         <v>0.18938689513203227</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V23" s="149">
         <f>V7/V3</f>
         <v>0.17963836607216246</v>
       </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="W23" s="7">
+        <f>W7/W3</f>
+        <v>0.17347218675217316</v>
+      </c>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="4">
         <f>B6/B3</f>
         <v>0.6061773201985039</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <f>C6/C3</f>
         <v>0.62571418896595776</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D24" s="4">
         <f>D6/D3</f>
         <v>0.39854490174065704</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <f>E6/E3</f>
         <v>0.36860364631184372</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <f>F6/F3</f>
         <v>0.33482605936507304</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="48"/>
-      <c r="K23" s="4">
-        <f t="shared" ref="K23:V23" si="30">K6/K3</f>
+      <c r="G24" s="144"/>
+      <c r="H24" s="143"/>
+      <c r="K24" s="4">
+        <f t="shared" ref="K24:V24" si="32">K6/K3</f>
         <v>0.39883774770392172</v>
       </c>
-      <c r="L23" s="4">
-        <f t="shared" si="30"/>
+      <c r="L24" s="4">
+        <f t="shared" si="32"/>
         <v>0.4322706193663115</v>
       </c>
-      <c r="M23" s="4">
-        <f t="shared" si="30"/>
+      <c r="M24" s="4">
+        <f t="shared" si="32"/>
         <v>0.39129048874653827</v>
       </c>
-      <c r="N23" s="4">
-        <f t="shared" si="30"/>
+      <c r="N24" s="4">
+        <f t="shared" si="32"/>
         <v>0.37561883904293919</v>
       </c>
-      <c r="O23" s="4">
-        <f t="shared" si="30"/>
+      <c r="O24" s="4">
+        <f t="shared" si="32"/>
         <v>0.35954404210082963</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" si="30"/>
+      <c r="P24" s="4">
+        <f t="shared" si="32"/>
         <v>0.35702205027377859</v>
       </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="30"/>
+      <c r="Q24" s="4">
+        <f t="shared" si="32"/>
         <v>0.38276973298736083</v>
       </c>
-      <c r="R23" s="4">
-        <f t="shared" si="30"/>
+      <c r="R24" s="4">
+        <f t="shared" si="32"/>
         <v>0.37401498946176343</v>
       </c>
-      <c r="S23" s="4">
-        <f t="shared" si="30"/>
+      <c r="S24" s="4">
+        <f t="shared" si="32"/>
         <v>0.35624140780599628</v>
       </c>
-      <c r="T23" s="4">
-        <f t="shared" si="30"/>
+      <c r="T24" s="4">
+        <f t="shared" si="32"/>
         <v>0.34531620030863447</v>
       </c>
-      <c r="U23" s="4">
-        <f t="shared" si="30"/>
+      <c r="U24" s="4">
+        <f t="shared" si="32"/>
         <v>0.31599060482765662</v>
       </c>
-      <c r="V23" s="7">
-        <f t="shared" si="30"/>
+      <c r="V24" s="149">
+        <f t="shared" si="32"/>
         <v>0.32442344045368604</v>
       </c>
-      <c r="W23" s="4"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="W24" s="7">
+        <f t="shared" ref="W24" si="33">W6/W3</f>
+        <v>0.30453322991843468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="K24" s="4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="K25" s="4">
         <f>K8/K3</f>
         <v>0.42952636607137623</v>
       </c>
-      <c r="L24" s="4">
-        <f t="shared" ref="L24:V24" si="31">L8/L3</f>
+      <c r="L25" s="4">
+        <f t="shared" ref="L25:V25" si="34">L8/L3</f>
         <v>0.42050942120423174</v>
       </c>
-      <c r="M24" s="4">
-        <f t="shared" si="31"/>
+      <c r="M25" s="4">
+        <f t="shared" si="34"/>
         <v>0.3812967619203052</v>
       </c>
-      <c r="N24" s="4">
-        <f t="shared" si="31"/>
+      <c r="N25" s="4">
+        <f t="shared" si="34"/>
         <v>0.36380227644981039</v>
       </c>
-      <c r="O24" s="4">
-        <f t="shared" si="31"/>
+      <c r="O25" s="4">
+        <f t="shared" si="34"/>
         <v>0.31881879302889837</v>
       </c>
-      <c r="P24" s="4">
-        <f t="shared" si="31"/>
+      <c r="P25" s="4">
+        <f t="shared" si="34"/>
         <v>0.32871398067694135</v>
       </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="31"/>
+      <c r="Q25" s="4">
+        <f t="shared" si="34"/>
         <v>0.31112203900560809</v>
       </c>
-      <c r="R24" s="4">
-        <f t="shared" si="31"/>
+      <c r="R25" s="4">
+        <f t="shared" si="34"/>
         <v>0.29464201453332917</v>
       </c>
-      <c r="S24" s="4">
-        <f t="shared" si="31"/>
+      <c r="S25" s="4">
+        <f t="shared" si="34"/>
         <v>0.25939952702471125</v>
       </c>
-      <c r="T24" s="4">
-        <f t="shared" si="31"/>
+      <c r="T25" s="4">
+        <f t="shared" si="34"/>
         <v>0.24872261713014959</v>
       </c>
-      <c r="U24" s="4">
-        <f t="shared" si="31"/>
+      <c r="U25" s="4">
+        <f t="shared" si="34"/>
         <v>0.2296352831361673</v>
       </c>
-      <c r="V24" s="7">
-        <f t="shared" si="31"/>
+      <c r="V25" s="149">
+        <f t="shared" si="34"/>
         <v>0.20920687104462893</v>
       </c>
-      <c r="W24" s="4"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="W25" s="7">
+        <f>W8/W3</f>
+        <v>0.21121862477102116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
         <f>-(C15/B15-1)</f>
         <v>-1.0122471301449507</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <f>-(D15/C15-1)</f>
         <v>0.55385543955671801</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E26" s="40">
         <f>E15/D15-1</f>
         <v>-0.29189494579912001</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <f>F15/E15-1</f>
         <v>-1.5694292545382016</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G26" s="55">
         <f>G18/F17-1</f>
         <v>2.3773724770642186</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H26" s="55">
         <f>H18/G18-1</f>
         <v>0.21212121212121215</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4">
-        <f t="shared" ref="O25:V25" si="32">O15/K15-1</f>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4">
+        <f t="shared" ref="O26:W26" si="35">O15/K15-1</f>
         <v>-0.21171258726533537</v>
       </c>
-      <c r="P25" s="4">
-        <f t="shared" si="32"/>
+      <c r="P26" s="4">
+        <f t="shared" si="35"/>
         <v>0.29404675999422736</v>
       </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="32"/>
+      <c r="Q26" s="4">
+        <f t="shared" si="35"/>
         <v>0.21283178475968523</v>
       </c>
-      <c r="R25" s="4">
-        <f t="shared" si="32"/>
+      <c r="R26" s="4">
+        <f t="shared" si="35"/>
         <v>-1.4970280340667141</v>
       </c>
-      <c r="S25" s="4">
-        <f t="shared" si="32"/>
+      <c r="S26" s="4">
+        <f t="shared" si="35"/>
         <v>-1.172623878848901</v>
       </c>
-      <c r="T25" s="4">
-        <f t="shared" si="32"/>
+      <c r="T26" s="4">
+        <f t="shared" si="35"/>
         <v>-1.1568457973891562</v>
       </c>
-      <c r="U25" s="4">
-        <f t="shared" si="32"/>
+      <c r="U26" s="4">
+        <f t="shared" si="35"/>
         <v>-1.5772351160443994</v>
       </c>
-      <c r="V25" s="7">
-        <f t="shared" si="32"/>
+      <c r="V26" s="149">
+        <f t="shared" si="35"/>
         <v>1.4205934850513136</v>
       </c>
-      <c r="W25" s="4">
-        <f>W18/S17-1</f>
-        <v>9.0358528746577402</v>
-      </c>
-      <c r="X25" s="4">
+      <c r="W26" s="7">
+        <f t="shared" si="35"/>
+        <v>5.2807999047732128</v>
+      </c>
+      <c r="X26" s="4">
         <f>X18/T17-1</f>
         <v>5.0617172112205413</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="Y26" s="4">
+        <f>Y18/U17-1</f>
+        <v>1.4194447940703458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="40">
+      <c r="B27" s="3"/>
+      <c r="C27" s="40">
         <f>(C15+C7)/C3</f>
         <v>-0.55435706748496583</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D27" s="40">
         <f>(D15+D7)/D3</f>
         <v>-8.6187786539757477E-2</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E27" s="40">
         <f>(E15+E7)/E3</f>
         <v>-4.6194102329065604E-3</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <f>(F15+F7)/F3</f>
         <v>0.27615536455533723</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="K26" s="40">
-        <f t="shared" ref="K26:V26" si="33">(K15+K7)/K3</f>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="K27" s="40">
+        <f t="shared" ref="K27:V27" si="36">(K15+K7)/K3</f>
         <v>-7.3272299946664218E-2</v>
       </c>
-      <c r="L26" s="40">
-        <f t="shared" si="33"/>
+      <c r="L27" s="40">
+        <f t="shared" si="36"/>
         <v>-7.4688133914737928E-2</v>
       </c>
-      <c r="M26" s="40">
-        <f t="shared" si="33"/>
+      <c r="M27" s="40">
+        <f t="shared" si="36"/>
         <v>-1.9944102451638013E-2</v>
       </c>
-      <c r="N26" s="40">
-        <f t="shared" si="33"/>
+      <c r="N27" s="40">
+        <f t="shared" si="36"/>
         <v>-1.3861070490474114E-2</v>
       </c>
-      <c r="O26" s="40">
-        <f t="shared" si="33"/>
+      <c r="O27" s="40">
+        <f t="shared" si="36"/>
         <v>-1.9562816310710929E-2</v>
       </c>
-      <c r="P26" s="40">
-        <f t="shared" si="33"/>
+      <c r="P27" s="40">
+        <f t="shared" si="36"/>
         <v>-0.19271897000063423</v>
       </c>
-      <c r="Q26" s="40">
-        <f t="shared" si="33"/>
+      <c r="Q27" s="40">
+        <f t="shared" si="36"/>
         <v>-4.8154348371976262E-2</v>
       </c>
-      <c r="R26" s="40">
-        <f t="shared" si="33"/>
+      <c r="R27" s="40">
+        <f t="shared" si="36"/>
         <v>0.24942590204158679</v>
       </c>
-      <c r="S26" s="40">
-        <f t="shared" si="33"/>
+      <c r="S27" s="40">
+        <f t="shared" si="36"/>
         <v>0.2035507420228263</v>
       </c>
-      <c r="T26" s="40">
-        <f t="shared" si="33"/>
+      <c r="T27" s="40">
+        <f t="shared" si="36"/>
         <v>0.23936983070106518</v>
       </c>
-      <c r="U26" s="40">
-        <f t="shared" si="33"/>
+      <c r="U27" s="40">
+        <f t="shared" si="36"/>
         <v>0.31749555234261201</v>
       </c>
-      <c r="V26" s="6">
-        <f t="shared" si="33"/>
+      <c r="V27" s="40">
+        <f t="shared" si="36"/>
         <v>0.35797485000410956</v>
       </c>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-    </row>
-    <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="W27" s="6">
+        <f>(W15+W7)/W3</f>
+        <v>0.33983459921997411</v>
+      </c>
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="31" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="11">
-        <f>B30+B32-B39-B40-B48</f>
+      <c r="B31" s="11">
+        <f>B32+B34-B41-B42-B50</f>
         <v>1003.2130000000001</v>
       </c>
-      <c r="C29" s="11">
-        <f t="shared" ref="C29:F29" si="34">C30+C32-C39-C40-C48</f>
+      <c r="C31" s="11">
+        <f t="shared" ref="C31:F31" si="37">C32+C34-C41-C42-C50</f>
         <v>1800.8359999999998</v>
       </c>
-      <c r="D29" s="11">
-        <f t="shared" si="34"/>
+      <c r="D31" s="11">
+        <f t="shared" si="37"/>
         <v>2067.366</v>
       </c>
-      <c r="E29" s="11">
-        <f t="shared" si="34"/>
+      <c r="E31" s="11">
+        <f t="shared" si="37"/>
         <v>2435.078</v>
       </c>
-      <c r="F29" s="11">
-        <f t="shared" si="34"/>
+      <c r="F31" s="11">
+        <f t="shared" si="37"/>
         <v>785.50200000000007</v>
       </c>
-      <c r="K29" s="11">
-        <f t="shared" ref="K29" si="35">K30+K32-K39-K40-K48</f>
+      <c r="K31" s="11">
+        <f t="shared" ref="K31" si="38">K32+K34-K41-K42-K50</f>
         <v>0</v>
       </c>
-      <c r="L29" s="11">
-        <f t="shared" ref="L29" si="36">L30+L32-L39-L40-L48</f>
+      <c r="L31" s="11">
+        <f t="shared" ref="L31" si="39">L32+L34-L41-L42-L50</f>
         <v>0</v>
       </c>
-      <c r="M29" s="11">
-        <f t="shared" ref="M29" si="37">M30+M32-M39-M40-M48</f>
+      <c r="M31" s="11">
+        <f t="shared" ref="M31" si="40">M32+M34-M41-M42-M50</f>
         <v>0</v>
       </c>
-      <c r="N29" s="11">
-        <f t="shared" ref="N29" si="38">N30+N32-N39-N40-N48</f>
+      <c r="N31" s="11">
+        <f t="shared" ref="N31" si="41">N32+N34-N41-N42-N50</f>
         <v>2067.366</v>
       </c>
-      <c r="O29" s="11">
-        <f t="shared" ref="O29" si="39">O30+O32-O39-O40-O48</f>
+      <c r="O31" s="11">
+        <f t="shared" ref="O31" si="42">O32+O34-O41-O42-O50</f>
         <v>2150.5309999999999</v>
       </c>
-      <c r="P29" s="11">
-        <f t="shared" ref="P29" si="40">P30+P32-P39-P40-P48</f>
+      <c r="P31" s="11">
+        <f t="shared" ref="P31" si="43">P32+P34-P41-P42-P50</f>
         <v>2025.3030000000001</v>
       </c>
-      <c r="Q29" s="11">
-        <f t="shared" ref="Q29" si="41">Q30+Q32-Q39-Q40-Q48</f>
+      <c r="Q31" s="11">
+        <f t="shared" ref="Q31" si="44">Q32+Q34-Q41-Q42-Q50</f>
         <v>2060.0819999999999</v>
       </c>
-      <c r="R29" s="11">
-        <f t="shared" ref="R29" si="42">R30+R32-R39-R40-R48</f>
+      <c r="R31" s="11">
+        <f t="shared" ref="R31" si="45">R32+R34-R41-R42-R50</f>
         <v>2435.078</v>
       </c>
-      <c r="S29" s="11">
-        <f t="shared" ref="S29" si="43">S30+S32-S39-S40-S48</f>
+      <c r="S31" s="11">
+        <f t="shared" ref="S31" si="46">S32+S34-S41-S42-S50</f>
         <v>1145.2479999999998</v>
       </c>
-      <c r="T29" s="11">
-        <f t="shared" ref="T29" si="44">T30+T32-T39-T40-T48</f>
+      <c r="T31" s="11">
+        <f t="shared" ref="T31" si="47">T32+T34-T41-T42-T50</f>
         <v>1048.3150000000001</v>
       </c>
-      <c r="U29" s="11">
-        <f t="shared" ref="U29" si="45">U30+U32-U39-U40-U48</f>
+      <c r="U31" s="11">
+        <f t="shared" ref="U31:W31" si="48">U32+U34-U41-U42-U50</f>
         <v>1102.2840000000001</v>
       </c>
-      <c r="V29" s="14">
-        <f t="shared" ref="V29" si="46">V30+V32-V39-V40-V48</f>
+      <c r="V31" s="146">
+        <f t="shared" ref="V31" si="49">V32+V34-V41-V42-V50</f>
         <v>785.50200000000007</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="W31" s="14">
+        <f t="shared" si="48"/>
+        <v>602.69299999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B32" s="10">
         <f>1079.154+52.099</f>
         <v>1131.2529999999999</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C32" s="10">
         <f>2011.323+37.285</f>
         <v>2048.6080000000002</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D32" s="10">
         <f>2290.674+36.628</f>
         <v>2327.3020000000001</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E32" s="10">
         <v>2598.54</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F32" s="15">
         <v>831.04700000000003</v>
-      </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10">
-        <f>D30</f>
-        <v>2327.3020000000001</v>
-      </c>
-      <c r="O30" s="10">
-        <f>2269.411+33.804</f>
-        <v>2303.2150000000001</v>
-      </c>
-      <c r="P30" s="10">
-        <f>2358.393+28.125</f>
-        <v>2386.518</v>
-      </c>
-      <c r="Q30" s="10">
-        <f>2411.29+20.557</f>
-        <v>2431.8469999999998</v>
-      </c>
-      <c r="R30" s="10">
-        <f>E30</f>
-        <v>2598.54</v>
-      </c>
-      <c r="S30" s="10">
-        <f>1264.738+11.946</f>
-        <v>1276.684</v>
-      </c>
-      <c r="T30" s="10">
-        <v>1055.923</v>
-      </c>
-      <c r="U30" s="10">
-        <v>1040.31</v>
-      </c>
-      <c r="V30" s="15">
-        <f>F30</f>
-        <v>831.04700000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="10">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10">
-        <v>234.15299999999999</v>
-      </c>
-      <c r="E31" s="10">
-        <v>35.134999999999998</v>
-      </c>
-      <c r="F31" s="15">
-        <v>2843.1320000000001</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10">
-        <f t="shared" ref="N31:N33" si="47">D31</f>
-        <v>234.15299999999999</v>
-      </c>
-      <c r="O31" s="10">
-        <v>256.55399999999997</v>
-      </c>
-      <c r="P31" s="10">
-        <v>265.82600000000002</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>343.26400000000001</v>
-      </c>
-      <c r="R31" s="10">
-        <f t="shared" ref="R31:R33" si="48">E31</f>
-        <v>35.134999999999998</v>
-      </c>
-      <c r="S31" s="10">
-        <v>1639.797</v>
-      </c>
-      <c r="T31" s="10">
-        <v>2047.329</v>
-      </c>
-      <c r="U31" s="10">
-        <v>2243.2640000000001</v>
-      </c>
-      <c r="V31" s="15">
-        <f t="shared" ref="V31:V33" si="49">F31</f>
-        <v>2843.1320000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="10">
-        <v>50.314999999999998</v>
-      </c>
-      <c r="C32" s="10">
-        <v>156.93199999999999</v>
-      </c>
-      <c r="D32" s="10">
-        <v>190.923</v>
-      </c>
-      <c r="E32" s="10">
-        <v>258.346</v>
-      </c>
-      <c r="F32" s="15">
-        <v>364.78399999999999</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10">
-        <f t="shared" si="47"/>
-        <v>190.923</v>
+        <f>D32</f>
+        <v>2327.3020000000001</v>
       </c>
       <c r="O32" s="10">
-        <v>252.56299999999999</v>
+        <f>2269.411+33.804</f>
+        <v>2303.2150000000001</v>
       </c>
       <c r="P32" s="10">
-        <v>99.21</v>
+        <f>2358.393+28.125</f>
+        <v>2386.518</v>
       </c>
       <c r="Q32" s="10">
-        <v>57.341999999999999</v>
+        <f>2411.29+20.557</f>
+        <v>2431.8469999999998</v>
       </c>
       <c r="R32" s="10">
-        <f t="shared" si="48"/>
-        <v>258.346</v>
+        <f>E32</f>
+        <v>2598.54</v>
       </c>
       <c r="S32" s="10">
-        <v>254.041</v>
+        <f>1264.738+11.946</f>
+        <v>1276.684</v>
       </c>
       <c r="T32" s="10">
-        <v>375.75599999999997</v>
+        <v>1055.923</v>
       </c>
       <c r="U32" s="10">
-        <v>430.26900000000001</v>
-      </c>
-      <c r="V32" s="15">
-        <f t="shared" si="49"/>
-        <v>364.78399999999999</v>
+        <v>1040.31</v>
+      </c>
+      <c r="V32" s="147">
+        <f>F32</f>
+        <v>831.04700000000003</v>
+      </c>
+      <c r="W32" s="15">
+        <v>520.38800000000003</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="B33" s="10">
-        <v>32.585000000000001</v>
+        <v>0</v>
       </c>
       <c r="C33" s="10">
-        <v>51.889000000000003</v>
+        <v>0</v>
       </c>
       <c r="D33" s="10">
-        <v>110.872</v>
+        <v>234.15299999999999</v>
       </c>
       <c r="E33" s="10">
-        <v>149.55600000000001</v>
+        <v>35.134999999999998</v>
       </c>
       <c r="F33" s="15">
-        <v>99.655000000000001</v>
-      </c>
+        <v>2843.1320000000001</v>
+      </c>
+      <c r="G33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10">
-        <f t="shared" si="47"/>
-        <v>110.872</v>
+        <f t="shared" ref="N33:N35" si="50">D33</f>
+        <v>234.15299999999999</v>
       </c>
       <c r="O33" s="10">
-        <v>115.042</v>
+        <v>256.55399999999997</v>
       </c>
       <c r="P33" s="10">
-        <v>150.88499999999999</v>
+        <v>265.82600000000002</v>
       </c>
       <c r="Q33" s="10">
-        <v>114.157</v>
+        <v>343.26400000000001</v>
       </c>
       <c r="R33" s="10">
-        <f t="shared" si="48"/>
-        <v>149.55600000000001</v>
+        <f t="shared" ref="R33:R35" si="51">E33</f>
+        <v>35.134999999999998</v>
       </c>
       <c r="S33" s="10">
-        <v>85.625</v>
+        <v>1639.797</v>
       </c>
       <c r="T33" s="10">
-        <v>97.906000000000006</v>
+        <v>2047.329</v>
       </c>
       <c r="U33" s="10">
-        <v>95.554000000000002</v>
-      </c>
-      <c r="V33" s="15">
-        <f t="shared" si="49"/>
-        <v>99.655000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="11">
-        <f>SUM(B30:B33)</f>
-        <v>1214.153</v>
-      </c>
-      <c r="C34" s="11">
-        <f>SUM(C30:C33)</f>
-        <v>2257.4290000000001</v>
-      </c>
-      <c r="D34" s="11">
-        <f>SUM(D30:D33)</f>
-        <v>2863.2499999999995</v>
-      </c>
-      <c r="E34" s="11">
-        <f>SUM(E30:E33)</f>
-        <v>3041.5770000000002</v>
-      </c>
-      <c r="F34" s="14">
-        <f>SUM(F30:F33)</f>
-        <v>4138.6180000000004</v>
-      </c>
-      <c r="K34" s="11">
-        <f t="shared" ref="K34:V34" si="50">SUM(K30:K33)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
+        <v>2243.2640000000001</v>
+      </c>
+      <c r="V33" s="147">
+        <f t="shared" ref="V33:V35" si="52">F33</f>
+        <v>2843.1320000000001</v>
+      </c>
+      <c r="W33" s="15">
+        <v>3347.5120000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="10">
+        <v>50.314999999999998</v>
+      </c>
+      <c r="C34" s="10">
+        <v>156.93199999999999</v>
+      </c>
+      <c r="D34" s="10">
+        <v>190.923</v>
+      </c>
+      <c r="E34" s="10">
+        <v>258.346</v>
+      </c>
+      <c r="F34" s="15">
+        <v>364.78399999999999</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="11">
-        <f t="shared" si="50"/>
-        <v>2863.2499999999995</v>
-      </c>
-      <c r="O34" s="11">
-        <f t="shared" si="50"/>
-        <v>2927.3740000000003</v>
-      </c>
-      <c r="P34" s="11">
-        <f t="shared" si="50"/>
-        <v>2902.4390000000003</v>
-      </c>
-      <c r="Q34" s="11">
-        <f t="shared" si="50"/>
-        <v>2946.61</v>
-      </c>
-      <c r="R34" s="11">
-        <f t="shared" si="50"/>
-        <v>3041.5770000000002</v>
-      </c>
-      <c r="S34" s="11">
-        <f t="shared" si="50"/>
-        <v>3256.1469999999999</v>
-      </c>
-      <c r="T34" s="11">
-        <f t="shared" si="50"/>
-        <v>3576.9139999999998</v>
-      </c>
-      <c r="U34" s="11">
-        <f t="shared" si="50"/>
-        <v>3809.3969999999999</v>
-      </c>
-      <c r="V34" s="14">
-        <f t="shared" si="50"/>
-        <v>4138.6180000000004</v>
+        <v>190.923</v>
+      </c>
+      <c r="O34" s="10">
+        <v>252.56299999999999</v>
+      </c>
+      <c r="P34" s="10">
+        <v>99.21</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>57.341999999999999</v>
+      </c>
+      <c r="R34" s="10">
+        <f t="shared" si="51"/>
+        <v>258.346</v>
+      </c>
+      <c r="S34" s="10">
+        <v>254.041</v>
+      </c>
+      <c r="T34" s="10">
+        <v>375.75599999999997</v>
+      </c>
+      <c r="U34" s="10">
+        <v>430.26900000000001</v>
+      </c>
+      <c r="V34" s="147">
+        <f t="shared" si="52"/>
+        <v>364.78399999999999</v>
+      </c>
+      <c r="W34" s="15">
+        <v>486.98599999999999</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="10">
-        <f>31.589+270.709</f>
-        <v>302.298</v>
+        <v>32.585000000000001</v>
       </c>
       <c r="C35" s="10">
-        <v>29.541</v>
+        <v>51.889000000000003</v>
       </c>
       <c r="D35" s="10">
-        <v>31.303999999999998</v>
+        <v>110.872</v>
       </c>
       <c r="E35" s="10">
-        <v>69.17</v>
+        <v>149.55600000000001</v>
       </c>
       <c r="F35" s="15">
-        <v>47.758000000000003</v>
+        <v>99.655000000000001</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10">
-        <f t="shared" ref="N35:N37" si="51">D35</f>
-        <v>31.303999999999998</v>
+        <f t="shared" si="50"/>
+        <v>110.872</v>
       </c>
       <c r="O35" s="10">
-        <v>41.866</v>
+        <v>115.042</v>
       </c>
       <c r="P35" s="10">
-        <v>47.643999999999998</v>
+        <v>150.88499999999999</v>
       </c>
       <c r="Q35" s="10">
-        <v>57.822000000000003</v>
+        <v>114.157</v>
       </c>
       <c r="R35" s="10">
-        <f t="shared" ref="R35:R37" si="52">E35</f>
-        <v>69.17</v>
+        <f t="shared" si="51"/>
+        <v>149.55600000000001</v>
       </c>
       <c r="S35" s="10">
-        <v>63.115000000000002</v>
+        <v>85.625</v>
       </c>
       <c r="T35" s="10">
-        <v>54.097000000000001</v>
+        <v>97.906000000000006</v>
       </c>
       <c r="U35" s="10">
-        <v>50.133000000000003</v>
-      </c>
-      <c r="V35" s="15">
-        <f t="shared" ref="V35:V37" si="53">F35</f>
-        <v>47.758000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10">
-        <v>217.07499999999999</v>
-      </c>
-      <c r="D36" s="10">
-        <v>216.898</v>
-      </c>
-      <c r="E36" s="10">
-        <v>200.24</v>
-      </c>
-      <c r="F36" s="15">
-        <v>182.863</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10">
-        <f t="shared" si="51"/>
-        <v>216.898</v>
-      </c>
-      <c r="O36" s="10">
-        <v>224.88800000000001</v>
-      </c>
-      <c r="P36" s="10">
-        <v>211.41</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>199.35900000000001</v>
-      </c>
-      <c r="R36" s="10">
+        <v>95.554000000000002</v>
+      </c>
+      <c r="V35" s="147">
         <f t="shared" si="52"/>
-        <v>200.24</v>
-      </c>
-      <c r="S36" s="10">
-        <v>210.01900000000001</v>
-      </c>
-      <c r="T36" s="10">
-        <v>199.661</v>
-      </c>
-      <c r="U36" s="10">
-        <v>190.191</v>
-      </c>
-      <c r="V36" s="15">
+        <v>99.655000000000001</v>
+      </c>
+      <c r="W35" s="15">
+        <v>81.177999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="11">
+        <f>SUM(B32:B35)</f>
+        <v>1214.153</v>
+      </c>
+      <c r="C36" s="11">
+        <f>SUM(C32:C35)</f>
+        <v>2257.4290000000001</v>
+      </c>
+      <c r="D36" s="11">
+        <f>SUM(D32:D35)</f>
+        <v>2863.2499999999995</v>
+      </c>
+      <c r="E36" s="11">
+        <f>SUM(E32:E35)</f>
+        <v>3041.5770000000002</v>
+      </c>
+      <c r="F36" s="14">
+        <f>SUM(F32:F35)</f>
+        <v>4138.6180000000004</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" ref="K36:V36" si="53">SUM(K32:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
         <f t="shared" si="53"/>
-        <v>182.863</v>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" si="53"/>
+        <v>2863.2499999999995</v>
+      </c>
+      <c r="O36" s="11">
+        <f t="shared" si="53"/>
+        <v>2927.3740000000003</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="53"/>
+        <v>2902.4390000000003</v>
+      </c>
+      <c r="Q36" s="11">
+        <f t="shared" si="53"/>
+        <v>2946.61</v>
+      </c>
+      <c r="R36" s="11">
+        <f t="shared" si="53"/>
+        <v>3041.5770000000002</v>
+      </c>
+      <c r="S36" s="11">
+        <f t="shared" si="53"/>
+        <v>3256.1469999999999</v>
+      </c>
+      <c r="T36" s="11">
+        <f t="shared" si="53"/>
+        <v>3576.9139999999998</v>
+      </c>
+      <c r="U36" s="11">
+        <f t="shared" si="53"/>
+        <v>3809.3969999999999</v>
+      </c>
+      <c r="V36" s="146">
+        <f t="shared" si="53"/>
+        <v>4138.6180000000004</v>
+      </c>
+      <c r="W36" s="14">
+        <f t="shared" ref="W36" si="54">SUM(W32:W35)</f>
+        <v>4436.0640000000003</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B37" s="10">
-        <v>77.573999999999998</v>
+        <f>31.589+270.709</f>
+        <v>302.298</v>
       </c>
       <c r="C37" s="10">
-        <f>79.538+106.921</f>
-        <v>186.459</v>
+        <v>29.541</v>
       </c>
       <c r="D37" s="10">
-        <f>39.612+96.386</f>
-        <v>135.99799999999999</v>
+        <v>31.303999999999998</v>
       </c>
       <c r="E37" s="10">
-        <v>150.25200000000001</v>
+        <v>69.17</v>
       </c>
       <c r="F37" s="15">
-        <v>153.18600000000001</v>
+        <v>47.758000000000003</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10">
-        <f t="shared" si="51"/>
-        <v>135.99799999999999</v>
+        <f t="shared" ref="N37:N39" si="55">D37</f>
+        <v>31.303999999999998</v>
       </c>
       <c r="O37" s="10">
-        <f>29.222+95.829</f>
-        <v>125.05099999999999</v>
+        <v>41.866</v>
       </c>
       <c r="P37" s="10">
-        <f>28.647+92.198</f>
-        <v>120.845</v>
+        <v>47.643999999999998</v>
       </c>
       <c r="Q37" s="10">
-        <f>20.902+94.142</f>
-        <v>115.044</v>
+        <v>57.822000000000003</v>
       </c>
       <c r="R37" s="10">
-        <f t="shared" si="52"/>
-        <v>150.25200000000001</v>
+        <f t="shared" ref="R37:R39" si="56">E37</f>
+        <v>69.17</v>
       </c>
       <c r="S37" s="10">
-        <f>12.095+141.762</f>
-        <v>153.857</v>
+        <v>63.115000000000002</v>
       </c>
       <c r="T37" s="10">
-        <v>149.59200000000001</v>
+        <v>54.097000000000001</v>
       </c>
       <c r="U37" s="10">
-        <v>143.696</v>
-      </c>
-      <c r="V37" s="15">
-        <f t="shared" si="53"/>
-        <v>153.18600000000001</v>
+        <v>50.133000000000003</v>
+      </c>
+      <c r="V37" s="147">
+        <f t="shared" ref="V37:V39" si="57">F37</f>
+        <v>47.758000000000003</v>
+      </c>
+      <c r="W37" s="15">
+        <v>46.905999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="11">
-        <f>SUM(B34:B37)</f>
-        <v>1594.0250000000001</v>
-      </c>
-      <c r="C38" s="11">
-        <f>SUM(C34:C37)</f>
-        <v>2690.5039999999999</v>
-      </c>
-      <c r="D38" s="11">
-        <f>SUM(D34:D37)</f>
-        <v>3247.45</v>
-      </c>
-      <c r="E38" s="11">
-        <f>SUM(E34:E37)</f>
-        <v>3461.239</v>
-      </c>
-      <c r="F38" s="14">
-        <f>SUM(F34:F37)</f>
-        <v>4522.4250000000002</v>
-      </c>
-      <c r="K38" s="11">
-        <f t="shared" ref="K38:V38" si="54">SUM(K34:K37)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="11">
-        <f t="shared" si="54"/>
-        <v>3247.45</v>
-      </c>
-      <c r="O38" s="11">
-        <f t="shared" si="54"/>
-        <v>3319.1790000000001</v>
-      </c>
-      <c r="P38" s="11">
-        <f t="shared" si="54"/>
-        <v>3282.3379999999997</v>
-      </c>
-      <c r="Q38" s="11">
-        <f t="shared" si="54"/>
-        <v>3318.835</v>
-      </c>
-      <c r="R38" s="11">
-        <f t="shared" si="54"/>
-        <v>3461.239</v>
-      </c>
-      <c r="S38" s="11">
-        <f t="shared" si="54"/>
-        <v>3683.1379999999999</v>
-      </c>
-      <c r="T38" s="11">
-        <f t="shared" si="54"/>
-        <v>3980.2640000000001</v>
-      </c>
-      <c r="U38" s="11">
-        <f t="shared" si="54"/>
-        <v>4193.4169999999995</v>
-      </c>
-      <c r="V38" s="14">
-        <f t="shared" si="54"/>
-        <v>4522.4250000000002</v>
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10">
+        <v>217.07499999999999</v>
+      </c>
+      <c r="D38" s="10">
+        <v>216.898</v>
+      </c>
+      <c r="E38" s="10">
+        <v>200.24</v>
+      </c>
+      <c r="F38" s="15">
+        <v>182.863</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10">
+        <f t="shared" si="55"/>
+        <v>216.898</v>
+      </c>
+      <c r="O38" s="10">
+        <v>224.88800000000001</v>
+      </c>
+      <c r="P38" s="10">
+        <v>211.41</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>199.35900000000001</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" si="56"/>
+        <v>200.24</v>
+      </c>
+      <c r="S38" s="10">
+        <v>210.01900000000001</v>
+      </c>
+      <c r="T38" s="10">
+        <v>199.661</v>
+      </c>
+      <c r="U38" s="10">
+        <v>190.191</v>
+      </c>
+      <c r="V38" s="147">
+        <f t="shared" si="57"/>
+        <v>182.863</v>
+      </c>
+      <c r="W38" s="15">
+        <v>173.70699999999999</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B39" s="10">
-        <v>51.734999999999999</v>
+        <v>77.573999999999998</v>
       </c>
       <c r="C39" s="10">
-        <v>16.358000000000001</v>
+        <f>79.538+106.921</f>
+        <v>186.459</v>
       </c>
       <c r="D39" s="10">
-        <v>74.906999999999996</v>
+        <f>39.612+96.386</f>
+        <v>135.99799999999999</v>
       </c>
       <c r="E39" s="10">
-        <v>44.787999999999997</v>
+        <v>150.25200000000001</v>
       </c>
       <c r="F39" s="15">
-        <v>12.122</v>
+        <v>153.18600000000001</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10">
-        <f t="shared" ref="N39:N43" si="55">D39</f>
-        <v>74.906999999999996</v>
+        <f t="shared" si="55"/>
+        <v>135.99799999999999</v>
       </c>
       <c r="O39" s="10">
-        <v>27.454000000000001</v>
+        <f>29.222+95.829</f>
+        <v>125.05099999999999</v>
       </c>
       <c r="P39" s="10">
-        <v>56.798000000000002</v>
+        <f>28.647+92.198</f>
+        <v>120.845</v>
       </c>
       <c r="Q39" s="10">
-        <v>59.506999999999998</v>
+        <f>20.902+94.142</f>
+        <v>115.044</v>
       </c>
       <c r="R39" s="10">
-        <f t="shared" ref="R39:R43" si="56">E39</f>
-        <v>44.787999999999997</v>
+        <f t="shared" si="56"/>
+        <v>150.25200000000001</v>
       </c>
       <c r="S39" s="10">
-        <v>4.53</v>
+        <f>12.095+141.762</f>
+        <v>153.857</v>
       </c>
       <c r="T39" s="10">
-        <v>4.6130000000000004</v>
+        <v>149.59200000000001</v>
       </c>
       <c r="U39" s="10">
-        <v>9.4749999999999996</v>
-      </c>
-      <c r="V39" s="15">
-        <f t="shared" ref="V39:V43" si="57">F39</f>
-        <v>12.122</v>
+        <v>143.696</v>
+      </c>
+      <c r="V39" s="147">
+        <f t="shared" si="57"/>
+        <v>153.18600000000001</v>
+      </c>
+      <c r="W39" s="15">
+        <v>150.40199999999999</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40" s="10">
-        <v>126.62</v>
-      </c>
-      <c r="C40" s="10">
-        <v>158.54599999999999</v>
-      </c>
-      <c r="D40" s="10">
-        <v>155.80600000000001</v>
-      </c>
-      <c r="E40" s="10">
-        <v>172.715</v>
-      </c>
-      <c r="F40" s="15">
-        <v>222.99100000000001</v>
-      </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10">
-        <f t="shared" si="55"/>
-        <v>155.80600000000001</v>
-      </c>
-      <c r="O40" s="10">
-        <v>150.17599999999999</v>
-      </c>
-      <c r="P40" s="10">
-        <v>187.56800000000001</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>164.697</v>
-      </c>
-      <c r="R40" s="10">
-        <f t="shared" si="56"/>
-        <v>172.715</v>
-      </c>
-      <c r="S40" s="10">
-        <v>174.52500000000001</v>
-      </c>
-      <c r="T40" s="10">
-        <v>184.61699999999999</v>
-      </c>
-      <c r="U40" s="10">
-        <v>174.75299999999999</v>
-      </c>
-      <c r="V40" s="15">
-        <f t="shared" si="57"/>
-        <v>222.99100000000001</v>
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="11">
+        <f>SUM(B36:B39)</f>
+        <v>1594.0250000000001</v>
+      </c>
+      <c r="C40" s="11">
+        <f>SUM(C36:C39)</f>
+        <v>2690.5039999999999</v>
+      </c>
+      <c r="D40" s="11">
+        <f>SUM(D36:D39)</f>
+        <v>3247.45</v>
+      </c>
+      <c r="E40" s="11">
+        <f>SUM(E36:E39)</f>
+        <v>3461.239</v>
+      </c>
+      <c r="F40" s="14">
+        <f>SUM(F36:F39)</f>
+        <v>4522.4250000000002</v>
+      </c>
+      <c r="K40" s="11">
+        <f t="shared" ref="K40:V40" si="58">SUM(K36:K39)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <f t="shared" si="58"/>
+        <v>3247.45</v>
+      </c>
+      <c r="O40" s="11">
+        <f t="shared" si="58"/>
+        <v>3319.1790000000001</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" si="58"/>
+        <v>3282.3379999999997</v>
+      </c>
+      <c r="Q40" s="11">
+        <f t="shared" si="58"/>
+        <v>3318.835</v>
+      </c>
+      <c r="R40" s="11">
+        <f t="shared" si="58"/>
+        <v>3461.239</v>
+      </c>
+      <c r="S40" s="11">
+        <f t="shared" si="58"/>
+        <v>3683.1379999999999</v>
+      </c>
+      <c r="T40" s="11">
+        <f t="shared" si="58"/>
+        <v>3980.2640000000001</v>
+      </c>
+      <c r="U40" s="11">
+        <f t="shared" si="58"/>
+        <v>4193.4169999999995</v>
+      </c>
+      <c r="V40" s="146">
+        <f t="shared" si="58"/>
+        <v>4522.4250000000002</v>
+      </c>
+      <c r="W40" s="14">
+        <f t="shared" ref="W40" si="59">SUM(W36:W39)</f>
+        <v>4807.0790000000006</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="B41" s="10">
-        <v>186.10499999999999</v>
+        <v>51.734999999999999</v>
       </c>
       <c r="C41" s="10">
-        <v>189.52</v>
+        <v>16.358000000000001</v>
       </c>
       <c r="D41" s="10">
-        <v>227.816</v>
+        <v>74.906999999999996</v>
       </c>
       <c r="E41" s="10">
-        <v>183.35</v>
+        <v>44.787999999999997</v>
       </c>
       <c r="F41" s="15">
-        <v>246.90100000000001</v>
+        <v>12.122</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10">
-        <f t="shared" si="55"/>
-        <v>227.816</v>
+        <f t="shared" ref="N41:N45" si="60">D41</f>
+        <v>74.906999999999996</v>
       </c>
       <c r="O41" s="10">
-        <v>218.52099999999999</v>
+        <v>27.454000000000001</v>
       </c>
       <c r="P41" s="10">
-        <v>219.441</v>
+        <v>56.798000000000002</v>
       </c>
       <c r="Q41" s="10">
-        <v>189.77099999999999</v>
+        <v>59.506999999999998</v>
       </c>
       <c r="R41" s="10">
-        <f t="shared" si="56"/>
-        <v>183.35</v>
+        <f t="shared" ref="R41:R45" si="61">E41</f>
+        <v>44.787999999999997</v>
       </c>
       <c r="S41" s="10">
-        <v>229.55099999999999</v>
+        <v>4.53</v>
       </c>
       <c r="T41" s="10">
-        <v>260.33499999999998</v>
+        <v>4.6130000000000004</v>
       </c>
       <c r="U41" s="10">
-        <v>223.50700000000001</v>
-      </c>
-      <c r="V41" s="15">
-        <f t="shared" si="57"/>
-        <v>246.90100000000001</v>
+        <v>9.4749999999999996</v>
+      </c>
+      <c r="V41" s="147">
+        <f t="shared" ref="V41:V45" si="62">F41</f>
+        <v>12.122</v>
+      </c>
+      <c r="W41" s="15">
+        <v>35.634</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B42" s="10">
-        <v>364.13799999999998</v>
+        <v>126.62</v>
       </c>
       <c r="C42" s="10">
-        <v>210.32</v>
+        <v>158.54599999999999</v>
       </c>
       <c r="D42" s="10">
-        <v>161.60499999999999</v>
+        <v>155.80600000000001</v>
       </c>
       <c r="E42" s="10">
-        <v>141.989</v>
+        <v>172.715</v>
       </c>
       <c r="F42" s="15">
-        <v>209.828</v>
+        <v>222.99100000000001</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10">
-        <f t="shared" si="55"/>
-        <v>161.60499999999999</v>
+        <f t="shared" si="60"/>
+        <v>155.80600000000001</v>
       </c>
       <c r="O42" s="10">
-        <v>232.90799999999999</v>
+        <v>150.17599999999999</v>
       </c>
       <c r="P42" s="10">
-        <v>161.02600000000001</v>
+        <v>187.56800000000001</v>
       </c>
       <c r="Q42" s="10">
-        <v>234.142</v>
+        <v>164.697</v>
       </c>
       <c r="R42" s="10">
-        <f t="shared" si="56"/>
-        <v>141.989</v>
+        <f t="shared" si="61"/>
+        <v>172.715</v>
       </c>
       <c r="S42" s="10">
-        <v>139.74100000000001</v>
+        <v>174.52500000000001</v>
       </c>
       <c r="T42" s="10">
-        <v>183.964</v>
+        <v>184.61699999999999</v>
       </c>
       <c r="U42" s="10">
-        <v>228.98599999999999</v>
-      </c>
-      <c r="V42" s="15">
-        <f t="shared" si="57"/>
-        <v>209.828</v>
+        <v>174.75299999999999</v>
+      </c>
+      <c r="V42" s="147">
+        <f t="shared" si="62"/>
+        <v>222.99100000000001</v>
+      </c>
+      <c r="W42" s="15">
+        <v>206.03399999999999</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="B43" s="10">
-        <v>0</v>
+        <v>186.10499999999999</v>
       </c>
       <c r="C43" s="10">
-        <v>29.079000000000001</v>
+        <v>189.52</v>
       </c>
       <c r="D43" s="10">
-        <v>39.927</v>
+        <v>227.816</v>
       </c>
       <c r="E43" s="10">
-        <v>45.098999999999997</v>
+        <v>183.35</v>
       </c>
       <c r="F43" s="15">
-        <v>54.176000000000002</v>
+        <v>246.90100000000001</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10">
-        <f t="shared" si="55"/>
-        <v>39.927</v>
+        <f t="shared" si="60"/>
+        <v>227.816</v>
       </c>
       <c r="O43" s="10">
-        <v>40.045000000000002</v>
+        <v>218.52099999999999</v>
       </c>
       <c r="P43" s="10">
-        <v>40.908999999999999</v>
+        <v>219.441</v>
       </c>
       <c r="Q43" s="10">
-        <v>40.232999999999997</v>
+        <v>189.77099999999999</v>
       </c>
       <c r="R43" s="10">
-        <f t="shared" si="56"/>
-        <v>45.098999999999997</v>
+        <f t="shared" si="61"/>
+        <v>183.35</v>
       </c>
       <c r="S43" s="10">
-        <v>53.066000000000003</v>
+        <v>229.55099999999999</v>
       </c>
       <c r="T43" s="10">
-        <v>51.854999999999997</v>
+        <v>260.33499999999998</v>
       </c>
       <c r="U43" s="10">
-        <v>52.204000000000001</v>
-      </c>
-      <c r="V43" s="15">
-        <f t="shared" si="57"/>
-        <v>54.176000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="11">
-        <f>SUM(B39:B43)</f>
-        <v>728.59799999999996</v>
-      </c>
-      <c r="C44" s="11">
-        <f>SUM(C39:C43)</f>
-        <v>603.82299999999987</v>
-      </c>
-      <c r="D44" s="11">
-        <f>SUM(D39:D43)</f>
-        <v>660.06100000000004</v>
-      </c>
-      <c r="E44" s="11">
-        <f>SUM(E39:E43)</f>
-        <v>587.94100000000003</v>
-      </c>
-      <c r="F44" s="14">
-        <f>SUM(F39:F43)</f>
-        <v>746.01800000000003</v>
-      </c>
-      <c r="K44" s="11">
-        <f t="shared" ref="K44:V44" si="58">SUM(K39:K43)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="11">
-        <f t="shared" si="58"/>
-        <v>660.06100000000004</v>
-      </c>
-      <c r="O44" s="11">
-        <f t="shared" si="58"/>
-        <v>669.10399999999993</v>
-      </c>
-      <c r="P44" s="11">
-        <f t="shared" si="58"/>
-        <v>665.74200000000008</v>
-      </c>
-      <c r="Q44" s="11">
-        <f t="shared" si="58"/>
-        <v>688.34999999999991</v>
-      </c>
-      <c r="R44" s="11">
-        <f t="shared" si="58"/>
-        <v>587.94100000000003</v>
-      </c>
-      <c r="S44" s="11">
-        <f t="shared" si="58"/>
-        <v>601.41300000000001</v>
-      </c>
-      <c r="T44" s="11">
-        <f t="shared" si="58"/>
-        <v>685.38400000000001</v>
-      </c>
-      <c r="U44" s="11">
-        <f t="shared" si="58"/>
-        <v>688.92499999999995</v>
-      </c>
-      <c r="V44" s="14">
-        <f t="shared" si="58"/>
-        <v>746.01800000000003</v>
-      </c>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
+        <v>223.50700000000001</v>
+      </c>
+      <c r="V43" s="147">
+        <f t="shared" si="62"/>
+        <v>246.90100000000001</v>
+      </c>
+      <c r="W43" s="15">
+        <v>237.19499999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="10">
+        <v>364.13799999999998</v>
+      </c>
+      <c r="C44" s="10">
+        <v>210.32</v>
+      </c>
+      <c r="D44" s="10">
+        <v>161.60499999999999</v>
+      </c>
+      <c r="E44" s="10">
+        <v>141.989</v>
+      </c>
+      <c r="F44" s="15">
+        <v>209.828</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10">
+        <f t="shared" si="60"/>
+        <v>161.60499999999999</v>
+      </c>
+      <c r="O44" s="10">
+        <v>232.90799999999999</v>
+      </c>
+      <c r="P44" s="10">
+        <v>161.02600000000001</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>234.142</v>
+      </c>
+      <c r="R44" s="10">
+        <f t="shared" si="61"/>
+        <v>141.989</v>
+      </c>
+      <c r="S44" s="10">
+        <v>139.74100000000001</v>
+      </c>
+      <c r="T44" s="10">
+        <v>183.964</v>
+      </c>
+      <c r="U44" s="10">
+        <v>228.98599999999999</v>
+      </c>
+      <c r="V44" s="147">
+        <f t="shared" si="62"/>
+        <v>209.828</v>
+      </c>
+      <c r="W44" s="15">
+        <v>217.63399999999999</v>
+      </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="B45" s="10">
-        <v>77.03</v>
+        <v>0</v>
       </c>
       <c r="C45" s="10">
-        <v>50.524999999999999</v>
+        <v>29.079000000000001</v>
       </c>
       <c r="D45" s="10">
-        <v>40.216999999999999</v>
+        <v>39.927</v>
       </c>
       <c r="E45" s="10">
-        <v>9.9649999999999999</v>
+        <v>45.098999999999997</v>
       </c>
       <c r="F45" s="15">
-        <v>28.047000000000001</v>
+        <v>54.176000000000002</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10">
-        <f t="shared" ref="N45:N49" si="59">D45</f>
-        <v>40.216999999999999</v>
+        <f t="shared" si="60"/>
+        <v>39.927</v>
       </c>
       <c r="O45" s="10">
-        <v>33.244</v>
+        <v>40.045000000000002</v>
       </c>
       <c r="P45" s="10">
-        <v>34.143000000000001</v>
+        <v>40.908999999999999</v>
       </c>
       <c r="Q45" s="10">
-        <v>31.382999999999999</v>
+        <v>40.232999999999997</v>
       </c>
       <c r="R45" s="10">
-        <f t="shared" ref="R45:R49" si="60">E45</f>
-        <v>9.9649999999999999</v>
+        <f t="shared" si="61"/>
+        <v>45.098999999999997</v>
       </c>
       <c r="S45" s="10">
-        <v>54.4</v>
+        <v>53.066000000000003</v>
       </c>
       <c r="T45" s="10">
-        <v>50.408000000000001</v>
+        <v>51.854999999999997</v>
       </c>
       <c r="U45" s="10">
-        <v>34.880000000000003</v>
-      </c>
-      <c r="V45" s="15">
-        <f t="shared" ref="V45:V49" si="61">F45</f>
-        <v>28.047000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="10">
-        <v>167.53800000000001</v>
-      </c>
-      <c r="C46" s="10">
-        <v>81.513000000000005</v>
-      </c>
-      <c r="D46" s="10">
-        <v>33.698999999999998</v>
-      </c>
-      <c r="E46" s="10">
-        <v>3.9359999999999999</v>
-      </c>
-      <c r="F46" s="15">
-        <v>1.4770000000000001</v>
-      </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10">
-        <f t="shared" si="59"/>
-        <v>33.698999999999998</v>
-      </c>
-      <c r="O46" s="10">
-        <v>22.276</v>
-      </c>
-      <c r="P46" s="10">
-        <v>15.412000000000001</v>
-      </c>
-      <c r="Q46" s="10">
-        <v>5.5330000000000004</v>
-      </c>
-      <c r="R46" s="10">
-        <f t="shared" si="60"/>
-        <v>3.9359999999999999</v>
-      </c>
-      <c r="S46" s="10">
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="T46" s="10">
-        <v>3.0990000000000002</v>
-      </c>
-      <c r="U46" s="10">
-        <v>2.234</v>
-      </c>
-      <c r="V46" s="15">
-        <f t="shared" si="61"/>
-        <v>1.4770000000000001</v>
-      </c>
+        <v>52.204000000000001</v>
+      </c>
+      <c r="V45" s="147">
+        <f t="shared" si="62"/>
+        <v>54.176000000000002</v>
+      </c>
+      <c r="W45" s="15">
+        <v>54.055999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="11">
+        <f>SUM(B41:B45)</f>
+        <v>728.59799999999996</v>
+      </c>
+      <c r="C46" s="11">
+        <f>SUM(C41:C45)</f>
+        <v>603.82299999999987</v>
+      </c>
+      <c r="D46" s="11">
+        <f>SUM(D41:D45)</f>
+        <v>660.06100000000004</v>
+      </c>
+      <c r="E46" s="11">
+        <f>SUM(E41:E45)</f>
+        <v>587.94100000000003</v>
+      </c>
+      <c r="F46" s="14">
+        <f>SUM(F41:F45)</f>
+        <v>746.01800000000003</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" ref="K46:V46" si="63">SUM(K41:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="63"/>
+        <v>660.06100000000004</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="63"/>
+        <v>669.10399999999993</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="63"/>
+        <v>665.74200000000008</v>
+      </c>
+      <c r="Q46" s="11">
+        <f t="shared" si="63"/>
+        <v>688.34999999999991</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" si="63"/>
+        <v>587.94100000000003</v>
+      </c>
+      <c r="S46" s="11">
+        <f t="shared" si="63"/>
+        <v>601.41300000000001</v>
+      </c>
+      <c r="T46" s="11">
+        <f t="shared" si="63"/>
+        <v>685.38400000000001</v>
+      </c>
+      <c r="U46" s="11">
+        <f t="shared" si="63"/>
+        <v>688.92499999999995</v>
+      </c>
+      <c r="V46" s="146">
+        <f t="shared" si="63"/>
+        <v>746.01800000000003</v>
+      </c>
+      <c r="W46" s="14">
+        <f t="shared" ref="W46" si="64">SUM(W41:W45)</f>
+        <v>750.553</v>
+      </c>
+      <c r="X46" s="11"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B47" s="10">
-        <v>396.065</v>
+        <v>77.03</v>
       </c>
       <c r="C47" s="10">
-        <v>197.99700000000001</v>
+        <v>50.524999999999999</v>
       </c>
       <c r="D47" s="10">
-        <v>0</v>
+        <v>40.216999999999999</v>
       </c>
       <c r="E47" s="10">
-        <v>0</v>
+        <v>9.9649999999999999</v>
       </c>
       <c r="F47" s="15">
-        <v>0</v>
+        <v>28.047000000000001</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <f t="shared" ref="N47:N51" si="65">D47</f>
+        <v>40.216999999999999</v>
       </c>
       <c r="O47" s="10">
-        <v>0</v>
+        <v>33.244</v>
       </c>
       <c r="P47" s="10">
-        <v>0</v>
+        <v>34.143000000000001</v>
       </c>
       <c r="Q47" s="10">
-        <v>0</v>
+        <v>31.382999999999999</v>
       </c>
       <c r="R47" s="10">
-        <f t="shared" si="60"/>
-        <v>0</v>
+        <f t="shared" ref="R47:R51" si="66">E47</f>
+        <v>9.9649999999999999</v>
       </c>
       <c r="S47" s="10">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="T47" s="10">
-        <v>0</v>
+        <v>50.408000000000001</v>
       </c>
       <c r="U47" s="10">
-        <v>0</v>
-      </c>
-      <c r="V47" s="15">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <v>34.880000000000003</v>
+      </c>
+      <c r="V47" s="147">
+        <f t="shared" ref="V47:V51" si="67">F47</f>
+        <v>28.047000000000001</v>
+      </c>
+      <c r="W47" s="15">
+        <v>20.722000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" s="10">
-        <v>0</v>
+        <v>167.53800000000001</v>
       </c>
       <c r="C48" s="10">
-        <v>229.8</v>
+        <v>81.513000000000005</v>
       </c>
       <c r="D48" s="10">
-        <v>220.14599999999999</v>
+        <v>33.698999999999998</v>
       </c>
       <c r="E48" s="10">
-        <v>204.30500000000001</v>
+        <v>3.9359999999999999</v>
       </c>
       <c r="F48" s="15">
-        <v>175.21600000000001</v>
+        <v>1.4770000000000001</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10">
-        <f t="shared" si="59"/>
-        <v>220.14599999999999</v>
+        <f t="shared" si="65"/>
+        <v>33.698999999999998</v>
       </c>
       <c r="O48" s="10">
-        <v>227.61699999999999</v>
+        <v>22.276</v>
       </c>
       <c r="P48" s="10">
-        <v>216.059</v>
+        <v>15.412000000000001</v>
       </c>
       <c r="Q48" s="10">
-        <v>204.90299999999999</v>
+        <v>5.5330000000000004</v>
       </c>
       <c r="R48" s="10">
-        <f t="shared" si="60"/>
-        <v>204.30500000000001</v>
+        <f t="shared" si="66"/>
+        <v>3.9359999999999999</v>
       </c>
       <c r="S48" s="10">
-        <v>206.422</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="T48" s="10">
-        <v>194.13399999999999</v>
+        <v>3.0990000000000002</v>
       </c>
       <c r="U48" s="10">
-        <v>184.06700000000001</v>
-      </c>
-      <c r="V48" s="15">
-        <f t="shared" si="61"/>
-        <v>175.21600000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2.234</v>
+      </c>
+      <c r="V48" s="147">
+        <f t="shared" si="67"/>
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="W48" s="15">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="B49" s="10">
-        <v>78.204999999999998</v>
+        <v>396.065</v>
       </c>
       <c r="C49" s="10">
-        <v>4.3159999999999998</v>
+        <v>197.99700000000001</v>
       </c>
       <c r="D49" s="10">
-        <v>2.2970000000000002</v>
+        <v>0</v>
       </c>
       <c r="E49" s="10">
-        <v>12.654999999999999</v>
+        <v>0</v>
       </c>
       <c r="F49" s="15">
-        <v>10.702</v>
+        <v>0</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>0</v>
+      </c>
+      <c r="R49" s="10">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="10">
+        <v>0</v>
+      </c>
+      <c r="T49" s="10">
+        <v>0</v>
+      </c>
+      <c r="U49" s="10">
+        <v>0</v>
+      </c>
+      <c r="V49" s="147">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="15"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="10">
+        <v>0</v>
+      </c>
+      <c r="C50" s="10">
+        <v>229.8</v>
+      </c>
+      <c r="D50" s="10">
+        <v>220.14599999999999</v>
+      </c>
+      <c r="E50" s="10">
+        <v>204.30500000000001</v>
+      </c>
+      <c r="F50" s="15">
+        <v>175.21600000000001</v>
+      </c>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10">
+        <f t="shared" si="65"/>
+        <v>220.14599999999999</v>
+      </c>
+      <c r="O50" s="10">
+        <v>227.61699999999999</v>
+      </c>
+      <c r="P50" s="10">
+        <v>216.059</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>204.90299999999999</v>
+      </c>
+      <c r="R50" s="10">
+        <f t="shared" si="66"/>
+        <v>204.30500000000001</v>
+      </c>
+      <c r="S50" s="10">
+        <v>206.422</v>
+      </c>
+      <c r="T50" s="10">
+        <v>194.13399999999999</v>
+      </c>
+      <c r="U50" s="10">
+        <v>184.06700000000001</v>
+      </c>
+      <c r="V50" s="147">
+        <f t="shared" si="67"/>
+        <v>175.21600000000001</v>
+      </c>
+      <c r="W50" s="15">
+        <v>163.01300000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="10">
+        <v>78.204999999999998</v>
+      </c>
+      <c r="C51" s="10">
+        <v>4.3159999999999998</v>
+      </c>
+      <c r="D51" s="10">
         <v>2.2970000000000002</v>
       </c>
-      <c r="O49" s="10">
+      <c r="E51" s="10">
+        <v>12.654999999999999</v>
+      </c>
+      <c r="F51" s="15">
+        <v>10.702</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10">
+        <f t="shared" si="65"/>
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="O51" s="10">
         <v>2.1920000000000002</v>
       </c>
-      <c r="P49" s="10">
+      <c r="P51" s="10">
         <v>2.1579999999999999</v>
       </c>
-      <c r="Q49" s="10">
+      <c r="Q51" s="10">
         <v>2.0510000000000002</v>
       </c>
-      <c r="R49" s="10">
-        <f t="shared" si="60"/>
+      <c r="R51" s="10">
+        <f t="shared" si="66"/>
         <v>12.654999999999999</v>
       </c>
-      <c r="S49" s="10">
+      <c r="S51" s="10">
         <v>13.548</v>
       </c>
-      <c r="T49" s="10">
+      <c r="T51" s="10">
         <v>12.101000000000001</v>
       </c>
-      <c r="U49" s="10">
+      <c r="U51" s="10">
         <v>11.414</v>
       </c>
-      <c r="V49" s="15">
-        <f t="shared" si="61"/>
+      <c r="V51" s="147">
+        <f t="shared" si="67"/>
         <v>10.702</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="W51" s="15">
+        <v>9.968</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="11">
-        <f>SUM(B44:B49)</f>
+      <c r="B52" s="11">
+        <f>SUM(B46:B51)</f>
         <v>1447.4359999999999</v>
       </c>
-      <c r="C50" s="11">
-        <f>SUM(C44:C49)</f>
+      <c r="C52" s="11">
+        <f>SUM(C46:C51)</f>
         <v>1167.9739999999999</v>
       </c>
-      <c r="D50" s="11">
-        <f>SUM(D44:D49)</f>
+      <c r="D52" s="11">
+        <f>SUM(D46:D51)</f>
         <v>956.42</v>
       </c>
-      <c r="E50" s="11">
-        <f>SUM(E44:E49)</f>
+      <c r="E52" s="11">
+        <f>SUM(E46:E51)</f>
         <v>818.80200000000013</v>
       </c>
-      <c r="F50" s="14">
-        <f>SUM(F44:F49)</f>
+      <c r="F52" s="14">
+        <f>SUM(F46:F51)</f>
         <v>961.46</v>
       </c>
-      <c r="K50" s="11">
-        <f t="shared" ref="K50:V50" si="62">SUM(K44:K49)</f>
+      <c r="K52" s="11">
+        <f t="shared" ref="K52:V52" si="68">SUM(K46:K51)</f>
         <v>0</v>
       </c>
-      <c r="L50" s="11">
-        <f t="shared" si="62"/>
+      <c r="L52" s="11">
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="M50" s="11">
-        <f t="shared" si="62"/>
+      <c r="M52" s="11">
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="N50" s="11">
-        <f t="shared" si="62"/>
+      <c r="N52" s="11">
+        <f t="shared" si="68"/>
         <v>956.42</v>
       </c>
-      <c r="O50" s="11">
-        <f t="shared" si="62"/>
+      <c r="O52" s="11">
+        <f t="shared" si="68"/>
         <v>954.43299999999988</v>
       </c>
-      <c r="P50" s="11">
-        <f t="shared" si="62"/>
+      <c r="P52" s="11">
+        <f t="shared" si="68"/>
         <v>933.51400000000012</v>
       </c>
-      <c r="Q50" s="11">
-        <f t="shared" si="62"/>
+      <c r="Q52" s="11">
+        <f t="shared" si="68"/>
         <v>932.22</v>
       </c>
-      <c r="R50" s="11">
-        <f t="shared" si="62"/>
+      <c r="R52" s="11">
+        <f t="shared" si="68"/>
         <v>818.80200000000013</v>
       </c>
-      <c r="S50" s="11">
-        <f t="shared" si="62"/>
+      <c r="S52" s="11">
+        <f t="shared" si="68"/>
         <v>879.94500000000005</v>
       </c>
-      <c r="T50" s="11">
-        <f t="shared" si="62"/>
+      <c r="T52" s="11">
+        <f t="shared" si="68"/>
         <v>945.12600000000009</v>
       </c>
-      <c r="U50" s="11">
-        <f t="shared" si="62"/>
+      <c r="U52" s="11">
+        <f t="shared" si="68"/>
         <v>921.52</v>
       </c>
-      <c r="V50" s="14">
-        <f t="shared" si="62"/>
+      <c r="V52" s="146">
+        <f t="shared" si="68"/>
         <v>961.46</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="W52" s="14">
+        <f t="shared" ref="W52" si="69">SUM(W46:W51)</f>
+        <v>945.90699999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="10">
-        <f t="shared" ref="B51:E51" si="63">B38-B50</f>
+      <c r="B53" s="10">
+        <f t="shared" ref="B53:E53" si="70">B40-B52</f>
         <v>146.58900000000017</v>
       </c>
-      <c r="C51" s="10">
-        <f t="shared" si="63"/>
+      <c r="C53" s="10">
+        <f t="shared" si="70"/>
         <v>1522.53</v>
       </c>
-      <c r="D51" s="10">
-        <f t="shared" si="63"/>
+      <c r="D53" s="10">
+        <f t="shared" si="70"/>
         <v>2291.0299999999997</v>
       </c>
-      <c r="E51" s="10">
-        <f t="shared" si="63"/>
+      <c r="E53" s="10">
+        <f t="shared" si="70"/>
         <v>2642.4369999999999</v>
       </c>
-      <c r="F51" s="15">
-        <f>F38-F50</f>
+      <c r="F53" s="15">
+        <f>F40-F52</f>
         <v>3560.9650000000001</v>
       </c>
-      <c r="N51" s="10">
-        <f t="shared" ref="N51:V51" si="64">N38-N50</f>
+      <c r="N53" s="10">
+        <f t="shared" ref="N53:V53" si="71">N40-N52</f>
         <v>2291.0299999999997</v>
       </c>
-      <c r="O51" s="10">
-        <f t="shared" si="64"/>
+      <c r="O53" s="10">
+        <f t="shared" si="71"/>
         <v>2364.7460000000001</v>
       </c>
-      <c r="P51" s="10">
-        <f t="shared" si="64"/>
+      <c r="P53" s="10">
+        <f t="shared" si="71"/>
         <v>2348.8239999999996</v>
       </c>
-      <c r="Q51" s="10">
-        <f t="shared" si="64"/>
+      <c r="Q53" s="10">
+        <f t="shared" si="71"/>
         <v>2386.6149999999998</v>
       </c>
-      <c r="R51" s="10">
-        <f t="shared" si="64"/>
+      <c r="R53" s="10">
+        <f t="shared" si="71"/>
         <v>2642.4369999999999</v>
       </c>
-      <c r="S51" s="10">
-        <f t="shared" si="64"/>
+      <c r="S53" s="10">
+        <f t="shared" si="71"/>
         <v>2803.1929999999998</v>
       </c>
-      <c r="T51" s="10">
-        <f t="shared" si="64"/>
+      <c r="T53" s="10">
+        <f t="shared" si="71"/>
         <v>3035.1379999999999</v>
       </c>
-      <c r="U51" s="10">
-        <f t="shared" si="64"/>
+      <c r="U53" s="10">
+        <f t="shared" si="71"/>
         <v>3271.8969999999995</v>
       </c>
-      <c r="V51" s="15">
-        <f t="shared" si="64"/>
+      <c r="V53" s="147">
+        <f t="shared" si="71"/>
         <v>3560.9650000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R52" s="124"/>
-      <c r="S52" s="124"/>
-      <c r="T52" s="124"/>
-      <c r="U52" s="124"/>
-      <c r="V52" s="56"/>
-    </row>
-    <row r="53" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="W53" s="15">
+        <f t="shared" ref="W53" si="72">W40-W52</f>
+        <v>3861.1720000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R54" s="119"/>
+      <c r="S54" s="119"/>
+      <c r="T54" s="119"/>
+      <c r="U54" s="119"/>
+      <c r="V54" s="119"/>
+      <c r="W54" s="51"/>
+    </row>
+    <row r="55" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="56">
-        <f>F10/F31</f>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="51">
+        <f>F10/F33</f>
         <v>4.5408373582373242E-2</v>
       </c>
-      <c r="R53" s="124"/>
-      <c r="S53" s="124">
-        <f t="shared" ref="S53:V53" si="65">S10/S31</f>
-        <v>1.193928272828893E-2</v>
-      </c>
-      <c r="T53" s="124">
-        <f t="shared" si="65"/>
-        <v>1.4161378068693404E-2</v>
-      </c>
-      <c r="U53" s="124">
-        <f t="shared" si="65"/>
-        <v>1.6102429317280533E-2</v>
-      </c>
-      <c r="V53" s="56">
-        <f t="shared" si="65"/>
-        <v>1.5619746110979021E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="6:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F71" s="42"/>
-      <c r="V71" s="42"/>
-    </row>
-    <row r="72" spans="6:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F72" s="16"/>
-      <c r="V72" s="16"/>
+      <c r="P55" s="162">
+        <f t="shared" ref="P55:R55" si="73">(P32+P33)-(O32+O33)</f>
+        <v>92.574999999999818</v>
+      </c>
+      <c r="Q55" s="162">
+        <f t="shared" si="73"/>
+        <v>122.76699999999983</v>
+      </c>
+      <c r="R55" s="162">
+        <f t="shared" si="73"/>
+        <v>-141.43599999999969</v>
+      </c>
+      <c r="S55" s="162">
+        <f t="shared" ref="S55:V55" si="74">(S32+S33)-(R32+R33)</f>
+        <v>282.80599999999959</v>
+      </c>
+      <c r="T55" s="162">
+        <f t="shared" si="74"/>
+        <v>186.77100000000019</v>
+      </c>
+      <c r="U55" s="162">
+        <f t="shared" si="74"/>
+        <v>180.32200000000012</v>
+      </c>
+      <c r="V55" s="162">
+        <f t="shared" si="74"/>
+        <v>390.60500000000002</v>
+      </c>
+      <c r="W55" s="161">
+        <f>(W32+W33)-(V32+V33)</f>
+        <v>193.721</v>
+      </c>
+    </row>
+    <row r="73" spans="6:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="42"/>
+      <c r="V73" s="150"/>
+      <c r="W73" s="42"/>
+    </row>
+    <row r="74" spans="6:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="16"/>
+      <c r="V74" s="151"/>
+      <c r="W74" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18590,7 +18843,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B44" formula="1"/>
+    <ignoredError sqref="B46" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -27674,7 +27927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:P188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
@@ -27699,14 +27952,14 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="138"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
@@ -27715,16 +27968,16 @@
       <c r="B2" s="18">
         <v>21.59</v>
       </c>
-      <c r="C2" s="126">
+      <c r="C2" s="121">
         <f>B2/B3-1</f>
         <v>5.4714215925744991E-2</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -27733,26 +27986,26 @@
       <c r="B3" s="18">
         <v>20.47</v>
       </c>
-      <c r="C3" s="126">
+      <c r="C3" s="121">
         <f>B3/B4-1</f>
         <v>-9.7044552271724815E-2</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="64" t="s">
         <v>113</v>
       </c>
       <c r="P3" t="s">
@@ -27766,31 +28019,31 @@
       <c r="B4" s="18">
         <v>22.67</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="121">
         <f t="shared" ref="C4:C67" si="0">B4/B5-1</f>
         <v>-1.2630662020905903E-2</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="65">
         <f>$H$19-3*$H$23</f>
         <v>-0.30196155743324171</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="66">
         <f>G4</f>
         <v>-0.30196155743324171</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="67">
         <f>COUNTIF(C:C,"&lt;="&amp;G4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="67" t="str">
         <f>"Less than "&amp;TEXT(G4,"0,00%")</f>
         <v>Less than -30,20%</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="68">
         <f>I4/$H$31</f>
         <v>0</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="69">
         <f>K4</f>
         <v>0</v>
       </c>
@@ -27802,31 +28055,31 @@
       <c r="B5" s="18">
         <v>22.96</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="121">
         <f t="shared" si="0"/>
         <v>-2.1729682746631784E-3</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="70">
         <f>$H$19-2.4*$H$23</f>
         <v>-0.2395044379089247</v>
       </c>
-      <c r="H5" s="76">
+      <c r="H5" s="71">
         <f>G5</f>
         <v>-0.2395044379089247</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="72">
         <f>COUNTIFS(C:C,"&lt;="&amp;G5,C:C,"&gt;"&amp;G4)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="78" t="str">
+      <c r="J5" s="73" t="str">
         <f t="shared" ref="J5:J14" si="1">TEXT(G4,"0,00%")&amp;" to "&amp;TEXT(G5,"0,00%")</f>
         <v>-30,20% to -23,95%</v>
       </c>
-      <c r="K5" s="79">
+      <c r="K5" s="74">
         <f>I5/$H$31</f>
         <v>0</v>
       </c>
-      <c r="L5" s="80">
+      <c r="L5" s="75">
         <f>L4+K5</f>
         <v>0</v>
       </c>
@@ -27838,31 +28091,31 @@
       <c r="B6" s="18">
         <v>23.01</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="121">
         <f t="shared" si="0"/>
         <v>-4.8387096774193505E-2</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="70">
         <f>$H$19-1.8*$H$23</f>
         <v>-0.17704731838460766</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="71">
         <f t="shared" ref="H6:H14" si="2">G6</f>
         <v>-0.17704731838460766</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="72">
         <f t="shared" ref="I6:I14" si="3">COUNTIFS(C:C,"&lt;="&amp;G6,C:C,"&gt;"&amp;G5)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="78" t="str">
+      <c r="J6" s="73" t="str">
         <f t="shared" si="1"/>
         <v>-23,95% to -17,70%</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="74">
         <f t="shared" ref="K6:K15" si="4">I6/$H$31</f>
         <v>0</v>
       </c>
-      <c r="L6" s="80">
+      <c r="L6" s="75">
         <f t="shared" ref="L6:L15" si="5">L5+K6</f>
         <v>0</v>
       </c>
@@ -27874,31 +28127,31 @@
       <c r="B7" s="18">
         <v>24.18</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="121">
         <f t="shared" si="0"/>
         <v>2.9374201787994991E-2</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="70">
         <f>$H$19-1.2*$H$23</f>
         <v>-0.11459019886029058</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="71">
         <f t="shared" si="2"/>
         <v>-0.11459019886029058</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="72">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="J7" s="78" t="str">
+      <c r="J7" s="73" t="str">
         <f t="shared" si="1"/>
         <v>-17,70% to -11,46%</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="74">
         <f t="shared" si="4"/>
         <v>9.9447513812154692E-2</v>
       </c>
-      <c r="L7" s="80">
+      <c r="L7" s="75">
         <f t="shared" si="5"/>
         <v>9.9447513812154692E-2</v>
       </c>
@@ -27910,31 +28163,31 @@
       <c r="B8" s="18">
         <v>23.49</v>
       </c>
-      <c r="C8" s="126">
+      <c r="C8" s="121">
         <f t="shared" si="0"/>
         <v>-9.7926301922953152E-2</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G8" s="70">
         <f>$H$19-0.6*$H$23</f>
         <v>-5.2133079335973533E-2</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="71">
         <f t="shared" si="2"/>
         <v>-5.2133079335973533E-2</v>
       </c>
-      <c r="I8" s="77">
+      <c r="I8" s="72">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="J8" s="78" t="str">
+      <c r="J8" s="73" t="str">
         <f t="shared" si="1"/>
         <v>-11,46% to -5,21%</v>
       </c>
-      <c r="K8" s="79">
+      <c r="K8" s="74">
         <f t="shared" si="4"/>
         <v>0.18784530386740331</v>
       </c>
-      <c r="L8" s="80">
+      <c r="L8" s="75">
         <f t="shared" si="5"/>
         <v>0.287292817679558</v>
       </c>
@@ -27946,31 +28199,31 @@
       <c r="B9" s="18">
         <v>26.040001</v>
       </c>
-      <c r="C9" s="126">
+      <c r="C9" s="121">
         <f t="shared" si="0"/>
         <v>4.4524709185719935E-2</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="70">
         <f>$H$19</f>
         <v>1.0324040188343523E-2</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="71">
         <f t="shared" si="2"/>
         <v>1.0324040188343523E-2</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="72">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="J9" s="78" t="str">
+      <c r="J9" s="73" t="str">
         <f t="shared" si="1"/>
         <v>-5,21% to 1,03%</v>
       </c>
-      <c r="K9" s="79">
+      <c r="K9" s="74">
         <f t="shared" si="4"/>
         <v>0.25966850828729282</v>
       </c>
-      <c r="L9" s="80">
+      <c r="L9" s="75">
         <f t="shared" si="5"/>
         <v>0.54696132596685088</v>
       </c>
@@ -27982,31 +28235,31 @@
       <c r="B10" s="18">
         <v>24.93</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="121">
         <f t="shared" si="0"/>
         <v>8.5328736844960229E-2</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="70">
         <f>$H$19+0.6*$H$23</f>
         <v>7.2781159712660581E-2</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="71">
         <f t="shared" si="2"/>
         <v>7.2781159712660581E-2</v>
       </c>
-      <c r="I10" s="77">
+      <c r="I10" s="72">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="J10" s="78" t="str">
+      <c r="J10" s="73" t="str">
         <f t="shared" si="1"/>
         <v>1,03% to 7,28%</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="74">
         <f t="shared" si="4"/>
         <v>0.287292817679558</v>
       </c>
-      <c r="L10" s="80">
+      <c r="L10" s="75">
         <f t="shared" si="5"/>
         <v>0.83425414364640882</v>
       </c>
@@ -28018,31 +28271,31 @@
       <c r="B11" s="18">
         <v>22.969999000000001</v>
       </c>
-      <c r="C11" s="126">
+      <c r="C11" s="121">
         <f t="shared" si="0"/>
         <v>-6.0147378881040048E-2</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="70">
         <f>$H$19+1.2*$H$23</f>
         <v>0.13523827923697762</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="71">
         <f t="shared" si="2"/>
         <v>0.13523827923697762</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="72">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="J11" s="78" t="str">
+      <c r="J11" s="73" t="str">
         <f t="shared" si="1"/>
         <v>7,28% to 13,52%</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="74">
         <f t="shared" si="4"/>
         <v>0.11602209944751381</v>
       </c>
-      <c r="L11" s="80">
+      <c r="L11" s="75">
         <f t="shared" si="5"/>
         <v>0.95027624309392267</v>
       </c>
@@ -28054,31 +28307,31 @@
       <c r="B12" s="18">
         <v>24.440000999999999</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="121">
         <f t="shared" si="0"/>
         <v>2.4611157695288988E-3</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="70">
         <f>$H$19+1.8*$H$23</f>
         <v>0.19769539876129469</v>
       </c>
-      <c r="H12" s="76">
+      <c r="H12" s="71">
         <f t="shared" si="2"/>
         <v>0.19769539876129469</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="72">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J12" s="78" t="str">
+      <c r="J12" s="73" t="str">
         <f t="shared" si="1"/>
         <v>13,52% to 19,77%</v>
       </c>
-      <c r="K12" s="79">
+      <c r="K12" s="74">
         <f t="shared" si="4"/>
         <v>2.7624309392265192E-2</v>
       </c>
-      <c r="L12" s="80">
+      <c r="L12" s="75">
         <f t="shared" si="5"/>
         <v>0.9779005524861879</v>
       </c>
@@ -28090,31 +28343,31 @@
       <c r="B13" s="18">
         <v>24.379999000000002</v>
       </c>
-      <c r="C13" s="126">
+      <c r="C13" s="121">
         <f t="shared" si="0"/>
         <v>0.43243237367802601</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="70">
         <f>$H$19+2.4*$H$23</f>
         <v>0.26015251828561176</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="71">
         <f t="shared" si="2"/>
         <v>0.26015251828561176</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="72">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J13" s="78" t="str">
+      <c r="J13" s="73" t="str">
         <f t="shared" si="1"/>
         <v>19,77% to 26,02%</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="74">
         <f t="shared" si="4"/>
         <v>2.2099447513812154E-2</v>
       </c>
-      <c r="L13" s="80">
+      <c r="L13" s="75">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -28126,31 +28379,31 @@
       <c r="B14" s="18">
         <v>17.02</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="121">
         <f t="shared" si="0"/>
         <v>4.0978593272171127E-2</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="70">
         <f>$H$19+3*$H$23</f>
         <v>0.3226096378099288</v>
       </c>
-      <c r="H14" s="76">
+      <c r="H14" s="71">
         <f t="shared" si="2"/>
         <v>0.3226096378099288</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="72">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J14" s="78" t="str">
+      <c r="J14" s="73" t="str">
         <f t="shared" si="1"/>
         <v>26,02% to 32,26%</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="74">
         <f t="shared" si="4"/>
         <v>1.1049723756906077E-2</v>
       </c>
-      <c r="L14" s="80">
+      <c r="L14" s="75">
         <f t="shared" si="5"/>
         <v>1.011049723756906</v>
       </c>
@@ -28162,27 +28415,27 @@
       <c r="B15" s="18">
         <v>16.350000000000001</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="121">
         <f t="shared" si="0"/>
         <v>-2.5625803002037761E-2</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="82" t="s">
+      <c r="G15" s="76"/>
+      <c r="H15" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="82">
+      <c r="I15" s="77">
         <f>COUNTIF(C:C,"&gt;"&amp;G14)</f>
         <v>3</v>
       </c>
-      <c r="J15" s="82" t="str">
+      <c r="J15" s="77" t="str">
         <f>"Greater than "&amp;TEXT(G14,"0,00%")</f>
         <v>Greater than 32,26%</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="79">
         <f t="shared" si="4"/>
         <v>1.6574585635359115E-2</v>
       </c>
-      <c r="L15" s="84">
+      <c r="L15" s="79">
         <f t="shared" si="5"/>
         <v>1.0276243093922652</v>
       </c>
@@ -28194,12 +28447,12 @@
       <c r="B16" s="18">
         <v>16.780000999999999</v>
       </c>
-      <c r="C16" s="126">
+      <c r="C16" s="121">
         <f t="shared" si="0"/>
         <v>1.1933770883052475E-3</v>
       </c>
-      <c r="G16" s="116"/>
-      <c r="L16" s="88"/>
+      <c r="G16" s="111"/>
+      <c r="L16" s="83"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -28208,15 +28461,15 @@
       <c r="B17" s="18">
         <v>16.760000000000002</v>
       </c>
-      <c r="C17" s="126">
+      <c r="C17" s="121">
         <f t="shared" si="0"/>
         <v>4.8811013767209088E-2</v>
       </c>
-      <c r="G17" s="142" t="s">
+      <c r="G17" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="143"/>
-      <c r="L17" s="88"/>
+      <c r="H17" s="138"/>
+      <c r="L17" s="83"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -28225,13 +28478,13 @@
       <c r="B18" s="18">
         <v>15.98</v>
       </c>
-      <c r="C18" s="126">
+      <c r="C18" s="121">
         <f t="shared" si="0"/>
         <v>-6.9306930693069368E-2</v>
       </c>
-      <c r="G18" s="144"/>
-      <c r="H18" s="145"/>
-      <c r="L18" s="88"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="140"/>
+      <c r="L18" s="83"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -28240,17 +28493,17 @@
       <c r="B19" s="18">
         <v>17.170000000000002</v>
       </c>
-      <c r="C19" s="126">
+      <c r="C19" s="121">
         <f t="shared" si="0"/>
         <v>-1.378518093049963E-2</v>
       </c>
-      <c r="G19" s="121" t="s">
+      <c r="G19" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="122">
+      <c r="H19" s="117">
         <v>1.0324040188343523E-2</v>
       </c>
-      <c r="L19" s="88"/>
+      <c r="L19" s="83"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -28259,17 +28512,17 @@
       <c r="B20" s="18">
         <v>17.41</v>
       </c>
-      <c r="C20" s="126">
+      <c r="C20" s="121">
         <f t="shared" si="0"/>
         <v>-4.3406645966667767E-2</v>
       </c>
-      <c r="G20" s="121" t="s">
+      <c r="G20" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="122">
+      <c r="H20" s="117">
         <v>7.7373352223140783E-3</v>
       </c>
-      <c r="L20" s="88"/>
+      <c r="L20" s="83"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -28278,17 +28531,17 @@
       <c r="B21" s="18">
         <v>18.200001</v>
       </c>
-      <c r="C21" s="126">
+      <c r="C21" s="121">
         <f t="shared" si="0"/>
         <v>2.4198142937535305E-2</v>
       </c>
-      <c r="G21" s="121" t="s">
+      <c r="G21" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="122">
+      <c r="H21" s="117">
         <v>5.0668357930372387E-3</v>
       </c>
-      <c r="L21" s="88"/>
+      <c r="L21" s="83"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -28297,15 +28550,15 @@
       <c r="B22" s="18">
         <v>17.77</v>
       </c>
-      <c r="C22" s="126">
+      <c r="C22" s="121">
         <f t="shared" si="0"/>
         <v>-0.12333497779970404</v>
       </c>
-      <c r="G22" s="121" t="s">
+      <c r="G22" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="122"/>
-      <c r="L22" s="88"/>
+      <c r="H22" s="117"/>
+      <c r="L22" s="83"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -28314,17 +28567,17 @@
       <c r="B23" s="18">
         <v>20.27</v>
       </c>
-      <c r="C23" s="126">
+      <c r="C23" s="121">
         <f t="shared" si="0"/>
         <v>5.5729111680775434E-2</v>
       </c>
-      <c r="G23" s="121" t="s">
+      <c r="G23" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="122">
+      <c r="H23" s="117">
         <v>0.10409519920719509</v>
       </c>
-      <c r="L23" s="88"/>
+      <c r="L23" s="83"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -28333,17 +28586,17 @@
       <c r="B24" s="18">
         <v>19.200001</v>
       </c>
-      <c r="C24" s="126">
+      <c r="C24" s="121">
         <f t="shared" si="0"/>
         <v>-6.2957491459248338E-2</v>
       </c>
-      <c r="G24" s="121" t="s">
+      <c r="G24" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="122">
+      <c r="H24" s="117">
         <v>1.0835810497985631E-2</v>
       </c>
-      <c r="L24" s="88"/>
+      <c r="L24" s="83"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -28352,17 +28605,17 @@
       <c r="B25" s="18">
         <v>20.49</v>
       </c>
-      <c r="C25" s="126">
+      <c r="C25" s="121">
         <f t="shared" si="0"/>
         <v>4.1687849517030751E-2</v>
       </c>
-      <c r="G25" s="121" t="s">
+      <c r="G25" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="123">
+      <c r="H25" s="118">
         <v>4.4499182088364986</v>
       </c>
-      <c r="L25" s="88"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -28371,17 +28624,17 @@
       <c r="B26" s="18">
         <v>19.670000000000002</v>
       </c>
-      <c r="C26" s="126">
+      <c r="C26" s="121">
         <f t="shared" si="0"/>
         <v>4.1291743848160145E-2</v>
       </c>
-      <c r="G26" s="121" t="s">
+      <c r="G26" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="123">
+      <c r="H26" s="118">
         <v>1.4086978788475739</v>
       </c>
-      <c r="L26" s="88"/>
+      <c r="L26" s="83"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -28390,17 +28643,17 @@
       <c r="B27" s="18">
         <v>18.889999</v>
       </c>
-      <c r="C27" s="126">
+      <c r="C27" s="121">
         <f t="shared" si="0"/>
         <v>0.25348367617783674</v>
       </c>
-      <c r="G27" s="121" t="s">
+      <c r="G27" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="122">
+      <c r="H27" s="117">
         <v>0.69982901111427775</v>
       </c>
-      <c r="L27" s="88"/>
+      <c r="L27" s="83"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
@@ -28409,17 +28662,17 @@
       <c r="B28" s="18">
         <v>15.07</v>
       </c>
-      <c r="C28" s="126">
+      <c r="C28" s="121">
         <f t="shared" si="0"/>
         <v>-6.4556234354051223E-2</v>
       </c>
-      <c r="G28" s="121" t="s">
+      <c r="G28" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="122">
+      <c r="H28" s="117">
         <v>-0.17586206896551726</v>
       </c>
-      <c r="L28" s="88"/>
+      <c r="L28" s="83"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -28428,17 +28681,17 @@
       <c r="B29" s="18">
         <v>16.110001</v>
       </c>
-      <c r="C29" s="126">
+      <c r="C29" s="121">
         <f t="shared" si="0"/>
         <v>-7.2004604147200224E-2</v>
       </c>
-      <c r="G29" s="121" t="s">
+      <c r="G29" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="122">
+      <c r="H29" s="117">
         <v>0.5239669421487605</v>
       </c>
-      <c r="L29" s="88"/>
+      <c r="L29" s="83"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
@@ -28447,17 +28700,17 @@
       <c r="B30" s="18">
         <v>17.360001</v>
       </c>
-      <c r="C30" s="126">
+      <c r="C30" s="121">
         <f t="shared" si="0"/>
         <v>4.5153519256260211E-2</v>
       </c>
-      <c r="G30" s="121" t="s">
+      <c r="G30" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="123">
+      <c r="H30" s="118">
         <v>1.8686512740901775</v>
       </c>
-      <c r="L30" s="88"/>
+      <c r="L30" s="83"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
@@ -28466,17 +28719,17 @@
       <c r="B31" s="18">
         <v>16.610001</v>
       </c>
-      <c r="C31" s="126">
+      <c r="C31" s="121">
         <f t="shared" si="0"/>
         <v>3.8125062500000029E-2</v>
       </c>
-      <c r="G31" s="120" t="s">
+      <c r="G31" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="102">
+      <c r="H31" s="97">
         <v>181</v>
       </c>
-      <c r="L31" s="88"/>
+      <c r="L31" s="83"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
@@ -28485,12 +28738,12 @@
       <c r="B32" s="18">
         <v>16</v>
       </c>
-      <c r="C32" s="126">
+      <c r="C32" s="121">
         <f t="shared" si="0"/>
         <v>0.13234253361641901</v>
       </c>
-      <c r="G32" s="119"/>
-      <c r="L32" s="88"/>
+      <c r="G32" s="114"/>
+      <c r="L32" s="83"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
@@ -28499,24 +28752,24 @@
       <c r="B33" s="18">
         <v>14.13</v>
       </c>
-      <c r="C33" s="126">
+      <c r="C33" s="121">
         <f t="shared" si="0"/>
         <v>-7.8277886497064575E-2</v>
       </c>
-      <c r="G33" s="117"/>
-      <c r="H33" s="86" t="s">
+      <c r="G33" s="112"/>
+      <c r="H33" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="86" t="s">
+      <c r="I33" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="86" t="s">
+      <c r="J33" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="K33" s="87" t="s">
+      <c r="K33" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="L33" s="88"/>
+      <c r="L33" s="83"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
@@ -28525,30 +28778,30 @@
       <c r="B34" s="18">
         <v>15.33</v>
       </c>
-      <c r="C34" s="126">
+      <c r="C34" s="121">
         <f t="shared" si="0"/>
         <v>1.3218770654329193E-2</v>
       </c>
-      <c r="G34" s="114" t="s">
+      <c r="G34" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="79">
+      <c r="H34" s="74">
         <f>AVERAGEIF(C:C,"&gt;0")</f>
         <v>7.8537793421395052E-2</v>
       </c>
-      <c r="I34" s="77">
+      <c r="I34" s="72">
         <f>COUNTIF(C:C,"&gt;0")</f>
         <v>99</v>
       </c>
-      <c r="J34" s="79">
+      <c r="J34" s="74">
         <f>I34/$H$31</f>
         <v>0.54696132596685088</v>
       </c>
-      <c r="K34" s="80">
+      <c r="K34" s="75">
         <f>J34*H34</f>
         <v>4.2957135628276855E-2</v>
       </c>
-      <c r="L34" s="88"/>
+      <c r="L34" s="83"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
@@ -28557,30 +28810,30 @@
       <c r="B35" s="18">
         <v>15.13</v>
       </c>
-      <c r="C35" s="126">
+      <c r="C35" s="121">
         <f t="shared" si="0"/>
         <v>-3.2938076416336726E-3</v>
       </c>
-      <c r="G35" s="114" t="s">
+      <c r="G35" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="79">
+      <c r="H35" s="74">
         <f>AVERAGEIF(C:C,"&lt;0")</f>
         <v>-6.9104728023490519E-2</v>
       </c>
-      <c r="I35" s="77">
+      <c r="I35" s="72">
         <f>COUNTIF(C:C,"&lt;0")</f>
         <v>87</v>
       </c>
-      <c r="J35" s="79">
+      <c r="J35" s="74">
         <f>I35/$H$31</f>
         <v>0.48066298342541436</v>
       </c>
-      <c r="K35" s="80">
+      <c r="K35" s="75">
         <f t="shared" ref="K35:K36" si="6">J35*H35</f>
         <v>-3.321608474057279E-2</v>
       </c>
-      <c r="L35" s="88"/>
+      <c r="L35" s="83"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
@@ -28589,29 +28842,29 @@
       <c r="B36" s="18">
         <v>15.18</v>
       </c>
-      <c r="C36" s="126">
+      <c r="C36" s="121">
         <f t="shared" si="0"/>
         <v>4.4735030970405987E-2</v>
       </c>
-      <c r="G36" s="118" t="s">
+      <c r="G36" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="82">
+      <c r="H36" s="77">
         <v>0</v>
       </c>
-      <c r="I36" s="82">
+      <c r="I36" s="77">
         <f>COUNTIF(C:C,"0")</f>
         <v>0</v>
       </c>
-      <c r="J36" s="83">
+      <c r="J36" s="78">
         <f>I36/$H$31</f>
         <v>0</v>
       </c>
-      <c r="K36" s="84">
+      <c r="K36" s="79">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L36" s="88"/>
+      <c r="L36" s="83"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
@@ -28620,16 +28873,16 @@
       <c r="B37" s="18">
         <v>14.53</v>
       </c>
-      <c r="C37" s="126">
+      <c r="C37" s="121">
         <f t="shared" si="0"/>
         <v>9.0277777777776347E-3</v>
       </c>
-      <c r="G37" s="119"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="88"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="83"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
@@ -28638,26 +28891,26 @@
       <c r="B38" s="18">
         <v>14.4</v>
       </c>
-      <c r="C38" s="126">
+      <c r="C38" s="121">
         <f t="shared" si="0"/>
         <v>-6.5541855937702787E-2</v>
       </c>
-      <c r="G38" s="70" t="s">
+      <c r="G38" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="86" t="s">
+      <c r="I38" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="J38" s="86" t="s">
+      <c r="J38" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="86" t="s">
+      <c r="K38" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="L38" s="87" t="s">
+      <c r="L38" s="82" t="s">
         <v>126</v>
       </c>
     </row>
@@ -28668,30 +28921,30 @@
       <c r="B39" s="18">
         <v>15.41</v>
       </c>
-      <c r="C39" s="126">
+      <c r="C39" s="121">
         <f t="shared" si="0"/>
         <v>-0.15329674981885988</v>
       </c>
-      <c r="G39" s="115">
+      <c r="G39" s="110">
         <v>1</v>
       </c>
-      <c r="H39" s="79">
+      <c r="H39" s="74">
         <f>$H$19+($G39*$H$23)</f>
         <v>0.11441923939553862</v>
       </c>
-      <c r="I39" s="79">
+      <c r="I39" s="74">
         <f>$H$19-($G39*$H$23)</f>
         <v>-9.3771159018851566E-2</v>
       </c>
-      <c r="J39" s="77">
+      <c r="J39" s="72">
         <f>COUNTIFS(C:C,"&lt;"&amp;H39,C:C,"&gt;"&amp;I39)</f>
         <v>145</v>
       </c>
-      <c r="K39" s="79">
+      <c r="K39" s="74">
         <f>J39/$H$31</f>
         <v>0.80110497237569056</v>
       </c>
-      <c r="L39" s="80">
+      <c r="L39" s="75">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -28702,30 +28955,30 @@
       <c r="B40" s="18">
         <v>18.200001</v>
       </c>
-      <c r="C40" s="126">
+      <c r="C40" s="121">
         <f t="shared" si="0"/>
         <v>2.1897923744970349E-2</v>
       </c>
-      <c r="G40" s="115">
+      <c r="G40" s="110">
         <v>2</v>
       </c>
-      <c r="H40" s="79">
+      <c r="H40" s="74">
         <f>$H$19+($G40*$H$23)</f>
         <v>0.2185144386027337</v>
       </c>
-      <c r="I40" s="79">
+      <c r="I40" s="74">
         <f>$H$19-($G40*$H$23)</f>
         <v>-0.19786635822604667</v>
       </c>
-      <c r="J40" s="77">
+      <c r="J40" s="72">
         <f>COUNTIFS(C:C,"&lt;"&amp;H40,C:C,"&gt;"&amp;I40)</f>
         <v>177</v>
       </c>
-      <c r="K40" s="79">
+      <c r="K40" s="74">
         <f>J40/$H$31</f>
         <v>0.97790055248618779</v>
       </c>
-      <c r="L40" s="80">
+      <c r="L40" s="75">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -28736,30 +28989,30 @@
       <c r="B41" s="18">
         <v>17.809999000000001</v>
       </c>
-      <c r="C41" s="126">
+      <c r="C41" s="121">
         <f t="shared" si="0"/>
         <v>8.3992635423006723E-2</v>
       </c>
-      <c r="G41" s="115">
+      <c r="G41" s="110">
         <v>3</v>
       </c>
-      <c r="H41" s="79">
+      <c r="H41" s="74">
         <f>$H$19+($G41*$H$23)</f>
         <v>0.3226096378099288</v>
       </c>
-      <c r="I41" s="79">
+      <c r="I41" s="74">
         <f>$H$19-($G41*$H$23)</f>
         <v>-0.30196155743324171</v>
       </c>
-      <c r="J41" s="77">
+      <c r="J41" s="72">
         <f>COUNTIFS(C:C,"&lt;"&amp;H41,C:C,"&gt;"&amp;I41)</f>
         <v>183</v>
       </c>
-      <c r="K41" s="79">
+      <c r="K41" s="74">
         <f>J41/$H$31</f>
         <v>1.011049723756906</v>
       </c>
-      <c r="L41" s="90">
+      <c r="L41" s="85">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -28770,12 +29023,12 @@
       <c r="B42" s="18">
         <v>16.43</v>
       </c>
-      <c r="C42" s="126">
+      <c r="C42" s="121">
         <f t="shared" si="0"/>
         <v>1.8292682926830395E-3</v>
       </c>
-      <c r="G42" s="75"/>
-      <c r="L42" s="90"/>
+      <c r="G42" s="70"/>
+      <c r="L42" s="85"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
@@ -28784,18 +29037,18 @@
       <c r="B43" s="18">
         <v>16.399999999999999</v>
       </c>
-      <c r="C43" s="126">
+      <c r="C43" s="121">
         <f t="shared" si="0"/>
         <v>6.9100391134289341E-2</v>
       </c>
-      <c r="G43" s="139" t="s">
+      <c r="G43" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="141"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="136"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
@@ -28804,28 +29057,28 @@
       <c r="B44" s="18">
         <v>15.34</v>
       </c>
-      <c r="C44" s="126">
+      <c r="C44" s="121">
         <f t="shared" si="0"/>
         <v>6.5231572080892697E-4</v>
       </c>
-      <c r="G44" s="91">
+      <c r="G44" s="86">
         <v>0.01</v>
       </c>
-      <c r="H44" s="92">
+      <c r="H44" s="87">
         <f t="shared" ref="H44:H58" si="7">_xlfn.PERCENTILE.INC(C:C,G44)</f>
         <v>-0.15577281050067249</v>
       </c>
-      <c r="I44" s="93">
+      <c r="I44" s="88">
         <v>0.2</v>
       </c>
-      <c r="J44" s="92">
+      <c r="J44" s="87">
         <f t="shared" ref="J44:J56" si="8">_xlfn.PERCENTILE.INC(C:C,I44)</f>
         <v>-7.1801566579634435E-2</v>
       </c>
-      <c r="K44" s="93">
+      <c r="K44" s="88">
         <v>0.85</v>
       </c>
-      <c r="L44" s="94">
+      <c r="L44" s="89">
         <f t="shared" ref="L44:L58" si="9">_xlfn.PERCENTILE.INC(C:C,K44)</f>
         <v>8.7748893805309702E-2</v>
       </c>
@@ -28837,28 +29090,28 @@
       <c r="B45" s="18">
         <v>15.33</v>
       </c>
-      <c r="C45" s="126">
+      <c r="C45" s="121">
         <f t="shared" si="0"/>
         <v>9.2658588738417702E-2</v>
       </c>
-      <c r="G45" s="95">
+      <c r="G45" s="90">
         <v>0.02</v>
       </c>
-      <c r="H45" s="96">
+      <c r="H45" s="91">
         <f t="shared" si="7"/>
         <v>-0.15193499611682915</v>
       </c>
-      <c r="I45" s="97">
+      <c r="I45" s="92">
         <v>0.25</v>
       </c>
-      <c r="J45" s="96">
+      <c r="J45" s="91">
         <f t="shared" si="8"/>
         <v>-6.2930299672620704E-2</v>
       </c>
-      <c r="K45" s="97">
+      <c r="K45" s="92">
         <v>0.86</v>
       </c>
-      <c r="L45" s="98">
+      <c r="L45" s="93">
         <f t="shared" si="9"/>
         <v>8.9345454895718879E-2</v>
       </c>
@@ -28870,28 +29123,28 @@
       <c r="B46" s="18">
         <v>14.03</v>
       </c>
-      <c r="C46" s="126">
+      <c r="C46" s="121">
         <f t="shared" si="0"/>
         <v>-0.13926375087507681</v>
       </c>
-      <c r="G46" s="95">
+      <c r="G46" s="90">
         <v>0.03</v>
       </c>
-      <c r="H46" s="96">
+      <c r="H46" s="91">
         <f t="shared" si="7"/>
         <v>-0.14518649309289436</v>
       </c>
-      <c r="I46" s="97">
+      <c r="I46" s="92">
         <v>0.3</v>
       </c>
-      <c r="J46" s="96">
+      <c r="J46" s="91">
         <f t="shared" si="8"/>
         <v>-4.4842239379774329E-2</v>
       </c>
-      <c r="K46" s="97">
+      <c r="K46" s="92">
         <v>0.87</v>
       </c>
-      <c r="L46" s="98">
+      <c r="L46" s="93">
         <f t="shared" si="9"/>
         <v>9.2648942991630623E-2</v>
       </c>
@@ -28903,28 +29156,28 @@
       <c r="B47" s="18">
         <v>16.299999</v>
       </c>
-      <c r="C47" s="126">
+      <c r="C47" s="121">
         <f t="shared" si="0"/>
         <v>8.5219640479360814E-2</v>
       </c>
-      <c r="G47" s="95">
+      <c r="G47" s="90">
         <v>0.04</v>
       </c>
-      <c r="H47" s="96">
+      <c r="H47" s="91">
         <f t="shared" si="7"/>
         <v>-0.14046836614215991</v>
       </c>
-      <c r="I47" s="97">
+      <c r="I47" s="92">
         <v>0.35</v>
       </c>
-      <c r="J47" s="96">
+      <c r="J47" s="91">
         <f t="shared" si="8"/>
         <v>-3.2393539088661938E-2</v>
       </c>
-      <c r="K47" s="97">
+      <c r="K47" s="92">
         <v>0.88</v>
       </c>
-      <c r="L47" s="98">
+      <c r="L47" s="93">
         <f t="shared" si="9"/>
         <v>9.6729308853215401E-2</v>
       </c>
@@ -28936,28 +29189,28 @@
       <c r="B48" s="18">
         <v>15.02</v>
       </c>
-      <c r="C48" s="126">
+      <c r="C48" s="121">
         <f t="shared" si="0"/>
         <v>3.4435261707989051E-2</v>
       </c>
-      <c r="G48" s="95">
+      <c r="G48" s="90">
         <v>0.05</v>
       </c>
-      <c r="H48" s="96">
+      <c r="H48" s="91">
         <f t="shared" si="7"/>
         <v>-0.13693248017884035</v>
       </c>
-      <c r="I48" s="97">
+      <c r="I48" s="92">
         <v>0.4</v>
       </c>
-      <c r="J48" s="96">
+      <c r="J48" s="91">
         <f t="shared" si="8"/>
         <v>-1.4884979702300294E-2</v>
       </c>
-      <c r="K48" s="97">
+      <c r="K48" s="92">
         <v>0.89</v>
       </c>
-      <c r="L48" s="98">
+      <c r="L48" s="93">
         <f t="shared" si="9"/>
         <v>0.10013127669502167</v>
       </c>
@@ -28969,28 +29222,28 @@
       <c r="B49" s="18">
         <v>14.52</v>
       </c>
-      <c r="C49" s="126">
+      <c r="C49" s="121">
         <f t="shared" si="0"/>
         <v>6.3736263736263732E-2</v>
       </c>
-      <c r="G49" s="95">
+      <c r="G49" s="90">
         <v>0.06</v>
       </c>
-      <c r="H49" s="96">
+      <c r="H49" s="91">
         <f t="shared" si="7"/>
         <v>-0.12972480212779652</v>
       </c>
-      <c r="I49" s="97">
+      <c r="I49" s="92">
         <v>0.45</v>
       </c>
-      <c r="J49" s="96">
+      <c r="J49" s="91">
         <f t="shared" si="8"/>
         <v>-2.3592226982056819E-3</v>
       </c>
-      <c r="K49" s="97">
+      <c r="K49" s="92">
         <v>0.9</v>
       </c>
-      <c r="L49" s="98">
+      <c r="L49" s="93">
         <f t="shared" si="9"/>
         <v>0.10615216890751411</v>
       </c>
@@ -29002,28 +29255,28 @@
       <c r="B50" s="18">
         <v>13.65</v>
       </c>
-      <c r="C50" s="126">
+      <c r="C50" s="121">
         <f t="shared" si="0"/>
         <v>0.16567036720751482</v>
       </c>
-      <c r="G50" s="95">
+      <c r="G50" s="90">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H50" s="96">
+      <c r="H50" s="91">
         <f t="shared" si="7"/>
         <v>-0.12199367196690837</v>
       </c>
-      <c r="I50" s="97">
+      <c r="I50" s="92">
         <v>0.5</v>
       </c>
-      <c r="J50" s="96">
+      <c r="J50" s="91">
         <f t="shared" si="8"/>
         <v>3.5489698754295196E-3</v>
       </c>
-      <c r="K50" s="97">
+      <c r="K50" s="92">
         <v>0.91</v>
       </c>
-      <c r="L50" s="98">
+      <c r="L50" s="93">
         <f t="shared" si="9"/>
         <v>0.11744264142907022</v>
       </c>
@@ -29035,28 +29288,28 @@
       <c r="B51" s="18">
         <v>11.71</v>
       </c>
-      <c r="C51" s="126">
+      <c r="C51" s="121">
         <f t="shared" si="0"/>
         <v>0.23263157894736852</v>
       </c>
-      <c r="G51" s="95">
+      <c r="G51" s="90">
         <v>0.08</v>
       </c>
-      <c r="H51" s="96">
+      <c r="H51" s="91">
         <f t="shared" si="7"/>
         <v>-0.12077857622912676</v>
       </c>
-      <c r="I51" s="97">
+      <c r="I51" s="92">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J51" s="96">
+      <c r="J51" s="91">
         <f t="shared" si="8"/>
         <v>1.6202433823097856E-2</v>
       </c>
-      <c r="K51" s="97">
+      <c r="K51" s="92">
         <v>0.92</v>
       </c>
-      <c r="L51" s="98">
+      <c r="L51" s="93">
         <f t="shared" si="9"/>
         <v>0.12690748828605822</v>
       </c>
@@ -29068,28 +29321,28 @@
       <c r="B52" s="18">
         <v>9.5</v>
       </c>
-      <c r="C52" s="126">
+      <c r="C52" s="121">
         <f t="shared" si="0"/>
         <v>0.28205128205128194</v>
       </c>
-      <c r="G52" s="95">
+      <c r="G52" s="90">
         <v>0.09</v>
       </c>
-      <c r="H52" s="96">
+      <c r="H52" s="91">
         <f t="shared" si="7"/>
         <v>-0.11855919583023088</v>
       </c>
-      <c r="I52" s="97">
+      <c r="I52" s="92">
         <v>0.6</v>
       </c>
-      <c r="J52" s="96">
+      <c r="J52" s="91">
         <f t="shared" si="8"/>
         <v>2.4198142937535305E-2</v>
       </c>
-      <c r="K52" s="97">
+      <c r="K52" s="92">
         <v>0.93</v>
       </c>
-      <c r="L52" s="98">
+      <c r="L52" s="93">
         <f t="shared" si="9"/>
         <v>0.14049594015645436</v>
       </c>
@@ -29101,28 +29354,28 @@
       <c r="B53" s="18">
         <v>7.41</v>
       </c>
-      <c r="C53" s="126">
+      <c r="C53" s="121">
         <f t="shared" si="0"/>
         <v>-4.387096774193544E-2</v>
       </c>
-      <c r="G53" s="95">
+      <c r="G53" s="90">
         <v>0.1</v>
       </c>
-      <c r="H53" s="96">
+      <c r="H53" s="91">
         <f t="shared" si="7"/>
         <v>-0.10906328444972918</v>
       </c>
-      <c r="I53" s="97">
+      <c r="I53" s="92">
         <v>0.65</v>
       </c>
-      <c r="J53" s="96">
+      <c r="J53" s="91">
         <f t="shared" si="8"/>
         <v>3.8402191035583955E-2</v>
       </c>
-      <c r="K53" s="97">
+      <c r="K53" s="92">
         <v>0.94</v>
       </c>
-      <c r="L53" s="98">
+      <c r="L53" s="93">
         <f t="shared" si="9"/>
         <v>0.14231505653632257</v>
       </c>
@@ -29134,28 +29387,28 @@
       <c r="B54" s="18">
         <v>7.75</v>
       </c>
-      <c r="C54" s="126">
+      <c r="C54" s="121">
         <f t="shared" si="0"/>
         <v>-5.2567237163814173E-2</v>
       </c>
-      <c r="G54" s="95">
+      <c r="G54" s="90">
         <v>0.11</v>
       </c>
-      <c r="H54" s="96">
+      <c r="H54" s="91">
         <f t="shared" si="7"/>
         <v>-9.7770038041743515E-2</v>
       </c>
-      <c r="I54" s="97">
+      <c r="I54" s="92">
         <v>0.7</v>
       </c>
-      <c r="J54" s="96">
+      <c r="J54" s="91">
         <f t="shared" si="8"/>
         <v>4.3372125401062722E-2</v>
       </c>
-      <c r="K54" s="97">
+      <c r="K54" s="92">
         <v>0.95</v>
       </c>
-      <c r="L54" s="98">
+      <c r="L54" s="93">
         <f t="shared" si="9"/>
         <v>0.16143631970943356</v>
       </c>
@@ -29167,28 +29420,28 @@
       <c r="B55" s="18">
         <v>8.18</v>
       </c>
-      <c r="C55" s="126">
+      <c r="C55" s="121">
         <f t="shared" si="0"/>
         <v>-7.1509648127128345E-2</v>
       </c>
-      <c r="G55" s="95">
+      <c r="G55" s="90">
         <v>0.12</v>
       </c>
-      <c r="H55" s="96">
+      <c r="H55" s="91">
         <f t="shared" si="7"/>
         <v>-9.6952135130901423E-2</v>
       </c>
-      <c r="I55" s="97">
+      <c r="I55" s="92">
         <v>0.75</v>
       </c>
-      <c r="J55" s="96">
+      <c r="J55" s="91">
         <f t="shared" si="8"/>
         <v>5.5361642602520578E-2</v>
       </c>
-      <c r="K55" s="97">
+      <c r="K55" s="92">
         <v>0.96</v>
       </c>
-      <c r="L55" s="98">
+      <c r="L55" s="93">
         <f t="shared" si="9"/>
         <v>0.22959226294764878</v>
       </c>
@@ -29200,28 +29453,28 @@
       <c r="B56" s="18">
         <v>8.81</v>
       </c>
-      <c r="C56" s="126">
+      <c r="C56" s="121">
         <f t="shared" si="0"/>
         <v>8.8998763906056988E-2</v>
       </c>
-      <c r="G56" s="95">
+      <c r="G56" s="90">
         <v>0.13</v>
       </c>
-      <c r="H56" s="96">
+      <c r="H56" s="91">
         <f t="shared" si="7"/>
         <v>-9.1164761931798441E-2</v>
       </c>
-      <c r="I56" s="97">
+      <c r="I56" s="92">
         <v>0.8</v>
       </c>
-      <c r="J56" s="96">
+      <c r="J56" s="91">
         <f t="shared" si="8"/>
         <v>7.0063782168313438E-2</v>
       </c>
-      <c r="K56" s="97">
+      <c r="K56" s="92">
         <v>0.97</v>
       </c>
-      <c r="L56" s="98">
+      <c r="L56" s="93">
         <f t="shared" si="9"/>
         <v>0.24422542127031757</v>
       </c>
@@ -29233,23 +29486,23 @@
       <c r="B57" s="18">
         <v>8.09</v>
       </c>
-      <c r="C57" s="126">
+      <c r="C57" s="121">
         <f t="shared" si="0"/>
         <v>-4.2603550295857939E-2</v>
       </c>
-      <c r="G57" s="95">
+      <c r="G57" s="90">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H57" s="96">
+      <c r="H57" s="91">
         <f t="shared" si="7"/>
         <v>-9.0317089480707519E-2</v>
       </c>
-      <c r="I57" s="97"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="97">
+      <c r="I57" s="92"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="92">
         <v>0.98</v>
       </c>
-      <c r="L57" s="98">
+      <c r="L57" s="93">
         <f t="shared" si="9"/>
         <v>0.27408505269142452</v>
       </c>
@@ -29261,23 +29514,23 @@
       <c r="B58" s="18">
         <v>8.4499999999999993</v>
       </c>
-      <c r="C58" s="126">
+      <c r="C58" s="121">
         <f t="shared" si="0"/>
         <v>3.0487804878048808E-2</v>
       </c>
-      <c r="G58" s="99">
+      <c r="G58" s="94">
         <v>0.15</v>
       </c>
-      <c r="H58" s="100">
+      <c r="H58" s="95">
         <f t="shared" si="7"/>
         <v>-8.8419732441471638E-2</v>
       </c>
-      <c r="I58" s="101"/>
-      <c r="J58" s="102"/>
-      <c r="K58" s="103">
+      <c r="I58" s="96"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="98">
         <v>0.99</v>
       </c>
-      <c r="L58" s="104">
+      <c r="L58" s="99">
         <f t="shared" si="9"/>
         <v>0.37532882446236554</v>
       </c>
@@ -29289,7 +29542,7 @@
       <c r="B59" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C59" s="126">
+      <c r="C59" s="121">
         <f t="shared" si="0"/>
         <v>4.0609137055837463E-2</v>
       </c>
@@ -29301,14 +29554,14 @@
       <c r="B60" s="18">
         <v>7.88</v>
       </c>
-      <c r="C60" s="126">
+      <c r="C60" s="121">
         <f t="shared" si="0"/>
         <v>7.210884353741509E-2</v>
       </c>
-      <c r="G60" s="105" t="s">
+      <c r="G60" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="H60" s="106">
+      <c r="H60" s="101">
         <v>0.11</v>
       </c>
     </row>
@@ -29319,14 +29572,14 @@
       <c r="B61" s="18">
         <v>7.35</v>
       </c>
-      <c r="C61" s="126">
+      <c r="C61" s="121">
         <f t="shared" si="0"/>
         <v>-0.11764705882352944</v>
       </c>
-      <c r="G61" s="107" t="s">
+      <c r="G61" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="108">
+      <c r="H61" s="103">
         <v>0.35</v>
       </c>
     </row>
@@ -29337,11 +29590,11 @@
       <c r="B62" s="18">
         <v>8.33</v>
       </c>
-      <c r="C62" s="126">
+      <c r="C62" s="121">
         <f t="shared" si="0"/>
         <v>2.9666254635352329E-2</v>
       </c>
-      <c r="G62" s="109"/>
+      <c r="G62" s="104"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
@@ -29350,14 +29603,14 @@
       <c r="B63" s="18">
         <v>8.09</v>
       </c>
-      <c r="C63" s="126">
+      <c r="C63" s="121">
         <f t="shared" si="0"/>
         <v>-0.12065217391304339</v>
       </c>
-      <c r="G63" s="105" t="s">
+      <c r="G63" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="110">
+      <c r="H63" s="105">
         <v>22.66</v>
       </c>
     </row>
@@ -29368,14 +29621,14 @@
       <c r="B64" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C64" s="126">
+      <c r="C64" s="121">
         <f t="shared" si="0"/>
         <v>0.22503328894806929</v>
       </c>
-      <c r="G64" s="111" t="s">
+      <c r="G64" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="112">
+      <c r="H64" s="107">
         <f>H63*(1-H60)</f>
         <v>20.167400000000001</v>
       </c>
@@ -29387,14 +29640,14 @@
       <c r="B65" s="18">
         <v>7.51</v>
       </c>
-      <c r="C65" s="126">
+      <c r="C65" s="121">
         <f t="shared" si="0"/>
         <v>-0.1070154577883472</v>
       </c>
-      <c r="G65" s="107" t="s">
+      <c r="G65" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="H65" s="113">
+      <c r="H65" s="108">
         <f>H63*(1+H61)</f>
         <v>30.591000000000001</v>
       </c>
@@ -29406,7 +29659,7 @@
       <c r="B66" s="18">
         <v>8.41</v>
       </c>
-      <c r="C66" s="126">
+      <c r="C66" s="121">
         <f t="shared" si="0"/>
         <v>0.11390728476821188</v>
       </c>
@@ -29418,7 +29671,7 @@
       <c r="B67" s="18">
         <v>7.55</v>
       </c>
-      <c r="C67" s="126">
+      <c r="C67" s="121">
         <f t="shared" si="0"/>
         <v>7.5498575498575526E-2</v>
       </c>
@@ -29430,7 +29683,7 @@
       <c r="B68" s="18">
         <v>7.02</v>
       </c>
-      <c r="C68" s="126">
+      <c r="C68" s="121">
         <f t="shared" ref="C68:C131" si="10">B68/B69-1</f>
         <v>8.6206896551723755E-3</v>
       </c>
@@ -29442,7 +29695,7 @@
       <c r="B69" s="18">
         <v>6.96</v>
       </c>
-      <c r="C69" s="126">
+      <c r="C69" s="121">
         <f t="shared" si="10"/>
         <v>8.7499999999999911E-2</v>
       </c>
@@ -29454,7 +29707,7 @@
       <c r="B70" s="18">
         <v>6.4</v>
       </c>
-      <c r="C70" s="126">
+      <c r="C70" s="121">
         <f t="shared" si="10"/>
         <v>-3.1152647975076775E-3</v>
       </c>
@@ -29466,7 +29719,7 @@
       <c r="B71" s="18">
         <v>6.42</v>
       </c>
-      <c r="C71" s="126">
+      <c r="C71" s="121">
         <f t="shared" si="10"/>
         <v>2.0667726550079424E-2</v>
       </c>
@@ -29478,7 +29731,7 @@
       <c r="B72" s="18">
         <v>6.29</v>
       </c>
-      <c r="C72" s="126">
+      <c r="C72" s="121">
         <f t="shared" si="10"/>
         <v>-8.8405797101449357E-2</v>
       </c>
@@ -29490,7 +29743,7 @@
       <c r="B73" s="18">
         <v>6.9</v>
       </c>
-      <c r="C73" s="126">
+      <c r="C73" s="121">
         <f t="shared" si="10"/>
         <v>-2.9535864978902926E-2</v>
       </c>
@@ -29502,7 +29755,7 @@
       <c r="B74" s="18">
         <v>7.11</v>
       </c>
-      <c r="C74" s="126">
+      <c r="C74" s="121">
         <f t="shared" si="10"/>
         <v>-7.1801566579634435E-2</v>
       </c>
@@ -29514,7 +29767,7 @@
       <c r="B75" s="18">
         <v>7.66</v>
       </c>
-      <c r="C75" s="126">
+      <c r="C75" s="121">
         <f t="shared" si="10"/>
         <v>5.2197802197802234E-2</v>
       </c>
@@ -29526,7 +29779,7 @@
       <c r="B76" s="18">
         <v>7.28</v>
       </c>
-      <c r="C76" s="126">
+      <c r="C76" s="121">
         <f t="shared" si="10"/>
         <v>-1.4884979702300294E-2</v>
       </c>
@@ -29538,7 +29791,7 @@
       <c r="B77" s="18">
         <v>7.39</v>
       </c>
-      <c r="C77" s="126">
+      <c r="C77" s="121">
         <f t="shared" si="10"/>
         <v>-0.12128418549346021</v>
       </c>
@@ -29550,7 +29803,7 @@
       <c r="B78" s="18">
         <v>8.41</v>
       </c>
-      <c r="C78" s="126">
+      <c r="C78" s="121">
         <f t="shared" si="10"/>
         <v>6.0529634300126256E-2</v>
       </c>
@@ -29562,7 +29815,7 @@
       <c r="B79" s="18">
         <v>7.93</v>
       </c>
-      <c r="C79" s="126">
+      <c r="C79" s="121">
         <f t="shared" si="10"/>
         <v>-8.2175925925926041E-2</v>
       </c>
@@ -29574,7 +29827,7 @@
       <c r="B80" s="18">
         <v>8.64</v>
       </c>
-      <c r="C80" s="126">
+      <c r="C80" s="121">
         <f t="shared" si="10"/>
         <v>4.2219541616405509E-2</v>
       </c>
@@ -29586,7 +29839,7 @@
       <c r="B81" s="18">
         <v>8.2899999999999991</v>
       </c>
-      <c r="C81" s="126">
+      <c r="C81" s="121">
         <f t="shared" si="10"/>
         <v>0.10092961487383789</v>
       </c>
@@ -29598,7 +29851,7 @@
       <c r="B82" s="18">
         <v>7.53</v>
       </c>
-      <c r="C82" s="126">
+      <c r="C82" s="121">
         <f t="shared" si="10"/>
         <v>-7.6073619631901845E-2</v>
       </c>
@@ -29610,7 +29863,7 @@
       <c r="B83" s="18">
         <v>8.15</v>
       </c>
-      <c r="C83" s="126">
+      <c r="C83" s="121">
         <f t="shared" si="10"/>
         <v>2.4600246002459691E-3</v>
       </c>
@@ -29622,7 +29875,7 @@
       <c r="B84" s="18">
         <v>8.1300000000000008</v>
       </c>
-      <c r="C84" s="126">
+      <c r="C84" s="121">
         <f t="shared" si="10"/>
         <v>9.864864864864864E-2</v>
       </c>
@@ -29634,7 +29887,7 @@
       <c r="B85" s="18">
         <v>7.4</v>
       </c>
-      <c r="C85" s="126">
+      <c r="C85" s="121">
         <f t="shared" si="10"/>
         <v>-4.8843187660668419E-2</v>
       </c>
@@ -29646,7 +29899,7 @@
       <c r="B86" s="18">
         <v>7.78</v>
       </c>
-      <c r="C86" s="126">
+      <c r="C86" s="121">
         <f t="shared" si="10"/>
         <v>-1.2836970474967568E-3</v>
       </c>
@@ -29658,7 +29911,7 @@
       <c r="B87" s="18">
         <v>7.79</v>
       </c>
-      <c r="C87" s="126">
+      <c r="C87" s="121">
         <f t="shared" si="10"/>
         <v>5.270270270270272E-2</v>
       </c>
@@ -29670,7 +29923,7 @@
       <c r="B88" s="18">
         <v>7.4</v>
       </c>
-      <c r="C88" s="126">
+      <c r="C88" s="121">
         <f t="shared" si="10"/>
         <v>-6.801007556675065E-2</v>
       </c>
@@ -29682,7 +29935,7 @@
       <c r="B89" s="18">
         <v>7.94</v>
       </c>
-      <c r="C89" s="126">
+      <c r="C89" s="121">
         <f t="shared" si="10"/>
         <v>-6.6980023501762576E-2</v>
       </c>
@@ -29694,7 +29947,7 @@
       <c r="B90" s="18">
         <v>8.51</v>
       </c>
-      <c r="C90" s="126">
+      <c r="C90" s="121">
         <f t="shared" si="10"/>
         <v>-0.14127144298688199</v>
       </c>
@@ -29706,7 +29959,7 @@
       <c r="B91" s="18">
         <v>9.91</v>
       </c>
-      <c r="C91" s="126">
+      <c r="C91" s="121">
         <f t="shared" si="10"/>
         <v>-0.13449781659388638</v>
       </c>
@@ -29718,7 +29971,7 @@
       <c r="B92" s="18">
         <v>11.45</v>
       </c>
-      <c r="C92" s="126">
+      <c r="C92" s="121">
         <f t="shared" si="10"/>
         <v>0.106280193236715</v>
       </c>
@@ -29730,7 +29983,7 @@
       <c r="B93" s="18">
         <v>10.35</v>
       </c>
-      <c r="C93" s="126">
+      <c r="C93" s="121">
         <f t="shared" si="10"/>
         <v>5.1829268292682862E-2</v>
       </c>
@@ -29742,7 +29995,7 @@
       <c r="B94" s="18">
         <v>9.84</v>
       </c>
-      <c r="C94" s="126">
+      <c r="C94" s="121">
         <f t="shared" si="10"/>
         <v>8.8495575221239076E-2</v>
       </c>
@@ -29754,7 +30007,7 @@
       <c r="B95" s="18">
         <v>9.0399999999999991</v>
       </c>
-      <c r="C95" s="126">
+      <c r="C95" s="121">
         <f t="shared" si="10"/>
         <v>-0.11111111111111116</v>
       </c>
@@ -29766,7 +30019,7 @@
       <c r="B96" s="18">
         <v>10.17</v>
       </c>
-      <c r="C96" s="126">
+      <c r="C96" s="121">
         <f t="shared" si="10"/>
         <v>9.7087378640776656E-2</v>
       </c>
@@ -29778,7 +30031,7 @@
       <c r="B97" s="18">
         <v>9.27</v>
       </c>
-      <c r="C97" s="126">
+      <c r="C97" s="121">
         <f t="shared" si="10"/>
         <v>-9.0284592737978397E-2</v>
       </c>
@@ -29790,7 +30043,7 @@
       <c r="B98" s="18">
         <v>10.19</v>
       </c>
-      <c r="C98" s="126">
+      <c r="C98" s="121">
         <f t="shared" si="10"/>
         <v>0.23665048543689315</v>
       </c>
@@ -29802,7 +30055,7 @@
       <c r="B99" s="18">
         <v>8.24</v>
       </c>
-      <c r="C99" s="126">
+      <c r="C99" s="121">
         <f t="shared" si="10"/>
         <v>-2.421307506053183E-3</v>
       </c>
@@ -29814,7 +30067,7 @@
       <c r="B100" s="18">
         <v>8.26</v>
       </c>
-      <c r="C100" s="126">
+      <c r="C100" s="121">
         <f t="shared" si="10"/>
         <v>-7.606263982102901E-2</v>
       </c>
@@ -29826,7 +30079,7 @@
       <c r="B101" s="18">
         <v>8.94</v>
       </c>
-      <c r="C101" s="126">
+      <c r="C101" s="121">
         <f t="shared" si="10"/>
         <v>1.0169491525423791E-2</v>
       </c>
@@ -29838,7 +30091,7 @@
       <c r="B102" s="18">
         <v>8.85</v>
       </c>
-      <c r="C102" s="126">
+      <c r="C102" s="121">
         <f t="shared" si="10"/>
         <v>9.5297029702970271E-2</v>
       </c>
@@ -29850,7 +30103,7 @@
       <c r="B103" s="18">
         <v>8.08</v>
       </c>
-      <c r="C103" s="126">
+      <c r="C103" s="121">
         <f t="shared" si="10"/>
         <v>-3.1175059952038398E-2</v>
       </c>
@@ -29862,7 +30115,7 @@
       <c r="B104" s="18">
         <v>8.34</v>
       </c>
-      <c r="C104" s="126">
+      <c r="C104" s="121">
         <f t="shared" si="10"/>
         <v>-0.12025316455696211</v>
       </c>
@@ -29874,7 +30127,7 @@
       <c r="B105" s="18">
         <v>9.48</v>
       </c>
-      <c r="C105" s="126">
+      <c r="C105" s="121">
         <f t="shared" si="10"/>
         <v>-8.846153846153848E-2</v>
       </c>
@@ -29886,7 +30139,7 @@
       <c r="B106" s="18">
         <v>10.4</v>
       </c>
-      <c r="C106" s="126">
+      <c r="C106" s="121">
         <f t="shared" si="10"/>
         <v>-0.13043478260869568</v>
       </c>
@@ -29898,7 +30151,7 @@
       <c r="B107" s="18">
         <v>11.96</v>
       </c>
-      <c r="C107" s="126">
+      <c r="C107" s="121">
         <f t="shared" si="10"/>
         <v>-3.7037037037036979E-2</v>
       </c>
@@ -29910,7 +30163,7 @@
       <c r="B108" s="18">
         <v>12.42</v>
       </c>
-      <c r="C108" s="126">
+      <c r="C108" s="121">
         <f t="shared" si="10"/>
         <v>-2.2047244094488105E-2</v>
       </c>
@@ -29922,7 +30175,7 @@
       <c r="B109" s="18">
         <v>12.7</v>
       </c>
-      <c r="C109" s="126">
+      <c r="C109" s="121">
         <f t="shared" si="10"/>
         <v>-8.1706435285611057E-2</v>
       </c>
@@ -29934,7 +30187,7 @@
       <c r="B110" s="18">
         <v>13.83</v>
       </c>
-      <c r="C110" s="126">
+      <c r="C110" s="121">
         <f t="shared" si="10"/>
         <v>6.6306861989205768E-2</v>
       </c>
@@ -29946,7 +30199,7 @@
       <c r="B111" s="18">
         <v>12.97</v>
       </c>
-      <c r="C111" s="126">
+      <c r="C111" s="121">
         <f t="shared" si="10"/>
         <v>1.1700468018720711E-2</v>
       </c>
@@ -29958,7 +30211,7 @@
       <c r="B112" s="18">
         <v>12.82</v>
       </c>
-      <c r="C112" s="126">
+      <c r="C112" s="121">
         <f t="shared" si="10"/>
         <v>0.12554872695346786</v>
       </c>
@@ -29970,7 +30223,7 @@
       <c r="B113" s="18">
         <v>11.39</v>
       </c>
-      <c r="C113" s="126">
+      <c r="C113" s="121">
         <f t="shared" si="10"/>
         <v>3.9233576642335732E-2</v>
       </c>
@@ -29982,7 +30235,7 @@
       <c r="B114" s="18">
         <v>10.96</v>
       </c>
-      <c r="C114" s="126">
+      <c r="C114" s="121">
         <f t="shared" si="10"/>
         <v>-4.4463818657367038E-2</v>
       </c>
@@ -29994,7 +30247,7 @@
       <c r="B115" s="18">
         <v>11.47</v>
       </c>
-      <c r="C115" s="126">
+      <c r="C115" s="121">
         <f t="shared" si="10"/>
         <v>4.0834845735027381E-2</v>
       </c>
@@ -30006,7 +30259,7 @@
       <c r="B116" s="18">
         <v>11.02</v>
       </c>
-      <c r="C116" s="126">
+      <c r="C116" s="121">
         <f t="shared" si="10"/>
         <v>-0.16070068545316074</v>
       </c>
@@ -30018,7 +30271,7 @@
       <c r="B117" s="18">
         <v>13.13</v>
       </c>
-      <c r="C117" s="126">
+      <c r="C117" s="121">
         <f t="shared" si="10"/>
         <v>1.4683153013910433E-2</v>
       </c>
@@ -30030,7 +30283,7 @@
       <c r="B118" s="18">
         <v>12.94</v>
       </c>
-      <c r="C118" s="126">
+      <c r="C118" s="121">
         <f t="shared" si="10"/>
         <v>1.8095987411486991E-2</v>
       </c>
@@ -30042,7 +30295,7 @@
       <c r="B119" s="18">
         <v>12.71</v>
       </c>
-      <c r="C119" s="126">
+      <c r="C119" s="121">
         <f t="shared" si="10"/>
         <v>-6.0606060606060552E-2</v>
       </c>
@@ -30054,7 +30307,7 @@
       <c r="B120" s="18">
         <v>13.53</v>
       </c>
-      <c r="C120" s="126">
+      <c r="C120" s="121">
         <f t="shared" si="10"/>
         <v>-0.15490318550905691</v>
       </c>
@@ -30066,7 +30319,7 @@
       <c r="B121" s="18">
         <v>16.010000000000002</v>
       </c>
-      <c r="C121" s="126">
+      <c r="C121" s="121">
         <f t="shared" si="10"/>
         <v>-3.3212502005585898E-2</v>
       </c>
@@ -30078,7 +30331,7 @@
       <c r="B122" s="18">
         <v>16.559999000000001</v>
       </c>
-      <c r="C122" s="126">
+      <c r="C122" s="121">
         <f t="shared" si="10"/>
         <v>-9.0609560165269554E-2</v>
       </c>
@@ -30090,7 +30343,7 @@
       <c r="B123" s="18">
         <v>18.209999</v>
       </c>
-      <c r="C123" s="126">
+      <c r="C123" s="121">
         <f t="shared" si="10"/>
         <v>-3.8034918119387195E-2</v>
       </c>
@@ -30102,7 +30355,7 @@
       <c r="B124" s="18">
         <v>18.93</v>
       </c>
-      <c r="C124" s="126">
+      <c r="C124" s="121">
         <f t="shared" si="10"/>
         <v>-6.8205145236367448E-3</v>
       </c>
@@ -30114,7 +30367,7 @@
       <c r="B125" s="18">
         <v>19.059999000000001</v>
       </c>
-      <c r="C125" s="126">
+      <c r="C125" s="121">
         <f t="shared" si="10"/>
         <v>6.3356913233532097E-3</v>
       </c>
@@ -30126,7 +30379,7 @@
       <c r="B126" s="18">
         <v>18.940000999999999</v>
       </c>
-      <c r="C126" s="126">
+      <c r="C126" s="121">
         <f t="shared" si="10"/>
         <v>-2.1074288724974855E-3</v>
       </c>
@@ -30138,7 +30391,7 @@
       <c r="B127" s="18">
         <v>18.98</v>
       </c>
-      <c r="C127" s="126">
+      <c r="C127" s="121">
         <f t="shared" si="10"/>
         <v>-9.747983369092561E-2</v>
       </c>
@@ -30150,7 +30403,7 @@
       <c r="B128" s="18">
         <v>21.030000999999999</v>
       </c>
-      <c r="C128" s="126">
+      <c r="C128" s="121">
         <f t="shared" si="10"/>
         <v>-1.7748668846333526E-2</v>
       </c>
@@ -30162,7 +30415,7 @@
       <c r="B129" s="18">
         <v>21.41</v>
       </c>
-      <c r="C129" s="126">
+      <c r="C129" s="121">
         <f t="shared" si="10"/>
         <v>-6.219886114761275E-2</v>
       </c>
@@ -30174,7 +30427,7 @@
       <c r="B130" s="18">
         <v>22.83</v>
       </c>
-      <c r="C130" s="126">
+      <c r="C130" s="121">
         <f t="shared" si="10"/>
         <v>-0.12192307692307702</v>
       </c>
@@ -30186,7 +30439,7 @@
       <c r="B131" s="18">
         <v>26</v>
       </c>
-      <c r="C131" s="126">
+      <c r="C131" s="121">
         <f t="shared" si="10"/>
         <v>4.6368239813301404E-3</v>
       </c>
@@ -30198,7 +30451,7 @@
       <c r="B132" s="18">
         <v>25.879999000000002</v>
       </c>
-      <c r="C132" s="126">
+      <c r="C132" s="121">
         <f t="shared" ref="C132:C187" si="11">B132/B133-1</f>
         <v>5.9353213262382409E-2</v>
       </c>
@@ -30210,7 +30463,7 @@
       <c r="B133" s="18">
         <v>24.43</v>
       </c>
-      <c r="C133" s="126">
+      <c r="C133" s="121">
         <f t="shared" si="11"/>
         <v>1.7916666666666581E-2</v>
       </c>
@@ -30222,7 +30475,7 @@
       <c r="B134" s="18">
         <v>24</v>
       </c>
-      <c r="C134" s="126">
+      <c r="C134" s="121">
         <f t="shared" si="11"/>
         <v>2.1276595744680771E-2</v>
       </c>
@@ -30234,7 +30487,7 @@
       <c r="B135" s="18">
         <v>23.5</v>
       </c>
-      <c r="C135" s="126">
+      <c r="C135" s="121">
         <f t="shared" si="11"/>
         <v>-3.4114262227702308E-2</v>
       </c>
@@ -30246,7 +30499,7 @@
       <c r="B136" s="18">
         <v>24.33</v>
       </c>
-      <c r="C136" s="126">
+      <c r="C136" s="121">
         <f t="shared" si="11"/>
         <v>-0.14810921386937037</v>
       </c>
@@ -30258,7 +30511,7 @@
       <c r="B137" s="18">
         <v>28.559999000000001</v>
       </c>
-      <c r="C137" s="126">
+      <c r="C137" s="121">
         <f t="shared" si="11"/>
         <v>-5.2246605790546852E-3</v>
       </c>
@@ -30270,7 +30523,7 @@
       <c r="B138" s="18">
         <v>28.709999</v>
       </c>
-      <c r="C138" s="126">
+      <c r="C138" s="121">
         <f t="shared" si="11"/>
         <v>9.2465673802676118E-2</v>
       </c>
@@ -30282,7 +30535,7 @@
       <c r="B139" s="18">
         <v>26.280000999999999</v>
       </c>
-      <c r="C139" s="126">
+      <c r="C139" s="121">
         <f t="shared" si="11"/>
         <v>-1.3513438945699674E-2</v>
       </c>
@@ -30294,7 +30547,7 @@
       <c r="B140" s="18">
         <v>26.639999</v>
       </c>
-      <c r="C140" s="126">
+      <c r="C140" s="121">
         <f t="shared" si="11"/>
         <v>3.6172696856191955E-2</v>
       </c>
@@ -30306,7 +30559,7 @@
       <c r="B141" s="18">
         <v>25.709999</v>
       </c>
-      <c r="C141" s="126">
+      <c r="C141" s="121">
         <f t="shared" si="11"/>
         <v>7.0803790087463403E-2</v>
       </c>
@@ -30318,7 +30571,7 @@
       <c r="B142" s="18">
         <v>24.01</v>
       </c>
-      <c r="C142" s="126">
+      <c r="C142" s="121">
         <f t="shared" si="11"/>
         <v>-3.5742971887550046E-2</v>
       </c>
@@ -30330,7 +30583,7 @@
       <c r="B143" s="18">
         <v>24.9</v>
       </c>
-      <c r="C143" s="126">
+      <c r="C143" s="121">
         <f t="shared" si="11"/>
         <v>0.14115490375801998</v>
       </c>
@@ -30342,7 +30595,7 @@
       <c r="B144" s="18">
         <v>21.82</v>
       </c>
-      <c r="C144" s="126">
+      <c r="C144" s="121">
         <f t="shared" si="11"/>
         <v>5.0668357930372387E-3</v>
       </c>
@@ -30354,7 +30607,7 @@
       <c r="B145" s="18">
         <v>21.709999</v>
       </c>
-      <c r="C145" s="126">
+      <c r="C145" s="121">
         <f t="shared" si="11"/>
         <v>-4.5850529383335559E-3</v>
       </c>
@@ -30366,7 +30619,7 @@
       <c r="B146" s="18">
         <v>21.809999000000001</v>
       </c>
-      <c r="C146" s="126">
+      <c r="C146" s="121">
         <f t="shared" si="11"/>
         <v>2.0589517052432615E-2</v>
       </c>
@@ -30378,7 +30631,7 @@
       <c r="B147" s="18">
         <v>21.370000999999998</v>
       </c>
-      <c r="C147" s="126">
+      <c r="C147" s="121">
         <f t="shared" si="11"/>
         <v>-8.2438811402369749E-2</v>
       </c>
@@ -30390,7 +30643,7 @@
       <c r="B148" s="18">
         <v>23.290001</v>
       </c>
-      <c r="C148" s="126">
+      <c r="C148" s="121">
         <f t="shared" si="11"/>
         <v>-4.7054007894680505E-2</v>
       </c>
@@ -30402,7 +30655,7 @@
       <c r="B149" s="18">
         <v>24.440000999999999</v>
       </c>
-      <c r="C149" s="126">
+      <c r="C149" s="121">
         <f t="shared" si="11"/>
         <v>-8.7378637513867208E-2</v>
       </c>
@@ -30414,7 +30667,7 @@
       <c r="B150" s="18">
         <v>26.780000999999999</v>
       </c>
-      <c r="C150" s="126">
+      <c r="C150" s="121">
         <f t="shared" si="11"/>
         <v>5.5577451494779107E-2</v>
       </c>
@@ -30426,7 +30679,7 @@
       <c r="B151" s="18">
         <v>25.370000999999998</v>
       </c>
-      <c r="C151" s="126">
+      <c r="C151" s="121">
         <f t="shared" si="11"/>
         <v>2.8374584515605816E-2</v>
       </c>
@@ -30438,7 +30691,7 @@
       <c r="B152" s="18">
         <v>24.67</v>
       </c>
-      <c r="C152" s="126">
+      <c r="C152" s="121">
         <f t="shared" si="11"/>
         <v>2.6633332224996753E-2</v>
       </c>
@@ -30450,7 +30703,7 @@
       <c r="B153" s="18">
         <v>24.030000999999999</v>
       </c>
-      <c r="C153" s="126">
+      <c r="C153" s="121">
         <f t="shared" si="11"/>
         <v>4.7058821478918489E-2</v>
       </c>
@@ -30462,7 +30715,7 @@
       <c r="B154" s="18">
         <v>22.950001</v>
       </c>
-      <c r="C154" s="126">
+      <c r="C154" s="121">
         <f t="shared" si="11"/>
         <v>0.10602414457831322</v>
       </c>
@@ -30474,7 +30727,7 @@
       <c r="B155" s="18">
         <v>20.75</v>
       </c>
-      <c r="C155" s="126">
+      <c r="C155" s="121">
         <f t="shared" si="11"/>
         <v>3.3366533864541914E-2</v>
       </c>
@@ -30486,7 +30739,7 @@
       <c r="B156" s="18">
         <v>20.079999999999998</v>
       </c>
-      <c r="C156" s="126">
+      <c r="C156" s="121">
         <f t="shared" si="11"/>
         <v>1.6708860759493627E-2</v>
       </c>
@@ -30498,7 +30751,7 @@
       <c r="B157" s="18">
         <v>19.75</v>
       </c>
-      <c r="C157" s="126">
+      <c r="C157" s="121">
         <f t="shared" si="11"/>
         <v>-0.14279517609395942</v>
       </c>
@@ -30510,7 +30763,7 @@
       <c r="B158" s="18">
         <v>23.040001</v>
       </c>
-      <c r="C158" s="126">
+      <c r="C158" s="121">
         <f t="shared" si="11"/>
         <v>-1.5805168731311436E-2</v>
       </c>
@@ -30522,7 +30775,7 @@
       <c r="B159" s="18">
         <v>23.41</v>
       </c>
-      <c r="C159" s="126">
+      <c r="C159" s="121">
         <f t="shared" si="11"/>
         <v>4.183360221778365E-2</v>
       </c>
@@ -30534,7 +30787,7 @@
       <c r="B160" s="18">
         <v>22.469999000000001</v>
       </c>
-      <c r="C160" s="126">
+      <c r="C160" s="121">
         <f t="shared" si="11"/>
         <v>-6.5307900777541561E-2</v>
       </c>
@@ -30546,7 +30799,7 @@
       <c r="B161" s="18">
         <v>24.040001</v>
       </c>
-      <c r="C161" s="126">
+      <c r="C161" s="121">
         <f t="shared" si="11"/>
         <v>4.2045990463805749E-2</v>
       </c>
@@ -30558,7 +30811,7 @@
       <c r="B162" s="18">
         <v>23.07</v>
       </c>
-      <c r="C162" s="126">
+      <c r="C162" s="121">
         <f t="shared" si="11"/>
         <v>2.1700620017714778E-2</v>
       </c>
@@ -30570,7 +30823,7 @@
       <c r="B163" s="18">
         <v>22.58</v>
       </c>
-      <c r="C163" s="126">
+      <c r="C163" s="121">
         <f t="shared" si="11"/>
         <v>-7.1546052631578982E-2</v>
       </c>
@@ -30582,7 +30835,7 @@
       <c r="B164" s="18">
         <v>24.32</v>
       </c>
-      <c r="C164" s="126">
+      <c r="C164" s="121">
         <f t="shared" si="11"/>
         <v>-9.6582466567607828E-2</v>
       </c>
@@ -30594,7 +30847,7 @@
       <c r="B165" s="18">
         <v>26.92</v>
       </c>
-      <c r="C165" s="126">
+      <c r="C165" s="121">
         <f t="shared" si="11"/>
         <v>0.12400830379923589</v>
       </c>
@@ -30606,7 +30859,7 @@
       <c r="B166" s="18">
         <v>23.950001</v>
       </c>
-      <c r="C166" s="126">
+      <c r="C166" s="121">
         <f t="shared" si="11"/>
         <v>2.0920920502092155E-3</v>
       </c>
@@ -30618,7 +30871,7 @@
       <c r="B167" s="18">
         <v>23.9</v>
       </c>
-      <c r="C167" s="126">
+      <c r="C167" s="121">
         <f t="shared" si="11"/>
         <v>-0.17586206896551726</v>
       </c>
@@ -30630,7 +30883,7 @@
       <c r="B168" s="18">
         <v>29</v>
       </c>
-      <c r="C168" s="126">
+      <c r="C168" s="121">
         <f t="shared" si="11"/>
         <v>-9.1193983077405227E-2</v>
       </c>
@@ -30642,7 +30895,7 @@
       <c r="B169" s="18">
         <v>31.91</v>
       </c>
-      <c r="C169" s="126">
+      <c r="C169" s="121">
         <f t="shared" si="11"/>
         <v>-6.2848724312737803E-2</v>
       </c>
@@ -30654,7 +30907,7 @@
       <c r="B170" s="18">
         <v>34.049999</v>
       </c>
-      <c r="C170" s="126">
+      <c r="C170" s="121">
         <f t="shared" si="11"/>
         <v>-3.2120551449687285E-2</v>
       </c>
@@ -30666,7 +30919,7 @@
       <c r="B171" s="18">
         <v>35.18</v>
       </c>
-      <c r="C171" s="126">
+      <c r="C171" s="121">
         <f t="shared" si="11"/>
         <v>7.9803494180264334E-2</v>
       </c>
@@ -30678,7 +30931,7 @@
       <c r="B172" s="18">
         <v>32.580002</v>
       </c>
-      <c r="C172" s="126">
+      <c r="C172" s="121">
         <f t="shared" si="11"/>
         <v>0.27067095439434308</v>
       </c>
@@ -30690,7 +30943,7 @@
       <c r="B173" s="18">
         <v>25.639999</v>
       </c>
-      <c r="C173" s="126">
+      <c r="C173" s="121">
         <f t="shared" si="11"/>
         <v>1.746023740237157E-2</v>
       </c>
@@ -30702,7 +30955,7 @@
       <c r="B174" s="18">
         <v>25.200001</v>
       </c>
-      <c r="C174" s="126">
+      <c r="C174" s="121">
         <f t="shared" si="11"/>
         <v>7.0063782168313438E-2</v>
       </c>
@@ -30714,7 +30967,7 @@
       <c r="B175" s="18">
         <v>23.549999</v>
       </c>
-      <c r="C175" s="126">
+      <c r="C175" s="121">
         <f t="shared" si="11"/>
         <v>-0.1513513873873874</v>
       </c>
@@ -30726,7 +30979,7 @@
       <c r="B176" s="18">
         <v>27.75</v>
       </c>
-      <c r="C176" s="126">
+      <c r="C176" s="121">
         <f t="shared" si="11"/>
         <v>6.8540664941881602E-2</v>
       </c>
@@ -30738,7 +30991,7 @@
       <c r="B177" s="18">
         <v>25.969999000000001</v>
       </c>
-      <c r="C177" s="126">
+      <c r="C177" s="121">
         <f t="shared" si="11"/>
         <v>-4.522066010218162E-2</v>
       </c>
@@ -30750,7 +31003,7 @@
       <c r="B178" s="18">
         <v>27.200001</v>
       </c>
-      <c r="C178" s="126">
+      <c r="C178" s="121">
         <f t="shared" si="11"/>
         <v>0.1404612578616351</v>
       </c>
@@ -30762,7 +31015,7 @@
       <c r="B179" s="18">
         <v>23.85</v>
       </c>
-      <c r="C179" s="126">
+      <c r="C179" s="121">
         <f t="shared" si="11"/>
         <v>-0.13774403470715835</v>
       </c>
@@ -30774,7 +31027,7 @@
       <c r="B180" s="18">
         <v>27.66</v>
       </c>
-      <c r="C180" s="126">
+      <c r="C180" s="121">
         <f t="shared" si="11"/>
         <v>0.5239669421487605</v>
       </c>
@@ -30786,7 +31039,7 @@
       <c r="B181" s="18">
         <v>18.149999999999999</v>
       </c>
-      <c r="C181" s="126">
+      <c r="C181" s="121">
         <f t="shared" si="11"/>
         <v>0.14873417721518978</v>
       </c>
@@ -30798,7 +31051,7 @@
       <c r="B182" s="18">
         <v>15.8</v>
       </c>
-      <c r="C182" s="126">
+      <c r="C182" s="121">
         <f t="shared" si="11"/>
         <v>0.14244396240057844</v>
       </c>
@@ -30810,7 +31063,7 @@
       <c r="B183" s="18">
         <v>13.83</v>
       </c>
-      <c r="C183" s="126">
+      <c r="C183" s="121">
         <f t="shared" si="11"/>
         <v>0.36525172754195445</v>
       </c>
@@ -30822,7 +31075,7 @@
       <c r="B184" s="18">
         <v>10.130000000000001</v>
       </c>
-      <c r="C184" s="126">
+      <c r="C184" s="121">
         <f t="shared" si="11"/>
         <v>6.7439409905163394E-2</v>
       </c>
@@ -30834,7 +31087,7 @@
       <c r="B185" s="18">
         <v>9.49</v>
       </c>
-      <c r="C185" s="126">
+      <c r="C185" s="121">
         <f t="shared" si="11"/>
         <v>-2.2657054582904235E-2</v>
       </c>
@@ -30846,7 +31099,7 @@
       <c r="B186" s="18">
         <v>9.7100000000000009</v>
       </c>
-      <c r="C186" s="126">
+      <c r="C186" s="121">
         <f t="shared" si="11"/>
         <v>-2.4120603015075237E-2</v>
       </c>
@@ -30858,7 +31111,7 @@
       <c r="B187" s="18">
         <v>9.9499999999999993</v>
       </c>
-      <c r="C187" s="126">
+      <c r="C187" s="121">
         <f t="shared" si="11"/>
         <v>8.1521739130434812E-2</v>
       </c>

--- a/Business - Technology Services/PLTR.xlsx
+++ b/Business - Technology Services/PLTR.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C66EB2-1105-40ED-8FD8-782400FCE4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6582CD6-B749-4E54-A07D-9D6DB038FFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="90" windowWidth="14520" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Model-graph" sheetId="3" r:id="rId3"/>
-    <sheet name="Catalysts" sheetId="4" r:id="rId4"/>
-    <sheet name="DoR" sheetId="5" r:id="rId5"/>
+    <sheet name="KPIs" sheetId="6" r:id="rId3"/>
+    <sheet name="Model-graph" sheetId="3" r:id="rId4"/>
+    <sheet name="Catalysts" sheetId="4" r:id="rId5"/>
+    <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DoR!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DoR!$A$1:$C$1</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$A$17</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$A$18</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Model!$K$17:$W$17</definedName>
@@ -318,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="208">
   <si>
     <t>Price</t>
   </si>
@@ -918,6 +919,30 @@
   </si>
   <si>
     <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Number of US Commercial Customers</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>NOCC y/y</t>
+  </si>
+  <si>
+    <t>Customer Count</t>
+  </si>
+  <si>
+    <t>Commercial Customer Count</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1669,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1666,7 +1691,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1684,7 +1708,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1696,9 +1719,6 @@
     <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1791,6 +1811,17 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1848,30 +1879,18 @@
     <xf numFmtId="167" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2950,7 +2969,7 @@
                   <c:v>0.16745152216493153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21797095925774768</c:v>
+                  <c:v>0.2404427481739424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4233,7 +4252,7 @@
                   <c:v>-1.5694292545382016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3773724770642186</c:v>
+                  <c:v>2.6844063386155108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14899,8 +14918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14921,33 +14940,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="19"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="31" t="s">
         <v>58</v>
       </c>
     </row>
@@ -14956,12 +14975,12 @@
         <v>42</v>
       </c>
       <c r="C3" s="20">
-        <v>45419</v>
+        <v>45519</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>136</v>
       </c>
       <c r="H3" t="s">
@@ -14970,9 +14989,9 @@
       <c r="I3" s="10">
         <v>592</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="37">
         <f t="shared" ref="J3:J10" si="0">I3/($C$7*100000)</f>
-        <v>2.6744430314269644E-6</v>
+        <v>2.652814672216068E-6</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>163</v>
@@ -14980,17 +14999,17 @@
       <c r="M3" t="s">
         <v>164</v>
       </c>
-      <c r="N3" s="38"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="21">
-        <v>0.78263888888888888</v>
+      <c r="C4" s="147">
+        <v>0.7270833333333333</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>138</v>
       </c>
       <c r="H4" t="s">
@@ -14999,9 +15018,9 @@
       <c r="I4" s="10">
         <v>4344</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="37">
         <f t="shared" si="0"/>
-        <v>1.962462927114651E-5</v>
+        <v>1.9465923878558445E-5</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>165</v>
@@ -15017,7 +15036,7 @@
       <c r="E5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>140</v>
       </c>
       <c r="H5" t="s">
@@ -15026,9 +15045,9 @@
       <c r="I5" s="10">
         <v>6432260</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="37">
         <f t="shared" si="0"/>
-        <v>2.905863671170001E-2</v>
+        <v>2.8823638012683322E-2</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>167</v>
@@ -15043,12 +15062,12 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>21.76</v>
+        <v>31.06</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>142</v>
       </c>
       <c r="H6" t="s">
@@ -15057,9 +15076,9 @@
       <c r="I6" s="10">
         <v>1635520</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="37">
         <f t="shared" si="0"/>
-        <v>7.3886909911476837E-3</v>
+        <v>7.3289382647007163E-3</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>169</v>
@@ -15074,13 +15093,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!W16</f>
-        <v>2213.5450000000001</v>
+        <f>Model!X16</f>
+        <v>2231.5920000000001</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>144</v>
       </c>
       <c r="H7" t="s">
@@ -15089,9 +15108,9 @@
       <c r="I7" s="10">
         <v>670136</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="37">
         <f t="shared" si="0"/>
-        <v>3.0274333704532774E-3</v>
+        <v>3.0029503601016671E-3</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>171</v>
@@ -15107,12 +15126,12 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>48166.739200000004</v>
+        <v>69313.247520000004</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>146</v>
       </c>
       <c r="H8" t="s">
@@ -15121,9 +15140,9 @@
       <c r="I8" s="10">
         <v>1502680</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="37">
         <f t="shared" si="0"/>
-        <v>6.7885676595687006E-3</v>
+        <v>6.7336681615635836E-3</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>173</v>
@@ -15138,13 +15157,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!W32+Model!W33</f>
-        <v>3867.9</v>
+        <f>Model!X32+Model!X33</f>
+        <v>3998.4590000000003</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>148</v>
       </c>
       <c r="H9" t="s">
@@ -15153,9 +15172,9 @@
       <c r="I9" s="10">
         <v>191783</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="37">
         <f t="shared" si="0"/>
-        <v>8.6640660117594172E-4</v>
+        <v>8.5939992615137537E-4</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>175</v>
@@ -15176,7 +15195,7 @@
       <c r="E10" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>150</v>
       </c>
       <c r="H10" t="s">
@@ -15185,9 +15204,9 @@
       <c r="I10" s="10">
         <v>18146</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="37">
         <f t="shared" si="0"/>
-        <v>8.1977100081543413E-5</v>
+        <v>8.1314147030460765E-5</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>177</v>
@@ -15203,19 +15222,19 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>3867.9</v>
+        <v>3998.4590000000003</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>152</v>
       </c>
       <c r="H11" t="s">
         <v>183</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="39">
+      <c r="J11" s="37">
         <v>0.09</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -15232,12 +15251,12 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>44298.839200000002</v>
+        <v>65314.788520000002</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>154</v>
       </c>
       <c r="J12" s="13"/>
@@ -15253,9 +15272,9 @@
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="46">
         <f>C6/Model!F17</f>
-        <v>222.70189424520424</v>
+        <v>317.88239132610488</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -15266,27 +15285,27 @@
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="46">
         <f>C6/Model!G18</f>
-        <v>65.939393939393938</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="23"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="23"/>
+        <v>86.277777777777771</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="46">
         <f>C6/Model!H18</f>
-        <v>54.4</v>
+        <v>72.232558139534888</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -15295,7 +15314,7 @@
       </c>
       <c r="C16" s="6">
         <f>Model!G18/Model!F17-1</f>
-        <v>2.3773724770642186</v>
+        <v>2.6844063386155108</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -15304,38 +15323,38 @@
       </c>
       <c r="C17" s="6">
         <f>Model!H18/Model!G18-1</f>
-        <v>0.21212121212121215</v>
-      </c>
-      <c r="E17" s="33" t="s">
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="122"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="124"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="130"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="49">
-        <f>C14/C16</f>
-        <v>27.736248558249272</v>
-      </c>
-      <c r="L18" s="125"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="127"/>
+      <c r="C18" s="46">
+        <f>C14/(C16*100)</f>
+        <v>0.32140356896294525</v>
+      </c>
+      <c r="L18" s="131"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="133"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="49">
-        <f>C15/C17</f>
-        <v>256.4571428571428</v>
-      </c>
-      <c r="L19" s="125"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="127"/>
+      <c r="C19" s="46">
+        <f>C15/(C17*100)</f>
+        <v>3.7148172757475089</v>
+      </c>
+      <c r="L19" s="131"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="133"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -15343,11 +15362,11 @@
       </c>
       <c r="C20" s="6">
         <f>Model!G4/Model!F3-1</f>
-        <v>0.21797095925774768</v>
-      </c>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="127"/>
+        <v>0.2404427481739424</v>
+      </c>
+      <c r="L20" s="131"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="133"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -15355,23 +15374,23 @@
       </c>
       <c r="C21" s="6">
         <f>Model!H4/Model!G4-1</f>
-        <v>0.19188191881918826</v>
-      </c>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="127"/>
+        <v>0.21014492753623193</v>
+      </c>
+      <c r="L21" s="131"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="133"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="44">
         <f>Model!F12</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="L22" s="125"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="127"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="133"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -15381,45 +15400,45 @@
         <f>Model!F12</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="127"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="133"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!W20</f>
-        <v>0.81672862101907817</v>
-      </c>
-      <c r="L24" s="125"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="127"/>
+        <f>Model!X20</f>
+        <v>0.81041799998230435</v>
+      </c>
+      <c r="L24" s="131"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="133"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!W21</f>
-        <v>0.16636241246780101</v>
-      </c>
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="127"/>
+        <f>Model!X21</f>
+        <v>0.19778686808211951</v>
+      </c>
+      <c r="L25" s="131"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="133"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <f>Main!C12/Model!F12</f>
-        <v>186.84319185460427</v>
-      </c>
-      <c r="L26" s="125"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="127"/>
+        <v>275.48404840335553</v>
+      </c>
+      <c r="L26" s="131"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="133"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -15431,9 +15450,9 @@
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="127"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="133"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -15445,26 +15464,26 @@
       <c r="E28" t="s">
         <v>184</v>
       </c>
-      <c r="L28" s="128"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="130"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="136"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="15">
-        <f>Model!W36-Model!W46</f>
-        <v>3685.5110000000004</v>
+        <f>Model!X36-Model!X46</f>
+        <v>3966.5910000000013</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="36">
-        <f>(Model!W32+Model!W33+Model!W34)/Model!W41</f>
-        <v>122.21153954088793</v>
+      <c r="C30" s="35">
+        <f>(Model!X32+Model!X33+Model!X34)/Model!X41</f>
+        <v>69.163234093102687</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -15489,7 +15508,7 @@
       <c r="B34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="120">
+      <c r="C34" s="117">
         <f>Model!F15/Model!F40</f>
         <v>4.6396568212850424E-2</v>
       </c>
@@ -15498,16 +15517,16 @@
       <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="120">
+      <c r="C35" s="117">
         <f>Model!F15/Model!F53</f>
         <v>5.8923634464253395E-2</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15520,29 +15539,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="M27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="22" max="22" width="11.42578125" style="145"/>
-    <col min="23" max="23" width="11.42578125" style="13"/>
+    <col min="23" max="23" width="11.42578125" style="149"/>
+    <col min="24" max="24" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -15597,84 +15616,91 @@
       <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="145" t="s">
+      <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="13" t="s">
         <v>69</v>
       </c>
       <c r="Y2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="Z2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="154">
+      <c r="B3" s="10">
         <v>742.55499999999995</v>
       </c>
-      <c r="C3" s="154">
+      <c r="C3" s="10">
         <v>1092.673</v>
       </c>
-      <c r="D3" s="154">
+      <c r="D3" s="10">
         <v>1541.8889999999999</v>
       </c>
-      <c r="E3" s="154">
+      <c r="E3" s="10">
         <v>1905.8710000000001</v>
       </c>
-      <c r="F3" s="155">
+      <c r="F3" s="15">
         <v>2225.0120000000002</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="K3" s="154">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="K3" s="10">
         <v>341.23399999999998</v>
       </c>
-      <c r="L3" s="154">
+      <c r="L3" s="10">
         <v>375.642</v>
       </c>
-      <c r="M3" s="154">
+      <c r="M3" s="10">
         <v>392.14600000000002</v>
       </c>
-      <c r="N3" s="154">
+      <c r="N3" s="10">
         <f>D3-M3-L3-K3</f>
         <v>432.8669999999999</v>
       </c>
-      <c r="O3" s="154">
+      <c r="O3" s="10">
         <v>446.35700000000003</v>
       </c>
-      <c r="P3" s="154">
+      <c r="P3" s="10">
         <v>473.01</v>
       </c>
-      <c r="Q3" s="154">
+      <c r="Q3" s="10">
         <v>477.88</v>
       </c>
-      <c r="R3" s="154">
+      <c r="R3" s="10">
         <f>E3-Q3-P3-O3</f>
         <v>508.62399999999997</v>
       </c>
-      <c r="S3" s="154">
+      <c r="S3" s="10">
         <v>525.18600000000004</v>
       </c>
-      <c r="T3" s="154">
+      <c r="T3" s="10">
         <v>533.31700000000001</v>
       </c>
-      <c r="U3" s="154">
+      <c r="U3" s="10">
         <v>558.15899999999999</v>
       </c>
-      <c r="V3" s="156">
+      <c r="V3" s="10">
         <f>F3-U3-T3-S3</f>
         <v>608.35</v>
       </c>
-      <c r="W3" s="155">
+      <c r="W3" s="150">
         <v>634.33799999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X3" s="15">
+        <v>678.13400000000001</v>
+      </c>
+      <c r="Y3" s="150"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -15683,107 +15709,114 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="43">
-        <v>2710</v>
-      </c>
-      <c r="H4" s="43">
-        <v>3230</v>
-      </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="157">
+      <c r="G4" s="41">
+        <v>2760</v>
+      </c>
+      <c r="H4" s="41">
+        <v>3340</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="124">
         <v>505.82</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="39">
         <v>533.38</v>
       </c>
-      <c r="U4" s="157">
+      <c r="U4" s="124">
         <v>555.51</v>
       </c>
-      <c r="V4" s="158">
+      <c r="V4" s="125">
         <v>602.88</v>
       </c>
-      <c r="W4" s="159">
+      <c r="W4" s="151">
         <v>615.4</v>
       </c>
-      <c r="X4" s="41">
+      <c r="X4" s="126">
         <v>651.39</v>
       </c>
-      <c r="Y4">
-        <v>678.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="Y4" s="151">
+        <v>701.25</v>
+      </c>
+      <c r="Z4" s="151">
+        <v>741.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="154">
+      <c r="B5" s="10">
         <v>242.37299999999999</v>
       </c>
-      <c r="C5" s="154">
+      <c r="C5" s="10">
         <v>352.54700000000003</v>
       </c>
-      <c r="D5" s="154">
+      <c r="D5" s="10">
         <v>339.404</v>
       </c>
-      <c r="E5" s="154">
+      <c r="E5" s="10">
         <v>408.54899999999998</v>
       </c>
-      <c r="F5" s="155">
+      <c r="F5" s="15">
         <v>431.10500000000002</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="K5" s="154">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="K5" s="10">
         <v>74.111000000000004</v>
       </c>
-      <c r="L5" s="154">
+      <c r="L5" s="10">
         <v>90.926000000000002</v>
       </c>
-      <c r="M5" s="154">
+      <c r="M5" s="10">
         <v>86.804000000000002</v>
       </c>
-      <c r="N5" s="154">
+      <c r="N5" s="10">
         <f>D5-M5-L5-K5</f>
         <v>87.562999999999974</v>
       </c>
-      <c r="O5" s="154">
+      <c r="O5" s="10">
         <v>94.403000000000006</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="39">
         <v>102.224</v>
       </c>
-      <c r="Q5" s="154">
+      <c r="Q5" s="10">
         <v>107.611</v>
       </c>
-      <c r="R5" s="154">
+      <c r="R5" s="10">
         <f>E5-Q5-P5-O5</f>
         <v>104.31099999999999</v>
       </c>
-      <c r="S5" s="154">
+      <c r="S5" s="10">
         <v>107.645</v>
       </c>
-      <c r="T5" s="154">
+      <c r="T5" s="10">
         <v>106.899</v>
       </c>
-      <c r="U5" s="154">
+      <c r="U5" s="10">
         <v>107.922</v>
       </c>
-      <c r="V5" s="156">
+      <c r="V5" s="10">
         <f>F5-U5-T5-S5</f>
         <v>108.639</v>
       </c>
-      <c r="W5" s="155">
+      <c r="W5" s="150">
         <v>116.256</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X5" s="15">
+        <v>128.56200000000001</v>
+      </c>
+      <c r="Y5" s="150"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -15802,8 +15835,8 @@
       <c r="F6" s="15">
         <v>744.99199999999996</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
       <c r="K6" s="10">
         <v>136.09700000000001</v>
       </c>
@@ -15839,15 +15872,19 @@
       <c r="U6" s="10">
         <v>176.37299999999999</v>
       </c>
-      <c r="V6" s="147">
+      <c r="V6" s="10">
         <f>F6-U6-T6-S6</f>
         <v>197.36299999999991</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="150">
         <v>193.17699999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X6" s="15">
+        <v>196.809</v>
+      </c>
+      <c r="Y6" s="150"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -15866,8 +15903,8 @@
       <c r="F7" s="15">
         <v>404.62400000000002</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="K7" s="10">
         <v>98.471000000000004</v>
       </c>
@@ -15903,15 +15940,19 @@
       <c r="U7" s="10">
         <v>105.708</v>
       </c>
-      <c r="V7" s="147">
+      <c r="V7" s="10">
         <f>F7-U7-T7-S7</f>
         <v>109.28300000000004</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="150">
         <v>110.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X7" s="15">
+        <v>108.78100000000001</v>
+      </c>
+      <c r="Y7" s="150"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -15967,15 +16008,19 @@
       <c r="U8" s="10">
         <v>128.173</v>
       </c>
-      <c r="V8" s="147">
+      <c r="V8" s="10">
         <f>F8-U8-T8-S8</f>
         <v>127.27100000000002</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="150">
         <v>133.98400000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="15">
+        <v>138.643</v>
+      </c>
+      <c r="Y8" s="150"/>
+    </row>
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -16051,20 +16096,24 @@
         <f t="shared" ref="U9:W9" si="11">U3-U5-U6-U7-U8</f>
         <v>39.982999999999976</v>
       </c>
-      <c r="V9" s="146">
+      <c r="V9" s="11">
         <f t="shared" ref="V9" si="12">V3-V5-V6-V7-V8</f>
         <v>65.794000000000011</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="148">
         <f t="shared" si="11"/>
         <v>80.880999999999943</v>
       </c>
-      <c r="X9" s="11">
-        <f t="shared" ref="X9" si="13">X3-X5-X6-X7-X8</f>
+      <c r="X9" s="14">
+        <f t="shared" ref="X9:Y9" si="13">X3-X5-X6-X7-X8</f>
+        <v>105.33900000000003</v>
+      </c>
+      <c r="Y9" s="148">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -16088,8 +16137,8 @@
         <f>132.572-3.47</f>
         <v>129.102</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
       <c r="K10" s="10">
         <f>0.376-1.84</f>
         <v>-1.464</v>
@@ -16134,15 +16183,19 @@
         <f>36.864-0.742</f>
         <v>36.122</v>
       </c>
-      <c r="V10" s="147">
+      <c r="V10" s="10">
         <f t="shared" ref="V10:V11" si="14">F10-U10-T10-S10</f>
         <v>44.409000000000006</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="150">
         <v>43.351999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X10" s="15">
+        <v>46.593000000000004</v>
+      </c>
+      <c r="Y10" s="150"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -16163,8 +16216,8 @@
       <c r="F11" s="15">
         <v>-11.977</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="K11" s="10">
         <v>-4.8940000000000001</v>
       </c>
@@ -16200,15 +16253,19 @@
       <c r="U11" s="10">
         <v>3.8639999999999999</v>
       </c>
-      <c r="V11" s="147">
+      <c r="V11" s="10">
         <f t="shared" si="14"/>
         <v>-3.9560000000000017</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="150">
         <v>-13.507</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="15">
+        <v>-11.173</v>
+      </c>
+      <c r="Y11" s="150"/>
+    </row>
+    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -16284,16 +16341,24 @@
         <f t="shared" si="16"/>
         <v>79.96899999999998</v>
       </c>
-      <c r="V12" s="146">
+      <c r="V12" s="11">
         <f t="shared" si="16"/>
         <v>106.24700000000001</v>
       </c>
-      <c r="W12" s="14">
-        <f t="shared" ref="W12" si="17">W9+W10+W11</f>
+      <c r="W12" s="148">
+        <f t="shared" ref="W12:Y12" si="17">W9+W10+W11</f>
         <v>110.72599999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X12" s="14">
+        <f t="shared" si="17"/>
+        <v>140.75900000000001</v>
+      </c>
+      <c r="Y12" s="148">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -16312,8 +16377,8 @@
       <c r="F13" s="15">
         <v>19.716000000000001</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
       <c r="K13" s="10">
         <v>3.1019999999999999</v>
       </c>
@@ -16349,15 +16414,19 @@
       <c r="U13" s="10">
         <v>6.53</v>
       </c>
-      <c r="V13" s="147">
+      <c r="V13" s="10">
         <f t="shared" ref="V13:V14" si="18">F13-U13-T13-S13</f>
         <v>9.3339999999999996</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="150">
         <v>4.6550000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X13" s="15">
+        <v>5.1890000000000001</v>
+      </c>
+      <c r="Y13" s="150"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -16376,8 +16445,8 @@
       <c r="F14" s="15">
         <v>-7.55</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
       <c r="K14" s="10">
         <v>0</v>
       </c>
@@ -16413,15 +16482,19 @@
       <c r="U14" s="10">
         <v>1.9339999999999999</v>
       </c>
-      <c r="V14" s="147">
+      <c r="V14" s="10">
         <f t="shared" si="18"/>
         <v>-11.577999999999999</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="150">
         <v>0.54100000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="15">
+        <v>1.444</v>
+      </c>
+      <c r="Y14" s="150"/>
+    </row>
+    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -16445,8 +16518,8 @@
         <f>F12-F13+F14</f>
         <v>209.8250000000001</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
       <c r="K15" s="11">
         <f>K12-K13-K14</f>
         <v>-123.47400000000002</v>
@@ -16491,17 +16564,24 @@
         <f>U12-U13-U14</f>
         <v>71.504999999999981</v>
       </c>
-      <c r="V15" s="146">
+      <c r="V15" s="11">
         <f>V12-V13-V14</f>
         <v>108.49100000000001</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15" s="148">
         <f>W12-W13-W14</f>
         <v>105.52999999999994</v>
       </c>
-      <c r="X15" s="11"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X15" s="14">
+        <f>X12-X13-X14</f>
+        <v>134.12600000000003</v>
+      </c>
+      <c r="Y15" s="148">
+        <f>Y12-Y13-Y14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -16520,8 +16600,8 @@
       <c r="F16" s="15">
         <v>2147.4459999999999</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
       <c r="K16" s="10">
         <v>1821.1579999999999</v>
       </c>
@@ -16557,16 +16637,19 @@
       <c r="U16" s="10">
         <v>2162.5300000000002</v>
       </c>
-      <c r="V16" s="147">
+      <c r="V16" s="10">
         <f>F16</f>
         <v>2147.4459999999999</v>
       </c>
-      <c r="W16" s="15">
+      <c r="W16" s="150">
         <v>2213.5450000000001</v>
       </c>
-      <c r="X16" s="10"/>
-    </row>
-    <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="15">
+        <v>2231.5920000000001</v>
+      </c>
+      <c r="Y16" s="150"/>
+    </row>
+    <row r="17" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -16586,12 +16669,12 @@
         <f>E15/E16</f>
         <v>-0.17854649182355004</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="49">
         <f>F15/F16</f>
         <v>9.7709092568567552E-2</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
       <c r="K17" s="2">
         <f t="shared" ref="K17" si="20">K15/K16</f>
         <v>-6.7799718640557283E-2</v>
@@ -16636,17 +16719,24 @@
         <f>U15/U16</f>
         <v>3.3065437242489108E-2</v>
       </c>
-      <c r="V17" s="148">
+      <c r="V17" s="2">
         <f>V15/V16</f>
         <v>5.0520944414900314E-2</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17" s="152">
         <f>W15/W16</f>
         <v>4.7674657619339089E-2</v>
       </c>
-      <c r="X17" s="47"/>
-    </row>
-    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="34">
+        <f>X15/X16</f>
+        <v>6.0103280527981827E-2</v>
+      </c>
+      <c r="Y17" s="152" t="e">
+        <f>Y15/Y16</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
@@ -16654,68 +16744,72 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="44">
-        <v>0.33</v>
-      </c>
-      <c r="H18" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48">
+      <c r="F18" s="34"/>
+      <c r="G18" s="42">
+        <v>0.36</v>
+      </c>
+      <c r="H18" s="43">
+        <v>0.43</v>
+      </c>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45">
         <v>0.04</v>
       </c>
-      <c r="T18" s="48">
+      <c r="T18" s="45">
         <v>0.05</v>
       </c>
-      <c r="U18" s="48">
+      <c r="U18" s="45">
         <v>0.06</v>
       </c>
-      <c r="V18" s="160">
+      <c r="V18" s="127">
         <v>0.08</v>
       </c>
-      <c r="W18" s="152">
+      <c r="W18" s="153">
         <v>0.08</v>
       </c>
-      <c r="X18" s="47">
+      <c r="X18" s="123">
         <v>0.08</v>
       </c>
-      <c r="Y18" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="153">
+        <v>0.09</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="47"/>
-    </row>
-    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="34"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="153"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="153"/>
+    </row>
+    <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -16739,8 +16833,8 @@
         <f>1-F5/F3</f>
         <v>0.80624598878567844</v>
       </c>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
       <c r="K20" s="3">
         <f t="shared" ref="K20:V20" si="24">1-K5/K3</f>
         <v>0.78281472537906538</v>
@@ -16785,16 +16879,28 @@
         <f t="shared" si="24"/>
         <v>0.80664649320354953</v>
       </c>
-      <c r="V20" s="40">
+      <c r="V20" s="38">
         <f t="shared" si="24"/>
         <v>0.82142023506205308</v>
       </c>
-      <c r="W20" s="6">
-        <f t="shared" ref="W20" si="25">1-W5/W3</f>
+      <c r="W20" s="38">
+        <f t="shared" ref="W20:Y20" si="25">1-W5/W3</f>
         <v>0.81672862101907817</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X20" s="6">
+        <f t="shared" si="25"/>
+        <v>0.81041799998230435</v>
+      </c>
+      <c r="Y20" s="38" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z20" s="38" t="e">
+        <f t="shared" ref="Z20" si="26">1-Z5/Z3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -16818,68 +16924,80 @@
         <f>F15/F3</f>
         <v>9.4302862186810721E-2</v>
       </c>
-      <c r="G21" s="142">
+      <c r="G21" s="120">
         <f>G15/G4</f>
         <v>0</v>
       </c>
-      <c r="H21" s="142">
+      <c r="H21" s="120">
         <f>H15/H4</f>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" ref="K21:V21" si="26">K15/K3</f>
+        <f t="shared" ref="K21:V21" si="27">K15/K3</f>
         <v>-0.3618455370801269</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.36891508404278539</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.2604565646468408</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.20832264875816386</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.21806087952020467</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.37912306293735865</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.25921779526240901</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.8120104438642419E-2</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.1992475046935878E-2</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.2739740154542192E-2</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.12810865721057976</v>
       </c>
-      <c r="V21" s="149">
-        <f t="shared" si="26"/>
+      <c r="V21" s="4">
+        <f t="shared" si="27"/>
         <v>0.17833648393194709</v>
       </c>
-      <c r="W21" s="7">
-        <f t="shared" ref="W21" si="27">W15/W3</f>
+      <c r="W21" s="154">
+        <f t="shared" ref="W21:Y21" si="28">W15/W3</f>
         <v>0.16636241246780101</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X21" s="7">
+        <f>X15/X3</f>
+        <v>0.19778686808211951</v>
+      </c>
+      <c r="Y21" s="154" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z21" s="154" t="e">
+        <f t="shared" ref="Z21" si="29">Z15/Z3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -16892,7 +17010,7 @@
         <f>D3/C3-1</f>
         <v>0.41111659206368234</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="38">
         <f>E3/D3-1</f>
         <v>0.23606238840798532</v>
       </c>
@@ -16900,144 +17018,159 @@
         <f>F3/E3-1</f>
         <v>0.16745152216493153</v>
       </c>
-      <c r="G22" s="143">
+      <c r="G22" s="121">
         <f>G4/F3-1</f>
-        <v>0.21797095925774768</v>
-      </c>
-      <c r="H22" s="143">
+        <v>0.2404427481739424</v>
+      </c>
+      <c r="H22" s="121">
         <f>H4/G4-1</f>
-        <v>0.19188191881918826</v>
+        <v>0.21014492753623193</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4">
-        <f t="shared" ref="O22:W22" si="28">O3/K3-1</f>
+        <f t="shared" ref="O22:W22" si="30">O3/K3-1</f>
         <v>0.30806719142875583</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.25920424233711881</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.21862775598884077</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.17501218619113978</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.1766052733574246</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.12749624743662924</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.16798987193437687</v>
       </c>
-      <c r="V22" s="149">
-        <f t="shared" si="28"/>
+      <c r="V22" s="4">
+        <f t="shared" si="30"/>
         <v>0.19607018150932731</v>
       </c>
-      <c r="W22" s="7">
-        <f t="shared" si="28"/>
+      <c r="W22" s="154">
+        <f t="shared" si="30"/>
         <v>0.20783493847893864</v>
       </c>
-      <c r="X22" s="37">
-        <f>X4/T3-1</f>
-        <v>0.22139365518068987</v>
-      </c>
-      <c r="Y22" s="37">
+      <c r="X22" s="158">
+        <f>X3/T3-1</f>
+        <v>0.2715401909183468</v>
+      </c>
+      <c r="Y22" s="157">
         <f>Y4/U3-1</f>
-        <v>0.21624841666980199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.25636243436010164</v>
+      </c>
+      <c r="Z22" s="157">
+        <f>Z4/V3-1</f>
+        <v>0.21924878770444645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23:E23" si="29">B7/B3</f>
+        <f t="shared" ref="B23:E23" si="31">B7/B3</f>
         <v>0.41150217828982366</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.51310867935786819</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.25130667642093563</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.18872158713784928</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" ref="F23" si="30">F7/F3</f>
+        <f t="shared" ref="F23" si="32">F7/F3</f>
         <v>0.18185250236852654</v>
       </c>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
       <c r="K23" s="4">
-        <f t="shared" ref="K23:T23" si="31">K7/K3</f>
+        <f t="shared" ref="K23:T23" si="33">K7/K3</f>
         <v>0.28857323713346267</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.29422695012804745</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.24051246219520281</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.19446157826768976</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.19849806320949373</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.18640409293672439</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.21106344689043274</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.16130579760294439</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.17155826697589041</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.18663009054652299</v>
       </c>
       <c r="U23" s="4">
         <f>U7/U3</f>
         <v>0.18938689513203227</v>
       </c>
-      <c r="V23" s="149">
+      <c r="V23" s="4">
         <f>V7/V3</f>
         <v>0.17963836607216246</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="154">
         <f>W7/W3</f>
         <v>0.17347218675217316</v>
       </c>
-      <c r="X23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X23" s="7">
+        <f t="shared" ref="X23:Y23" si="34">X7/X3</f>
+        <v>0.16041224890655831</v>
+      </c>
+      <c r="Y23" s="154" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="154" t="e">
+        <f t="shared" ref="Z23" si="35">Z7/Z3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -17061,62 +17194,74 @@
         <f>F6/F3</f>
         <v>0.33482605936507304</v>
       </c>
-      <c r="G24" s="144"/>
-      <c r="H24" s="143"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="121"/>
       <c r="K24" s="4">
-        <f t="shared" ref="K24:V24" si="32">K6/K3</f>
+        <f t="shared" ref="K24:V24" si="36">K6/K3</f>
         <v>0.39883774770392172</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.4322706193663115</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.39129048874653827</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.37561883904293919</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.35954404210082963</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.35702205027377859</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.38276973298736083</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.37401498946176343</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.35624140780599628</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.34531620030863447</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.31599060482765662</v>
       </c>
-      <c r="V24" s="149">
-        <f t="shared" si="32"/>
+      <c r="V24" s="4">
+        <f t="shared" si="36"/>
         <v>0.32442344045368604</v>
       </c>
-      <c r="W24" s="7">
-        <f t="shared" ref="W24" si="33">W6/W3</f>
+      <c r="W24" s="154">
+        <f t="shared" ref="W24:Y24" si="37">W6/W3</f>
         <v>0.30453322991843468</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X24" s="7">
+        <f t="shared" si="37"/>
+        <v>0.29022140166987642</v>
+      </c>
+      <c r="Y24" s="154" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="154" t="e">
+        <f t="shared" ref="Z24" si="38">Z6/Z3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -17125,62 +17270,74 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
       <c r="K25" s="4">
         <f>K8/K3</f>
         <v>0.42952636607137623</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" ref="L25:V25" si="34">L8/L3</f>
+        <f t="shared" ref="L25:V25" si="39">L8/L3</f>
         <v>0.42050942120423174</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.3812967619203052</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.36380227644981039</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.31881879302889837</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.32871398067694135</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.31112203900560809</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.29464201453332917</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.25939952702471125</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.24872261713014959</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.2296352831361673</v>
       </c>
-      <c r="V25" s="149">
-        <f t="shared" si="34"/>
+      <c r="V25" s="4">
+        <f t="shared" si="39"/>
         <v>0.20920687104462893</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="154">
         <f>W8/W3</f>
         <v>0.21121862477102116</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X25" s="7">
+        <f t="shared" ref="X25:Y25" si="40">X8/X3</f>
+        <v>0.20444779350393874</v>
+      </c>
+      <c r="Y25" s="154" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="154" t="e">
+        <f t="shared" ref="Z25" si="41">Z8/Z3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -17193,7 +17350,7 @@
         <f>-(D15/C15-1)</f>
         <v>0.55385543955671801</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="38">
         <f>E15/D15-1</f>
         <v>-0.29189494579912001</v>
       </c>
@@ -17201,77 +17358,81 @@
         <f>F15/E15-1</f>
         <v>-1.5694292545382016</v>
       </c>
-      <c r="G26" s="55">
+      <c r="G26" s="52">
         <f>G18/F17-1</f>
-        <v>2.3773724770642186</v>
-      </c>
-      <c r="H26" s="55">
+        <v>2.6844063386155108</v>
+      </c>
+      <c r="H26" s="52">
         <f>H18/G18-1</f>
-        <v>0.21212121212121215</v>
+        <v>0.19444444444444442</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4">
-        <f t="shared" ref="O26:W26" si="35">O15/K15-1</f>
+        <f t="shared" ref="O26:W26" si="42">O15/K15-1</f>
         <v>-0.21171258726533537</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.29404675999422736</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.21283178475968523</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>-1.4970280340667141</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>-1.172623878848901</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>-1.1568457973891562</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>-1.5772351160443994</v>
       </c>
-      <c r="V26" s="149">
-        <f t="shared" si="35"/>
+      <c r="V26" s="4">
+        <f t="shared" si="42"/>
         <v>1.4205934850513136</v>
       </c>
-      <c r="W26" s="7">
-        <f t="shared" si="35"/>
+      <c r="W26" s="154">
+        <f t="shared" si="42"/>
         <v>5.2807999047732128</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X26" s="7">
         <f>X18/T17-1</f>
         <v>5.0617172112205413</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y26" s="154">
         <f>Y18/U17-1</f>
-        <v>1.4194447940703458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.7218753933291389</v>
+      </c>
+      <c r="Z26" s="154">
+        <f>Z18/V17-1</f>
+        <v>0.78143938206855834</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>197</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="40">
+      <c r="C27" s="38">
         <f>(C15+C7)/C3</f>
         <v>-0.55435706748496583</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="38">
         <f>(D15+D7)/D3</f>
         <v>-8.6187786539757477E-2</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="38">
         <f>(E15+E7)/E3</f>
         <v>-4.6194102329065604E-3</v>
       </c>
@@ -17279,163 +17440,186 @@
         <f>(F15+F7)/F3</f>
         <v>0.27615536455533723</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="K27" s="40">
-        <f t="shared" ref="K27:V27" si="36">(K15+K7)/K3</f>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="K27" s="38">
+        <f t="shared" ref="K27:V27" si="43">(K15+K7)/K3</f>
         <v>-7.3272299946664218E-2</v>
       </c>
-      <c r="L27" s="40">
-        <f t="shared" si="36"/>
+      <c r="L27" s="38">
+        <f t="shared" si="43"/>
         <v>-7.4688133914737928E-2</v>
       </c>
-      <c r="M27" s="40">
-        <f t="shared" si="36"/>
+      <c r="M27" s="38">
+        <f t="shared" si="43"/>
         <v>-1.9944102451638013E-2</v>
       </c>
-      <c r="N27" s="40">
-        <f t="shared" si="36"/>
+      <c r="N27" s="38">
+        <f t="shared" si="43"/>
         <v>-1.3861070490474114E-2</v>
       </c>
-      <c r="O27" s="40">
-        <f t="shared" si="36"/>
+      <c r="O27" s="38">
+        <f t="shared" si="43"/>
         <v>-1.9562816310710929E-2</v>
       </c>
-      <c r="P27" s="40">
-        <f t="shared" si="36"/>
+      <c r="P27" s="38">
+        <f t="shared" si="43"/>
         <v>-0.19271897000063423</v>
       </c>
-      <c r="Q27" s="40">
-        <f t="shared" si="36"/>
+      <c r="Q27" s="38">
+        <f t="shared" si="43"/>
         <v>-4.8154348371976262E-2</v>
       </c>
-      <c r="R27" s="40">
-        <f t="shared" si="36"/>
+      <c r="R27" s="38">
+        <f t="shared" si="43"/>
         <v>0.24942590204158679</v>
       </c>
-      <c r="S27" s="40">
-        <f t="shared" si="36"/>
+      <c r="S27" s="38">
+        <f t="shared" si="43"/>
         <v>0.2035507420228263</v>
       </c>
-      <c r="T27" s="40">
-        <f t="shared" si="36"/>
+      <c r="T27" s="38">
+        <f t="shared" si="43"/>
         <v>0.23936983070106518</v>
       </c>
-      <c r="U27" s="40">
-        <f t="shared" si="36"/>
+      <c r="U27" s="38">
+        <f t="shared" si="43"/>
         <v>0.31749555234261201</v>
       </c>
-      <c r="V27" s="40">
-        <f t="shared" si="36"/>
+      <c r="V27" s="38">
+        <f t="shared" si="43"/>
         <v>0.35797485000410956</v>
       </c>
-      <c r="W27" s="6">
+      <c r="W27" s="38">
         <f>(W15+W7)/W3</f>
         <v>0.33983459921997411</v>
       </c>
-      <c r="X27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X27" s="6">
+        <f t="shared" ref="X27:Z27" si="44">(X15+X7)/X3</f>
+        <v>0.35819911698867779</v>
+      </c>
+      <c r="Y27" s="38" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="38" t="e">
+        <f t="shared" ref="Z27" si="45">(Z15+Z7)/Z3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="4"/>
-    </row>
-    <row r="31" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="31" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="11">
-        <f>B32+B34-B41-B42-B50</f>
-        <v>1003.2130000000001</v>
+        <f>B32+B33-B48-B49</f>
+        <v>567.64999999999986</v>
       </c>
       <c r="C31" s="11">
-        <f t="shared" ref="C31:F31" si="37">C32+C34-C41-C42-C50</f>
-        <v>1800.8359999999998</v>
+        <f>C32+C33-C48-C49</f>
+        <v>1769.0980000000002</v>
       </c>
       <c r="D31" s="11">
-        <f t="shared" si="37"/>
-        <v>2067.366</v>
+        <f>D32+D33-D48-D49</f>
+        <v>2527.7559999999999</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="37"/>
-        <v>2435.078</v>
-      </c>
-      <c r="F31" s="11">
-        <f t="shared" si="37"/>
-        <v>785.50200000000007</v>
+        <f>E32+E33-E48-E49</f>
+        <v>2629.739</v>
+      </c>
+      <c r="F31" s="14">
+        <f>F32+F33-F48-F49</f>
+        <v>3672.7020000000002</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" ref="K31" si="38">K32+K34-K41-K42-K50</f>
+        <f>K32+K33-K48-K49</f>
         <v>0</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" ref="L31" si="39">L32+L34-L41-L42-L50</f>
+        <f t="shared" ref="L31:Z31" si="46">L32+L33-L48-L49</f>
         <v>0</v>
       </c>
       <c r="M31" s="11">
-        <f t="shared" ref="M31" si="40">M32+M34-M41-M42-M50</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N31" s="11">
-        <f t="shared" ref="N31" si="41">N32+N34-N41-N42-N50</f>
-        <v>2067.366</v>
+        <f t="shared" si="46"/>
+        <v>2527.7559999999999</v>
       </c>
       <c r="O31" s="11">
-        <f t="shared" ref="O31" si="42">O32+O34-O41-O42-O50</f>
-        <v>2150.5309999999999</v>
+        <f t="shared" si="46"/>
+        <v>2537.4930000000004</v>
       </c>
       <c r="P31" s="11">
-        <f t="shared" ref="P31" si="43">P32+P34-P41-P42-P50</f>
-        <v>2025.3030000000001</v>
+        <f t="shared" si="46"/>
+        <v>2636.9320000000002</v>
       </c>
       <c r="Q31" s="11">
-        <f t="shared" ref="Q31" si="44">Q32+Q34-Q41-Q42-Q50</f>
-        <v>2060.0819999999999</v>
+        <f t="shared" si="46"/>
+        <v>2769.578</v>
       </c>
       <c r="R31" s="11">
-        <f t="shared" ref="R31" si="45">R32+R34-R41-R42-R50</f>
-        <v>2435.078</v>
+        <f t="shared" si="46"/>
+        <v>2629.739</v>
       </c>
       <c r="S31" s="11">
-        <f t="shared" ref="S31" si="46">S32+S34-S41-S42-S50</f>
-        <v>1145.2479999999998</v>
+        <f t="shared" si="46"/>
+        <v>2912.319</v>
       </c>
       <c r="T31" s="11">
-        <f t="shared" ref="T31" si="47">T32+T34-T41-T42-T50</f>
-        <v>1048.3150000000001</v>
+        <f t="shared" si="46"/>
+        <v>3100.1529999999998</v>
       </c>
       <c r="U31" s="11">
-        <f t="shared" ref="U31:W31" si="48">U32+U34-U41-U42-U50</f>
-        <v>1102.2840000000001</v>
-      </c>
-      <c r="V31" s="146">
-        <f t="shared" ref="V31" si="49">V32+V34-V41-V42-V50</f>
-        <v>785.50200000000007</v>
-      </c>
-      <c r="W31" s="14">
-        <f t="shared" si="48"/>
-        <v>602.69299999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="46"/>
+        <v>3281.34</v>
+      </c>
+      <c r="V31" s="11">
+        <f t="shared" si="46"/>
+        <v>3672.7020000000002</v>
+      </c>
+      <c r="W31" s="11">
+        <f t="shared" si="46"/>
+        <v>3866.2490000000003</v>
+      </c>
+      <c r="X31" s="14">
+        <f t="shared" si="46"/>
+        <v>3996.9320000000002</v>
+      </c>
+      <c r="Y31" s="11">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -17490,15 +17674,20 @@
       <c r="U32" s="10">
         <v>1040.31</v>
       </c>
-      <c r="V32" s="147">
+      <c r="V32" s="10">
         <f>F32</f>
         <v>831.04700000000003</v>
       </c>
-      <c r="W32" s="15">
+      <c r="W32" s="150">
         <v>520.38800000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X32" s="15">
+        <v>512.65899999999999</v>
+      </c>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="150"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -17522,7 +17711,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10">
-        <f t="shared" ref="N33:N35" si="50">D33</f>
+        <f t="shared" ref="N33:N35" si="47">D33</f>
         <v>234.15299999999999</v>
       </c>
       <c r="O33" s="10">
@@ -17535,7 +17724,7 @@
         <v>343.26400000000001</v>
       </c>
       <c r="R33" s="10">
-        <f t="shared" ref="R33:R35" si="51">E33</f>
+        <f t="shared" ref="R33:R35" si="48">E33</f>
         <v>35.134999999999998</v>
       </c>
       <c r="S33" s="10">
@@ -17547,15 +17736,20 @@
       <c r="U33" s="10">
         <v>2243.2640000000001</v>
       </c>
-      <c r="V33" s="147">
-        <f t="shared" ref="V33:V35" si="52">F33</f>
+      <c r="V33" s="10">
+        <f t="shared" ref="V33:V35" si="49">F33</f>
         <v>2843.1320000000001</v>
       </c>
-      <c r="W33" s="15">
+      <c r="W33" s="150">
         <v>3347.5120000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X33" s="15">
+        <v>3485.8</v>
+      </c>
+      <c r="Y33" s="150"/>
+      <c r="Z33" s="150"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -17578,7 +17772,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>190.923</v>
       </c>
       <c r="O34" s="10">
@@ -17591,7 +17785,7 @@
         <v>57.341999999999999</v>
       </c>
       <c r="R34" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>258.346</v>
       </c>
       <c r="S34" s="10">
@@ -17603,15 +17797,20 @@
       <c r="U34" s="10">
         <v>430.26900000000001</v>
       </c>
-      <c r="V34" s="147">
-        <f t="shared" si="52"/>
+      <c r="V34" s="10">
+        <f t="shared" si="49"/>
         <v>364.78399999999999</v>
       </c>
-      <c r="W34" s="15">
+      <c r="W34" s="150">
         <v>486.98599999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X34" s="15">
+        <v>659.33900000000006</v>
+      </c>
+      <c r="Y34" s="150"/>
+      <c r="Z34" s="150"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -17634,7 +17833,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>110.872</v>
       </c>
       <c r="O35" s="10">
@@ -17647,7 +17846,7 @@
         <v>114.157</v>
       </c>
       <c r="R35" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>149.55600000000001</v>
       </c>
       <c r="S35" s="10">
@@ -17659,15 +17858,20 @@
       <c r="U35" s="10">
         <v>95.554000000000002</v>
       </c>
-      <c r="V35" s="147">
-        <f t="shared" si="52"/>
+      <c r="V35" s="10">
+        <f t="shared" si="49"/>
         <v>99.655000000000001</v>
       </c>
-      <c r="W35" s="15">
+      <c r="W35" s="150">
         <v>81.177999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="15">
+        <v>115.712</v>
+      </c>
+      <c r="Y35" s="150"/>
+      <c r="Z35" s="150"/>
+    </row>
+    <row r="36" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -17692,59 +17896,71 @@
         <v>4138.6180000000004</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" ref="K36:V36" si="53">SUM(K32:K35)</f>
+        <f t="shared" ref="K36:V36" si="50">SUM(K32:K35)</f>
         <v>0</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>2863.2499999999995</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>2927.3740000000003</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>2902.4390000000003</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>2946.61</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>3041.5770000000002</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>3256.1469999999999</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>3576.9139999999998</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>3809.3969999999999</v>
       </c>
-      <c r="V36" s="146">
-        <f t="shared" si="53"/>
+      <c r="V36" s="11">
+        <f t="shared" si="50"/>
         <v>4138.6180000000004</v>
       </c>
-      <c r="W36" s="14">
-        <f t="shared" ref="W36" si="54">SUM(W32:W35)</f>
+      <c r="W36" s="148">
+        <f t="shared" ref="W36:Y36" si="51">SUM(W32:W35)</f>
         <v>4436.0640000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X36" s="14">
+        <f t="shared" si="51"/>
+        <v>4773.5100000000011</v>
+      </c>
+      <c r="Y36" s="148">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="148">
+        <f t="shared" ref="Z36" si="52">SUM(Z32:Z35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -17768,7 +17984,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10">
-        <f t="shared" ref="N37:N39" si="55">D37</f>
+        <f t="shared" ref="N37:N39" si="53">D37</f>
         <v>31.303999999999998</v>
       </c>
       <c r="O37" s="10">
@@ -17781,7 +17997,7 @@
         <v>57.822000000000003</v>
       </c>
       <c r="R37" s="10">
-        <f t="shared" ref="R37:R39" si="56">E37</f>
+        <f t="shared" ref="R37:R39" si="54">E37</f>
         <v>69.17</v>
       </c>
       <c r="S37" s="10">
@@ -17793,15 +18009,20 @@
       <c r="U37" s="10">
         <v>50.133000000000003</v>
       </c>
-      <c r="V37" s="147">
-        <f t="shared" ref="V37:V39" si="57">F37</f>
+      <c r="V37" s="10">
+        <f t="shared" ref="V37:V39" si="55">F37</f>
         <v>47.758000000000003</v>
       </c>
-      <c r="W37" s="15">
+      <c r="W37" s="150">
         <v>46.905999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X37" s="15">
+        <v>43.482999999999997</v>
+      </c>
+      <c r="Y37" s="150"/>
+      <c r="Z37" s="150"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -17822,7 +18043,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>216.898</v>
       </c>
       <c r="O38" s="10">
@@ -17835,7 +18056,7 @@
         <v>199.35900000000001</v>
       </c>
       <c r="R38" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>200.24</v>
       </c>
       <c r="S38" s="10">
@@ -17847,15 +18068,20 @@
       <c r="U38" s="10">
         <v>190.191</v>
       </c>
-      <c r="V38" s="147">
-        <f t="shared" si="57"/>
+      <c r="V38" s="10">
+        <f t="shared" si="55"/>
         <v>182.863</v>
       </c>
-      <c r="W38" s="15">
+      <c r="W38" s="150">
         <v>173.70699999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X38" s="15">
+        <v>213.453</v>
+      </c>
+      <c r="Y38" s="150"/>
+      <c r="Z38" s="150"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -17880,7 +18106,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>135.99799999999999</v>
       </c>
       <c r="O39" s="10">
@@ -17896,7 +18122,7 @@
         <v>115.044</v>
       </c>
       <c r="R39" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>150.25200000000001</v>
       </c>
       <c r="S39" s="10">
@@ -17909,15 +18135,20 @@
       <c r="U39" s="10">
         <v>143.696</v>
       </c>
-      <c r="V39" s="147">
-        <f t="shared" si="57"/>
+      <c r="V39" s="10">
+        <f t="shared" si="55"/>
         <v>153.18600000000001</v>
       </c>
-      <c r="W39" s="15">
+      <c r="W39" s="150">
         <v>150.40199999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X39" s="15">
+        <v>161.434</v>
+      </c>
+      <c r="Y39" s="150"/>
+      <c r="Z39" s="150"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -17942,59 +18173,71 @@
         <v>4522.4250000000002</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" ref="K40:V40" si="58">SUM(K36:K39)</f>
+        <f t="shared" ref="K40:V40" si="56">SUM(K36:K39)</f>
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>3247.45</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>3319.1790000000001</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>3282.3379999999997</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>3318.835</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>3461.239</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>3683.1379999999999</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>3980.2640000000001</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>4193.4169999999995</v>
       </c>
-      <c r="V40" s="146">
-        <f t="shared" si="58"/>
+      <c r="V40" s="11">
+        <f t="shared" si="56"/>
         <v>4522.4250000000002</v>
       </c>
-      <c r="W40" s="14">
-        <f t="shared" ref="W40" si="59">SUM(W36:W39)</f>
+      <c r="W40" s="148">
+        <f t="shared" ref="W40:Y40" si="57">SUM(W36:W39)</f>
         <v>4807.0790000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X40" s="14">
+        <f t="shared" si="57"/>
+        <v>5191.8800000000019</v>
+      </c>
+      <c r="Y40" s="148">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="148">
+        <f t="shared" ref="Z40" si="58">SUM(Z36:Z39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -18017,7 +18260,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10">
-        <f t="shared" ref="N41:N45" si="60">D41</f>
+        <f t="shared" ref="N41:N45" si="59">D41</f>
         <v>74.906999999999996</v>
       </c>
       <c r="O41" s="10">
@@ -18030,7 +18273,7 @@
         <v>59.506999999999998</v>
       </c>
       <c r="R41" s="10">
-        <f t="shared" ref="R41:R45" si="61">E41</f>
+        <f t="shared" ref="R41:R45" si="60">E41</f>
         <v>44.787999999999997</v>
       </c>
       <c r="S41" s="10">
@@ -18042,15 +18285,20 @@
       <c r="U41" s="10">
         <v>9.4749999999999996</v>
       </c>
-      <c r="V41" s="147">
-        <f t="shared" ref="V41:V45" si="62">F41</f>
+      <c r="V41" s="10">
+        <f t="shared" ref="V41:V45" si="61">F41</f>
         <v>12.122</v>
       </c>
-      <c r="W41" s="15">
+      <c r="W41" s="150">
         <v>35.634</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X41" s="15">
+        <v>67.344999999999999</v>
+      </c>
+      <c r="Y41" s="150"/>
+      <c r="Z41" s="150"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -18073,7 +18321,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>155.80600000000001</v>
       </c>
       <c r="O42" s="10">
@@ -18086,7 +18334,7 @@
         <v>164.697</v>
       </c>
       <c r="R42" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>172.715</v>
       </c>
       <c r="S42" s="10">
@@ -18098,15 +18346,20 @@
       <c r="U42" s="10">
         <v>174.75299999999999</v>
       </c>
-      <c r="V42" s="147">
-        <f t="shared" si="62"/>
+      <c r="V42" s="10">
+        <f t="shared" si="61"/>
         <v>222.99100000000001</v>
       </c>
-      <c r="W42" s="15">
+      <c r="W42" s="150">
         <v>206.03399999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X42" s="15">
+        <v>195.489</v>
+      </c>
+      <c r="Y42" s="150"/>
+      <c r="Z42" s="150"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -18129,7 +18382,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>227.816</v>
       </c>
       <c r="O43" s="10">
@@ -18142,7 +18395,7 @@
         <v>189.77099999999999</v>
       </c>
       <c r="R43" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>183.35</v>
       </c>
       <c r="S43" s="10">
@@ -18154,15 +18407,20 @@
       <c r="U43" s="10">
         <v>223.50700000000001</v>
       </c>
-      <c r="V43" s="147">
-        <f t="shared" si="62"/>
+      <c r="V43" s="10">
+        <f t="shared" si="61"/>
         <v>246.90100000000001</v>
       </c>
-      <c r="W43" s="15">
+      <c r="W43" s="150">
         <v>237.19499999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X43" s="15">
+        <v>278.44099999999997</v>
+      </c>
+      <c r="Y43" s="150"/>
+      <c r="Z43" s="150"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -18185,7 +18443,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>161.60499999999999</v>
       </c>
       <c r="O44" s="10">
@@ -18198,7 +18456,7 @@
         <v>234.142</v>
       </c>
       <c r="R44" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>141.989</v>
       </c>
       <c r="S44" s="10">
@@ -18210,15 +18468,20 @@
       <c r="U44" s="10">
         <v>228.98599999999999</v>
       </c>
-      <c r="V44" s="147">
-        <f t="shared" si="62"/>
+      <c r="V44" s="10">
+        <f t="shared" si="61"/>
         <v>209.828</v>
       </c>
-      <c r="W44" s="15">
+      <c r="W44" s="150">
         <v>217.63399999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X44" s="15">
+        <v>221.51900000000001</v>
+      </c>
+      <c r="Y44" s="150"/>
+      <c r="Z44" s="150"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -18241,7 +18504,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>39.927</v>
       </c>
       <c r="O45" s="10">
@@ -18254,7 +18517,7 @@
         <v>40.232999999999997</v>
       </c>
       <c r="R45" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>45.098999999999997</v>
       </c>
       <c r="S45" s="10">
@@ -18266,15 +18529,20 @@
       <c r="U45" s="10">
         <v>52.204000000000001</v>
       </c>
-      <c r="V45" s="147">
-        <f t="shared" si="62"/>
+      <c r="V45" s="10">
+        <f t="shared" si="61"/>
         <v>54.176000000000002</v>
       </c>
-      <c r="W45" s="15">
+      <c r="W45" s="150">
         <v>54.055999999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X45" s="15">
+        <v>44.125</v>
+      </c>
+      <c r="Y45" s="150"/>
+      <c r="Z45" s="150"/>
+    </row>
+    <row r="46" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -18299,60 +18567,71 @@
         <v>746.01800000000003</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" ref="K46:V46" si="63">SUM(K41:K45)</f>
+        <f t="shared" ref="K46:V46" si="62">SUM(K41:K45)</f>
         <v>0</v>
       </c>
       <c r="L46" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="62"/>
+        <v>660.06100000000004</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="62"/>
+        <v>669.10399999999993</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="62"/>
+        <v>665.74200000000008</v>
+      </c>
+      <c r="Q46" s="11">
+        <f t="shared" si="62"/>
+        <v>688.34999999999991</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" si="62"/>
+        <v>587.94100000000003</v>
+      </c>
+      <c r="S46" s="11">
+        <f t="shared" si="62"/>
+        <v>601.41300000000001</v>
+      </c>
+      <c r="T46" s="11">
+        <f t="shared" si="62"/>
+        <v>685.38400000000001</v>
+      </c>
+      <c r="U46" s="11">
+        <f t="shared" si="62"/>
+        <v>688.92499999999995</v>
+      </c>
+      <c r="V46" s="11">
+        <f t="shared" si="62"/>
+        <v>746.01800000000003</v>
+      </c>
+      <c r="W46" s="148">
+        <f t="shared" ref="W46:Y46" si="63">SUM(W41:W45)</f>
+        <v>750.553</v>
+      </c>
+      <c r="X46" s="14">
+        <f t="shared" si="63"/>
+        <v>806.91899999999998</v>
+      </c>
+      <c r="Y46" s="148">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="M46" s="11">
-        <f t="shared" si="63"/>
+      <c r="Z46" s="148">
+        <f t="shared" ref="Z46" si="64">SUM(Z41:Z45)</f>
         <v>0</v>
       </c>
-      <c r="N46" s="11">
-        <f t="shared" si="63"/>
-        <v>660.06100000000004</v>
-      </c>
-      <c r="O46" s="11">
-        <f t="shared" si="63"/>
-        <v>669.10399999999993</v>
-      </c>
-      <c r="P46" s="11">
-        <f t="shared" si="63"/>
-        <v>665.74200000000008</v>
-      </c>
-      <c r="Q46" s="11">
-        <f t="shared" si="63"/>
-        <v>688.34999999999991</v>
-      </c>
-      <c r="R46" s="11">
-        <f t="shared" si="63"/>
-        <v>587.94100000000003</v>
-      </c>
-      <c r="S46" s="11">
-        <f t="shared" si="63"/>
-        <v>601.41300000000001</v>
-      </c>
-      <c r="T46" s="11">
-        <f t="shared" si="63"/>
-        <v>685.38400000000001</v>
-      </c>
-      <c r="U46" s="11">
-        <f t="shared" si="63"/>
-        <v>688.92499999999995</v>
-      </c>
-      <c r="V46" s="146">
-        <f t="shared" si="63"/>
-        <v>746.01800000000003</v>
-      </c>
-      <c r="W46" s="14">
-        <f t="shared" ref="W46" si="64">SUM(W41:W45)</f>
-        <v>750.553</v>
-      </c>
-      <c r="X46" s="11"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -18400,15 +18679,20 @@
       <c r="U47" s="10">
         <v>34.880000000000003</v>
       </c>
-      <c r="V47" s="147">
+      <c r="V47" s="10">
         <f t="shared" ref="V47:V51" si="67">F47</f>
         <v>28.047000000000001</v>
       </c>
-      <c r="W47" s="15">
+      <c r="W47" s="150">
         <v>20.722000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X47" s="15">
+        <v>15.648999999999999</v>
+      </c>
+      <c r="Y47" s="150"/>
+      <c r="Z47" s="150"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -18456,15 +18740,20 @@
       <c r="U48" s="10">
         <v>2.234</v>
       </c>
-      <c r="V48" s="147">
+      <c r="V48" s="10">
         <f t="shared" si="67"/>
         <v>1.4770000000000001</v>
       </c>
-      <c r="W48" s="15">
+      <c r="W48" s="150">
         <v>1.651</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" s="15">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="Y48" s="150"/>
+      <c r="Z48" s="150"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -18512,13 +18801,16 @@
       <c r="U49" s="10">
         <v>0</v>
       </c>
-      <c r="V49" s="147">
+      <c r="V49" s="10">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="W49" s="15"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W49" s="150"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="150"/>
+      <c r="Z49" s="150"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -18566,15 +18858,20 @@
       <c r="U50" s="10">
         <v>184.06700000000001</v>
       </c>
-      <c r="V50" s="147">
+      <c r="V50" s="10">
         <f t="shared" si="67"/>
         <v>175.21600000000001</v>
       </c>
-      <c r="W50" s="15">
+      <c r="W50" s="150">
         <v>163.01300000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50" s="15">
+        <v>214.334</v>
+      </c>
+      <c r="Y50" s="150"/>
+      <c r="Z50" s="150"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -18622,15 +18919,20 @@
       <c r="U51" s="10">
         <v>11.414</v>
       </c>
-      <c r="V51" s="147">
+      <c r="V51" s="10">
         <f t="shared" si="67"/>
         <v>10.702</v>
       </c>
-      <c r="W51" s="15">
+      <c r="W51" s="150">
         <v>9.968</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51" s="15">
+        <v>15.645</v>
+      </c>
+      <c r="Y51" s="150"/>
+      <c r="Z51" s="150"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
@@ -18698,33 +19000,45 @@
         <f t="shared" si="68"/>
         <v>921.52</v>
       </c>
-      <c r="V52" s="146">
+      <c r="V52" s="11">
         <f t="shared" si="68"/>
         <v>961.46</v>
       </c>
-      <c r="W52" s="14">
-        <f t="shared" ref="W52" si="69">SUM(W46:W51)</f>
+      <c r="W52" s="148">
+        <f t="shared" ref="W52:Y52" si="69">SUM(W46:W51)</f>
         <v>945.90699999999993</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X52" s="14">
+        <f t="shared" si="69"/>
+        <v>1054.0740000000001</v>
+      </c>
+      <c r="Y52" s="148">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="148">
+        <f t="shared" ref="Z52" si="70">SUM(Z46:Z51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="10">
-        <f t="shared" ref="B53:E53" si="70">B40-B52</f>
+        <f t="shared" ref="B53:E53" si="71">B40-B52</f>
         <v>146.58900000000017</v>
       </c>
       <c r="C53" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1522.53</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2291.0299999999997</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2642.4369999999999</v>
       </c>
       <c r="F53" s="15">
@@ -18732,108 +19046,135 @@
         <v>3560.9650000000001</v>
       </c>
       <c r="N53" s="10">
-        <f t="shared" ref="N53:V53" si="71">N40-N52</f>
+        <f t="shared" ref="N53:V53" si="72">N40-N52</f>
         <v>2291.0299999999997</v>
       </c>
       <c r="O53" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2364.7460000000001</v>
       </c>
       <c r="P53" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2348.8239999999996</v>
       </c>
       <c r="Q53" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2386.6149999999998</v>
       </c>
       <c r="R53" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2642.4369999999999</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2803.1929999999998</v>
       </c>
       <c r="T53" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3035.1379999999999</v>
       </c>
       <c r="U53" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3271.8969999999995</v>
       </c>
-      <c r="V53" s="147">
-        <f t="shared" si="71"/>
+      <c r="V53" s="10">
+        <f t="shared" si="72"/>
         <v>3560.9650000000001</v>
       </c>
-      <c r="W53" s="15">
-        <f t="shared" ref="W53" si="72">W40-W52</f>
+      <c r="W53" s="150">
+        <f t="shared" ref="W53:Y53" si="73">W40-W52</f>
         <v>3861.1720000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="R54" s="119"/>
-      <c r="S54" s="119"/>
-      <c r="T54" s="119"/>
-      <c r="U54" s="119"/>
-      <c r="V54" s="119"/>
-      <c r="W54" s="51"/>
-    </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X53" s="15">
+        <f t="shared" si="73"/>
+        <v>4137.8060000000023</v>
+      </c>
+      <c r="Y53" s="150">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="150">
+        <f t="shared" ref="Z53" si="74">Z40-Z52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R54" s="116"/>
+      <c r="S54" s="116"/>
+      <c r="T54" s="116"/>
+      <c r="U54" s="116"/>
+      <c r="V54" s="116"/>
+      <c r="W54" s="116"/>
+    </row>
+    <row r="55" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="51">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="116">
+        <f>E10/E32</f>
+        <v>6.2538964187582261E-3</v>
+      </c>
+      <c r="F55" s="48">
         <f>F10/F33</f>
         <v>4.5408373582373242E-2</v>
       </c>
-      <c r="P55" s="162">
-        <f t="shared" ref="P55:R55" si="73">(P32+P33)-(O32+O33)</f>
-        <v>92.574999999999818</v>
-      </c>
-      <c r="Q55" s="162">
-        <f t="shared" si="73"/>
-        <v>122.76699999999983</v>
-      </c>
-      <c r="R55" s="162">
-        <f t="shared" si="73"/>
-        <v>-141.43599999999969</v>
-      </c>
-      <c r="S55" s="162">
-        <f t="shared" ref="S55:V55" si="74">(S32+S33)-(R32+R33)</f>
-        <v>282.80599999999959</v>
-      </c>
-      <c r="T55" s="162">
-        <f t="shared" si="74"/>
-        <v>186.77100000000019</v>
-      </c>
-      <c r="U55" s="162">
-        <f t="shared" si="74"/>
-        <v>180.32200000000012</v>
-      </c>
-      <c r="V55" s="162">
-        <f t="shared" si="74"/>
-        <v>390.60500000000002</v>
-      </c>
-      <c r="W55" s="161">
-        <f>(W32+W33)-(V32+V33)</f>
-        <v>193.721</v>
-      </c>
-    </row>
-    <row r="73" spans="6:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F73" s="42"/>
-      <c r="V73" s="150"/>
-      <c r="W73" s="42"/>
-    </row>
-    <row r="74" spans="6:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="116">
+        <f t="shared" ref="P55:Z55" si="75">P10/P32</f>
+        <v>3.360544525538881E-4</v>
+      </c>
+      <c r="Q55" s="116">
+        <f t="shared" si="75"/>
+        <v>1.8331745377073477E-3</v>
+      </c>
+      <c r="R55" s="116">
+        <f t="shared" si="75"/>
+        <v>4.247769901560108E-3</v>
+      </c>
+      <c r="S55" s="116">
+        <f t="shared" si="75"/>
+        <v>1.5335039837579232E-2</v>
+      </c>
+      <c r="T55" s="116">
+        <f t="shared" si="75"/>
+        <v>2.7457494533218805E-2</v>
+      </c>
+      <c r="U55" s="116">
+        <f t="shared" si="75"/>
+        <v>3.4722342378714036E-2</v>
+      </c>
+      <c r="V55" s="116">
+        <f t="shared" si="75"/>
+        <v>5.3437410880491726E-2</v>
+      </c>
+      <c r="W55" s="116">
+        <f t="shared" si="75"/>
+        <v>8.3307070877883416E-2</v>
+      </c>
+      <c r="X55" s="48">
+        <f t="shared" si="75"/>
+        <v>9.0884974222631421E-2</v>
+      </c>
+      <c r="Y55" s="116" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z55" s="116" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="6:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="40"/>
+      <c r="W73" s="155"/>
+      <c r="X73" s="40"/>
+    </row>
+    <row r="74" spans="6:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F74" s="16"/>
-      <c r="V74" s="151"/>
-      <c r="W74" s="16"/>
+      <c r="W74" s="156"/>
+      <c r="X74" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18849,10 +19190,234 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94DE6C0-DA6D-48AB-AC4C-2E31F4D71E11}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>59</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>103</v>
+      </c>
+      <c r="J2">
+        <v>119</v>
+      </c>
+      <c r="K2">
+        <v>132</v>
+      </c>
+      <c r="L2">
+        <v>143</v>
+      </c>
+      <c r="M2">
+        <v>155</v>
+      </c>
+      <c r="N2">
+        <v>161</v>
+      </c>
+      <c r="O2">
+        <v>181</v>
+      </c>
+      <c r="P2">
+        <v>221</v>
+      </c>
+      <c r="Q2">
+        <v>262</v>
+      </c>
+      <c r="R2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="3">
+        <f>F2/B2-1</f>
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:R3" si="0">G2/C2-1</f>
+        <v>2.2777777777777777</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7058823529411766</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6818181818181817</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2372881355932202</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.50485436893203883</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3712121212121211</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69032258064516139</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83229813664596275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5">
+        <v>421</v>
+      </c>
+      <c r="O5">
+        <v>453</v>
+      </c>
+      <c r="P5">
+        <v>497</v>
+      </c>
+      <c r="Q5">
+        <v>554</v>
+      </c>
+      <c r="R5">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7">
+        <v>302</v>
+      </c>
+      <c r="O7">
+        <v>330</v>
+      </c>
+      <c r="P7">
+        <v>375</v>
+      </c>
+      <c r="Q7">
+        <v>427</v>
+      </c>
+      <c r="R7">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
@@ -18863,7 +19428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DEC602-D7CA-409B-9962-CCABA92C723B}">
   <dimension ref="A1:L2067"/>
   <sheetViews>
@@ -27923,11 +28488,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:P188"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
@@ -27952,14 +28517,14 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="133"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
@@ -27968,16 +28533,16 @@
       <c r="B2" s="18">
         <v>21.59</v>
       </c>
-      <c r="C2" s="121">
+      <c r="C2" s="118">
         <f>B2/B3-1</f>
         <v>5.4714215925744991E-2</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -27986,26 +28551,26 @@
       <c r="B3" s="18">
         <v>20.47</v>
       </c>
-      <c r="C3" s="121">
+      <c r="C3" s="118">
         <f>B3/B4-1</f>
         <v>-9.7044552271724815E-2</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="61" t="s">
         <v>113</v>
       </c>
       <c r="P3" t="s">
@@ -28019,31 +28584,31 @@
       <c r="B4" s="18">
         <v>22.67</v>
       </c>
-      <c r="C4" s="121">
+      <c r="C4" s="118">
         <f t="shared" ref="C4:C67" si="0">B4/B5-1</f>
         <v>-1.2630662020905903E-2</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="62">
         <f>$H$19-3*$H$23</f>
         <v>-0.30196155743324171</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="63">
         <f>G4</f>
         <v>-0.30196155743324171</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="64">
         <f>COUNTIF(C:C,"&lt;="&amp;G4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="67" t="str">
+      <c r="J4" s="64" t="str">
         <f>"Less than "&amp;TEXT(G4,"0,00%")</f>
         <v>Less than -30,20%</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="65">
         <f>I4/$H$31</f>
         <v>0</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="66">
         <f>K4</f>
         <v>0</v>
       </c>
@@ -28055,31 +28620,31 @@
       <c r="B5" s="18">
         <v>22.96</v>
       </c>
-      <c r="C5" s="121">
+      <c r="C5" s="118">
         <f t="shared" si="0"/>
         <v>-2.1729682746631784E-3</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="67">
         <f>$H$19-2.4*$H$23</f>
         <v>-0.2395044379089247</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="68">
         <f>G5</f>
         <v>-0.2395044379089247</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="69">
         <f>COUNTIFS(C:C,"&lt;="&amp;G5,C:C,"&gt;"&amp;G4)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="73" t="str">
+      <c r="J5" s="70" t="str">
         <f t="shared" ref="J5:J14" si="1">TEXT(G4,"0,00%")&amp;" to "&amp;TEXT(G5,"0,00%")</f>
         <v>-30,20% to -23,95%</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="71">
         <f>I5/$H$31</f>
         <v>0</v>
       </c>
-      <c r="L5" s="75">
+      <c r="L5" s="72">
         <f>L4+K5</f>
         <v>0</v>
       </c>
@@ -28091,31 +28656,31 @@
       <c r="B6" s="18">
         <v>23.01</v>
       </c>
-      <c r="C6" s="121">
+      <c r="C6" s="118">
         <f t="shared" si="0"/>
         <v>-4.8387096774193505E-2</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="67">
         <f>$H$19-1.8*$H$23</f>
         <v>-0.17704731838460766</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="68">
         <f t="shared" ref="H6:H14" si="2">G6</f>
         <v>-0.17704731838460766</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="69">
         <f t="shared" ref="I6:I14" si="3">COUNTIFS(C:C,"&lt;="&amp;G6,C:C,"&gt;"&amp;G5)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="73" t="str">
+      <c r="J6" s="70" t="str">
         <f t="shared" si="1"/>
         <v>-23,95% to -17,70%</v>
       </c>
-      <c r="K6" s="74">
+      <c r="K6" s="71">
         <f t="shared" ref="K6:K15" si="4">I6/$H$31</f>
         <v>0</v>
       </c>
-      <c r="L6" s="75">
+      <c r="L6" s="72">
         <f t="shared" ref="L6:L15" si="5">L5+K6</f>
         <v>0</v>
       </c>
@@ -28127,31 +28692,31 @@
       <c r="B7" s="18">
         <v>24.18</v>
       </c>
-      <c r="C7" s="121">
+      <c r="C7" s="118">
         <f t="shared" si="0"/>
         <v>2.9374201787994991E-2</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="67">
         <f>$H$19-1.2*$H$23</f>
         <v>-0.11459019886029058</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="68">
         <f t="shared" si="2"/>
         <v>-0.11459019886029058</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="69">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="J7" s="73" t="str">
+      <c r="J7" s="70" t="str">
         <f t="shared" si="1"/>
         <v>-17,70% to -11,46%</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="71">
         <f t="shared" si="4"/>
         <v>9.9447513812154692E-2</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="72">
         <f t="shared" si="5"/>
         <v>9.9447513812154692E-2</v>
       </c>
@@ -28163,31 +28728,31 @@
       <c r="B8" s="18">
         <v>23.49</v>
       </c>
-      <c r="C8" s="121">
+      <c r="C8" s="118">
         <f t="shared" si="0"/>
         <v>-9.7926301922953152E-2</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="67">
         <f>$H$19-0.6*$H$23</f>
         <v>-5.2133079335973533E-2</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="68">
         <f t="shared" si="2"/>
         <v>-5.2133079335973533E-2</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="69">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="J8" s="73" t="str">
+      <c r="J8" s="70" t="str">
         <f t="shared" si="1"/>
         <v>-11,46% to -5,21%</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="71">
         <f t="shared" si="4"/>
         <v>0.18784530386740331</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="72">
         <f t="shared" si="5"/>
         <v>0.287292817679558</v>
       </c>
@@ -28199,31 +28764,31 @@
       <c r="B9" s="18">
         <v>26.040001</v>
       </c>
-      <c r="C9" s="121">
+      <c r="C9" s="118">
         <f t="shared" si="0"/>
         <v>4.4524709185719935E-2</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="67">
         <f>$H$19</f>
         <v>1.0324040188343523E-2</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="68">
         <f t="shared" si="2"/>
         <v>1.0324040188343523E-2</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="69">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="J9" s="73" t="str">
+      <c r="J9" s="70" t="str">
         <f t="shared" si="1"/>
         <v>-5,21% to 1,03%</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="71">
         <f t="shared" si="4"/>
         <v>0.25966850828729282</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="72">
         <f t="shared" si="5"/>
         <v>0.54696132596685088</v>
       </c>
@@ -28235,31 +28800,31 @@
       <c r="B10" s="18">
         <v>24.93</v>
       </c>
-      <c r="C10" s="121">
+      <c r="C10" s="118">
         <f t="shared" si="0"/>
         <v>8.5328736844960229E-2</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="67">
         <f>$H$19+0.6*$H$23</f>
         <v>7.2781159712660581E-2</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="68">
         <f t="shared" si="2"/>
         <v>7.2781159712660581E-2</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="69">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="J10" s="73" t="str">
+      <c r="J10" s="70" t="str">
         <f t="shared" si="1"/>
         <v>1,03% to 7,28%</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="71">
         <f t="shared" si="4"/>
         <v>0.287292817679558</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="72">
         <f t="shared" si="5"/>
         <v>0.83425414364640882</v>
       </c>
@@ -28271,31 +28836,31 @@
       <c r="B11" s="18">
         <v>22.969999000000001</v>
       </c>
-      <c r="C11" s="121">
+      <c r="C11" s="118">
         <f t="shared" si="0"/>
         <v>-6.0147378881040048E-2</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="67">
         <f>$H$19+1.2*$H$23</f>
         <v>0.13523827923697762</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="68">
         <f t="shared" si="2"/>
         <v>0.13523827923697762</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="69">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="J11" s="73" t="str">
+      <c r="J11" s="70" t="str">
         <f t="shared" si="1"/>
         <v>7,28% to 13,52%</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="71">
         <f t="shared" si="4"/>
         <v>0.11602209944751381</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="72">
         <f t="shared" si="5"/>
         <v>0.95027624309392267</v>
       </c>
@@ -28307,31 +28872,31 @@
       <c r="B12" s="18">
         <v>24.440000999999999</v>
       </c>
-      <c r="C12" s="121">
+      <c r="C12" s="118">
         <f t="shared" si="0"/>
         <v>2.4611157695288988E-3</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="67">
         <f>$H$19+1.8*$H$23</f>
         <v>0.19769539876129469</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="68">
         <f t="shared" si="2"/>
         <v>0.19769539876129469</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="69">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J12" s="73" t="str">
+      <c r="J12" s="70" t="str">
         <f t="shared" si="1"/>
         <v>13,52% to 19,77%</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="71">
         <f t="shared" si="4"/>
         <v>2.7624309392265192E-2</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="72">
         <f t="shared" si="5"/>
         <v>0.9779005524861879</v>
       </c>
@@ -28343,31 +28908,31 @@
       <c r="B13" s="18">
         <v>24.379999000000002</v>
       </c>
-      <c r="C13" s="121">
+      <c r="C13" s="118">
         <f t="shared" si="0"/>
         <v>0.43243237367802601</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="67">
         <f>$H$19+2.4*$H$23</f>
         <v>0.26015251828561176</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="68">
         <f t="shared" si="2"/>
         <v>0.26015251828561176</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="69">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J13" s="73" t="str">
+      <c r="J13" s="70" t="str">
         <f t="shared" si="1"/>
         <v>19,77% to 26,02%</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="71">
         <f t="shared" si="4"/>
         <v>2.2099447513812154E-2</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L13" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -28379,31 +28944,31 @@
       <c r="B14" s="18">
         <v>17.02</v>
       </c>
-      <c r="C14" s="121">
+      <c r="C14" s="118">
         <f t="shared" si="0"/>
         <v>4.0978593272171127E-2</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="67">
         <f>$H$19+3*$H$23</f>
         <v>0.3226096378099288</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="68">
         <f t="shared" si="2"/>
         <v>0.3226096378099288</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="69">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J14" s="73" t="str">
+      <c r="J14" s="70" t="str">
         <f t="shared" si="1"/>
         <v>26,02% to 32,26%</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="71">
         <f t="shared" si="4"/>
         <v>1.1049723756906077E-2</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="72">
         <f t="shared" si="5"/>
         <v>1.011049723756906</v>
       </c>
@@ -28415,27 +28980,27 @@
       <c r="B15" s="18">
         <v>16.350000000000001</v>
       </c>
-      <c r="C15" s="121">
+      <c r="C15" s="118">
         <f t="shared" si="0"/>
         <v>-2.5625803002037761E-2</v>
       </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77" t="s">
+      <c r="G15" s="73"/>
+      <c r="H15" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="77">
+      <c r="I15" s="74">
         <f>COUNTIF(C:C,"&gt;"&amp;G14)</f>
         <v>3</v>
       </c>
-      <c r="J15" s="77" t="str">
+      <c r="J15" s="74" t="str">
         <f>"Greater than "&amp;TEXT(G14,"0,00%")</f>
         <v>Greater than 32,26%</v>
       </c>
-      <c r="K15" s="79">
+      <c r="K15" s="76">
         <f t="shared" si="4"/>
         <v>1.6574585635359115E-2</v>
       </c>
-      <c r="L15" s="79">
+      <c r="L15" s="76">
         <f t="shared" si="5"/>
         <v>1.0276243093922652</v>
       </c>
@@ -28447,12 +29012,12 @@
       <c r="B16" s="18">
         <v>16.780000999999999</v>
       </c>
-      <c r="C16" s="121">
+      <c r="C16" s="118">
         <f t="shared" si="0"/>
         <v>1.1933770883052475E-3</v>
       </c>
-      <c r="G16" s="111"/>
-      <c r="L16" s="83"/>
+      <c r="G16" s="108"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -28461,15 +29026,15 @@
       <c r="B17" s="18">
         <v>16.760000000000002</v>
       </c>
-      <c r="C17" s="121">
+      <c r="C17" s="118">
         <f t="shared" si="0"/>
         <v>4.8811013767209088E-2</v>
       </c>
-      <c r="G17" s="137" t="s">
+      <c r="G17" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="138"/>
-      <c r="L17" s="83"/>
+      <c r="H17" s="144"/>
+      <c r="L17" s="80"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -28478,13 +29043,13 @@
       <c r="B18" s="18">
         <v>15.98</v>
       </c>
-      <c r="C18" s="121">
+      <c r="C18" s="118">
         <f t="shared" si="0"/>
         <v>-6.9306930693069368E-2</v>
       </c>
-      <c r="G18" s="139"/>
-      <c r="H18" s="140"/>
-      <c r="L18" s="83"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="146"/>
+      <c r="L18" s="80"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -28493,17 +29058,17 @@
       <c r="B19" s="18">
         <v>17.170000000000002</v>
       </c>
-      <c r="C19" s="121">
+      <c r="C19" s="118">
         <f t="shared" si="0"/>
         <v>-1.378518093049963E-2</v>
       </c>
-      <c r="G19" s="116" t="s">
+      <c r="G19" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="117">
+      <c r="H19" s="114">
         <v>1.0324040188343523E-2</v>
       </c>
-      <c r="L19" s="83"/>
+      <c r="L19" s="80"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -28512,17 +29077,17 @@
       <c r="B20" s="18">
         <v>17.41</v>
       </c>
-      <c r="C20" s="121">
+      <c r="C20" s="118">
         <f t="shared" si="0"/>
         <v>-4.3406645966667767E-2</v>
       </c>
-      <c r="G20" s="116" t="s">
+      <c r="G20" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="117">
+      <c r="H20" s="114">
         <v>7.7373352223140783E-3</v>
       </c>
-      <c r="L20" s="83"/>
+      <c r="L20" s="80"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -28531,17 +29096,17 @@
       <c r="B21" s="18">
         <v>18.200001</v>
       </c>
-      <c r="C21" s="121">
+      <c r="C21" s="118">
         <f t="shared" si="0"/>
         <v>2.4198142937535305E-2</v>
       </c>
-      <c r="G21" s="116" t="s">
+      <c r="G21" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="117">
+      <c r="H21" s="114">
         <v>5.0668357930372387E-3</v>
       </c>
-      <c r="L21" s="83"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -28550,15 +29115,15 @@
       <c r="B22" s="18">
         <v>17.77</v>
       </c>
-      <c r="C22" s="121">
+      <c r="C22" s="118">
         <f t="shared" si="0"/>
         <v>-0.12333497779970404</v>
       </c>
-      <c r="G22" s="116" t="s">
+      <c r="G22" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="117"/>
-      <c r="L22" s="83"/>
+      <c r="H22" s="114"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -28567,17 +29132,17 @@
       <c r="B23" s="18">
         <v>20.27</v>
       </c>
-      <c r="C23" s="121">
+      <c r="C23" s="118">
         <f t="shared" si="0"/>
         <v>5.5729111680775434E-2</v>
       </c>
-      <c r="G23" s="116" t="s">
+      <c r="G23" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="117">
+      <c r="H23" s="114">
         <v>0.10409519920719509</v>
       </c>
-      <c r="L23" s="83"/>
+      <c r="L23" s="80"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -28586,17 +29151,17 @@
       <c r="B24" s="18">
         <v>19.200001</v>
       </c>
-      <c r="C24" s="121">
+      <c r="C24" s="118">
         <f t="shared" si="0"/>
         <v>-6.2957491459248338E-2</v>
       </c>
-      <c r="G24" s="116" t="s">
+      <c r="G24" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="117">
+      <c r="H24" s="114">
         <v>1.0835810497985631E-2</v>
       </c>
-      <c r="L24" s="83"/>
+      <c r="L24" s="80"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -28605,17 +29170,17 @@
       <c r="B25" s="18">
         <v>20.49</v>
       </c>
-      <c r="C25" s="121">
+      <c r="C25" s="118">
         <f t="shared" si="0"/>
         <v>4.1687849517030751E-2</v>
       </c>
-      <c r="G25" s="116" t="s">
+      <c r="G25" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="118">
+      <c r="H25" s="115">
         <v>4.4499182088364986</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -28624,17 +29189,17 @@
       <c r="B26" s="18">
         <v>19.670000000000002</v>
       </c>
-      <c r="C26" s="121">
+      <c r="C26" s="118">
         <f t="shared" si="0"/>
         <v>4.1291743848160145E-2</v>
       </c>
-      <c r="G26" s="116" t="s">
+      <c r="G26" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="118">
+      <c r="H26" s="115">
         <v>1.4086978788475739</v>
       </c>
-      <c r="L26" s="83"/>
+      <c r="L26" s="80"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -28643,17 +29208,17 @@
       <c r="B27" s="18">
         <v>18.889999</v>
       </c>
-      <c r="C27" s="121">
+      <c r="C27" s="118">
         <f t="shared" si="0"/>
         <v>0.25348367617783674</v>
       </c>
-      <c r="G27" s="116" t="s">
+      <c r="G27" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="117">
+      <c r="H27" s="114">
         <v>0.69982901111427775</v>
       </c>
-      <c r="L27" s="83"/>
+      <c r="L27" s="80"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
@@ -28662,17 +29227,17 @@
       <c r="B28" s="18">
         <v>15.07</v>
       </c>
-      <c r="C28" s="121">
+      <c r="C28" s="118">
         <f t="shared" si="0"/>
         <v>-6.4556234354051223E-2</v>
       </c>
-      <c r="G28" s="116" t="s">
+      <c r="G28" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="117">
+      <c r="H28" s="114">
         <v>-0.17586206896551726</v>
       </c>
-      <c r="L28" s="83"/>
+      <c r="L28" s="80"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -28681,17 +29246,17 @@
       <c r="B29" s="18">
         <v>16.110001</v>
       </c>
-      <c r="C29" s="121">
+      <c r="C29" s="118">
         <f t="shared" si="0"/>
         <v>-7.2004604147200224E-2</v>
       </c>
-      <c r="G29" s="116" t="s">
+      <c r="G29" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="117">
+      <c r="H29" s="114">
         <v>0.5239669421487605</v>
       </c>
-      <c r="L29" s="83"/>
+      <c r="L29" s="80"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
@@ -28700,17 +29265,17 @@
       <c r="B30" s="18">
         <v>17.360001</v>
       </c>
-      <c r="C30" s="121">
+      <c r="C30" s="118">
         <f t="shared" si="0"/>
         <v>4.5153519256260211E-2</v>
       </c>
-      <c r="G30" s="116" t="s">
+      <c r="G30" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="118">
+      <c r="H30" s="115">
         <v>1.8686512740901775</v>
       </c>
-      <c r="L30" s="83"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
@@ -28719,17 +29284,17 @@
       <c r="B31" s="18">
         <v>16.610001</v>
       </c>
-      <c r="C31" s="121">
+      <c r="C31" s="118">
         <f t="shared" si="0"/>
         <v>3.8125062500000029E-2</v>
       </c>
-      <c r="G31" s="115" t="s">
+      <c r="G31" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="97">
+      <c r="H31" s="94">
         <v>181</v>
       </c>
-      <c r="L31" s="83"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
@@ -28738,12 +29303,12 @@
       <c r="B32" s="18">
         <v>16</v>
       </c>
-      <c r="C32" s="121">
+      <c r="C32" s="118">
         <f t="shared" si="0"/>
         <v>0.13234253361641901</v>
       </c>
-      <c r="G32" s="114"/>
-      <c r="L32" s="83"/>
+      <c r="G32" s="111"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
@@ -28752,24 +29317,24 @@
       <c r="B33" s="18">
         <v>14.13</v>
       </c>
-      <c r="C33" s="121">
+      <c r="C33" s="118">
         <f t="shared" si="0"/>
         <v>-7.8277886497064575E-2</v>
       </c>
-      <c r="G33" s="112"/>
-      <c r="H33" s="81" t="s">
+      <c r="G33" s="109"/>
+      <c r="H33" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="81" t="s">
+      <c r="I33" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="81" t="s">
+      <c r="J33" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="K33" s="82" t="s">
+      <c r="K33" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="L33" s="83"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
@@ -28778,30 +29343,30 @@
       <c r="B34" s="18">
         <v>15.33</v>
       </c>
-      <c r="C34" s="121">
+      <c r="C34" s="118">
         <f t="shared" si="0"/>
         <v>1.3218770654329193E-2</v>
       </c>
-      <c r="G34" s="109" t="s">
+      <c r="G34" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="74">
+      <c r="H34" s="71">
         <f>AVERAGEIF(C:C,"&gt;0")</f>
         <v>7.8537793421395052E-2</v>
       </c>
-      <c r="I34" s="72">
+      <c r="I34" s="69">
         <f>COUNTIF(C:C,"&gt;0")</f>
         <v>99</v>
       </c>
-      <c r="J34" s="74">
+      <c r="J34" s="71">
         <f>I34/$H$31</f>
         <v>0.54696132596685088</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="72">
         <f>J34*H34</f>
         <v>4.2957135628276855E-2</v>
       </c>
-      <c r="L34" s="83"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
@@ -28810,30 +29375,30 @@
       <c r="B35" s="18">
         <v>15.13</v>
       </c>
-      <c r="C35" s="121">
+      <c r="C35" s="118">
         <f t="shared" si="0"/>
         <v>-3.2938076416336726E-3</v>
       </c>
-      <c r="G35" s="109" t="s">
+      <c r="G35" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="74">
+      <c r="H35" s="71">
         <f>AVERAGEIF(C:C,"&lt;0")</f>
         <v>-6.9104728023490519E-2</v>
       </c>
-      <c r="I35" s="72">
+      <c r="I35" s="69">
         <f>COUNTIF(C:C,"&lt;0")</f>
         <v>87</v>
       </c>
-      <c r="J35" s="74">
+      <c r="J35" s="71">
         <f>I35/$H$31</f>
         <v>0.48066298342541436</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="72">
         <f t="shared" ref="K35:K36" si="6">J35*H35</f>
         <v>-3.321608474057279E-2</v>
       </c>
-      <c r="L35" s="83"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
@@ -28842,29 +29407,29 @@
       <c r="B36" s="18">
         <v>15.18</v>
       </c>
-      <c r="C36" s="121">
+      <c r="C36" s="118">
         <f t="shared" si="0"/>
         <v>4.4735030970405987E-2</v>
       </c>
-      <c r="G36" s="113" t="s">
+      <c r="G36" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="77">
+      <c r="H36" s="74">
         <v>0</v>
       </c>
-      <c r="I36" s="77">
+      <c r="I36" s="74">
         <f>COUNTIF(C:C,"0")</f>
         <v>0</v>
       </c>
-      <c r="J36" s="78">
+      <c r="J36" s="75">
         <f>I36/$H$31</f>
         <v>0</v>
       </c>
-      <c r="K36" s="79">
+      <c r="K36" s="76">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L36" s="83"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
@@ -28873,16 +29438,16 @@
       <c r="B37" s="18">
         <v>14.53</v>
       </c>
-      <c r="C37" s="121">
+      <c r="C37" s="118">
         <f t="shared" si="0"/>
         <v>9.0277777777776347E-3</v>
       </c>
-      <c r="G37" s="114"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="83"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="80"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
@@ -28891,26 +29456,26 @@
       <c r="B38" s="18">
         <v>14.4</v>
       </c>
-      <c r="C38" s="121">
+      <c r="C38" s="118">
         <f t="shared" si="0"/>
         <v>-6.5541855937702787E-2</v>
       </c>
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="81" t="s">
+      <c r="I38" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="J38" s="81" t="s">
+      <c r="J38" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="81" t="s">
+      <c r="K38" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="L38" s="82" t="s">
+      <c r="L38" s="79" t="s">
         <v>126</v>
       </c>
     </row>
@@ -28921,30 +29486,30 @@
       <c r="B39" s="18">
         <v>15.41</v>
       </c>
-      <c r="C39" s="121">
+      <c r="C39" s="118">
         <f t="shared" si="0"/>
         <v>-0.15329674981885988</v>
       </c>
-      <c r="G39" s="110">
+      <c r="G39" s="107">
         <v>1</v>
       </c>
-      <c r="H39" s="74">
+      <c r="H39" s="71">
         <f>$H$19+($G39*$H$23)</f>
         <v>0.11441923939553862</v>
       </c>
-      <c r="I39" s="74">
+      <c r="I39" s="71">
         <f>$H$19-($G39*$H$23)</f>
         <v>-9.3771159018851566E-2</v>
       </c>
-      <c r="J39" s="72">
+      <c r="J39" s="69">
         <f>COUNTIFS(C:C,"&lt;"&amp;H39,C:C,"&gt;"&amp;I39)</f>
         <v>145</v>
       </c>
-      <c r="K39" s="74">
+      <c r="K39" s="71">
         <f>J39/$H$31</f>
         <v>0.80110497237569056</v>
       </c>
-      <c r="L39" s="75">
+      <c r="L39" s="72">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -28955,30 +29520,30 @@
       <c r="B40" s="18">
         <v>18.200001</v>
       </c>
-      <c r="C40" s="121">
+      <c r="C40" s="118">
         <f t="shared" si="0"/>
         <v>2.1897923744970349E-2</v>
       </c>
-      <c r="G40" s="110">
+      <c r="G40" s="107">
         <v>2</v>
       </c>
-      <c r="H40" s="74">
+      <c r="H40" s="71">
         <f>$H$19+($G40*$H$23)</f>
         <v>0.2185144386027337</v>
       </c>
-      <c r="I40" s="74">
+      <c r="I40" s="71">
         <f>$H$19-($G40*$H$23)</f>
         <v>-0.19786635822604667</v>
       </c>
-      <c r="J40" s="72">
+      <c r="J40" s="69">
         <f>COUNTIFS(C:C,"&lt;"&amp;H40,C:C,"&gt;"&amp;I40)</f>
         <v>177</v>
       </c>
-      <c r="K40" s="74">
+      <c r="K40" s="71">
         <f>J40/$H$31</f>
         <v>0.97790055248618779</v>
       </c>
-      <c r="L40" s="75">
+      <c r="L40" s="72">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -28989,30 +29554,30 @@
       <c r="B41" s="18">
         <v>17.809999000000001</v>
       </c>
-      <c r="C41" s="121">
+      <c r="C41" s="118">
         <f t="shared" si="0"/>
         <v>8.3992635423006723E-2</v>
       </c>
-      <c r="G41" s="110">
+      <c r="G41" s="107">
         <v>3</v>
       </c>
-      <c r="H41" s="74">
+      <c r="H41" s="71">
         <f>$H$19+($G41*$H$23)</f>
         <v>0.3226096378099288</v>
       </c>
-      <c r="I41" s="74">
+      <c r="I41" s="71">
         <f>$H$19-($G41*$H$23)</f>
         <v>-0.30196155743324171</v>
       </c>
-      <c r="J41" s="72">
+      <c r="J41" s="69">
         <f>COUNTIFS(C:C,"&lt;"&amp;H41,C:C,"&gt;"&amp;I41)</f>
         <v>183</v>
       </c>
-      <c r="K41" s="74">
+      <c r="K41" s="71">
         <f>J41/$H$31</f>
         <v>1.011049723756906</v>
       </c>
-      <c r="L41" s="85">
+      <c r="L41" s="82">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -29023,12 +29588,12 @@
       <c r="B42" s="18">
         <v>16.43</v>
       </c>
-      <c r="C42" s="121">
+      <c r="C42" s="118">
         <f t="shared" si="0"/>
         <v>1.8292682926830395E-3</v>
       </c>
-      <c r="G42" s="70"/>
-      <c r="L42" s="85"/>
+      <c r="G42" s="67"/>
+      <c r="L42" s="82"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
@@ -29037,18 +29602,18 @@
       <c r="B43" s="18">
         <v>16.399999999999999</v>
       </c>
-      <c r="C43" s="121">
+      <c r="C43" s="118">
         <f t="shared" si="0"/>
         <v>6.9100391134289341E-2</v>
       </c>
-      <c r="G43" s="134" t="s">
+      <c r="G43" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="136"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="142"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
@@ -29057,28 +29622,28 @@
       <c r="B44" s="18">
         <v>15.34</v>
       </c>
-      <c r="C44" s="121">
+      <c r="C44" s="118">
         <f t="shared" si="0"/>
         <v>6.5231572080892697E-4</v>
       </c>
-      <c r="G44" s="86">
+      <c r="G44" s="83">
         <v>0.01</v>
       </c>
-      <c r="H44" s="87">
+      <c r="H44" s="84">
         <f t="shared" ref="H44:H58" si="7">_xlfn.PERCENTILE.INC(C:C,G44)</f>
         <v>-0.15577281050067249</v>
       </c>
-      <c r="I44" s="88">
+      <c r="I44" s="85">
         <v>0.2</v>
       </c>
-      <c r="J44" s="87">
+      <c r="J44" s="84">
         <f t="shared" ref="J44:J56" si="8">_xlfn.PERCENTILE.INC(C:C,I44)</f>
         <v>-7.1801566579634435E-2</v>
       </c>
-      <c r="K44" s="88">
+      <c r="K44" s="85">
         <v>0.85</v>
       </c>
-      <c r="L44" s="89">
+      <c r="L44" s="86">
         <f t="shared" ref="L44:L58" si="9">_xlfn.PERCENTILE.INC(C:C,K44)</f>
         <v>8.7748893805309702E-2</v>
       </c>
@@ -29090,28 +29655,28 @@
       <c r="B45" s="18">
         <v>15.33</v>
       </c>
-      <c r="C45" s="121">
+      <c r="C45" s="118">
         <f t="shared" si="0"/>
         <v>9.2658588738417702E-2</v>
       </c>
-      <c r="G45" s="90">
+      <c r="G45" s="87">
         <v>0.02</v>
       </c>
-      <c r="H45" s="91">
+      <c r="H45" s="88">
         <f t="shared" si="7"/>
         <v>-0.15193499611682915</v>
       </c>
-      <c r="I45" s="92">
+      <c r="I45" s="89">
         <v>0.25</v>
       </c>
-      <c r="J45" s="91">
+      <c r="J45" s="88">
         <f t="shared" si="8"/>
         <v>-6.2930299672620704E-2</v>
       </c>
-      <c r="K45" s="92">
+      <c r="K45" s="89">
         <v>0.86</v>
       </c>
-      <c r="L45" s="93">
+      <c r="L45" s="90">
         <f t="shared" si="9"/>
         <v>8.9345454895718879E-2</v>
       </c>
@@ -29123,28 +29688,28 @@
       <c r="B46" s="18">
         <v>14.03</v>
       </c>
-      <c r="C46" s="121">
+      <c r="C46" s="118">
         <f t="shared" si="0"/>
         <v>-0.13926375087507681</v>
       </c>
-      <c r="G46" s="90">
+      <c r="G46" s="87">
         <v>0.03</v>
       </c>
-      <c r="H46" s="91">
+      <c r="H46" s="88">
         <f t="shared" si="7"/>
         <v>-0.14518649309289436</v>
       </c>
-      <c r="I46" s="92">
+      <c r="I46" s="89">
         <v>0.3</v>
       </c>
-      <c r="J46" s="91">
+      <c r="J46" s="88">
         <f t="shared" si="8"/>
         <v>-4.4842239379774329E-2</v>
       </c>
-      <c r="K46" s="92">
+      <c r="K46" s="89">
         <v>0.87</v>
       </c>
-      <c r="L46" s="93">
+      <c r="L46" s="90">
         <f t="shared" si="9"/>
         <v>9.2648942991630623E-2</v>
       </c>
@@ -29156,28 +29721,28 @@
       <c r="B47" s="18">
         <v>16.299999</v>
       </c>
-      <c r="C47" s="121">
+      <c r="C47" s="118">
         <f t="shared" si="0"/>
         <v>8.5219640479360814E-2</v>
       </c>
-      <c r="G47" s="90">
+      <c r="G47" s="87">
         <v>0.04</v>
       </c>
-      <c r="H47" s="91">
+      <c r="H47" s="88">
         <f t="shared" si="7"/>
         <v>-0.14046836614215991</v>
       </c>
-      <c r="I47" s="92">
+      <c r="I47" s="89">
         <v>0.35</v>
       </c>
-      <c r="J47" s="91">
+      <c r="J47" s="88">
         <f t="shared" si="8"/>
         <v>-3.2393539088661938E-2</v>
       </c>
-      <c r="K47" s="92">
+      <c r="K47" s="89">
         <v>0.88</v>
       </c>
-      <c r="L47" s="93">
+      <c r="L47" s="90">
         <f t="shared" si="9"/>
         <v>9.6729308853215401E-2</v>
       </c>
@@ -29189,28 +29754,28 @@
       <c r="B48" s="18">
         <v>15.02</v>
       </c>
-      <c r="C48" s="121">
+      <c r="C48" s="118">
         <f t="shared" si="0"/>
         <v>3.4435261707989051E-2</v>
       </c>
-      <c r="G48" s="90">
+      <c r="G48" s="87">
         <v>0.05</v>
       </c>
-      <c r="H48" s="91">
+      <c r="H48" s="88">
         <f t="shared" si="7"/>
         <v>-0.13693248017884035</v>
       </c>
-      <c r="I48" s="92">
+      <c r="I48" s="89">
         <v>0.4</v>
       </c>
-      <c r="J48" s="91">
+      <c r="J48" s="88">
         <f t="shared" si="8"/>
         <v>-1.4884979702300294E-2</v>
       </c>
-      <c r="K48" s="92">
+      <c r="K48" s="89">
         <v>0.89</v>
       </c>
-      <c r="L48" s="93">
+      <c r="L48" s="90">
         <f t="shared" si="9"/>
         <v>0.10013127669502167</v>
       </c>
@@ -29222,28 +29787,28 @@
       <c r="B49" s="18">
         <v>14.52</v>
       </c>
-      <c r="C49" s="121">
+      <c r="C49" s="118">
         <f t="shared" si="0"/>
         <v>6.3736263736263732E-2</v>
       </c>
-      <c r="G49" s="90">
+      <c r="G49" s="87">
         <v>0.06</v>
       </c>
-      <c r="H49" s="91">
+      <c r="H49" s="88">
         <f t="shared" si="7"/>
         <v>-0.12972480212779652</v>
       </c>
-      <c r="I49" s="92">
+      <c r="I49" s="89">
         <v>0.45</v>
       </c>
-      <c r="J49" s="91">
+      <c r="J49" s="88">
         <f t="shared" si="8"/>
         <v>-2.3592226982056819E-3</v>
       </c>
-      <c r="K49" s="92">
+      <c r="K49" s="89">
         <v>0.9</v>
       </c>
-      <c r="L49" s="93">
+      <c r="L49" s="90">
         <f t="shared" si="9"/>
         <v>0.10615216890751411</v>
       </c>
@@ -29255,28 +29820,28 @@
       <c r="B50" s="18">
         <v>13.65</v>
       </c>
-      <c r="C50" s="121">
+      <c r="C50" s="118">
         <f t="shared" si="0"/>
         <v>0.16567036720751482</v>
       </c>
-      <c r="G50" s="90">
+      <c r="G50" s="87">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H50" s="91">
+      <c r="H50" s="88">
         <f t="shared" si="7"/>
         <v>-0.12199367196690837</v>
       </c>
-      <c r="I50" s="92">
+      <c r="I50" s="89">
         <v>0.5</v>
       </c>
-      <c r="J50" s="91">
+      <c r="J50" s="88">
         <f t="shared" si="8"/>
         <v>3.5489698754295196E-3</v>
       </c>
-      <c r="K50" s="92">
+      <c r="K50" s="89">
         <v>0.91</v>
       </c>
-      <c r="L50" s="93">
+      <c r="L50" s="90">
         <f t="shared" si="9"/>
         <v>0.11744264142907022</v>
       </c>
@@ -29288,28 +29853,28 @@
       <c r="B51" s="18">
         <v>11.71</v>
       </c>
-      <c r="C51" s="121">
+      <c r="C51" s="118">
         <f t="shared" si="0"/>
         <v>0.23263157894736852</v>
       </c>
-      <c r="G51" s="90">
+      <c r="G51" s="87">
         <v>0.08</v>
       </c>
-      <c r="H51" s="91">
+      <c r="H51" s="88">
         <f t="shared" si="7"/>
         <v>-0.12077857622912676</v>
       </c>
-      <c r="I51" s="92">
+      <c r="I51" s="89">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J51" s="91">
+      <c r="J51" s="88">
         <f t="shared" si="8"/>
         <v>1.6202433823097856E-2</v>
       </c>
-      <c r="K51" s="92">
+      <c r="K51" s="89">
         <v>0.92</v>
       </c>
-      <c r="L51" s="93">
+      <c r="L51" s="90">
         <f t="shared" si="9"/>
         <v>0.12690748828605822</v>
       </c>
@@ -29321,28 +29886,28 @@
       <c r="B52" s="18">
         <v>9.5</v>
       </c>
-      <c r="C52" s="121">
+      <c r="C52" s="118">
         <f t="shared" si="0"/>
         <v>0.28205128205128194</v>
       </c>
-      <c r="G52" s="90">
+      <c r="G52" s="87">
         <v>0.09</v>
       </c>
-      <c r="H52" s="91">
+      <c r="H52" s="88">
         <f t="shared" si="7"/>
         <v>-0.11855919583023088</v>
       </c>
-      <c r="I52" s="92">
+      <c r="I52" s="89">
         <v>0.6</v>
       </c>
-      <c r="J52" s="91">
+      <c r="J52" s="88">
         <f t="shared" si="8"/>
         <v>2.4198142937535305E-2</v>
       </c>
-      <c r="K52" s="92">
+      <c r="K52" s="89">
         <v>0.93</v>
       </c>
-      <c r="L52" s="93">
+      <c r="L52" s="90">
         <f t="shared" si="9"/>
         <v>0.14049594015645436</v>
       </c>
@@ -29354,28 +29919,28 @@
       <c r="B53" s="18">
         <v>7.41</v>
       </c>
-      <c r="C53" s="121">
+      <c r="C53" s="118">
         <f t="shared" si="0"/>
         <v>-4.387096774193544E-2</v>
       </c>
-      <c r="G53" s="90">
+      <c r="G53" s="87">
         <v>0.1</v>
       </c>
-      <c r="H53" s="91">
+      <c r="H53" s="88">
         <f t="shared" si="7"/>
         <v>-0.10906328444972918</v>
       </c>
-      <c r="I53" s="92">
+      <c r="I53" s="89">
         <v>0.65</v>
       </c>
-      <c r="J53" s="91">
+      <c r="J53" s="88">
         <f t="shared" si="8"/>
         <v>3.8402191035583955E-2</v>
       </c>
-      <c r="K53" s="92">
+      <c r="K53" s="89">
         <v>0.94</v>
       </c>
-      <c r="L53" s="93">
+      <c r="L53" s="90">
         <f t="shared" si="9"/>
         <v>0.14231505653632257</v>
       </c>
@@ -29387,28 +29952,28 @@
       <c r="B54" s="18">
         <v>7.75</v>
       </c>
-      <c r="C54" s="121">
+      <c r="C54" s="118">
         <f t="shared" si="0"/>
         <v>-5.2567237163814173E-2</v>
       </c>
-      <c r="G54" s="90">
+      <c r="G54" s="87">
         <v>0.11</v>
       </c>
-      <c r="H54" s="91">
+      <c r="H54" s="88">
         <f t="shared" si="7"/>
         <v>-9.7770038041743515E-2</v>
       </c>
-      <c r="I54" s="92">
+      <c r="I54" s="89">
         <v>0.7</v>
       </c>
-      <c r="J54" s="91">
+      <c r="J54" s="88">
         <f t="shared" si="8"/>
         <v>4.3372125401062722E-2</v>
       </c>
-      <c r="K54" s="92">
+      <c r="K54" s="89">
         <v>0.95</v>
       </c>
-      <c r="L54" s="93">
+      <c r="L54" s="90">
         <f t="shared" si="9"/>
         <v>0.16143631970943356</v>
       </c>
@@ -29420,28 +29985,28 @@
       <c r="B55" s="18">
         <v>8.18</v>
       </c>
-      <c r="C55" s="121">
+      <c r="C55" s="118">
         <f t="shared" si="0"/>
         <v>-7.1509648127128345E-2</v>
       </c>
-      <c r="G55" s="90">
+      <c r="G55" s="87">
         <v>0.12</v>
       </c>
-      <c r="H55" s="91">
+      <c r="H55" s="88">
         <f t="shared" si="7"/>
         <v>-9.6952135130901423E-2</v>
       </c>
-      <c r="I55" s="92">
+      <c r="I55" s="89">
         <v>0.75</v>
       </c>
-      <c r="J55" s="91">
+      <c r="J55" s="88">
         <f t="shared" si="8"/>
         <v>5.5361642602520578E-2</v>
       </c>
-      <c r="K55" s="92">
+      <c r="K55" s="89">
         <v>0.96</v>
       </c>
-      <c r="L55" s="93">
+      <c r="L55" s="90">
         <f t="shared" si="9"/>
         <v>0.22959226294764878</v>
       </c>
@@ -29453,28 +30018,28 @@
       <c r="B56" s="18">
         <v>8.81</v>
       </c>
-      <c r="C56" s="121">
+      <c r="C56" s="118">
         <f t="shared" si="0"/>
         <v>8.8998763906056988E-2</v>
       </c>
-      <c r="G56" s="90">
+      <c r="G56" s="87">
         <v>0.13</v>
       </c>
-      <c r="H56" s="91">
+      <c r="H56" s="88">
         <f t="shared" si="7"/>
         <v>-9.1164761931798441E-2</v>
       </c>
-      <c r="I56" s="92">
+      <c r="I56" s="89">
         <v>0.8</v>
       </c>
-      <c r="J56" s="91">
+      <c r="J56" s="88">
         <f t="shared" si="8"/>
         <v>7.0063782168313438E-2</v>
       </c>
-      <c r="K56" s="92">
+      <c r="K56" s="89">
         <v>0.97</v>
       </c>
-      <c r="L56" s="93">
+      <c r="L56" s="90">
         <f t="shared" si="9"/>
         <v>0.24422542127031757</v>
       </c>
@@ -29486,23 +30051,23 @@
       <c r="B57" s="18">
         <v>8.09</v>
       </c>
-      <c r="C57" s="121">
+      <c r="C57" s="118">
         <f t="shared" si="0"/>
         <v>-4.2603550295857939E-2</v>
       </c>
-      <c r="G57" s="90">
+      <c r="G57" s="87">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H57" s="91">
+      <c r="H57" s="88">
         <f t="shared" si="7"/>
         <v>-9.0317089480707519E-2</v>
       </c>
-      <c r="I57" s="92"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="92">
+      <c r="I57" s="89"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="89">
         <v>0.98</v>
       </c>
-      <c r="L57" s="93">
+      <c r="L57" s="90">
         <f t="shared" si="9"/>
         <v>0.27408505269142452</v>
       </c>
@@ -29514,23 +30079,23 @@
       <c r="B58" s="18">
         <v>8.4499999999999993</v>
       </c>
-      <c r="C58" s="121">
+      <c r="C58" s="118">
         <f t="shared" si="0"/>
         <v>3.0487804878048808E-2</v>
       </c>
-      <c r="G58" s="94">
+      <c r="G58" s="91">
         <v>0.15</v>
       </c>
-      <c r="H58" s="95">
+      <c r="H58" s="92">
         <f t="shared" si="7"/>
         <v>-8.8419732441471638E-2</v>
       </c>
-      <c r="I58" s="96"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="98">
+      <c r="I58" s="93"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="95">
         <v>0.99</v>
       </c>
-      <c r="L58" s="99">
+      <c r="L58" s="96">
         <f t="shared" si="9"/>
         <v>0.37532882446236554</v>
       </c>
@@ -29542,7 +30107,7 @@
       <c r="B59" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C59" s="121">
+      <c r="C59" s="118">
         <f t="shared" si="0"/>
         <v>4.0609137055837463E-2</v>
       </c>
@@ -29554,14 +30119,14 @@
       <c r="B60" s="18">
         <v>7.88</v>
       </c>
-      <c r="C60" s="121">
+      <c r="C60" s="118">
         <f t="shared" si="0"/>
         <v>7.210884353741509E-2</v>
       </c>
-      <c r="G60" s="100" t="s">
+      <c r="G60" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="H60" s="101">
+      <c r="H60" s="98">
         <v>0.11</v>
       </c>
     </row>
@@ -29572,14 +30137,14 @@
       <c r="B61" s="18">
         <v>7.35</v>
       </c>
-      <c r="C61" s="121">
+      <c r="C61" s="118">
         <f t="shared" si="0"/>
         <v>-0.11764705882352944</v>
       </c>
-      <c r="G61" s="102" t="s">
+      <c r="G61" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="103">
+      <c r="H61" s="100">
         <v>0.35</v>
       </c>
     </row>
@@ -29590,11 +30155,11 @@
       <c r="B62" s="18">
         <v>8.33</v>
       </c>
-      <c r="C62" s="121">
+      <c r="C62" s="118">
         <f t="shared" si="0"/>
         <v>2.9666254635352329E-2</v>
       </c>
-      <c r="G62" s="104"/>
+      <c r="G62" s="101"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
@@ -29603,14 +30168,14 @@
       <c r="B63" s="18">
         <v>8.09</v>
       </c>
-      <c r="C63" s="121">
+      <c r="C63" s="118">
         <f t="shared" si="0"/>
         <v>-0.12065217391304339</v>
       </c>
-      <c r="G63" s="100" t="s">
+      <c r="G63" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="105">
+      <c r="H63" s="102">
         <v>22.66</v>
       </c>
     </row>
@@ -29621,14 +30186,14 @@
       <c r="B64" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C64" s="121">
+      <c r="C64" s="118">
         <f t="shared" si="0"/>
         <v>0.22503328894806929</v>
       </c>
-      <c r="G64" s="106" t="s">
+      <c r="G64" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="107">
+      <c r="H64" s="104">
         <f>H63*(1-H60)</f>
         <v>20.167400000000001</v>
       </c>
@@ -29640,14 +30205,14 @@
       <c r="B65" s="18">
         <v>7.51</v>
       </c>
-      <c r="C65" s="121">
+      <c r="C65" s="118">
         <f t="shared" si="0"/>
         <v>-0.1070154577883472</v>
       </c>
-      <c r="G65" s="102" t="s">
+      <c r="G65" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="H65" s="108">
+      <c r="H65" s="105">
         <f>H63*(1+H61)</f>
         <v>30.591000000000001</v>
       </c>
@@ -29659,7 +30224,7 @@
       <c r="B66" s="18">
         <v>8.41</v>
       </c>
-      <c r="C66" s="121">
+      <c r="C66" s="118">
         <f t="shared" si="0"/>
         <v>0.11390728476821188</v>
       </c>
@@ -29671,7 +30236,7 @@
       <c r="B67" s="18">
         <v>7.55</v>
       </c>
-      <c r="C67" s="121">
+      <c r="C67" s="118">
         <f t="shared" si="0"/>
         <v>7.5498575498575526E-2</v>
       </c>
@@ -29683,7 +30248,7 @@
       <c r="B68" s="18">
         <v>7.02</v>
       </c>
-      <c r="C68" s="121">
+      <c r="C68" s="118">
         <f t="shared" ref="C68:C131" si="10">B68/B69-1</f>
         <v>8.6206896551723755E-3</v>
       </c>
@@ -29695,7 +30260,7 @@
       <c r="B69" s="18">
         <v>6.96</v>
       </c>
-      <c r="C69" s="121">
+      <c r="C69" s="118">
         <f t="shared" si="10"/>
         <v>8.7499999999999911E-2</v>
       </c>
@@ -29707,7 +30272,7 @@
       <c r="B70" s="18">
         <v>6.4</v>
       </c>
-      <c r="C70" s="121">
+      <c r="C70" s="118">
         <f t="shared" si="10"/>
         <v>-3.1152647975076775E-3</v>
       </c>
@@ -29719,7 +30284,7 @@
       <c r="B71" s="18">
         <v>6.42</v>
       </c>
-      <c r="C71" s="121">
+      <c r="C71" s="118">
         <f t="shared" si="10"/>
         <v>2.0667726550079424E-2</v>
       </c>
@@ -29731,7 +30296,7 @@
       <c r="B72" s="18">
         <v>6.29</v>
       </c>
-      <c r="C72" s="121">
+      <c r="C72" s="118">
         <f t="shared" si="10"/>
         <v>-8.8405797101449357E-2</v>
       </c>
@@ -29743,7 +30308,7 @@
       <c r="B73" s="18">
         <v>6.9</v>
       </c>
-      <c r="C73" s="121">
+      <c r="C73" s="118">
         <f t="shared" si="10"/>
         <v>-2.9535864978902926E-2</v>
       </c>
@@ -29755,7 +30320,7 @@
       <c r="B74" s="18">
         <v>7.11</v>
       </c>
-      <c r="C74" s="121">
+      <c r="C74" s="118">
         <f t="shared" si="10"/>
         <v>-7.1801566579634435E-2</v>
       </c>
@@ -29767,7 +30332,7 @@
       <c r="B75" s="18">
         <v>7.66</v>
       </c>
-      <c r="C75" s="121">
+      <c r="C75" s="118">
         <f t="shared" si="10"/>
         <v>5.2197802197802234E-2</v>
       </c>
@@ -29779,7 +30344,7 @@
       <c r="B76" s="18">
         <v>7.28</v>
       </c>
-      <c r="C76" s="121">
+      <c r="C76" s="118">
         <f t="shared" si="10"/>
         <v>-1.4884979702300294E-2</v>
       </c>
@@ -29791,7 +30356,7 @@
       <c r="B77" s="18">
         <v>7.39</v>
       </c>
-      <c r="C77" s="121">
+      <c r="C77" s="118">
         <f t="shared" si="10"/>
         <v>-0.12128418549346021</v>
       </c>
@@ -29803,7 +30368,7 @@
       <c r="B78" s="18">
         <v>8.41</v>
       </c>
-      <c r="C78" s="121">
+      <c r="C78" s="118">
         <f t="shared" si="10"/>
         <v>6.0529634300126256E-2</v>
       </c>
@@ -29815,7 +30380,7 @@
       <c r="B79" s="18">
         <v>7.93</v>
       </c>
-      <c r="C79" s="121">
+      <c r="C79" s="118">
         <f t="shared" si="10"/>
         <v>-8.2175925925926041E-2</v>
       </c>
@@ -29827,7 +30392,7 @@
       <c r="B80" s="18">
         <v>8.64</v>
       </c>
-      <c r="C80" s="121">
+      <c r="C80" s="118">
         <f t="shared" si="10"/>
         <v>4.2219541616405509E-2</v>
       </c>
@@ -29839,7 +30404,7 @@
       <c r="B81" s="18">
         <v>8.2899999999999991</v>
       </c>
-      <c r="C81" s="121">
+      <c r="C81" s="118">
         <f t="shared" si="10"/>
         <v>0.10092961487383789</v>
       </c>
@@ -29851,7 +30416,7 @@
       <c r="B82" s="18">
         <v>7.53</v>
       </c>
-      <c r="C82" s="121">
+      <c r="C82" s="118">
         <f t="shared" si="10"/>
         <v>-7.6073619631901845E-2</v>
       </c>
@@ -29863,7 +30428,7 @@
       <c r="B83" s="18">
         <v>8.15</v>
       </c>
-      <c r="C83" s="121">
+      <c r="C83" s="118">
         <f t="shared" si="10"/>
         <v>2.4600246002459691E-3</v>
       </c>
@@ -29875,7 +30440,7 @@
       <c r="B84" s="18">
         <v>8.1300000000000008</v>
       </c>
-      <c r="C84" s="121">
+      <c r="C84" s="118">
         <f t="shared" si="10"/>
         <v>9.864864864864864E-2</v>
       </c>
@@ -29887,7 +30452,7 @@
       <c r="B85" s="18">
         <v>7.4</v>
       </c>
-      <c r="C85" s="121">
+      <c r="C85" s="118">
         <f t="shared" si="10"/>
         <v>-4.8843187660668419E-2</v>
       </c>
@@ -29899,7 +30464,7 @@
       <c r="B86" s="18">
         <v>7.78</v>
       </c>
-      <c r="C86" s="121">
+      <c r="C86" s="118">
         <f t="shared" si="10"/>
         <v>-1.2836970474967568E-3</v>
       </c>
@@ -29911,7 +30476,7 @@
       <c r="B87" s="18">
         <v>7.79</v>
       </c>
-      <c r="C87" s="121">
+      <c r="C87" s="118">
         <f t="shared" si="10"/>
         <v>5.270270270270272E-2</v>
       </c>
@@ -29923,7 +30488,7 @@
       <c r="B88" s="18">
         <v>7.4</v>
       </c>
-      <c r="C88" s="121">
+      <c r="C88" s="118">
         <f t="shared" si="10"/>
         <v>-6.801007556675065E-2</v>
       </c>
@@ -29935,7 +30500,7 @@
       <c r="B89" s="18">
         <v>7.94</v>
       </c>
-      <c r="C89" s="121">
+      <c r="C89" s="118">
         <f t="shared" si="10"/>
         <v>-6.6980023501762576E-2</v>
       </c>
@@ -29947,7 +30512,7 @@
       <c r="B90" s="18">
         <v>8.51</v>
       </c>
-      <c r="C90" s="121">
+      <c r="C90" s="118">
         <f t="shared" si="10"/>
         <v>-0.14127144298688199</v>
       </c>
@@ -29959,7 +30524,7 @@
       <c r="B91" s="18">
         <v>9.91</v>
       </c>
-      <c r="C91" s="121">
+      <c r="C91" s="118">
         <f t="shared" si="10"/>
         <v>-0.13449781659388638</v>
       </c>
@@ -29971,7 +30536,7 @@
       <c r="B92" s="18">
         <v>11.45</v>
       </c>
-      <c r="C92" s="121">
+      <c r="C92" s="118">
         <f t="shared" si="10"/>
         <v>0.106280193236715</v>
       </c>
@@ -29983,7 +30548,7 @@
       <c r="B93" s="18">
         <v>10.35</v>
       </c>
-      <c r="C93" s="121">
+      <c r="C93" s="118">
         <f t="shared" si="10"/>
         <v>5.1829268292682862E-2</v>
       </c>
@@ -29995,7 +30560,7 @@
       <c r="B94" s="18">
         <v>9.84</v>
       </c>
-      <c r="C94" s="121">
+      <c r="C94" s="118">
         <f t="shared" si="10"/>
         <v>8.8495575221239076E-2</v>
       </c>
@@ -30007,7 +30572,7 @@
       <c r="B95" s="18">
         <v>9.0399999999999991</v>
       </c>
-      <c r="C95" s="121">
+      <c r="C95" s="118">
         <f t="shared" si="10"/>
         <v>-0.11111111111111116</v>
       </c>
@@ -30019,7 +30584,7 @@
       <c r="B96" s="18">
         <v>10.17</v>
       </c>
-      <c r="C96" s="121">
+      <c r="C96" s="118">
         <f t="shared" si="10"/>
         <v>9.7087378640776656E-2</v>
       </c>
@@ -30031,7 +30596,7 @@
       <c r="B97" s="18">
         <v>9.27</v>
       </c>
-      <c r="C97" s="121">
+      <c r="C97" s="118">
         <f t="shared" si="10"/>
         <v>-9.0284592737978397E-2</v>
       </c>
@@ -30043,7 +30608,7 @@
       <c r="B98" s="18">
         <v>10.19</v>
       </c>
-      <c r="C98" s="121">
+      <c r="C98" s="118">
         <f t="shared" si="10"/>
         <v>0.23665048543689315</v>
       </c>
@@ -30055,7 +30620,7 @@
       <c r="B99" s="18">
         <v>8.24</v>
       </c>
-      <c r="C99" s="121">
+      <c r="C99" s="118">
         <f t="shared" si="10"/>
         <v>-2.421307506053183E-3</v>
       </c>
@@ -30067,7 +30632,7 @@
       <c r="B100" s="18">
         <v>8.26</v>
       </c>
-      <c r="C100" s="121">
+      <c r="C100" s="118">
         <f t="shared" si="10"/>
         <v>-7.606263982102901E-2</v>
       </c>
@@ -30079,7 +30644,7 @@
       <c r="B101" s="18">
         <v>8.94</v>
       </c>
-      <c r="C101" s="121">
+      <c r="C101" s="118">
         <f t="shared" si="10"/>
         <v>1.0169491525423791E-2</v>
       </c>
@@ -30091,7 +30656,7 @@
       <c r="B102" s="18">
         <v>8.85</v>
       </c>
-      <c r="C102" s="121">
+      <c r="C102" s="118">
         <f t="shared" si="10"/>
         <v>9.5297029702970271E-2</v>
       </c>
@@ -30103,7 +30668,7 @@
       <c r="B103" s="18">
         <v>8.08</v>
       </c>
-      <c r="C103" s="121">
+      <c r="C103" s="118">
         <f t="shared" si="10"/>
         <v>-3.1175059952038398E-2</v>
       </c>
@@ -30115,7 +30680,7 @@
       <c r="B104" s="18">
         <v>8.34</v>
       </c>
-      <c r="C104" s="121">
+      <c r="C104" s="118">
         <f t="shared" si="10"/>
         <v>-0.12025316455696211</v>
       </c>
@@ -30127,7 +30692,7 @@
       <c r="B105" s="18">
         <v>9.48</v>
       </c>
-      <c r="C105" s="121">
+      <c r="C105" s="118">
         <f t="shared" si="10"/>
         <v>-8.846153846153848E-2</v>
       </c>
@@ -30139,7 +30704,7 @@
       <c r="B106" s="18">
         <v>10.4</v>
       </c>
-      <c r="C106" s="121">
+      <c r="C106" s="118">
         <f t="shared" si="10"/>
         <v>-0.13043478260869568</v>
       </c>
@@ -30151,7 +30716,7 @@
       <c r="B107" s="18">
         <v>11.96</v>
       </c>
-      <c r="C107" s="121">
+      <c r="C107" s="118">
         <f t="shared" si="10"/>
         <v>-3.7037037037036979E-2</v>
       </c>
@@ -30163,7 +30728,7 @@
       <c r="B108" s="18">
         <v>12.42</v>
       </c>
-      <c r="C108" s="121">
+      <c r="C108" s="118">
         <f t="shared" si="10"/>
         <v>-2.2047244094488105E-2</v>
       </c>
@@ -30175,7 +30740,7 @@
       <c r="B109" s="18">
         <v>12.7</v>
       </c>
-      <c r="C109" s="121">
+      <c r="C109" s="118">
         <f t="shared" si="10"/>
         <v>-8.1706435285611057E-2</v>
       </c>
@@ -30187,7 +30752,7 @@
       <c r="B110" s="18">
         <v>13.83</v>
       </c>
-      <c r="C110" s="121">
+      <c r="C110" s="118">
         <f t="shared" si="10"/>
         <v>6.6306861989205768E-2</v>
       </c>
@@ -30199,7 +30764,7 @@
       <c r="B111" s="18">
         <v>12.97</v>
       </c>
-      <c r="C111" s="121">
+      <c r="C111" s="118">
         <f t="shared" si="10"/>
         <v>1.1700468018720711E-2</v>
       </c>
@@ -30211,7 +30776,7 @@
       <c r="B112" s="18">
         <v>12.82</v>
       </c>
-      <c r="C112" s="121">
+      <c r="C112" s="118">
         <f t="shared" si="10"/>
         <v>0.12554872695346786</v>
       </c>
@@ -30223,7 +30788,7 @@
       <c r="B113" s="18">
         <v>11.39</v>
       </c>
-      <c r="C113" s="121">
+      <c r="C113" s="118">
         <f t="shared" si="10"/>
         <v>3.9233576642335732E-2</v>
       </c>
@@ -30235,7 +30800,7 @@
       <c r="B114" s="18">
         <v>10.96</v>
       </c>
-      <c r="C114" s="121">
+      <c r="C114" s="118">
         <f t="shared" si="10"/>
         <v>-4.4463818657367038E-2</v>
       </c>
@@ -30247,7 +30812,7 @@
       <c r="B115" s="18">
         <v>11.47</v>
       </c>
-      <c r="C115" s="121">
+      <c r="C115" s="118">
         <f t="shared" si="10"/>
         <v>4.0834845735027381E-2</v>
       </c>
@@ -30259,7 +30824,7 @@
       <c r="B116" s="18">
         <v>11.02</v>
       </c>
-      <c r="C116" s="121">
+      <c r="C116" s="118">
         <f t="shared" si="10"/>
         <v>-0.16070068545316074</v>
       </c>
@@ -30271,7 +30836,7 @@
       <c r="B117" s="18">
         <v>13.13</v>
       </c>
-      <c r="C117" s="121">
+      <c r="C117" s="118">
         <f t="shared" si="10"/>
         <v>1.4683153013910433E-2</v>
       </c>
@@ -30283,7 +30848,7 @@
       <c r="B118" s="18">
         <v>12.94</v>
       </c>
-      <c r="C118" s="121">
+      <c r="C118" s="118">
         <f t="shared" si="10"/>
         <v>1.8095987411486991E-2</v>
       </c>
@@ -30295,7 +30860,7 @@
       <c r="B119" s="18">
         <v>12.71</v>
       </c>
-      <c r="C119" s="121">
+      <c r="C119" s="118">
         <f t="shared" si="10"/>
         <v>-6.0606060606060552E-2</v>
       </c>
@@ -30307,7 +30872,7 @@
       <c r="B120" s="18">
         <v>13.53</v>
       </c>
-      <c r="C120" s="121">
+      <c r="C120" s="118">
         <f t="shared" si="10"/>
         <v>-0.15490318550905691</v>
       </c>
@@ -30319,7 +30884,7 @@
       <c r="B121" s="18">
         <v>16.010000000000002</v>
       </c>
-      <c r="C121" s="121">
+      <c r="C121" s="118">
         <f t="shared" si="10"/>
         <v>-3.3212502005585898E-2</v>
       </c>
@@ -30331,7 +30896,7 @@
       <c r="B122" s="18">
         <v>16.559999000000001</v>
       </c>
-      <c r="C122" s="121">
+      <c r="C122" s="118">
         <f t="shared" si="10"/>
         <v>-9.0609560165269554E-2</v>
       </c>
@@ -30343,7 +30908,7 @@
       <c r="B123" s="18">
         <v>18.209999</v>
       </c>
-      <c r="C123" s="121">
+      <c r="C123" s="118">
         <f t="shared" si="10"/>
         <v>-3.8034918119387195E-2</v>
       </c>
@@ -30355,7 +30920,7 @@
       <c r="B124" s="18">
         <v>18.93</v>
       </c>
-      <c r="C124" s="121">
+      <c r="C124" s="118">
         <f t="shared" si="10"/>
         <v>-6.8205145236367448E-3</v>
       </c>
@@ -30367,7 +30932,7 @@
       <c r="B125" s="18">
         <v>19.059999000000001</v>
       </c>
-      <c r="C125" s="121">
+      <c r="C125" s="118">
         <f t="shared" si="10"/>
         <v>6.3356913233532097E-3</v>
       </c>
@@ -30379,7 +30944,7 @@
       <c r="B126" s="18">
         <v>18.940000999999999</v>
       </c>
-      <c r="C126" s="121">
+      <c r="C126" s="118">
         <f t="shared" si="10"/>
         <v>-2.1074288724974855E-3</v>
       </c>
@@ -30391,7 +30956,7 @@
       <c r="B127" s="18">
         <v>18.98</v>
       </c>
-      <c r="C127" s="121">
+      <c r="C127" s="118">
         <f t="shared" si="10"/>
         <v>-9.747983369092561E-2</v>
       </c>
@@ -30403,7 +30968,7 @@
       <c r="B128" s="18">
         <v>21.030000999999999</v>
       </c>
-      <c r="C128" s="121">
+      <c r="C128" s="118">
         <f t="shared" si="10"/>
         <v>-1.7748668846333526E-2</v>
       </c>
@@ -30415,7 +30980,7 @@
       <c r="B129" s="18">
         <v>21.41</v>
       </c>
-      <c r="C129" s="121">
+      <c r="C129" s="118">
         <f t="shared" si="10"/>
         <v>-6.219886114761275E-2</v>
       </c>
@@ -30427,7 +30992,7 @@
       <c r="B130" s="18">
         <v>22.83</v>
       </c>
-      <c r="C130" s="121">
+      <c r="C130" s="118">
         <f t="shared" si="10"/>
         <v>-0.12192307692307702</v>
       </c>
@@ -30439,7 +31004,7 @@
       <c r="B131" s="18">
         <v>26</v>
       </c>
-      <c r="C131" s="121">
+      <c r="C131" s="118">
         <f t="shared" si="10"/>
         <v>4.6368239813301404E-3</v>
       </c>
@@ -30451,7 +31016,7 @@
       <c r="B132" s="18">
         <v>25.879999000000002</v>
       </c>
-      <c r="C132" s="121">
+      <c r="C132" s="118">
         <f t="shared" ref="C132:C187" si="11">B132/B133-1</f>
         <v>5.9353213262382409E-2</v>
       </c>
@@ -30463,7 +31028,7 @@
       <c r="B133" s="18">
         <v>24.43</v>
       </c>
-      <c r="C133" s="121">
+      <c r="C133" s="118">
         <f t="shared" si="11"/>
         <v>1.7916666666666581E-2</v>
       </c>
@@ -30475,7 +31040,7 @@
       <c r="B134" s="18">
         <v>24</v>
       </c>
-      <c r="C134" s="121">
+      <c r="C134" s="118">
         <f t="shared" si="11"/>
         <v>2.1276595744680771E-2</v>
       </c>
@@ -30487,7 +31052,7 @@
       <c r="B135" s="18">
         <v>23.5</v>
       </c>
-      <c r="C135" s="121">
+      <c r="C135" s="118">
         <f t="shared" si="11"/>
         <v>-3.4114262227702308E-2</v>
       </c>
@@ -30499,7 +31064,7 @@
       <c r="B136" s="18">
         <v>24.33</v>
       </c>
-      <c r="C136" s="121">
+      <c r="C136" s="118">
         <f t="shared" si="11"/>
         <v>-0.14810921386937037</v>
       </c>
@@ -30511,7 +31076,7 @@
       <c r="B137" s="18">
         <v>28.559999000000001</v>
       </c>
-      <c r="C137" s="121">
+      <c r="C137" s="118">
         <f t="shared" si="11"/>
         <v>-5.2246605790546852E-3</v>
       </c>
@@ -30523,7 +31088,7 @@
       <c r="B138" s="18">
         <v>28.709999</v>
       </c>
-      <c r="C138" s="121">
+      <c r="C138" s="118">
         <f t="shared" si="11"/>
         <v>9.2465673802676118E-2</v>
       </c>
@@ -30535,7 +31100,7 @@
       <c r="B139" s="18">
         <v>26.280000999999999</v>
       </c>
-      <c r="C139" s="121">
+      <c r="C139" s="118">
         <f t="shared" si="11"/>
         <v>-1.3513438945699674E-2</v>
       </c>
@@ -30547,7 +31112,7 @@
       <c r="B140" s="18">
         <v>26.639999</v>
       </c>
-      <c r="C140" s="121">
+      <c r="C140" s="118">
         <f t="shared" si="11"/>
         <v>3.6172696856191955E-2</v>
       </c>
@@ -30559,7 +31124,7 @@
       <c r="B141" s="18">
         <v>25.709999</v>
       </c>
-      <c r="C141" s="121">
+      <c r="C141" s="118">
         <f t="shared" si="11"/>
         <v>7.0803790087463403E-2</v>
       </c>
@@ -30571,7 +31136,7 @@
       <c r="B142" s="18">
         <v>24.01</v>
       </c>
-      <c r="C142" s="121">
+      <c r="C142" s="118">
         <f t="shared" si="11"/>
         <v>-3.5742971887550046E-2</v>
       </c>
@@ -30583,7 +31148,7 @@
       <c r="B143" s="18">
         <v>24.9</v>
       </c>
-      <c r="C143" s="121">
+      <c r="C143" s="118">
         <f t="shared" si="11"/>
         <v>0.14115490375801998</v>
       </c>
@@ -30595,7 +31160,7 @@
       <c r="B144" s="18">
         <v>21.82</v>
       </c>
-      <c r="C144" s="121">
+      <c r="C144" s="118">
         <f t="shared" si="11"/>
         <v>5.0668357930372387E-3</v>
       </c>
@@ -30607,7 +31172,7 @@
       <c r="B145" s="18">
         <v>21.709999</v>
       </c>
-      <c r="C145" s="121">
+      <c r="C145" s="118">
         <f t="shared" si="11"/>
         <v>-4.5850529383335559E-3</v>
       </c>
@@ -30619,7 +31184,7 @@
       <c r="B146" s="18">
         <v>21.809999000000001</v>
       </c>
-      <c r="C146" s="121">
+      <c r="C146" s="118">
         <f t="shared" si="11"/>
         <v>2.0589517052432615E-2</v>
       </c>
@@ -30631,7 +31196,7 @@
       <c r="B147" s="18">
         <v>21.370000999999998</v>
       </c>
-      <c r="C147" s="121">
+      <c r="C147" s="118">
         <f t="shared" si="11"/>
         <v>-8.2438811402369749E-2</v>
       </c>
@@ -30643,7 +31208,7 @@
       <c r="B148" s="18">
         <v>23.290001</v>
       </c>
-      <c r="C148" s="121">
+      <c r="C148" s="118">
         <f t="shared" si="11"/>
         <v>-4.7054007894680505E-2</v>
       </c>
@@ -30655,7 +31220,7 @@
       <c r="B149" s="18">
         <v>24.440000999999999</v>
       </c>
-      <c r="C149" s="121">
+      <c r="C149" s="118">
         <f t="shared" si="11"/>
         <v>-8.7378637513867208E-2</v>
       </c>
@@ -30667,7 +31232,7 @@
       <c r="B150" s="18">
         <v>26.780000999999999</v>
       </c>
-      <c r="C150" s="121">
+      <c r="C150" s="118">
         <f t="shared" si="11"/>
         <v>5.5577451494779107E-2</v>
       </c>
@@ -30679,7 +31244,7 @@
       <c r="B151" s="18">
         <v>25.370000999999998</v>
       </c>
-      <c r="C151" s="121">
+      <c r="C151" s="118">
         <f t="shared" si="11"/>
         <v>2.8374584515605816E-2</v>
       </c>
@@ -30691,7 +31256,7 @@
       <c r="B152" s="18">
         <v>24.67</v>
       </c>
-      <c r="C152" s="121">
+      <c r="C152" s="118">
         <f t="shared" si="11"/>
         <v>2.6633332224996753E-2</v>
       </c>
@@ -30703,7 +31268,7 @@
       <c r="B153" s="18">
         <v>24.030000999999999</v>
       </c>
-      <c r="C153" s="121">
+      <c r="C153" s="118">
         <f t="shared" si="11"/>
         <v>4.7058821478918489E-2</v>
       </c>
@@ -30715,7 +31280,7 @@
       <c r="B154" s="18">
         <v>22.950001</v>
       </c>
-      <c r="C154" s="121">
+      <c r="C154" s="118">
         <f t="shared" si="11"/>
         <v>0.10602414457831322</v>
       </c>
@@ -30727,7 +31292,7 @@
       <c r="B155" s="18">
         <v>20.75</v>
       </c>
-      <c r="C155" s="121">
+      <c r="C155" s="118">
         <f t="shared" si="11"/>
         <v>3.3366533864541914E-2</v>
       </c>
@@ -30739,7 +31304,7 @@
       <c r="B156" s="18">
         <v>20.079999999999998</v>
       </c>
-      <c r="C156" s="121">
+      <c r="C156" s="118">
         <f t="shared" si="11"/>
         <v>1.6708860759493627E-2</v>
       </c>
@@ -30751,7 +31316,7 @@
       <c r="B157" s="18">
         <v>19.75</v>
       </c>
-      <c r="C157" s="121">
+      <c r="C157" s="118">
         <f t="shared" si="11"/>
         <v>-0.14279517609395942</v>
       </c>
@@ -30763,7 +31328,7 @@
       <c r="B158" s="18">
         <v>23.040001</v>
       </c>
-      <c r="C158" s="121">
+      <c r="C158" s="118">
         <f t="shared" si="11"/>
         <v>-1.5805168731311436E-2</v>
       </c>
@@ -30775,7 +31340,7 @@
       <c r="B159" s="18">
         <v>23.41</v>
       </c>
-      <c r="C159" s="121">
+      <c r="C159" s="118">
         <f t="shared" si="11"/>
         <v>4.183360221778365E-2</v>
       </c>
@@ -30787,7 +31352,7 @@
       <c r="B160" s="18">
         <v>22.469999000000001</v>
       </c>
-      <c r="C160" s="121">
+      <c r="C160" s="118">
         <f t="shared" si="11"/>
         <v>-6.5307900777541561E-2</v>
       </c>
@@ -30799,7 +31364,7 @@
       <c r="B161" s="18">
         <v>24.040001</v>
       </c>
-      <c r="C161" s="121">
+      <c r="C161" s="118">
         <f t="shared" si="11"/>
         <v>4.2045990463805749E-2</v>
       </c>
@@ -30811,7 +31376,7 @@
       <c r="B162" s="18">
         <v>23.07</v>
       </c>
-      <c r="C162" s="121">
+      <c r="C162" s="118">
         <f t="shared" si="11"/>
         <v>2.1700620017714778E-2</v>
       </c>
@@ -30823,7 +31388,7 @@
       <c r="B163" s="18">
         <v>22.58</v>
       </c>
-      <c r="C163" s="121">
+      <c r="C163" s="118">
         <f t="shared" si="11"/>
         <v>-7.1546052631578982E-2</v>
       </c>
@@ -30835,7 +31400,7 @@
       <c r="B164" s="18">
         <v>24.32</v>
       </c>
-      <c r="C164" s="121">
+      <c r="C164" s="118">
         <f t="shared" si="11"/>
         <v>-9.6582466567607828E-2</v>
       </c>
@@ -30847,7 +31412,7 @@
       <c r="B165" s="18">
         <v>26.92</v>
       </c>
-      <c r="C165" s="121">
+      <c r="C165" s="118">
         <f t="shared" si="11"/>
         <v>0.12400830379923589</v>
       </c>
@@ -30859,7 +31424,7 @@
       <c r="B166" s="18">
         <v>23.950001</v>
       </c>
-      <c r="C166" s="121">
+      <c r="C166" s="118">
         <f t="shared" si="11"/>
         <v>2.0920920502092155E-3</v>
       </c>
@@ -30871,7 +31436,7 @@
       <c r="B167" s="18">
         <v>23.9</v>
       </c>
-      <c r="C167" s="121">
+      <c r="C167" s="118">
         <f t="shared" si="11"/>
         <v>-0.17586206896551726</v>
       </c>
@@ -30883,7 +31448,7 @@
       <c r="B168" s="18">
         <v>29</v>
       </c>
-      <c r="C168" s="121">
+      <c r="C168" s="118">
         <f t="shared" si="11"/>
         <v>-9.1193983077405227E-2</v>
       </c>
@@ -30895,7 +31460,7 @@
       <c r="B169" s="18">
         <v>31.91</v>
       </c>
-      <c r="C169" s="121">
+      <c r="C169" s="118">
         <f t="shared" si="11"/>
         <v>-6.2848724312737803E-2</v>
       </c>
@@ -30907,7 +31472,7 @@
       <c r="B170" s="18">
         <v>34.049999</v>
       </c>
-      <c r="C170" s="121">
+      <c r="C170" s="118">
         <f t="shared" si="11"/>
         <v>-3.2120551449687285E-2</v>
       </c>
@@ -30919,7 +31484,7 @@
       <c r="B171" s="18">
         <v>35.18</v>
       </c>
-      <c r="C171" s="121">
+      <c r="C171" s="118">
         <f t="shared" si="11"/>
         <v>7.9803494180264334E-2</v>
       </c>
@@ -30931,7 +31496,7 @@
       <c r="B172" s="18">
         <v>32.580002</v>
       </c>
-      <c r="C172" s="121">
+      <c r="C172" s="118">
         <f t="shared" si="11"/>
         <v>0.27067095439434308</v>
       </c>
@@ -30943,7 +31508,7 @@
       <c r="B173" s="18">
         <v>25.639999</v>
       </c>
-      <c r="C173" s="121">
+      <c r="C173" s="118">
         <f t="shared" si="11"/>
         <v>1.746023740237157E-2</v>
       </c>
@@ -30955,7 +31520,7 @@
       <c r="B174" s="18">
         <v>25.200001</v>
       </c>
-      <c r="C174" s="121">
+      <c r="C174" s="118">
         <f t="shared" si="11"/>
         <v>7.0063782168313438E-2</v>
       </c>
@@ -30967,7 +31532,7 @@
       <c r="B175" s="18">
         <v>23.549999</v>
       </c>
-      <c r="C175" s="121">
+      <c r="C175" s="118">
         <f t="shared" si="11"/>
         <v>-0.1513513873873874</v>
       </c>
@@ -30979,7 +31544,7 @@
       <c r="B176" s="18">
         <v>27.75</v>
       </c>
-      <c r="C176" s="121">
+      <c r="C176" s="118">
         <f t="shared" si="11"/>
         <v>6.8540664941881602E-2</v>
       </c>
@@ -30991,7 +31556,7 @@
       <c r="B177" s="18">
         <v>25.969999000000001</v>
       </c>
-      <c r="C177" s="121">
+      <c r="C177" s="118">
         <f t="shared" si="11"/>
         <v>-4.522066010218162E-2</v>
       </c>
@@ -31003,7 +31568,7 @@
       <c r="B178" s="18">
         <v>27.200001</v>
       </c>
-      <c r="C178" s="121">
+      <c r="C178" s="118">
         <f t="shared" si="11"/>
         <v>0.1404612578616351</v>
       </c>
@@ -31015,7 +31580,7 @@
       <c r="B179" s="18">
         <v>23.85</v>
       </c>
-      <c r="C179" s="121">
+      <c r="C179" s="118">
         <f t="shared" si="11"/>
         <v>-0.13774403470715835</v>
       </c>
@@ -31027,7 +31592,7 @@
       <c r="B180" s="18">
         <v>27.66</v>
       </c>
-      <c r="C180" s="121">
+      <c r="C180" s="118">
         <f t="shared" si="11"/>
         <v>0.5239669421487605</v>
       </c>
@@ -31039,7 +31604,7 @@
       <c r="B181" s="18">
         <v>18.149999999999999</v>
       </c>
-      <c r="C181" s="121">
+      <c r="C181" s="118">
         <f t="shared" si="11"/>
         <v>0.14873417721518978</v>
       </c>
@@ -31051,7 +31616,7 @@
       <c r="B182" s="18">
         <v>15.8</v>
       </c>
-      <c r="C182" s="121">
+      <c r="C182" s="118">
         <f t="shared" si="11"/>
         <v>0.14244396240057844</v>
       </c>
@@ -31063,7 +31628,7 @@
       <c r="B183" s="18">
         <v>13.83</v>
       </c>
-      <c r="C183" s="121">
+      <c r="C183" s="118">
         <f t="shared" si="11"/>
         <v>0.36525172754195445</v>
       </c>
@@ -31075,7 +31640,7 @@
       <c r="B184" s="18">
         <v>10.130000000000001</v>
       </c>
-      <c r="C184" s="121">
+      <c r="C184" s="118">
         <f t="shared" si="11"/>
         <v>6.7439409905163394E-2</v>
       </c>
@@ -31087,7 +31652,7 @@
       <c r="B185" s="18">
         <v>9.49</v>
       </c>
-      <c r="C185" s="121">
+      <c r="C185" s="118">
         <f t="shared" si="11"/>
         <v>-2.2657054582904235E-2</v>
       </c>
@@ -31099,7 +31664,7 @@
       <c r="B186" s="18">
         <v>9.7100000000000009</v>
       </c>
-      <c r="C186" s="121">
+      <c r="C186" s="118">
         <f t="shared" si="11"/>
         <v>-2.4120603015075237E-2</v>
       </c>
@@ -31111,7 +31676,7 @@
       <c r="B187" s="18">
         <v>9.9499999999999993</v>
       </c>
-      <c r="C187" s="121">
+      <c r="C187" s="118">
         <f t="shared" si="11"/>
         <v>8.1521739130434812E-2</v>
       </c>

--- a/Business - Technology Services/PLTR.xlsx
+++ b/Business - Technology Services/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6582CD6-B749-4E54-A07D-9D6DB038FFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72723F6B-FEBC-4848-91A1-80875B2CEC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="210">
   <si>
     <t>Price</t>
   </si>
@@ -943,6 +943,12 @@
   </si>
   <si>
     <t>Commercial Customer Count</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Shares (basic)</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1675,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1822,6 +1828,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1879,18 +1887,17 @@
     <xf numFmtId="167" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2969,7 +2976,7 @@
                   <c:v>0.16745152216493153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2404427481739424</c:v>
+                  <c:v>0.25842017930689809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4252,7 +4259,7 @@
                   <c:v>-1.5694292545382016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6844063386155108</c:v>
+                  <c:v>2.7867509591326085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14918,8 +14925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14975,7 +14982,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="20">
-        <v>45519</v>
+        <v>45605</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>135</v>
@@ -15003,8 +15010,8 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="147">
-        <v>0.7270833333333333</v>
+      <c r="C4" s="128">
+        <v>0.94374999999999998</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>137</v>
@@ -15062,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>31.06</v>
+        <v>58.86</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>141</v>
@@ -15126,7 +15133,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>69313.247520000004</v>
+        <v>131351.50512000002</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>145</v>
@@ -15157,8 +15164,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!X32+Model!X33</f>
-        <v>3998.4590000000003</v>
+        <f>Model!Y32+Model!Y33</f>
+        <v>4564.6589999999997</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>147</v>
@@ -15222,7 +15229,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>3998.4590000000003</v>
+        <v>4564.6589999999997</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>151</v>
@@ -15251,7 +15258,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>65314.788520000002</v>
+        <v>126786.84612000002</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>153</v>
@@ -15274,7 +15281,7 @@
       </c>
       <c r="C13" s="46">
         <f>C6/Model!F17</f>
-        <v>317.88239132610488</v>
+        <v>602.400436363636</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -15287,7 +15294,7 @@
       </c>
       <c r="C14" s="46">
         <f>C6/Model!G18</f>
-        <v>86.277777777777771</v>
+        <v>159.08108108108109</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="28"/>
@@ -15305,7 +15312,7 @@
       </c>
       <c r="C15" s="46">
         <f>C6/Model!H18</f>
-        <v>72.232558139534888</v>
+        <v>127.95652173913042</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -15314,7 +15321,7 @@
       </c>
       <c r="C16" s="6">
         <f>Model!G18/Model!F17-1</f>
-        <v>2.6844063386155108</v>
+        <v>2.7867509591326085</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -15323,14 +15330,14 @@
       </c>
       <c r="C17" s="6">
         <f>Model!H18/Model!G18-1</f>
-        <v>0.19444444444444442</v>
+        <v>0.2432432432432432</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="128"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="132"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -15338,11 +15345,11 @@
       </c>
       <c r="C18" s="46">
         <f>C14/(C16*100)</f>
-        <v>0.32140356896294525</v>
-      </c>
-      <c r="L18" s="131"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="133"/>
+        <v>0.57084785620956935</v>
+      </c>
+      <c r="L18" s="133"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="135"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -15350,11 +15357,11 @@
       </c>
       <c r="C19" s="46">
         <f>C15/(C17*100)</f>
-        <v>3.7148172757475089</v>
-      </c>
-      <c r="L19" s="131"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="133"/>
+        <v>5.2604347826086961</v>
+      </c>
+      <c r="L19" s="133"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="135"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -15362,11 +15369,11 @@
       </c>
       <c r="C20" s="6">
         <f>Model!G4/Model!F3-1</f>
-        <v>0.2404427481739424</v>
-      </c>
-      <c r="L20" s="131"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
+        <v>0.25842017930689809</v>
+      </c>
+      <c r="L20" s="133"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="135"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -15374,11 +15381,11 @@
       </c>
       <c r="C21" s="6">
         <f>Model!H4/Model!G4-1</f>
-        <v>0.21014492753623193</v>
-      </c>
-      <c r="L21" s="131"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="133"/>
+        <v>0.23928571428571432</v>
+      </c>
+      <c r="L21" s="133"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="135"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -15388,9 +15395,9 @@
         <f>Model!F12</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="L22" s="131"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="135"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -15400,33 +15407,33 @@
         <f>Model!F12</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="L23" s="131"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="135"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!X20</f>
-        <v>0.81041799998230435</v>
-      </c>
-      <c r="L24" s="131"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="133"/>
+        <f>Model!Y20</f>
+        <v>0.79788316177727303</v>
+      </c>
+      <c r="L24" s="133"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="135"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!X21</f>
-        <v>0.19778686808211951</v>
-      </c>
-      <c r="L25" s="131"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="133"/>
+        <f>Model!Y21</f>
+        <v>0.19782472061263981</v>
+      </c>
+      <c r="L25" s="133"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="135"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -15434,11 +15441,11 @@
       </c>
       <c r="C26" s="35">
         <f>Main!C12/Model!F12</f>
-        <v>275.48404840335553</v>
-      </c>
-      <c r="L26" s="131"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="133"/>
+        <v>534.76026555204521</v>
+      </c>
+      <c r="L26" s="133"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="135"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -15450,9 +15457,9 @@
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="131"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="135"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -15464,17 +15471,17 @@
       <c r="E28" t="s">
         <v>184</v>
       </c>
-      <c r="L28" s="134"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="138"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="15">
-        <f>Model!X36-Model!X46</f>
-        <v>3966.5910000000013</v>
+        <f>Model!Y36-Model!Y46</f>
+        <v>4408.5059999999994</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -15482,8 +15489,8 @@
         <v>86</v>
       </c>
       <c r="C30" s="35">
-        <f>(Model!X32+Model!X33+Model!X34)/Model!X41</f>
-        <v>69.163234093102687</v>
+        <f>(Model!Y32+Model!Y33+Model!Y34)/Model!Y41</f>
+        <v>193.65563820732021</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -15539,29 +15546,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="149"/>
-    <col min="24" max="24" width="11.42578125" style="13"/>
+    <col min="24" max="24" width="11.42578125" style="149"/>
+    <col min="25" max="25" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -15619,20 +15626,23 @@
       <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="149" t="s">
+      <c r="W2" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="13" t="s">
         <v>199</v>
       </c>
       <c r="Z2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -15692,15 +15702,17 @@
         <f>F3-U3-T3-S3</f>
         <v>608.35</v>
       </c>
-      <c r="W3" s="150">
+      <c r="W3" s="10">
         <v>634.33799999999997</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="150">
         <v>678.13400000000001</v>
       </c>
-      <c r="Y3" s="150"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y3" s="15">
+        <v>725.51599999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -15710,10 +15722,10 @@
       <c r="E4" s="10"/>
       <c r="F4" s="15"/>
       <c r="G4" s="41">
-        <v>2760</v>
+        <v>2800</v>
       </c>
       <c r="H4" s="41">
-        <v>3340</v>
+        <v>3470</v>
       </c>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
@@ -15735,20 +15747,23 @@
       <c r="V4" s="125">
         <v>602.88</v>
       </c>
-      <c r="W4" s="151">
+      <c r="W4" s="124">
         <v>615.4</v>
       </c>
-      <c r="X4" s="126">
+      <c r="X4" s="151">
         <v>651.39</v>
       </c>
-      <c r="Y4" s="151">
+      <c r="Y4" s="126">
         <v>701.25</v>
       </c>
-      <c r="Z4" s="151">
-        <v>741.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z4" s="124">
+        <v>769.39</v>
+      </c>
+      <c r="AA4" s="151">
+        <v>792.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -15808,15 +15823,17 @@
         <f>F5-U5-T5-S5</f>
         <v>108.639</v>
       </c>
-      <c r="W5" s="150">
+      <c r="W5" s="10">
         <v>116.256</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="150">
         <v>128.56200000000001</v>
       </c>
-      <c r="Y5" s="150"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y5" s="15">
+        <v>146.63900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -15876,15 +15893,17 @@
         <f>F6-U6-T6-S6</f>
         <v>197.36299999999991</v>
       </c>
-      <c r="W6" s="150">
+      <c r="W6" s="10">
         <v>193.17699999999999</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="150">
         <v>196.809</v>
       </c>
-      <c r="Y6" s="150"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y6" s="15">
+        <v>209.47399999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -15944,15 +15963,17 @@
         <f>F7-U7-T7-S7</f>
         <v>109.28300000000004</v>
       </c>
-      <c r="W7" s="150">
+      <c r="W7" s="10">
         <v>110.04</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="150">
         <v>108.78100000000001</v>
       </c>
-      <c r="Y7" s="150"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y7" s="15">
+        <v>117.55500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -16012,15 +16033,17 @@
         <f>F8-U8-T8-S8</f>
         <v>127.27100000000002</v>
       </c>
-      <c r="W8" s="150">
+      <c r="W8" s="10">
         <v>133.98400000000001</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="150">
         <v>138.643</v>
       </c>
-      <c r="Y8" s="150"/>
-    </row>
-    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="15">
+        <v>138.708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -16100,20 +16123,28 @@
         <f t="shared" ref="V9" si="12">V3-V5-V6-V7-V8</f>
         <v>65.794000000000011</v>
       </c>
-      <c r="W9" s="148">
+      <c r="W9" s="11">
         <f t="shared" si="11"/>
         <v>80.880999999999943</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="152">
         <f t="shared" ref="X9:Y9" si="13">X3-X5-X6-X7-X8</f>
         <v>105.33900000000003</v>
       </c>
-      <c r="Y9" s="148">
+      <c r="Y9" s="14">
         <f t="shared" si="13"/>
+        <v>113.13999999999996</v>
+      </c>
+      <c r="Z9" s="152">
+        <f t="shared" ref="Z9:AA9" si="14">Z3-Z5-Z6-Z7-Z8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9" s="152">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -16184,18 +16215,22 @@
         <v>36.122</v>
       </c>
       <c r="V10" s="10">
-        <f t="shared" ref="V10:V11" si="14">F10-U10-T10-S10</f>
+        <f t="shared" ref="V10:V11" si="15">F10-U10-T10-S10</f>
         <v>44.409000000000006</v>
       </c>
-      <c r="W10" s="150">
+      <c r="W10" s="10">
         <v>43.351999999999997</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="150">
         <v>46.593000000000004</v>
       </c>
-      <c r="Y10" s="150"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y10" s="15">
+        <v>52.12</v>
+      </c>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -16254,18 +16289,22 @@
         <v>3.8639999999999999</v>
       </c>
       <c r="V11" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.9560000000000017</v>
       </c>
-      <c r="W11" s="150">
+      <c r="W11" s="10">
         <v>-13.507</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="150">
         <v>-11.173</v>
       </c>
-      <c r="Y11" s="150"/>
-    </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y11" s="15">
+        <v>-8.11</v>
+      </c>
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="150"/>
+    </row>
+    <row r="12" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -16274,15 +16313,15 @@
         <v>-567.27099999999996</v>
       </c>
       <c r="C12" s="11">
-        <f t="shared" ref="C12:H12" si="15">C9+C10+C11</f>
+        <f t="shared" ref="C12:H12" si="16">C9+C10+C11</f>
         <v>-1179.027</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-488.49400000000014</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-361.02699999999982</v>
       </c>
       <c r="F12" s="11">
@@ -16290,75 +16329,83 @@
         <v>237.09100000000012</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K12" s="11">
-        <f t="shared" ref="K12:V12" si="16">K9+K10+K11</f>
+        <f t="shared" ref="K12:V12" si="17">K9+K10+K11</f>
         <v>-120.37200000000001</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-144.24099999999999</v>
       </c>
       <c r="M12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-100.69900000000004</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-123.1820000000001</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-99.355999999999995</v>
       </c>
       <c r="P12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-176.74100000000001</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-122.77900000000001</v>
       </c>
       <c r="R12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.849000000000061</v>
       </c>
       <c r="S12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20.832000000000068</v>
       </c>
       <c r="T12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30.042999999999978</v>
       </c>
       <c r="U12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>79.96899999999998</v>
       </c>
       <c r="V12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>106.24700000000001</v>
       </c>
-      <c r="W12" s="148">
-        <f t="shared" ref="W12:Y12" si="17">W9+W10+W11</f>
+      <c r="W12" s="11">
+        <f t="shared" ref="W12:Y12" si="18">W9+W10+W11</f>
         <v>110.72599999999994</v>
       </c>
-      <c r="X12" s="14">
-        <f t="shared" si="17"/>
+      <c r="X12" s="152">
+        <f t="shared" si="18"/>
         <v>140.75900000000001</v>
       </c>
-      <c r="Y12" s="148">
-        <f t="shared" si="17"/>
+      <c r="Y12" s="14">
+        <f t="shared" si="18"/>
+        <v>157.14999999999998</v>
+      </c>
+      <c r="Z12" s="152">
+        <f t="shared" ref="Z12:AA12" si="19">Z9+Z10+Z11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12" s="152">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -16415,18 +16462,22 @@
         <v>6.53</v>
       </c>
       <c r="V13" s="10">
-        <f t="shared" ref="V13:V14" si="18">F13-U13-T13-S13</f>
+        <f t="shared" ref="V13:V14" si="20">F13-U13-T13-S13</f>
         <v>9.3339999999999996</v>
       </c>
-      <c r="W13" s="150">
+      <c r="W13" s="10">
         <v>4.6550000000000002</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="150">
         <v>5.1890000000000001</v>
       </c>
-      <c r="Y13" s="150"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y13" s="15">
+        <v>7.8090000000000002</v>
+      </c>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="150"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -16483,18 +16534,22 @@
         <v>1.9339999999999999</v>
       </c>
       <c r="V14" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-11.577999999999999</v>
       </c>
-      <c r="W14" s="150">
+      <c r="W14" s="10">
         <v>0.54100000000000004</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="150">
         <v>1.444</v>
       </c>
-      <c r="Y14" s="150"/>
-    </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="15">
+        <v>5.8159999999999998</v>
+      </c>
+      <c r="Z14" s="150"/>
+      <c r="AA14" s="150"/>
+    </row>
+    <row r="15" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -16533,11 +16588,11 @@
         <v>-102.13700000000004</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" ref="N15:R15" si="19">N12+N13+N14</f>
+        <f t="shared" ref="N15:R15" si="21">N12+N13+N14</f>
         <v>-90.176000000000101</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-97.332999999999998</v>
       </c>
       <c r="P15" s="11">
@@ -16549,41 +16604,49 @@
         <v>-123.87500000000001</v>
       </c>
       <c r="R15" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>44.820000000000057</v>
       </c>
       <c r="S15" s="11">
-        <f>S12-S13-S14</f>
+        <f t="shared" ref="S15:AA15" si="22">S12-S13-S14</f>
         <v>16.802000000000067</v>
       </c>
       <c r="T15" s="11">
-        <f>T12-T13-T14</f>
+        <f t="shared" si="22"/>
         <v>28.126999999999978</v>
       </c>
       <c r="U15" s="11">
-        <f>U12-U13-U14</f>
+        <f t="shared" si="22"/>
         <v>71.504999999999981</v>
       </c>
       <c r="V15" s="11">
-        <f>V12-V13-V14</f>
+        <f t="shared" si="22"/>
         <v>108.49100000000001</v>
       </c>
-      <c r="W15" s="148">
-        <f>W12-W13-W14</f>
+      <c r="W15" s="11">
+        <f t="shared" si="22"/>
         <v>105.52999999999994</v>
       </c>
-      <c r="X15" s="14">
-        <f>X12-X13-X14</f>
+      <c r="X15" s="152">
+        <f t="shared" si="22"/>
         <v>134.12600000000003</v>
       </c>
-      <c r="Y15" s="148">
-        <f>Y12-Y13-Y14</f>
+      <c r="Y15" s="14">
+        <f t="shared" si="22"/>
+        <v>143.52499999999998</v>
+      </c>
+      <c r="Z15" s="152">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15" s="152">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="B16" s="10">
         <v>576.95856000000003</v>
@@ -16641,15 +16704,17 @@
         <f>F16</f>
         <v>2147.4459999999999</v>
       </c>
-      <c r="W16" s="150">
+      <c r="W16" s="10">
         <v>2213.5450000000001</v>
       </c>
-      <c r="X16" s="15">
+      <c r="X16" s="150">
         <v>2231.5920000000001</v>
       </c>
-      <c r="Y16" s="150"/>
-    </row>
-    <row r="17" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y16" s="15">
+        <v>2250.0320000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -16676,43 +16741,43 @@
       <c r="G17" s="50"/>
       <c r="H17" s="51"/>
       <c r="K17" s="2">
-        <f t="shared" ref="K17" si="20">K15/K16</f>
+        <f t="shared" ref="K17" si="23">K15/K16</f>
         <v>-6.7799718640557283E-2</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ref="L17" si="21">L15/L16</f>
+        <f t="shared" ref="L17" si="24">L15/L16</f>
         <v>-7.3144495478215513E-2</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" ref="M17" si="22">M15/M16</f>
+        <f t="shared" ref="M17" si="25">M15/M16</f>
         <v>-5.1994125417749511E-2</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17:T17" si="23">N15/N16</f>
+        <f t="shared" ref="N17:T17" si="26">N15/N16</f>
         <v>-4.6878354682870917E-2</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-4.7798784760844017E-2</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-8.7273256410967698E-2</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-5.9748753777254728E-2</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2.1717294321668915E-2</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>7.9714201671901557E-3</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.3197580357578544E-2</v>
       </c>
       <c r="U17" s="2">
@@ -16723,20 +16788,28 @@
         <f>V15/V16</f>
         <v>5.0520944414900314E-2</v>
       </c>
-      <c r="W17" s="152">
+      <c r="W17" s="2">
         <f>W15/W16</f>
         <v>4.7674657619339089E-2</v>
       </c>
-      <c r="X17" s="34">
+      <c r="X17" s="153">
         <f>X15/X16</f>
         <v>6.0103280527981827E-2</v>
       </c>
-      <c r="Y17" s="152" t="e">
+      <c r="Y17" s="34">
         <f>Y15/Y16</f>
+        <v>6.3787981682038281E-2</v>
+      </c>
+      <c r="Z17" s="153" t="e">
+        <f>Z15/Z16</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="153" t="e">
+        <f>AA15/AA16</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
@@ -16746,10 +16819,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="34"/>
       <c r="G18" s="42">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="H18" s="43">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="K18" s="45"/>
       <c r="L18" s="45"/>
@@ -16771,20 +16844,23 @@
       <c r="V18" s="127">
         <v>0.08</v>
       </c>
-      <c r="W18" s="153">
+      <c r="W18" s="45">
         <v>0.08</v>
       </c>
-      <c r="X18" s="123">
+      <c r="X18" s="154">
         <v>0.08</v>
       </c>
-      <c r="Y18" s="153">
+      <c r="Y18" s="123">
         <v>0.09</v>
       </c>
       <c r="Z18" s="9">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.11</v>
+      </c>
+      <c r="AA18" s="159">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -16805,11 +16881,11 @@
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
       <c r="V19" s="127"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="123"/>
-      <c r="Y19" s="153"/>
-    </row>
-    <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="45"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="123"/>
+    </row>
+    <row r="20" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -16836,71 +16912,71 @@
       <c r="G20" s="119"/>
       <c r="H20" s="119"/>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:V20" si="24">1-K5/K3</f>
+        <f t="shared" ref="K20:V20" si="27">1-K5/K3</f>
         <v>0.78281472537906538</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.75794506471587308</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.77864366842961552</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.79771384744043783</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.78850337286073702</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.78388617576795416</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.77481585335230596</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.79491530089024509</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.79503452110299966</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.79955823647099189</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.80664649320354953</v>
       </c>
       <c r="V20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.82142023506205308</v>
       </c>
       <c r="W20" s="38">
-        <f t="shared" ref="W20:Y20" si="25">1-W5/W3</f>
+        <f t="shared" ref="W20:Y20" si="28">1-W5/W3</f>
         <v>0.81672862101907817</v>
       </c>
-      <c r="X20" s="6">
-        <f t="shared" si="25"/>
+      <c r="X20" s="38">
+        <f t="shared" si="28"/>
         <v>0.81041799998230435</v>
       </c>
-      <c r="Y20" s="38" t="e">
-        <f t="shared" si="25"/>
+      <c r="Y20" s="6">
+        <f t="shared" si="28"/>
+        <v>0.79788316177727303</v>
+      </c>
+      <c r="Z20" s="38" t="e">
+        <f t="shared" ref="Z20" si="29">1-Z5/Z3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z20" s="38" t="e">
-        <f t="shared" ref="Z20" si="26">1-Z5/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -16933,71 +17009,71 @@
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" ref="K21:V21" si="27">K15/K3</f>
+        <f t="shared" ref="K21:V21" si="30">K15/K3</f>
         <v>-0.3618455370801269</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.36891508404278539</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.2604565646468408</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.20832264875816386</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.21806087952020467</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.37912306293735865</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.25921779526240901</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.8120104438642419E-2</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.1992475046935878E-2</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.2739740154542192E-2</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.12810865721057976</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.17833648393194709</v>
       </c>
-      <c r="W21" s="154">
-        <f t="shared" ref="W21:Y21" si="28">W15/W3</f>
+      <c r="W21" s="4">
+        <f t="shared" ref="W21:Y21" si="31">W15/W3</f>
         <v>0.16636241246780101</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="155">
         <f>X15/X3</f>
         <v>0.19778686808211951</v>
       </c>
-      <c r="Y21" s="154" t="e">
-        <f t="shared" si="28"/>
+      <c r="Y21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.19782472061263981</v>
+      </c>
+      <c r="Z21" s="4" t="e">
+        <f t="shared" ref="Z21" si="32">Z15/Z3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z21" s="154" t="e">
-        <f t="shared" ref="Z21" si="29">Z15/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -17020,129 +17096,129 @@
       </c>
       <c r="G22" s="121">
         <f>G4/F3-1</f>
-        <v>0.2404427481739424</v>
+        <v>0.25842017930689809</v>
       </c>
       <c r="H22" s="121">
         <f>H4/G4-1</f>
-        <v>0.21014492753623193</v>
+        <v>0.23928571428571432</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4">
-        <f t="shared" ref="O22:W22" si="30">O3/K3-1</f>
+        <f t="shared" ref="O22:W22" si="33">O3/K3-1</f>
         <v>0.30806719142875583</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.25920424233711881</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.21862775598884077</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.17501218619113978</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.1766052733574246</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.12749624743662924</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.16798987193437687</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.19607018150932731</v>
       </c>
-      <c r="W22" s="154">
-        <f t="shared" si="30"/>
+      <c r="W22" s="4">
+        <f t="shared" si="33"/>
         <v>0.20783493847893864</v>
       </c>
-      <c r="X22" s="158">
+      <c r="X22" s="155">
         <f>X3/T3-1</f>
         <v>0.2715401909183468</v>
       </c>
-      <c r="Y22" s="157">
+      <c r="Y22" s="158">
         <f>Y4/U3-1</f>
         <v>0.25636243436010164</v>
       </c>
-      <c r="Z22" s="157">
+      <c r="Z22" s="129">
         <f>Z4/V3-1</f>
-        <v>0.21924878770444645</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.26471603517711828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23:E23" si="31">B7/B3</f>
+        <f t="shared" ref="B23:E23" si="34">B7/B3</f>
         <v>0.41150217828982366</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.51310867935786819</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.25130667642093563</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.18872158713784928</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" ref="F23" si="32">F7/F3</f>
+        <f t="shared" ref="F23" si="35">F7/F3</f>
         <v>0.18185250236852654</v>
       </c>
       <c r="G23" s="121"/>
       <c r="H23" s="121"/>
       <c r="K23" s="4">
-        <f t="shared" ref="K23:T23" si="33">K7/K3</f>
+        <f t="shared" ref="K23:T23" si="36">K7/K3</f>
         <v>0.28857323713346267</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.29422695012804745</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.24051246219520281</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.19446157826768976</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.19849806320949373</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.18640409293672439</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.21106344689043274</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.16130579760294439</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.17155826697589041</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.18663009054652299</v>
       </c>
       <c r="U23" s="4">
@@ -17153,24 +17229,24 @@
         <f>V7/V3</f>
         <v>0.17963836607216246</v>
       </c>
-      <c r="W23" s="154">
+      <c r="W23" s="4">
         <f>W7/W3</f>
         <v>0.17347218675217316</v>
       </c>
-      <c r="X23" s="7">
-        <f t="shared" ref="X23:Y23" si="34">X7/X3</f>
+      <c r="X23" s="155">
+        <f t="shared" ref="X23:Y23" si="37">X7/X3</f>
         <v>0.16041224890655831</v>
       </c>
-      <c r="Y23" s="154" t="e">
-        <f t="shared" si="34"/>
+      <c r="Y23" s="7">
+        <f t="shared" si="37"/>
+        <v>0.16202950727482235</v>
+      </c>
+      <c r="Z23" s="4" t="e">
+        <f t="shared" ref="Z23" si="38">Z7/Z3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z23" s="154" t="e">
-        <f t="shared" ref="Z23" si="35">Z7/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -17197,71 +17273,71 @@
       <c r="G24" s="122"/>
       <c r="H24" s="121"/>
       <c r="K24" s="4">
-        <f t="shared" ref="K24:V24" si="36">K6/K3</f>
+        <f t="shared" ref="K24:V24" si="39">K6/K3</f>
         <v>0.39883774770392172</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.4322706193663115</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.39129048874653827</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.37561883904293919</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.35954404210082963</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.35702205027377859</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.38276973298736083</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.37401498946176343</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.35624140780599628</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.34531620030863447</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.31599060482765662</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.32442344045368604</v>
       </c>
-      <c r="W24" s="154">
-        <f t="shared" ref="W24:Y24" si="37">W6/W3</f>
+      <c r="W24" s="4">
+        <f t="shared" ref="W24:Y24" si="40">W6/W3</f>
         <v>0.30453322991843468</v>
       </c>
-      <c r="X24" s="7">
-        <f t="shared" si="37"/>
+      <c r="X24" s="155">
+        <f t="shared" si="40"/>
         <v>0.29022140166987642</v>
       </c>
-      <c r="Y24" s="154" t="e">
-        <f t="shared" si="37"/>
+      <c r="Y24" s="7">
+        <f t="shared" si="40"/>
+        <v>0.28872416321624883</v>
+      </c>
+      <c r="Z24" s="4" t="e">
+        <f t="shared" ref="Z24" si="41">Z6/Z3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z24" s="154" t="e">
-        <f t="shared" ref="Z24" si="38">Z6/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -17277,67 +17353,67 @@
         <v>0.42952636607137623</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" ref="L25:V25" si="39">L8/L3</f>
+        <f t="shared" ref="L25:V25" si="42">L8/L3</f>
         <v>0.42050942120423174</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.3812967619203052</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.36380227644981039</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.31881879302889837</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.32871398067694135</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.31112203900560809</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.29464201453332917</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.25939952702471125</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.24872261713014959</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.2296352831361673</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.20920687104462893</v>
       </c>
-      <c r="W25" s="154">
+      <c r="W25" s="4">
         <f>W8/W3</f>
         <v>0.21121862477102116</v>
       </c>
-      <c r="X25" s="7">
-        <f t="shared" ref="X25:Y25" si="40">X8/X3</f>
+      <c r="X25" s="155">
+        <f t="shared" ref="X25:Y25" si="43">X8/X3</f>
         <v>0.20444779350393874</v>
       </c>
-      <c r="Y25" s="154" t="e">
-        <f t="shared" si="40"/>
+      <c r="Y25" s="7">
+        <f t="shared" si="43"/>
+        <v>0.19118530811174392</v>
+      </c>
+      <c r="Z25" s="4" t="e">
+        <f t="shared" ref="Z25" si="44">Z8/Z3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z25" s="154" t="e">
-        <f t="shared" ref="Z25" si="41">Z8/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -17360,66 +17436,66 @@
       </c>
       <c r="G26" s="52">
         <f>G18/F17-1</f>
-        <v>2.6844063386155108</v>
+        <v>2.7867509591326085</v>
       </c>
       <c r="H26" s="52">
         <f>H18/G18-1</f>
-        <v>0.19444444444444442</v>
+        <v>0.2432432432432432</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4">
-        <f t="shared" ref="O26:W26" si="42">O15/K15-1</f>
+        <f t="shared" ref="O26:W26" si="45">O15/K15-1</f>
         <v>-0.21171258726533537</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.29404675999422736</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.21283178475968523</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1.4970280340667141</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1.172623878848901</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1.1568457973891562</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1.5772351160443994</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1.4205934850513136</v>
       </c>
-      <c r="W26" s="154">
-        <f t="shared" si="42"/>
+      <c r="W26" s="4">
+        <f t="shared" si="45"/>
         <v>5.2807999047732128</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="155">
         <f>X18/T17-1</f>
         <v>5.0617172112205413</v>
       </c>
-      <c r="Y26" s="154">
+      <c r="Y26" s="7">
         <f>Y18/U17-1</f>
         <v>1.7218753933291389</v>
       </c>
-      <c r="Z26" s="154">
+      <c r="Z26" s="4">
         <f>Z18/V17-1</f>
-        <v>0.78143938206855834</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.1773148003060157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>197</v>
       </c>
@@ -17443,71 +17519,71 @@
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
       <c r="K27" s="38">
-        <f t="shared" ref="K27:V27" si="43">(K15+K7)/K3</f>
+        <f t="shared" ref="K27:V27" si="46">(K15+K7)/K3</f>
         <v>-7.3272299946664218E-2</v>
       </c>
       <c r="L27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-7.4688133914737928E-2</v>
       </c>
       <c r="M27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-1.9944102451638013E-2</v>
       </c>
       <c r="N27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-1.3861070490474114E-2</v>
       </c>
       <c r="O27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-1.9562816310710929E-2</v>
       </c>
       <c r="P27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-0.19271897000063423</v>
       </c>
       <c r="Q27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-4.8154348371976262E-2</v>
       </c>
       <c r="R27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.24942590204158679</v>
       </c>
       <c r="S27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.2035507420228263</v>
       </c>
       <c r="T27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.23936983070106518</v>
       </c>
       <c r="U27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.31749555234261201</v>
       </c>
       <c r="V27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.35797485000410956</v>
       </c>
       <c r="W27" s="38">
         <f>(W15+W7)/W3</f>
         <v>0.33983459921997411</v>
       </c>
-      <c r="X27" s="6">
-        <f t="shared" ref="X27:Z27" si="44">(X15+X7)/X3</f>
+      <c r="X27" s="38">
+        <f t="shared" ref="X27:Y27" si="47">(X15+X7)/X3</f>
         <v>0.35819911698867779</v>
       </c>
-      <c r="Y27" s="38" t="e">
-        <f t="shared" si="44"/>
+      <c r="Y27" s="6">
+        <f t="shared" si="47"/>
+        <v>0.35985422788746219</v>
+      </c>
+      <c r="Z27" s="38" t="e">
+        <f t="shared" ref="Z27" si="48">(Z15+Z7)/Z3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z27" s="38" t="e">
-        <f t="shared" ref="Z27" si="45">(Z15+Z7)/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -17528,9 +17604,9 @@
       <c r="U28" s="38"/>
       <c r="V28" s="38"/>
       <c r="W28" s="38"/>
-      <c r="X28" s="7"/>
-    </row>
-    <row r="31" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="155"/>
+    </row>
+    <row r="31" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -17559,67 +17635,67 @@
         <v>0</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" ref="L31:Z31" si="46">L32+L33-L48-L49</f>
+        <f t="shared" ref="L31:Z31" si="49">L32+L33-L48-L49</f>
         <v>0</v>
       </c>
       <c r="M31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2527.7559999999999</v>
       </c>
       <c r="O31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2537.4930000000004</v>
       </c>
       <c r="P31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2636.9320000000002</v>
       </c>
       <c r="Q31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2769.578</v>
       </c>
       <c r="R31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2629.739</v>
       </c>
       <c r="S31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2912.319</v>
       </c>
       <c r="T31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3100.1529999999998</v>
       </c>
       <c r="U31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3281.34</v>
       </c>
       <c r="V31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3672.7020000000002</v>
       </c>
       <c r="W31" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3866.2490000000003</v>
       </c>
-      <c r="X31" s="14">
-        <f t="shared" si="46"/>
+      <c r="X31" s="152">
+        <f t="shared" si="49"/>
         <v>3996.9320000000002</v>
       </c>
-      <c r="Y31" s="11">
-        <f t="shared" si="46"/>
+      <c r="Y31" s="14">
+        <f t="shared" si="49"/>
+        <v>4560.9780000000001</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="11">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -17678,14 +17754,16 @@
         <f>F32</f>
         <v>831.04700000000003</v>
       </c>
-      <c r="W32" s="150">
+      <c r="W32" s="10">
         <v>520.38800000000003</v>
       </c>
-      <c r="X32" s="15">
+      <c r="X32" s="150">
         <v>512.65899999999999</v>
       </c>
-      <c r="Y32" s="150"/>
-      <c r="Z32" s="150"/>
+      <c r="Y32" s="15">
+        <v>768.71</v>
+      </c>
+      <c r="Z32" s="10"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -17711,7 +17789,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10">
-        <f t="shared" ref="N33:N35" si="47">D33</f>
+        <f t="shared" ref="N33:N35" si="50">D33</f>
         <v>234.15299999999999</v>
       </c>
       <c r="O33" s="10">
@@ -17724,7 +17802,7 @@
         <v>343.26400000000001</v>
       </c>
       <c r="R33" s="10">
-        <f t="shared" ref="R33:R35" si="48">E33</f>
+        <f t="shared" ref="R33:R35" si="51">E33</f>
         <v>35.134999999999998</v>
       </c>
       <c r="S33" s="10">
@@ -17737,17 +17815,19 @@
         <v>2243.2640000000001</v>
       </c>
       <c r="V33" s="10">
-        <f t="shared" ref="V33:V35" si="49">F33</f>
+        <f t="shared" ref="V33:V35" si="52">F33</f>
         <v>2843.1320000000001</v>
       </c>
-      <c r="W33" s="150">
+      <c r="W33" s="10">
         <v>3347.5120000000002</v>
       </c>
-      <c r="X33" s="15">
+      <c r="X33" s="150">
         <v>3485.8</v>
       </c>
-      <c r="Y33" s="150"/>
-      <c r="Z33" s="150"/>
+      <c r="Y33" s="15">
+        <v>3795.9490000000001</v>
+      </c>
+      <c r="Z33" s="10"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -17772,7 +17852,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>190.923</v>
       </c>
       <c r="O34" s="10">
@@ -17785,7 +17865,7 @@
         <v>57.341999999999999</v>
       </c>
       <c r="R34" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>258.346</v>
       </c>
       <c r="S34" s="10">
@@ -17798,17 +17878,19 @@
         <v>430.26900000000001</v>
       </c>
       <c r="V34" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>364.78399999999999</v>
       </c>
-      <c r="W34" s="150">
+      <c r="W34" s="10">
         <v>486.98599999999999</v>
       </c>
-      <c r="X34" s="15">
+      <c r="X34" s="150">
         <v>659.33900000000006</v>
       </c>
-      <c r="Y34" s="150"/>
-      <c r="Z34" s="150"/>
+      <c r="Y34" s="15">
+        <v>668.11</v>
+      </c>
+      <c r="Z34" s="10"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -17833,7 +17915,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>110.872</v>
       </c>
       <c r="O35" s="10">
@@ -17846,7 +17928,7 @@
         <v>114.157</v>
       </c>
       <c r="R35" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>149.55600000000001</v>
       </c>
       <c r="S35" s="10">
@@ -17859,17 +17941,19 @@
         <v>95.554000000000002</v>
       </c>
       <c r="V35" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>99.655000000000001</v>
       </c>
-      <c r="W35" s="150">
+      <c r="W35" s="10">
         <v>81.177999999999997</v>
       </c>
-      <c r="X35" s="15">
+      <c r="X35" s="150">
         <v>115.712</v>
       </c>
-      <c r="Y35" s="150"/>
-      <c r="Z35" s="150"/>
+      <c r="Y35" s="15">
+        <v>119.193</v>
+      </c>
+      <c r="Z35" s="10"/>
     </row>
     <row r="36" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -17896,67 +17980,67 @@
         <v>4138.6180000000004</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" ref="K36:V36" si="50">SUM(K32:K35)</f>
+        <f t="shared" ref="K36:V36" si="53">SUM(K32:K35)</f>
         <v>0</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>2863.2499999999995</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>2927.3740000000003</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>2902.4390000000003</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>2946.61</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>3041.5770000000002</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>3256.1469999999999</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>3576.9139999999998</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>3809.3969999999999</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>4138.6180000000004</v>
       </c>
-      <c r="W36" s="148">
-        <f t="shared" ref="W36:Y36" si="51">SUM(W32:W35)</f>
+      <c r="W36" s="11">
+        <f t="shared" ref="W36:Y36" si="54">SUM(W32:W35)</f>
         <v>4436.0640000000003</v>
       </c>
-      <c r="X36" s="14">
-        <f t="shared" si="51"/>
+      <c r="X36" s="152">
+        <f t="shared" si="54"/>
         <v>4773.5100000000011</v>
       </c>
-      <c r="Y36" s="148">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="148">
-        <f t="shared" ref="Z36" si="52">SUM(Z32:Z35)</f>
+      <c r="Y36" s="14">
+        <f t="shared" si="54"/>
+        <v>5351.9619999999995</v>
+      </c>
+      <c r="Z36" s="11">
+        <f t="shared" ref="Z36" si="55">SUM(Z32:Z35)</f>
         <v>0</v>
       </c>
     </row>
@@ -17984,7 +18068,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10">
-        <f t="shared" ref="N37:N39" si="53">D37</f>
+        <f t="shared" ref="N37:N39" si="56">D37</f>
         <v>31.303999999999998</v>
       </c>
       <c r="O37" s="10">
@@ -17997,7 +18081,7 @@
         <v>57.822000000000003</v>
       </c>
       <c r="R37" s="10">
-        <f t="shared" ref="R37:R39" si="54">E37</f>
+        <f t="shared" ref="R37:R39" si="57">E37</f>
         <v>69.17</v>
       </c>
       <c r="S37" s="10">
@@ -18010,17 +18094,19 @@
         <v>50.133000000000003</v>
       </c>
       <c r="V37" s="10">
-        <f t="shared" ref="V37:V39" si="55">F37</f>
+        <f t="shared" ref="V37:V39" si="58">F37</f>
         <v>47.758000000000003</v>
       </c>
-      <c r="W37" s="150">
+      <c r="W37" s="10">
         <v>46.905999999999999</v>
       </c>
-      <c r="X37" s="15">
+      <c r="X37" s="150">
         <v>43.482999999999997</v>
       </c>
-      <c r="Y37" s="150"/>
-      <c r="Z37" s="150"/>
+      <c r="Y37" s="15">
+        <v>40.344999999999999</v>
+      </c>
+      <c r="Z37" s="10"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -18043,7 +18129,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>216.898</v>
       </c>
       <c r="O38" s="10">
@@ -18056,7 +18142,7 @@
         <v>199.35900000000001</v>
       </c>
       <c r="R38" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>200.24</v>
       </c>
       <c r="S38" s="10">
@@ -18069,17 +18155,19 @@
         <v>190.191</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>182.863</v>
       </c>
-      <c r="W38" s="150">
+      <c r="W38" s="10">
         <v>173.70699999999999</v>
       </c>
-      <c r="X38" s="15">
+      <c r="X38" s="150">
         <v>213.453</v>
       </c>
-      <c r="Y38" s="150"/>
-      <c r="Z38" s="150"/>
+      <c r="Y38" s="15">
+        <v>211.57</v>
+      </c>
+      <c r="Z38" s="10"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -18106,7 +18194,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>135.99799999999999</v>
       </c>
       <c r="O39" s="10">
@@ -18122,7 +18210,7 @@
         <v>115.044</v>
       </c>
       <c r="R39" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>150.25200000000001</v>
       </c>
       <c r="S39" s="10">
@@ -18136,17 +18224,19 @@
         <v>143.696</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>153.18600000000001</v>
       </c>
-      <c r="W39" s="150">
+      <c r="W39" s="10">
         <v>150.40199999999999</v>
       </c>
-      <c r="X39" s="15">
+      <c r="X39" s="150">
         <v>161.434</v>
       </c>
-      <c r="Y39" s="150"/>
-      <c r="Z39" s="150"/>
+      <c r="Y39" s="15">
+        <v>164.22</v>
+      </c>
+      <c r="Z39" s="10"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -18173,67 +18263,67 @@
         <v>4522.4250000000002</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" ref="K40:V40" si="56">SUM(K36:K39)</f>
+        <f t="shared" ref="K40:V40" si="59">SUM(K36:K39)</f>
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>3247.45</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>3319.1790000000001</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>3282.3379999999997</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>3318.835</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>3461.239</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>3683.1379999999999</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>3980.2640000000001</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>4193.4169999999995</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>4522.4250000000002</v>
       </c>
-      <c r="W40" s="148">
-        <f t="shared" ref="W40:Y40" si="57">SUM(W36:W39)</f>
+      <c r="W40" s="11">
+        <f t="shared" ref="W40:Y40" si="60">SUM(W36:W39)</f>
         <v>4807.0790000000006</v>
       </c>
-      <c r="X40" s="14">
-        <f t="shared" si="57"/>
+      <c r="X40" s="152">
+        <f t="shared" si="60"/>
         <v>5191.8800000000019</v>
       </c>
-      <c r="Y40" s="148">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="148">
-        <f t="shared" ref="Z40" si="58">SUM(Z36:Z39)</f>
+      <c r="Y40" s="14">
+        <f t="shared" si="60"/>
+        <v>5768.0969999999998</v>
+      </c>
+      <c r="Z40" s="11">
+        <f t="shared" ref="Z40" si="61">SUM(Z36:Z39)</f>
         <v>0</v>
       </c>
     </row>
@@ -18260,7 +18350,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10">
-        <f t="shared" ref="N41:N45" si="59">D41</f>
+        <f t="shared" ref="N41:N45" si="62">D41</f>
         <v>74.906999999999996</v>
       </c>
       <c r="O41" s="10">
@@ -18273,7 +18363,7 @@
         <v>59.506999999999998</v>
       </c>
       <c r="R41" s="10">
-        <f t="shared" ref="R41:R45" si="60">E41</f>
+        <f t="shared" ref="R41:R45" si="63">E41</f>
         <v>44.787999999999997</v>
       </c>
       <c r="S41" s="10">
@@ -18286,17 +18376,19 @@
         <v>9.4749999999999996</v>
       </c>
       <c r="V41" s="10">
-        <f t="shared" ref="V41:V45" si="61">F41</f>
+        <f t="shared" ref="V41:V45" si="64">F41</f>
         <v>12.122</v>
       </c>
-      <c r="W41" s="150">
+      <c r="W41" s="10">
         <v>35.634</v>
       </c>
-      <c r="X41" s="15">
+      <c r="X41" s="150">
         <v>67.344999999999999</v>
       </c>
-      <c r="Y41" s="150"/>
-      <c r="Z41" s="150"/>
+      <c r="Y41" s="15">
+        <v>27.021000000000001</v>
+      </c>
+      <c r="Z41" s="10"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -18321,7 +18413,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>155.80600000000001</v>
       </c>
       <c r="O42" s="10">
@@ -18334,7 +18426,7 @@
         <v>164.697</v>
       </c>
       <c r="R42" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>172.715</v>
       </c>
       <c r="S42" s="10">
@@ -18347,17 +18439,19 @@
         <v>174.75299999999999</v>
       </c>
       <c r="V42" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>222.99100000000001</v>
       </c>
-      <c r="W42" s="150">
+      <c r="W42" s="10">
         <v>206.03399999999999</v>
       </c>
-      <c r="X42" s="15">
+      <c r="X42" s="150">
         <v>195.489</v>
       </c>
-      <c r="Y42" s="150"/>
-      <c r="Z42" s="150"/>
+      <c r="Y42" s="15">
+        <v>265.24400000000003</v>
+      </c>
+      <c r="Z42" s="10"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -18382,7 +18476,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>227.816</v>
       </c>
       <c r="O43" s="10">
@@ -18395,7 +18489,7 @@
         <v>189.77099999999999</v>
       </c>
       <c r="R43" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>183.35</v>
       </c>
       <c r="S43" s="10">
@@ -18408,17 +18502,19 @@
         <v>223.50700000000001</v>
       </c>
       <c r="V43" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>246.90100000000001</v>
       </c>
-      <c r="W43" s="150">
+      <c r="W43" s="10">
         <v>237.19499999999999</v>
       </c>
-      <c r="X43" s="15">
+      <c r="X43" s="150">
         <v>278.44099999999997</v>
       </c>
-      <c r="Y43" s="150"/>
-      <c r="Z43" s="150"/>
+      <c r="Y43" s="15">
+        <v>236.608</v>
+      </c>
+      <c r="Z43" s="10"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -18443,7 +18539,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>161.60499999999999</v>
       </c>
       <c r="O44" s="10">
@@ -18456,7 +18552,7 @@
         <v>234.142</v>
       </c>
       <c r="R44" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>141.989</v>
       </c>
       <c r="S44" s="10">
@@ -18469,17 +18565,19 @@
         <v>228.98599999999999</v>
       </c>
       <c r="V44" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>209.828</v>
       </c>
-      <c r="W44" s="150">
+      <c r="W44" s="10">
         <v>217.63399999999999</v>
       </c>
-      <c r="X44" s="15">
+      <c r="X44" s="150">
         <v>221.51900000000001</v>
       </c>
-      <c r="Y44" s="150"/>
-      <c r="Z44" s="150"/>
+      <c r="Y44" s="15">
+        <v>366.94600000000003</v>
+      </c>
+      <c r="Z44" s="10"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -18504,7 +18602,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>39.927</v>
       </c>
       <c r="O45" s="10">
@@ -18517,7 +18615,7 @@
         <v>40.232999999999997</v>
       </c>
       <c r="R45" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>45.098999999999997</v>
       </c>
       <c r="S45" s="10">
@@ -18530,17 +18628,19 @@
         <v>52.204000000000001</v>
       </c>
       <c r="V45" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>54.176000000000002</v>
       </c>
-      <c r="W45" s="150">
+      <c r="W45" s="10">
         <v>54.055999999999997</v>
       </c>
-      <c r="X45" s="15">
+      <c r="X45" s="150">
         <v>44.125</v>
       </c>
-      <c r="Y45" s="150"/>
-      <c r="Z45" s="150"/>
+      <c r="Y45" s="15">
+        <v>47.637</v>
+      </c>
+      <c r="Z45" s="10"/>
     </row>
     <row r="46" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -18567,67 +18667,67 @@
         <v>746.01800000000003</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" ref="K46:V46" si="62">SUM(K41:K45)</f>
+        <f t="shared" ref="K46:V46" si="65">SUM(K41:K45)</f>
         <v>0</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>660.06100000000004</v>
       </c>
       <c r="O46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>669.10399999999993</v>
       </c>
       <c r="P46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>665.74200000000008</v>
       </c>
       <c r="Q46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>688.34999999999991</v>
       </c>
       <c r="R46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>587.94100000000003</v>
       </c>
       <c r="S46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>601.41300000000001</v>
       </c>
       <c r="T46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>685.38400000000001</v>
       </c>
       <c r="U46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>688.92499999999995</v>
       </c>
       <c r="V46" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>746.01800000000003</v>
       </c>
-      <c r="W46" s="148">
-        <f t="shared" ref="W46:Y46" si="63">SUM(W41:W45)</f>
+      <c r="W46" s="11">
+        <f t="shared" ref="W46:Y46" si="66">SUM(W41:W45)</f>
         <v>750.553</v>
       </c>
-      <c r="X46" s="14">
-        <f t="shared" si="63"/>
+      <c r="X46" s="152">
+        <f t="shared" si="66"/>
         <v>806.91899999999998</v>
       </c>
-      <c r="Y46" s="148">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="148">
-        <f t="shared" ref="Z46" si="64">SUM(Z41:Z45)</f>
+      <c r="Y46" s="14">
+        <f t="shared" si="66"/>
+        <v>943.45600000000013</v>
+      </c>
+      <c r="Z46" s="11">
+        <f t="shared" ref="Z46" si="67">SUM(Z41:Z45)</f>
         <v>0</v>
       </c>
     </row>
@@ -18654,7 +18754,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10">
-        <f t="shared" ref="N47:N51" si="65">D47</f>
+        <f t="shared" ref="N47:N51" si="68">D47</f>
         <v>40.216999999999999</v>
       </c>
       <c r="O47" s="10">
@@ -18667,7 +18767,7 @@
         <v>31.382999999999999</v>
       </c>
       <c r="R47" s="10">
-        <f t="shared" ref="R47:R51" si="66">E47</f>
+        <f t="shared" ref="R47:R51" si="69">E47</f>
         <v>9.9649999999999999</v>
       </c>
       <c r="S47" s="10">
@@ -18680,17 +18780,19 @@
         <v>34.880000000000003</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" ref="V47:V51" si="67">F47</f>
+        <f t="shared" ref="V47:V51" si="70">F47</f>
         <v>28.047000000000001</v>
       </c>
-      <c r="W47" s="150">
+      <c r="W47" s="10">
         <v>20.722000000000001</v>
       </c>
-      <c r="X47" s="15">
+      <c r="X47" s="150">
         <v>15.648999999999999</v>
       </c>
-      <c r="Y47" s="150"/>
-      <c r="Z47" s="150"/>
+      <c r="Y47" s="15">
+        <v>7.8250000000000002</v>
+      </c>
+      <c r="Z47" s="10"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -18715,7 +18817,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>33.698999999999998</v>
       </c>
       <c r="O48" s="10">
@@ -18728,7 +18830,7 @@
         <v>5.5330000000000004</v>
       </c>
       <c r="R48" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>3.9359999999999999</v>
       </c>
       <c r="S48" s="10">
@@ -18741,17 +18843,19 @@
         <v>2.234</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1.4770000000000001</v>
       </c>
-      <c r="W48" s="150">
+      <c r="W48" s="10">
         <v>1.651</v>
       </c>
-      <c r="X48" s="15">
+      <c r="X48" s="150">
         <v>1.5269999999999999</v>
       </c>
-      <c r="Y48" s="150"/>
-      <c r="Z48" s="150"/>
+      <c r="Y48" s="15">
+        <v>3.681</v>
+      </c>
+      <c r="Z48" s="10"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -18776,7 +18880,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="O49" s="10">
@@ -18789,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S49" s="10">
@@ -18802,13 +18906,13 @@
         <v>0</v>
       </c>
       <c r="V49" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="W49" s="150"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="150"/>
-      <c r="Z49" s="150"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="150"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="10"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -18833,7 +18937,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>220.14599999999999</v>
       </c>
       <c r="O50" s="10">
@@ -18846,7 +18950,7 @@
         <v>204.90299999999999</v>
       </c>
       <c r="R50" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>204.30500000000001</v>
       </c>
       <c r="S50" s="10">
@@ -18859,17 +18963,19 @@
         <v>184.06700000000001</v>
       </c>
       <c r="V50" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>175.21600000000001</v>
       </c>
-      <c r="W50" s="150">
+      <c r="W50" s="10">
         <v>163.01300000000001</v>
       </c>
-      <c r="X50" s="15">
+      <c r="X50" s="150">
         <v>214.334</v>
       </c>
-      <c r="Y50" s="150"/>
-      <c r="Z50" s="150"/>
+      <c r="Y50" s="15">
+        <v>207.27799999999999</v>
+      </c>
+      <c r="Z50" s="10"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -18894,7 +19000,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>2.2970000000000002</v>
       </c>
       <c r="O51" s="10">
@@ -18907,7 +19013,7 @@
         <v>2.0510000000000002</v>
       </c>
       <c r="R51" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>12.654999999999999</v>
       </c>
       <c r="S51" s="10">
@@ -18920,17 +19026,19 @@
         <v>11.414</v>
       </c>
       <c r="V51" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>10.702</v>
       </c>
-      <c r="W51" s="150">
+      <c r="W51" s="10">
         <v>9.968</v>
       </c>
-      <c r="X51" s="15">
+      <c r="X51" s="150">
         <v>15.645</v>
       </c>
-      <c r="Y51" s="150"/>
-      <c r="Z51" s="150"/>
+      <c r="Y51" s="15">
+        <v>14.494999999999999</v>
+      </c>
+      <c r="Z51" s="10"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -18957,67 +19065,67 @@
         <v>961.46</v>
       </c>
       <c r="K52" s="11">
-        <f t="shared" ref="K52:V52" si="68">SUM(K46:K51)</f>
+        <f t="shared" ref="K52:V52" si="71">SUM(K46:K51)</f>
         <v>0</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="M52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>956.42</v>
       </c>
       <c r="O52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>954.43299999999988</v>
       </c>
       <c r="P52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>933.51400000000012</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>932.22</v>
       </c>
       <c r="R52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>818.80200000000013</v>
       </c>
       <c r="S52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>879.94500000000005</v>
       </c>
       <c r="T52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>945.12600000000009</v>
       </c>
       <c r="U52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>921.52</v>
       </c>
       <c r="V52" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>961.46</v>
       </c>
-      <c r="W52" s="148">
-        <f t="shared" ref="W52:Y52" si="69">SUM(W46:W51)</f>
+      <c r="W52" s="11">
+        <f t="shared" ref="W52:Y52" si="72">SUM(W46:W51)</f>
         <v>945.90699999999993</v>
       </c>
-      <c r="X52" s="14">
-        <f t="shared" si="69"/>
+      <c r="X52" s="152">
+        <f t="shared" si="72"/>
         <v>1054.0740000000001</v>
       </c>
-      <c r="Y52" s="148">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="Z52" s="148">
-        <f t="shared" ref="Z52" si="70">SUM(Z46:Z51)</f>
+      <c r="Y52" s="14">
+        <f t="shared" si="72"/>
+        <v>1176.7350000000001</v>
+      </c>
+      <c r="Z52" s="11">
+        <f t="shared" ref="Z52" si="73">SUM(Z46:Z51)</f>
         <v>0</v>
       </c>
     </row>
@@ -19026,19 +19134,19 @@
         <v>80</v>
       </c>
       <c r="B53" s="10">
-        <f t="shared" ref="B53:E53" si="71">B40-B52</f>
+        <f t="shared" ref="B53:E53" si="74">B40-B52</f>
         <v>146.58900000000017</v>
       </c>
       <c r="C53" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>1522.53</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2291.0299999999997</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2642.4369999999999</v>
       </c>
       <c r="F53" s="15">
@@ -19046,55 +19154,55 @@
         <v>3560.9650000000001</v>
       </c>
       <c r="N53" s="10">
-        <f t="shared" ref="N53:V53" si="72">N40-N52</f>
+        <f t="shared" ref="N53:V53" si="75">N40-N52</f>
         <v>2291.0299999999997</v>
       </c>
       <c r="O53" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>2364.7460000000001</v>
       </c>
       <c r="P53" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>2348.8239999999996</v>
       </c>
       <c r="Q53" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>2386.6149999999998</v>
       </c>
       <c r="R53" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>2642.4369999999999</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>2803.1929999999998</v>
       </c>
       <c r="T53" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>3035.1379999999999</v>
       </c>
       <c r="U53" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>3271.8969999999995</v>
       </c>
       <c r="V53" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>3560.9650000000001</v>
       </c>
-      <c r="W53" s="150">
-        <f t="shared" ref="W53:Y53" si="73">W40-W52</f>
+      <c r="W53" s="10">
+        <f t="shared" ref="W53:Y53" si="76">W40-W52</f>
         <v>3861.1720000000005</v>
       </c>
-      <c r="X53" s="15">
-        <f t="shared" si="73"/>
+      <c r="X53" s="150">
+        <f t="shared" si="76"/>
         <v>4137.8060000000023</v>
       </c>
-      <c r="Y53" s="150">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="150">
-        <f t="shared" ref="Z53" si="74">Z40-Z52</f>
+      <c r="Y53" s="15">
+        <f t="shared" si="76"/>
+        <v>4591.3619999999992</v>
+      </c>
+      <c r="Z53" s="10">
+        <f t="shared" ref="Z53" si="77">Z40-Z52</f>
         <v>0</v>
       </c>
     </row>
@@ -19122,59 +19230,59 @@
         <v>4.5408373582373242E-2</v>
       </c>
       <c r="P55" s="116">
-        <f t="shared" ref="P55:Z55" si="75">P10/P32</f>
+        <f t="shared" ref="P55:Z55" si="78">P10/P32</f>
         <v>3.360544525538881E-4</v>
       </c>
       <c r="Q55" s="116">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>1.8331745377073477E-3</v>
       </c>
       <c r="R55" s="116">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>4.247769901560108E-3</v>
       </c>
       <c r="S55" s="116">
-        <f t="shared" si="75"/>
-        <v>1.5335039837579232E-2</v>
+        <f t="shared" ref="R55:W55" si="79">S10/S33</f>
+        <v>1.193928272828893E-2</v>
       </c>
       <c r="T55" s="116">
-        <f t="shared" si="75"/>
-        <v>2.7457494533218805E-2</v>
+        <f t="shared" si="79"/>
+        <v>1.4161378068693404E-2</v>
       </c>
       <c r="U55" s="116">
-        <f t="shared" si="75"/>
-        <v>3.4722342378714036E-2</v>
+        <f t="shared" si="79"/>
+        <v>1.6102429317280533E-2</v>
       </c>
       <c r="V55" s="116">
-        <f t="shared" si="75"/>
-        <v>5.3437410880491726E-2</v>
+        <f t="shared" si="79"/>
+        <v>1.5619746110979021E-2</v>
       </c>
       <c r="W55" s="116">
-        <f t="shared" si="75"/>
-        <v>8.3307070877883416E-2</v>
-      </c>
-      <c r="X55" s="48">
-        <f t="shared" si="75"/>
-        <v>9.0884974222631421E-2</v>
-      </c>
-      <c r="Y55" s="116" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
+        <v>1.2950513694947171E-2</v>
+      </c>
+      <c r="X55" s="116">
+        <f>X10/X33</f>
+        <v>1.3366515577485799E-2</v>
+      </c>
+      <c r="Y55" s="48">
+        <f>Y10/Y33</f>
+        <v>1.3730426831340462E-2</v>
+      </c>
+      <c r="Z55" s="116" t="e">
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z55" s="116" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="6:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="6:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F73" s="40"/>
-      <c r="W73" s="155"/>
-      <c r="X73" s="40"/>
-    </row>
-    <row r="74" spans="6:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X73" s="156"/>
+      <c r="Y73" s="40"/>
+    </row>
+    <row r="74" spans="6:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F74" s="16"/>
-      <c r="W74" s="156"/>
-      <c r="X74" s="16"/>
+      <c r="X74" s="157"/>
+      <c r="Y74" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -19191,10 +19299,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94DE6C0-DA6D-48AB-AC4C-2E31F4D71E11}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19202,7 +19313,7 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>202</v>
       </c>
@@ -19254,8 +19365,14 @@
       <c r="R1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -19311,7 +19428,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -19320,7 +19437,7 @@
         <v>1.4285714285714284</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:R3" si="0">G2/C2-1</f>
+        <f t="shared" ref="G3:S3" si="0">G2/C2-1</f>
         <v>2.2777777777777777</v>
       </c>
       <c r="H3" s="3">
@@ -19367,8 +19484,12 @@
         <f t="shared" si="0"/>
         <v>0.83229813664596275</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -19388,7 +19509,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -28517,14 +28638,14 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="137" t="s">
+      <c r="G1" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="141"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
@@ -29030,10 +29151,10 @@
         <f t="shared" si="0"/>
         <v>4.8811013767209088E-2</v>
       </c>
-      <c r="G17" s="143" t="s">
+      <c r="G17" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="144"/>
+      <c r="H17" s="146"/>
       <c r="L17" s="80"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -29047,8 +29168,8 @@
         <f t="shared" si="0"/>
         <v>-6.9306930693069368E-2</v>
       </c>
-      <c r="G18" s="145"/>
-      <c r="H18" s="146"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
       <c r="L18" s="80"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -29606,14 +29727,14 @@
         <f t="shared" si="0"/>
         <v>6.9100391134289341E-2</v>
       </c>
-      <c r="G43" s="140" t="s">
+      <c r="G43" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="142"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="143"/>
+      <c r="L43" s="144"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12">

--- a/Business - Technology Services/PLTR.xlsx
+++ b/Business - Technology Services/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72723F6B-FEBC-4848-91A1-80875B2CEC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E7D9D-E432-4C22-96B4-654B8FEF3DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DoR!$A$1:$C$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$17:$W$17</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$18:$W$18</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$4:$W$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$3:$X$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$4:$X$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$18</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$17:$X$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$18:$X$18</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="213">
   <si>
     <t>Price</t>
   </si>
@@ -950,6 +950,15 @@
   <si>
     <t>Shares (basic)</t>
   </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
 </sst>
 </file>
 
@@ -1063,7 +1072,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1120,6 +1129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,7 +1690,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1722,7 +1737,6 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1730,7 +1744,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1820,7 +1833,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1828,8 +1840,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1887,6 +1898,7 @@
     <xf numFmtId="167" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1894,10 +1906,18 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2115,7 +2135,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$W$2</c:f>
+              <c:f>Model!$L$2:$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -2162,7 +2182,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$3:$W$3</c:f>
+              <c:f>Model!$L$3:$X$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2312,7 +2332,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$22:$W$22</c:f>
+              <c:f>Model!$L$22:$X$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2843,6 +2863,9 @@
                 <c:pt idx="4">
                   <c:v>2225.0120000000002</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2865.5069999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3436,7 +3459,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$W$2</c:f>
+              <c:f>Model!$L$2:$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -3483,7 +3506,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$15:$W$15</c:f>
+              <c:f>Model!$L$15:$X$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3633,7 +3656,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$20:$W$20</c:f>
+              <c:f>Model!$L$20:$X$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4136,6 +4159,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>209.8250000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>473.64599999999973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4701,7 +4727,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$U$2</c:f>
+              <c:f>Model!$L$2:$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4742,7 +4768,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$24:$U$24</c:f>
+              <c:f>Model!$L$24:$V$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4887,7 +4913,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$23:$V$23</c:f>
+              <c:f>Model!$L$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5035,7 +5061,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$25:$V$25</c:f>
+              <c:f>Model!$L$25:$W$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8432,18 +8458,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8487,7 +8513,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8507,7 +8533,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8538,18 +8564,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8593,7 +8619,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8613,7 +8639,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -14925,8 +14951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14954,7 +14980,7 @@
       <c r="E2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="52" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="24"/>
@@ -14982,7 +15008,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="20">
-        <v>45605</v>
+        <v>45695</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>135</v>
@@ -14998,7 +15024,7 @@
       </c>
       <c r="J3" s="37">
         <f t="shared" ref="J3:J10" si="0">I3/($C$7*100000)</f>
-        <v>2.652814672216068E-6</v>
+        <v>2.5684600910328206E-6</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>163</v>
@@ -15010,8 +15036,8 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="128">
-        <v>0.94374999999999998</v>
+      <c r="C4" s="145">
+        <v>0.20902777777777778</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>137</v>
@@ -15027,7 +15053,7 @@
       </c>
       <c r="J4" s="37">
         <f t="shared" si="0"/>
-        <v>1.9465923878558445E-5</v>
+        <v>1.884694364095705E-5</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>165</v>
@@ -15054,7 +15080,7 @@
       </c>
       <c r="J5" s="37">
         <f t="shared" si="0"/>
-        <v>2.8823638012683322E-2</v>
+        <v>2.7907099839774952E-2</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>167</v>
@@ -15069,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>58.86</v>
+        <v>111.28</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>141</v>
@@ -15085,7 +15111,7 @@
       </c>
       <c r="J6" s="37">
         <f t="shared" si="0"/>
-        <v>7.3289382647007163E-3</v>
+        <v>7.0958916352804038E-3</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>169</v>
@@ -15100,8 +15126,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!X16</f>
-        <v>2231.5920000000001</v>
+        <f>Model!AA16</f>
+        <v>2304.8829999999998</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>143</v>
@@ -15117,7 +15143,7 @@
       </c>
       <c r="J7" s="37">
         <f t="shared" si="0"/>
-        <v>3.0029503601016671E-3</v>
+        <v>2.907462114129004E-3</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>171</v>
@@ -15133,7 +15159,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>131351.50512000002</v>
+        <v>256487.38023999997</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>145</v>
@@ -15149,7 +15175,7 @@
       </c>
       <c r="J8" s="37">
         <f t="shared" si="0"/>
-        <v>6.7336681615635836E-3</v>
+        <v>6.5195500162047284E-3</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>173</v>
@@ -15164,8 +15190,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!Y32+Model!Y33</f>
-        <v>4564.6589999999997</v>
+        <f>Model!AA32+Model!AA33</f>
+        <v>5229.9870000000001</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>147</v>
@@ -15181,7 +15207,7 @@
       </c>
       <c r="J9" s="37">
         <f t="shared" si="0"/>
-        <v>8.5939992615137537E-4</v>
+        <v>8.3207260411916799E-4</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>175</v>
@@ -15213,7 +15239,7 @@
       </c>
       <c r="J10" s="37">
         <f t="shared" si="0"/>
-        <v>8.1314147030460765E-5</v>
+        <v>7.8728508128178323E-5</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>177</v>
@@ -15229,7 +15255,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>4564.6589999999997</v>
+        <v>5229.9870000000001</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>151</v>
@@ -15258,7 +15284,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>126786.84612000002</v>
+        <v>251257.39323999998</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>153</v>
@@ -15279,9 +15305,9 @@
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <f>C6/Model!F17</f>
-        <v>602.400436363636</v>
+        <v>1138.8909371142613</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -15292,9 +15318,9 @@
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <f>C6/Model!G18</f>
-        <v>159.08108108108109</v>
+        <v>300.75675675675677</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="28"/>
@@ -15310,9 +15336,9 @@
       <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="45">
         <f>C6/Model!H18</f>
-        <v>127.95652173913042</v>
+        <v>198.71428571428569</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -15330,38 +15356,38 @@
       </c>
       <c r="C17" s="6">
         <f>Model!H18/Model!G18-1</f>
-        <v>0.2432432432432432</v>
+        <v>0.5135135135135136</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="130"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="45">
         <f>C14/(C16*100)</f>
-        <v>0.57084785620956935</v>
-      </c>
-      <c r="L18" s="133"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="135"/>
+        <v>1.0792380128950201</v>
+      </c>
+      <c r="L18" s="129"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="131"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="45">
         <f>C15/(C17*100)</f>
-        <v>5.2604347826086961</v>
-      </c>
-      <c r="L19" s="133"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="135"/>
+        <v>3.8696992481202996</v>
+      </c>
+      <c r="L19" s="129"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="131"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -15371,9 +15397,9 @@
         <f>Model!G4/Model!F3-1</f>
         <v>0.25842017930689809</v>
       </c>
-      <c r="L20" s="133"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="135"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="131"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -15381,23 +15407,23 @@
       </c>
       <c r="C21" s="6">
         <f>Model!H4/Model!G4-1</f>
-        <v>0.23928571428571432</v>
-      </c>
-      <c r="L21" s="133"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="135"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="L21" s="129"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="131"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="43">
         <f>Model!F12</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="L22" s="133"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="135"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="131"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -15407,33 +15433,33 @@
         <f>Model!F12</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="L23" s="133"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="135"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="131"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!Y20</f>
+        <f>Model!Z20</f>
         <v>0.79788316177727303</v>
       </c>
-      <c r="L24" s="133"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="135"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="131"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!Y21</f>
+        <f>Model!Z21</f>
         <v>0.19782472061263981</v>
       </c>
-      <c r="L25" s="133"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="135"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="131"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -15441,11 +15467,11 @@
       </c>
       <c r="C26" s="35">
         <f>Main!C12/Model!F12</f>
-        <v>534.76026555204521</v>
-      </c>
-      <c r="L26" s="133"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="135"/>
+        <v>1059.7508688225189</v>
+      </c>
+      <c r="L26" s="129"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="131"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -15457,9 +15483,9 @@
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="133"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="135"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="131"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -15471,16 +15497,16 @@
       <c r="E28" t="s">
         <v>184</v>
       </c>
-      <c r="L28" s="136"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="138"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="134"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="15">
-        <f>Model!Y36-Model!Y46</f>
+        <f>Model!Z36-Model!Z46</f>
         <v>4408.5059999999994</v>
       </c>
     </row>
@@ -15489,7 +15515,7 @@
         <v>86</v>
       </c>
       <c r="C30" s="35">
-        <f>(Model!Y32+Model!Y33+Model!Y34)/Model!Y41</f>
+        <f>(Model!Z32+Model!Z33+Model!Z34)/Model!Z41</f>
         <v>193.65563820732021</v>
       </c>
     </row>
@@ -15515,7 +15541,7 @@
       <c r="B34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="117">
+      <c r="C34" s="115">
         <f>Model!F15/Model!F40</f>
         <v>4.6396568212850424E-2</v>
       </c>
@@ -15524,7 +15550,7 @@
       <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="117">
+      <c r="C35" s="115">
         <f>Model!F15/Model!F53</f>
         <v>5.8923634464253395E-2</v>
       </c>
@@ -15546,29 +15572,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
+      <selection pane="bottomRight" activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="24" max="24" width="11.42578125" style="149"/>
-    <col min="25" max="25" width="11.42578125" style="13"/>
+    <col min="6" max="6" width="11.42578125" style="146"/>
+    <col min="7" max="7" width="11.42578125" style="13"/>
+    <col min="26" max="26" width="11.42578125" style="146"/>
+    <col min="27" max="27" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -15581,68 +15608,77 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>9</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="149" t="s">
+      <c r="Y2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Z2" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -15658,61 +15694,68 @@
       <c r="E3" s="10">
         <v>1905.8710000000001</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="147">
         <v>2225.0120000000002</v>
       </c>
-      <c r="G3" s="39"/>
+      <c r="G3" s="160">
+        <f>SUM(X3:AA3)</f>
+        <v>2865.5069999999996</v>
+      </c>
       <c r="H3" s="39"/>
-      <c r="K3" s="10">
+      <c r="I3" s="39"/>
+      <c r="L3" s="10">
         <v>341.23399999999998</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>375.642</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>392.14600000000002</v>
       </c>
-      <c r="N3" s="10">
-        <f>D3-M3-L3-K3</f>
+      <c r="O3" s="10">
+        <f>D3-N3-M3-L3</f>
         <v>432.8669999999999</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>446.35700000000003</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>473.01</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>477.88</v>
       </c>
-      <c r="R3" s="10">
-        <f>E3-Q3-P3-O3</f>
+      <c r="S3" s="10">
+        <f>E3-R3-Q3-P3</f>
         <v>508.62399999999997</v>
       </c>
-      <c r="S3" s="10">
+      <c r="T3" s="10">
         <v>525.18600000000004</v>
       </c>
-      <c r="T3" s="10">
+      <c r="U3" s="10">
         <v>533.31700000000001</v>
       </c>
-      <c r="U3" s="10">
+      <c r="V3" s="10">
         <v>558.15899999999999</v>
       </c>
-      <c r="V3" s="10">
-        <f>F3-U3-T3-S3</f>
+      <c r="W3" s="10">
+        <f>F3-V3-U3-T3</f>
         <v>608.35</v>
       </c>
-      <c r="W3" s="10">
+      <c r="X3" s="10">
         <v>634.33799999999997</v>
       </c>
-      <c r="X3" s="150">
+      <c r="Y3" s="10">
         <v>678.13400000000001</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Z3" s="147">
         <v>725.51599999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA3" s="15">
+        <v>827.51900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -15720,14 +15763,16 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="41">
+      <c r="F4" s="147"/>
+      <c r="G4" s="123">
         <v>2800</v>
       </c>
       <c r="H4" s="41">
-        <v>3470</v>
-      </c>
-      <c r="K4" s="39"/>
+        <v>3780</v>
+      </c>
+      <c r="I4" s="41">
+        <v>4690</v>
+      </c>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
@@ -15735,35 +15780,39 @@
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="39"/>
-      <c r="S4" s="124">
+      <c r="S4" s="39"/>
+      <c r="T4" s="121">
         <v>505.82</v>
       </c>
-      <c r="T4" s="39">
+      <c r="U4" s="39">
         <v>533.38</v>
       </c>
-      <c r="U4" s="124">
+      <c r="V4" s="121">
         <v>555.51</v>
       </c>
-      <c r="V4" s="125">
+      <c r="W4" s="122">
         <v>602.88</v>
       </c>
-      <c r="W4" s="124">
+      <c r="X4" s="121">
         <v>615.4</v>
       </c>
-      <c r="X4" s="151">
+      <c r="Y4" s="121">
         <v>651.39</v>
       </c>
-      <c r="Y4" s="126">
+      <c r="Z4" s="148">
         <v>701.25</v>
       </c>
-      <c r="Z4" s="124">
+      <c r="AA4" s="123">
         <v>769.39</v>
       </c>
-      <c r="AA4" s="151">
-        <v>792.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="164">
+        <v>874.36</v>
+      </c>
+      <c r="AC4" s="148">
+        <v>908.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -15779,61 +15828,68 @@
       <c r="E5" s="10">
         <v>408.54899999999998</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="147">
         <v>431.10500000000002</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="160">
+        <f t="shared" ref="G5:G16" si="0">SUM(X5:AA5)</f>
+        <v>565.99</v>
+      </c>
       <c r="H5" s="39"/>
-      <c r="K5" s="10">
+      <c r="I5" s="39"/>
+      <c r="L5" s="10">
         <v>74.111000000000004</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>90.926000000000002</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>86.804000000000002</v>
       </c>
-      <c r="N5" s="10">
-        <f>D5-M5-L5-K5</f>
+      <c r="O5" s="10">
+        <f>D5-N5-M5-L5</f>
         <v>87.562999999999974</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>94.403000000000006</v>
       </c>
-      <c r="P5" s="39">
+      <c r="Q5" s="39">
         <v>102.224</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>107.611</v>
       </c>
-      <c r="R5" s="10">
-        <f>E5-Q5-P5-O5</f>
+      <c r="S5" s="10">
+        <f>E5-R5-Q5-P5</f>
         <v>104.31099999999999</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>107.645</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
         <v>106.899</v>
       </c>
-      <c r="U5" s="10">
+      <c r="V5" s="10">
         <v>107.922</v>
       </c>
-      <c r="V5" s="10">
-        <f>F5-U5-T5-S5</f>
+      <c r="W5" s="10">
+        <f>F5-V5-U5-T5</f>
         <v>108.639</v>
       </c>
-      <c r="W5" s="10">
+      <c r="X5" s="10">
         <v>116.256</v>
       </c>
-      <c r="X5" s="150">
+      <c r="Y5" s="10">
         <v>128.56200000000001</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Z5" s="147">
         <v>146.63900000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA5" s="15">
+        <v>174.53299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -15849,61 +15905,68 @@
       <c r="E6" s="10">
         <v>702.51099999999997</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="147">
         <v>744.99199999999996</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="160">
+        <f t="shared" si="0"/>
+        <v>887.75500000000011</v>
+      </c>
       <c r="H6" s="39"/>
-      <c r="K6" s="10">
+      <c r="I6" s="39"/>
+      <c r="L6" s="10">
         <v>136.09700000000001</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>162.37899999999999</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>153.44300000000001</v>
       </c>
-      <c r="N6" s="10">
-        <f>D6-M6-L6-K6</f>
+      <c r="O6" s="10">
+        <f>D6-N6-M6-L6</f>
         <v>162.59299999999993</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <v>160.48500000000001</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>168.875</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="10">
         <v>182.91800000000001</v>
       </c>
-      <c r="R6" s="10">
-        <f>E6-Q6-P6-O6</f>
+      <c r="S6" s="10">
+        <f>E6-R6-Q6-P6</f>
         <v>190.23299999999995</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <v>187.09299999999999</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
         <v>184.16300000000001</v>
       </c>
-      <c r="U6" s="10">
+      <c r="V6" s="10">
         <v>176.37299999999999</v>
       </c>
-      <c r="V6" s="10">
-        <f>F6-U6-T6-S6</f>
+      <c r="W6" s="10">
+        <f>F6-V6-U6-T6</f>
         <v>197.36299999999991</v>
       </c>
-      <c r="W6" s="10">
+      <c r="X6" s="10">
         <v>193.17699999999999</v>
       </c>
-      <c r="X6" s="150">
+      <c r="Y6" s="10">
         <v>196.809</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Z6" s="147">
         <v>209.47399999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA6" s="15">
+        <v>288.29500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -15919,61 +15982,68 @@
       <c r="E7" s="10">
         <v>359.67899999999997</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="147">
         <v>404.62400000000002</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="160">
+        <f t="shared" si="0"/>
+        <v>507.87800000000004</v>
+      </c>
       <c r="H7" s="39"/>
-      <c r="K7" s="10">
+      <c r="I7" s="39"/>
+      <c r="L7" s="10">
         <v>98.471000000000004</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>110.524</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>94.316000000000003</v>
       </c>
-      <c r="N7" s="10">
-        <f>D7-M7-L7-K7</f>
+      <c r="O7" s="10">
+        <f>D7-N7-M7-L7</f>
         <v>84.176000000000045</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>88.600999999999999</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>88.171000000000006</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>100.863</v>
       </c>
-      <c r="R7" s="10">
-        <f>E7-Q7-P7-O7</f>
+      <c r="S7" s="10">
+        <f>E7-R7-Q7-P7</f>
         <v>82.043999999999983</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>90.1</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <v>99.533000000000001</v>
       </c>
-      <c r="U7" s="10">
+      <c r="V7" s="10">
         <v>105.708</v>
       </c>
-      <c r="V7" s="10">
-        <f>F7-U7-T7-S7</f>
+      <c r="W7" s="10">
+        <f>F7-V7-U7-T7</f>
         <v>109.28300000000004</v>
       </c>
-      <c r="W7" s="10">
+      <c r="X7" s="10">
         <v>110.04</v>
       </c>
-      <c r="X7" s="150">
+      <c r="Y7" s="10">
         <v>108.78100000000001</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Z7" s="147">
         <v>117.55500000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA7" s="15">
+        <v>171.50200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -15989,61 +16059,68 @@
       <c r="E8" s="10">
         <v>596.33299999999997</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="147">
         <v>524.32500000000005</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="160">
+        <f t="shared" si="0"/>
+        <v>593.48099999999999</v>
+      </c>
       <c r="H8" s="10"/>
-      <c r="K8" s="10">
+      <c r="I8" s="10"/>
+      <c r="L8" s="10">
         <v>146.56899999999999</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>157.96100000000001</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <v>149.524</v>
       </c>
-      <c r="N8" s="10">
-        <f>D8-M8-L8-K8</f>
+      <c r="O8" s="10">
+        <f>D8-N8-M8-L8</f>
         <v>157.47800000000004</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10">
         <v>142.30699999999999</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>155.48500000000001</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>148.679</v>
       </c>
-      <c r="R8" s="10">
-        <f>E8-Q8-P8-O8</f>
+      <c r="S8" s="10">
+        <f>E8-R8-Q8-P8</f>
         <v>149.86199999999999</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>136.233</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <v>132.648</v>
       </c>
-      <c r="U8" s="10">
+      <c r="V8" s="10">
         <v>128.173</v>
       </c>
-      <c r="V8" s="10">
-        <f>F8-U8-T8-S8</f>
+      <c r="W8" s="10">
+        <f>F8-V8-U8-T8</f>
         <v>127.27100000000002</v>
       </c>
-      <c r="W8" s="10">
+      <c r="X8" s="10">
         <v>133.98400000000001</v>
       </c>
-      <c r="X8" s="150">
+      <c r="Y8" s="10">
         <v>138.643</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Z8" s="147">
         <v>138.708</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="15">
+        <v>182.14599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -16052,99 +16129,100 @@
         <v>-576.44399999999996</v>
       </c>
       <c r="C9" s="11">
-        <f t="shared" ref="C9:H9" si="0">C3-C5-C6-C7-C8</f>
+        <f t="shared" ref="C9:H9" si="1">C3-C5-C6-C7-C8</f>
         <v>-1173.6790000000001</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-411.04600000000011</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-161.20099999999979</v>
       </c>
-      <c r="F9" s="11">
-        <f t="shared" si="0"/>
+      <c r="F9" s="149">
+        <f t="shared" si="1"/>
         <v>119.96600000000012</v>
       </c>
-      <c r="G9" s="11">
-        <f t="shared" si="0"/>
+      <c r="G9" s="14">
+        <f t="shared" si="1"/>
+        <v>310.40299999999968</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <f t="shared" ref="K9" si="1">K3-K5-K6-K7-K8</f>
-        <v>-114.01400000000001</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="L9" s="11">
         <f t="shared" ref="L9" si="2">L3-L5-L6-L7-L8</f>
-        <v>-146.148</v>
+        <v>-114.01400000000001</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" ref="M9" si="3">M3-M5-M6-M7-M8</f>
-        <v>-91.941000000000031</v>
+        <v>-146.148</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" ref="N9" si="4">N3-N5-N6-N7-N8</f>
-        <v>-58.943000000000097</v>
+        <v>-91.941000000000031</v>
       </c>
       <c r="O9" s="11">
         <f t="shared" ref="O9" si="5">O3-O5-O6-O7-O8</f>
-        <v>-39.438999999999993</v>
+        <v>-58.943000000000097</v>
       </c>
       <c r="P9" s="11">
         <f t="shared" ref="P9" si="6">P3-P5-P6-P7-P8</f>
-        <v>-41.745000000000019</v>
+        <v>-39.438999999999993</v>
       </c>
       <c r="Q9" s="11">
         <f t="shared" ref="Q9" si="7">Q3-Q5-Q6-Q7-Q8</f>
-        <v>-62.191000000000003</v>
+        <v>-41.745000000000019</v>
       </c>
       <c r="R9" s="11">
         <f t="shared" ref="R9" si="8">R3-R5-R6-R7-R8</f>
-        <v>-17.825999999999937</v>
+        <v>-62.191000000000003</v>
       </c>
       <c r="S9" s="11">
         <f t="shared" ref="S9" si="9">S3-S5-S6-S7-S8</f>
-        <v>4.1150000000000659</v>
+        <v>-17.825999999999937</v>
       </c>
       <c r="T9" s="11">
         <f t="shared" ref="T9" si="10">T3-T5-T6-T7-T8</f>
+        <v>4.1150000000000659</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" ref="U9" si="11">U3-U5-U6-U7-U8</f>
         <v>10.073999999999984</v>
       </c>
-      <c r="U9" s="11">
-        <f t="shared" ref="U9:W9" si="11">U3-U5-U6-U7-U8</f>
+      <c r="V9" s="11">
+        <f t="shared" ref="V9:X9" si="12">V3-V5-V6-V7-V8</f>
         <v>39.982999999999976</v>
       </c>
-      <c r="V9" s="11">
-        <f t="shared" ref="V9" si="12">V3-V5-V6-V7-V8</f>
+      <c r="W9" s="11">
+        <f t="shared" ref="W9" si="13">W3-W5-W6-W7-W8</f>
         <v>65.794000000000011</v>
       </c>
-      <c r="W9" s="11">
-        <f t="shared" si="11"/>
+      <c r="X9" s="11">
+        <f t="shared" si="12"/>
         <v>80.880999999999943</v>
       </c>
-      <c r="X9" s="152">
-        <f t="shared" ref="X9:Y9" si="13">X3-X5-X6-X7-X8</f>
+      <c r="Y9" s="11">
+        <f t="shared" ref="Y9:Z9" si="14">Y3-Y5-Y6-Y7-Y8</f>
         <v>105.33900000000003</v>
       </c>
-      <c r="Y9" s="14">
-        <f t="shared" si="13"/>
+      <c r="Z9" s="149">
+        <f t="shared" si="14"/>
         <v>113.13999999999996</v>
       </c>
-      <c r="Z9" s="152">
-        <f t="shared" ref="Z9:AA9" si="14">Z3-Z5-Z6-Z7-Z8</f>
+      <c r="AA9" s="14">
+        <f t="shared" ref="AA9:AB9" si="15">AA3-AA5-AA6-AA7-AA8</f>
+        <v>11.042999999999978</v>
+      </c>
+      <c r="AB9" s="11">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="152">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -16164,73 +16242,79 @@
         <f>20.309-4.058</f>
         <v>16.251000000000001</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="147">
         <f>132.572-3.47</f>
         <v>129.102</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="160">
+        <f t="shared" si="0"/>
+        <v>196.792</v>
+      </c>
       <c r="H10" s="39"/>
-      <c r="K10" s="10">
+      <c r="I10" s="39"/>
+      <c r="L10" s="10">
         <f>0.376-1.84</f>
         <v>-1.464</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <f>0.372-0.59</f>
         <v>-0.21799999999999997</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <f>0.379-0.609</f>
         <v>-0.22999999999999998</v>
       </c>
-      <c r="N10" s="10">
-        <f>D10-M10-L10-K10</f>
+      <c r="O10" s="10">
+        <f>D10-N10-M10-L10</f>
         <v>-0.12100000000000044</v>
       </c>
-      <c r="O10" s="10">
+      <c r="P10" s="10">
         <f>0.547-0.594</f>
         <v>-4.6999999999999931E-2</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <f>1.472-0.67</f>
         <v>0.80199999999999994</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <f>5.54-1.082</f>
         <v>4.4580000000000002</v>
       </c>
-      <c r="R10" s="10">
-        <f>E10-Q10-P10-O10</f>
+      <c r="S10" s="10">
+        <f>E10-R10-Q10-P10</f>
         <v>11.038000000000002</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="10">
         <f>20.853-1.275</f>
         <v>19.578000000000003</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <f>30.31-1.317</f>
         <v>28.992999999999999</v>
       </c>
-      <c r="U10" s="10">
+      <c r="V10" s="10">
         <f>36.864-0.742</f>
         <v>36.122</v>
       </c>
-      <c r="V10" s="10">
-        <f t="shared" ref="V10:V11" si="15">F10-U10-T10-S10</f>
+      <c r="W10" s="10">
+        <f t="shared" ref="W10:W11" si="16">F10-V10-U10-T10</f>
         <v>44.409000000000006</v>
       </c>
-      <c r="W10" s="10">
+      <c r="X10" s="10">
         <v>43.351999999999997</v>
       </c>
-      <c r="X10" s="150">
+      <c r="Y10" s="10">
         <v>46.593000000000004</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Z10" s="147">
         <v>52.12</v>
       </c>
-      <c r="Z10" s="150"/>
-      <c r="AA10" s="150"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA10" s="15">
+        <v>54.726999999999997</v>
+      </c>
+      <c r="AB10" s="10"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -16248,63 +16332,69 @@
       <c r="E11" s="10">
         <v>-216.077</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="147">
         <v>-11.977</v>
       </c>
-      <c r="G11" s="39"/>
+      <c r="G11" s="160">
+        <f t="shared" si="0"/>
+        <v>-18.021999999999998</v>
+      </c>
       <c r="H11" s="39"/>
-      <c r="K11" s="10">
+      <c r="I11" s="39"/>
+      <c r="L11" s="10">
         <v>-4.8940000000000001</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>2.125</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
         <v>-8.5280000000000005</v>
       </c>
-      <c r="N11" s="10">
-        <f>D11-M11-L11-K11</f>
+      <c r="O11" s="10">
+        <f>D11-N11-M11-L11</f>
         <v>-64.117999999999995</v>
       </c>
-      <c r="O11" s="10">
+      <c r="P11" s="10">
         <v>-59.87</v>
       </c>
-      <c r="P11" s="10">
+      <c r="Q11" s="10">
         <v>-135.798</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="R11" s="10">
         <v>-65.046000000000006</v>
       </c>
-      <c r="R11" s="10">
-        <f>E11-Q11-P11-O11</f>
+      <c r="S11" s="10">
+        <f>E11-R11-Q11-P11</f>
         <v>44.636999999999993</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>-2.8610000000000002</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
         <v>-9.0239999999999991</v>
       </c>
-      <c r="U11" s="10">
+      <c r="V11" s="10">
         <v>3.8639999999999999</v>
       </c>
-      <c r="V11" s="10">
-        <f t="shared" si="15"/>
+      <c r="W11" s="10">
+        <f t="shared" si="16"/>
         <v>-3.9560000000000017</v>
       </c>
-      <c r="W11" s="10">
+      <c r="X11" s="10">
         <v>-13.507</v>
       </c>
-      <c r="X11" s="150">
+      <c r="Y11" s="10">
         <v>-11.173</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Z11" s="147">
         <v>-8.11</v>
       </c>
-      <c r="Z11" s="150"/>
-      <c r="AA11" s="150"/>
-    </row>
-    <row r="12" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="15">
+        <v>14.768000000000001</v>
+      </c>
+      <c r="AB11" s="10"/>
+    </row>
+    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -16313,99 +16403,100 @@
         <v>-567.27099999999996</v>
       </c>
       <c r="C12" s="11">
-        <f t="shared" ref="C12:H12" si="16">C9+C10+C11</f>
+        <f t="shared" ref="C12:H12" si="17">C9+C10+C11</f>
         <v>-1179.027</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-488.49400000000014</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-361.02699999999982</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="149">
         <f>F9+F10+F11</f>
         <v>237.09100000000012</v>
       </c>
-      <c r="G12" s="11">
-        <f t="shared" si="16"/>
+      <c r="G12" s="14">
+        <f t="shared" si="17"/>
+        <v>489.17299999999972</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H12" s="11">
-        <f t="shared" si="16"/>
+      <c r="I12" s="11"/>
+      <c r="L12" s="11">
+        <f t="shared" ref="L12:W12" si="18">L9+L10+L11</f>
+        <v>-120.37200000000001</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="18"/>
+        <v>-144.24099999999999</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="18"/>
+        <v>-100.69900000000004</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="18"/>
+        <v>-123.1820000000001</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="18"/>
+        <v>-99.355999999999995</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="18"/>
+        <v>-176.74100000000001</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="18"/>
+        <v>-122.77900000000001</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="18"/>
+        <v>37.849000000000061</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="18"/>
+        <v>20.832000000000068</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="18"/>
+        <v>30.042999999999978</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="18"/>
+        <v>79.96899999999998</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="18"/>
+        <v>106.24700000000001</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" ref="X12:Z12" si="19">X9+X10+X11</f>
+        <v>110.72599999999994</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="19"/>
+        <v>140.75900000000001</v>
+      </c>
+      <c r="Z12" s="149">
+        <f t="shared" si="19"/>
+        <v>157.14999999999998</v>
+      </c>
+      <c r="AA12" s="14">
+        <f t="shared" ref="AA12:AB12" si="20">AA9+AA10+AA11</f>
+        <v>80.537999999999982</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K12" s="11">
-        <f t="shared" ref="K12:V12" si="17">K9+K10+K11</f>
-        <v>-120.37200000000001</v>
-      </c>
-      <c r="L12" s="11">
-        <f t="shared" si="17"/>
-        <v>-144.24099999999999</v>
-      </c>
-      <c r="M12" s="11">
-        <f t="shared" si="17"/>
-        <v>-100.69900000000004</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" si="17"/>
-        <v>-123.1820000000001</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="17"/>
-        <v>-99.355999999999995</v>
-      </c>
-      <c r="P12" s="11">
-        <f t="shared" si="17"/>
-        <v>-176.74100000000001</v>
-      </c>
-      <c r="Q12" s="11">
-        <f t="shared" si="17"/>
-        <v>-122.77900000000001</v>
-      </c>
-      <c r="R12" s="11">
-        <f t="shared" si="17"/>
-        <v>37.849000000000061</v>
-      </c>
-      <c r="S12" s="11">
-        <f t="shared" si="17"/>
-        <v>20.832000000000068</v>
-      </c>
-      <c r="T12" s="11">
-        <f t="shared" si="17"/>
-        <v>30.042999999999978</v>
-      </c>
-      <c r="U12" s="11">
-        <f t="shared" si="17"/>
-        <v>79.96899999999998</v>
-      </c>
-      <c r="V12" s="11">
-        <f t="shared" si="17"/>
-        <v>106.24700000000001</v>
-      </c>
-      <c r="W12" s="11">
-        <f t="shared" ref="W12:Y12" si="18">W9+W10+W11</f>
-        <v>110.72599999999994</v>
-      </c>
-      <c r="X12" s="152">
-        <f t="shared" si="18"/>
-        <v>140.75900000000001</v>
-      </c>
-      <c r="Y12" s="14">
-        <f t="shared" si="18"/>
-        <v>157.14999999999998</v>
-      </c>
-      <c r="Z12" s="152">
-        <f t="shared" ref="Z12:AA12" si="19">Z9+Z10+Z11</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="152">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -16421,63 +16512,69 @@
       <c r="E13" s="10">
         <v>10.067</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="147">
         <v>19.716000000000001</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="160">
+        <f t="shared" si="0"/>
+        <v>21.255000000000003</v>
+      </c>
       <c r="H13" s="39"/>
-      <c r="K13" s="10">
+      <c r="I13" s="39"/>
+      <c r="L13" s="10">
         <v>3.1019999999999999</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <v>-5.6609999999999996</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>1.4379999999999999</v>
       </c>
-      <c r="N13" s="10">
-        <f>D13-M13-L13-K13</f>
+      <c r="O13" s="10">
+        <f>D13-N13-M13-L13</f>
         <v>33.006000000000007</v>
       </c>
-      <c r="O13" s="10">
+      <c r="P13" s="10">
         <v>2.0230000000000001</v>
       </c>
-      <c r="P13" s="10">
+      <c r="Q13" s="10">
         <v>2.5880000000000001</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <v>1.0960000000000001</v>
       </c>
-      <c r="R13" s="10">
-        <f>E13-Q13-P13-O13</f>
+      <c r="S13" s="10">
+        <f>E13-R13-Q13-P13</f>
         <v>4.3599999999999994</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10">
         <v>1.681</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
         <v>2.1709999999999998</v>
       </c>
-      <c r="U13" s="10">
+      <c r="V13" s="10">
         <v>6.53</v>
       </c>
-      <c r="V13" s="10">
-        <f t="shared" ref="V13:V14" si="20">F13-U13-T13-S13</f>
+      <c r="W13" s="10">
+        <f t="shared" ref="W13:W14" si="21">F13-V13-U13-T13</f>
         <v>9.3339999999999996</v>
       </c>
-      <c r="W13" s="10">
+      <c r="X13" s="10">
         <v>4.6550000000000002</v>
       </c>
-      <c r="X13" s="150">
+      <c r="Y13" s="10">
         <v>5.1890000000000001</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Z13" s="147">
         <v>7.8090000000000002</v>
       </c>
-      <c r="Z13" s="150"/>
-      <c r="AA13" s="150"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA13" s="15">
+        <v>3.6019999999999999</v>
+      </c>
+      <c r="AB13" s="10"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -16493,14 +16590,15 @@
       <c r="E14" s="10">
         <v>2.6110000000000002</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="147">
         <v>-7.55</v>
       </c>
-      <c r="G14" s="39"/>
+      <c r="G14" s="160">
+        <f t="shared" si="0"/>
+        <v>5.7279999999999998</v>
+      </c>
       <c r="H14" s="39"/>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
+      <c r="I14" s="39"/>
       <c r="L14" s="10">
         <v>0</v>
       </c>
@@ -16508,10 +16606,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="10">
-        <f>D14-M14-L14-K14</f>
         <v>0</v>
       </c>
       <c r="O14" s="10">
+        <f>D14-N14-M14-L14</f>
         <v>0</v>
       </c>
       <c r="P14" s="10">
@@ -16521,35 +16619,40 @@
         <v>0</v>
       </c>
       <c r="R14" s="10">
-        <f>E14-Q14-P14-O14</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <f>E14-R14-Q14-P14</f>
         <v>2.6110000000000002</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>2.3490000000000002</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
         <v>-0.255</v>
       </c>
-      <c r="U14" s="10">
+      <c r="V14" s="10">
         <v>1.9339999999999999</v>
       </c>
-      <c r="V14" s="10">
-        <f t="shared" si="20"/>
+      <c r="W14" s="10">
+        <f t="shared" si="21"/>
         <v>-11.577999999999999</v>
       </c>
-      <c r="W14" s="10">
+      <c r="X14" s="10">
         <v>0.54100000000000004</v>
       </c>
-      <c r="X14" s="150">
+      <c r="Y14" s="10">
         <v>1.444</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Z14" s="147">
         <v>5.8159999999999998</v>
       </c>
-      <c r="Z14" s="150"/>
-      <c r="AA14" s="150"/>
-    </row>
-    <row r="15" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="15">
+        <v>-2.073</v>
+      </c>
+      <c r="AB14" s="10"/>
+    </row>
+    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -16569,82 +16672,86 @@
         <f>E12-E13+E14</f>
         <v>-368.48299999999983</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="149">
         <f>F12-F13+F14</f>
         <v>209.8250000000001</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="K15" s="11">
-        <f>K12-K13-K14</f>
-        <v>-123.47400000000002</v>
-      </c>
+      <c r="G15" s="14">
+        <f>G12-G13+G14</f>
+        <v>473.64599999999973</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="L15" s="11">
         <f>L12-L13-L14</f>
-        <v>-138.57999999999998</v>
+        <v>-123.47400000000002</v>
       </c>
       <c r="M15" s="11">
         <f>M12-M13-M14</f>
+        <v>-138.57999999999998</v>
+      </c>
+      <c r="N15" s="11">
+        <f>N12-N13-N14</f>
         <v>-102.13700000000004</v>
       </c>
-      <c r="N15" s="11">
-        <f t="shared" ref="N15:R15" si="21">N12+N13+N14</f>
+      <c r="O15" s="11">
+        <f t="shared" ref="O15:S15" si="22">O12+O13+O14</f>
         <v>-90.176000000000101</v>
       </c>
-      <c r="O15" s="11">
-        <f t="shared" si="21"/>
+      <c r="P15" s="11">
+        <f t="shared" si="22"/>
         <v>-97.332999999999998</v>
-      </c>
-      <c r="P15" s="11">
-        <f>P12-P13-P14</f>
-        <v>-179.32900000000001</v>
       </c>
       <c r="Q15" s="11">
         <f>Q12-Q13-Q14</f>
+        <v>-179.32900000000001</v>
+      </c>
+      <c r="R15" s="11">
+        <f>R12-R13-R14</f>
         <v>-123.87500000000001</v>
       </c>
-      <c r="R15" s="11">
-        <f t="shared" si="21"/>
+      <c r="S15" s="11">
+        <f t="shared" si="22"/>
         <v>44.820000000000057</v>
       </c>
-      <c r="S15" s="11">
-        <f t="shared" ref="S15:AA15" si="22">S12-S13-S14</f>
+      <c r="T15" s="11">
+        <f t="shared" ref="T15:AB15" si="23">T12-T13-T14</f>
         <v>16.802000000000067</v>
       </c>
-      <c r="T15" s="11">
-        <f t="shared" si="22"/>
+      <c r="U15" s="11">
+        <f t="shared" si="23"/>
         <v>28.126999999999978</v>
       </c>
-      <c r="U15" s="11">
-        <f t="shared" si="22"/>
+      <c r="V15" s="11">
+        <f t="shared" si="23"/>
         <v>71.504999999999981</v>
       </c>
-      <c r="V15" s="11">
-        <f t="shared" si="22"/>
+      <c r="W15" s="11">
+        <f t="shared" si="23"/>
         <v>108.49100000000001</v>
       </c>
-      <c r="W15" s="11">
-        <f t="shared" si="22"/>
+      <c r="X15" s="11">
+        <f t="shared" si="23"/>
         <v>105.52999999999994</v>
       </c>
-      <c r="X15" s="152">
-        <f t="shared" si="22"/>
+      <c r="Y15" s="11">
+        <f t="shared" si="23"/>
         <v>134.12600000000003</v>
       </c>
-      <c r="Y15" s="14">
-        <f t="shared" si="22"/>
+      <c r="Z15" s="149">
+        <f t="shared" si="23"/>
         <v>143.52499999999998</v>
       </c>
-      <c r="Z15" s="152">
-        <f t="shared" si="22"/>
+      <c r="AA15" s="14">
+        <f t="shared" si="23"/>
+        <v>79.008999999999972</v>
+      </c>
+      <c r="AB15" s="11">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -16660,61 +16767,68 @@
       <c r="E16" s="10">
         <v>2063.7930000000001</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="147">
         <v>2147.4459999999999</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="160">
+        <f>AVERAGE(X16:AA16)</f>
+        <v>2250.0129999999999</v>
+      </c>
       <c r="H16" s="39"/>
-      <c r="K16" s="10">
+      <c r="I16" s="39"/>
+      <c r="L16" s="10">
         <v>1821.1579999999999</v>
       </c>
-      <c r="L16" s="10">
+      <c r="M16" s="10">
         <v>1894.606</v>
       </c>
-      <c r="M16" s="10">
+      <c r="N16" s="10">
         <v>1964.395</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f>D16</f>
         <v>1923.617</v>
       </c>
-      <c r="O16" s="10">
+      <c r="P16" s="10">
         <v>2036.307</v>
       </c>
-      <c r="P16" s="10">
+      <c r="Q16" s="10">
         <v>2054.799</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="R16" s="10">
         <v>2073.2649999999999</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <f>E16</f>
         <v>2063.7930000000001</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>2107.7800000000002</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
         <v>2131.2240000000002</v>
       </c>
-      <c r="U16" s="10">
+      <c r="V16" s="10">
         <v>2162.5300000000002</v>
       </c>
-      <c r="V16" s="10">
+      <c r="W16" s="10">
         <f>F16</f>
         <v>2147.4459999999999</v>
       </c>
-      <c r="W16" s="10">
+      <c r="X16" s="10">
         <v>2213.5450000000001</v>
       </c>
-      <c r="X16" s="150">
+      <c r="Y16" s="10">
         <v>2231.5920000000001</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="Z16" s="147">
         <v>2250.0320000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="15">
+        <v>2304.8829999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -16734,82 +16848,86 @@
         <f>E15/E16</f>
         <v>-0.17854649182355004</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="156">
         <f>F15/F16</f>
         <v>9.7709092568567552E-2</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-      <c r="K17" s="2">
-        <f t="shared" ref="K17" si="23">K15/K16</f>
-        <v>-6.7799718640557283E-2</v>
-      </c>
+      <c r="G17" s="48">
+        <f>G15/G16</f>
+        <v>0.21050811706421241</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="L17" s="2">
         <f t="shared" ref="L17" si="24">L15/L16</f>
-        <v>-7.3144495478215513E-2</v>
+        <v>-6.7799718640557283E-2</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ref="M17" si="25">M15/M16</f>
+        <v>-7.3144495478215513E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" ref="N17" si="26">N15/N16</f>
         <v>-5.1994125417749511E-2</v>
       </c>
-      <c r="N17" s="2">
-        <f t="shared" ref="N17:T17" si="26">N15/N16</f>
+      <c r="O17" s="2">
+        <f t="shared" ref="O17:U17" si="27">O15/O16</f>
         <v>-4.6878354682870917E-2</v>
       </c>
-      <c r="O17" s="2">
-        <f t="shared" si="26"/>
+      <c r="P17" s="2">
+        <f t="shared" si="27"/>
         <v>-4.7798784760844017E-2</v>
       </c>
-      <c r="P17" s="2">
-        <f t="shared" si="26"/>
+      <c r="Q17" s="2">
+        <f t="shared" si="27"/>
         <v>-8.7273256410967698E-2</v>
       </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="26"/>
+      <c r="R17" s="2">
+        <f t="shared" si="27"/>
         <v>-5.9748753777254728E-2</v>
       </c>
-      <c r="R17" s="2">
-        <f t="shared" si="26"/>
+      <c r="S17" s="2">
+        <f t="shared" si="27"/>
         <v>2.1717294321668915E-2</v>
       </c>
-      <c r="S17" s="2">
-        <f t="shared" si="26"/>
+      <c r="T17" s="2">
+        <f t="shared" si="27"/>
         <v>7.9714201671901557E-3</v>
       </c>
-      <c r="T17" s="2">
-        <f t="shared" si="26"/>
+      <c r="U17" s="2">
+        <f t="shared" si="27"/>
         <v>1.3197580357578544E-2</v>
       </c>
-      <c r="U17" s="2">
-        <f>U15/U16</f>
+      <c r="V17" s="2">
+        <f t="shared" ref="V17:AB17" si="28">V15/V16</f>
         <v>3.3065437242489108E-2</v>
       </c>
-      <c r="V17" s="2">
-        <f>V15/V16</f>
+      <c r="W17" s="2">
+        <f t="shared" si="28"/>
         <v>5.0520944414900314E-2</v>
       </c>
-      <c r="W17" s="2">
-        <f>W15/W16</f>
+      <c r="X17" s="2">
+        <f t="shared" si="28"/>
         <v>4.7674657619339089E-2</v>
       </c>
-      <c r="X17" s="153">
-        <f>X15/X16</f>
+      <c r="Y17" s="2">
+        <f t="shared" si="28"/>
         <v>6.0103280527981827E-2</v>
       </c>
-      <c r="Y17" s="34">
-        <f>Y15/Y16</f>
+      <c r="Z17" s="150">
+        <f t="shared" si="28"/>
         <v>6.3787981682038281E-2</v>
       </c>
-      <c r="Z17" s="153" t="e">
-        <f>Z15/Z16</f>
+      <c r="AA17" s="34">
+        <f t="shared" si="28"/>
+        <v>3.427896340074528E-2</v>
+      </c>
+      <c r="AB17" s="2" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA17" s="153" t="e">
-        <f>AA15/AA16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
@@ -16817,75 +16935,83 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="42">
+      <c r="F18" s="150"/>
+      <c r="G18" s="161">
         <v>0.37</v>
       </c>
-      <c r="H18" s="43">
-        <v>0.46</v>
-      </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45">
+      <c r="H18" s="42">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I18" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44">
         <v>0.04</v>
       </c>
-      <c r="T18" s="45">
+      <c r="U18" s="44">
         <v>0.05</v>
       </c>
-      <c r="U18" s="45">
+      <c r="V18" s="44">
         <v>0.06</v>
       </c>
-      <c r="V18" s="127">
+      <c r="W18" s="124">
         <v>0.08</v>
       </c>
-      <c r="W18" s="45">
+      <c r="X18" s="44">
         <v>0.08</v>
       </c>
-      <c r="X18" s="154">
+      <c r="Y18" s="44">
         <v>0.08</v>
       </c>
-      <c r="Y18" s="123">
+      <c r="Z18" s="151">
         <v>0.09</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="AA18" s="120">
         <v>0.11</v>
       </c>
-      <c r="AA18" s="159">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>0.13</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="123"/>
-    </row>
-    <row r="20" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="150"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="120"/>
+    </row>
+    <row r="20" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -16905,78 +17031,82 @@
         <f>1-E5/E3</f>
         <v>0.78563659345254744</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="38">
         <f>1-F5/F3</f>
         <v>0.80624598878567844</v>
       </c>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="K20" s="3">
-        <f t="shared" ref="K20:V20" si="27">1-K5/K3</f>
+      <c r="G20" s="6">
+        <f>1-G5/G3</f>
+        <v>0.80248172487451608</v>
+      </c>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="L20" s="3">
+        <f t="shared" ref="L20:W20" si="29">1-L5/L3</f>
         <v>0.78281472537906538</v>
       </c>
-      <c r="L20" s="3">
-        <f t="shared" si="27"/>
+      <c r="M20" s="3">
+        <f t="shared" si="29"/>
         <v>0.75794506471587308</v>
       </c>
-      <c r="M20" s="3">
-        <f t="shared" si="27"/>
+      <c r="N20" s="3">
+        <f t="shared" si="29"/>
         <v>0.77864366842961552</v>
       </c>
-      <c r="N20" s="3">
-        <f t="shared" si="27"/>
+      <c r="O20" s="3">
+        <f t="shared" si="29"/>
         <v>0.79771384744043783</v>
       </c>
-      <c r="O20" s="3">
-        <f t="shared" si="27"/>
+      <c r="P20" s="3">
+        <f t="shared" si="29"/>
         <v>0.78850337286073702</v>
       </c>
-      <c r="P20" s="3">
-        <f t="shared" si="27"/>
+      <c r="Q20" s="3">
+        <f t="shared" si="29"/>
         <v>0.78388617576795416</v>
       </c>
-      <c r="Q20" s="3">
-        <f t="shared" si="27"/>
+      <c r="R20" s="3">
+        <f t="shared" si="29"/>
         <v>0.77481585335230596</v>
       </c>
-      <c r="R20" s="3">
-        <f t="shared" si="27"/>
+      <c r="S20" s="3">
+        <f t="shared" si="29"/>
         <v>0.79491530089024509</v>
       </c>
-      <c r="S20" s="3">
-        <f t="shared" si="27"/>
+      <c r="T20" s="3">
+        <f t="shared" si="29"/>
         <v>0.79503452110299966</v>
       </c>
-      <c r="T20" s="3">
-        <f t="shared" si="27"/>
+      <c r="U20" s="3">
+        <f t="shared" si="29"/>
         <v>0.79955823647099189</v>
       </c>
-      <c r="U20" s="3">
-        <f t="shared" si="27"/>
+      <c r="V20" s="3">
+        <f t="shared" si="29"/>
         <v>0.80664649320354953</v>
       </c>
-      <c r="V20" s="38">
-        <f t="shared" si="27"/>
+      <c r="W20" s="38">
+        <f t="shared" si="29"/>
         <v>0.82142023506205308</v>
       </c>
-      <c r="W20" s="38">
-        <f t="shared" ref="W20:Y20" si="28">1-W5/W3</f>
+      <c r="X20" s="38">
+        <f t="shared" ref="X20:Z20" si="30">1-X5/X3</f>
         <v>0.81672862101907817</v>
       </c>
-      <c r="X20" s="38">
-        <f t="shared" si="28"/>
+      <c r="Y20" s="38">
+        <f t="shared" si="30"/>
         <v>0.81041799998230435</v>
       </c>
-      <c r="Y20" s="6">
-        <f t="shared" si="28"/>
+      <c r="Z20" s="38">
+        <f t="shared" si="30"/>
         <v>0.79788316177727303</v>
       </c>
-      <c r="Z20" s="38" t="e">
-        <f t="shared" ref="Z20" si="29">1-Z5/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA20" s="6">
+        <f t="shared" ref="AA20" si="31">1-AA5/AA3</f>
+        <v>0.7890888305887841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -16996,84 +17126,85 @@
         <f>E15/E3</f>
         <v>-0.19334099737075586</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="152">
         <f>F15/F3</f>
         <v>9.4302862186810721E-2</v>
       </c>
-      <c r="G21" s="120">
+      <c r="G21" s="158">
         <f>G15/G4</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="120">
+        <v>0.16915928571428562</v>
+      </c>
+      <c r="H21" s="118">
         <f>H15/H4</f>
         <v>0</v>
       </c>
-      <c r="K21" s="4">
-        <f t="shared" ref="K21:V21" si="30">K15/K3</f>
+      <c r="I21" s="118"/>
+      <c r="L21" s="4">
+        <f t="shared" ref="L21:W21" si="32">L15/L3</f>
         <v>-0.3618455370801269</v>
       </c>
-      <c r="L21" s="4">
-        <f t="shared" si="30"/>
+      <c r="M21" s="4">
+        <f t="shared" si="32"/>
         <v>-0.36891508404278539</v>
       </c>
-      <c r="M21" s="4">
-        <f t="shared" si="30"/>
+      <c r="N21" s="4">
+        <f t="shared" si="32"/>
         <v>-0.2604565646468408</v>
       </c>
-      <c r="N21" s="4">
-        <f t="shared" si="30"/>
+      <c r="O21" s="4">
+        <f t="shared" si="32"/>
         <v>-0.20832264875816386</v>
       </c>
-      <c r="O21" s="4">
-        <f t="shared" si="30"/>
+      <c r="P21" s="4">
+        <f t="shared" si="32"/>
         <v>-0.21806087952020467</v>
       </c>
-      <c r="P21" s="4">
-        <f t="shared" si="30"/>
+      <c r="Q21" s="4">
+        <f t="shared" si="32"/>
         <v>-0.37912306293735865</v>
       </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="30"/>
+      <c r="R21" s="4">
+        <f t="shared" si="32"/>
         <v>-0.25921779526240901</v>
       </c>
-      <c r="R21" s="4">
-        <f t="shared" si="30"/>
+      <c r="S21" s="4">
+        <f t="shared" si="32"/>
         <v>8.8120104438642419E-2</v>
       </c>
-      <c r="S21" s="4">
-        <f t="shared" si="30"/>
+      <c r="T21" s="4">
+        <f t="shared" si="32"/>
         <v>3.1992475046935878E-2</v>
       </c>
-      <c r="T21" s="4">
-        <f t="shared" si="30"/>
+      <c r="U21" s="4">
+        <f t="shared" si="32"/>
         <v>5.2739740154542192E-2</v>
       </c>
-      <c r="U21" s="4">
-        <f t="shared" si="30"/>
+      <c r="V21" s="4">
+        <f t="shared" si="32"/>
         <v>0.12810865721057976</v>
       </c>
-      <c r="V21" s="4">
-        <f t="shared" si="30"/>
+      <c r="W21" s="4">
+        <f t="shared" si="32"/>
         <v>0.17833648393194709</v>
       </c>
-      <c r="W21" s="4">
-        <f t="shared" ref="W21:Y21" si="31">W15/W3</f>
+      <c r="X21" s="4">
+        <f t="shared" ref="X21:Z21" si="33">X15/X3</f>
         <v>0.16636241246780101</v>
       </c>
-      <c r="X21" s="155">
-        <f>X15/X3</f>
+      <c r="Y21" s="4">
+        <f>Y15/Y3</f>
         <v>0.19778686808211951</v>
       </c>
-      <c r="Y21" s="7">
-        <f t="shared" si="31"/>
+      <c r="Z21" s="152">
+        <f t="shared" si="33"/>
         <v>0.19782472061263981</v>
       </c>
-      <c r="Z21" s="4" t="e">
-        <f t="shared" ref="Z21" si="32">Z15/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA21" s="7">
+        <f t="shared" ref="AA21" si="34">AA15/AA3</f>
+        <v>9.5476961858277545E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -17090,163 +17221,179 @@
         <f>E3/D3-1</f>
         <v>0.23606238840798532</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="38">
         <f>F3/E3-1</f>
         <v>0.16745152216493153</v>
       </c>
-      <c r="G22" s="121">
+      <c r="G22" s="157">
         <f>G4/F3-1</f>
         <v>0.25842017930689809</v>
       </c>
-      <c r="H22" s="121">
+      <c r="H22" s="119">
         <f>H4/G4-1</f>
-        <v>0.23928571428571432</v>
-      </c>
-      <c r="K22" s="4"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="I22" s="119">
+        <f>I4/H4-1</f>
+        <v>0.2407407407407407</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4">
-        <f t="shared" ref="O22:W22" si="33">O3/K3-1</f>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4">
+        <f t="shared" ref="P22:X22" si="35">P3/L3-1</f>
         <v>0.30806719142875583</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="33"/>
+      <c r="Q22" s="4">
+        <f t="shared" si="35"/>
         <v>0.25920424233711881</v>
       </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="33"/>
+      <c r="R22" s="4">
+        <f t="shared" si="35"/>
         <v>0.21862775598884077</v>
       </c>
-      <c r="R22" s="4">
-        <f t="shared" si="33"/>
+      <c r="S22" s="4">
+        <f t="shared" si="35"/>
         <v>0.17501218619113978</v>
       </c>
-      <c r="S22" s="4">
-        <f t="shared" si="33"/>
+      <c r="T22" s="4">
+        <f t="shared" si="35"/>
         <v>0.1766052733574246</v>
       </c>
-      <c r="T22" s="4">
-        <f t="shared" si="33"/>
+      <c r="U22" s="4">
+        <f t="shared" si="35"/>
         <v>0.12749624743662924</v>
       </c>
-      <c r="U22" s="4">
-        <f t="shared" si="33"/>
+      <c r="V22" s="4">
+        <f t="shared" si="35"/>
         <v>0.16798987193437687</v>
       </c>
-      <c r="V22" s="4">
-        <f t="shared" si="33"/>
+      <c r="W22" s="4">
+        <f t="shared" si="35"/>
         <v>0.19607018150932731</v>
       </c>
-      <c r="W22" s="4">
-        <f t="shared" si="33"/>
+      <c r="X22" s="4">
+        <f t="shared" si="35"/>
         <v>0.20783493847893864</v>
       </c>
-      <c r="X22" s="155">
-        <f>X3/T3-1</f>
+      <c r="Y22" s="4">
+        <f>Y3/U3-1</f>
         <v>0.2715401909183468</v>
       </c>
-      <c r="Y22" s="158">
-        <f>Y4/U3-1</f>
+      <c r="Z22" s="153">
+        <f>Z4/V3-1</f>
         <v>0.25636243436010164</v>
       </c>
-      <c r="Z22" s="129">
-        <f>Z4/V3-1</f>
+      <c r="AA22" s="125">
+        <f>AA4/W3-1</f>
         <v>0.26471603517711828</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="153">
+        <f>AB4/X3-1</f>
+        <v>0.37838187212495566</v>
+      </c>
+      <c r="AC22" s="153">
+        <f>AC4/Y3-1</f>
+        <v>0.34007438057964934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23:E23" si="34">B7/B3</f>
+        <f t="shared" ref="B23:E23" si="36">B7/B3</f>
         <v>0.41150217828982366</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.51310867935786819</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.25130667642093563</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.18872158713784928</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" ref="F23" si="35">F7/F3</f>
+      <c r="F23" s="152">
+        <f t="shared" ref="F23:G23" si="37">F7/F3</f>
         <v>0.18185250236852654</v>
       </c>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="K23" s="4">
-        <f t="shared" ref="K23:T23" si="36">K7/K3</f>
+      <c r="G23" s="7">
+        <f t="shared" si="37"/>
+        <v>0.17723844331910552</v>
+      </c>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="L23" s="4">
+        <f t="shared" ref="L23:U23" si="38">L7/L3</f>
         <v>0.28857323713346267</v>
       </c>
-      <c r="L23" s="4">
-        <f t="shared" si="36"/>
+      <c r="M23" s="4">
+        <f t="shared" si="38"/>
         <v>0.29422695012804745</v>
       </c>
-      <c r="M23" s="4">
-        <f t="shared" si="36"/>
+      <c r="N23" s="4">
+        <f t="shared" si="38"/>
         <v>0.24051246219520281</v>
       </c>
-      <c r="N23" s="4">
-        <f t="shared" si="36"/>
+      <c r="O23" s="4">
+        <f t="shared" si="38"/>
         <v>0.19446157826768976</v>
       </c>
-      <c r="O23" s="4">
-        <f t="shared" si="36"/>
+      <c r="P23" s="4">
+        <f t="shared" si="38"/>
         <v>0.19849806320949373</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" si="36"/>
+      <c r="Q23" s="4">
+        <f t="shared" si="38"/>
         <v>0.18640409293672439</v>
       </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="36"/>
+      <c r="R23" s="4">
+        <f t="shared" si="38"/>
         <v>0.21106344689043274</v>
       </c>
-      <c r="R23" s="4">
-        <f t="shared" si="36"/>
+      <c r="S23" s="4">
+        <f t="shared" si="38"/>
         <v>0.16130579760294439</v>
       </c>
-      <c r="S23" s="4">
-        <f t="shared" si="36"/>
+      <c r="T23" s="4">
+        <f t="shared" si="38"/>
         <v>0.17155826697589041</v>
       </c>
-      <c r="T23" s="4">
-        <f t="shared" si="36"/>
+      <c r="U23" s="4">
+        <f t="shared" si="38"/>
         <v>0.18663009054652299</v>
-      </c>
-      <c r="U23" s="4">
-        <f>U7/U3</f>
-        <v>0.18938689513203227</v>
       </c>
       <c r="V23" s="4">
         <f>V7/V3</f>
-        <v>0.17963836607216246</v>
+        <v>0.18938689513203227</v>
       </c>
       <c r="W23" s="4">
         <f>W7/W3</f>
+        <v>0.17963836607216246</v>
+      </c>
+      <c r="X23" s="4">
+        <f>X7/X3</f>
         <v>0.17347218675217316</v>
       </c>
-      <c r="X23" s="155">
-        <f t="shared" ref="X23:Y23" si="37">X7/X3</f>
+      <c r="Y23" s="4">
+        <f t="shared" ref="Y23:Z23" si="39">Y7/Y3</f>
         <v>0.16041224890655831</v>
       </c>
-      <c r="Y23" s="7">
-        <f t="shared" si="37"/>
+      <c r="Z23" s="152">
+        <f t="shared" si="39"/>
         <v>0.16202950727482235</v>
       </c>
-      <c r="Z23" s="4" t="e">
-        <f t="shared" ref="Z23" si="38">Z7/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA23" s="7">
+        <f t="shared" ref="AA23" si="40">AA7/AA3</f>
+        <v>0.20724841363159036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -17266,78 +17413,82 @@
         <f>E6/E3</f>
         <v>0.36860364631184372</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="152">
         <f>F6/F3</f>
         <v>0.33482605936507304</v>
       </c>
-      <c r="G24" s="122"/>
-      <c r="H24" s="121"/>
-      <c r="K24" s="4">
-        <f t="shared" ref="K24:V24" si="39">K6/K3</f>
+      <c r="G24" s="7">
+        <f>G6/G3</f>
+        <v>0.30980730460613087</v>
+      </c>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="L24" s="4">
+        <f t="shared" ref="L24:W24" si="41">L6/L3</f>
         <v>0.39883774770392172</v>
       </c>
-      <c r="L24" s="4">
-        <f t="shared" si="39"/>
+      <c r="M24" s="4">
+        <f t="shared" si="41"/>
         <v>0.4322706193663115</v>
       </c>
-      <c r="M24" s="4">
-        <f t="shared" si="39"/>
+      <c r="N24" s="4">
+        <f t="shared" si="41"/>
         <v>0.39129048874653827</v>
       </c>
-      <c r="N24" s="4">
-        <f t="shared" si="39"/>
+      <c r="O24" s="4">
+        <f t="shared" si="41"/>
         <v>0.37561883904293919</v>
       </c>
-      <c r="O24" s="4">
-        <f t="shared" si="39"/>
+      <c r="P24" s="4">
+        <f t="shared" si="41"/>
         <v>0.35954404210082963</v>
       </c>
-      <c r="P24" s="4">
-        <f t="shared" si="39"/>
+      <c r="Q24" s="4">
+        <f t="shared" si="41"/>
         <v>0.35702205027377859</v>
       </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="39"/>
+      <c r="R24" s="4">
+        <f t="shared" si="41"/>
         <v>0.38276973298736083</v>
       </c>
-      <c r="R24" s="4">
-        <f t="shared" si="39"/>
+      <c r="S24" s="4">
+        <f t="shared" si="41"/>
         <v>0.37401498946176343</v>
       </c>
-      <c r="S24" s="4">
-        <f t="shared" si="39"/>
+      <c r="T24" s="4">
+        <f t="shared" si="41"/>
         <v>0.35624140780599628</v>
       </c>
-      <c r="T24" s="4">
-        <f t="shared" si="39"/>
+      <c r="U24" s="4">
+        <f t="shared" si="41"/>
         <v>0.34531620030863447</v>
       </c>
-      <c r="U24" s="4">
-        <f t="shared" si="39"/>
+      <c r="V24" s="4">
+        <f t="shared" si="41"/>
         <v>0.31599060482765662</v>
       </c>
-      <c r="V24" s="4">
-        <f t="shared" si="39"/>
+      <c r="W24" s="4">
+        <f t="shared" si="41"/>
         <v>0.32442344045368604</v>
       </c>
-      <c r="W24" s="4">
-        <f t="shared" ref="W24:Y24" si="40">W6/W3</f>
+      <c r="X24" s="4">
+        <f t="shared" ref="X24:Z24" si="42">X6/X3</f>
         <v>0.30453322991843468</v>
       </c>
-      <c r="X24" s="155">
-        <f t="shared" si="40"/>
+      <c r="Y24" s="4">
+        <f t="shared" si="42"/>
         <v>0.29022140166987642</v>
       </c>
-      <c r="Y24" s="7">
-        <f t="shared" si="40"/>
+      <c r="Z24" s="152">
+        <f t="shared" si="42"/>
         <v>0.28872416321624883</v>
       </c>
-      <c r="Z24" s="4" t="e">
-        <f t="shared" ref="Z24" si="41">Z6/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA24" s="7">
+        <f t="shared" ref="AA24" si="43">AA6/AA3</f>
+        <v>0.34838475007824593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -17345,75 +17496,76 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="K25" s="4">
-        <f>K8/K3</f>
+      <c r="F25" s="152"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="L25" s="4">
+        <f>L8/L3</f>
         <v>0.42952636607137623</v>
       </c>
-      <c r="L25" s="4">
-        <f t="shared" ref="L25:V25" si="42">L8/L3</f>
+      <c r="M25" s="4">
+        <f t="shared" ref="M25:W25" si="44">M8/M3</f>
         <v>0.42050942120423174</v>
       </c>
-      <c r="M25" s="4">
-        <f t="shared" si="42"/>
+      <c r="N25" s="4">
+        <f t="shared" si="44"/>
         <v>0.3812967619203052</v>
       </c>
-      <c r="N25" s="4">
-        <f t="shared" si="42"/>
+      <c r="O25" s="4">
+        <f t="shared" si="44"/>
         <v>0.36380227644981039</v>
       </c>
-      <c r="O25" s="4">
-        <f t="shared" si="42"/>
+      <c r="P25" s="4">
+        <f t="shared" si="44"/>
         <v>0.31881879302889837</v>
       </c>
-      <c r="P25" s="4">
-        <f t="shared" si="42"/>
+      <c r="Q25" s="4">
+        <f t="shared" si="44"/>
         <v>0.32871398067694135</v>
       </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="42"/>
+      <c r="R25" s="4">
+        <f t="shared" si="44"/>
         <v>0.31112203900560809</v>
       </c>
-      <c r="R25" s="4">
-        <f t="shared" si="42"/>
+      <c r="S25" s="4">
+        <f t="shared" si="44"/>
         <v>0.29464201453332917</v>
       </c>
-      <c r="S25" s="4">
-        <f t="shared" si="42"/>
+      <c r="T25" s="4">
+        <f t="shared" si="44"/>
         <v>0.25939952702471125</v>
       </c>
-      <c r="T25" s="4">
-        <f t="shared" si="42"/>
+      <c r="U25" s="4">
+        <f t="shared" si="44"/>
         <v>0.24872261713014959</v>
       </c>
-      <c r="U25" s="4">
-        <f t="shared" si="42"/>
+      <c r="V25" s="4">
+        <f t="shared" si="44"/>
         <v>0.2296352831361673</v>
       </c>
-      <c r="V25" s="4">
-        <f t="shared" si="42"/>
+      <c r="W25" s="4">
+        <f t="shared" si="44"/>
         <v>0.20920687104462893</v>
       </c>
-      <c r="W25" s="4">
-        <f>W8/W3</f>
+      <c r="X25" s="4">
+        <f>X8/X3</f>
         <v>0.21121862477102116</v>
       </c>
-      <c r="X25" s="155">
-        <f t="shared" ref="X25:Y25" si="43">X8/X3</f>
+      <c r="Y25" s="4">
+        <f t="shared" ref="Y25:Z25" si="45">Y8/Y3</f>
         <v>0.20444779350393874</v>
       </c>
-      <c r="Y25" s="7">
-        <f t="shared" si="43"/>
+      <c r="Z25" s="152">
+        <f t="shared" si="45"/>
         <v>0.19118530811174392</v>
       </c>
-      <c r="Z25" s="4" t="e">
-        <f t="shared" ref="Z25" si="44">Z8/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA25" s="7">
+        <f t="shared" ref="AA25" si="46">AA8/AA3</f>
+        <v>0.22011095817739532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -17430,72 +17582,84 @@
         <f>E15/D15-1</f>
         <v>-0.29189494579912001</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="38">
         <f>F15/E15-1</f>
         <v>-1.5694292545382016</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="159">
         <f>G18/F17-1</f>
         <v>2.7867509591326085</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="50">
         <f>H18/G18-1</f>
-        <v>0.2432432432432432</v>
-      </c>
-      <c r="K26" s="4"/>
+        <v>0.5135135135135136</v>
+      </c>
+      <c r="I26" s="50">
+        <f>I18/H18-1</f>
+        <v>0.24999999999999978</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="4">
-        <f t="shared" ref="O26:W26" si="45">O15/K15-1</f>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4">
+        <f t="shared" ref="P26:X26" si="47">P15/L15-1</f>
         <v>-0.21171258726533537</v>
       </c>
-      <c r="P26" s="4">
-        <f t="shared" si="45"/>
+      <c r="Q26" s="4">
+        <f t="shared" si="47"/>
         <v>0.29404675999422736</v>
       </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="45"/>
+      <c r="R26" s="4">
+        <f t="shared" si="47"/>
         <v>0.21283178475968523</v>
       </c>
-      <c r="R26" s="4">
-        <f t="shared" si="45"/>
+      <c r="S26" s="4">
+        <f t="shared" si="47"/>
         <v>-1.4970280340667141</v>
       </c>
-      <c r="S26" s="4">
-        <f t="shared" si="45"/>
+      <c r="T26" s="4">
+        <f t="shared" si="47"/>
         <v>-1.172623878848901</v>
       </c>
-      <c r="T26" s="4">
-        <f t="shared" si="45"/>
+      <c r="U26" s="4">
+        <f t="shared" si="47"/>
         <v>-1.1568457973891562</v>
       </c>
-      <c r="U26" s="4">
-        <f t="shared" si="45"/>
+      <c r="V26" s="4">
+        <f t="shared" si="47"/>
         <v>-1.5772351160443994</v>
       </c>
-      <c r="V26" s="4">
-        <f t="shared" si="45"/>
+      <c r="W26" s="4">
+        <f t="shared" si="47"/>
         <v>1.4205934850513136</v>
       </c>
-      <c r="W26" s="4">
-        <f t="shared" si="45"/>
+      <c r="X26" s="4">
+        <f t="shared" si="47"/>
         <v>5.2807999047732128</v>
       </c>
-      <c r="X26" s="155">
-        <f>X18/T17-1</f>
+      <c r="Y26" s="4">
+        <f>Y18/U17-1</f>
         <v>5.0617172112205413</v>
       </c>
-      <c r="Y26" s="7">
-        <f>Y18/U17-1</f>
+      <c r="Z26" s="152">
+        <f>Z18/V17-1</f>
         <v>1.7218753933291389</v>
       </c>
-      <c r="Z26" s="4">
-        <f>Z18/V17-1</f>
+      <c r="AA26" s="7">
+        <f>AA18/W17-1</f>
         <v>1.1773148003060157</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="152">
+        <f>AB18/X17-1</f>
+        <v>1.7268155974604391</v>
+      </c>
+      <c r="AC26" s="152">
+        <f>AC18/Y17-1</f>
+        <v>1.1629435008872253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>197</v>
       </c>
@@ -17512,86 +17676,90 @@
         <f>(E15+E7)/E3</f>
         <v>-4.6194102329065604E-3</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="38">
         <f>(F15+F7)/F3</f>
         <v>0.27615536455533723</v>
       </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="K27" s="38">
-        <f t="shared" ref="K27:V27" si="46">(K15+K7)/K3</f>
+      <c r="G27" s="6">
+        <f>(G15+G7)/G3</f>
+        <v>0.34253065862341286</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="L27" s="38">
+        <f t="shared" ref="L27:W27" si="48">(L15+L7)/L3</f>
         <v>-7.3272299946664218E-2</v>
       </c>
-      <c r="L27" s="38">
-        <f t="shared" si="46"/>
+      <c r="M27" s="38">
+        <f t="shared" si="48"/>
         <v>-7.4688133914737928E-2</v>
       </c>
-      <c r="M27" s="38">
-        <f t="shared" si="46"/>
+      <c r="N27" s="38">
+        <f t="shared" si="48"/>
         <v>-1.9944102451638013E-2</v>
       </c>
-      <c r="N27" s="38">
-        <f t="shared" si="46"/>
+      <c r="O27" s="38">
+        <f t="shared" si="48"/>
         <v>-1.3861070490474114E-2</v>
       </c>
-      <c r="O27" s="38">
-        <f t="shared" si="46"/>
+      <c r="P27" s="38">
+        <f t="shared" si="48"/>
         <v>-1.9562816310710929E-2</v>
       </c>
-      <c r="P27" s="38">
-        <f t="shared" si="46"/>
+      <c r="Q27" s="38">
+        <f t="shared" si="48"/>
         <v>-0.19271897000063423</v>
       </c>
-      <c r="Q27" s="38">
-        <f t="shared" si="46"/>
+      <c r="R27" s="38">
+        <f t="shared" si="48"/>
         <v>-4.8154348371976262E-2</v>
       </c>
-      <c r="R27" s="38">
-        <f t="shared" si="46"/>
+      <c r="S27" s="38">
+        <f t="shared" si="48"/>
         <v>0.24942590204158679</v>
       </c>
-      <c r="S27" s="38">
-        <f t="shared" si="46"/>
+      <c r="T27" s="38">
+        <f t="shared" si="48"/>
         <v>0.2035507420228263</v>
       </c>
-      <c r="T27" s="38">
-        <f t="shared" si="46"/>
+      <c r="U27" s="38">
+        <f t="shared" si="48"/>
         <v>0.23936983070106518</v>
       </c>
-      <c r="U27" s="38">
-        <f t="shared" si="46"/>
+      <c r="V27" s="38">
+        <f t="shared" si="48"/>
         <v>0.31749555234261201</v>
       </c>
-      <c r="V27" s="38">
-        <f t="shared" si="46"/>
+      <c r="W27" s="38">
+        <f t="shared" si="48"/>
         <v>0.35797485000410956</v>
       </c>
-      <c r="W27" s="38">
-        <f>(W15+W7)/W3</f>
+      <c r="X27" s="38">
+        <f>(X15+X7)/X3</f>
         <v>0.33983459921997411</v>
       </c>
-      <c r="X27" s="38">
-        <f t="shared" ref="X27:Y27" si="47">(X15+X7)/X3</f>
+      <c r="Y27" s="38">
+        <f t="shared" ref="Y27:Z27" si="49">(Y15+Y7)/Y3</f>
         <v>0.35819911698867779</v>
       </c>
-      <c r="Y27" s="6">
-        <f t="shared" si="47"/>
+      <c r="Z27" s="38">
+        <f t="shared" si="49"/>
         <v>0.35985422788746219</v>
       </c>
-      <c r="Z27" s="38" t="e">
-        <f t="shared" ref="Z27" si="48">(Z15+Z7)/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA27" s="6">
+        <f t="shared" ref="AA27" si="50">(AA15+AA7)/AA3</f>
+        <v>0.30272537548986789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="K28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
@@ -17604,9 +17772,10 @@
       <c r="U28" s="38"/>
       <c r="V28" s="38"/>
       <c r="W28" s="38"/>
-      <c r="X28" s="155"/>
-    </row>
-    <row r="31" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="38"/>
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="31" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -17626,76 +17795,84 @@
         <f>E32+E33-E48-E49</f>
         <v>2629.739</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="149">
         <f>F32+F33-F48-F49</f>
         <v>3672.7020000000002</v>
       </c>
-      <c r="K31" s="11">
-        <f>K32+K33-K48-K49</f>
+      <c r="G31" s="14">
+        <f>G32+G33-G48-G49</f>
+        <v>5228.3240000000005</v>
+      </c>
+      <c r="L31" s="11">
+        <f>L32+L33-L48-L49</f>
         <v>0</v>
       </c>
-      <c r="L31" s="11">
-        <f t="shared" ref="L31:Z31" si="49">L32+L33-L48-L49</f>
+      <c r="M31" s="11">
+        <f t="shared" ref="M31:AA31" si="51">M32+M33-M48-M49</f>
         <v>0</v>
       </c>
-      <c r="M31" s="11">
-        <f t="shared" si="49"/>
+      <c r="N31" s="11">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="N31" s="11">
-        <f t="shared" si="49"/>
+      <c r="O31" s="11">
+        <f t="shared" si="51"/>
         <v>2527.7559999999999</v>
       </c>
-      <c r="O31" s="11">
-        <f t="shared" si="49"/>
+      <c r="P31" s="11">
+        <f t="shared" si="51"/>
         <v>2537.4930000000004</v>
       </c>
-      <c r="P31" s="11">
-        <f t="shared" si="49"/>
+      <c r="Q31" s="11">
+        <f t="shared" si="51"/>
         <v>2636.9320000000002</v>
       </c>
-      <c r="Q31" s="11">
-        <f t="shared" si="49"/>
+      <c r="R31" s="11">
+        <f t="shared" si="51"/>
         <v>2769.578</v>
       </c>
-      <c r="R31" s="11">
-        <f t="shared" si="49"/>
+      <c r="S31" s="11">
+        <f t="shared" si="51"/>
         <v>2629.739</v>
       </c>
-      <c r="S31" s="11">
-        <f t="shared" si="49"/>
+      <c r="T31" s="11">
+        <f t="shared" si="51"/>
         <v>2912.319</v>
       </c>
-      <c r="T31" s="11">
-        <f t="shared" si="49"/>
+      <c r="U31" s="11">
+        <f t="shared" si="51"/>
         <v>3100.1529999999998</v>
       </c>
-      <c r="U31" s="11">
-        <f t="shared" si="49"/>
+      <c r="V31" s="11">
+        <f t="shared" si="51"/>
         <v>3281.34</v>
       </c>
-      <c r="V31" s="11">
-        <f t="shared" si="49"/>
+      <c r="W31" s="11">
+        <f t="shared" si="51"/>
         <v>3672.7020000000002</v>
       </c>
-      <c r="W31" s="11">
-        <f t="shared" si="49"/>
+      <c r="X31" s="11">
+        <f t="shared" si="51"/>
         <v>3866.2490000000003</v>
       </c>
-      <c r="X31" s="152">
-        <f t="shared" si="49"/>
+      <c r="Y31" s="11">
+        <f t="shared" si="51"/>
         <v>3996.9320000000002</v>
       </c>
-      <c r="Y31" s="14">
-        <f t="shared" si="49"/>
+      <c r="Z31" s="149">
+        <f t="shared" si="51"/>
         <v>4560.9780000000001</v>
       </c>
-      <c r="Z31" s="11">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA31" s="14">
+        <f t="shared" si="51"/>
+        <v>5228.3240000000005</v>
+      </c>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -17714,58 +17891,68 @@
       <c r="E32" s="10">
         <v>2598.54</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="147">
         <v>831.04700000000003</v>
       </c>
-      <c r="K32" s="10"/>
+      <c r="G32" s="15">
+        <f>AA32</f>
+        <v>2098.5239999999999</v>
+      </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="10">
+      <c r="N32" s="10"/>
+      <c r="O32" s="10">
         <f>D32</f>
         <v>2327.3020000000001</v>
       </c>
-      <c r="O32" s="10">
+      <c r="P32" s="10">
         <f>2269.411+33.804</f>
         <v>2303.2150000000001</v>
       </c>
-      <c r="P32" s="10">
+      <c r="Q32" s="10">
         <f>2358.393+28.125</f>
         <v>2386.518</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="R32" s="10">
         <f>2411.29+20.557</f>
         <v>2431.8469999999998</v>
       </c>
-      <c r="R32" s="10">
+      <c r="S32" s="10">
         <f>E32</f>
         <v>2598.54</v>
       </c>
-      <c r="S32" s="10">
+      <c r="T32" s="10">
         <f>1264.738+11.946</f>
         <v>1276.684</v>
       </c>
-      <c r="T32" s="10">
+      <c r="U32" s="10">
         <v>1055.923</v>
       </c>
-      <c r="U32" s="10">
+      <c r="V32" s="10">
         <v>1040.31</v>
       </c>
-      <c r="V32" s="10">
+      <c r="W32" s="10">
         <f>F32</f>
         <v>831.04700000000003</v>
       </c>
-      <c r="W32" s="10">
+      <c r="X32" s="10">
         <v>520.38800000000003</v>
       </c>
-      <c r="X32" s="150">
+      <c r="Y32" s="10">
         <v>512.65899999999999</v>
       </c>
-      <c r="Y32" s="15">
+      <c r="Z32" s="147">
         <v>768.71</v>
       </c>
-      <c r="Z32" s="10"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA32" s="15">
+        <v>2098.5239999999999</v>
+      </c>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="147"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -17781,55 +17968,64 @@
       <c r="E33" s="10">
         <v>35.134999999999998</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="147">
         <v>2843.1320000000001</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="G33" s="15">
+        <f t="shared" ref="G33:G35" si="52">AA33</f>
+        <v>3131.4630000000002</v>
+      </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="10">
-        <f t="shared" ref="N33:N35" si="50">D33</f>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10">
+        <f t="shared" ref="O33:O35" si="53">D33</f>
         <v>234.15299999999999</v>
       </c>
-      <c r="O33" s="10">
+      <c r="P33" s="10">
         <v>256.55399999999997</v>
       </c>
-      <c r="P33" s="10">
+      <c r="Q33" s="10">
         <v>265.82600000000002</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="R33" s="10">
         <v>343.26400000000001</v>
       </c>
-      <c r="R33" s="10">
-        <f t="shared" ref="R33:R35" si="51">E33</f>
+      <c r="S33" s="10">
+        <f t="shared" ref="S33:S35" si="54">E33</f>
         <v>35.134999999999998</v>
       </c>
-      <c r="S33" s="10">
+      <c r="T33" s="10">
         <v>1639.797</v>
       </c>
-      <c r="T33" s="10">
+      <c r="U33" s="10">
         <v>2047.329</v>
       </c>
-      <c r="U33" s="10">
+      <c r="V33" s="10">
         <v>2243.2640000000001</v>
       </c>
-      <c r="V33" s="10">
-        <f t="shared" ref="V33:V35" si="52">F33</f>
+      <c r="W33" s="10">
+        <f t="shared" ref="W33:W35" si="55">F33</f>
         <v>2843.1320000000001</v>
       </c>
-      <c r="W33" s="10">
+      <c r="X33" s="10">
         <v>3347.5120000000002</v>
       </c>
-      <c r="X33" s="150">
+      <c r="Y33" s="10">
         <v>3485.8</v>
       </c>
-      <c r="Y33" s="15">
+      <c r="Z33" s="147">
         <v>3795.9490000000001</v>
       </c>
-      <c r="Z33" s="10"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA33" s="15">
+        <v>3131.4630000000002</v>
+      </c>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="147"/>
+      <c r="AD33" s="147"/>
+      <c r="AE33" s="147"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -17845,54 +18041,64 @@
       <c r="E34" s="10">
         <v>258.346</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="147">
         <v>364.78399999999999</v>
       </c>
-      <c r="K34" s="10"/>
+      <c r="G34" s="15">
+        <f t="shared" si="52"/>
+        <v>575.048</v>
+      </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="10">
-        <f t="shared" si="50"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10">
+        <f t="shared" si="53"/>
         <v>190.923</v>
       </c>
-      <c r="O34" s="10">
+      <c r="P34" s="10">
         <v>252.56299999999999</v>
       </c>
-      <c r="P34" s="10">
+      <c r="Q34" s="10">
         <v>99.21</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="R34" s="10">
         <v>57.341999999999999</v>
       </c>
-      <c r="R34" s="10">
-        <f t="shared" si="51"/>
+      <c r="S34" s="10">
+        <f t="shared" si="54"/>
         <v>258.346</v>
       </c>
-      <c r="S34" s="10">
+      <c r="T34" s="10">
         <v>254.041</v>
       </c>
-      <c r="T34" s="10">
+      <c r="U34" s="10">
         <v>375.75599999999997</v>
       </c>
-      <c r="U34" s="10">
+      <c r="V34" s="10">
         <v>430.26900000000001</v>
       </c>
-      <c r="V34" s="10">
-        <f t="shared" si="52"/>
+      <c r="W34" s="10">
+        <f t="shared" si="55"/>
         <v>364.78399999999999</v>
       </c>
-      <c r="W34" s="10">
+      <c r="X34" s="10">
         <v>486.98599999999999</v>
       </c>
-      <c r="X34" s="150">
+      <c r="Y34" s="10">
         <v>659.33900000000006</v>
       </c>
-      <c r="Y34" s="15">
+      <c r="Z34" s="147">
         <v>668.11</v>
       </c>
-      <c r="Z34" s="10"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA34" s="15">
+        <v>575.048</v>
+      </c>
+      <c r="AB34" s="147"/>
+      <c r="AC34" s="147"/>
+      <c r="AD34" s="147"/>
+      <c r="AE34" s="147"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -17908,54 +18114,64 @@
       <c r="E35" s="10">
         <v>149.55600000000001</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="147">
         <v>99.655000000000001</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="G35" s="15">
+        <f t="shared" si="52"/>
+        <v>129.25399999999999</v>
+      </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="10">
-        <f t="shared" si="50"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10">
+        <f t="shared" si="53"/>
         <v>110.872</v>
       </c>
-      <c r="O35" s="10">
+      <c r="P35" s="10">
         <v>115.042</v>
       </c>
-      <c r="P35" s="10">
+      <c r="Q35" s="10">
         <v>150.88499999999999</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="R35" s="10">
         <v>114.157</v>
       </c>
-      <c r="R35" s="10">
-        <f t="shared" si="51"/>
+      <c r="S35" s="10">
+        <f t="shared" si="54"/>
         <v>149.55600000000001</v>
       </c>
-      <c r="S35" s="10">
+      <c r="T35" s="10">
         <v>85.625</v>
       </c>
-      <c r="T35" s="10">
+      <c r="U35" s="10">
         <v>97.906000000000006</v>
       </c>
-      <c r="U35" s="10">
+      <c r="V35" s="10">
         <v>95.554000000000002</v>
       </c>
-      <c r="V35" s="10">
-        <f t="shared" si="52"/>
+      <c r="W35" s="10">
+        <f t="shared" si="55"/>
         <v>99.655000000000001</v>
       </c>
-      <c r="W35" s="10">
+      <c r="X35" s="10">
         <v>81.177999999999997</v>
       </c>
-      <c r="X35" s="150">
+      <c r="Y35" s="10">
         <v>115.712</v>
       </c>
-      <c r="Y35" s="15">
+      <c r="Z35" s="147">
         <v>119.193</v>
       </c>
-      <c r="Z35" s="10"/>
-    </row>
-    <row r="36" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA35" s="15">
+        <v>129.25399999999999</v>
+      </c>
+      <c r="AB35" s="147"/>
+      <c r="AC35" s="147"/>
+      <c r="AD35" s="147"/>
+      <c r="AE35" s="147"/>
+    </row>
+    <row r="36" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -17975,76 +18191,84 @@
         <f>SUM(E32:E35)</f>
         <v>3041.5770000000002</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="149">
         <f>SUM(F32:F35)</f>
         <v>4138.6180000000004</v>
       </c>
-      <c r="K36" s="11">
-        <f t="shared" ref="K36:V36" si="53">SUM(K32:K35)</f>
+      <c r="G36" s="14">
+        <f>SUM(G32:G35)</f>
+        <v>5934.2889999999998</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" ref="L36:W36" si="56">SUM(L32:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="11">
-        <f t="shared" si="53"/>
+      <c r="M36" s="11">
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="M36" s="11">
-        <f t="shared" si="53"/>
+      <c r="N36" s="11">
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="N36" s="11">
-        <f t="shared" si="53"/>
+      <c r="O36" s="11">
+        <f t="shared" si="56"/>
         <v>2863.2499999999995</v>
       </c>
-      <c r="O36" s="11">
-        <f t="shared" si="53"/>
+      <c r="P36" s="11">
+        <f t="shared" si="56"/>
         <v>2927.3740000000003</v>
       </c>
-      <c r="P36" s="11">
-        <f t="shared" si="53"/>
+      <c r="Q36" s="11">
+        <f t="shared" si="56"/>
         <v>2902.4390000000003</v>
       </c>
-      <c r="Q36" s="11">
-        <f t="shared" si="53"/>
+      <c r="R36" s="11">
+        <f t="shared" si="56"/>
         <v>2946.61</v>
       </c>
-      <c r="R36" s="11">
-        <f t="shared" si="53"/>
+      <c r="S36" s="11">
+        <f t="shared" si="56"/>
         <v>3041.5770000000002</v>
       </c>
-      <c r="S36" s="11">
-        <f t="shared" si="53"/>
+      <c r="T36" s="11">
+        <f t="shared" si="56"/>
         <v>3256.1469999999999</v>
       </c>
-      <c r="T36" s="11">
-        <f t="shared" si="53"/>
+      <c r="U36" s="11">
+        <f t="shared" si="56"/>
         <v>3576.9139999999998</v>
       </c>
-      <c r="U36" s="11">
-        <f t="shared" si="53"/>
+      <c r="V36" s="11">
+        <f t="shared" si="56"/>
         <v>3809.3969999999999</v>
       </c>
-      <c r="V36" s="11">
-        <f t="shared" si="53"/>
+      <c r="W36" s="11">
+        <f t="shared" si="56"/>
         <v>4138.6180000000004</v>
       </c>
-      <c r="W36" s="11">
-        <f t="shared" ref="W36:Y36" si="54">SUM(W32:W35)</f>
+      <c r="X36" s="11">
+        <f t="shared" ref="X36:Z36" si="57">SUM(X32:X35)</f>
         <v>4436.0640000000003</v>
       </c>
-      <c r="X36" s="152">
-        <f t="shared" si="54"/>
+      <c r="Y36" s="11">
+        <f t="shared" si="57"/>
         <v>4773.5100000000011</v>
       </c>
-      <c r="Y36" s="14">
-        <f t="shared" si="54"/>
+      <c r="Z36" s="149">
+        <f t="shared" si="57"/>
         <v>5351.9619999999995</v>
       </c>
-      <c r="Z36" s="11">
-        <f t="shared" ref="Z36" si="55">SUM(Z32:Z35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA36" s="14">
+        <f t="shared" ref="AA36" si="58">SUM(AA32:AA35)</f>
+        <v>5934.2889999999998</v>
+      </c>
+      <c r="AB36" s="149"/>
+      <c r="AC36" s="149"/>
+      <c r="AD36" s="149"/>
+      <c r="AE36" s="149"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -18061,54 +18285,64 @@
       <c r="E37" s="10">
         <v>69.17</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="147">
         <v>47.758000000000003</v>
       </c>
-      <c r="K37" s="10"/>
+      <c r="G37" s="15">
+        <f t="shared" ref="G37:G39" si="59">AA37</f>
+        <v>39.637999999999998</v>
+      </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="10">
-        <f t="shared" ref="N37:N39" si="56">D37</f>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10">
+        <f t="shared" ref="O37:O39" si="60">D37</f>
         <v>31.303999999999998</v>
       </c>
-      <c r="O37" s="10">
+      <c r="P37" s="10">
         <v>41.866</v>
       </c>
-      <c r="P37" s="10">
+      <c r="Q37" s="10">
         <v>47.643999999999998</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="R37" s="10">
         <v>57.822000000000003</v>
       </c>
-      <c r="R37" s="10">
-        <f t="shared" ref="R37:R39" si="57">E37</f>
+      <c r="S37" s="10">
+        <f t="shared" ref="S37:S39" si="61">E37</f>
         <v>69.17</v>
       </c>
-      <c r="S37" s="10">
+      <c r="T37" s="10">
         <v>63.115000000000002</v>
       </c>
-      <c r="T37" s="10">
+      <c r="U37" s="10">
         <v>54.097000000000001</v>
       </c>
-      <c r="U37" s="10">
+      <c r="V37" s="10">
         <v>50.133000000000003</v>
       </c>
-      <c r="V37" s="10">
-        <f t="shared" ref="V37:V39" si="58">F37</f>
+      <c r="W37" s="10">
+        <f t="shared" ref="W37:W39" si="62">F37</f>
         <v>47.758000000000003</v>
       </c>
-      <c r="W37" s="10">
+      <c r="X37" s="10">
         <v>46.905999999999999</v>
       </c>
-      <c r="X37" s="150">
+      <c r="Y37" s="10">
         <v>43.482999999999997</v>
       </c>
-      <c r="Y37" s="15">
+      <c r="Z37" s="147">
         <v>40.344999999999999</v>
       </c>
-      <c r="Z37" s="10"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA37" s="15">
+        <v>39.637999999999998</v>
+      </c>
+      <c r="AB37" s="147"/>
+      <c r="AC37" s="147"/>
+      <c r="AD37" s="147"/>
+      <c r="AE37" s="147"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -18122,54 +18356,64 @@
       <c r="E38" s="10">
         <v>200.24</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="147">
         <v>182.863</v>
       </c>
-      <c r="K38" s="10"/>
+      <c r="G38" s="15">
+        <f t="shared" si="59"/>
+        <v>200.74</v>
+      </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="10">
-        <f t="shared" si="56"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10">
+        <f t="shared" si="60"/>
         <v>216.898</v>
       </c>
-      <c r="O38" s="10">
+      <c r="P38" s="10">
         <v>224.88800000000001</v>
       </c>
-      <c r="P38" s="10">
+      <c r="Q38" s="10">
         <v>211.41</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="R38" s="10">
         <v>199.35900000000001</v>
       </c>
-      <c r="R38" s="10">
-        <f t="shared" si="57"/>
+      <c r="S38" s="10">
+        <f t="shared" si="61"/>
         <v>200.24</v>
       </c>
-      <c r="S38" s="10">
+      <c r="T38" s="10">
         <v>210.01900000000001</v>
       </c>
-      <c r="T38" s="10">
+      <c r="U38" s="10">
         <v>199.661</v>
       </c>
-      <c r="U38" s="10">
+      <c r="V38" s="10">
         <v>190.191</v>
       </c>
-      <c r="V38" s="10">
-        <f t="shared" si="58"/>
+      <c r="W38" s="10">
+        <f t="shared" si="62"/>
         <v>182.863</v>
       </c>
-      <c r="W38" s="10">
+      <c r="X38" s="10">
         <v>173.70699999999999</v>
       </c>
-      <c r="X38" s="150">
+      <c r="Y38" s="10">
         <v>213.453</v>
       </c>
-      <c r="Y38" s="15">
+      <c r="Z38" s="147">
         <v>211.57</v>
       </c>
-      <c r="Z38" s="10"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA38" s="15">
+        <v>200.74</v>
+      </c>
+      <c r="AB38" s="147"/>
+      <c r="AC38" s="147"/>
+      <c r="AD38" s="147"/>
+      <c r="AE38" s="147"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -18187,58 +18431,68 @@
       <c r="E39" s="10">
         <v>150.25200000000001</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="147">
         <v>153.18600000000001</v>
       </c>
-      <c r="K39" s="10"/>
+      <c r="G39" s="15">
+        <f t="shared" si="59"/>
+        <v>166.21700000000001</v>
+      </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="10">
-        <f t="shared" si="56"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10">
+        <f t="shared" si="60"/>
         <v>135.99799999999999</v>
       </c>
-      <c r="O39" s="10">
+      <c r="P39" s="10">
         <f>29.222+95.829</f>
         <v>125.05099999999999</v>
       </c>
-      <c r="P39" s="10">
+      <c r="Q39" s="10">
         <f>28.647+92.198</f>
         <v>120.845</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="R39" s="10">
         <f>20.902+94.142</f>
         <v>115.044</v>
       </c>
-      <c r="R39" s="10">
-        <f t="shared" si="57"/>
+      <c r="S39" s="10">
+        <f t="shared" si="61"/>
         <v>150.25200000000001</v>
       </c>
-      <c r="S39" s="10">
+      <c r="T39" s="10">
         <f>12.095+141.762</f>
         <v>153.857</v>
       </c>
-      <c r="T39" s="10">
+      <c r="U39" s="10">
         <v>149.59200000000001</v>
       </c>
-      <c r="U39" s="10">
+      <c r="V39" s="10">
         <v>143.696</v>
       </c>
-      <c r="V39" s="10">
-        <f t="shared" si="58"/>
+      <c r="W39" s="10">
+        <f t="shared" si="62"/>
         <v>153.18600000000001</v>
       </c>
-      <c r="W39" s="10">
+      <c r="X39" s="10">
         <v>150.40199999999999</v>
       </c>
-      <c r="X39" s="150">
+      <c r="Y39" s="10">
         <v>161.434</v>
       </c>
-      <c r="Y39" s="15">
+      <c r="Z39" s="147">
         <v>164.22</v>
       </c>
-      <c r="Z39" s="10"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA39" s="15">
+        <v>166.21700000000001</v>
+      </c>
+      <c r="AB39" s="147"/>
+      <c r="AC39" s="147"/>
+      <c r="AD39" s="147"/>
+      <c r="AE39" s="147"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -18258,76 +18512,84 @@
         <f>SUM(E36:E39)</f>
         <v>3461.239</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="149">
         <f>SUM(F36:F39)</f>
         <v>4522.4250000000002</v>
       </c>
-      <c r="K40" s="11">
-        <f t="shared" ref="K40:V40" si="59">SUM(K36:K39)</f>
+      <c r="G40" s="14">
+        <f>SUM(G36:G39)</f>
+        <v>6340.8839999999991</v>
+      </c>
+      <c r="L40" s="11">
+        <f t="shared" ref="L40:W40" si="63">SUM(L36:L39)</f>
         <v>0</v>
       </c>
-      <c r="L40" s="11">
-        <f t="shared" si="59"/>
+      <c r="M40" s="11">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="M40" s="11">
-        <f t="shared" si="59"/>
+      <c r="N40" s="11">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="N40" s="11">
-        <f t="shared" si="59"/>
+      <c r="O40" s="11">
+        <f t="shared" si="63"/>
         <v>3247.45</v>
       </c>
-      <c r="O40" s="11">
-        <f t="shared" si="59"/>
+      <c r="P40" s="11">
+        <f t="shared" si="63"/>
         <v>3319.1790000000001</v>
       </c>
-      <c r="P40" s="11">
-        <f t="shared" si="59"/>
+      <c r="Q40" s="11">
+        <f t="shared" si="63"/>
         <v>3282.3379999999997</v>
       </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="59"/>
+      <c r="R40" s="11">
+        <f t="shared" si="63"/>
         <v>3318.835</v>
       </c>
-      <c r="R40" s="11">
-        <f t="shared" si="59"/>
+      <c r="S40" s="11">
+        <f t="shared" si="63"/>
         <v>3461.239</v>
       </c>
-      <c r="S40" s="11">
-        <f t="shared" si="59"/>
+      <c r="T40" s="11">
+        <f t="shared" si="63"/>
         <v>3683.1379999999999</v>
       </c>
-      <c r="T40" s="11">
-        <f t="shared" si="59"/>
+      <c r="U40" s="11">
+        <f t="shared" si="63"/>
         <v>3980.2640000000001</v>
       </c>
-      <c r="U40" s="11">
-        <f t="shared" si="59"/>
+      <c r="V40" s="11">
+        <f t="shared" si="63"/>
         <v>4193.4169999999995</v>
       </c>
-      <c r="V40" s="11">
-        <f t="shared" si="59"/>
+      <c r="W40" s="11">
+        <f t="shared" si="63"/>
         <v>4522.4250000000002</v>
       </c>
-      <c r="W40" s="11">
-        <f t="shared" ref="W40:Y40" si="60">SUM(W36:W39)</f>
+      <c r="X40" s="11">
+        <f t="shared" ref="X40:Z40" si="64">SUM(X36:X39)</f>
         <v>4807.0790000000006</v>
       </c>
-      <c r="X40" s="152">
-        <f t="shared" si="60"/>
+      <c r="Y40" s="11">
+        <f t="shared" si="64"/>
         <v>5191.8800000000019</v>
       </c>
-      <c r="Y40" s="14">
-        <f t="shared" si="60"/>
+      <c r="Z40" s="149">
+        <f t="shared" si="64"/>
         <v>5768.0969999999998</v>
       </c>
-      <c r="Z40" s="11">
-        <f t="shared" ref="Z40" si="61">SUM(Z36:Z39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA40" s="14">
+        <f t="shared" ref="AA40" si="65">SUM(AA36:AA39)</f>
+        <v>6340.8839999999991</v>
+      </c>
+      <c r="AB40" s="149"/>
+      <c r="AC40" s="149"/>
+      <c r="AD40" s="149"/>
+      <c r="AE40" s="149"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -18343,54 +18605,64 @@
       <c r="E41" s="10">
         <v>44.787999999999997</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="147">
         <v>12.122</v>
       </c>
-      <c r="K41" s="10"/>
+      <c r="G41" s="15">
+        <f t="shared" ref="G41:G45" si="66">AA41</f>
+        <v>0.10299999999999999</v>
+      </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="10">
-        <f t="shared" ref="N41:N45" si="62">D41</f>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10">
+        <f t="shared" ref="O41:O45" si="67">D41</f>
         <v>74.906999999999996</v>
       </c>
-      <c r="O41" s="10">
+      <c r="P41" s="10">
         <v>27.454000000000001</v>
       </c>
-      <c r="P41" s="10">
+      <c r="Q41" s="10">
         <v>56.798000000000002</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="R41" s="10">
         <v>59.506999999999998</v>
       </c>
-      <c r="R41" s="10">
-        <f t="shared" ref="R41:R45" si="63">E41</f>
+      <c r="S41" s="10">
+        <f t="shared" ref="S41:S45" si="68">E41</f>
         <v>44.787999999999997</v>
       </c>
-      <c r="S41" s="10">
+      <c r="T41" s="10">
         <v>4.53</v>
       </c>
-      <c r="T41" s="10">
+      <c r="U41" s="10">
         <v>4.6130000000000004</v>
       </c>
-      <c r="U41" s="10">
+      <c r="V41" s="10">
         <v>9.4749999999999996</v>
       </c>
-      <c r="V41" s="10">
-        <f t="shared" ref="V41:V45" si="64">F41</f>
+      <c r="W41" s="10">
+        <f t="shared" ref="W41:W45" si="69">F41</f>
         <v>12.122</v>
       </c>
-      <c r="W41" s="10">
+      <c r="X41" s="10">
         <v>35.634</v>
       </c>
-      <c r="X41" s="150">
+      <c r="Y41" s="10">
         <v>67.344999999999999</v>
       </c>
-      <c r="Y41" s="15">
+      <c r="Z41" s="147">
         <v>27.021000000000001</v>
       </c>
-      <c r="Z41" s="10"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA41" s="15">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AB41" s="147"/>
+      <c r="AC41" s="147"/>
+      <c r="AD41" s="147"/>
+      <c r="AE41" s="147"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -18406,54 +18678,64 @@
       <c r="E42" s="10">
         <v>172.715</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="147">
         <v>222.99100000000001</v>
       </c>
-      <c r="K42" s="10"/>
+      <c r="G42" s="15">
+        <f t="shared" si="66"/>
+        <v>427.04599999999999</v>
+      </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="10">
-        <f t="shared" si="62"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10">
+        <f t="shared" si="67"/>
         <v>155.80600000000001</v>
       </c>
-      <c r="O42" s="10">
+      <c r="P42" s="10">
         <v>150.17599999999999</v>
       </c>
-      <c r="P42" s="10">
+      <c r="Q42" s="10">
         <v>187.56800000000001</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="R42" s="10">
         <v>164.697</v>
       </c>
-      <c r="R42" s="10">
-        <f t="shared" si="63"/>
+      <c r="S42" s="10">
+        <f t="shared" si="68"/>
         <v>172.715</v>
       </c>
-      <c r="S42" s="10">
+      <c r="T42" s="10">
         <v>174.52500000000001</v>
       </c>
-      <c r="T42" s="10">
+      <c r="U42" s="10">
         <v>184.61699999999999</v>
       </c>
-      <c r="U42" s="10">
+      <c r="V42" s="10">
         <v>174.75299999999999</v>
       </c>
-      <c r="V42" s="10">
-        <f t="shared" si="64"/>
+      <c r="W42" s="10">
+        <f t="shared" si="69"/>
         <v>222.99100000000001</v>
       </c>
-      <c r="W42" s="10">
+      <c r="X42" s="10">
         <v>206.03399999999999</v>
       </c>
-      <c r="X42" s="150">
+      <c r="Y42" s="10">
         <v>195.489</v>
       </c>
-      <c r="Y42" s="15">
+      <c r="Z42" s="147">
         <v>265.24400000000003</v>
       </c>
-      <c r="Z42" s="10"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA42" s="15">
+        <v>427.04599999999999</v>
+      </c>
+      <c r="AB42" s="147"/>
+      <c r="AC42" s="147"/>
+      <c r="AD42" s="147"/>
+      <c r="AE42" s="147"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -18469,54 +18751,64 @@
       <c r="E43" s="10">
         <v>183.35</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="147">
         <v>246.90100000000001</v>
       </c>
-      <c r="K43" s="10"/>
+      <c r="G43" s="15">
+        <f t="shared" si="66"/>
+        <v>259.62400000000002</v>
+      </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="10">
-        <f t="shared" si="62"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10">
+        <f t="shared" si="67"/>
         <v>227.816</v>
       </c>
-      <c r="O43" s="10">
+      <c r="P43" s="10">
         <v>218.52099999999999</v>
       </c>
-      <c r="P43" s="10">
+      <c r="Q43" s="10">
         <v>219.441</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="R43" s="10">
         <v>189.77099999999999</v>
       </c>
-      <c r="R43" s="10">
-        <f t="shared" si="63"/>
+      <c r="S43" s="10">
+        <f t="shared" si="68"/>
         <v>183.35</v>
       </c>
-      <c r="S43" s="10">
+      <c r="T43" s="10">
         <v>229.55099999999999</v>
       </c>
-      <c r="T43" s="10">
+      <c r="U43" s="10">
         <v>260.33499999999998</v>
       </c>
-      <c r="U43" s="10">
+      <c r="V43" s="10">
         <v>223.50700000000001</v>
       </c>
-      <c r="V43" s="10">
-        <f t="shared" si="64"/>
+      <c r="W43" s="10">
+        <f t="shared" si="69"/>
         <v>246.90100000000001</v>
       </c>
-      <c r="W43" s="10">
+      <c r="X43" s="10">
         <v>237.19499999999999</v>
       </c>
-      <c r="X43" s="150">
+      <c r="Y43" s="10">
         <v>278.44099999999997</v>
       </c>
-      <c r="Y43" s="15">
+      <c r="Z43" s="147">
         <v>236.608</v>
       </c>
-      <c r="Z43" s="10"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA43" s="15">
+        <v>259.62400000000002</v>
+      </c>
+      <c r="AB43" s="147"/>
+      <c r="AC43" s="147"/>
+      <c r="AD43" s="147"/>
+      <c r="AE43" s="147"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -18532,54 +18824,64 @@
       <c r="E44" s="10">
         <v>141.989</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="147">
         <v>209.828</v>
       </c>
-      <c r="K44" s="10"/>
+      <c r="G44" s="15">
+        <f t="shared" si="66"/>
+        <v>265.25200000000001</v>
+      </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="10">
-        <f t="shared" si="62"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10">
+        <f t="shared" si="67"/>
         <v>161.60499999999999</v>
       </c>
-      <c r="O44" s="10">
+      <c r="P44" s="10">
         <v>232.90799999999999</v>
       </c>
-      <c r="P44" s="10">
+      <c r="Q44" s="10">
         <v>161.02600000000001</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="R44" s="10">
         <v>234.142</v>
       </c>
-      <c r="R44" s="10">
-        <f t="shared" si="63"/>
+      <c r="S44" s="10">
+        <f t="shared" si="68"/>
         <v>141.989</v>
       </c>
-      <c r="S44" s="10">
+      <c r="T44" s="10">
         <v>139.74100000000001</v>
       </c>
-      <c r="T44" s="10">
+      <c r="U44" s="10">
         <v>183.964</v>
       </c>
-      <c r="U44" s="10">
+      <c r="V44" s="10">
         <v>228.98599999999999</v>
       </c>
-      <c r="V44" s="10">
-        <f t="shared" si="64"/>
+      <c r="W44" s="10">
+        <f t="shared" si="69"/>
         <v>209.828</v>
       </c>
-      <c r="W44" s="10">
+      <c r="X44" s="10">
         <v>217.63399999999999</v>
       </c>
-      <c r="X44" s="150">
+      <c r="Y44" s="10">
         <v>221.51900000000001</v>
       </c>
-      <c r="Y44" s="15">
+      <c r="Z44" s="147">
         <v>366.94600000000003</v>
       </c>
-      <c r="Z44" s="10"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA44" s="15">
+        <v>265.25200000000001</v>
+      </c>
+      <c r="AB44" s="147"/>
+      <c r="AC44" s="147"/>
+      <c r="AD44" s="147"/>
+      <c r="AE44" s="147"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -18595,54 +18897,64 @@
       <c r="E45" s="10">
         <v>45.098999999999997</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="147">
         <v>54.176000000000002</v>
       </c>
-      <c r="K45" s="10"/>
+      <c r="G45" s="15">
+        <f t="shared" si="66"/>
+        <v>43.993000000000002</v>
+      </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="10">
-        <f t="shared" si="62"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10">
+        <f t="shared" si="67"/>
         <v>39.927</v>
       </c>
-      <c r="O45" s="10">
+      <c r="P45" s="10">
         <v>40.045000000000002</v>
       </c>
-      <c r="P45" s="10">
+      <c r="Q45" s="10">
         <v>40.908999999999999</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="R45" s="10">
         <v>40.232999999999997</v>
       </c>
-      <c r="R45" s="10">
-        <f t="shared" si="63"/>
+      <c r="S45" s="10">
+        <f t="shared" si="68"/>
         <v>45.098999999999997</v>
       </c>
-      <c r="S45" s="10">
+      <c r="T45" s="10">
         <v>53.066000000000003</v>
       </c>
-      <c r="T45" s="10">
+      <c r="U45" s="10">
         <v>51.854999999999997</v>
       </c>
-      <c r="U45" s="10">
+      <c r="V45" s="10">
         <v>52.204000000000001</v>
       </c>
-      <c r="V45" s="10">
-        <f t="shared" si="64"/>
+      <c r="W45" s="10">
+        <f t="shared" si="69"/>
         <v>54.176000000000002</v>
       </c>
-      <c r="W45" s="10">
+      <c r="X45" s="10">
         <v>54.055999999999997</v>
       </c>
-      <c r="X45" s="150">
+      <c r="Y45" s="10">
         <v>44.125</v>
       </c>
-      <c r="Y45" s="15">
+      <c r="Z45" s="147">
         <v>47.637</v>
       </c>
-      <c r="Z45" s="10"/>
-    </row>
-    <row r="46" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA45" s="15">
+        <v>43.993000000000002</v>
+      </c>
+      <c r="AB45" s="147"/>
+      <c r="AC45" s="147"/>
+      <c r="AD45" s="147"/>
+      <c r="AE45" s="147"/>
+    </row>
+    <row r="46" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -18662,76 +18974,84 @@
         <f>SUM(E41:E45)</f>
         <v>587.94100000000003</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="149">
         <f>SUM(F41:F45)</f>
         <v>746.01800000000003</v>
       </c>
-      <c r="K46" s="11">
-        <f t="shared" ref="K46:V46" si="65">SUM(K41:K45)</f>
+      <c r="G46" s="14">
+        <f>SUM(G41:G45)</f>
+        <v>996.01800000000014</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" ref="L46:W46" si="70">SUM(L41:L45)</f>
         <v>0</v>
       </c>
-      <c r="L46" s="11">
-        <f t="shared" si="65"/>
+      <c r="M46" s="11">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="M46" s="11">
-        <f t="shared" si="65"/>
+      <c r="N46" s="11">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="N46" s="11">
-        <f t="shared" si="65"/>
+      <c r="O46" s="11">
+        <f t="shared" si="70"/>
         <v>660.06100000000004</v>
       </c>
-      <c r="O46" s="11">
-        <f t="shared" si="65"/>
+      <c r="P46" s="11">
+        <f t="shared" si="70"/>
         <v>669.10399999999993</v>
       </c>
-      <c r="P46" s="11">
-        <f t="shared" si="65"/>
+      <c r="Q46" s="11">
+        <f t="shared" si="70"/>
         <v>665.74200000000008</v>
       </c>
-      <c r="Q46" s="11">
-        <f t="shared" si="65"/>
+      <c r="R46" s="11">
+        <f t="shared" si="70"/>
         <v>688.34999999999991</v>
       </c>
-      <c r="R46" s="11">
-        <f t="shared" si="65"/>
+      <c r="S46" s="11">
+        <f t="shared" si="70"/>
         <v>587.94100000000003</v>
       </c>
-      <c r="S46" s="11">
-        <f t="shared" si="65"/>
+      <c r="T46" s="11">
+        <f t="shared" si="70"/>
         <v>601.41300000000001</v>
       </c>
-      <c r="T46" s="11">
-        <f t="shared" si="65"/>
+      <c r="U46" s="11">
+        <f t="shared" si="70"/>
         <v>685.38400000000001</v>
       </c>
-      <c r="U46" s="11">
-        <f t="shared" si="65"/>
+      <c r="V46" s="11">
+        <f t="shared" si="70"/>
         <v>688.92499999999995</v>
       </c>
-      <c r="V46" s="11">
-        <f t="shared" si="65"/>
+      <c r="W46" s="11">
+        <f t="shared" si="70"/>
         <v>746.01800000000003</v>
       </c>
-      <c r="W46" s="11">
-        <f t="shared" ref="W46:Y46" si="66">SUM(W41:W45)</f>
+      <c r="X46" s="11">
+        <f t="shared" ref="X46:Z46" si="71">SUM(X41:X45)</f>
         <v>750.553</v>
       </c>
-      <c r="X46" s="152">
-        <f t="shared" si="66"/>
+      <c r="Y46" s="11">
+        <f t="shared" si="71"/>
         <v>806.91899999999998</v>
       </c>
-      <c r="Y46" s="14">
-        <f t="shared" si="66"/>
+      <c r="Z46" s="149">
+        <f t="shared" si="71"/>
         <v>943.45600000000013</v>
       </c>
-      <c r="Z46" s="11">
-        <f t="shared" ref="Z46" si="67">SUM(Z41:Z45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA46" s="14">
+        <f t="shared" ref="AA46" si="72">SUM(AA41:AA45)</f>
+        <v>996.01800000000014</v>
+      </c>
+      <c r="AB46" s="149"/>
+      <c r="AC46" s="149"/>
+      <c r="AD46" s="149"/>
+      <c r="AE46" s="149"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -18747,54 +19067,64 @@
       <c r="E47" s="10">
         <v>9.9649999999999999</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="147">
         <v>28.047000000000001</v>
       </c>
-      <c r="K47" s="10"/>
+      <c r="G47" s="15">
+        <f t="shared" ref="G47:G51" si="73">AA47</f>
+        <v>39.884999999999998</v>
+      </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="10">
-        <f t="shared" ref="N47:N51" si="68">D47</f>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10">
+        <f t="shared" ref="O47:O51" si="74">D47</f>
         <v>40.216999999999999</v>
       </c>
-      <c r="O47" s="10">
+      <c r="P47" s="10">
         <v>33.244</v>
       </c>
-      <c r="P47" s="10">
+      <c r="Q47" s="10">
         <v>34.143000000000001</v>
       </c>
-      <c r="Q47" s="10">
+      <c r="R47" s="10">
         <v>31.382999999999999</v>
       </c>
-      <c r="R47" s="10">
-        <f t="shared" ref="R47:R51" si="69">E47</f>
+      <c r="S47" s="10">
+        <f t="shared" ref="S47:S51" si="75">E47</f>
         <v>9.9649999999999999</v>
       </c>
-      <c r="S47" s="10">
+      <c r="T47" s="10">
         <v>54.4</v>
       </c>
-      <c r="T47" s="10">
+      <c r="U47" s="10">
         <v>50.408000000000001</v>
       </c>
-      <c r="U47" s="10">
+      <c r="V47" s="10">
         <v>34.880000000000003</v>
       </c>
-      <c r="V47" s="10">
-        <f t="shared" ref="V47:V51" si="70">F47</f>
+      <c r="W47" s="10">
+        <f t="shared" ref="W47:W51" si="76">F47</f>
         <v>28.047000000000001</v>
       </c>
-      <c r="W47" s="10">
+      <c r="X47" s="10">
         <v>20.722000000000001</v>
       </c>
-      <c r="X47" s="150">
+      <c r="Y47" s="10">
         <v>15.648999999999999</v>
       </c>
-      <c r="Y47" s="15">
+      <c r="Z47" s="147">
         <v>7.8250000000000002</v>
       </c>
-      <c r="Z47" s="10"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA47" s="15">
+        <v>39.884999999999998</v>
+      </c>
+      <c r="AB47" s="147"/>
+      <c r="AC47" s="147"/>
+      <c r="AD47" s="147"/>
+      <c r="AE47" s="147"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -18810,54 +19140,64 @@
       <c r="E48" s="10">
         <v>3.9359999999999999</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="147">
         <v>1.4770000000000001</v>
       </c>
-      <c r="K48" s="10"/>
+      <c r="G48" s="15">
+        <f t="shared" si="73"/>
+        <v>1.663</v>
+      </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="10">
-        <f t="shared" si="68"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10">
+        <f t="shared" si="74"/>
         <v>33.698999999999998</v>
       </c>
-      <c r="O48" s="10">
+      <c r="P48" s="10">
         <v>22.276</v>
       </c>
-      <c r="P48" s="10">
+      <c r="Q48" s="10">
         <v>15.412000000000001</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="R48" s="10">
         <v>5.5330000000000004</v>
       </c>
-      <c r="R48" s="10">
-        <f t="shared" si="69"/>
+      <c r="S48" s="10">
+        <f t="shared" si="75"/>
         <v>3.9359999999999999</v>
       </c>
-      <c r="S48" s="10">
+      <c r="T48" s="10">
         <v>4.1619999999999999</v>
       </c>
-      <c r="T48" s="10">
+      <c r="U48" s="10">
         <v>3.0990000000000002</v>
       </c>
-      <c r="U48" s="10">
+      <c r="V48" s="10">
         <v>2.234</v>
       </c>
-      <c r="V48" s="10">
-        <f t="shared" si="70"/>
+      <c r="W48" s="10">
+        <f t="shared" si="76"/>
         <v>1.4770000000000001</v>
       </c>
-      <c r="W48" s="10">
+      <c r="X48" s="10">
         <v>1.651</v>
       </c>
-      <c r="X48" s="150">
+      <c r="Y48" s="10">
         <v>1.5269999999999999</v>
       </c>
-      <c r="Y48" s="15">
+      <c r="Z48" s="147">
         <v>3.681</v>
       </c>
-      <c r="Z48" s="10"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48" s="15">
+        <v>1.663</v>
+      </c>
+      <c r="AB48" s="147"/>
+      <c r="AC48" s="147"/>
+      <c r="AD48" s="147"/>
+      <c r="AE48" s="147"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -18873,17 +19213,18 @@
       <c r="E49" s="10">
         <v>0</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="147">
         <v>0</v>
       </c>
-      <c r="K49" s="10"/>
+      <c r="G49" s="15">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="10">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
+      <c r="N49" s="10"/>
       <c r="O49" s="10">
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="P49" s="10">
@@ -18893,10 +19234,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="10">
-        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S49" s="10">
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="T49" s="10">
@@ -18906,15 +19247,22 @@
         <v>0</v>
       </c>
       <c r="V49" s="10">
-        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="W49" s="10"/>
-      <c r="X49" s="150"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="10"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W49" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="147"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="147"/>
+      <c r="AC49" s="147"/>
+      <c r="AD49" s="147"/>
+      <c r="AE49" s="147"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -18930,54 +19278,64 @@
       <c r="E50" s="10">
         <v>204.30500000000001</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="147">
         <v>175.21600000000001</v>
       </c>
-      <c r="K50" s="10"/>
+      <c r="G50" s="15">
+        <f t="shared" si="73"/>
+        <v>195.226</v>
+      </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="10">
-        <f t="shared" si="68"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10">
+        <f t="shared" si="74"/>
         <v>220.14599999999999</v>
       </c>
-      <c r="O50" s="10">
+      <c r="P50" s="10">
         <v>227.61699999999999</v>
       </c>
-      <c r="P50" s="10">
+      <c r="Q50" s="10">
         <v>216.059</v>
       </c>
-      <c r="Q50" s="10">
+      <c r="R50" s="10">
         <v>204.90299999999999</v>
       </c>
-      <c r="R50" s="10">
-        <f t="shared" si="69"/>
+      <c r="S50" s="10">
+        <f t="shared" si="75"/>
         <v>204.30500000000001</v>
       </c>
-      <c r="S50" s="10">
+      <c r="T50" s="10">
         <v>206.422</v>
       </c>
-      <c r="T50" s="10">
+      <c r="U50" s="10">
         <v>194.13399999999999</v>
       </c>
-      <c r="U50" s="10">
+      <c r="V50" s="10">
         <v>184.06700000000001</v>
       </c>
-      <c r="V50" s="10">
-        <f t="shared" si="70"/>
+      <c r="W50" s="10">
+        <f t="shared" si="76"/>
         <v>175.21600000000001</v>
       </c>
-      <c r="W50" s="10">
+      <c r="X50" s="10">
         <v>163.01300000000001</v>
       </c>
-      <c r="X50" s="150">
+      <c r="Y50" s="10">
         <v>214.334</v>
       </c>
-      <c r="Y50" s="15">
+      <c r="Z50" s="147">
         <v>207.27799999999999</v>
       </c>
-      <c r="Z50" s="10"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA50" s="15">
+        <v>195.226</v>
+      </c>
+      <c r="AB50" s="147"/>
+      <c r="AC50" s="147"/>
+      <c r="AD50" s="147"/>
+      <c r="AE50" s="147"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -18993,54 +19351,64 @@
       <c r="E51" s="10">
         <v>12.654999999999999</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="147">
         <v>10.702</v>
       </c>
-      <c r="K51" s="10"/>
+      <c r="G51" s="15">
+        <f t="shared" si="73"/>
+        <v>13.685</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="10">
-        <f t="shared" si="68"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10">
+        <f t="shared" si="74"/>
         <v>2.2970000000000002</v>
       </c>
-      <c r="O51" s="10">
+      <c r="P51" s="10">
         <v>2.1920000000000002</v>
       </c>
-      <c r="P51" s="10">
+      <c r="Q51" s="10">
         <v>2.1579999999999999</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="R51" s="10">
         <v>2.0510000000000002</v>
       </c>
-      <c r="R51" s="10">
-        <f t="shared" si="69"/>
+      <c r="S51" s="10">
+        <f t="shared" si="75"/>
         <v>12.654999999999999</v>
       </c>
-      <c r="S51" s="10">
+      <c r="T51" s="10">
         <v>13.548</v>
       </c>
-      <c r="T51" s="10">
+      <c r="U51" s="10">
         <v>12.101000000000001</v>
       </c>
-      <c r="U51" s="10">
+      <c r="V51" s="10">
         <v>11.414</v>
       </c>
-      <c r="V51" s="10">
-        <f t="shared" si="70"/>
+      <c r="W51" s="10">
+        <f t="shared" si="76"/>
         <v>10.702</v>
       </c>
-      <c r="W51" s="10">
+      <c r="X51" s="10">
         <v>9.968</v>
       </c>
-      <c r="X51" s="150">
+      <c r="Y51" s="10">
         <v>15.645</v>
       </c>
-      <c r="Y51" s="15">
+      <c r="Z51" s="147">
         <v>14.494999999999999</v>
       </c>
-      <c r="Z51" s="10"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA51" s="15">
+        <v>13.685</v>
+      </c>
+      <c r="AB51" s="147"/>
+      <c r="AC51" s="147"/>
+      <c r="AD51" s="147"/>
+      <c r="AE51" s="147"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
@@ -19060,229 +19428,256 @@
         <f>SUM(E46:E51)</f>
         <v>818.80200000000013</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="149">
         <f>SUM(F46:F51)</f>
         <v>961.46</v>
       </c>
-      <c r="K52" s="11">
-        <f t="shared" ref="K52:V52" si="71">SUM(K46:K51)</f>
+      <c r="G52" s="14">
+        <f>SUM(G46:G51)</f>
+        <v>1246.4770000000003</v>
+      </c>
+      <c r="L52" s="11">
+        <f t="shared" ref="L52:W52" si="77">SUM(L46:L51)</f>
         <v>0</v>
       </c>
-      <c r="L52" s="11">
-        <f t="shared" si="71"/>
+      <c r="M52" s="11">
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="M52" s="11">
-        <f t="shared" si="71"/>
+      <c r="N52" s="11">
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="N52" s="11">
-        <f t="shared" si="71"/>
+      <c r="O52" s="11">
+        <f t="shared" si="77"/>
         <v>956.42</v>
       </c>
-      <c r="O52" s="11">
-        <f t="shared" si="71"/>
+      <c r="P52" s="11">
+        <f t="shared" si="77"/>
         <v>954.43299999999988</v>
       </c>
-      <c r="P52" s="11">
-        <f t="shared" si="71"/>
+      <c r="Q52" s="11">
+        <f t="shared" si="77"/>
         <v>933.51400000000012</v>
       </c>
-      <c r="Q52" s="11">
-        <f t="shared" si="71"/>
+      <c r="R52" s="11">
+        <f t="shared" si="77"/>
         <v>932.22</v>
       </c>
-      <c r="R52" s="11">
-        <f t="shared" si="71"/>
+      <c r="S52" s="11">
+        <f t="shared" si="77"/>
         <v>818.80200000000013</v>
       </c>
-      <c r="S52" s="11">
-        <f t="shared" si="71"/>
+      <c r="T52" s="11">
+        <f t="shared" si="77"/>
         <v>879.94500000000005</v>
       </c>
-      <c r="T52" s="11">
-        <f t="shared" si="71"/>
+      <c r="U52" s="11">
+        <f t="shared" si="77"/>
         <v>945.12600000000009</v>
       </c>
-      <c r="U52" s="11">
-        <f t="shared" si="71"/>
+      <c r="V52" s="11">
+        <f t="shared" si="77"/>
         <v>921.52</v>
       </c>
-      <c r="V52" s="11">
-        <f t="shared" si="71"/>
+      <c r="W52" s="11">
+        <f t="shared" si="77"/>
         <v>961.46</v>
       </c>
-      <c r="W52" s="11">
-        <f t="shared" ref="W52:Y52" si="72">SUM(W46:W51)</f>
+      <c r="X52" s="11">
+        <f t="shared" ref="X52:Z52" si="78">SUM(X46:X51)</f>
         <v>945.90699999999993</v>
       </c>
-      <c r="X52" s="152">
-        <f t="shared" si="72"/>
+      <c r="Y52" s="11">
+        <f t="shared" si="78"/>
         <v>1054.0740000000001</v>
       </c>
-      <c r="Y52" s="14">
-        <f t="shared" si="72"/>
+      <c r="Z52" s="149">
+        <f t="shared" si="78"/>
         <v>1176.7350000000001</v>
       </c>
-      <c r="Z52" s="11">
-        <f t="shared" ref="Z52" si="73">SUM(Z46:Z51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA52" s="14">
+        <f t="shared" ref="AA52" si="79">SUM(AA46:AA51)</f>
+        <v>1246.4770000000003</v>
+      </c>
+      <c r="AB52" s="149"/>
+      <c r="AC52" s="149"/>
+      <c r="AD52" s="149"/>
+      <c r="AE52" s="149"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="10">
-        <f t="shared" ref="B53:E53" si="74">B40-B52</f>
+        <f t="shared" ref="B53:E53" si="80">B40-B52</f>
         <v>146.58900000000017</v>
       </c>
       <c r="C53" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1522.53</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>2291.0299999999997</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>2642.4369999999999</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="147">
         <f>F40-F52</f>
         <v>3560.9650000000001</v>
       </c>
-      <c r="N53" s="10">
-        <f t="shared" ref="N53:V53" si="75">N40-N52</f>
+      <c r="G53" s="15">
+        <f>G40-G52</f>
+        <v>5094.4069999999992</v>
+      </c>
+      <c r="O53" s="10">
+        <f t="shared" ref="O53:W53" si="81">O40-O52</f>
         <v>2291.0299999999997</v>
       </c>
-      <c r="O53" s="10">
-        <f t="shared" si="75"/>
+      <c r="P53" s="10">
+        <f t="shared" si="81"/>
         <v>2364.7460000000001</v>
       </c>
-      <c r="P53" s="10">
-        <f t="shared" si="75"/>
+      <c r="Q53" s="10">
+        <f t="shared" si="81"/>
         <v>2348.8239999999996</v>
       </c>
-      <c r="Q53" s="10">
-        <f t="shared" si="75"/>
+      <c r="R53" s="10">
+        <f t="shared" si="81"/>
         <v>2386.6149999999998</v>
       </c>
-      <c r="R53" s="10">
-        <f t="shared" si="75"/>
+      <c r="S53" s="10">
+        <f t="shared" si="81"/>
         <v>2642.4369999999999</v>
       </c>
-      <c r="S53" s="10">
-        <f t="shared" si="75"/>
+      <c r="T53" s="10">
+        <f t="shared" si="81"/>
         <v>2803.1929999999998</v>
       </c>
-      <c r="T53" s="10">
-        <f t="shared" si="75"/>
+      <c r="U53" s="10">
+        <f t="shared" si="81"/>
         <v>3035.1379999999999</v>
       </c>
-      <c r="U53" s="10">
-        <f t="shared" si="75"/>
+      <c r="V53" s="10">
+        <f t="shared" si="81"/>
         <v>3271.8969999999995</v>
       </c>
-      <c r="V53" s="10">
-        <f t="shared" si="75"/>
+      <c r="W53" s="10">
+        <f t="shared" si="81"/>
         <v>3560.9650000000001</v>
       </c>
-      <c r="W53" s="10">
-        <f t="shared" ref="W53:Y53" si="76">W40-W52</f>
+      <c r="X53" s="10">
+        <f t="shared" ref="X53:Z53" si="82">X40-X52</f>
         <v>3861.1720000000005</v>
       </c>
-      <c r="X53" s="150">
-        <f t="shared" si="76"/>
+      <c r="Y53" s="10">
+        <f t="shared" si="82"/>
         <v>4137.8060000000023</v>
       </c>
-      <c r="Y53" s="15">
-        <f t="shared" si="76"/>
+      <c r="Z53" s="147">
+        <f t="shared" si="82"/>
         <v>4591.3619999999992</v>
       </c>
-      <c r="Z53" s="10">
-        <f t="shared" ref="Z53" si="77">Z40-Z52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R54" s="116"/>
-      <c r="S54" s="116"/>
-      <c r="T54" s="116"/>
-      <c r="U54" s="116"/>
-      <c r="V54" s="116"/>
-      <c r="W54" s="116"/>
-    </row>
-    <row r="55" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA53" s="15">
+        <f t="shared" ref="AA53" si="83">AA40-AA52</f>
+        <v>5094.4069999999992</v>
+      </c>
+      <c r="AB53" s="147"/>
+      <c r="AC53" s="147"/>
+      <c r="AD53" s="147"/>
+      <c r="AE53" s="147"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S54" s="114"/>
+      <c r="T54" s="114"/>
+      <c r="U54" s="114"/>
+      <c r="V54" s="114"/>
+      <c r="W54" s="114"/>
+      <c r="X54" s="114"/>
+      <c r="AB54" s="146"/>
+      <c r="AC54" s="146"/>
+      <c r="AD54" s="146"/>
+      <c r="AE54" s="146"/>
+    </row>
+    <row r="55" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="116">
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="114">
         <f>E10/E32</f>
         <v>6.2538964187582261E-3</v>
       </c>
-      <c r="F55" s="48">
+      <c r="F55" s="114">
         <f>F10/F33</f>
         <v>4.5408373582373242E-2</v>
       </c>
-      <c r="P55" s="116">
-        <f t="shared" ref="P55:Z55" si="78">P10/P32</f>
+      <c r="G55" s="16"/>
+      <c r="Q55" s="114">
+        <f t="shared" ref="Q55:AA55" si="84">Q10/Q32</f>
         <v>3.360544525538881E-4</v>
       </c>
-      <c r="Q55" s="116">
-        <f t="shared" si="78"/>
+      <c r="R55" s="114">
+        <f t="shared" si="84"/>
         <v>1.8331745377073477E-3</v>
       </c>
-      <c r="R55" s="116">
-        <f t="shared" si="78"/>
+      <c r="S55" s="114">
+        <f t="shared" si="84"/>
         <v>4.247769901560108E-3</v>
       </c>
-      <c r="S55" s="116">
-        <f t="shared" ref="R55:W55" si="79">S10/S33</f>
+      <c r="T55" s="114">
+        <f t="shared" ref="T55:X55" si="85">T10/T33</f>
         <v>1.193928272828893E-2</v>
       </c>
-      <c r="T55" s="116">
-        <f t="shared" si="79"/>
+      <c r="U55" s="114">
+        <f t="shared" si="85"/>
         <v>1.4161378068693404E-2</v>
       </c>
-      <c r="U55" s="116">
-        <f t="shared" si="79"/>
+      <c r="V55" s="114">
+        <f t="shared" si="85"/>
         <v>1.6102429317280533E-2</v>
       </c>
-      <c r="V55" s="116">
-        <f t="shared" si="79"/>
+      <c r="W55" s="114">
+        <f t="shared" si="85"/>
         <v>1.5619746110979021E-2</v>
       </c>
-      <c r="W55" s="116">
-        <f t="shared" si="79"/>
+      <c r="X55" s="114">
+        <f t="shared" si="85"/>
         <v>1.2950513694947171E-2</v>
       </c>
-      <c r="X55" s="116">
-        <f>X10/X33</f>
+      <c r="Y55" s="114">
+        <f>Y10/Y33</f>
         <v>1.3366515577485799E-2</v>
       </c>
-      <c r="Y55" s="48">
-        <f>Y10/Y33</f>
+      <c r="Z55" s="114">
+        <f>Z10/Z33</f>
         <v>1.3730426831340462E-2</v>
       </c>
-      <c r="Z55" s="116" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="6:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F73" s="40"/>
-      <c r="X73" s="156"/>
-      <c r="Y73" s="40"/>
-    </row>
-    <row r="74" spans="6:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F74" s="16"/>
-      <c r="X74" s="157"/>
-      <c r="Y74" s="16"/>
+      <c r="AA55" s="47">
+        <f t="shared" si="84"/>
+        <v>2.6078805865455912E-2</v>
+      </c>
+      <c r="AB55" s="114"/>
+      <c r="AC55" s="114"/>
+      <c r="AD55" s="114"/>
+      <c r="AE55" s="114"/>
+    </row>
+    <row r="73" spans="6:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="154"/>
+      <c r="G73" s="40"/>
+      <c r="Z73" s="154"/>
+      <c r="AA73" s="40"/>
+    </row>
+    <row r="74" spans="6:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="155"/>
+      <c r="G74" s="16"/>
+      <c r="Z74" s="155"/>
+      <c r="AA74" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -28638,14 +29033,14 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="139" t="s">
+      <c r="G1" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="141"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
@@ -28654,16 +29049,16 @@
       <c r="B2" s="18">
         <v>21.59</v>
       </c>
-      <c r="C2" s="118">
+      <c r="C2" s="116">
         <f>B2/B3-1</f>
         <v>5.4714215925744991E-2</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -28672,26 +29067,26 @@
       <c r="B3" s="18">
         <v>20.47</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="116">
         <f>B3/B4-1</f>
         <v>-9.7044552271724815E-2</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="59" t="s">
         <v>113</v>
       </c>
       <c r="P3" t="s">
@@ -28705,31 +29100,31 @@
       <c r="B4" s="18">
         <v>22.67</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="116">
         <f t="shared" ref="C4:C67" si="0">B4/B5-1</f>
         <v>-1.2630662020905903E-2</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="60">
         <f>$H$19-3*$H$23</f>
         <v>-0.30196155743324171</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="61">
         <f>G4</f>
         <v>-0.30196155743324171</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="62">
         <f>COUNTIF(C:C,"&lt;="&amp;G4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="64" t="str">
+      <c r="J4" s="62" t="str">
         <f>"Less than "&amp;TEXT(G4,"0,00%")</f>
         <v>Less than -30,20%</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="63">
         <f>I4/$H$31</f>
         <v>0</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="64">
         <f>K4</f>
         <v>0</v>
       </c>
@@ -28741,31 +29136,31 @@
       <c r="B5" s="18">
         <v>22.96</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="116">
         <f t="shared" si="0"/>
         <v>-2.1729682746631784E-3</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="65">
         <f>$H$19-2.4*$H$23</f>
         <v>-0.2395044379089247</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="66">
         <f>G5</f>
         <v>-0.2395044379089247</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="67">
         <f>COUNTIFS(C:C,"&lt;="&amp;G5,C:C,"&gt;"&amp;G4)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="70" t="str">
+      <c r="J5" s="68" t="str">
         <f t="shared" ref="J5:J14" si="1">TEXT(G4,"0,00%")&amp;" to "&amp;TEXT(G5,"0,00%")</f>
         <v>-30,20% to -23,95%</v>
       </c>
-      <c r="K5" s="71">
+      <c r="K5" s="69">
         <f>I5/$H$31</f>
         <v>0</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="70">
         <f>L4+K5</f>
         <v>0</v>
       </c>
@@ -28777,31 +29172,31 @@
       <c r="B6" s="18">
         <v>23.01</v>
       </c>
-      <c r="C6" s="118">
+      <c r="C6" s="116">
         <f t="shared" si="0"/>
         <v>-4.8387096774193505E-2</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="65">
         <f>$H$19-1.8*$H$23</f>
         <v>-0.17704731838460766</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="66">
         <f t="shared" ref="H6:H14" si="2">G6</f>
         <v>-0.17704731838460766</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="67">
         <f t="shared" ref="I6:I14" si="3">COUNTIFS(C:C,"&lt;="&amp;G6,C:C,"&gt;"&amp;G5)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="70" t="str">
+      <c r="J6" s="68" t="str">
         <f t="shared" si="1"/>
         <v>-23,95% to -17,70%</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="69">
         <f t="shared" ref="K6:K15" si="4">I6/$H$31</f>
         <v>0</v>
       </c>
-      <c r="L6" s="72">
+      <c r="L6" s="70">
         <f t="shared" ref="L6:L15" si="5">L5+K6</f>
         <v>0</v>
       </c>
@@ -28813,31 +29208,31 @@
       <c r="B7" s="18">
         <v>24.18</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="116">
         <f t="shared" si="0"/>
         <v>2.9374201787994991E-2</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="65">
         <f>$H$19-1.2*$H$23</f>
         <v>-0.11459019886029058</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="66">
         <f t="shared" si="2"/>
         <v>-0.11459019886029058</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="67">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="J7" s="70" t="str">
+      <c r="J7" s="68" t="str">
         <f t="shared" si="1"/>
         <v>-17,70% to -11,46%</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="69">
         <f t="shared" si="4"/>
         <v>9.9447513812154692E-2</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="70">
         <f t="shared" si="5"/>
         <v>9.9447513812154692E-2</v>
       </c>
@@ -28849,31 +29244,31 @@
       <c r="B8" s="18">
         <v>23.49</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="116">
         <f t="shared" si="0"/>
         <v>-9.7926301922953152E-2</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="65">
         <f>$H$19-0.6*$H$23</f>
         <v>-5.2133079335973533E-2</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="66">
         <f t="shared" si="2"/>
         <v>-5.2133079335973533E-2</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="67">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="J8" s="70" t="str">
+      <c r="J8" s="68" t="str">
         <f t="shared" si="1"/>
         <v>-11,46% to -5,21%</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="69">
         <f t="shared" si="4"/>
         <v>0.18784530386740331</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="70">
         <f t="shared" si="5"/>
         <v>0.287292817679558</v>
       </c>
@@ -28885,31 +29280,31 @@
       <c r="B9" s="18">
         <v>26.040001</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="116">
         <f t="shared" si="0"/>
         <v>4.4524709185719935E-2</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="65">
         <f>$H$19</f>
         <v>1.0324040188343523E-2</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="66">
         <f t="shared" si="2"/>
         <v>1.0324040188343523E-2</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="67">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="J9" s="70" t="str">
+      <c r="J9" s="68" t="str">
         <f t="shared" si="1"/>
         <v>-5,21% to 1,03%</v>
       </c>
-      <c r="K9" s="71">
+      <c r="K9" s="69">
         <f t="shared" si="4"/>
         <v>0.25966850828729282</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L9" s="70">
         <f t="shared" si="5"/>
         <v>0.54696132596685088</v>
       </c>
@@ -28921,31 +29316,31 @@
       <c r="B10" s="18">
         <v>24.93</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="116">
         <f t="shared" si="0"/>
         <v>8.5328736844960229E-2</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="65">
         <f>$H$19+0.6*$H$23</f>
         <v>7.2781159712660581E-2</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="66">
         <f t="shared" si="2"/>
         <v>7.2781159712660581E-2</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="67">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="J10" s="70" t="str">
+      <c r="J10" s="68" t="str">
         <f t="shared" si="1"/>
         <v>1,03% to 7,28%</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="69">
         <f t="shared" si="4"/>
         <v>0.287292817679558</v>
       </c>
-      <c r="L10" s="72">
+      <c r="L10" s="70">
         <f t="shared" si="5"/>
         <v>0.83425414364640882</v>
       </c>
@@ -28957,31 +29352,31 @@
       <c r="B11" s="18">
         <v>22.969999000000001</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="116">
         <f t="shared" si="0"/>
         <v>-6.0147378881040048E-2</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="65">
         <f>$H$19+1.2*$H$23</f>
         <v>0.13523827923697762</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="66">
         <f t="shared" si="2"/>
         <v>0.13523827923697762</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="67">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="J11" s="70" t="str">
+      <c r="J11" s="68" t="str">
         <f t="shared" si="1"/>
         <v>7,28% to 13,52%</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="69">
         <f t="shared" si="4"/>
         <v>0.11602209944751381</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="70">
         <f t="shared" si="5"/>
         <v>0.95027624309392267</v>
       </c>
@@ -28993,31 +29388,31 @@
       <c r="B12" s="18">
         <v>24.440000999999999</v>
       </c>
-      <c r="C12" s="118">
+      <c r="C12" s="116">
         <f t="shared" si="0"/>
         <v>2.4611157695288988E-3</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="65">
         <f>$H$19+1.8*$H$23</f>
         <v>0.19769539876129469</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="66">
         <f t="shared" si="2"/>
         <v>0.19769539876129469</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="67">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J12" s="70" t="str">
+      <c r="J12" s="68" t="str">
         <f t="shared" si="1"/>
         <v>13,52% to 19,77%</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="69">
         <f t="shared" si="4"/>
         <v>2.7624309392265192E-2</v>
       </c>
-      <c r="L12" s="72">
+      <c r="L12" s="70">
         <f t="shared" si="5"/>
         <v>0.9779005524861879</v>
       </c>
@@ -29029,31 +29424,31 @@
       <c r="B13" s="18">
         <v>24.379999000000002</v>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="116">
         <f t="shared" si="0"/>
         <v>0.43243237367802601</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="65">
         <f>$H$19+2.4*$H$23</f>
         <v>0.26015251828561176</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="66">
         <f t="shared" si="2"/>
         <v>0.26015251828561176</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="67">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J13" s="70" t="str">
+      <c r="J13" s="68" t="str">
         <f t="shared" si="1"/>
         <v>19,77% to 26,02%</v>
       </c>
-      <c r="K13" s="71">
+      <c r="K13" s="69">
         <f t="shared" si="4"/>
         <v>2.2099447513812154E-2</v>
       </c>
-      <c r="L13" s="72">
+      <c r="L13" s="70">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -29065,31 +29460,31 @@
       <c r="B14" s="18">
         <v>17.02</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="116">
         <f t="shared" si="0"/>
         <v>4.0978593272171127E-2</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="65">
         <f>$H$19+3*$H$23</f>
         <v>0.3226096378099288</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="66">
         <f t="shared" si="2"/>
         <v>0.3226096378099288</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="67">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J14" s="70" t="str">
+      <c r="J14" s="68" t="str">
         <f t="shared" si="1"/>
         <v>26,02% to 32,26%</v>
       </c>
-      <c r="K14" s="71">
+      <c r="K14" s="69">
         <f t="shared" si="4"/>
         <v>1.1049723756906077E-2</v>
       </c>
-      <c r="L14" s="72">
+      <c r="L14" s="70">
         <f t="shared" si="5"/>
         <v>1.011049723756906</v>
       </c>
@@ -29101,27 +29496,27 @@
       <c r="B15" s="18">
         <v>16.350000000000001</v>
       </c>
-      <c r="C15" s="118">
+      <c r="C15" s="116">
         <f t="shared" si="0"/>
         <v>-2.5625803002037761E-2</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74" t="s">
+      <c r="G15" s="71"/>
+      <c r="H15" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="72">
         <f>COUNTIF(C:C,"&gt;"&amp;G14)</f>
         <v>3</v>
       </c>
-      <c r="J15" s="74" t="str">
+      <c r="J15" s="72" t="str">
         <f>"Greater than "&amp;TEXT(G14,"0,00%")</f>
         <v>Greater than 32,26%</v>
       </c>
-      <c r="K15" s="76">
+      <c r="K15" s="74">
         <f t="shared" si="4"/>
         <v>1.6574585635359115E-2</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="74">
         <f t="shared" si="5"/>
         <v>1.0276243093922652</v>
       </c>
@@ -29133,12 +29528,12 @@
       <c r="B16" s="18">
         <v>16.780000999999999</v>
       </c>
-      <c r="C16" s="118">
+      <c r="C16" s="116">
         <f t="shared" si="0"/>
         <v>1.1933770883052475E-3</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="L16" s="80"/>
+      <c r="G16" s="106"/>
+      <c r="L16" s="78"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -29147,15 +29542,15 @@
       <c r="B17" s="18">
         <v>16.760000000000002</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="116">
         <f t="shared" si="0"/>
         <v>4.8811013767209088E-2</v>
       </c>
-      <c r="G17" s="145" t="s">
+      <c r="G17" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="146"/>
-      <c r="L17" s="80"/>
+      <c r="H17" s="142"/>
+      <c r="L17" s="78"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -29164,13 +29559,13 @@
       <c r="B18" s="18">
         <v>15.98</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C18" s="116">
         <f t="shared" si="0"/>
         <v>-6.9306930693069368E-2</v>
       </c>
-      <c r="G18" s="147"/>
-      <c r="H18" s="148"/>
-      <c r="L18" s="80"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="144"/>
+      <c r="L18" s="78"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -29179,17 +29574,17 @@
       <c r="B19" s="18">
         <v>17.170000000000002</v>
       </c>
-      <c r="C19" s="118">
+      <c r="C19" s="116">
         <f t="shared" si="0"/>
         <v>-1.378518093049963E-2</v>
       </c>
-      <c r="G19" s="113" t="s">
+      <c r="G19" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="114">
+      <c r="H19" s="112">
         <v>1.0324040188343523E-2</v>
       </c>
-      <c r="L19" s="80"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -29198,17 +29593,17 @@
       <c r="B20" s="18">
         <v>17.41</v>
       </c>
-      <c r="C20" s="118">
+      <c r="C20" s="116">
         <f t="shared" si="0"/>
         <v>-4.3406645966667767E-2</v>
       </c>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="114">
+      <c r="H20" s="112">
         <v>7.7373352223140783E-3</v>
       </c>
-      <c r="L20" s="80"/>
+      <c r="L20" s="78"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -29217,17 +29612,17 @@
       <c r="B21" s="18">
         <v>18.200001</v>
       </c>
-      <c r="C21" s="118">
+      <c r="C21" s="116">
         <f t="shared" si="0"/>
         <v>2.4198142937535305E-2</v>
       </c>
-      <c r="G21" s="113" t="s">
+      <c r="G21" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="114">
+      <c r="H21" s="112">
         <v>5.0668357930372387E-3</v>
       </c>
-      <c r="L21" s="80"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -29236,15 +29631,15 @@
       <c r="B22" s="18">
         <v>17.77</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="116">
         <f t="shared" si="0"/>
         <v>-0.12333497779970404</v>
       </c>
-      <c r="G22" s="113" t="s">
+      <c r="G22" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="114"/>
-      <c r="L22" s="80"/>
+      <c r="H22" s="112"/>
+      <c r="L22" s="78"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -29253,17 +29648,17 @@
       <c r="B23" s="18">
         <v>20.27</v>
       </c>
-      <c r="C23" s="118">
+      <c r="C23" s="116">
         <f t="shared" si="0"/>
         <v>5.5729111680775434E-2</v>
       </c>
-      <c r="G23" s="113" t="s">
+      <c r="G23" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="114">
+      <c r="H23" s="112">
         <v>0.10409519920719509</v>
       </c>
-      <c r="L23" s="80"/>
+      <c r="L23" s="78"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -29272,17 +29667,17 @@
       <c r="B24" s="18">
         <v>19.200001</v>
       </c>
-      <c r="C24" s="118">
+      <c r="C24" s="116">
         <f t="shared" si="0"/>
         <v>-6.2957491459248338E-2</v>
       </c>
-      <c r="G24" s="113" t="s">
+      <c r="G24" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="114">
+      <c r="H24" s="112">
         <v>1.0835810497985631E-2</v>
       </c>
-      <c r="L24" s="80"/>
+      <c r="L24" s="78"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -29291,17 +29686,17 @@
       <c r="B25" s="18">
         <v>20.49</v>
       </c>
-      <c r="C25" s="118">
+      <c r="C25" s="116">
         <f t="shared" si="0"/>
         <v>4.1687849517030751E-2</v>
       </c>
-      <c r="G25" s="113" t="s">
+      <c r="G25" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="115">
+      <c r="H25" s="113">
         <v>4.4499182088364986</v>
       </c>
-      <c r="L25" s="80"/>
+      <c r="L25" s="78"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -29310,17 +29705,17 @@
       <c r="B26" s="18">
         <v>19.670000000000002</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="116">
         <f t="shared" si="0"/>
         <v>4.1291743848160145E-2</v>
       </c>
-      <c r="G26" s="113" t="s">
+      <c r="G26" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="115">
+      <c r="H26" s="113">
         <v>1.4086978788475739</v>
       </c>
-      <c r="L26" s="80"/>
+      <c r="L26" s="78"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -29329,17 +29724,17 @@
       <c r="B27" s="18">
         <v>18.889999</v>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="116">
         <f t="shared" si="0"/>
         <v>0.25348367617783674</v>
       </c>
-      <c r="G27" s="113" t="s">
+      <c r="G27" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="114">
+      <c r="H27" s="112">
         <v>0.69982901111427775</v>
       </c>
-      <c r="L27" s="80"/>
+      <c r="L27" s="78"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
@@ -29348,17 +29743,17 @@
       <c r="B28" s="18">
         <v>15.07</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="116">
         <f t="shared" si="0"/>
         <v>-6.4556234354051223E-2</v>
       </c>
-      <c r="G28" s="113" t="s">
+      <c r="G28" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="114">
+      <c r="H28" s="112">
         <v>-0.17586206896551726</v>
       </c>
-      <c r="L28" s="80"/>
+      <c r="L28" s="78"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -29367,17 +29762,17 @@
       <c r="B29" s="18">
         <v>16.110001</v>
       </c>
-      <c r="C29" s="118">
+      <c r="C29" s="116">
         <f t="shared" si="0"/>
         <v>-7.2004604147200224E-2</v>
       </c>
-      <c r="G29" s="113" t="s">
+      <c r="G29" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="114">
+      <c r="H29" s="112">
         <v>0.5239669421487605</v>
       </c>
-      <c r="L29" s="80"/>
+      <c r="L29" s="78"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
@@ -29386,17 +29781,17 @@
       <c r="B30" s="18">
         <v>17.360001</v>
       </c>
-      <c r="C30" s="118">
+      <c r="C30" s="116">
         <f t="shared" si="0"/>
         <v>4.5153519256260211E-2</v>
       </c>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="115">
+      <c r="H30" s="113">
         <v>1.8686512740901775</v>
       </c>
-      <c r="L30" s="80"/>
+      <c r="L30" s="78"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
@@ -29405,17 +29800,17 @@
       <c r="B31" s="18">
         <v>16.610001</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="116">
         <f t="shared" si="0"/>
         <v>3.8125062500000029E-2</v>
       </c>
-      <c r="G31" s="112" t="s">
+      <c r="G31" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="94">
+      <c r="H31" s="92">
         <v>181</v>
       </c>
-      <c r="L31" s="80"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
@@ -29424,12 +29819,12 @@
       <c r="B32" s="18">
         <v>16</v>
       </c>
-      <c r="C32" s="118">
+      <c r="C32" s="116">
         <f t="shared" si="0"/>
         <v>0.13234253361641901</v>
       </c>
-      <c r="G32" s="111"/>
-      <c r="L32" s="80"/>
+      <c r="G32" s="109"/>
+      <c r="L32" s="78"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
@@ -29438,24 +29833,24 @@
       <c r="B33" s="18">
         <v>14.13</v>
       </c>
-      <c r="C33" s="118">
+      <c r="C33" s="116">
         <f t="shared" si="0"/>
         <v>-7.8277886497064575E-2</v>
       </c>
-      <c r="G33" s="109"/>
-      <c r="H33" s="78" t="s">
+      <c r="G33" s="107"/>
+      <c r="H33" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="78" t="s">
+      <c r="I33" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="78" t="s">
+      <c r="J33" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="K33" s="79" t="s">
+      <c r="K33" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="L33" s="80"/>
+      <c r="L33" s="78"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
@@ -29464,30 +29859,30 @@
       <c r="B34" s="18">
         <v>15.33</v>
       </c>
-      <c r="C34" s="118">
+      <c r="C34" s="116">
         <f t="shared" si="0"/>
         <v>1.3218770654329193E-2</v>
       </c>
-      <c r="G34" s="106" t="s">
+      <c r="G34" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="69">
         <f>AVERAGEIF(C:C,"&gt;0")</f>
         <v>7.8537793421395052E-2</v>
       </c>
-      <c r="I34" s="69">
+      <c r="I34" s="67">
         <f>COUNTIF(C:C,"&gt;0")</f>
         <v>99</v>
       </c>
-      <c r="J34" s="71">
+      <c r="J34" s="69">
         <f>I34/$H$31</f>
         <v>0.54696132596685088</v>
       </c>
-      <c r="K34" s="72">
+      <c r="K34" s="70">
         <f>J34*H34</f>
         <v>4.2957135628276855E-2</v>
       </c>
-      <c r="L34" s="80"/>
+      <c r="L34" s="78"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
@@ -29496,30 +29891,30 @@
       <c r="B35" s="18">
         <v>15.13</v>
       </c>
-      <c r="C35" s="118">
+      <c r="C35" s="116">
         <f t="shared" si="0"/>
         <v>-3.2938076416336726E-3</v>
       </c>
-      <c r="G35" s="106" t="s">
+      <c r="G35" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="71">
+      <c r="H35" s="69">
         <f>AVERAGEIF(C:C,"&lt;0")</f>
         <v>-6.9104728023490519E-2</v>
       </c>
-      <c r="I35" s="69">
+      <c r="I35" s="67">
         <f>COUNTIF(C:C,"&lt;0")</f>
         <v>87</v>
       </c>
-      <c r="J35" s="71">
+      <c r="J35" s="69">
         <f>I35/$H$31</f>
         <v>0.48066298342541436</v>
       </c>
-      <c r="K35" s="72">
+      <c r="K35" s="70">
         <f t="shared" ref="K35:K36" si="6">J35*H35</f>
         <v>-3.321608474057279E-2</v>
       </c>
-      <c r="L35" s="80"/>
+      <c r="L35" s="78"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
@@ -29528,29 +29923,29 @@
       <c r="B36" s="18">
         <v>15.18</v>
       </c>
-      <c r="C36" s="118">
+      <c r="C36" s="116">
         <f t="shared" si="0"/>
         <v>4.4735030970405987E-2</v>
       </c>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="74">
+      <c r="H36" s="72">
         <v>0</v>
       </c>
-      <c r="I36" s="74">
+      <c r="I36" s="72">
         <f>COUNTIF(C:C,"0")</f>
         <v>0</v>
       </c>
-      <c r="J36" s="75">
+      <c r="J36" s="73">
         <f>I36/$H$31</f>
         <v>0</v>
       </c>
-      <c r="K36" s="76">
+      <c r="K36" s="74">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L36" s="80"/>
+      <c r="L36" s="78"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
@@ -29559,16 +29954,16 @@
       <c r="B37" s="18">
         <v>14.53</v>
       </c>
-      <c r="C37" s="118">
+      <c r="C37" s="116">
         <f t="shared" si="0"/>
         <v>9.0277777777776347E-3</v>
       </c>
-      <c r="G37" s="111"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="80"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="78"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
@@ -29577,26 +29972,26 @@
       <c r="B38" s="18">
         <v>14.4</v>
       </c>
-      <c r="C38" s="118">
+      <c r="C38" s="116">
         <f t="shared" si="0"/>
         <v>-6.5541855937702787E-2</v>
       </c>
-      <c r="G38" s="62" t="s">
+      <c r="G38" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="78" t="s">
+      <c r="H38" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="78" t="s">
+      <c r="I38" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="J38" s="78" t="s">
+      <c r="J38" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="78" t="s">
+      <c r="K38" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="L38" s="79" t="s">
+      <c r="L38" s="77" t="s">
         <v>126</v>
       </c>
     </row>
@@ -29607,30 +30002,30 @@
       <c r="B39" s="18">
         <v>15.41</v>
       </c>
-      <c r="C39" s="118">
+      <c r="C39" s="116">
         <f t="shared" si="0"/>
         <v>-0.15329674981885988</v>
       </c>
-      <c r="G39" s="107">
+      <c r="G39" s="105">
         <v>1</v>
       </c>
-      <c r="H39" s="71">
+      <c r="H39" s="69">
         <f>$H$19+($G39*$H$23)</f>
         <v>0.11441923939553862</v>
       </c>
-      <c r="I39" s="71">
+      <c r="I39" s="69">
         <f>$H$19-($G39*$H$23)</f>
         <v>-9.3771159018851566E-2</v>
       </c>
-      <c r="J39" s="69">
+      <c r="J39" s="67">
         <f>COUNTIFS(C:C,"&lt;"&amp;H39,C:C,"&gt;"&amp;I39)</f>
         <v>145</v>
       </c>
-      <c r="K39" s="71">
+      <c r="K39" s="69">
         <f>J39/$H$31</f>
         <v>0.80110497237569056</v>
       </c>
-      <c r="L39" s="72">
+      <c r="L39" s="70">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -29641,30 +30036,30 @@
       <c r="B40" s="18">
         <v>18.200001</v>
       </c>
-      <c r="C40" s="118">
+      <c r="C40" s="116">
         <f t="shared" si="0"/>
         <v>2.1897923744970349E-2</v>
       </c>
-      <c r="G40" s="107">
+      <c r="G40" s="105">
         <v>2</v>
       </c>
-      <c r="H40" s="71">
+      <c r="H40" s="69">
         <f>$H$19+($G40*$H$23)</f>
         <v>0.2185144386027337</v>
       </c>
-      <c r="I40" s="71">
+      <c r="I40" s="69">
         <f>$H$19-($G40*$H$23)</f>
         <v>-0.19786635822604667</v>
       </c>
-      <c r="J40" s="69">
+      <c r="J40" s="67">
         <f>COUNTIFS(C:C,"&lt;"&amp;H40,C:C,"&gt;"&amp;I40)</f>
         <v>177</v>
       </c>
-      <c r="K40" s="71">
+      <c r="K40" s="69">
         <f>J40/$H$31</f>
         <v>0.97790055248618779</v>
       </c>
-      <c r="L40" s="72">
+      <c r="L40" s="70">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -29675,30 +30070,30 @@
       <c r="B41" s="18">
         <v>17.809999000000001</v>
       </c>
-      <c r="C41" s="118">
+      <c r="C41" s="116">
         <f t="shared" si="0"/>
         <v>8.3992635423006723E-2</v>
       </c>
-      <c r="G41" s="107">
+      <c r="G41" s="105">
         <v>3</v>
       </c>
-      <c r="H41" s="71">
+      <c r="H41" s="69">
         <f>$H$19+($G41*$H$23)</f>
         <v>0.3226096378099288</v>
       </c>
-      <c r="I41" s="71">
+      <c r="I41" s="69">
         <f>$H$19-($G41*$H$23)</f>
         <v>-0.30196155743324171</v>
       </c>
-      <c r="J41" s="69">
+      <c r="J41" s="67">
         <f>COUNTIFS(C:C,"&lt;"&amp;H41,C:C,"&gt;"&amp;I41)</f>
         <v>183</v>
       </c>
-      <c r="K41" s="71">
+      <c r="K41" s="69">
         <f>J41/$H$31</f>
         <v>1.011049723756906</v>
       </c>
-      <c r="L41" s="82">
+      <c r="L41" s="80">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -29709,12 +30104,12 @@
       <c r="B42" s="18">
         <v>16.43</v>
       </c>
-      <c r="C42" s="118">
+      <c r="C42" s="116">
         <f t="shared" si="0"/>
         <v>1.8292682926830395E-3</v>
       </c>
-      <c r="G42" s="67"/>
-      <c r="L42" s="82"/>
+      <c r="G42" s="65"/>
+      <c r="L42" s="80"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
@@ -29723,18 +30118,18 @@
       <c r="B43" s="18">
         <v>16.399999999999999</v>
       </c>
-      <c r="C43" s="118">
+      <c r="C43" s="116">
         <f t="shared" si="0"/>
         <v>6.9100391134289341E-2</v>
       </c>
-      <c r="G43" s="142" t="s">
+      <c r="G43" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="144"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="140"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
@@ -29743,28 +30138,28 @@
       <c r="B44" s="18">
         <v>15.34</v>
       </c>
-      <c r="C44" s="118">
+      <c r="C44" s="116">
         <f t="shared" si="0"/>
         <v>6.5231572080892697E-4</v>
       </c>
-      <c r="G44" s="83">
+      <c r="G44" s="81">
         <v>0.01</v>
       </c>
-      <c r="H44" s="84">
+      <c r="H44" s="82">
         <f t="shared" ref="H44:H58" si="7">_xlfn.PERCENTILE.INC(C:C,G44)</f>
         <v>-0.15577281050067249</v>
       </c>
-      <c r="I44" s="85">
+      <c r="I44" s="83">
         <v>0.2</v>
       </c>
-      <c r="J44" s="84">
+      <c r="J44" s="82">
         <f t="shared" ref="J44:J56" si="8">_xlfn.PERCENTILE.INC(C:C,I44)</f>
         <v>-7.1801566579634435E-2</v>
       </c>
-      <c r="K44" s="85">
+      <c r="K44" s="83">
         <v>0.85</v>
       </c>
-      <c r="L44" s="86">
+      <c r="L44" s="84">
         <f t="shared" ref="L44:L58" si="9">_xlfn.PERCENTILE.INC(C:C,K44)</f>
         <v>8.7748893805309702E-2</v>
       </c>
@@ -29776,28 +30171,28 @@
       <c r="B45" s="18">
         <v>15.33</v>
       </c>
-      <c r="C45" s="118">
+      <c r="C45" s="116">
         <f t="shared" si="0"/>
         <v>9.2658588738417702E-2</v>
       </c>
-      <c r="G45" s="87">
+      <c r="G45" s="85">
         <v>0.02</v>
       </c>
-      <c r="H45" s="88">
+      <c r="H45" s="86">
         <f t="shared" si="7"/>
         <v>-0.15193499611682915</v>
       </c>
-      <c r="I45" s="89">
+      <c r="I45" s="87">
         <v>0.25</v>
       </c>
-      <c r="J45" s="88">
+      <c r="J45" s="86">
         <f t="shared" si="8"/>
         <v>-6.2930299672620704E-2</v>
       </c>
-      <c r="K45" s="89">
+      <c r="K45" s="87">
         <v>0.86</v>
       </c>
-      <c r="L45" s="90">
+      <c r="L45" s="88">
         <f t="shared" si="9"/>
         <v>8.9345454895718879E-2</v>
       </c>
@@ -29809,28 +30204,28 @@
       <c r="B46" s="18">
         <v>14.03</v>
       </c>
-      <c r="C46" s="118">
+      <c r="C46" s="116">
         <f t="shared" si="0"/>
         <v>-0.13926375087507681</v>
       </c>
-      <c r="G46" s="87">
+      <c r="G46" s="85">
         <v>0.03</v>
       </c>
-      <c r="H46" s="88">
+      <c r="H46" s="86">
         <f t="shared" si="7"/>
         <v>-0.14518649309289436</v>
       </c>
-      <c r="I46" s="89">
+      <c r="I46" s="87">
         <v>0.3</v>
       </c>
-      <c r="J46" s="88">
+      <c r="J46" s="86">
         <f t="shared" si="8"/>
         <v>-4.4842239379774329E-2</v>
       </c>
-      <c r="K46" s="89">
+      <c r="K46" s="87">
         <v>0.87</v>
       </c>
-      <c r="L46" s="90">
+      <c r="L46" s="88">
         <f t="shared" si="9"/>
         <v>9.2648942991630623E-2</v>
       </c>
@@ -29842,28 +30237,28 @@
       <c r="B47" s="18">
         <v>16.299999</v>
       </c>
-      <c r="C47" s="118">
+      <c r="C47" s="116">
         <f t="shared" si="0"/>
         <v>8.5219640479360814E-2</v>
       </c>
-      <c r="G47" s="87">
+      <c r="G47" s="85">
         <v>0.04</v>
       </c>
-      <c r="H47" s="88">
+      <c r="H47" s="86">
         <f t="shared" si="7"/>
         <v>-0.14046836614215991</v>
       </c>
-      <c r="I47" s="89">
+      <c r="I47" s="87">
         <v>0.35</v>
       </c>
-      <c r="J47" s="88">
+      <c r="J47" s="86">
         <f t="shared" si="8"/>
         <v>-3.2393539088661938E-2</v>
       </c>
-      <c r="K47" s="89">
+      <c r="K47" s="87">
         <v>0.88</v>
       </c>
-      <c r="L47" s="90">
+      <c r="L47" s="88">
         <f t="shared" si="9"/>
         <v>9.6729308853215401E-2</v>
       </c>
@@ -29875,28 +30270,28 @@
       <c r="B48" s="18">
         <v>15.02</v>
       </c>
-      <c r="C48" s="118">
+      <c r="C48" s="116">
         <f t="shared" si="0"/>
         <v>3.4435261707989051E-2</v>
       </c>
-      <c r="G48" s="87">
+      <c r="G48" s="85">
         <v>0.05</v>
       </c>
-      <c r="H48" s="88">
+      <c r="H48" s="86">
         <f t="shared" si="7"/>
         <v>-0.13693248017884035</v>
       </c>
-      <c r="I48" s="89">
+      <c r="I48" s="87">
         <v>0.4</v>
       </c>
-      <c r="J48" s="88">
+      <c r="J48" s="86">
         <f t="shared" si="8"/>
         <v>-1.4884979702300294E-2</v>
       </c>
-      <c r="K48" s="89">
+      <c r="K48" s="87">
         <v>0.89</v>
       </c>
-      <c r="L48" s="90">
+      <c r="L48" s="88">
         <f t="shared" si="9"/>
         <v>0.10013127669502167</v>
       </c>
@@ -29908,28 +30303,28 @@
       <c r="B49" s="18">
         <v>14.52</v>
       </c>
-      <c r="C49" s="118">
+      <c r="C49" s="116">
         <f t="shared" si="0"/>
         <v>6.3736263736263732E-2</v>
       </c>
-      <c r="G49" s="87">
+      <c r="G49" s="85">
         <v>0.06</v>
       </c>
-      <c r="H49" s="88">
+      <c r="H49" s="86">
         <f t="shared" si="7"/>
         <v>-0.12972480212779652</v>
       </c>
-      <c r="I49" s="89">
+      <c r="I49" s="87">
         <v>0.45</v>
       </c>
-      <c r="J49" s="88">
+      <c r="J49" s="86">
         <f t="shared" si="8"/>
         <v>-2.3592226982056819E-3</v>
       </c>
-      <c r="K49" s="89">
+      <c r="K49" s="87">
         <v>0.9</v>
       </c>
-      <c r="L49" s="90">
+      <c r="L49" s="88">
         <f t="shared" si="9"/>
         <v>0.10615216890751411</v>
       </c>
@@ -29941,28 +30336,28 @@
       <c r="B50" s="18">
         <v>13.65</v>
       </c>
-      <c r="C50" s="118">
+      <c r="C50" s="116">
         <f t="shared" si="0"/>
         <v>0.16567036720751482</v>
       </c>
-      <c r="G50" s="87">
+      <c r="G50" s="85">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H50" s="88">
+      <c r="H50" s="86">
         <f t="shared" si="7"/>
         <v>-0.12199367196690837</v>
       </c>
-      <c r="I50" s="89">
+      <c r="I50" s="87">
         <v>0.5</v>
       </c>
-      <c r="J50" s="88">
+      <c r="J50" s="86">
         <f t="shared" si="8"/>
         <v>3.5489698754295196E-3</v>
       </c>
-      <c r="K50" s="89">
+      <c r="K50" s="87">
         <v>0.91</v>
       </c>
-      <c r="L50" s="90">
+      <c r="L50" s="88">
         <f t="shared" si="9"/>
         <v>0.11744264142907022</v>
       </c>
@@ -29974,28 +30369,28 @@
       <c r="B51" s="18">
         <v>11.71</v>
       </c>
-      <c r="C51" s="118">
+      <c r="C51" s="116">
         <f t="shared" si="0"/>
         <v>0.23263157894736852</v>
       </c>
-      <c r="G51" s="87">
+      <c r="G51" s="85">
         <v>0.08</v>
       </c>
-      <c r="H51" s="88">
+      <c r="H51" s="86">
         <f t="shared" si="7"/>
         <v>-0.12077857622912676</v>
       </c>
-      <c r="I51" s="89">
+      <c r="I51" s="87">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J51" s="88">
+      <c r="J51" s="86">
         <f t="shared" si="8"/>
         <v>1.6202433823097856E-2</v>
       </c>
-      <c r="K51" s="89">
+      <c r="K51" s="87">
         <v>0.92</v>
       </c>
-      <c r="L51" s="90">
+      <c r="L51" s="88">
         <f t="shared" si="9"/>
         <v>0.12690748828605822</v>
       </c>
@@ -30007,28 +30402,28 @@
       <c r="B52" s="18">
         <v>9.5</v>
       </c>
-      <c r="C52" s="118">
+      <c r="C52" s="116">
         <f t="shared" si="0"/>
         <v>0.28205128205128194</v>
       </c>
-      <c r="G52" s="87">
+      <c r="G52" s="85">
         <v>0.09</v>
       </c>
-      <c r="H52" s="88">
+      <c r="H52" s="86">
         <f t="shared" si="7"/>
         <v>-0.11855919583023088</v>
       </c>
-      <c r="I52" s="89">
+      <c r="I52" s="87">
         <v>0.6</v>
       </c>
-      <c r="J52" s="88">
+      <c r="J52" s="86">
         <f t="shared" si="8"/>
         <v>2.4198142937535305E-2</v>
       </c>
-      <c r="K52" s="89">
+      <c r="K52" s="87">
         <v>0.93</v>
       </c>
-      <c r="L52" s="90">
+      <c r="L52" s="88">
         <f t="shared" si="9"/>
         <v>0.14049594015645436</v>
       </c>
@@ -30040,28 +30435,28 @@
       <c r="B53" s="18">
         <v>7.41</v>
       </c>
-      <c r="C53" s="118">
+      <c r="C53" s="116">
         <f t="shared" si="0"/>
         <v>-4.387096774193544E-2</v>
       </c>
-      <c r="G53" s="87">
+      <c r="G53" s="85">
         <v>0.1</v>
       </c>
-      <c r="H53" s="88">
+      <c r="H53" s="86">
         <f t="shared" si="7"/>
         <v>-0.10906328444972918</v>
       </c>
-      <c r="I53" s="89">
+      <c r="I53" s="87">
         <v>0.65</v>
       </c>
-      <c r="J53" s="88">
+      <c r="J53" s="86">
         <f t="shared" si="8"/>
         <v>3.8402191035583955E-2</v>
       </c>
-      <c r="K53" s="89">
+      <c r="K53" s="87">
         <v>0.94</v>
       </c>
-      <c r="L53" s="90">
+      <c r="L53" s="88">
         <f t="shared" si="9"/>
         <v>0.14231505653632257</v>
       </c>
@@ -30073,28 +30468,28 @@
       <c r="B54" s="18">
         <v>7.75</v>
       </c>
-      <c r="C54" s="118">
+      <c r="C54" s="116">
         <f t="shared" si="0"/>
         <v>-5.2567237163814173E-2</v>
       </c>
-      <c r="G54" s="87">
+      <c r="G54" s="85">
         <v>0.11</v>
       </c>
-      <c r="H54" s="88">
+      <c r="H54" s="86">
         <f t="shared" si="7"/>
         <v>-9.7770038041743515E-2</v>
       </c>
-      <c r="I54" s="89">
+      <c r="I54" s="87">
         <v>0.7</v>
       </c>
-      <c r="J54" s="88">
+      <c r="J54" s="86">
         <f t="shared" si="8"/>
         <v>4.3372125401062722E-2</v>
       </c>
-      <c r="K54" s="89">
+      <c r="K54" s="87">
         <v>0.95</v>
       </c>
-      <c r="L54" s="90">
+      <c r="L54" s="88">
         <f t="shared" si="9"/>
         <v>0.16143631970943356</v>
       </c>
@@ -30106,28 +30501,28 @@
       <c r="B55" s="18">
         <v>8.18</v>
       </c>
-      <c r="C55" s="118">
+      <c r="C55" s="116">
         <f t="shared" si="0"/>
         <v>-7.1509648127128345E-2</v>
       </c>
-      <c r="G55" s="87">
+      <c r="G55" s="85">
         <v>0.12</v>
       </c>
-      <c r="H55" s="88">
+      <c r="H55" s="86">
         <f t="shared" si="7"/>
         <v>-9.6952135130901423E-2</v>
       </c>
-      <c r="I55" s="89">
+      <c r="I55" s="87">
         <v>0.75</v>
       </c>
-      <c r="J55" s="88">
+      <c r="J55" s="86">
         <f t="shared" si="8"/>
         <v>5.5361642602520578E-2</v>
       </c>
-      <c r="K55" s="89">
+      <c r="K55" s="87">
         <v>0.96</v>
       </c>
-      <c r="L55" s="90">
+      <c r="L55" s="88">
         <f t="shared" si="9"/>
         <v>0.22959226294764878</v>
       </c>
@@ -30139,28 +30534,28 @@
       <c r="B56" s="18">
         <v>8.81</v>
       </c>
-      <c r="C56" s="118">
+      <c r="C56" s="116">
         <f t="shared" si="0"/>
         <v>8.8998763906056988E-2</v>
       </c>
-      <c r="G56" s="87">
+      <c r="G56" s="85">
         <v>0.13</v>
       </c>
-      <c r="H56" s="88">
+      <c r="H56" s="86">
         <f t="shared" si="7"/>
         <v>-9.1164761931798441E-2</v>
       </c>
-      <c r="I56" s="89">
+      <c r="I56" s="87">
         <v>0.8</v>
       </c>
-      <c r="J56" s="88">
+      <c r="J56" s="86">
         <f t="shared" si="8"/>
         <v>7.0063782168313438E-2</v>
       </c>
-      <c r="K56" s="89">
+      <c r="K56" s="87">
         <v>0.97</v>
       </c>
-      <c r="L56" s="90">
+      <c r="L56" s="88">
         <f t="shared" si="9"/>
         <v>0.24422542127031757</v>
       </c>
@@ -30172,23 +30567,23 @@
       <c r="B57" s="18">
         <v>8.09</v>
       </c>
-      <c r="C57" s="118">
+      <c r="C57" s="116">
         <f t="shared" si="0"/>
         <v>-4.2603550295857939E-2</v>
       </c>
-      <c r="G57" s="87">
+      <c r="G57" s="85">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H57" s="88">
+      <c r="H57" s="86">
         <f t="shared" si="7"/>
         <v>-9.0317089480707519E-2</v>
       </c>
-      <c r="I57" s="89"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="89">
+      <c r="I57" s="87"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="87">
         <v>0.98</v>
       </c>
-      <c r="L57" s="90">
+      <c r="L57" s="88">
         <f t="shared" si="9"/>
         <v>0.27408505269142452</v>
       </c>
@@ -30200,23 +30595,23 @@
       <c r="B58" s="18">
         <v>8.4499999999999993</v>
       </c>
-      <c r="C58" s="118">
+      <c r="C58" s="116">
         <f t="shared" si="0"/>
         <v>3.0487804878048808E-2</v>
       </c>
-      <c r="G58" s="91">
+      <c r="G58" s="89">
         <v>0.15</v>
       </c>
-      <c r="H58" s="92">
+      <c r="H58" s="90">
         <f t="shared" si="7"/>
         <v>-8.8419732441471638E-2</v>
       </c>
-      <c r="I58" s="93"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="95">
+      <c r="I58" s="91"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="93">
         <v>0.99</v>
       </c>
-      <c r="L58" s="96">
+      <c r="L58" s="94">
         <f t="shared" si="9"/>
         <v>0.37532882446236554</v>
       </c>
@@ -30228,7 +30623,7 @@
       <c r="B59" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C59" s="118">
+      <c r="C59" s="116">
         <f t="shared" si="0"/>
         <v>4.0609137055837463E-2</v>
       </c>
@@ -30240,14 +30635,14 @@
       <c r="B60" s="18">
         <v>7.88</v>
       </c>
-      <c r="C60" s="118">
+      <c r="C60" s="116">
         <f t="shared" si="0"/>
         <v>7.210884353741509E-2</v>
       </c>
-      <c r="G60" s="97" t="s">
+      <c r="G60" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="H60" s="98">
+      <c r="H60" s="96">
         <v>0.11</v>
       </c>
     </row>
@@ -30258,14 +30653,14 @@
       <c r="B61" s="18">
         <v>7.35</v>
       </c>
-      <c r="C61" s="118">
+      <c r="C61" s="116">
         <f t="shared" si="0"/>
         <v>-0.11764705882352944</v>
       </c>
-      <c r="G61" s="99" t="s">
+      <c r="G61" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="100">
+      <c r="H61" s="98">
         <v>0.35</v>
       </c>
     </row>
@@ -30276,11 +30671,11 @@
       <c r="B62" s="18">
         <v>8.33</v>
       </c>
-      <c r="C62" s="118">
+      <c r="C62" s="116">
         <f t="shared" si="0"/>
         <v>2.9666254635352329E-2</v>
       </c>
-      <c r="G62" s="101"/>
+      <c r="G62" s="99"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
@@ -30289,14 +30684,14 @@
       <c r="B63" s="18">
         <v>8.09</v>
       </c>
-      <c r="C63" s="118">
+      <c r="C63" s="116">
         <f t="shared" si="0"/>
         <v>-0.12065217391304339</v>
       </c>
-      <c r="G63" s="97" t="s">
+      <c r="G63" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="102">
+      <c r="H63" s="100">
         <v>22.66</v>
       </c>
     </row>
@@ -30307,14 +30702,14 @@
       <c r="B64" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C64" s="118">
+      <c r="C64" s="116">
         <f t="shared" si="0"/>
         <v>0.22503328894806929</v>
       </c>
-      <c r="G64" s="103" t="s">
+      <c r="G64" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="104">
+      <c r="H64" s="102">
         <f>H63*(1-H60)</f>
         <v>20.167400000000001</v>
       </c>
@@ -30326,14 +30721,14 @@
       <c r="B65" s="18">
         <v>7.51</v>
       </c>
-      <c r="C65" s="118">
+      <c r="C65" s="116">
         <f t="shared" si="0"/>
         <v>-0.1070154577883472</v>
       </c>
-      <c r="G65" s="99" t="s">
+      <c r="G65" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="H65" s="105">
+      <c r="H65" s="103">
         <f>H63*(1+H61)</f>
         <v>30.591000000000001</v>
       </c>
@@ -30345,7 +30740,7 @@
       <c r="B66" s="18">
         <v>8.41</v>
       </c>
-      <c r="C66" s="118">
+      <c r="C66" s="116">
         <f t="shared" si="0"/>
         <v>0.11390728476821188</v>
       </c>
@@ -30357,7 +30752,7 @@
       <c r="B67" s="18">
         <v>7.55</v>
       </c>
-      <c r="C67" s="118">
+      <c r="C67" s="116">
         <f t="shared" si="0"/>
         <v>7.5498575498575526E-2</v>
       </c>
@@ -30369,7 +30764,7 @@
       <c r="B68" s="18">
         <v>7.02</v>
       </c>
-      <c r="C68" s="118">
+      <c r="C68" s="116">
         <f t="shared" ref="C68:C131" si="10">B68/B69-1</f>
         <v>8.6206896551723755E-3</v>
       </c>
@@ -30381,7 +30776,7 @@
       <c r="B69" s="18">
         <v>6.96</v>
       </c>
-      <c r="C69" s="118">
+      <c r="C69" s="116">
         <f t="shared" si="10"/>
         <v>8.7499999999999911E-2</v>
       </c>
@@ -30393,7 +30788,7 @@
       <c r="B70" s="18">
         <v>6.4</v>
       </c>
-      <c r="C70" s="118">
+      <c r="C70" s="116">
         <f t="shared" si="10"/>
         <v>-3.1152647975076775E-3</v>
       </c>
@@ -30405,7 +30800,7 @@
       <c r="B71" s="18">
         <v>6.42</v>
       </c>
-      <c r="C71" s="118">
+      <c r="C71" s="116">
         <f t="shared" si="10"/>
         <v>2.0667726550079424E-2</v>
       </c>
@@ -30417,7 +30812,7 @@
       <c r="B72" s="18">
         <v>6.29</v>
       </c>
-      <c r="C72" s="118">
+      <c r="C72" s="116">
         <f t="shared" si="10"/>
         <v>-8.8405797101449357E-2</v>
       </c>
@@ -30429,7 +30824,7 @@
       <c r="B73" s="18">
         <v>6.9</v>
       </c>
-      <c r="C73" s="118">
+      <c r="C73" s="116">
         <f t="shared" si="10"/>
         <v>-2.9535864978902926E-2</v>
       </c>
@@ -30441,7 +30836,7 @@
       <c r="B74" s="18">
         <v>7.11</v>
       </c>
-      <c r="C74" s="118">
+      <c r="C74" s="116">
         <f t="shared" si="10"/>
         <v>-7.1801566579634435E-2</v>
       </c>
@@ -30453,7 +30848,7 @@
       <c r="B75" s="18">
         <v>7.66</v>
       </c>
-      <c r="C75" s="118">
+      <c r="C75" s="116">
         <f t="shared" si="10"/>
         <v>5.2197802197802234E-2</v>
       </c>
@@ -30465,7 +30860,7 @@
       <c r="B76" s="18">
         <v>7.28</v>
       </c>
-      <c r="C76" s="118">
+      <c r="C76" s="116">
         <f t="shared" si="10"/>
         <v>-1.4884979702300294E-2</v>
       </c>
@@ -30477,7 +30872,7 @@
       <c r="B77" s="18">
         <v>7.39</v>
       </c>
-      <c r="C77" s="118">
+      <c r="C77" s="116">
         <f t="shared" si="10"/>
         <v>-0.12128418549346021</v>
       </c>
@@ -30489,7 +30884,7 @@
       <c r="B78" s="18">
         <v>8.41</v>
       </c>
-      <c r="C78" s="118">
+      <c r="C78" s="116">
         <f t="shared" si="10"/>
         <v>6.0529634300126256E-2</v>
       </c>
@@ -30501,7 +30896,7 @@
       <c r="B79" s="18">
         <v>7.93</v>
       </c>
-      <c r="C79" s="118">
+      <c r="C79" s="116">
         <f t="shared" si="10"/>
         <v>-8.2175925925926041E-2</v>
       </c>
@@ -30513,7 +30908,7 @@
       <c r="B80" s="18">
         <v>8.64</v>
       </c>
-      <c r="C80" s="118">
+      <c r="C80" s="116">
         <f t="shared" si="10"/>
         <v>4.2219541616405509E-2</v>
       </c>
@@ -30525,7 +30920,7 @@
       <c r="B81" s="18">
         <v>8.2899999999999991</v>
       </c>
-      <c r="C81" s="118">
+      <c r="C81" s="116">
         <f t="shared" si="10"/>
         <v>0.10092961487383789</v>
       </c>
@@ -30537,7 +30932,7 @@
       <c r="B82" s="18">
         <v>7.53</v>
       </c>
-      <c r="C82" s="118">
+      <c r="C82" s="116">
         <f t="shared" si="10"/>
         <v>-7.6073619631901845E-2</v>
       </c>
@@ -30549,7 +30944,7 @@
       <c r="B83" s="18">
         <v>8.15</v>
       </c>
-      <c r="C83" s="118">
+      <c r="C83" s="116">
         <f t="shared" si="10"/>
         <v>2.4600246002459691E-3</v>
       </c>
@@ -30561,7 +30956,7 @@
       <c r="B84" s="18">
         <v>8.1300000000000008</v>
       </c>
-      <c r="C84" s="118">
+      <c r="C84" s="116">
         <f t="shared" si="10"/>
         <v>9.864864864864864E-2</v>
       </c>
@@ -30573,7 +30968,7 @@
       <c r="B85" s="18">
         <v>7.4</v>
       </c>
-      <c r="C85" s="118">
+      <c r="C85" s="116">
         <f t="shared" si="10"/>
         <v>-4.8843187660668419E-2</v>
       </c>
@@ -30585,7 +30980,7 @@
       <c r="B86" s="18">
         <v>7.78</v>
       </c>
-      <c r="C86" s="118">
+      <c r="C86" s="116">
         <f t="shared" si="10"/>
         <v>-1.2836970474967568E-3</v>
       </c>
@@ -30597,7 +30992,7 @@
       <c r="B87" s="18">
         <v>7.79</v>
       </c>
-      <c r="C87" s="118">
+      <c r="C87" s="116">
         <f t="shared" si="10"/>
         <v>5.270270270270272E-2</v>
       </c>
@@ -30609,7 +31004,7 @@
       <c r="B88" s="18">
         <v>7.4</v>
       </c>
-      <c r="C88" s="118">
+      <c r="C88" s="116">
         <f t="shared" si="10"/>
         <v>-6.801007556675065E-2</v>
       </c>
@@ -30621,7 +31016,7 @@
       <c r="B89" s="18">
         <v>7.94</v>
       </c>
-      <c r="C89" s="118">
+      <c r="C89" s="116">
         <f t="shared" si="10"/>
         <v>-6.6980023501762576E-2</v>
       </c>
@@ -30633,7 +31028,7 @@
       <c r="B90" s="18">
         <v>8.51</v>
       </c>
-      <c r="C90" s="118">
+      <c r="C90" s="116">
         <f t="shared" si="10"/>
         <v>-0.14127144298688199</v>
       </c>
@@ -30645,7 +31040,7 @@
       <c r="B91" s="18">
         <v>9.91</v>
       </c>
-      <c r="C91" s="118">
+      <c r="C91" s="116">
         <f t="shared" si="10"/>
         <v>-0.13449781659388638</v>
       </c>
@@ -30657,7 +31052,7 @@
       <c r="B92" s="18">
         <v>11.45</v>
       </c>
-      <c r="C92" s="118">
+      <c r="C92" s="116">
         <f t="shared" si="10"/>
         <v>0.106280193236715</v>
       </c>
@@ -30669,7 +31064,7 @@
       <c r="B93" s="18">
         <v>10.35</v>
       </c>
-      <c r="C93" s="118">
+      <c r="C93" s="116">
         <f t="shared" si="10"/>
         <v>5.1829268292682862E-2</v>
       </c>
@@ -30681,7 +31076,7 @@
       <c r="B94" s="18">
         <v>9.84</v>
       </c>
-      <c r="C94" s="118">
+      <c r="C94" s="116">
         <f t="shared" si="10"/>
         <v>8.8495575221239076E-2</v>
       </c>
@@ -30693,7 +31088,7 @@
       <c r="B95" s="18">
         <v>9.0399999999999991</v>
       </c>
-      <c r="C95" s="118">
+      <c r="C95" s="116">
         <f t="shared" si="10"/>
         <v>-0.11111111111111116</v>
       </c>
@@ -30705,7 +31100,7 @@
       <c r="B96" s="18">
         <v>10.17</v>
       </c>
-      <c r="C96" s="118">
+      <c r="C96" s="116">
         <f t="shared" si="10"/>
         <v>9.7087378640776656E-2</v>
       </c>
@@ -30717,7 +31112,7 @@
       <c r="B97" s="18">
         <v>9.27</v>
       </c>
-      <c r="C97" s="118">
+      <c r="C97" s="116">
         <f t="shared" si="10"/>
         <v>-9.0284592737978397E-2</v>
       </c>
@@ -30729,7 +31124,7 @@
       <c r="B98" s="18">
         <v>10.19</v>
       </c>
-      <c r="C98" s="118">
+      <c r="C98" s="116">
         <f t="shared" si="10"/>
         <v>0.23665048543689315</v>
       </c>
@@ -30741,7 +31136,7 @@
       <c r="B99" s="18">
         <v>8.24</v>
       </c>
-      <c r="C99" s="118">
+      <c r="C99" s="116">
         <f t="shared" si="10"/>
         <v>-2.421307506053183E-3</v>
       </c>
@@ -30753,7 +31148,7 @@
       <c r="B100" s="18">
         <v>8.26</v>
       </c>
-      <c r="C100" s="118">
+      <c r="C100" s="116">
         <f t="shared" si="10"/>
         <v>-7.606263982102901E-2</v>
       </c>
@@ -30765,7 +31160,7 @@
       <c r="B101" s="18">
         <v>8.94</v>
       </c>
-      <c r="C101" s="118">
+      <c r="C101" s="116">
         <f t="shared" si="10"/>
         <v>1.0169491525423791E-2</v>
       </c>
@@ -30777,7 +31172,7 @@
       <c r="B102" s="18">
         <v>8.85</v>
       </c>
-      <c r="C102" s="118">
+      <c r="C102" s="116">
         <f t="shared" si="10"/>
         <v>9.5297029702970271E-2</v>
       </c>
@@ -30789,7 +31184,7 @@
       <c r="B103" s="18">
         <v>8.08</v>
       </c>
-      <c r="C103" s="118">
+      <c r="C103" s="116">
         <f t="shared" si="10"/>
         <v>-3.1175059952038398E-2</v>
       </c>
@@ -30801,7 +31196,7 @@
       <c r="B104" s="18">
         <v>8.34</v>
       </c>
-      <c r="C104" s="118">
+      <c r="C104" s="116">
         <f t="shared" si="10"/>
         <v>-0.12025316455696211</v>
       </c>
@@ -30813,7 +31208,7 @@
       <c r="B105" s="18">
         <v>9.48</v>
       </c>
-      <c r="C105" s="118">
+      <c r="C105" s="116">
         <f t="shared" si="10"/>
         <v>-8.846153846153848E-2</v>
       </c>
@@ -30825,7 +31220,7 @@
       <c r="B106" s="18">
         <v>10.4</v>
       </c>
-      <c r="C106" s="118">
+      <c r="C106" s="116">
         <f t="shared" si="10"/>
         <v>-0.13043478260869568</v>
       </c>
@@ -30837,7 +31232,7 @@
       <c r="B107" s="18">
         <v>11.96</v>
       </c>
-      <c r="C107" s="118">
+      <c r="C107" s="116">
         <f t="shared" si="10"/>
         <v>-3.7037037037036979E-2</v>
       </c>
@@ -30849,7 +31244,7 @@
       <c r="B108" s="18">
         <v>12.42</v>
       </c>
-      <c r="C108" s="118">
+      <c r="C108" s="116">
         <f t="shared" si="10"/>
         <v>-2.2047244094488105E-2</v>
       </c>
@@ -30861,7 +31256,7 @@
       <c r="B109" s="18">
         <v>12.7</v>
       </c>
-      <c r="C109" s="118">
+      <c r="C109" s="116">
         <f t="shared" si="10"/>
         <v>-8.1706435285611057E-2</v>
       </c>
@@ -30873,7 +31268,7 @@
       <c r="B110" s="18">
         <v>13.83</v>
       </c>
-      <c r="C110" s="118">
+      <c r="C110" s="116">
         <f t="shared" si="10"/>
         <v>6.6306861989205768E-2</v>
       </c>
@@ -30885,7 +31280,7 @@
       <c r="B111" s="18">
         <v>12.97</v>
       </c>
-      <c r="C111" s="118">
+      <c r="C111" s="116">
         <f t="shared" si="10"/>
         <v>1.1700468018720711E-2</v>
       </c>
@@ -30897,7 +31292,7 @@
       <c r="B112" s="18">
         <v>12.82</v>
       </c>
-      <c r="C112" s="118">
+      <c r="C112" s="116">
         <f t="shared" si="10"/>
         <v>0.12554872695346786</v>
       </c>
@@ -30909,7 +31304,7 @@
       <c r="B113" s="18">
         <v>11.39</v>
       </c>
-      <c r="C113" s="118">
+      <c r="C113" s="116">
         <f t="shared" si="10"/>
         <v>3.9233576642335732E-2</v>
       </c>
@@ -30921,7 +31316,7 @@
       <c r="B114" s="18">
         <v>10.96</v>
       </c>
-      <c r="C114" s="118">
+      <c r="C114" s="116">
         <f t="shared" si="10"/>
         <v>-4.4463818657367038E-2</v>
       </c>
@@ -30933,7 +31328,7 @@
       <c r="B115" s="18">
         <v>11.47</v>
       </c>
-      <c r="C115" s="118">
+      <c r="C115" s="116">
         <f t="shared" si="10"/>
         <v>4.0834845735027381E-2</v>
       </c>
@@ -30945,7 +31340,7 @@
       <c r="B116" s="18">
         <v>11.02</v>
       </c>
-      <c r="C116" s="118">
+      <c r="C116" s="116">
         <f t="shared" si="10"/>
         <v>-0.16070068545316074</v>
       </c>
@@ -30957,7 +31352,7 @@
       <c r="B117" s="18">
         <v>13.13</v>
       </c>
-      <c r="C117" s="118">
+      <c r="C117" s="116">
         <f t="shared" si="10"/>
         <v>1.4683153013910433E-2</v>
       </c>
@@ -30969,7 +31364,7 @@
       <c r="B118" s="18">
         <v>12.94</v>
       </c>
-      <c r="C118" s="118">
+      <c r="C118" s="116">
         <f t="shared" si="10"/>
         <v>1.8095987411486991E-2</v>
       </c>
@@ -30981,7 +31376,7 @@
       <c r="B119" s="18">
         <v>12.71</v>
       </c>
-      <c r="C119" s="118">
+      <c r="C119" s="116">
         <f t="shared" si="10"/>
         <v>-6.0606060606060552E-2</v>
       </c>
@@ -30993,7 +31388,7 @@
       <c r="B120" s="18">
         <v>13.53</v>
       </c>
-      <c r="C120" s="118">
+      <c r="C120" s="116">
         <f t="shared" si="10"/>
         <v>-0.15490318550905691</v>
       </c>
@@ -31005,7 +31400,7 @@
       <c r="B121" s="18">
         <v>16.010000000000002</v>
       </c>
-      <c r="C121" s="118">
+      <c r="C121" s="116">
         <f t="shared" si="10"/>
         <v>-3.3212502005585898E-2</v>
       </c>
@@ -31017,7 +31412,7 @@
       <c r="B122" s="18">
         <v>16.559999000000001</v>
       </c>
-      <c r="C122" s="118">
+      <c r="C122" s="116">
         <f t="shared" si="10"/>
         <v>-9.0609560165269554E-2</v>
       </c>
@@ -31029,7 +31424,7 @@
       <c r="B123" s="18">
         <v>18.209999</v>
       </c>
-      <c r="C123" s="118">
+      <c r="C123" s="116">
         <f t="shared" si="10"/>
         <v>-3.8034918119387195E-2</v>
       </c>
@@ -31041,7 +31436,7 @@
       <c r="B124" s="18">
         <v>18.93</v>
       </c>
-      <c r="C124" s="118">
+      <c r="C124" s="116">
         <f t="shared" si="10"/>
         <v>-6.8205145236367448E-3</v>
       </c>
@@ -31053,7 +31448,7 @@
       <c r="B125" s="18">
         <v>19.059999000000001</v>
       </c>
-      <c r="C125" s="118">
+      <c r="C125" s="116">
         <f t="shared" si="10"/>
         <v>6.3356913233532097E-3</v>
       </c>
@@ -31065,7 +31460,7 @@
       <c r="B126" s="18">
         <v>18.940000999999999</v>
       </c>
-      <c r="C126" s="118">
+      <c r="C126" s="116">
         <f t="shared" si="10"/>
         <v>-2.1074288724974855E-3</v>
       </c>
@@ -31077,7 +31472,7 @@
       <c r="B127" s="18">
         <v>18.98</v>
       </c>
-      <c r="C127" s="118">
+      <c r="C127" s="116">
         <f t="shared" si="10"/>
         <v>-9.747983369092561E-2</v>
       </c>
@@ -31089,7 +31484,7 @@
       <c r="B128" s="18">
         <v>21.030000999999999</v>
       </c>
-      <c r="C128" s="118">
+      <c r="C128" s="116">
         <f t="shared" si="10"/>
         <v>-1.7748668846333526E-2</v>
       </c>
@@ -31101,7 +31496,7 @@
       <c r="B129" s="18">
         <v>21.41</v>
       </c>
-      <c r="C129" s="118">
+      <c r="C129" s="116">
         <f t="shared" si="10"/>
         <v>-6.219886114761275E-2</v>
       </c>
@@ -31113,7 +31508,7 @@
       <c r="B130" s="18">
         <v>22.83</v>
       </c>
-      <c r="C130" s="118">
+      <c r="C130" s="116">
         <f t="shared" si="10"/>
         <v>-0.12192307692307702</v>
       </c>
@@ -31125,7 +31520,7 @@
       <c r="B131" s="18">
         <v>26</v>
       </c>
-      <c r="C131" s="118">
+      <c r="C131" s="116">
         <f t="shared" si="10"/>
         <v>4.6368239813301404E-3</v>
       </c>
@@ -31137,7 +31532,7 @@
       <c r="B132" s="18">
         <v>25.879999000000002</v>
       </c>
-      <c r="C132" s="118">
+      <c r="C132" s="116">
         <f t="shared" ref="C132:C187" si="11">B132/B133-1</f>
         <v>5.9353213262382409E-2</v>
       </c>
@@ -31149,7 +31544,7 @@
       <c r="B133" s="18">
         <v>24.43</v>
       </c>
-      <c r="C133" s="118">
+      <c r="C133" s="116">
         <f t="shared" si="11"/>
         <v>1.7916666666666581E-2</v>
       </c>
@@ -31161,7 +31556,7 @@
       <c r="B134" s="18">
         <v>24</v>
       </c>
-      <c r="C134" s="118">
+      <c r="C134" s="116">
         <f t="shared" si="11"/>
         <v>2.1276595744680771E-2</v>
       </c>
@@ -31173,7 +31568,7 @@
       <c r="B135" s="18">
         <v>23.5</v>
       </c>
-      <c r="C135" s="118">
+      <c r="C135" s="116">
         <f t="shared" si="11"/>
         <v>-3.4114262227702308E-2</v>
       </c>
@@ -31185,7 +31580,7 @@
       <c r="B136" s="18">
         <v>24.33</v>
       </c>
-      <c r="C136" s="118">
+      <c r="C136" s="116">
         <f t="shared" si="11"/>
         <v>-0.14810921386937037</v>
       </c>
@@ -31197,7 +31592,7 @@
       <c r="B137" s="18">
         <v>28.559999000000001</v>
       </c>
-      <c r="C137" s="118">
+      <c r="C137" s="116">
         <f t="shared" si="11"/>
         <v>-5.2246605790546852E-3</v>
       </c>
@@ -31209,7 +31604,7 @@
       <c r="B138" s="18">
         <v>28.709999</v>
       </c>
-      <c r="C138" s="118">
+      <c r="C138" s="116">
         <f t="shared" si="11"/>
         <v>9.2465673802676118E-2</v>
       </c>
@@ -31221,7 +31616,7 @@
       <c r="B139" s="18">
         <v>26.280000999999999</v>
       </c>
-      <c r="C139" s="118">
+      <c r="C139" s="116">
         <f t="shared" si="11"/>
         <v>-1.3513438945699674E-2</v>
       </c>
@@ -31233,7 +31628,7 @@
       <c r="B140" s="18">
         <v>26.639999</v>
       </c>
-      <c r="C140" s="118">
+      <c r="C140" s="116">
         <f t="shared" si="11"/>
         <v>3.6172696856191955E-2</v>
       </c>
@@ -31245,7 +31640,7 @@
       <c r="B141" s="18">
         <v>25.709999</v>
       </c>
-      <c r="C141" s="118">
+      <c r="C141" s="116">
         <f t="shared" si="11"/>
         <v>7.0803790087463403E-2</v>
       </c>
@@ -31257,7 +31652,7 @@
       <c r="B142" s="18">
         <v>24.01</v>
       </c>
-      <c r="C142" s="118">
+      <c r="C142" s="116">
         <f t="shared" si="11"/>
         <v>-3.5742971887550046E-2</v>
       </c>
@@ -31269,7 +31664,7 @@
       <c r="B143" s="18">
         <v>24.9</v>
       </c>
-      <c r="C143" s="118">
+      <c r="C143" s="116">
         <f t="shared" si="11"/>
         <v>0.14115490375801998</v>
       </c>
@@ -31281,7 +31676,7 @@
       <c r="B144" s="18">
         <v>21.82</v>
       </c>
-      <c r="C144" s="118">
+      <c r="C144" s="116">
         <f t="shared" si="11"/>
         <v>5.0668357930372387E-3</v>
       </c>
@@ -31293,7 +31688,7 @@
       <c r="B145" s="18">
         <v>21.709999</v>
       </c>
-      <c r="C145" s="118">
+      <c r="C145" s="116">
         <f t="shared" si="11"/>
         <v>-4.5850529383335559E-3</v>
       </c>
@@ -31305,7 +31700,7 @@
       <c r="B146" s="18">
         <v>21.809999000000001</v>
       </c>
-      <c r="C146" s="118">
+      <c r="C146" s="116">
         <f t="shared" si="11"/>
         <v>2.0589517052432615E-2</v>
       </c>
@@ -31317,7 +31712,7 @@
       <c r="B147" s="18">
         <v>21.370000999999998</v>
       </c>
-      <c r="C147" s="118">
+      <c r="C147" s="116">
         <f t="shared" si="11"/>
         <v>-8.2438811402369749E-2</v>
       </c>
@@ -31329,7 +31724,7 @@
       <c r="B148" s="18">
         <v>23.290001</v>
       </c>
-      <c r="C148" s="118">
+      <c r="C148" s="116">
         <f t="shared" si="11"/>
         <v>-4.7054007894680505E-2</v>
       </c>
@@ -31341,7 +31736,7 @@
       <c r="B149" s="18">
         <v>24.440000999999999</v>
       </c>
-      <c r="C149" s="118">
+      <c r="C149" s="116">
         <f t="shared" si="11"/>
         <v>-8.7378637513867208E-2</v>
       </c>
@@ -31353,7 +31748,7 @@
       <c r="B150" s="18">
         <v>26.780000999999999</v>
       </c>
-      <c r="C150" s="118">
+      <c r="C150" s="116">
         <f t="shared" si="11"/>
         <v>5.5577451494779107E-2</v>
       </c>
@@ -31365,7 +31760,7 @@
       <c r="B151" s="18">
         <v>25.370000999999998</v>
       </c>
-      <c r="C151" s="118">
+      <c r="C151" s="116">
         <f t="shared" si="11"/>
         <v>2.8374584515605816E-2</v>
       </c>
@@ -31377,7 +31772,7 @@
       <c r="B152" s="18">
         <v>24.67</v>
       </c>
-      <c r="C152" s="118">
+      <c r="C152" s="116">
         <f t="shared" si="11"/>
         <v>2.6633332224996753E-2</v>
       </c>
@@ -31389,7 +31784,7 @@
       <c r="B153" s="18">
         <v>24.030000999999999</v>
       </c>
-      <c r="C153" s="118">
+      <c r="C153" s="116">
         <f t="shared" si="11"/>
         <v>4.7058821478918489E-2</v>
       </c>
@@ -31401,7 +31796,7 @@
       <c r="B154" s="18">
         <v>22.950001</v>
       </c>
-      <c r="C154" s="118">
+      <c r="C154" s="116">
         <f t="shared" si="11"/>
         <v>0.10602414457831322</v>
       </c>
@@ -31413,7 +31808,7 @@
       <c r="B155" s="18">
         <v>20.75</v>
       </c>
-      <c r="C155" s="118">
+      <c r="C155" s="116">
         <f t="shared" si="11"/>
         <v>3.3366533864541914E-2</v>
       </c>
@@ -31425,7 +31820,7 @@
       <c r="B156" s="18">
         <v>20.079999999999998</v>
       </c>
-      <c r="C156" s="118">
+      <c r="C156" s="116">
         <f t="shared" si="11"/>
         <v>1.6708860759493627E-2</v>
       </c>
@@ -31437,7 +31832,7 @@
       <c r="B157" s="18">
         <v>19.75</v>
       </c>
-      <c r="C157" s="118">
+      <c r="C157" s="116">
         <f t="shared" si="11"/>
         <v>-0.14279517609395942</v>
       </c>
@@ -31449,7 +31844,7 @@
       <c r="B158" s="18">
         <v>23.040001</v>
       </c>
-      <c r="C158" s="118">
+      <c r="C158" s="116">
         <f t="shared" si="11"/>
         <v>-1.5805168731311436E-2</v>
       </c>
@@ -31461,7 +31856,7 @@
       <c r="B159" s="18">
         <v>23.41</v>
       </c>
-      <c r="C159" s="118">
+      <c r="C159" s="116">
         <f t="shared" si="11"/>
         <v>4.183360221778365E-2</v>
       </c>
@@ -31473,7 +31868,7 @@
       <c r="B160" s="18">
         <v>22.469999000000001</v>
       </c>
-      <c r="C160" s="118">
+      <c r="C160" s="116">
         <f t="shared" si="11"/>
         <v>-6.5307900777541561E-2</v>
       </c>
@@ -31485,7 +31880,7 @@
       <c r="B161" s="18">
         <v>24.040001</v>
       </c>
-      <c r="C161" s="118">
+      <c r="C161" s="116">
         <f t="shared" si="11"/>
         <v>4.2045990463805749E-2</v>
       </c>
@@ -31497,7 +31892,7 @@
       <c r="B162" s="18">
         <v>23.07</v>
       </c>
-      <c r="C162" s="118">
+      <c r="C162" s="116">
         <f t="shared" si="11"/>
         <v>2.1700620017714778E-2</v>
       </c>
@@ -31509,7 +31904,7 @@
       <c r="B163" s="18">
         <v>22.58</v>
       </c>
-      <c r="C163" s="118">
+      <c r="C163" s="116">
         <f t="shared" si="11"/>
         <v>-7.1546052631578982E-2</v>
       </c>
@@ -31521,7 +31916,7 @@
       <c r="B164" s="18">
         <v>24.32</v>
       </c>
-      <c r="C164" s="118">
+      <c r="C164" s="116">
         <f t="shared" si="11"/>
         <v>-9.6582466567607828E-2</v>
       </c>
@@ -31533,7 +31928,7 @@
       <c r="B165" s="18">
         <v>26.92</v>
       </c>
-      <c r="C165" s="118">
+      <c r="C165" s="116">
         <f t="shared" si="11"/>
         <v>0.12400830379923589</v>
       </c>
@@ -31545,7 +31940,7 @@
       <c r="B166" s="18">
         <v>23.950001</v>
       </c>
-      <c r="C166" s="118">
+      <c r="C166" s="116">
         <f t="shared" si="11"/>
         <v>2.0920920502092155E-3</v>
       </c>
@@ -31557,7 +31952,7 @@
       <c r="B167" s="18">
         <v>23.9</v>
       </c>
-      <c r="C167" s="118">
+      <c r="C167" s="116">
         <f t="shared" si="11"/>
         <v>-0.17586206896551726</v>
       </c>
@@ -31569,7 +31964,7 @@
       <c r="B168" s="18">
         <v>29</v>
       </c>
-      <c r="C168" s="118">
+      <c r="C168" s="116">
         <f t="shared" si="11"/>
         <v>-9.1193983077405227E-2</v>
       </c>
@@ -31581,7 +31976,7 @@
       <c r="B169" s="18">
         <v>31.91</v>
       </c>
-      <c r="C169" s="118">
+      <c r="C169" s="116">
         <f t="shared" si="11"/>
         <v>-6.2848724312737803E-2</v>
       </c>
@@ -31593,7 +31988,7 @@
       <c r="B170" s="18">
         <v>34.049999</v>
       </c>
-      <c r="C170" s="118">
+      <c r="C170" s="116">
         <f t="shared" si="11"/>
         <v>-3.2120551449687285E-2</v>
       </c>
@@ -31605,7 +32000,7 @@
       <c r="B171" s="18">
         <v>35.18</v>
       </c>
-      <c r="C171" s="118">
+      <c r="C171" s="116">
         <f t="shared" si="11"/>
         <v>7.9803494180264334E-2</v>
       </c>
@@ -31617,7 +32012,7 @@
       <c r="B172" s="18">
         <v>32.580002</v>
       </c>
-      <c r="C172" s="118">
+      <c r="C172" s="116">
         <f t="shared" si="11"/>
         <v>0.27067095439434308</v>
       </c>
@@ -31629,7 +32024,7 @@
       <c r="B173" s="18">
         <v>25.639999</v>
       </c>
-      <c r="C173" s="118">
+      <c r="C173" s="116">
         <f t="shared" si="11"/>
         <v>1.746023740237157E-2</v>
       </c>
@@ -31641,7 +32036,7 @@
       <c r="B174" s="18">
         <v>25.200001</v>
       </c>
-      <c r="C174" s="118">
+      <c r="C174" s="116">
         <f t="shared" si="11"/>
         <v>7.0063782168313438E-2</v>
       </c>
@@ -31653,7 +32048,7 @@
       <c r="B175" s="18">
         <v>23.549999</v>
       </c>
-      <c r="C175" s="118">
+      <c r="C175" s="116">
         <f t="shared" si="11"/>
         <v>-0.1513513873873874</v>
       </c>
@@ -31665,7 +32060,7 @@
       <c r="B176" s="18">
         <v>27.75</v>
       </c>
-      <c r="C176" s="118">
+      <c r="C176" s="116">
         <f t="shared" si="11"/>
         <v>6.8540664941881602E-2</v>
       </c>
@@ -31677,7 +32072,7 @@
       <c r="B177" s="18">
         <v>25.969999000000001</v>
       </c>
-      <c r="C177" s="118">
+      <c r="C177" s="116">
         <f t="shared" si="11"/>
         <v>-4.522066010218162E-2</v>
       </c>
@@ -31689,7 +32084,7 @@
       <c r="B178" s="18">
         <v>27.200001</v>
       </c>
-      <c r="C178" s="118">
+      <c r="C178" s="116">
         <f t="shared" si="11"/>
         <v>0.1404612578616351</v>
       </c>
@@ -31701,7 +32096,7 @@
       <c r="B179" s="18">
         <v>23.85</v>
       </c>
-      <c r="C179" s="118">
+      <c r="C179" s="116">
         <f t="shared" si="11"/>
         <v>-0.13774403470715835</v>
       </c>
@@ -31713,7 +32108,7 @@
       <c r="B180" s="18">
         <v>27.66</v>
       </c>
-      <c r="C180" s="118">
+      <c r="C180" s="116">
         <f t="shared" si="11"/>
         <v>0.5239669421487605</v>
       </c>
@@ -31725,7 +32120,7 @@
       <c r="B181" s="18">
         <v>18.149999999999999</v>
       </c>
-      <c r="C181" s="118">
+      <c r="C181" s="116">
         <f t="shared" si="11"/>
         <v>0.14873417721518978</v>
       </c>
@@ -31737,7 +32132,7 @@
       <c r="B182" s="18">
         <v>15.8</v>
       </c>
-      <c r="C182" s="118">
+      <c r="C182" s="116">
         <f t="shared" si="11"/>
         <v>0.14244396240057844</v>
       </c>
@@ -31749,7 +32144,7 @@
       <c r="B183" s="18">
         <v>13.83</v>
       </c>
-      <c r="C183" s="118">
+      <c r="C183" s="116">
         <f t="shared" si="11"/>
         <v>0.36525172754195445</v>
       </c>
@@ -31761,7 +32156,7 @@
       <c r="B184" s="18">
         <v>10.130000000000001</v>
       </c>
-      <c r="C184" s="118">
+      <c r="C184" s="116">
         <f t="shared" si="11"/>
         <v>6.7439409905163394E-2</v>
       </c>
@@ -31773,7 +32168,7 @@
       <c r="B185" s="18">
         <v>9.49</v>
       </c>
-      <c r="C185" s="118">
+      <c r="C185" s="116">
         <f t="shared" si="11"/>
         <v>-2.2657054582904235E-2</v>
       </c>
@@ -31785,7 +32180,7 @@
       <c r="B186" s="18">
         <v>9.7100000000000009</v>
       </c>
-      <c r="C186" s="118">
+      <c r="C186" s="116">
         <f t="shared" si="11"/>
         <v>-2.4120603015075237E-2</v>
       </c>
@@ -31797,7 +32192,7 @@
       <c r="B187" s="18">
         <v>9.9499999999999993</v>
       </c>
-      <c r="C187" s="118">
+      <c r="C187" s="116">
         <f t="shared" si="11"/>
         <v>8.1521739130434812E-2</v>
       </c>

--- a/Business - Technology Services/PLTR.xlsx
+++ b/Business - Technology Services/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E7D9D-E432-4C22-96B4-654B8FEF3DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3029904-5370-40A8-89C1-D84221EE589B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16425" yWindow="105" windowWidth="12480" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="215">
   <si>
     <t>Price</t>
   </si>
@@ -958,6 +958,12 @@
   </si>
   <si>
     <t>FY26</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1696,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1833,14 +1839,20 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1898,7 +1910,6 @@
     <xf numFmtId="167" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1906,18 +1917,15 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2581,6 +2589,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2588,7 +2597,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3219,6 +3227,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3226,7 +3235,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3917,6 +3925,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3924,7 +3933,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4505,6 +4513,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4512,7 +4521,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5273,6 +5281,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5280,7 +5289,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6671,6 +6679,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6678,7 +6687,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8070,6 +8078,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8077,7 +8086,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8411,6 +8419,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8418,7 +8427,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14952,7 +14960,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15024,7 +15032,7 @@
       </c>
       <c r="J3" s="37">
         <f t="shared" ref="J3:J10" si="0">I3/($C$7*100000)</f>
-        <v>2.5684600910328206E-6</v>
+        <v>2.4903593226727444E-6</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>163</v>
@@ -15036,7 +15044,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="145">
+      <c r="C4" s="124">
         <v>0.20902777777777778</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -15053,7 +15061,7 @@
       </c>
       <c r="J4" s="37">
         <f t="shared" si="0"/>
-        <v>1.884694364095705E-5</v>
+        <v>1.8273852867720273E-5</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>165</v>
@@ -15080,7 +15088,7 @@
       </c>
       <c r="J5" s="37">
         <f t="shared" si="0"/>
-        <v>2.7907099839774952E-2</v>
+        <v>2.7058511244687479E-2</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>167</v>
@@ -15095,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>111.28</v>
+        <v>190.74</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>141</v>
@@ -15111,7 +15119,7 @@
       </c>
       <c r="J6" s="37">
         <f t="shared" si="0"/>
-        <v>7.0958916352804038E-3</v>
+        <v>6.8801224314488634E-3</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>169</v>
@@ -15126,8 +15134,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!AA16</f>
-        <v>2304.8829999999998</v>
+        <f>Model!AD16</f>
+        <v>2377.1669999999999</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>143</v>
@@ -15143,7 +15151,7 @@
       </c>
       <c r="J7" s="37">
         <f t="shared" si="0"/>
-        <v>2.907462114129004E-3</v>
+        <v>2.8190530997611865E-3</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>171</v>
@@ -15159,7 +15167,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>256487.38023999997</v>
+        <v>453420.83357999998</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>145</v>
@@ -15175,7 +15183,7 @@
       </c>
       <c r="J8" s="37">
         <f t="shared" si="0"/>
-        <v>6.5195500162047284E-3</v>
+        <v>6.3213059915437153E-3</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>173</v>
@@ -15190,8 +15198,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!AA32+Model!AA33</f>
-        <v>5229.9870000000001</v>
+        <f>Model!AD32+Model!AD33</f>
+        <v>6437.8170000000009</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>147</v>
@@ -15207,7 +15215,7 @@
       </c>
       <c r="J9" s="37">
         <f t="shared" si="0"/>
-        <v>8.3207260411916799E-4</v>
+        <v>8.0677125334484279E-4</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>175</v>
@@ -15239,7 +15247,7 @@
       </c>
       <c r="J10" s="37">
         <f t="shared" si="0"/>
-        <v>7.8728508128178323E-5</v>
+        <v>7.6334561265573682E-5</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>177</v>
@@ -15255,7 +15263,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>5229.9870000000001</v>
+        <v>6437.8170000000009</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>151</v>
@@ -15284,7 +15292,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>251257.39323999998</v>
+        <v>446983.01658</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>153</v>
@@ -15306,8 +15314,8 @@
         <v>48</v>
       </c>
       <c r="C13" s="45">
-        <f>C6/Model!F17</f>
-        <v>1138.8909371142613</v>
+        <f>C6/Model!G17</f>
+        <v>906.09332628165396</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -15319,8 +15327,8 @@
         <v>46</v>
       </c>
       <c r="C14" s="45">
-        <f>C6/Model!G18</f>
-        <v>300.75675675675677</v>
+        <f>C6/Model!H18</f>
+        <v>261.28767123287673</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="28"/>
@@ -15337,8 +15345,8 @@
         <v>47</v>
       </c>
       <c r="C15" s="45">
-        <f>C6/Model!H18</f>
-        <v>198.71428571428569</v>
+        <f>C6/Model!I18</f>
+        <v>198.68750000000003</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -15346,8 +15354,8 @@
         <v>44</v>
       </c>
       <c r="C16" s="6">
-        <f>Model!G18/Model!F17-1</f>
-        <v>2.7867509591326085</v>
+        <f>Model!H18/Model!G17-1</f>
+        <v>2.4677997702925829</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -15355,15 +15363,15 @@
         <v>45</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!H18/Model!G18-1</f>
-        <v>0.5135135135135136</v>
+        <f>Model!I18/Model!H18-1</f>
+        <v>0.31506849315068486</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="126"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="134"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -15371,11 +15379,11 @@
       </c>
       <c r="C18" s="45">
         <f>C14/(C16*100)</f>
-        <v>1.0792380128950201</v>
-      </c>
-      <c r="L18" s="129"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="131"/>
+        <v>1.0587879712862538</v>
+      </c>
+      <c r="L18" s="135"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="137"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -15383,95 +15391,95 @@
       </c>
       <c r="C19" s="45">
         <f>C15/(C17*100)</f>
-        <v>3.8696992481202996</v>
-      </c>
-      <c r="L19" s="129"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="131"/>
+        <v>6.3061684782608722</v>
+      </c>
+      <c r="L19" s="135"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="137"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="6">
-        <f>Model!G4/Model!F3-1</f>
-        <v>0.25842017930689809</v>
-      </c>
-      <c r="L20" s="129"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="131"/>
+        <f>Model!H4/Model!G3-1</f>
+        <v>0.53899467005315316</v>
+      </c>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="137"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="6">
-        <f>Model!H4/Model!G4-1</f>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="L21" s="129"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="131"/>
+        <f>Model!I4/Model!H4-1</f>
+        <v>0.36281179138322006</v>
+      </c>
+      <c r="L21" s="135"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="137"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="43">
-        <f>Model!F12</f>
-        <v>237.09100000000012</v>
-      </c>
-      <c r="L22" s="129"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="131"/>
+        <f>Model!G12</f>
+        <v>489.17299999999972</v>
+      </c>
+      <c r="L22" s="135"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="137"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!F12</f>
-        <v>237.09100000000012</v>
-      </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="131"/>
+        <f>Model!G12</f>
+        <v>489.17299999999972</v>
+      </c>
+      <c r="L23" s="135"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="137"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!Z20</f>
-        <v>0.79788316177727303</v>
-      </c>
-      <c r="L24" s="129"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="131"/>
+        <f>Model!AD20</f>
+        <v>0.82447853342499999</v>
+      </c>
+      <c r="L24" s="135"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!Z21</f>
-        <v>0.19782472061263981</v>
-      </c>
-      <c r="L25" s="129"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="131"/>
+        <f>Model!AD21</f>
+        <v>0.40267735282264217</v>
+      </c>
+      <c r="L25" s="135"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="137"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="35">
-        <f>Main!C12/Model!F12</f>
-        <v>1059.7508688225189</v>
-      </c>
-      <c r="L26" s="129"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="131"/>
+        <f>Main!C12/Model!G12</f>
+        <v>913.752428241134</v>
+      </c>
+      <c r="L26" s="135"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="137"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -15483,9 +15491,9 @@
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="131"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="137"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -15497,17 +15505,17 @@
       <c r="E28" t="s">
         <v>184</v>
       </c>
-      <c r="L28" s="132"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="134"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="15">
-        <f>Model!Z36-Model!Z46</f>
-        <v>4408.5059999999994</v>
+        <f>Model!AD36-Model!AD46</f>
+        <v>6405.7530000000006</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -15515,8 +15523,8 @@
         <v>86</v>
       </c>
       <c r="C30" s="35">
-        <f>(Model!Z32+Model!Z33+Model!Z34)/Model!Z41</f>
-        <v>193.65563820732021</v>
+        <f>(Model!AD32+Model!AD33+Model!AD34)/Model!AD41</f>
+        <v>110.27253603543548</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -15542,8 +15550,8 @@
         <v>90</v>
       </c>
       <c r="C34" s="115">
-        <f>Model!F15/Model!F40</f>
-        <v>4.6396568212850424E-2</v>
+        <f>Model!G15/Model!G40</f>
+        <v>7.4697155790896003E-2</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -15551,8 +15559,8 @@
         <v>91</v>
       </c>
       <c r="C35" s="115">
-        <f>Model!F15/Model!F53</f>
-        <v>5.8923634464253395E-2</v>
+        <f>Model!G15/Model!G53</f>
+        <v>9.2973725891943818E-2</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -15572,30 +15580,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC20" sqref="AC20"/>
+      <selection pane="bottomRight" activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="146"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="26" max="26" width="11.42578125" style="146"/>
-    <col min="27" max="27" width="11.42578125" style="13"/>
+    <col min="27" max="27" width="11.42578125" style="151"/>
+    <col min="30" max="30" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -15608,7 +15615,7 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -15662,10 +15669,10 @@
       <c r="Y2" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" s="146" t="s">
+      <c r="Z2" t="s">
         <v>199</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="151" t="s">
         <v>200</v>
       </c>
       <c r="AB2" t="s">
@@ -15674,11 +15681,17 @@
       <c r="AC2" t="s">
         <v>210</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="13" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="160" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="160" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -15694,10 +15707,10 @@
       <c r="E3" s="10">
         <v>1905.8710000000001</v>
       </c>
-      <c r="F3" s="147">
+      <c r="F3" s="10">
         <v>2225.0120000000002</v>
       </c>
-      <c r="G3" s="160">
+      <c r="G3" s="15">
         <f>SUM(X3:AA3)</f>
         <v>2865.5069999999996</v>
       </c>
@@ -15748,14 +15761,23 @@
       <c r="Y3" s="10">
         <v>678.13400000000001</v>
       </c>
-      <c r="Z3" s="147">
+      <c r="Z3" s="10">
         <v>725.51599999999996</v>
       </c>
-      <c r="AA3" s="15">
+      <c r="AA3" s="152">
         <v>827.51900000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB3" s="161">
+        <v>883.85500000000002</v>
+      </c>
+      <c r="AC3" s="161">
+        <v>1003.697</v>
+      </c>
+      <c r="AD3" s="166">
+        <v>1181.0920000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -15763,15 +15785,15 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="123">
+      <c r="F4" s="10"/>
+      <c r="G4" s="122">
         <v>2800</v>
       </c>
       <c r="H4" s="41">
-        <v>3780</v>
+        <v>4410</v>
       </c>
       <c r="I4" s="41">
-        <v>4690</v>
+        <v>6010</v>
       </c>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
@@ -15781,38 +15803,45 @@
       <c r="Q4" s="39"/>
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
-      <c r="T4" s="121">
+      <c r="T4" s="120">
         <v>505.82</v>
       </c>
       <c r="U4" s="39">
         <v>533.38</v>
       </c>
-      <c r="V4" s="121">
+      <c r="V4" s="120">
         <v>555.51</v>
       </c>
-      <c r="W4" s="122">
+      <c r="W4" s="121">
         <v>602.88</v>
       </c>
-      <c r="X4" s="121">
+      <c r="X4" s="120">
         <v>615.4</v>
       </c>
-      <c r="Y4" s="121">
+      <c r="Y4" s="120">
         <v>651.39</v>
       </c>
-      <c r="Z4" s="148">
+      <c r="Z4" s="120">
         <v>701.25</v>
       </c>
-      <c r="AA4" s="123">
+      <c r="AA4" s="153">
         <v>769.39</v>
       </c>
-      <c r="AB4" s="164">
+      <c r="AB4" s="39">
         <v>874.36</v>
       </c>
-      <c r="AC4" s="148">
+      <c r="AC4" s="120">
         <v>908.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="153">
+        <v>1340</v>
+      </c>
+      <c r="AF4" s="153">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -15828,11 +15857,11 @@
       <c r="E5" s="10">
         <v>408.54899999999998</v>
       </c>
-      <c r="F5" s="147">
+      <c r="F5" s="10">
         <v>431.10500000000002</v>
       </c>
-      <c r="G5" s="160">
-        <f t="shared" ref="G5:G16" si="0">SUM(X5:AA5)</f>
+      <c r="G5" s="15">
+        <f t="shared" ref="G5:G14" si="0">SUM(X5:AA5)</f>
         <v>565.99</v>
       </c>
       <c r="H5" s="39"/>
@@ -15882,14 +15911,23 @@
       <c r="Y5" s="10">
         <v>128.56200000000001</v>
       </c>
-      <c r="Z5" s="147">
+      <c r="Z5" s="10">
         <v>146.63900000000001</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="152">
         <v>174.53299999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB5" s="161">
+        <v>172.97</v>
+      </c>
+      <c r="AC5" s="161">
+        <v>192.934</v>
+      </c>
+      <c r="AD5" s="166">
+        <v>207.30699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -15905,10 +15943,10 @@
       <c r="E6" s="10">
         <v>702.51099999999997</v>
       </c>
-      <c r="F6" s="147">
+      <c r="F6" s="10">
         <v>744.99199999999996</v>
       </c>
-      <c r="G6" s="160">
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>887.75500000000011</v>
       </c>
@@ -15959,14 +15997,23 @@
       <c r="Y6" s="10">
         <v>196.809</v>
       </c>
-      <c r="Z6" s="147">
+      <c r="Z6" s="10">
         <v>209.47399999999999</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AA6" s="152">
         <v>288.29500000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB6" s="161">
+        <v>236.309</v>
+      </c>
+      <c r="AC6" s="161">
+        <v>243.78800000000001</v>
+      </c>
+      <c r="AD6" s="166">
+        <v>274.63600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -15982,10 +16029,10 @@
       <c r="E7" s="10">
         <v>359.67899999999997</v>
       </c>
-      <c r="F7" s="147">
+      <c r="F7" s="10">
         <v>404.62400000000002</v>
       </c>
-      <c r="G7" s="160">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>507.87800000000004</v>
       </c>
@@ -16036,14 +16083,23 @@
       <c r="Y7" s="10">
         <v>108.78100000000001</v>
       </c>
-      <c r="Z7" s="147">
+      <c r="Z7" s="10">
         <v>117.55500000000001</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="AA7" s="152">
         <v>171.50200000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB7" s="161">
+        <v>134.88900000000001</v>
+      </c>
+      <c r="AC7" s="161">
+        <v>135.04300000000001</v>
+      </c>
+      <c r="AD7" s="166">
+        <v>144.191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -16059,10 +16115,10 @@
       <c r="E8" s="10">
         <v>596.33299999999997</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="10">
         <v>524.32500000000005</v>
       </c>
-      <c r="G8" s="160">
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
         <v>593.48099999999999</v>
       </c>
@@ -16113,14 +16169,23 @@
       <c r="Y8" s="10">
         <v>138.643</v>
       </c>
-      <c r="Z8" s="147">
+      <c r="Z8" s="10">
         <v>138.708</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA8" s="152">
         <v>182.14599999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="161">
+        <v>163.63900000000001</v>
+      </c>
+      <c r="AC8" s="161">
+        <v>162.61500000000001</v>
+      </c>
+      <c r="AD8" s="166">
+        <v>161.702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -16140,7 +16205,7 @@
         <f t="shared" si="1"/>
         <v>-161.20099999999979</v>
       </c>
-      <c r="F9" s="149">
+      <c r="F9" s="11">
         <f t="shared" si="1"/>
         <v>119.96600000000012</v>
       </c>
@@ -16209,20 +16274,36 @@
         <f t="shared" ref="Y9:Z9" si="14">Y3-Y5-Y6-Y7-Y8</f>
         <v>105.33900000000003</v>
       </c>
-      <c r="Z9" s="149">
+      <c r="Z9" s="11">
         <f t="shared" si="14"/>
         <v>113.13999999999996</v>
       </c>
-      <c r="AA9" s="14">
-        <f t="shared" ref="AA9:AB9" si="15">AA3-AA5-AA6-AA7-AA8</f>
+      <c r="AA9" s="154">
+        <f t="shared" ref="AA9:AF9" si="15">AA3-AA5-AA6-AA7-AA8</f>
         <v>11.042999999999978</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="15"/>
+        <v>176.048</v>
+      </c>
+      <c r="AC9" s="11">
+        <f t="shared" si="15"/>
+        <v>269.31700000000001</v>
+      </c>
+      <c r="AD9" s="14">
+        <f t="shared" si="15"/>
+        <v>393.25600000000009</v>
+      </c>
+      <c r="AE9" s="11">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF9" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -16242,11 +16323,11 @@
         <f>20.309-4.058</f>
         <v>16.251000000000001</v>
       </c>
-      <c r="F10" s="147">
+      <c r="F10" s="10">
         <f>132.572-3.47</f>
         <v>129.102</v>
       </c>
-      <c r="G10" s="160">
+      <c r="G10" s="15">
         <f t="shared" si="0"/>
         <v>196.792</v>
       </c>
@@ -16306,15 +16387,23 @@
       <c r="Y10" s="10">
         <v>46.593000000000004</v>
       </c>
-      <c r="Z10" s="147">
+      <c r="Z10" s="10">
         <v>52.12</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AA10" s="152">
         <v>54.726999999999997</v>
       </c>
-      <c r="AB10" s="10"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB10" s="10">
+        <v>50.441000000000003</v>
+      </c>
+      <c r="AC10" s="161">
+        <v>56.255000000000003</v>
+      </c>
+      <c r="AD10" s="166">
+        <v>59.762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -16332,10 +16421,10 @@
       <c r="E11" s="10">
         <v>-216.077</v>
       </c>
-      <c r="F11" s="147">
+      <c r="F11" s="10">
         <v>-11.977</v>
       </c>
-      <c r="G11" s="160">
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
         <v>-18.021999999999998</v>
       </c>
@@ -16386,15 +16475,23 @@
       <c r="Y11" s="10">
         <v>-11.173</v>
       </c>
-      <c r="Z11" s="147">
+      <c r="Z11" s="10">
         <v>-8.11</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="152">
         <v>14.768000000000001</v>
       </c>
-      <c r="AB11" s="10"/>
-    </row>
-    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="10">
+        <v>-3.173</v>
+      </c>
+      <c r="AC11" s="161">
+        <v>6.5960000000000001</v>
+      </c>
+      <c r="AD11" s="166">
+        <v>27.483000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -16414,7 +16511,7 @@
         <f t="shared" si="17"/>
         <v>-361.02699999999982</v>
       </c>
-      <c r="F12" s="149">
+      <c r="F12" s="11">
         <f>F9+F10+F11</f>
         <v>237.09100000000012</v>
       </c>
@@ -16483,20 +16580,36 @@
         <f t="shared" si="19"/>
         <v>140.75900000000001</v>
       </c>
-      <c r="Z12" s="149">
+      <c r="Z12" s="11">
         <f t="shared" si="19"/>
         <v>157.14999999999998</v>
       </c>
-      <c r="AA12" s="14">
-        <f t="shared" ref="AA12:AB12" si="20">AA9+AA10+AA11</f>
+      <c r="AA12" s="154">
+        <f t="shared" ref="AA12:AF12" si="20">AA9+AA10+AA11</f>
         <v>80.537999999999982</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="20"/>
+        <v>223.316</v>
+      </c>
+      <c r="AC12" s="11">
+        <f t="shared" si="20"/>
+        <v>332.16800000000001</v>
+      </c>
+      <c r="AD12" s="14">
+        <f t="shared" si="20"/>
+        <v>480.50100000000009</v>
+      </c>
+      <c r="AE12" s="11">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF12" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -16512,10 +16625,10 @@
       <c r="E13" s="10">
         <v>10.067</v>
       </c>
-      <c r="F13" s="147">
+      <c r="F13" s="10">
         <v>19.716000000000001</v>
       </c>
-      <c r="G13" s="160">
+      <c r="G13" s="15">
         <f t="shared" si="0"/>
         <v>21.255000000000003</v>
       </c>
@@ -16566,15 +16679,23 @@
       <c r="Y13" s="10">
         <v>5.1890000000000001</v>
       </c>
-      <c r="Z13" s="147">
+      <c r="Z13" s="10">
         <v>7.8090000000000002</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AA13" s="152">
         <v>3.6019999999999999</v>
       </c>
-      <c r="AB13" s="10"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB13" s="10">
+        <v>5.5990000000000002</v>
+      </c>
+      <c r="AC13" s="161">
+        <v>3.5960000000000001</v>
+      </c>
+      <c r="AD13" s="166">
+        <v>3.7530000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -16590,10 +16711,10 @@
       <c r="E14" s="10">
         <v>2.6110000000000002</v>
       </c>
-      <c r="F14" s="147">
+      <c r="F14" s="10">
         <v>-7.55</v>
       </c>
-      <c r="G14" s="160">
+      <c r="G14" s="15">
         <f t="shared" si="0"/>
         <v>5.7279999999999998</v>
       </c>
@@ -16644,40 +16765,48 @@
       <c r="Y14" s="10">
         <v>1.444</v>
       </c>
-      <c r="Z14" s="147">
+      <c r="Z14" s="10">
         <v>5.8159999999999998</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AA14" s="152">
         <v>-2.073</v>
       </c>
-      <c r="AB14" s="10"/>
-    </row>
-    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="10">
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="AC14" s="161">
+        <v>1.845</v>
+      </c>
+      <c r="AD14" s="166">
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="11">
-        <f>B12-B13+B14</f>
+        <f t="shared" ref="B15:G15" si="22">B12-B13+B14</f>
         <v>-579.64599999999996</v>
       </c>
       <c r="C15" s="11">
-        <f>C12-C13+C14</f>
+        <f t="shared" si="22"/>
         <v>-1166.3910000000001</v>
       </c>
       <c r="D15" s="11">
-        <f>D12-D13+D14</f>
+        <f t="shared" si="22"/>
         <v>-520.37900000000013</v>
       </c>
       <c r="E15" s="11">
-        <f>E12-E13+E14</f>
+        <f t="shared" si="22"/>
         <v>-368.48299999999983</v>
       </c>
-      <c r="F15" s="149">
-        <f>F12-F13+F14</f>
+      <c r="F15" s="11">
+        <f t="shared" si="22"/>
         <v>209.8250000000001</v>
       </c>
       <c r="G15" s="14">
-        <f>G12-G13+G14</f>
+        <f t="shared" si="22"/>
         <v>473.64599999999973</v>
       </c>
       <c r="H15" s="51"/>
@@ -16695,11 +16824,11 @@
         <v>-102.13700000000004</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" ref="O15:S15" si="22">O12+O13+O14</f>
+        <f t="shared" ref="O15:S15" si="23">O12+O13+O14</f>
         <v>-90.176000000000101</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-97.332999999999998</v>
       </c>
       <c r="Q15" s="11">
@@ -16711,47 +16840,63 @@
         <v>-123.87500000000001</v>
       </c>
       <c r="S15" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44.820000000000057</v>
       </c>
       <c r="T15" s="11">
-        <f t="shared" ref="T15:AB15" si="23">T12-T13-T14</f>
+        <f t="shared" ref="T15:AF15" si="24">T12-T13-T14</f>
         <v>16.802000000000067</v>
       </c>
       <c r="U15" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28.126999999999978</v>
       </c>
       <c r="V15" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>71.504999999999981</v>
       </c>
       <c r="W15" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>108.49100000000001</v>
       </c>
       <c r="X15" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>105.52999999999994</v>
       </c>
       <c r="Y15" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>134.12600000000003</v>
       </c>
-      <c r="Z15" s="149">
-        <f t="shared" si="23"/>
+      <c r="Z15" s="11">
+        <f t="shared" si="24"/>
         <v>143.52499999999998</v>
       </c>
-      <c r="AA15" s="14">
-        <f t="shared" si="23"/>
+      <c r="AA15" s="154">
+        <f t="shared" si="24"/>
         <v>79.008999999999972</v>
       </c>
       <c r="AB15" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
+        <v>214.03100000000001</v>
+      </c>
+      <c r="AC15" s="11">
+        <f t="shared" si="24"/>
+        <v>326.72699999999998</v>
+      </c>
+      <c r="AD15" s="14">
+        <f t="shared" si="24"/>
+        <v>475.5990000000001</v>
+      </c>
+      <c r="AE15" s="11">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF15" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -16767,10 +16912,10 @@
       <c r="E16" s="10">
         <v>2063.7930000000001</v>
       </c>
-      <c r="F16" s="147">
+      <c r="F16" s="10">
         <v>2147.4459999999999</v>
       </c>
-      <c r="G16" s="160">
+      <c r="G16" s="15">
         <f>AVERAGE(X16:AA16)</f>
         <v>2250.0129999999999</v>
       </c>
@@ -16821,113 +16966,138 @@
       <c r="Y16" s="10">
         <v>2231.5920000000001</v>
       </c>
-      <c r="Z16" s="147">
+      <c r="Z16" s="10">
         <v>2250.0320000000002</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="AA16" s="152">
         <v>2304.8829999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="10">
+        <v>2348.6790000000001</v>
+      </c>
+      <c r="AC16" s="161">
+        <v>2365.1959999999999</v>
+      </c>
+      <c r="AD16" s="166">
+        <v>2377.1669999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <f>B15/B16</f>
+        <f t="shared" ref="B17:G17" si="25">B15/B16</f>
         <v>-1.0046579428512161</v>
       </c>
       <c r="C17" s="2">
-        <f>C15/C16</f>
+        <f t="shared" si="25"/>
         <v>-1.1929691599137178</v>
       </c>
       <c r="D17" s="2">
-        <f>D15/D16</f>
+        <f t="shared" si="25"/>
         <v>-0.27052110685235164</v>
       </c>
       <c r="E17" s="2">
-        <f>E15/E16</f>
+        <f t="shared" si="25"/>
         <v>-0.17854649182355004</v>
       </c>
-      <c r="F17" s="156">
-        <f>F15/F16</f>
+      <c r="F17" s="125">
+        <f t="shared" si="25"/>
         <v>9.7709092568567552E-2</v>
       </c>
       <c r="G17" s="48">
-        <f>G15/G16</f>
+        <f t="shared" si="25"/>
         <v>0.21050811706421241</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
       <c r="L17" s="2">
-        <f t="shared" ref="L17" si="24">L15/L16</f>
+        <f t="shared" ref="L17" si="26">L15/L16</f>
         <v>-6.7799718640557283E-2</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" ref="M17" si="25">M15/M16</f>
+        <f t="shared" ref="M17" si="27">M15/M16</f>
         <v>-7.3144495478215513E-2</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17" si="26">N15/N16</f>
+        <f t="shared" ref="N17" si="28">N15/N16</f>
         <v>-5.1994125417749511E-2</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" ref="O17:U17" si="27">O15/O16</f>
+        <f t="shared" ref="O17:U17" si="29">O15/O16</f>
         <v>-4.6878354682870917E-2</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-4.7798784760844017E-2</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-8.7273256410967698E-2</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-5.9748753777254728E-2</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.1717294321668915E-2</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.9714201671901557E-3</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3197580357578544E-2</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" ref="V17:AB17" si="28">V15/V16</f>
+        <f t="shared" ref="V17:AF17" si="30">V15/V16</f>
         <v>3.3065437242489108E-2</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.0520944414900314E-2</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.7674657619339089E-2</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.0103280527981827E-2</v>
       </c>
-      <c r="Z17" s="150">
-        <f t="shared" si="28"/>
+      <c r="Z17" s="2">
+        <f t="shared" si="30"/>
         <v>6.3787981682038281E-2</v>
       </c>
-      <c r="AA17" s="34">
-        <f t="shared" si="28"/>
+      <c r="AA17" s="155">
+        <f t="shared" si="30"/>
         <v>3.427896340074528E-2</v>
       </c>
-      <c r="AB17" s="2" t="e">
-        <f t="shared" si="28"/>
+      <c r="AB17" s="2">
+        <f t="shared" si="30"/>
+        <v>9.1128246984794437E-2</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="30"/>
+        <v>0.13813950302638767</v>
+      </c>
+      <c r="AD17" s="34">
+        <f t="shared" si="30"/>
+        <v>0.20006966275402616</v>
+      </c>
+      <c r="AE17" s="2" t="e">
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF17" s="2" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
@@ -16935,15 +17105,15 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="161">
+      <c r="F18" s="2"/>
+      <c r="G18" s="129">
         <v>0.37</v>
       </c>
       <c r="H18" s="42">
-        <v>0.56000000000000005</v>
+        <v>0.73</v>
       </c>
       <c r="I18" s="42">
-        <v>0.7</v>
+        <v>0.96</v>
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
@@ -16962,7 +17132,7 @@
       <c r="V18" s="44">
         <v>0.06</v>
       </c>
-      <c r="W18" s="124">
+      <c r="W18" s="123">
         <v>0.08</v>
       </c>
       <c r="X18" s="44">
@@ -16971,10 +17141,10 @@
       <c r="Y18" s="44">
         <v>0.08</v>
       </c>
-      <c r="Z18" s="151">
+      <c r="Z18" s="44">
         <v>0.09</v>
       </c>
-      <c r="AA18" s="120">
+      <c r="AA18" s="156">
         <v>0.11</v>
       </c>
       <c r="AB18">
@@ -16983,17 +17153,24 @@
       <c r="AC18" s="1">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
       <c r="N19" s="44"/>
@@ -17005,108 +17182,129 @@
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
-      <c r="W19" s="124"/>
+      <c r="W19" s="123"/>
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="120"/>
-    </row>
-    <row r="20" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="156"/>
+      <c r="AD19" s="166"/>
+    </row>
+    <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3">
-        <f>1-B5/B3</f>
+        <f t="shared" ref="B20:G20" si="31">1-B5/B3</f>
         <v>0.67359589525355024</v>
       </c>
       <c r="C20" s="3">
-        <f>1-C5/C3</f>
+        <f t="shared" si="31"/>
         <v>0.67735360899372454</v>
       </c>
       <c r="D20" s="3">
-        <f>1-D5/D3</f>
+        <f t="shared" si="31"/>
         <v>0.77987779924495215</v>
       </c>
       <c r="E20" s="3">
-        <f>1-E5/E3</f>
+        <f t="shared" si="31"/>
         <v>0.78563659345254744</v>
       </c>
       <c r="F20" s="38">
-        <f>1-F5/F3</f>
+        <f t="shared" si="31"/>
         <v>0.80624598878567844</v>
       </c>
       <c r="G20" s="6">
-        <f>1-G5/G3</f>
+        <f t="shared" si="31"/>
         <v>0.80248172487451608</v>
       </c>
       <c r="H20" s="117"/>
       <c r="I20" s="117"/>
       <c r="L20" s="3">
-        <f t="shared" ref="L20:W20" si="29">1-L5/L3</f>
+        <f t="shared" ref="L20:W20" si="32">1-L5/L3</f>
         <v>0.78281472537906538</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.75794506471587308</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.77864366842961552</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.79771384744043783</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.78850337286073702</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.78388617576795416</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.77481585335230596</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.79491530089024509</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.79503452110299966</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.79955823647099189</v>
       </c>
       <c r="V20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.80664649320354953</v>
       </c>
       <c r="W20" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.82142023506205308</v>
       </c>
       <c r="X20" s="38">
-        <f t="shared" ref="X20:Z20" si="30">1-X5/X3</f>
+        <f t="shared" ref="X20:Z20" si="33">1-X5/X3</f>
         <v>0.81672862101907817</v>
       </c>
       <c r="Y20" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.81041799998230435</v>
       </c>
       <c r="Z20" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.79788316177727303</v>
       </c>
-      <c r="AA20" s="6">
-        <f t="shared" ref="AA20" si="31">1-AA5/AA3</f>
+      <c r="AA20" s="38">
+        <f t="shared" ref="AA20:AF20" si="34">1-AA5/AA3</f>
         <v>0.7890888305887841</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB20" s="38">
+        <f t="shared" si="34"/>
+        <v>0.80430047915099201</v>
+      </c>
+      <c r="AC20" s="38">
+        <f t="shared" si="34"/>
+        <v>0.80777664972596308</v>
+      </c>
+      <c r="AD20" s="6">
+        <f t="shared" si="34"/>
+        <v>0.82447853342499999</v>
+      </c>
+      <c r="AE20" s="38" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF20" s="38" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -17126,11 +17324,11 @@
         <f>E15/E3</f>
         <v>-0.19334099737075586</v>
       </c>
-      <c r="F21" s="152">
+      <c r="F21" s="4">
         <f>F15/F3</f>
         <v>9.4302862186810721E-2</v>
       </c>
-      <c r="G21" s="158">
+      <c r="G21" s="127">
         <f>G15/G4</f>
         <v>0.16915928571428562</v>
       </c>
@@ -17140,71 +17338,91 @@
       </c>
       <c r="I21" s="118"/>
       <c r="L21" s="4">
-        <f t="shared" ref="L21:W21" si="32">L15/L3</f>
+        <f t="shared" ref="L21:W21" si="35">L15/L3</f>
         <v>-0.3618455370801269</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.36891508404278539</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.2604565646468408</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.20832264875816386</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.21806087952020467</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.37912306293735865</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.25921779526240901</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>8.8120104438642419E-2</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3.1992475046935878E-2</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>5.2739740154542192E-2</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.12810865721057976</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.17833648393194709</v>
       </c>
       <c r="X21" s="4">
-        <f t="shared" ref="X21:Z21" si="33">X15/X3</f>
+        <f t="shared" ref="X21:Z21" si="36">X15/X3</f>
         <v>0.16636241246780101</v>
       </c>
       <c r="Y21" s="4">
         <f>Y15/Y3</f>
         <v>0.19778686808211951</v>
       </c>
-      <c r="Z21" s="152">
-        <f t="shared" si="33"/>
+      <c r="Z21" s="4">
+        <f t="shared" si="36"/>
         <v>0.19782472061263981</v>
       </c>
-      <c r="AA21" s="7">
-        <f t="shared" ref="AA21" si="34">AA15/AA3</f>
+      <c r="AA21" s="157">
+        <f t="shared" ref="AA21:AF21" si="37">AA15/AA3</f>
         <v>9.5476961858277545E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB21" s="157">
+        <f t="shared" si="37"/>
+        <v>0.24215623603419112</v>
+      </c>
+      <c r="AC21" s="157">
+        <f t="shared" si="37"/>
+        <v>0.32552353947456253</v>
+      </c>
+      <c r="AD21" s="7">
+        <f>AD15/AD3</f>
+        <v>0.40267735282264217</v>
+      </c>
+      <c r="AE21" s="157" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF21" s="157" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -17225,147 +17443,159 @@
         <f>F3/E3-1</f>
         <v>0.16745152216493153</v>
       </c>
-      <c r="G22" s="157">
+      <c r="G22" s="126">
         <f>G4/F3-1</f>
         <v>0.25842017930689809</v>
       </c>
       <c r="H22" s="119">
         <f>H4/G4-1</f>
-        <v>0.35000000000000009</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="I22" s="119">
         <f>I4/H4-1</f>
-        <v>0.2407407407407407</v>
+        <v>0.36281179138322006</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4">
-        <f t="shared" ref="P22:X22" si="35">P3/L3-1</f>
+        <f t="shared" ref="P22:X22" si="38">P3/L3-1</f>
         <v>0.30806719142875583</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.25920424233711881</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.21862775598884077</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.17501218619113978</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.1766052733574246</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.12749624743662924</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.16798987193437687</v>
       </c>
       <c r="W22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.19607018150932731</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.20783493847893864</v>
       </c>
       <c r="Y22" s="4">
         <f>Y3/U3-1</f>
         <v>0.2715401909183468</v>
       </c>
-      <c r="Z22" s="153">
-        <f>Z4/V3-1</f>
-        <v>0.25636243436010164</v>
-      </c>
-      <c r="AA22" s="125">
-        <f>AA4/W3-1</f>
-        <v>0.26471603517711828</v>
-      </c>
-      <c r="AB22" s="153">
-        <f>AB4/X3-1</f>
-        <v>0.37838187212495566</v>
-      </c>
-      <c r="AC22" s="153">
-        <f>AC4/Y3-1</f>
-        <v>0.34007438057964934</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z22" s="162">
+        <f>Z3/V3-1</f>
+        <v>0.2998375015004684</v>
+      </c>
+      <c r="AA22" s="164">
+        <f>AA3/W3-1</f>
+        <v>0.360267937864716</v>
+      </c>
+      <c r="AB22" s="164">
+        <f>AB3/X3-1</f>
+        <v>0.39335023284116688</v>
+      </c>
+      <c r="AC22" s="164">
+        <f>AC3/Y3-1</f>
+        <v>0.48008653157045655</v>
+      </c>
+      <c r="AD22" s="165">
+        <f>AD3/Z3-1</f>
+        <v>0.62793377403117256</v>
+      </c>
+      <c r="AE22" s="163">
+        <f t="shared" ref="AB22:AF22" si="39">AE4/AA3-1</f>
+        <v>0.61929816717199238</v>
+      </c>
+      <c r="AF22" s="163">
+        <f t="shared" si="39"/>
+        <v>0.47082949126270712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23:E23" si="36">B7/B3</f>
+        <f t="shared" ref="B23:E23" si="40">B7/B3</f>
         <v>0.41150217828982366</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.51310867935786819</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.25130667642093563</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.18872158713784928</v>
       </c>
-      <c r="F23" s="152">
-        <f t="shared" ref="F23:G23" si="37">F7/F3</f>
+      <c r="F23" s="4">
+        <f t="shared" ref="F23:G23" si="41">F7/F3</f>
         <v>0.18185250236852654</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.17723844331910552</v>
       </c>
       <c r="H23" s="119"/>
       <c r="I23" s="119"/>
       <c r="L23" s="4">
-        <f t="shared" ref="L23:U23" si="38">L7/L3</f>
+        <f t="shared" ref="L23:U23" si="42">L7/L3</f>
         <v>0.28857323713346267</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.29422695012804745</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.24051246219520281</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.19446157826768976</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.19849806320949373</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.18640409293672439</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.21106344689043274</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.16130579760294439</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.17155826697589041</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.18663009054652299</v>
       </c>
       <c r="V23" s="4">
@@ -17381,114 +17611,154 @@
         <v>0.17347218675217316</v>
       </c>
       <c r="Y23" s="4">
-        <f t="shared" ref="Y23:Z23" si="39">Y7/Y3</f>
+        <f t="shared" ref="Y23:Z23" si="43">Y7/Y3</f>
         <v>0.16041224890655831</v>
       </c>
-      <c r="Z23" s="152">
-        <f t="shared" si="39"/>
+      <c r="Z23" s="4">
+        <f t="shared" si="43"/>
         <v>0.16202950727482235</v>
       </c>
-      <c r="AA23" s="7">
-        <f t="shared" ref="AA23" si="40">AA7/AA3</f>
+      <c r="AA23" s="157">
+        <f t="shared" ref="AA23:AF23" si="44">AA7/AA3</f>
         <v>0.20724841363159036</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB23" s="157">
+        <f t="shared" si="44"/>
+        <v>0.15261439942071947</v>
+      </c>
+      <c r="AC23" s="157">
+        <f t="shared" si="44"/>
+        <v>0.13454558497235719</v>
+      </c>
+      <c r="AD23" s="7">
+        <f t="shared" si="44"/>
+        <v>0.12208278440629518</v>
+      </c>
+      <c r="AE23" s="157" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF23" s="157" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="4">
-        <f>B6/B3</f>
+        <f t="shared" ref="B24:G24" si="45">B6/B3</f>
         <v>0.6061773201985039</v>
       </c>
       <c r="C24" s="4">
-        <f>C6/C3</f>
+        <f t="shared" si="45"/>
         <v>0.62571418896595776</v>
       </c>
       <c r="D24" s="4">
-        <f>D6/D3</f>
+        <f t="shared" si="45"/>
         <v>0.39854490174065704</v>
       </c>
       <c r="E24" s="4">
-        <f>E6/E3</f>
+        <f t="shared" si="45"/>
         <v>0.36860364631184372</v>
       </c>
-      <c r="F24" s="152">
-        <f>F6/F3</f>
+      <c r="F24" s="4">
+        <f t="shared" si="45"/>
         <v>0.33482605936507304</v>
       </c>
       <c r="G24" s="7">
-        <f>G6/G3</f>
+        <f t="shared" si="45"/>
         <v>0.30980730460613087</v>
       </c>
       <c r="H24" s="119"/>
       <c r="I24" s="119"/>
       <c r="L24" s="4">
-        <f t="shared" ref="L24:W24" si="41">L6/L3</f>
+        <f t="shared" ref="L24:W24" si="46">L6/L3</f>
         <v>0.39883774770392172</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.4322706193663115</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.39129048874653827</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.37561883904293919</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.35954404210082963</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.35702205027377859</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.38276973298736083</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.37401498946176343</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.35624140780599628</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.34531620030863447</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.31599060482765662</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.32442344045368604</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" ref="X24:Z24" si="42">X6/X3</f>
+        <f t="shared" ref="X24:Z24" si="47">X6/X3</f>
         <v>0.30453322991843468</v>
       </c>
       <c r="Y24" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.29022140166987642</v>
       </c>
-      <c r="Z24" s="152">
-        <f t="shared" si="42"/>
+      <c r="Z24" s="4">
+        <f t="shared" si="47"/>
         <v>0.28872416321624883</v>
       </c>
-      <c r="AA24" s="7">
-        <f t="shared" ref="AA24" si="43">AA6/AA3</f>
+      <c r="AA24" s="157">
+        <f t="shared" ref="AA24:AF24" si="48">AA6/AA3</f>
         <v>0.34838475007824593</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB24" s="157">
+        <f t="shared" si="48"/>
+        <v>0.26736172788523005</v>
+      </c>
+      <c r="AC24" s="157">
+        <f t="shared" si="48"/>
+        <v>0.24289003553861377</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" si="48"/>
+        <v>0.23252718670518469</v>
+      </c>
+      <c r="AE24" s="157" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF24" s="157" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -17496,8 +17766,8 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="157"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="126"/>
       <c r="H25" s="119"/>
       <c r="I25" s="119"/>
       <c r="L25" s="4">
@@ -17505,47 +17775,47 @@
         <v>0.42952636607137623</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" ref="M25:W25" si="44">M8/M3</f>
+        <f t="shared" ref="M25:W25" si="49">M8/M3</f>
         <v>0.42050942120423174</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.3812967619203052</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.36380227644981039</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.31881879302889837</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.32871398067694135</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.31112203900560809</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.29464201453332917</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.25939952702471125</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.24872261713014959</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.2296352831361673</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.20920687104462893</v>
       </c>
       <c r="X25" s="4">
@@ -17553,19 +17823,39 @@
         <v>0.21121862477102116</v>
       </c>
       <c r="Y25" s="4">
-        <f t="shared" ref="Y25:Z25" si="45">Y8/Y3</f>
+        <f t="shared" ref="Y25:Z25" si="50">Y8/Y3</f>
         <v>0.20444779350393874</v>
       </c>
-      <c r="Z25" s="152">
-        <f t="shared" si="45"/>
+      <c r="Z25" s="4">
+        <f t="shared" si="50"/>
         <v>0.19118530811174392</v>
       </c>
-      <c r="AA25" s="7">
-        <f t="shared" ref="AA25" si="46">AA8/AA3</f>
+      <c r="AA25" s="157">
+        <f t="shared" ref="AA25:AF25" si="51">AA8/AA3</f>
         <v>0.22011095817739532</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB25" s="157">
+        <f t="shared" si="51"/>
+        <v>0.18514235932364473</v>
+      </c>
+      <c r="AC25" s="157">
+        <f t="shared" si="51"/>
+        <v>0.16201602674910856</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="51"/>
+        <v>0.1369088944807009</v>
+      </c>
+      <c r="AE25" s="157" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF25" s="157" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -17586,80 +17876,92 @@
         <f>F15/E15-1</f>
         <v>-1.5694292545382016</v>
       </c>
-      <c r="G26" s="159">
+      <c r="G26" s="128">
         <f>G18/F17-1</f>
         <v>2.7867509591326085</v>
       </c>
       <c r="H26" s="50">
         <f>H18/G18-1</f>
-        <v>0.5135135135135136</v>
+        <v>0.97297297297297303</v>
       </c>
       <c r="I26" s="50">
         <f>I18/H18-1</f>
-        <v>0.24999999999999978</v>
+        <v>0.31506849315068486</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4">
-        <f t="shared" ref="P26:X26" si="47">P15/L15-1</f>
+        <f t="shared" ref="P26:X26" si="52">P15/L15-1</f>
         <v>-0.21171258726533537</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.29404675999422736</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.21283178475968523</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-1.4970280340667141</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-1.172623878848901</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-1.1568457973891562</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-1.5772351160443994</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1.4205934850513136</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" si="47"/>
+        <f>X15/T15-1</f>
         <v>5.2807999047732128</v>
       </c>
       <c r="Y26" s="4">
-        <f>Y18/U17-1</f>
-        <v>5.0617172112205413</v>
-      </c>
-      <c r="Z26" s="152">
-        <f>Z18/V17-1</f>
-        <v>1.7218753933291389</v>
-      </c>
-      <c r="AA26" s="7">
-        <f>AA18/W17-1</f>
-        <v>1.1773148003060157</v>
-      </c>
-      <c r="AB26" s="152">
-        <f>AB18/X17-1</f>
-        <v>1.7268155974604391</v>
-      </c>
-      <c r="AC26" s="152">
-        <f>AC18/Y17-1</f>
-        <v>1.1629435008872253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+        <f>Y17/U17-1</f>
+        <v>3.5541136253410484</v>
+      </c>
+      <c r="Z26" s="4">
+        <f>Z17/V17-1</f>
+        <v>0.92914375256077619</v>
+      </c>
+      <c r="AA26" s="157">
+        <f>AA17/W17-1</f>
+        <v>-0.3214900513491733</v>
+      </c>
+      <c r="AB26" s="157">
+        <f>AB17/X17-1</f>
+        <v>0.91146096344126692</v>
+      </c>
+      <c r="AC26" s="157">
+        <f>AC17/Y17-1</f>
+        <v>1.2983687714362797</v>
+      </c>
+      <c r="AD26" s="7">
+        <f>AD17/Z17-1</f>
+        <v>2.1364789648198372</v>
+      </c>
+      <c r="AE26" s="157">
+        <f t="shared" ref="AB26:AF26" si="53">AE18/AA17-1</f>
+        <v>5.7096544697439553</v>
+      </c>
+      <c r="AF26" s="157">
+        <f t="shared" si="53"/>
+        <v>1.194709177642491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>197</v>
       </c>
@@ -17687,51 +17989,51 @@
       <c r="H27" s="50"/>
       <c r="I27" s="50"/>
       <c r="L27" s="38">
-        <f t="shared" ref="L27:W27" si="48">(L15+L7)/L3</f>
+        <f t="shared" ref="L27:W27" si="54">(L15+L7)/L3</f>
         <v>-7.3272299946664218E-2</v>
       </c>
       <c r="M27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>-7.4688133914737928E-2</v>
       </c>
       <c r="N27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>-1.9944102451638013E-2</v>
       </c>
       <c r="O27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>-1.3861070490474114E-2</v>
       </c>
       <c r="P27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>-1.9562816310710929E-2</v>
       </c>
       <c r="Q27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>-0.19271897000063423</v>
       </c>
       <c r="R27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>-4.8154348371976262E-2</v>
       </c>
       <c r="S27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.24942590204158679</v>
       </c>
       <c r="T27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.2035507420228263</v>
       </c>
       <c r="U27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.23936983070106518</v>
       </c>
       <c r="V27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.31749555234261201</v>
       </c>
       <c r="W27" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.35797485000410956</v>
       </c>
       <c r="X27" s="38">
@@ -17739,25 +18041,45 @@
         <v>0.33983459921997411</v>
       </c>
       <c r="Y27" s="38">
-        <f t="shared" ref="Y27:Z27" si="49">(Y15+Y7)/Y3</f>
+        <f t="shared" ref="Y27:Z27" si="55">(Y15+Y7)/Y3</f>
         <v>0.35819911698867779</v>
       </c>
       <c r="Z27" s="38">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.35985422788746219</v>
       </c>
-      <c r="AA27" s="6">
-        <f t="shared" ref="AA27" si="50">(AA15+AA7)/AA3</f>
+      <c r="AA27" s="38">
+        <f t="shared" ref="AA27:AF27" si="56">(AA15+AA7)/AA3</f>
         <v>0.30272537548986789</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB27" s="38">
+        <f t="shared" si="56"/>
+        <v>0.39477063545491059</v>
+      </c>
+      <c r="AC27" s="38">
+        <f t="shared" si="56"/>
+        <v>0.46006912444691972</v>
+      </c>
+      <c r="AD27" s="6">
+        <f t="shared" si="56"/>
+        <v>0.52476013722893733</v>
+      </c>
+      <c r="AE27" s="38" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF27" s="38" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="159"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="50"/>
       <c r="I28" s="50"/>
       <c r="L28" s="38"/>
@@ -17775,32 +18097,32 @@
       <c r="X28" s="38"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="31" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="11">
-        <f>B32+B33-B48-B49</f>
+        <f t="shared" ref="B31:G31" si="57">B32+B33-B48-B49</f>
         <v>567.64999999999986</v>
       </c>
       <c r="C31" s="11">
-        <f>C32+C33-C48-C49</f>
+        <f t="shared" si="57"/>
         <v>1769.0980000000002</v>
       </c>
       <c r="D31" s="11">
-        <f>D32+D33-D48-D49</f>
+        <f t="shared" si="57"/>
         <v>2527.7559999999999</v>
       </c>
       <c r="E31" s="11">
-        <f>E32+E33-E48-E49</f>
+        <f t="shared" si="57"/>
         <v>2629.739</v>
       </c>
-      <c r="F31" s="149">
-        <f>F32+F33-F48-F49</f>
+      <c r="F31" s="11">
+        <f t="shared" si="57"/>
         <v>3672.7020000000002</v>
       </c>
       <c r="G31" s="14">
-        <f>G32+G33-G48-G49</f>
+        <f t="shared" si="57"/>
         <v>5228.3240000000005</v>
       </c>
       <c r="L31" s="11">
@@ -17808,71 +18130,87 @@
         <v>0</v>
       </c>
       <c r="M31" s="11">
-        <f t="shared" ref="M31:AA31" si="51">M32+M33-M48-M49</f>
+        <f t="shared" ref="M31:AF31" si="58">M32+M33-M48-M49</f>
         <v>0</v>
       </c>
       <c r="N31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>2527.7559999999999</v>
       </c>
       <c r="P31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>2537.4930000000004</v>
       </c>
       <c r="Q31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>2636.9320000000002</v>
       </c>
       <c r="R31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>2769.578</v>
       </c>
       <c r="S31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>2629.739</v>
       </c>
       <c r="T31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>2912.319</v>
       </c>
       <c r="U31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>3100.1529999999998</v>
       </c>
       <c r="V31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>3281.34</v>
       </c>
       <c r="W31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>3672.7020000000002</v>
       </c>
       <c r="X31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>3866.2490000000003</v>
       </c>
       <c r="Y31" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>3996.9320000000002</v>
       </c>
-      <c r="Z31" s="149">
-        <f t="shared" si="51"/>
+      <c r="Z31" s="11">
+        <f t="shared" si="58"/>
         <v>4560.9780000000001</v>
       </c>
-      <c r="AA31" s="14">
-        <f t="shared" si="51"/>
+      <c r="AA31" s="154">
+        <f t="shared" si="58"/>
         <v>5228.3240000000005</v>
       </c>
-      <c r="AB31" s="149"/>
-      <c r="AC31" s="149"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="149"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB31" s="154">
+        <f t="shared" si="58"/>
+        <v>5429.2260000000006</v>
+      </c>
+      <c r="AC31" s="154">
+        <f t="shared" si="58"/>
+        <v>5998.9310000000005</v>
+      </c>
+      <c r="AD31" s="14">
+        <f t="shared" si="58"/>
+        <v>6436.2470000000012</v>
+      </c>
+      <c r="AE31" s="154">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="154">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -17891,7 +18229,7 @@
       <c r="E32" s="10">
         <v>2598.54</v>
       </c>
-      <c r="F32" s="147">
+      <c r="F32" s="10">
         <v>831.04700000000003</v>
       </c>
       <c r="G32" s="15">
@@ -17941,18 +18279,24 @@
       <c r="Y32" s="10">
         <v>512.65899999999999</v>
       </c>
-      <c r="Z32" s="147">
+      <c r="Z32" s="10">
         <v>768.71</v>
       </c>
-      <c r="AA32" s="15">
+      <c r="AA32" s="152">
         <v>2098.5239999999999</v>
       </c>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="147"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="147"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB32" s="10">
+        <v>993.46400000000006</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>929.54700000000003</v>
+      </c>
+      <c r="AD32" s="15">
+        <v>1615.9670000000001</v>
+      </c>
+      <c r="AE32" s="10"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -17968,18 +18312,18 @@
       <c r="E33" s="10">
         <v>35.134999999999998</v>
       </c>
-      <c r="F33" s="147">
+      <c r="F33" s="10">
         <v>2843.1320000000001</v>
       </c>
       <c r="G33" s="15">
-        <f t="shared" ref="G33:G35" si="52">AA33</f>
+        <f t="shared" ref="G33:G35" si="59">AA33</f>
         <v>3131.4630000000002</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10">
-        <f t="shared" ref="O33:O35" si="53">D33</f>
+        <f t="shared" ref="O33:O35" si="60">D33</f>
         <v>234.15299999999999</v>
       </c>
       <c r="P33" s="10">
@@ -17992,7 +18336,7 @@
         <v>343.26400000000001</v>
       </c>
       <c r="S33" s="10">
-        <f t="shared" ref="S33:S35" si="54">E33</f>
+        <f t="shared" ref="S33:S35" si="61">E33</f>
         <v>35.134999999999998</v>
       </c>
       <c r="T33" s="10">
@@ -18005,7 +18349,7 @@
         <v>2243.2640000000001</v>
       </c>
       <c r="W33" s="10">
-        <f t="shared" ref="W33:W35" si="55">F33</f>
+        <f t="shared" ref="W33:W35" si="62">F33</f>
         <v>2843.1320000000001</v>
       </c>
       <c r="X33" s="10">
@@ -18014,18 +18358,24 @@
       <c r="Y33" s="10">
         <v>3485.8</v>
       </c>
-      <c r="Z33" s="147">
+      <c r="Z33" s="10">
         <v>3795.9490000000001</v>
       </c>
-      <c r="AA33" s="15">
+      <c r="AA33" s="152">
         <v>3131.4630000000002</v>
       </c>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="147"/>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="147"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB33" s="10">
+        <v>4437.2250000000004</v>
+      </c>
+      <c r="AC33" s="10">
+        <v>5070.875</v>
+      </c>
+      <c r="AD33" s="15">
+        <v>4821.8500000000004</v>
+      </c>
+      <c r="AE33" s="10"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -18041,18 +18391,18 @@
       <c r="E34" s="10">
         <v>258.346</v>
       </c>
-      <c r="F34" s="147">
+      <c r="F34" s="10">
         <v>364.78399999999999</v>
       </c>
       <c r="G34" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>575.048</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>190.923</v>
       </c>
       <c r="P34" s="10">
@@ -18065,7 +18415,7 @@
         <v>57.341999999999999</v>
       </c>
       <c r="S34" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>258.346</v>
       </c>
       <c r="T34" s="10">
@@ -18078,7 +18428,7 @@
         <v>430.26900000000001</v>
       </c>
       <c r="W34" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>364.78399999999999</v>
       </c>
       <c r="X34" s="10">
@@ -18087,18 +18437,24 @@
       <c r="Y34" s="10">
         <v>659.33900000000006</v>
       </c>
-      <c r="Z34" s="147">
+      <c r="Z34" s="10">
         <v>668.11</v>
       </c>
-      <c r="AA34" s="15">
+      <c r="AA34" s="152">
         <v>575.048</v>
       </c>
-      <c r="AB34" s="147"/>
-      <c r="AC34" s="147"/>
-      <c r="AD34" s="147"/>
-      <c r="AE34" s="147"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB34" s="10">
+        <v>725.20500000000004</v>
+      </c>
+      <c r="AC34" s="10">
+        <v>747.48400000000004</v>
+      </c>
+      <c r="AD34" s="15">
+        <v>1005.91</v>
+      </c>
+      <c r="AE34" s="10"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -18114,18 +18470,18 @@
       <c r="E35" s="10">
         <v>149.55600000000001</v>
       </c>
-      <c r="F35" s="147">
+      <c r="F35" s="10">
         <v>99.655000000000001</v>
       </c>
       <c r="G35" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>129.25399999999999</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>110.872</v>
       </c>
       <c r="P35" s="10">
@@ -18138,7 +18494,7 @@
         <v>114.157</v>
       </c>
       <c r="S35" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>149.55600000000001</v>
       </c>
       <c r="T35" s="10">
@@ -18151,7 +18507,7 @@
         <v>95.554000000000002</v>
       </c>
       <c r="W35" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>99.655000000000001</v>
       </c>
       <c r="X35" s="10">
@@ -18160,115 +18516,137 @@
       <c r="Y35" s="10">
         <v>115.712</v>
       </c>
-      <c r="Z35" s="147">
+      <c r="Z35" s="10">
         <v>119.193</v>
       </c>
-      <c r="AA35" s="15">
+      <c r="AA35" s="152">
         <v>129.25399999999999</v>
       </c>
-      <c r="AB35" s="147"/>
-      <c r="AC35" s="147"/>
-      <c r="AD35" s="147"/>
-      <c r="AE35" s="147"/>
-    </row>
-    <row r="36" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB35" s="10">
+        <v>126.705</v>
+      </c>
+      <c r="AC35" s="10">
+        <v>142.48699999999999</v>
+      </c>
+      <c r="AD35" s="15">
+        <v>142.429</v>
+      </c>
+      <c r="AE35" s="10"/>
+    </row>
+    <row r="36" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="11">
-        <f>SUM(B32:B35)</f>
+        <f t="shared" ref="B36:G36" si="63">SUM(B32:B35)</f>
         <v>1214.153</v>
       </c>
       <c r="C36" s="11">
-        <f>SUM(C32:C35)</f>
+        <f t="shared" si="63"/>
         <v>2257.4290000000001</v>
       </c>
       <c r="D36" s="11">
-        <f>SUM(D32:D35)</f>
+        <f t="shared" si="63"/>
         <v>2863.2499999999995</v>
       </c>
       <c r="E36" s="11">
-        <f>SUM(E32:E35)</f>
+        <f t="shared" si="63"/>
         <v>3041.5770000000002</v>
       </c>
-      <c r="F36" s="149">
-        <f>SUM(F32:F35)</f>
+      <c r="F36" s="11">
+        <f t="shared" si="63"/>
         <v>4138.6180000000004</v>
       </c>
       <c r="G36" s="14">
-        <f>SUM(G32:G35)</f>
+        <f t="shared" si="63"/>
         <v>5934.2889999999998</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" ref="L36:W36" si="56">SUM(L32:L35)</f>
+        <f t="shared" ref="L36:W36" si="64">SUM(L32:L35)</f>
         <v>0</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>2863.2499999999995</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>2927.3740000000003</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>2902.4390000000003</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>2946.61</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>3041.5770000000002</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>3256.1469999999999</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>3576.9139999999998</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>3809.3969999999999</v>
       </c>
       <c r="W36" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>4138.6180000000004</v>
       </c>
       <c r="X36" s="11">
-        <f t="shared" ref="X36:Z36" si="57">SUM(X32:X35)</f>
+        <f t="shared" ref="X36:Z36" si="65">SUM(X32:X35)</f>
         <v>4436.0640000000003</v>
       </c>
       <c r="Y36" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>4773.5100000000011</v>
       </c>
-      <c r="Z36" s="149">
-        <f t="shared" si="57"/>
+      <c r="Z36" s="11">
+        <f t="shared" si="65"/>
         <v>5351.9619999999995</v>
       </c>
-      <c r="AA36" s="14">
-        <f t="shared" ref="AA36" si="58">SUM(AA32:AA35)</f>
+      <c r="AA36" s="154">
+        <f t="shared" ref="AA36:AF36" si="66">SUM(AA32:AA35)</f>
         <v>5934.2889999999998</v>
       </c>
-      <c r="AB36" s="149"/>
-      <c r="AC36" s="149"/>
-      <c r="AD36" s="149"/>
-      <c r="AE36" s="149"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB36" s="154">
+        <f t="shared" si="66"/>
+        <v>6282.5990000000002</v>
+      </c>
+      <c r="AC36" s="154">
+        <f t="shared" si="66"/>
+        <v>6890.3930000000009</v>
+      </c>
+      <c r="AD36" s="14">
+        <f t="shared" si="66"/>
+        <v>7586.1560000000009</v>
+      </c>
+      <c r="AE36" s="154">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="154">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -18285,18 +18663,18 @@
       <c r="E37" s="10">
         <v>69.17</v>
       </c>
-      <c r="F37" s="147">
+      <c r="F37" s="10">
         <v>47.758000000000003</v>
       </c>
       <c r="G37" s="15">
-        <f t="shared" ref="G37:G39" si="59">AA37</f>
+        <f t="shared" ref="G37:G39" si="67">AA37</f>
         <v>39.637999999999998</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10">
-        <f t="shared" ref="O37:O39" si="60">D37</f>
+        <f t="shared" ref="O37:O39" si="68">D37</f>
         <v>31.303999999999998</v>
       </c>
       <c r="P37" s="10">
@@ -18309,7 +18687,7 @@
         <v>57.822000000000003</v>
       </c>
       <c r="S37" s="10">
-        <f t="shared" ref="S37:S39" si="61">E37</f>
+        <f t="shared" ref="S37:S39" si="69">E37</f>
         <v>69.17</v>
       </c>
       <c r="T37" s="10">
@@ -18322,7 +18700,7 @@
         <v>50.133000000000003</v>
       </c>
       <c r="W37" s="10">
-        <f t="shared" ref="W37:W39" si="62">F37</f>
+        <f t="shared" ref="W37:W39" si="70">F37</f>
         <v>47.758000000000003</v>
       </c>
       <c r="X37" s="10">
@@ -18331,18 +18709,24 @@
       <c r="Y37" s="10">
         <v>43.482999999999997</v>
       </c>
-      <c r="Z37" s="147">
+      <c r="Z37" s="10">
         <v>40.344999999999999</v>
       </c>
-      <c r="AA37" s="15">
+      <c r="AA37" s="152">
         <v>39.637999999999998</v>
       </c>
-      <c r="AB37" s="147"/>
-      <c r="AC37" s="147"/>
-      <c r="AD37" s="147"/>
-      <c r="AE37" s="147"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB37" s="10">
+        <v>39.668999999999997</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>43.523000000000003</v>
+      </c>
+      <c r="AD37" s="15">
+        <v>45.706000000000003</v>
+      </c>
+      <c r="AE37" s="10"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -18356,18 +18740,18 @@
       <c r="E38" s="10">
         <v>200.24</v>
       </c>
-      <c r="F38" s="147">
+      <c r="F38" s="10">
         <v>182.863</v>
       </c>
       <c r="G38" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>200.74</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>216.898</v>
       </c>
       <c r="P38" s="10">
@@ -18380,7 +18764,7 @@
         <v>199.35900000000001</v>
       </c>
       <c r="S38" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>200.24</v>
       </c>
       <c r="T38" s="10">
@@ -18393,7 +18777,7 @@
         <v>190.191</v>
       </c>
       <c r="W38" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>182.863</v>
       </c>
       <c r="X38" s="10">
@@ -18402,18 +18786,24 @@
       <c r="Y38" s="10">
         <v>213.453</v>
       </c>
-      <c r="Z38" s="147">
+      <c r="Z38" s="10">
         <v>211.57</v>
       </c>
-      <c r="AA38" s="15">
+      <c r="AA38" s="152">
         <v>200.74</v>
       </c>
-      <c r="AB38" s="147"/>
-      <c r="AC38" s="147"/>
-      <c r="AD38" s="147"/>
-      <c r="AE38" s="147"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB38" s="10">
+        <v>209.34800000000001</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>203.47399999999999</v>
+      </c>
+      <c r="AD38" s="15">
+        <v>204.315</v>
+      </c>
+      <c r="AE38" s="10"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -18431,18 +18821,18 @@
       <c r="E39" s="10">
         <v>150.25200000000001</v>
       </c>
-      <c r="F39" s="147">
+      <c r="F39" s="10">
         <v>153.18600000000001</v>
       </c>
       <c r="G39" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>166.21700000000001</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>135.99799999999999</v>
       </c>
       <c r="P39" s="10">
@@ -18458,7 +18848,7 @@
         <v>115.044</v>
       </c>
       <c r="S39" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>150.25200000000001</v>
       </c>
       <c r="T39" s="10">
@@ -18472,7 +18862,7 @@
         <v>143.696</v>
       </c>
       <c r="W39" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>153.18600000000001</v>
       </c>
       <c r="X39" s="10">
@@ -18481,115 +18871,137 @@
       <c r="Y39" s="10">
         <v>161.434</v>
       </c>
-      <c r="Z39" s="147">
+      <c r="Z39" s="10">
         <v>164.22</v>
       </c>
-      <c r="AA39" s="15">
+      <c r="AA39" s="152">
         <v>166.21700000000001</v>
       </c>
-      <c r="AB39" s="147"/>
-      <c r="AC39" s="147"/>
-      <c r="AD39" s="147"/>
-      <c r="AE39" s="147"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB39" s="10">
+        <v>205.30099999999999</v>
+      </c>
+      <c r="AC39" s="10">
+        <v>228.298</v>
+      </c>
+      <c r="AD39" s="15">
+        <v>277.78300000000002</v>
+      </c>
+      <c r="AE39" s="10"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="11">
-        <f>SUM(B36:B39)</f>
+        <f t="shared" ref="B40:G40" si="71">SUM(B36:B39)</f>
         <v>1594.0250000000001</v>
       </c>
       <c r="C40" s="11">
-        <f>SUM(C36:C39)</f>
+        <f t="shared" si="71"/>
         <v>2690.5039999999999</v>
       </c>
       <c r="D40" s="11">
-        <f>SUM(D36:D39)</f>
+        <f t="shared" si="71"/>
         <v>3247.45</v>
       </c>
       <c r="E40" s="11">
-        <f>SUM(E36:E39)</f>
+        <f t="shared" si="71"/>
         <v>3461.239</v>
       </c>
-      <c r="F40" s="149">
-        <f>SUM(F36:F39)</f>
+      <c r="F40" s="11">
+        <f t="shared" si="71"/>
         <v>4522.4250000000002</v>
       </c>
       <c r="G40" s="14">
-        <f>SUM(G36:G39)</f>
+        <f t="shared" si="71"/>
         <v>6340.8839999999991</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" ref="L40:W40" si="63">SUM(L36:L39)</f>
+        <f t="shared" ref="L40:W40" si="72">SUM(L36:L39)</f>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>3247.45</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>3319.1790000000001</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>3282.3379999999997</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>3318.835</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>3461.239</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>3683.1379999999999</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>3980.2640000000001</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>4193.4169999999995</v>
       </c>
       <c r="W40" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>4522.4250000000002</v>
       </c>
       <c r="X40" s="11">
-        <f t="shared" ref="X40:Z40" si="64">SUM(X36:X39)</f>
+        <f t="shared" ref="X40:Z40" si="73">SUM(X36:X39)</f>
         <v>4807.0790000000006</v>
       </c>
       <c r="Y40" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>5191.8800000000019</v>
       </c>
-      <c r="Z40" s="149">
-        <f t="shared" si="64"/>
+      <c r="Z40" s="11">
+        <f t="shared" si="73"/>
         <v>5768.0969999999998</v>
       </c>
-      <c r="AA40" s="14">
-        <f t="shared" ref="AA40" si="65">SUM(AA36:AA39)</f>
+      <c r="AA40" s="154">
+        <f t="shared" ref="AA40:AF40" si="74">SUM(AA36:AA39)</f>
         <v>6340.8839999999991</v>
       </c>
-      <c r="AB40" s="149"/>
-      <c r="AC40" s="149"/>
-      <c r="AD40" s="149"/>
-      <c r="AE40" s="149"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB40" s="154">
+        <f t="shared" si="74"/>
+        <v>6736.9170000000004</v>
+      </c>
+      <c r="AC40" s="154">
+        <f t="shared" si="74"/>
+        <v>7365.688000000001</v>
+      </c>
+      <c r="AD40" s="14">
+        <f t="shared" si="74"/>
+        <v>8113.9600000000009</v>
+      </c>
+      <c r="AE40" s="154">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="154">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -18605,18 +19017,18 @@
       <c r="E41" s="10">
         <v>44.787999999999997</v>
       </c>
-      <c r="F41" s="147">
+      <c r="F41" s="10">
         <v>12.122</v>
       </c>
       <c r="G41" s="15">
-        <f t="shared" ref="G41:G45" si="66">AA41</f>
+        <f t="shared" ref="G41:G45" si="75">AA41</f>
         <v>0.10299999999999999</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10">
-        <f t="shared" ref="O41:O45" si="67">D41</f>
+        <f t="shared" ref="O41:O45" si="76">D41</f>
         <v>74.906999999999996</v>
       </c>
       <c r="P41" s="10">
@@ -18629,7 +19041,7 @@
         <v>59.506999999999998</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" ref="S41:S45" si="68">E41</f>
+        <f t="shared" ref="S41:S45" si="77">E41</f>
         <v>44.787999999999997</v>
       </c>
       <c r="T41" s="10">
@@ -18642,7 +19054,7 @@
         <v>9.4749999999999996</v>
       </c>
       <c r="W41" s="10">
-        <f t="shared" ref="W41:W45" si="69">F41</f>
+        <f t="shared" ref="W41:W45" si="78">F41</f>
         <v>12.122</v>
       </c>
       <c r="X41" s="10">
@@ -18651,18 +19063,24 @@
       <c r="Y41" s="10">
         <v>67.344999999999999</v>
       </c>
-      <c r="Z41" s="147">
+      <c r="Z41" s="10">
         <v>27.021000000000001</v>
       </c>
-      <c r="AA41" s="15">
+      <c r="AA41" s="152">
         <v>0.10299999999999999</v>
       </c>
-      <c r="AB41" s="147"/>
-      <c r="AC41" s="147"/>
-      <c r="AD41" s="147"/>
-      <c r="AE41" s="147"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB41" s="10">
+        <v>2.33</v>
+      </c>
+      <c r="AC41" s="10">
+        <v>10.773999999999999</v>
+      </c>
+      <c r="AD41" s="15">
+        <v>67.503</v>
+      </c>
+      <c r="AE41" s="10"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -18678,18 +19096,18 @@
       <c r="E42" s="10">
         <v>172.715</v>
       </c>
-      <c r="F42" s="147">
+      <c r="F42" s="10">
         <v>222.99100000000001</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>427.04599999999999</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>155.80600000000001</v>
       </c>
       <c r="P42" s="10">
@@ -18702,7 +19120,7 @@
         <v>164.697</v>
       </c>
       <c r="S42" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>172.715</v>
       </c>
       <c r="T42" s="10">
@@ -18715,7 +19133,7 @@
         <v>174.75299999999999</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>222.99100000000001</v>
       </c>
       <c r="X42" s="10">
@@ -18724,18 +19142,24 @@
       <c r="Y42" s="10">
         <v>195.489</v>
       </c>
-      <c r="Z42" s="147">
+      <c r="Z42" s="10">
         <v>265.24400000000003</v>
       </c>
-      <c r="AA42" s="15">
+      <c r="AA42" s="152">
         <v>427.04599999999999</v>
       </c>
-      <c r="AB42" s="147"/>
-      <c r="AC42" s="147"/>
-      <c r="AD42" s="147"/>
-      <c r="AE42" s="147"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB42" s="10">
+        <v>371.06099999999998</v>
+      </c>
+      <c r="AC42" s="10">
+        <v>393.62299999999999</v>
+      </c>
+      <c r="AD42" s="15">
+        <v>381.73700000000002</v>
+      </c>
+      <c r="AE42" s="10"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -18751,18 +19175,18 @@
       <c r="E43" s="10">
         <v>183.35</v>
       </c>
-      <c r="F43" s="147">
+      <c r="F43" s="10">
         <v>246.90100000000001</v>
       </c>
       <c r="G43" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>259.62400000000002</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>227.816</v>
       </c>
       <c r="P43" s="10">
@@ -18775,7 +19199,7 @@
         <v>189.77099999999999</v>
       </c>
       <c r="S43" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>183.35</v>
       </c>
       <c r="T43" s="10">
@@ -18788,7 +19212,7 @@
         <v>223.50700000000001</v>
       </c>
       <c r="W43" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>246.90100000000001</v>
       </c>
       <c r="X43" s="10">
@@ -18797,18 +19221,24 @@
       <c r="Y43" s="10">
         <v>278.44099999999997</v>
       </c>
-      <c r="Z43" s="147">
+      <c r="Z43" s="10">
         <v>236.608</v>
       </c>
-      <c r="AA43" s="15">
+      <c r="AA43" s="152">
         <v>259.62400000000002</v>
       </c>
-      <c r="AB43" s="147"/>
-      <c r="AC43" s="147"/>
-      <c r="AD43" s="147"/>
-      <c r="AE43" s="147"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB43" s="10">
+        <v>318.55599999999998</v>
+      </c>
+      <c r="AC43" s="10">
+        <v>376.78399999999999</v>
+      </c>
+      <c r="AD43" s="15">
+        <v>316.72199999999998</v>
+      </c>
+      <c r="AE43" s="10"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -18824,18 +19254,18 @@
       <c r="E44" s="10">
         <v>141.989</v>
       </c>
-      <c r="F44" s="147">
+      <c r="F44" s="10">
         <v>209.828</v>
       </c>
       <c r="G44" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>265.25200000000001</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>161.60499999999999</v>
       </c>
       <c r="P44" s="10">
@@ -18848,7 +19278,7 @@
         <v>234.142</v>
       </c>
       <c r="S44" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>141.989</v>
       </c>
       <c r="T44" s="10">
@@ -18861,7 +19291,7 @@
         <v>228.98599999999999</v>
       </c>
       <c r="W44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>209.828</v>
       </c>
       <c r="X44" s="10">
@@ -18870,18 +19300,24 @@
       <c r="Y44" s="10">
         <v>221.51900000000001</v>
       </c>
-      <c r="Z44" s="147">
+      <c r="Z44" s="10">
         <v>366.94600000000003</v>
       </c>
-      <c r="AA44" s="15">
+      <c r="AA44" s="152">
         <v>265.25200000000001</v>
       </c>
-      <c r="AB44" s="147"/>
-      <c r="AC44" s="147"/>
-      <c r="AD44" s="147"/>
-      <c r="AE44" s="147"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB44" s="10">
+        <v>231.077</v>
+      </c>
+      <c r="AC44" s="10">
+        <v>262.99400000000003</v>
+      </c>
+      <c r="AD44" s="15">
+        <v>368.17</v>
+      </c>
+      <c r="AE44" s="10"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -18897,18 +19333,18 @@
       <c r="E45" s="10">
         <v>45.098999999999997</v>
       </c>
-      <c r="F45" s="147">
+      <c r="F45" s="10">
         <v>54.176000000000002</v>
       </c>
       <c r="G45" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>43.993000000000002</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>39.927</v>
       </c>
       <c r="P45" s="10">
@@ -18921,7 +19357,7 @@
         <v>40.232999999999997</v>
       </c>
       <c r="S45" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>45.098999999999997</v>
       </c>
       <c r="T45" s="10">
@@ -18934,7 +19370,7 @@
         <v>52.204000000000001</v>
       </c>
       <c r="W45" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>54.176000000000002</v>
       </c>
       <c r="X45" s="10">
@@ -18943,115 +19379,137 @@
       <c r="Y45" s="10">
         <v>44.125</v>
       </c>
-      <c r="Z45" s="147">
+      <c r="Z45" s="10">
         <v>47.637</v>
       </c>
-      <c r="AA45" s="15">
+      <c r="AA45" s="152">
         <v>43.993000000000002</v>
       </c>
-      <c r="AB45" s="147"/>
-      <c r="AC45" s="147"/>
-      <c r="AD45" s="147"/>
-      <c r="AE45" s="147"/>
-    </row>
-    <row r="46" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB45" s="10">
+        <v>44.418999999999997</v>
+      </c>
+      <c r="AC45" s="10">
+        <v>45.465000000000003</v>
+      </c>
+      <c r="AD45" s="15">
+        <v>46.271000000000001</v>
+      </c>
+      <c r="AE45" s="10"/>
+    </row>
+    <row r="46" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="11">
-        <f>SUM(B41:B45)</f>
+        <f t="shared" ref="B46:G46" si="79">SUM(B41:B45)</f>
         <v>728.59799999999996</v>
       </c>
       <c r="C46" s="11">
-        <f>SUM(C41:C45)</f>
+        <f t="shared" si="79"/>
         <v>603.82299999999987</v>
       </c>
       <c r="D46" s="11">
-        <f>SUM(D41:D45)</f>
+        <f t="shared" si="79"/>
         <v>660.06100000000004</v>
       </c>
       <c r="E46" s="11">
-        <f>SUM(E41:E45)</f>
+        <f t="shared" si="79"/>
         <v>587.94100000000003</v>
       </c>
-      <c r="F46" s="149">
-        <f>SUM(F41:F45)</f>
+      <c r="F46" s="11">
+        <f t="shared" si="79"/>
         <v>746.01800000000003</v>
       </c>
       <c r="G46" s="14">
-        <f>SUM(G41:G45)</f>
+        <f t="shared" si="79"/>
         <v>996.01800000000014</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" ref="L46:W46" si="70">SUM(L41:L45)</f>
+        <f t="shared" ref="L46:W46" si="80">SUM(L41:L45)</f>
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>660.06100000000004</v>
       </c>
       <c r="P46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>669.10399999999993</v>
       </c>
       <c r="Q46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>665.74200000000008</v>
       </c>
       <c r="R46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>688.34999999999991</v>
       </c>
       <c r="S46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>587.94100000000003</v>
       </c>
       <c r="T46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>601.41300000000001</v>
       </c>
       <c r="U46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>685.38400000000001</v>
       </c>
       <c r="V46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>688.92499999999995</v>
       </c>
       <c r="W46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>746.01800000000003</v>
       </c>
       <c r="X46" s="11">
-        <f t="shared" ref="X46:Z46" si="71">SUM(X41:X45)</f>
+        <f t="shared" ref="X46:Z46" si="81">SUM(X41:X45)</f>
         <v>750.553</v>
       </c>
       <c r="Y46" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>806.91899999999998</v>
       </c>
-      <c r="Z46" s="149">
-        <f t="shared" si="71"/>
+      <c r="Z46" s="11">
+        <f t="shared" si="81"/>
         <v>943.45600000000013</v>
       </c>
-      <c r="AA46" s="14">
-        <f t="shared" ref="AA46" si="72">SUM(AA41:AA45)</f>
+      <c r="AA46" s="154">
+        <f t="shared" ref="AA46:AF46" si="82">SUM(AA41:AA45)</f>
         <v>996.01800000000014</v>
       </c>
-      <c r="AB46" s="149"/>
-      <c r="AC46" s="149"/>
-      <c r="AD46" s="149"/>
-      <c r="AE46" s="149"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB46" s="154">
+        <f t="shared" si="82"/>
+        <v>967.44299999999987</v>
+      </c>
+      <c r="AC46" s="154">
+        <f t="shared" si="82"/>
+        <v>1089.6400000000001</v>
+      </c>
+      <c r="AD46" s="14">
+        <f t="shared" si="82"/>
+        <v>1180.403</v>
+      </c>
+      <c r="AE46" s="154">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="154">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -19067,18 +19525,18 @@
       <c r="E47" s="10">
         <v>9.9649999999999999</v>
       </c>
-      <c r="F47" s="147">
+      <c r="F47" s="10">
         <v>28.047000000000001</v>
       </c>
       <c r="G47" s="15">
-        <f t="shared" ref="G47:G51" si="73">AA47</f>
+        <f t="shared" ref="G47:G51" si="83">AA47</f>
         <v>39.884999999999998</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10">
-        <f t="shared" ref="O47:O51" si="74">D47</f>
+        <f t="shared" ref="O47:O51" si="84">D47</f>
         <v>40.216999999999999</v>
       </c>
       <c r="P47" s="10">
@@ -19091,7 +19549,7 @@
         <v>31.382999999999999</v>
       </c>
       <c r="S47" s="10">
-        <f t="shared" ref="S47:S51" si="75">E47</f>
+        <f t="shared" ref="S47:S51" si="85">E47</f>
         <v>9.9649999999999999</v>
       </c>
       <c r="T47" s="10">
@@ -19104,7 +19562,7 @@
         <v>34.880000000000003</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" ref="W47:W51" si="76">F47</f>
+        <f t="shared" ref="W47:W51" si="86">F47</f>
         <v>28.047000000000001</v>
       </c>
       <c r="X47" s="10">
@@ -19113,18 +19571,24 @@
       <c r="Y47" s="10">
         <v>15.648999999999999</v>
       </c>
-      <c r="Z47" s="147">
+      <c r="Z47" s="10">
         <v>7.8250000000000002</v>
       </c>
-      <c r="AA47" s="15">
+      <c r="AA47" s="152">
         <v>39.884999999999998</v>
       </c>
-      <c r="AB47" s="147"/>
-      <c r="AC47" s="147"/>
-      <c r="AD47" s="147"/>
-      <c r="AE47" s="147"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB47" s="10">
+        <v>36.372</v>
+      </c>
+      <c r="AC47" s="10">
+        <v>44.637999999999998</v>
+      </c>
+      <c r="AD47" s="15">
+        <v>43.901000000000003</v>
+      </c>
+      <c r="AE47" s="10"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -19140,18 +19604,18 @@
       <c r="E48" s="10">
         <v>3.9359999999999999</v>
       </c>
-      <c r="F48" s="147">
+      <c r="F48" s="10">
         <v>1.4770000000000001</v>
       </c>
       <c r="G48" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>1.663</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>33.698999999999998</v>
       </c>
       <c r="P48" s="10">
@@ -19164,7 +19628,7 @@
         <v>5.5330000000000004</v>
       </c>
       <c r="S48" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>3.9359999999999999</v>
       </c>
       <c r="T48" s="10">
@@ -19177,7 +19641,7 @@
         <v>2.234</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>1.4770000000000001</v>
       </c>
       <c r="X48" s="10">
@@ -19186,18 +19650,24 @@
       <c r="Y48" s="10">
         <v>1.5269999999999999</v>
       </c>
-      <c r="Z48" s="147">
+      <c r="Z48" s="10">
         <v>3.681</v>
       </c>
-      <c r="AA48" s="15">
+      <c r="AA48" s="152">
         <v>1.663</v>
       </c>
-      <c r="AB48" s="147"/>
-      <c r="AC48" s="147"/>
-      <c r="AD48" s="147"/>
-      <c r="AE48" s="147"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB48" s="10">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="AD48" s="15">
+        <v>1.57</v>
+      </c>
+      <c r="AE48" s="10"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -19213,18 +19683,18 @@
       <c r="E49" s="10">
         <v>0</v>
       </c>
-      <c r="F49" s="147">
+      <c r="F49" s="10">
         <v>0</v>
       </c>
       <c r="G49" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="P49" s="10">
@@ -19237,7 +19707,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="T49" s="10">
@@ -19250,19 +19720,19 @@
         <v>0</v>
       </c>
       <c r="W49" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="X49" s="10"/>
       <c r="Y49" s="10"/>
-      <c r="Z49" s="147"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="147"/>
-      <c r="AC49" s="147"/>
-      <c r="AD49" s="147"/>
-      <c r="AE49" s="147"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="152"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="10"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -19278,18 +19748,18 @@
       <c r="E50" s="10">
         <v>204.30500000000001</v>
       </c>
-      <c r="F50" s="147">
+      <c r="F50" s="10">
         <v>175.21600000000001</v>
       </c>
       <c r="G50" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>195.226</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>220.14599999999999</v>
       </c>
       <c r="P50" s="10">
@@ -19302,7 +19772,7 @@
         <v>204.90299999999999</v>
       </c>
       <c r="S50" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>204.30500000000001</v>
       </c>
       <c r="T50" s="10">
@@ -19315,7 +19785,7 @@
         <v>184.06700000000001</v>
       </c>
       <c r="W50" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>175.21600000000001</v>
       </c>
       <c r="X50" s="10">
@@ -19324,18 +19794,24 @@
       <c r="Y50" s="10">
         <v>214.334</v>
       </c>
-      <c r="Z50" s="147">
+      <c r="Z50" s="10">
         <v>207.27799999999999</v>
       </c>
-      <c r="AA50" s="15">
+      <c r="AA50" s="152">
         <v>195.226</v>
       </c>
-      <c r="AB50" s="147"/>
-      <c r="AC50" s="147"/>
-      <c r="AD50" s="147"/>
-      <c r="AE50" s="147"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB50" s="10">
+        <v>200.17699999999999</v>
+      </c>
+      <c r="AC50" s="10">
+        <v>192.34700000000001</v>
+      </c>
+      <c r="AD50" s="15">
+        <v>189.16499999999999</v>
+      </c>
+      <c r="AE50" s="10"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -19351,18 +19827,18 @@
       <c r="E51" s="10">
         <v>12.654999999999999</v>
       </c>
-      <c r="F51" s="147">
+      <c r="F51" s="10">
         <v>10.702</v>
       </c>
       <c r="G51" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>13.685</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>2.2970000000000002</v>
       </c>
       <c r="P51" s="10">
@@ -19375,7 +19851,7 @@
         <v>2.0510000000000002</v>
       </c>
       <c r="S51" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>12.654999999999999</v>
       </c>
       <c r="T51" s="10">
@@ -19388,7 +19864,7 @@
         <v>11.414</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>10.702</v>
       </c>
       <c r="X51" s="10">
@@ -19397,135 +19873,157 @@
       <c r="Y51" s="10">
         <v>15.645</v>
       </c>
-      <c r="Z51" s="147">
+      <c r="Z51" s="10">
         <v>14.494999999999999</v>
       </c>
-      <c r="AA51" s="15">
+      <c r="AA51" s="152">
         <v>13.685</v>
       </c>
-      <c r="AB51" s="147"/>
-      <c r="AC51" s="147"/>
-      <c r="AD51" s="147"/>
-      <c r="AE51" s="147"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB51" s="10">
+        <v>12.489000000000001</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>12.007999999999999</v>
+      </c>
+      <c r="AD51" s="15">
+        <v>10.651999999999999</v>
+      </c>
+      <c r="AE51" s="10"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="11">
-        <f>SUM(B46:B51)</f>
+        <f t="shared" ref="B52:G52" si="87">SUM(B46:B51)</f>
         <v>1447.4359999999999</v>
       </c>
       <c r="C52" s="11">
-        <f>SUM(C46:C51)</f>
+        <f t="shared" si="87"/>
         <v>1167.9739999999999</v>
       </c>
       <c r="D52" s="11">
-        <f>SUM(D46:D51)</f>
+        <f t="shared" si="87"/>
         <v>956.42</v>
       </c>
       <c r="E52" s="11">
-        <f>SUM(E46:E51)</f>
+        <f t="shared" si="87"/>
         <v>818.80200000000013</v>
       </c>
-      <c r="F52" s="149">
-        <f>SUM(F46:F51)</f>
+      <c r="F52" s="11">
+        <f t="shared" si="87"/>
         <v>961.46</v>
       </c>
       <c r="G52" s="14">
-        <f>SUM(G46:G51)</f>
+        <f t="shared" si="87"/>
         <v>1246.4770000000003</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" ref="L52:W52" si="77">SUM(L46:L51)</f>
+        <f t="shared" ref="L52:W52" si="88">SUM(L46:L51)</f>
         <v>0</v>
       </c>
       <c r="M52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>956.42</v>
       </c>
       <c r="P52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>954.43299999999988</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>933.51400000000012</v>
       </c>
       <c r="R52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>932.22</v>
       </c>
       <c r="S52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>818.80200000000013</v>
       </c>
       <c r="T52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>879.94500000000005</v>
       </c>
       <c r="U52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>945.12600000000009</v>
       </c>
       <c r="V52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>921.52</v>
       </c>
       <c r="W52" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>961.46</v>
       </c>
       <c r="X52" s="11">
-        <f t="shared" ref="X52:Z52" si="78">SUM(X46:X51)</f>
+        <f t="shared" ref="X52:Z52" si="89">SUM(X46:X51)</f>
         <v>945.90699999999993</v>
       </c>
       <c r="Y52" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="89"/>
         <v>1054.0740000000001</v>
       </c>
-      <c r="Z52" s="149">
-        <f t="shared" si="78"/>
+      <c r="Z52" s="11">
+        <f t="shared" si="89"/>
         <v>1176.7350000000001</v>
       </c>
-      <c r="AA52" s="14">
-        <f t="shared" ref="AA52" si="79">SUM(AA46:AA51)</f>
+      <c r="AA52" s="154">
+        <f t="shared" ref="AA52:AF52" si="90">SUM(AA46:AA51)</f>
         <v>1246.4770000000003</v>
       </c>
-      <c r="AB52" s="149"/>
-      <c r="AC52" s="149"/>
-      <c r="AD52" s="149"/>
-      <c r="AE52" s="149"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB52" s="154">
+        <f t="shared" si="90"/>
+        <v>1217.9439999999997</v>
+      </c>
+      <c r="AC52" s="154">
+        <f t="shared" si="90"/>
+        <v>1340.124</v>
+      </c>
+      <c r="AD52" s="14">
+        <f t="shared" si="90"/>
+        <v>1425.691</v>
+      </c>
+      <c r="AE52" s="154">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="154">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="10">
-        <f t="shared" ref="B53:E53" si="80">B40-B52</f>
+        <f t="shared" ref="B53:E53" si="91">B40-B52</f>
         <v>146.58900000000017</v>
       </c>
       <c r="C53" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>1522.53</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>2291.0299999999997</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>2642.4369999999999</v>
       </c>
-      <c r="F53" s="147">
+      <c r="F53" s="10">
         <f>F40-F52</f>
         <v>3560.9650000000001</v>
       </c>
@@ -19534,75 +20032,87 @@
         <v>5094.4069999999992</v>
       </c>
       <c r="O53" s="10">
-        <f t="shared" ref="O53:W53" si="81">O40-O52</f>
+        <f t="shared" ref="O53:W53" si="92">O40-O52</f>
         <v>2291.0299999999997</v>
       </c>
       <c r="P53" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>2364.7460000000001</v>
       </c>
       <c r="Q53" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>2348.8239999999996</v>
       </c>
       <c r="R53" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>2386.6149999999998</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>2642.4369999999999</v>
       </c>
       <c r="T53" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>2803.1929999999998</v>
       </c>
       <c r="U53" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>3035.1379999999999</v>
       </c>
       <c r="V53" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>3271.8969999999995</v>
       </c>
       <c r="W53" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>3560.9650000000001</v>
       </c>
       <c r="X53" s="10">
-        <f t="shared" ref="X53:Z53" si="82">X40-X52</f>
+        <f t="shared" ref="X53:Z53" si="93">X40-X52</f>
         <v>3861.1720000000005</v>
       </c>
       <c r="Y53" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="93"/>
         <v>4137.8060000000023</v>
       </c>
-      <c r="Z53" s="147">
-        <f t="shared" si="82"/>
+      <c r="Z53" s="10">
+        <f t="shared" si="93"/>
         <v>4591.3619999999992</v>
       </c>
-      <c r="AA53" s="15">
-        <f t="shared" ref="AA53" si="83">AA40-AA52</f>
+      <c r="AA53" s="152">
+        <f t="shared" ref="AA53:AF53" si="94">AA40-AA52</f>
         <v>5094.4069999999992</v>
       </c>
-      <c r="AB53" s="147"/>
-      <c r="AC53" s="147"/>
-      <c r="AD53" s="147"/>
-      <c r="AE53" s="147"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB53" s="152">
+        <f t="shared" si="94"/>
+        <v>5518.9730000000009</v>
+      </c>
+      <c r="AC53" s="152">
+        <f t="shared" si="94"/>
+        <v>6025.5640000000012</v>
+      </c>
+      <c r="AD53" s="15">
+        <f t="shared" si="94"/>
+        <v>6688.2690000000011</v>
+      </c>
+      <c r="AE53" s="152">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="152">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S54" s="114"/>
       <c r="T54" s="114"/>
       <c r="U54" s="114"/>
       <c r="V54" s="114"/>
       <c r="W54" s="114"/>
       <c r="X54" s="114"/>
-      <c r="AB54" s="146"/>
-      <c r="AC54" s="146"/>
-      <c r="AD54" s="146"/>
-      <c r="AE54" s="146"/>
-    </row>
-    <row r="55" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
@@ -19619,35 +20129,35 @@
       </c>
       <c r="G55" s="16"/>
       <c r="Q55" s="114">
-        <f t="shared" ref="Q55:AA55" si="84">Q10/Q32</f>
+        <f t="shared" ref="Q55:AF55" si="95">Q10/Q32</f>
         <v>3.360544525538881E-4</v>
       </c>
       <c r="R55" s="114">
-        <f t="shared" si="84"/>
+        <f t="shared" si="95"/>
         <v>1.8331745377073477E-3</v>
       </c>
       <c r="S55" s="114">
-        <f t="shared" si="84"/>
+        <f t="shared" si="95"/>
         <v>4.247769901560108E-3</v>
       </c>
       <c r="T55" s="114">
-        <f t="shared" ref="T55:X55" si="85">T10/T33</f>
+        <f t="shared" ref="T55:X55" si="96">T10/T33</f>
         <v>1.193928272828893E-2</v>
       </c>
       <c r="U55" s="114">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1.4161378068693404E-2</v>
       </c>
       <c r="V55" s="114">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1.6102429317280533E-2</v>
       </c>
       <c r="W55" s="114">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1.5619746110979021E-2</v>
       </c>
       <c r="X55" s="114">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1.2950513694947171E-2</v>
       </c>
       <c r="Y55" s="114">
@@ -19658,26 +20168,34 @@
         <f>Z10/Z33</f>
         <v>1.3730426831340462E-2</v>
       </c>
-      <c r="AA55" s="47">
-        <f t="shared" si="84"/>
+      <c r="AA55" s="114">
+        <f t="shared" si="95"/>
         <v>2.6078805865455912E-2</v>
       </c>
-      <c r="AB55" s="114"/>
-      <c r="AC55" s="114"/>
-      <c r="AD55" s="114"/>
+      <c r="AB55" s="114">
+        <f t="shared" si="95"/>
+        <v>5.0772851356465858E-2</v>
+      </c>
+      <c r="AC55" s="114">
+        <f t="shared" si="95"/>
+        <v>6.0518725787937565E-2</v>
+      </c>
+      <c r="AD55" s="47">
+        <f t="shared" si="95"/>
+        <v>3.6982190849194317E-2</v>
+      </c>
       <c r="AE55" s="114"/>
-    </row>
-    <row r="73" spans="6:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F73" s="154"/>
+      <c r="AF55" s="114"/>
+    </row>
+    <row r="73" spans="7:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G73" s="40"/>
-      <c r="Z73" s="154"/>
-      <c r="AA73" s="40"/>
-    </row>
-    <row r="74" spans="6:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F74" s="155"/>
+      <c r="AA73" s="158"/>
+      <c r="AD73" s="40"/>
+    </row>
+    <row r="74" spans="7:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G74" s="16"/>
-      <c r="Z74" s="155"/>
-      <c r="AA74" s="16"/>
+      <c r="AA74" s="159"/>
+      <c r="AD74" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -19694,13 +20212,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94DE6C0-DA6D-48AB-AC4C-2E31F4D71E11}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19708,7 +20226,7 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>202</v>
       </c>
@@ -19766,8 +20284,20 @@
       <c r="T1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>208</v>
+      </c>
+      <c r="V1" t="s">
+        <v>210</v>
+      </c>
+      <c r="W1" t="s">
+        <v>211</v>
+      </c>
+      <c r="X1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -19822,8 +20352,23 @@
       <c r="R2">
         <v>295</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>321</v>
+      </c>
+      <c r="T2">
+        <v>382</v>
+      </c>
+      <c r="U2">
+        <v>432</v>
+      </c>
+      <c r="V2">
+        <v>485</v>
+      </c>
+      <c r="W2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -19881,10 +20426,26 @@
       </c>
       <c r="S3" s="3">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.77348066298342544</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3" si="1">T2/P2-1</f>
+        <v>0.72850678733031682</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3" si="2">U2/Q2-1</f>
+        <v>0.64885496183206115</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3" si="3">V2/R2-1</f>
+        <v>0.64406779661016955</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" ref="W3" si="4">W2/S2-1</f>
+        <v>0.65109034267912769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -19903,8 +20464,23 @@
       <c r="R5">
         <v>593</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>629</v>
+      </c>
+      <c r="T5">
+        <v>711</v>
+      </c>
+      <c r="U5">
+        <v>769</v>
+      </c>
+      <c r="V5">
+        <v>849</v>
+      </c>
+      <c r="W5">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -19922,6 +20498,21 @@
       </c>
       <c r="R7">
         <v>467</v>
+      </c>
+      <c r="S7">
+        <v>498</v>
+      </c>
+      <c r="T7">
+        <v>571</v>
+      </c>
+      <c r="U7">
+        <v>622</v>
+      </c>
+      <c r="V7">
+        <v>692</v>
+      </c>
+      <c r="W7">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -29033,14 +29624,14 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="137"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
@@ -29546,10 +30137,10 @@
         <f t="shared" si="0"/>
         <v>4.8811013767209088E-2</v>
       </c>
-      <c r="G17" s="141" t="s">
+      <c r="G17" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="142"/>
+      <c r="H17" s="148"/>
       <c r="L17" s="78"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -29563,8 +30154,8 @@
         <f t="shared" si="0"/>
         <v>-6.9306930693069368E-2</v>
       </c>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="150"/>
       <c r="L18" s="78"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -30122,14 +30713,14 @@
         <f t="shared" si="0"/>
         <v>6.9100391134289341E-2</v>
       </c>
-      <c r="G43" s="138" t="s">
+      <c r="G43" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="140"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="146"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
